--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="cdsc" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -523,7 +523,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -167,8 +167,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -212,10 +213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -523,14 +526,15 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -541,10 +545,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -561,10 +565,10 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>45904.4453125</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>45909.56177083333</v>
       </c>
       <c r="E2" s="2"/>
@@ -579,10 +583,9 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>45906.578356481485</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3" s="2">
         <v>45910.311261574076</v>
       </c>
@@ -597,10 +600,10 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>45905.534791666665</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>45909.203703703701</v>
       </c>
       <c r="E4" s="2"/>
@@ -615,10 +618,10 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>45902.230208333334</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>45905.834178240744</v>
       </c>
       <c r="E5" s="2"/>
@@ -633,10 +636,10 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>45902.056701388887</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>45905.500868055555</v>
       </c>
       <c r="E6" s="2"/>
@@ -651,10 +654,10 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>45905.263715277775</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>45908.553703703707</v>
       </c>
       <c r="E7" s="2"/>
@@ -669,10 +672,10 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>45906.271747685183</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>45909.218194444446</v>
       </c>
       <c r="E8" s="2"/>
@@ -687,10 +690,9 @@
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>45907.567233796297</v>
       </c>
-      <c r="D9" s="2"/>
       <c r="E9" s="2">
         <v>45910.311261574076</v>
       </c>
@@ -705,10 +707,9 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>45907.570555555554</v>
       </c>
-      <c r="D10" s="2"/>
       <c r="E10" s="2">
         <v>45910.311261574076</v>
       </c>
@@ -723,10 +724,10 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>45904.095752314817</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>45906.629687499997</v>
       </c>
       <c r="E11" s="2"/>
@@ -741,10 +742,10 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>45906.25440972222</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>45908.543657407405</v>
       </c>
       <c r="E12" s="2"/>
@@ -759,10 +760,10 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>45904.238113425927</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>45906.537569444445</v>
       </c>
       <c r="E13" s="2"/>
@@ -777,10 +778,10 @@
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>45902.031944444447</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>45904.216631944444</v>
       </c>
       <c r="E14" s="2"/>
@@ -795,10 +796,10 @@
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>45907.401435185187</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>45909.52579861111</v>
       </c>
       <c r="E15" s="2"/>
@@ -813,10 +814,10 @@
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>45905.060277777775</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>45907.134097222224</v>
       </c>
       <c r="E16" s="2"/>
@@ -831,10 +832,10 @@
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>45903.0937037037</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>45905.186064814814</v>
       </c>
       <c r="E17" s="2"/>
@@ -849,10 +850,10 @@
       <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>45907.522546296299</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>45909.570775462962</v>
       </c>
       <c r="E18" s="2"/>
@@ -867,10 +868,10 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>45902.027557870373</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>45904.000578703701</v>
       </c>
       <c r="E19" s="2"/>
@@ -885,10 +886,10 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>45903.038356481484</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>45905.020983796298</v>
       </c>
       <c r="E20" s="2"/>
@@ -903,10 +904,10 @@
       <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>45903.579016203701</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>45905.501250000001</v>
       </c>
       <c r="E21" s="2"/>
@@ -921,10 +922,10 @@
       <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>45908.082407407404</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>45910.006041666667</v>
       </c>
       <c r="E22" s="2"/>
@@ -939,10 +940,10 @@
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>45906.549328703702</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>45908.533761574072</v>
       </c>
       <c r="E23" s="2"/>
@@ -957,10 +958,10 @@
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>45905.58865740741</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>45907.541539351849</v>
       </c>
       <c r="E24" s="2"/>
@@ -975,10 +976,10 @@
       <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>45906.091840277775</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>45908.0002662037</v>
       </c>
       <c r="E25" s="2"/>
@@ -993,10 +994,10 @@
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>45903.560266203705</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
         <v>45905.407696759263</v>
       </c>
       <c r="E26" s="2"/>
@@ -1011,10 +1012,10 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>45901.550439814811</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>45903.3437962963</v>
       </c>
       <c r="E27" s="2"/>
@@ -1029,10 +1030,10 @@
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>45904.367662037039</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>45906.129490740743</v>
       </c>
       <c r="E28" s="2"/>
@@ -1047,10 +1048,9 @@
       <c r="B29" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>45908.525706018518</v>
       </c>
-      <c r="D29" s="2"/>
       <c r="E29" s="2">
         <v>45910.311261574076</v>
       </c>
@@ -1065,10 +1065,9 @@
       <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>45908.570474537039</v>
       </c>
-      <c r="D30" s="2"/>
       <c r="E30" s="2">
         <v>45910.311261574076</v>
       </c>
@@ -1083,10 +1082,9 @@
       <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>45908.550717592596</v>
       </c>
-      <c r="D31" s="2"/>
       <c r="E31" s="2">
         <v>45910.311261574076</v>
       </c>
@@ -1101,10 +1099,9 @@
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>45908.552488425928</v>
       </c>
-      <c r="D32" s="2"/>
       <c r="E32" s="2">
         <v>45910.311261574076</v>
       </c>
@@ -1119,10 +1116,9 @@
       <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>45908.603506944448</v>
       </c>
-      <c r="D33" s="2"/>
       <c r="E33" s="2">
         <v>45910.311261574076</v>
       </c>
@@ -1137,10 +1133,10 @@
       <c r="B34" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <v>45906.348958333336</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="4">
         <v>45908.012199074074</v>
       </c>
       <c r="E34" s="2"/>
@@ -1155,10 +1151,10 @@
       <c r="B35" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>45903.75744212963</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="4">
         <v>45905.312962962962</v>
       </c>
       <c r="E35" s="2"/>
@@ -1173,10 +1169,10 @@
       <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <v>45907.705949074072</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="4">
         <v>45909.21980324074</v>
       </c>
       <c r="E36" s="2"/>
@@ -1191,10 +1187,10 @@
       <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <v>45907.729745370372</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="4">
         <v>45909.231006944443</v>
       </c>
       <c r="E37" s="2"/>
@@ -1209,10 +1205,10 @@
       <c r="B38" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <v>45903.548900462964</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="4">
         <v>45905.052442129629</v>
       </c>
       <c r="E38" s="2"/>
@@ -1227,10 +1223,10 @@
       <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>45903.531446759262</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>45905.010671296295</v>
       </c>
       <c r="E39" s="2"/>
@@ -1245,10 +1241,10 @@
       <c r="B40" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>45901.03025462963</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="4">
         <v>45902.500243055554</v>
       </c>
       <c r="E40" s="2"/>
@@ -1263,10 +1259,10 @@
       <c r="B41" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>45908.210324074076</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="4">
         <v>45909.712118055555</v>
       </c>
       <c r="E41" s="2"/>
@@ -1281,10 +1277,10 @@
       <c r="B42" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <v>45908.058252314811</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="4">
         <v>45909.559004629627</v>
       </c>
       <c r="E42" s="2"/>
@@ -1299,10 +1295,10 @@
       <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>45906.573877314811</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>45908.008958333332</v>
       </c>
       <c r="E43" s="2"/>
@@ -1317,10 +1313,10 @@
       <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="4">
         <v>45902.025509259256</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="4">
         <v>45903.49627314815</v>
       </c>
       <c r="E44" s="2"/>
@@ -1335,10 +1331,10 @@
       <c r="B45" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>45904.063692129632</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="4">
         <v>45905.506157407406</v>
       </c>
       <c r="E45" s="2"/>
@@ -1353,10 +1349,10 @@
       <c r="B46" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="4">
         <v>45901.560231481482</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="4">
         <v>45903.0312037037</v>
       </c>
       <c r="E46" s="2"/>
@@ -1371,10 +1367,10 @@
       <c r="B47" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="4">
         <v>45902.545347222222</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="4">
         <v>45904.018020833333</v>
       </c>
       <c r="E47" s="2"/>
@@ -1389,10 +1385,10 @@
       <c r="B48" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="4">
         <v>45908.562800925924</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="4">
         <v>45910.003263888888</v>
       </c>
       <c r="E48" s="2"/>
@@ -1407,10 +1403,10 @@
       <c r="B49" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="4">
         <v>45906.065810185188</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="4">
         <v>45907.50099537037</v>
       </c>
       <c r="E49" s="2"/>
@@ -1425,10 +1421,10 @@
       <c r="B50" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="4">
         <v>45903.075219907405</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="4">
         <v>45904.534386574072</v>
       </c>
       <c r="E50" s="2"/>
@@ -1443,10 +1439,10 @@
       <c r="B51" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="4">
         <v>45903.062071759261</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="4">
         <v>45904.471817129626</v>
       </c>
       <c r="E51" s="2"/>
@@ -1461,10 +1457,10 @@
       <c r="B52" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="4">
         <v>45903.625138888892</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="4">
         <v>45905.008043981485</v>
       </c>
       <c r="E52" s="2"/>
@@ -1479,10 +1475,10 @@
       <c r="B53" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="4">
         <v>45906.087141203701</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="4">
         <v>45907.494085648148</v>
       </c>
       <c r="E53" s="2"/>
@@ -1497,10 +1493,10 @@
       <c r="B54" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="4">
         <v>45902.767638888887</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="4">
         <v>45904.084664351853</v>
       </c>
       <c r="E54" s="2"/>
@@ -1515,10 +1511,10 @@
       <c r="B55" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="4">
         <v>45907.194444444445</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="4">
         <v>45908.530740740738</v>
       </c>
       <c r="E55" s="2"/>
@@ -1533,10 +1529,9 @@
       <c r="B56" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="4">
         <v>45909.039467592593</v>
       </c>
-      <c r="D56" s="2"/>
       <c r="E56" s="2">
         <v>45910.311261574076</v>
       </c>
@@ -1551,10 +1546,10 @@
       <c r="B57" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="4">
         <v>45906.221956018519</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="4">
         <v>45907.510810185187</v>
       </c>
       <c r="E57" s="2"/>
@@ -1569,10 +1564,10 @@
       <c r="B58" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="4">
         <v>45906.810439814813</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="4">
         <v>45908.090266203704</v>
       </c>
       <c r="E58" s="2"/>
@@ -1587,10 +1582,10 @@
       <c r="B59" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="4">
         <v>45907.24454861111</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="4">
         <v>45908.508622685185</v>
       </c>
       <c r="E59" s="2"/>
@@ -1605,10 +1600,10 @@
       <c r="B60" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="4">
         <v>45905.7655787037</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="4">
         <v>45907.012766203705</v>
       </c>
       <c r="E60" s="2"/>
@@ -1623,10 +1618,10 @@
       <c r="B61" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="4">
         <v>45904.257928240739</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="4">
         <v>45905.532916666663</v>
       </c>
       <c r="E61" s="2"/>
@@ -1641,10 +1636,10 @@
       <c r="B62" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="4">
         <v>45903.095196759263</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="4">
         <v>45904.33935185185</v>
       </c>
       <c r="E62" s="2"/>
@@ -1659,10 +1654,10 @@
       <c r="B63" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="4">
         <v>45903.574432870373</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="4">
         <v>45904.814143518517</v>
       </c>
       <c r="E63" s="2"/>
@@ -1677,10 +1672,9 @@
       <c r="B64" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="4">
         <v>45909.053182870368</v>
       </c>
-      <c r="D64" s="2"/>
       <c r="E64" s="2">
         <v>45910.311261574076</v>
       </c>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
   <si>
     <t>电站名称</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>301号直流</t>
+  </si>
+  <si>
+    <t>B04号直流</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -217,8 +220,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -523,10 +526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -587,117 +591,117 @@
         <v>45906.578356481485</v>
       </c>
       <c r="E3" s="2">
-        <v>45910.311261574076</v>
+        <v>45911.324201388888</v>
       </c>
       <c r="F3">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4">
-        <v>45905.534791666665</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45909.203703703701</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>45907.567233796297</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45911.324201388888</v>
+      </c>
       <c r="F4">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
-        <v>45902.230208333334</v>
+        <v>45905.534791666665</v>
       </c>
       <c r="D5" s="4">
-        <v>45905.834178240744</v>
+        <v>45909.203703703701</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>45902.056701388887</v>
+        <v>45902.230208333334</v>
       </c>
       <c r="D6" s="4">
-        <v>45905.500868055555</v>
+        <v>45905.834178240744</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>45905.263715277775</v>
+        <v>45902.056701388887</v>
       </c>
       <c r="D7" s="4">
-        <v>45908.553703703707</v>
+        <v>45905.500868055555</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
-        <v>45906.271747685183</v>
+        <v>45905.263715277775</v>
       </c>
       <c r="D8" s="4">
-        <v>45909.218194444446</v>
+        <v>45908.553703703707</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4">
-        <v>45907.567233796297</v>
-      </c>
-      <c r="E9" s="2">
-        <v>45910.311261574076</v>
-      </c>
+        <v>45906.271747685183</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45909.218194444446</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -710,11 +714,12 @@
       <c r="C10" s="4">
         <v>45907.570555555554</v>
       </c>
-      <c r="E10" s="2">
-        <v>45910.311261574076</v>
-      </c>
+      <c r="D10" s="4">
+        <v>45910.500289351854</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -722,35 +727,33 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4">
-        <v>45904.095752314817</v>
-      </c>
-      <c r="D11" s="4">
-        <v>45906.629687499997</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>45908.525706018518</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45911.324201388888</v>
+      </c>
       <c r="F11">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4">
-        <v>45906.25440972222</v>
-      </c>
-      <c r="D12" s="4">
-        <v>45908.543657407405</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>45908.550717592596</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45911.324201388888</v>
+      </c>
       <c r="F12">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -758,17 +761,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4">
-        <v>45904.238113425927</v>
-      </c>
-      <c r="D13" s="4">
-        <v>45906.537569444445</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>45908.603506944448</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45911.324201388888</v>
+      </c>
       <c r="F13">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -776,35 +778,35 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4">
-        <v>45902.031944444447</v>
+        <v>45904.095752314817</v>
       </c>
       <c r="D14" s="4">
-        <v>45904.216631944444</v>
+        <v>45906.629687499997</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4">
-        <v>45907.401435185187</v>
+        <v>45906.25440972222</v>
       </c>
       <c r="D15" s="4">
-        <v>45909.52579861111</v>
+        <v>45908.543657407405</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -812,17 +814,17 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>45905.060277777775</v>
+        <v>45904.238113425927</v>
       </c>
       <c r="D16" s="4">
-        <v>45907.134097222224</v>
+        <v>45906.537569444445</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -830,17 +832,16 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4">
-        <v>45903.0937037037</v>
-      </c>
-      <c r="D17" s="4">
-        <v>45905.186064814814</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>45909.053182870368</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45911.324201388888</v>
+      </c>
       <c r="F17">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -848,89 +849,88 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4">
-        <v>45907.522546296299</v>
+        <v>45902.031944444447</v>
       </c>
       <c r="D18" s="4">
-        <v>45909.570775462962</v>
+        <v>45904.216631944444</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4">
-        <v>45902.027557870373</v>
+        <v>45907.401435185187</v>
       </c>
       <c r="D19" s="4">
-        <v>45904.000578703701</v>
+        <v>45909.52579861111</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4">
-        <v>45903.038356481484</v>
-      </c>
-      <c r="D20" s="4">
-        <v>45905.020983796298</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>45909.236574074072</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45911.324201388888</v>
+      </c>
       <c r="F20">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4">
-        <v>45903.579016203701</v>
+        <v>45905.060277777775</v>
       </c>
       <c r="D21" s="4">
-        <v>45905.501250000001</v>
+        <v>45907.134097222224</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4">
-        <v>45908.082407407404</v>
+        <v>45908.552488425928</v>
       </c>
       <c r="D22" s="4">
-        <v>45910.006041666667</v>
+        <v>45910.652662037035</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -938,141 +938,143 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4">
-        <v>45906.549328703702</v>
+        <v>45903.0937037037</v>
       </c>
       <c r="D23" s="4">
-        <v>45908.533761574072</v>
+        <v>45905.186064814814</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>45905.58865740741</v>
+        <v>45907.522546296299</v>
       </c>
       <c r="D24" s="4">
-        <v>45907.541539351849</v>
+        <v>45909.570775462962</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4">
-        <v>45906.091840277775</v>
+        <v>45908.570474537039</v>
       </c>
       <c r="D25" s="4">
-        <v>45908.0002662037</v>
+        <v>45910.550486111111</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C26" s="4">
-        <v>45903.560266203705</v>
+        <v>45902.027557870373</v>
       </c>
       <c r="D26" s="4">
-        <v>45905.407696759263</v>
+        <v>45904.000578703701</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C27" s="4">
-        <v>45901.550439814811</v>
+        <v>45903.038356481484</v>
       </c>
       <c r="D27" s="4">
-        <v>45903.3437962963</v>
+        <v>45905.020983796298</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C28" s="4">
-        <v>45904.367662037039</v>
+        <v>45903.579016203701</v>
       </c>
       <c r="D28" s="4">
-        <v>45906.129490740743</v>
+        <v>45905.501250000001</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C29" s="4">
-        <v>45908.525706018518</v>
-      </c>
-      <c r="E29" s="2">
-        <v>45910.311261574076</v>
-      </c>
+        <v>45908.082407407404</v>
+      </c>
+      <c r="D29" s="4">
+        <v>45910.006041666667</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" s="4">
-        <v>45908.570474537039</v>
-      </c>
-      <c r="E30" s="2">
-        <v>45910.311261574076</v>
-      </c>
+        <v>45906.549328703702</v>
+      </c>
+      <c r="D30" s="4">
+        <v>45908.533761574072</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1083,13 +1085,14 @@
         <v>23</v>
       </c>
       <c r="C31" s="4">
-        <v>45908.550717592596</v>
-      </c>
-      <c r="E31" s="2">
-        <v>45910.311261574076</v>
-      </c>
+        <v>45905.58865740741</v>
+      </c>
+      <c r="D31" s="4">
+        <v>45907.541539351849</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1097,123 +1100,124 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C32" s="4">
-        <v>45908.552488425928</v>
-      </c>
-      <c r="E32" s="2">
-        <v>45910.311261574076</v>
-      </c>
+        <v>45906.091840277775</v>
+      </c>
+      <c r="D32" s="4">
+        <v>45908.0002662037</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C33" s="4">
-        <v>45908.603506944448</v>
-      </c>
-      <c r="E33" s="2">
-        <v>45910.311261574076</v>
-      </c>
+        <v>45903.560266203705</v>
+      </c>
+      <c r="D33" s="4">
+        <v>45905.407696759263</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="4">
-        <v>45906.348958333336</v>
+        <v>45904.367662037039</v>
       </c>
       <c r="D34" s="4">
-        <v>45908.012199074074</v>
+        <v>45906.129490740743</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C35" s="4">
-        <v>45903.75744212963</v>
+        <v>45901.550439814811</v>
       </c>
       <c r="D35" s="4">
-        <v>45905.312962962962</v>
+        <v>45903.3437962963</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C36" s="4">
-        <v>45907.705949074072</v>
+        <v>45909.261608796296</v>
       </c>
       <c r="D36" s="4">
-        <v>45909.21980324074</v>
+        <v>45911.001076388886</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4">
-        <v>45907.729745370372</v>
-      </c>
-      <c r="D37" s="4">
-        <v>45909.231006944443</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>45909.602083333331</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45911.324201388888</v>
+      </c>
       <c r="F37">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C38" s="4">
-        <v>45903.548900462964</v>
+        <v>45906.348958333336</v>
       </c>
       <c r="D38" s="4">
-        <v>45905.052442129629</v>
+        <v>45908.012199074074</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1221,17 +1225,17 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" s="4">
-        <v>45903.531446759262</v>
+        <v>45903.75744212963</v>
       </c>
       <c r="D39" s="4">
-        <v>45905.010671296295</v>
+        <v>45905.312962962962</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1239,17 +1243,17 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C40" s="4">
-        <v>45901.03025462963</v>
+        <v>45907.705949074072</v>
       </c>
       <c r="D40" s="4">
-        <v>45902.500243055554</v>
+        <v>45909.21980324074</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1257,13 +1261,13 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C41" s="4">
-        <v>45908.210324074076</v>
+        <v>45908.058252314811</v>
       </c>
       <c r="D41" s="4">
-        <v>45909.712118055555</v>
+        <v>45909.559004629627</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
@@ -1278,10 +1282,10 @@
         <v>17</v>
       </c>
       <c r="C42" s="4">
-        <v>45908.058252314811</v>
+        <v>45909.579212962963</v>
       </c>
       <c r="D42" s="4">
-        <v>45909.559004629627</v>
+        <v>45911.07608796296</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
@@ -1290,56 +1294,56 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C43" s="4">
-        <v>45906.573877314811</v>
+        <v>45903.531446759262</v>
       </c>
       <c r="D43" s="4">
-        <v>45908.008958333332</v>
+        <v>45905.010671296295</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C44" s="4">
-        <v>45902.025509259256</v>
+        <v>45908.210324074076</v>
       </c>
       <c r="D44" s="4">
-        <v>45903.49627314815</v>
+        <v>45909.712118055555</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45" s="4">
-        <v>45904.063692129632</v>
+        <v>45901.03025462963</v>
       </c>
       <c r="D45" s="4">
-        <v>45905.506157407406</v>
+        <v>45902.500243055554</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -1347,67 +1351,66 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C46" s="4">
-        <v>45901.560231481482</v>
+        <v>45907.729745370372</v>
       </c>
       <c r="D46" s="4">
-        <v>45903.0312037037</v>
+        <v>45909.231006944443</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C47" s="4">
-        <v>45902.545347222222</v>
+        <v>45903.548900462964</v>
       </c>
       <c r="D47" s="4">
-        <v>45904.018020833333</v>
+        <v>45905.052442129629</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C48" s="4">
-        <v>45908.562800925924</v>
-      </c>
-      <c r="D48" s="4">
-        <v>45910.003263888888</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>45909.799317129633</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45911.324201388888</v>
+      </c>
       <c r="F48">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49" s="4">
-        <v>45906.065810185188</v>
+        <v>45902.025509259256</v>
       </c>
       <c r="D49" s="4">
-        <v>45907.50099537037</v>
+        <v>45903.49627314815</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
@@ -1437,71 +1440,71 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C51" s="4">
-        <v>45903.062071759261</v>
+        <v>45902.545347222222</v>
       </c>
       <c r="D51" s="4">
-        <v>45904.471817129626</v>
+        <v>45904.018020833333</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C52" s="4">
-        <v>45903.625138888892</v>
+        <v>45908.562800925924</v>
       </c>
       <c r="D52" s="4">
-        <v>45905.008043981485</v>
+        <v>45910.003263888888</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C53" s="4">
-        <v>45906.087141203701</v>
+        <v>45906.065810185188</v>
       </c>
       <c r="D53" s="4">
-        <v>45907.494085648148</v>
+        <v>45907.50099537037</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C54" s="4">
-        <v>45902.767638888887</v>
+        <v>45904.063692129632</v>
       </c>
       <c r="D54" s="4">
-        <v>45904.084664351853</v>
+        <v>45905.506157407406</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -1509,17 +1512,17 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C55" s="4">
-        <v>45907.194444444445</v>
+        <v>45901.560231481482</v>
       </c>
       <c r="D55" s="4">
-        <v>45908.530740740738</v>
+        <v>45903.0312037037</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -1527,16 +1530,17 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C56" s="4">
-        <v>45909.039467592593</v>
-      </c>
-      <c r="E56" s="2">
-        <v>45910.311261574076</v>
-      </c>
+        <v>45906.573877314811</v>
+      </c>
+      <c r="D56" s="4">
+        <v>45908.008958333332</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -1544,107 +1548,107 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C57" s="4">
-        <v>45906.221956018519</v>
+        <v>45903.062071759261</v>
       </c>
       <c r="D57" s="4">
-        <v>45907.510810185187</v>
+        <v>45904.471817129626</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C58" s="4">
-        <v>45906.810439814813</v>
+        <v>45903.625138888892</v>
       </c>
       <c r="D58" s="4">
-        <v>45908.090266203704</v>
+        <v>45905.008043981485</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C59" s="4">
-        <v>45907.24454861111</v>
+        <v>45906.087141203701</v>
       </c>
       <c r="D59" s="4">
-        <v>45908.508622685185</v>
+        <v>45907.494085648148</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C60" s="4">
-        <v>45905.7655787037</v>
+        <v>45907.194444444445</v>
       </c>
       <c r="D60" s="4">
-        <v>45907.012766203705</v>
+        <v>45908.530740740738</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C61" s="4">
-        <v>45904.257928240739</v>
+        <v>45902.767638888887</v>
       </c>
       <c r="D61" s="4">
-        <v>45905.532916666663</v>
+        <v>45904.084664351853</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C62" s="4">
-        <v>45903.095196759263</v>
+        <v>45909.039467592593</v>
       </c>
       <c r="D62" s="4">
-        <v>45904.33935185185</v>
+        <v>45910.373379629629</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -1652,17 +1656,17 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C63" s="4">
-        <v>45903.574432870373</v>
+        <v>45906.810439814813</v>
       </c>
       <c r="D63" s="4">
-        <v>45904.814143518517</v>
+        <v>45908.090266203704</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -1670,15 +1674,172 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C64" s="4">
-        <v>45909.053182870368</v>
-      </c>
-      <c r="E64" s="2">
-        <v>45910.311261574076</v>
-      </c>
+        <v>45906.221956018519</v>
+      </c>
+      <c r="D64" s="4">
+        <v>45907.510810185187</v>
+      </c>
+      <c r="E64" s="2"/>
       <c r="F64">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="4">
+        <v>45910.021134259259</v>
+      </c>
+      <c r="E65" s="4">
+        <v>45911.324201388888</v>
+      </c>
+      <c r="F65">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="4">
+        <v>45910.029456018521</v>
+      </c>
+      <c r="E66" s="4">
+        <v>45911.324201388888</v>
+      </c>
+      <c r="F66">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="4">
+        <v>45907.24454861111</v>
+      </c>
+      <c r="D67" s="4">
+        <v>45908.508622685185</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="4">
+        <v>45903.574432870373</v>
+      </c>
+      <c r="D68" s="4">
+        <v>45904.814143518517</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="4">
+        <v>45904.257928240739</v>
+      </c>
+      <c r="D69" s="4">
+        <v>45905.532916666663</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="4">
+        <v>45910.054398148146</v>
+      </c>
+      <c r="E70" s="4">
+        <v>45911.324201388888</v>
+      </c>
+      <c r="F70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="4">
+        <v>45903.095196759263</v>
+      </c>
+      <c r="D71" s="4">
+        <v>45904.33935185185</v>
+      </c>
+      <c r="F71">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="4">
+        <v>45909.260914351849</v>
+      </c>
+      <c r="D72" s="4">
+        <v>45910.524594907409</v>
+      </c>
+      <c r="F72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="4">
+        <v>45905.7655787037</v>
+      </c>
+      <c r="D73" s="4">
+        <v>45907.012766203705</v>
+      </c>
+      <c r="F73">
         <v>30</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$F$73</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="69">
   <si>
     <t>电站名称</t>
   </si>
@@ -164,6 +167,63 @@
   </si>
   <si>
     <t>B04号直流</t>
+  </si>
+  <si>
+    <t>905号直流</t>
+  </si>
+  <si>
+    <t>B01号直流</t>
+  </si>
+  <si>
+    <t>307号直流</t>
+  </si>
+  <si>
+    <t>102号直流</t>
+  </si>
+  <si>
+    <t>705号直流</t>
+  </si>
+  <si>
+    <t>404号直流</t>
+  </si>
+  <si>
+    <t>A04号直流</t>
+  </si>
+  <si>
+    <t>704号直流</t>
+  </si>
+  <si>
+    <t>A05号直流</t>
+  </si>
+  <si>
+    <t>108号直流</t>
+  </si>
+  <si>
+    <t>203号直流</t>
+  </si>
+  <si>
+    <t>A01号直流</t>
+  </si>
+  <si>
+    <t>605号直流</t>
+  </si>
+  <si>
+    <t>403号直流</t>
+  </si>
+  <si>
+    <t>A03号直流</t>
+  </si>
+  <si>
+    <t>110号直流</t>
+  </si>
+  <si>
+    <t>111号直流</t>
+  </si>
+  <si>
+    <t>405号直流</t>
+  </si>
+  <si>
+    <t>002B号直流</t>
   </si>
 </sst>
 </file>
@@ -527,10 +587,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1843,6 +1903,1077 @@
         <v>30</v>
       </c>
     </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="4">
+        <v>45910.067824074074</v>
+      </c>
+      <c r="D74" s="4">
+        <v>45911.284560185188</v>
+      </c>
+      <c r="F74">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="4">
+        <v>45901.125694444447</v>
+      </c>
+      <c r="D75" s="4">
+        <v>45902.348506944443</v>
+      </c>
+      <c r="F75">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="4">
+        <v>45907.051342592589</v>
+      </c>
+      <c r="D76" s="4">
+        <v>45908.250138888892</v>
+      </c>
+      <c r="F76">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="4">
+        <v>45903.550567129627</v>
+      </c>
+      <c r="D77" s="4">
+        <v>45904.756435185183</v>
+      </c>
+      <c r="F77">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="4">
+        <v>45903.346064814818</v>
+      </c>
+      <c r="D78" s="4">
+        <v>45904.573182870372</v>
+      </c>
+      <c r="F78">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="4">
+        <v>45905.566099537034</v>
+      </c>
+      <c r="D79" s="4">
+        <v>45906.734594907408</v>
+      </c>
+      <c r="F79">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="4">
+        <v>45907.048576388886</v>
+      </c>
+      <c r="D80" s="4">
+        <v>45908.228101851855</v>
+      </c>
+      <c r="F80">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="4">
+        <v>45901.038946759261</v>
+      </c>
+      <c r="D81" s="4">
+        <v>45902.182835648149</v>
+      </c>
+      <c r="F81">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="4">
+        <v>45907.389652777776</v>
+      </c>
+      <c r="D82" s="4">
+        <v>45908.550567129627</v>
+      </c>
+      <c r="F82">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="4">
+        <v>45904.03466435185</v>
+      </c>
+      <c r="D83" s="4">
+        <v>45905.192037037035</v>
+      </c>
+      <c r="F83">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="4">
+        <v>45909.373738425929</v>
+      </c>
+      <c r="D84" s="4">
+        <v>45910.524085648147</v>
+      </c>
+      <c r="F84">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="4">
+        <v>45907.094305555554</v>
+      </c>
+      <c r="D85" s="4">
+        <v>45908.213356481479</v>
+      </c>
+      <c r="F85">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="4">
+        <v>45909.091203703705</v>
+      </c>
+      <c r="D86" s="4">
+        <v>45910.220127314817</v>
+      </c>
+      <c r="F86">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="4">
+        <v>45906.042974537035</v>
+      </c>
+      <c r="D87" s="4">
+        <v>45907.169976851852</v>
+      </c>
+      <c r="F87">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="4">
+        <v>45906.575902777775</v>
+      </c>
+      <c r="D88" s="4">
+        <v>45907.67150462963</v>
+      </c>
+      <c r="F88">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="4">
+        <v>45909.514016203706</v>
+      </c>
+      <c r="D89" s="4">
+        <v>45910.611180555556</v>
+      </c>
+      <c r="F89">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="4">
+        <v>45906.047337962962</v>
+      </c>
+      <c r="D90" s="4">
+        <v>45907.137569444443</v>
+      </c>
+      <c r="F90">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="4">
+        <v>45908.118969907409</v>
+      </c>
+      <c r="D91" s="4">
+        <v>45909.179571759261</v>
+      </c>
+      <c r="F91">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="4">
+        <v>45910.247546296298</v>
+      </c>
+      <c r="E92" s="4">
+        <v>45911.324201388888</v>
+      </c>
+      <c r="F92">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="4">
+        <v>45902.027233796296</v>
+      </c>
+      <c r="D93" s="4">
+        <v>45903.087951388887</v>
+      </c>
+      <c r="F93">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="4">
+        <v>45907.134444444448</v>
+      </c>
+      <c r="D94" s="4">
+        <v>45908.224537037036</v>
+      </c>
+      <c r="F94">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="4">
+        <v>45901.259722222225</v>
+      </c>
+      <c r="D95" s="4">
+        <v>45902.373217592591</v>
+      </c>
+      <c r="F95">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="4">
+        <v>45909.039143518516</v>
+      </c>
+      <c r="D96" s="4">
+        <v>45910.102083333331</v>
+      </c>
+      <c r="F96">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="4">
+        <v>45901.470590277779</v>
+      </c>
+      <c r="D97" s="4">
+        <v>45902.562650462962</v>
+      </c>
+      <c r="F97">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="4">
+        <v>45910.196134259262</v>
+      </c>
+      <c r="D98" s="4">
+        <v>45911.248784722222</v>
+      </c>
+      <c r="F98">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="4">
+        <v>45908.19803240741</v>
+      </c>
+      <c r="D99" s="4">
+        <v>45909.213159722225</v>
+      </c>
+      <c r="F99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="4">
+        <v>45907.620358796295</v>
+      </c>
+      <c r="D100" s="4">
+        <v>45908.656805555554</v>
+      </c>
+      <c r="F100">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="4">
+        <v>45908.567731481482</v>
+      </c>
+      <c r="D101" s="4">
+        <v>45909.606053240743</v>
+      </c>
+      <c r="F101">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="4">
+        <v>45905.577847222223</v>
+      </c>
+      <c r="D102" s="4">
+        <v>45906.623020833336</v>
+      </c>
+      <c r="F102">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="4">
+        <v>45901.148784722223</v>
+      </c>
+      <c r="D103" s="4">
+        <v>45902.167685185188</v>
+      </c>
+      <c r="F103">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>62</v>
+      </c>
+      <c r="C104" s="4">
+        <v>45901.158136574071</v>
+      </c>
+      <c r="D104" s="4">
+        <v>45902.190081018518</v>
+      </c>
+      <c r="F104">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="4">
+        <v>45903.08121527778</v>
+      </c>
+      <c r="D105" s="4">
+        <v>45904.113680555558</v>
+      </c>
+      <c r="F105">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>64</v>
+      </c>
+      <c r="C106" s="4">
+        <v>45903.038553240738</v>
+      </c>
+      <c r="D106" s="4">
+        <v>45904.044745370367</v>
+      </c>
+      <c r="F106">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="4">
+        <v>45908.570671296293</v>
+      </c>
+      <c r="D107" s="4">
+        <v>45909.609884259262</v>
+      </c>
+      <c r="F107">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="4">
+        <v>45901.569282407407</v>
+      </c>
+      <c r="D108" s="4">
+        <v>45902.593414351853</v>
+      </c>
+      <c r="F108">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="4">
+        <v>45906.5156712963</v>
+      </c>
+      <c r="D109" s="4">
+        <v>45907.565092592595</v>
+      </c>
+      <c r="F109">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="4">
+        <v>45909.239444444444</v>
+      </c>
+      <c r="D110" s="4">
+        <v>45910.265706018516</v>
+      </c>
+      <c r="F110">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="4">
+        <v>45904.531631944446</v>
+      </c>
+      <c r="D111" s="4">
+        <v>45905.530775462961</v>
+      </c>
+      <c r="F111">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" s="4">
+        <v>45909.029490740744</v>
+      </c>
+      <c r="D112" s="4">
+        <v>45910.00445601852</v>
+      </c>
+      <c r="F112">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="4">
+        <v>45903.551539351851</v>
+      </c>
+      <c r="D113" s="4">
+        <v>45904.543136574073</v>
+      </c>
+      <c r="F113">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="4">
+        <v>45910.02920138889</v>
+      </c>
+      <c r="D114" s="4">
+        <v>45911.005185185182</v>
+      </c>
+      <c r="F114">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" s="4">
+        <v>45907.019560185188</v>
+      </c>
+      <c r="D115" s="4">
+        <v>45908.010844907411</v>
+      </c>
+      <c r="F115">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="4">
+        <v>45903.531400462962</v>
+      </c>
+      <c r="D116" s="4">
+        <v>45904.523900462962</v>
+      </c>
+      <c r="F116">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" s="4">
+        <v>45905.028263888889</v>
+      </c>
+      <c r="D117" s="4">
+        <v>45906.015115740738</v>
+      </c>
+      <c r="F117">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="4">
+        <v>45906.993020833332</v>
+      </c>
+      <c r="D118" s="4">
+        <v>45907.99009259259</v>
+      </c>
+      <c r="F118">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="4">
+        <v>45906.572326388887</v>
+      </c>
+      <c r="D119" s="4">
+        <v>45907.549814814818</v>
+      </c>
+      <c r="F119">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="4">
+        <v>45910.041087962964</v>
+      </c>
+      <c r="D120" s="4">
+        <v>45911.026550925926</v>
+      </c>
+      <c r="F120">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" s="4">
+        <v>45909.531261574077</v>
+      </c>
+      <c r="D121" s="4">
+        <v>45910.523888888885</v>
+      </c>
+      <c r="F121">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" s="4">
+        <v>45904.038356481484</v>
+      </c>
+      <c r="D122" s="4">
+        <v>45905.000960648147</v>
+      </c>
+      <c r="F122">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" s="4">
+        <v>45903.040659722225</v>
+      </c>
+      <c r="D123" s="4">
+        <v>45904.012349537035</v>
+      </c>
+      <c r="F123">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" s="4">
+        <v>45905.033067129632</v>
+      </c>
+      <c r="D124" s="4">
+        <v>45906.00104166667</v>
+      </c>
+      <c r="F124">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="4">
+        <v>45901.038090277776</v>
+      </c>
+      <c r="D125" s="4">
+        <v>45902.001168981478</v>
+      </c>
+      <c r="F125">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="4">
+        <v>45905.558854166666</v>
+      </c>
+      <c r="D126" s="4">
+        <v>45906.555868055555</v>
+      </c>
+      <c r="F126">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="4">
+        <v>45901.116909722223</v>
+      </c>
+      <c r="D127" s="4">
+        <v>45902.102569444447</v>
+      </c>
+      <c r="F127">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="4">
+        <v>45901.538043981483</v>
+      </c>
+      <c r="D128" s="4">
+        <v>45902.527268518519</v>
+      </c>
+      <c r="F128">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="4">
+        <v>45908.923564814817</v>
+      </c>
+      <c r="D129" s="4">
+        <v>45909.953576388885</v>
+      </c>
+      <c r="F129">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" s="4">
+        <v>45907.041504629633</v>
+      </c>
+      <c r="D130" s="4">
+        <v>45908.003831018519</v>
+      </c>
+      <c r="F130">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131" s="4">
+        <v>45902.031307870369</v>
+      </c>
+      <c r="D131" s="4">
+        <v>45903.015347222223</v>
+      </c>
+      <c r="F131">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>68</v>
+      </c>
+      <c r="C132" s="4">
+        <v>45906.520752314813</v>
+      </c>
+      <c r="D132" s="4">
+        <v>45907.527858796297</v>
+      </c>
+      <c r="F132">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" s="4">
+        <v>45909.532372685186</v>
+      </c>
+      <c r="D133" s="4">
+        <v>45910.502280092594</v>
+      </c>
+      <c r="F133">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" s="4">
+        <v>45904.702118055553</v>
+      </c>
+      <c r="D134" s="4">
+        <v>45905.667326388888</v>
+      </c>
+      <c r="F134">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135" s="4">
+        <v>45904.020173611112</v>
+      </c>
+      <c r="D135" s="4">
+        <v>45905.008136574077</v>
+      </c>
+      <c r="F135">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>53</v>
+      </c>
+      <c r="C136" s="4">
+        <v>45902.329155092593</v>
+      </c>
+      <c r="D136" s="4">
+        <v>45903.310069444444</v>
+      </c>
+      <c r="F136">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="70">
   <si>
     <t>电站名称</t>
   </si>
@@ -224,15 +224,17 @@
   </si>
   <si>
     <t>002B号直流</t>
+  </si>
+  <si>
+    <t>107号直流</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -276,12 +278,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -587,19 +587,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -609,10 +607,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -624,37 +622,38 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>45904.4453125</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45909.56177083333</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45906.578356481485</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>45912.3358912037</v>
+      </c>
       <c r="F2">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4">
-        <v>45906.578356481485</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45911.324201388888</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45904.4453125</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45909.56177083333</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -664,14 +663,15 @@
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>45907.567233796297</v>
       </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>45911.324201388888</v>
+        <v>45912.3358912037</v>
       </c>
       <c r="F4">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -679,17 +679,17 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4">
-        <v>45905.534791666665</v>
-      </c>
-      <c r="D5" s="4">
-        <v>45909.203703703701</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45908.550717592596</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>45912.3358912037</v>
+      </c>
       <c r="F5">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -697,17 +697,17 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4">
-        <v>45902.230208333334</v>
-      </c>
-      <c r="D6" s="4">
-        <v>45905.834178240744</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45908.603506944448</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>45912.3358912037</v>
+      </c>
       <c r="F6">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -715,71 +715,71 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>45902.056701388887</v>
-      </c>
-      <c r="D7" s="4">
-        <v>45905.500868055555</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45905.534791666665</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45909.203703703701</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4">
-        <v>45905.263715277775</v>
-      </c>
-      <c r="D8" s="4">
-        <v>45908.553703703707</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45902.230208333334</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45905.834178240744</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4">
-        <v>45906.271747685183</v>
-      </c>
-      <c r="D9" s="4">
-        <v>45909.218194444446</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45908.525706018518</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45912.034201388888</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4">
-        <v>45907.570555555554</v>
-      </c>
-      <c r="D10" s="4">
-        <v>45910.500289351854</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45902.056701388887</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45905.500868055555</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -787,68 +787,71 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4">
-        <v>45908.525706018518</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45909.053182870368</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2">
-        <v>45911.324201388888</v>
+        <v>45912.3358912037</v>
       </c>
       <c r="F11">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4">
-        <v>45908.550717592596</v>
-      </c>
-      <c r="E12" s="2">
-        <v>45911.324201388888</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45905.263715277775</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45908.553703703707</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4">
-        <v>45908.603506944448</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45909.236574074072</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2">
-        <v>45911.324201388888</v>
+        <v>45912.3358912037</v>
       </c>
       <c r="F13">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4">
-        <v>45904.095752314817</v>
-      </c>
-      <c r="D14" s="4">
-        <v>45906.629687499997</v>
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45906.271747685183</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45909.218194444446</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -856,17 +859,17 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4">
-        <v>45906.25440972222</v>
-      </c>
-      <c r="D15" s="4">
-        <v>45908.543657407405</v>
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45907.570555555554</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45910.500289351854</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -874,17 +877,17 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4">
-        <v>45904.238113425927</v>
-      </c>
-      <c r="D16" s="4">
-        <v>45906.537569444445</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45909.602083333331</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>45912.3358912037</v>
+      </c>
       <c r="F16">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -892,16 +895,17 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="4">
-        <v>45909.053182870368</v>
-      </c>
-      <c r="E17" s="2">
-        <v>45911.324201388888</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45904.095752314817</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45906.629687499997</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -909,52 +913,53 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4">
-        <v>45902.031944444447</v>
-      </c>
-      <c r="D18" s="4">
-        <v>45904.216631944444</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45910.021134259259</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>45912.3358912037</v>
+      </c>
       <c r="F18">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4">
-        <v>45907.401435185187</v>
-      </c>
-      <c r="D19" s="4">
-        <v>45909.52579861111</v>
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45906.25440972222</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45908.543657407405</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4">
-        <v>45909.236574074072</v>
-      </c>
-      <c r="E20" s="2">
-        <v>45911.324201388888</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45904.238113425927</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45906.537569444445</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -962,35 +967,35 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="4">
-        <v>45905.060277777775</v>
-      </c>
-      <c r="D21" s="4">
-        <v>45907.134097222224</v>
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45902.031944444447</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45904.216631944444</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="4">
-        <v>45908.552488425928</v>
-      </c>
-      <c r="D22" s="4">
-        <v>45910.652662037035</v>
+        <v>25</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45907.401435185187</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45909.52579861111</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -998,13 +1003,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4">
-        <v>45903.0937037037</v>
-      </c>
-      <c r="D23" s="4">
-        <v>45905.186064814814</v>
+        <v>33</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45908.552488425928</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45910.652662037035</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
@@ -1016,35 +1021,35 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="4">
-        <v>45907.522546296299</v>
-      </c>
-      <c r="D24" s="4">
-        <v>45909.570775462962</v>
+        <v>18</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45903.0937037037</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45905.186064814814</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="4">
-        <v>45908.570474537039</v>
-      </c>
-      <c r="D25" s="4">
-        <v>45910.550486111111</v>
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45905.060277777775</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45907.134097222224</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -1052,33 +1057,33 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="4">
-        <v>45902.027557870373</v>
-      </c>
-      <c r="D26" s="4">
-        <v>45904.000578703701</v>
+        <v>34</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45907.522546296299</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45909.570775462962</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="4">
-        <v>45903.038356481484</v>
-      </c>
-      <c r="D27" s="4">
-        <v>45905.020983796298</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45910.355798611112</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
+        <v>45912.3358912037</v>
+      </c>
       <c r="F27">
         <v>48</v>
       </c>
@@ -1088,35 +1093,35 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="4">
-        <v>45903.579016203701</v>
-      </c>
-      <c r="D28" s="4">
-        <v>45905.501250000001</v>
+        <v>24</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45908.570474537039</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45910.550486111111</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="4">
-        <v>45908.082407407404</v>
-      </c>
-      <c r="D29" s="4">
-        <v>45910.006041666667</v>
+        <v>19</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45903.038356481484</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45905.020983796298</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1124,17 +1129,17 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="4">
-        <v>45906.549328703702</v>
-      </c>
-      <c r="D30" s="4">
-        <v>45908.533761574072</v>
+        <v>20</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45902.027557870373</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45904.000578703701</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1142,107 +1147,107 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="4">
-        <v>45905.58865740741</v>
-      </c>
-      <c r="D31" s="4">
-        <v>45907.541539351849</v>
+        <v>35</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45908.082407407404</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45910.006041666667</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="4">
-        <v>45906.091840277775</v>
-      </c>
-      <c r="D32" s="4">
-        <v>45908.0002662037</v>
+        <v>14</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45903.579016203701</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45905.501250000001</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="4">
-        <v>45903.560266203705</v>
-      </c>
-      <c r="D33" s="4">
-        <v>45905.407696759263</v>
+        <v>21</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45906.549328703702</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45908.533761574072</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="4">
-        <v>45904.367662037039</v>
-      </c>
-      <c r="D34" s="4">
-        <v>45906.129490740743</v>
+        <v>23</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45905.58865740741</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45907.541539351849</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="4">
-        <v>45901.550439814811</v>
-      </c>
-      <c r="D35" s="4">
-        <v>45903.3437962963</v>
+        <v>22</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45906.091840277775</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45908.0002662037</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="4">
-        <v>45909.261608796296</v>
-      </c>
-      <c r="D36" s="4">
-        <v>45911.001076388886</v>
+        <v>24</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45903.560266203705</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45905.407696759263</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -1250,16 +1255,17 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="4">
-        <v>45909.602083333331</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45910.540219907409</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2">
-        <v>45911.324201388888</v>
+        <v>45912.3358912037</v>
       </c>
       <c r="F37">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1267,35 +1273,35 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="4">
-        <v>45906.348958333336</v>
-      </c>
-      <c r="D38" s="4">
-        <v>45908.012199074074</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45910.561724537038</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>45912.3358912037</v>
+      </c>
       <c r="F38">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="4">
-        <v>45903.75744212963</v>
-      </c>
-      <c r="D39" s="4">
-        <v>45905.312962962962</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45910.5781712963</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>45912.3358912037</v>
+      </c>
       <c r="F39">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1305,87 +1311,87 @@
       <c r="B40" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="4">
-        <v>45907.705949074072</v>
-      </c>
-      <c r="D40" s="4">
-        <v>45909.21980324074</v>
+      <c r="C40" s="2">
+        <v>45904.367662037039</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45906.129490740743</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="4">
-        <v>45908.058252314811</v>
-      </c>
-      <c r="D41" s="4">
-        <v>45909.559004629627</v>
+        <v>25</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45901.550439814811</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45903.3437962963</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="4">
-        <v>45909.579212962963</v>
-      </c>
-      <c r="D42" s="4">
-        <v>45911.07608796296</v>
+        <v>13</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45909.261608796296</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45911.001076388886</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4">
-        <v>45903.531446759262</v>
-      </c>
-      <c r="D43" s="4">
-        <v>45905.010671296295</v>
+        <v>25</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45909.799317129633</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45911.513888888891</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="4">
-        <v>45908.210324074076</v>
-      </c>
-      <c r="D44" s="4">
-        <v>45909.712118055555</v>
+        <v>27</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45906.348958333336</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45908.012199074074</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -1393,49 +1399,49 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="4">
-        <v>45901.03025462963</v>
-      </c>
-      <c r="D45" s="4">
-        <v>45902.500243055554</v>
+        <v>28</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45903.75744212963</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45905.312962962962</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="4">
-        <v>45907.729745370372</v>
-      </c>
-      <c r="D46" s="4">
-        <v>45909.231006944443</v>
+        <v>26</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45907.705949074072</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45909.21980324074</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="4">
-        <v>45903.548900462964</v>
-      </c>
-      <c r="D47" s="4">
-        <v>45905.052442129629</v>
+        <v>20</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45908.210324074076</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45909.712118055555</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
@@ -1444,37 +1450,38 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="4">
-        <v>45909.799317129633</v>
-      </c>
-      <c r="E48" s="2">
-        <v>45911.324201388888</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45910.534502314818</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45912.012048611112</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48">
         <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="4">
-        <v>45902.025509259256</v>
-      </c>
-      <c r="D49" s="4">
-        <v>45903.49627314815</v>
+        <v>30</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45903.531446759262</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45905.010671296295</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -1482,17 +1489,17 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="4">
-        <v>45903.075219907405</v>
-      </c>
-      <c r="D50" s="4">
-        <v>45904.534386574072</v>
+        <v>29</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45901.03025462963</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45902.500243055554</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -1500,17 +1507,17 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="4">
-        <v>45902.545347222222</v>
-      </c>
-      <c r="D51" s="4">
-        <v>45904.018020833333</v>
+        <v>17</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45908.058252314811</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45909.559004629627</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -1518,35 +1525,35 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="4">
-        <v>45908.562800925924</v>
-      </c>
-      <c r="D52" s="4">
-        <v>45910.003263888888</v>
+        <v>17</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45909.579212962963</v>
+      </c>
+      <c r="D52" s="2">
+        <v>45911.07608796296</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="4">
-        <v>45906.065810185188</v>
-      </c>
-      <c r="D53" s="4">
-        <v>45907.50099537037</v>
+        <v>45</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45907.729745370372</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45909.231006944443</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -1554,31 +1561,31 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="4">
-        <v>45904.063692129632</v>
-      </c>
-      <c r="D54" s="4">
-        <v>45905.506157407406</v>
+        <v>13</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45903.548900462964</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45905.052442129629</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="4">
-        <v>45901.560231481482</v>
-      </c>
-      <c r="D55" s="4">
-        <v>45903.0312037037</v>
+        <v>36</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45906.573877314811</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45908.008958333332</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
@@ -1587,16 +1594,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="4">
-        <v>45906.573877314811</v>
-      </c>
-      <c r="D56" s="4">
-        <v>45908.008958333332</v>
+        <v>35</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45902.025509259256</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45903.49627314815</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
@@ -1608,107 +1615,107 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="4">
-        <v>45903.062071759261</v>
-      </c>
-      <c r="D57" s="4">
-        <v>45904.471817129626</v>
+        <v>33</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45903.075219907405</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45904.534386574072</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="4">
-        <v>45903.625138888892</v>
-      </c>
-      <c r="D58" s="4">
-        <v>45905.008043981485</v>
+        <v>32</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45902.545347222222</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45904.018020833333</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="4">
-        <v>45906.087141203701</v>
-      </c>
-      <c r="D59" s="4">
-        <v>45907.494085648148</v>
+        <v>46</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45908.562800925924</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45910.003263888888</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="4">
-        <v>45907.194444444445</v>
-      </c>
-      <c r="D60" s="4">
-        <v>45908.530740740738</v>
+        <v>34</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45906.065810185188</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45907.50099537037</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="4">
-        <v>45902.767638888887</v>
-      </c>
-      <c r="D61" s="4">
-        <v>45904.084664351853</v>
+        <v>31</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45904.063692129632</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45905.506157407406</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="4">
-        <v>45909.039467592593</v>
-      </c>
-      <c r="D62" s="4">
-        <v>45910.373379629629</v>
+        <v>13</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45901.560231481482</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45903.0312037037</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -1716,105 +1723,107 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="4">
-        <v>45906.810439814813</v>
-      </c>
-      <c r="D63" s="4">
-        <v>45908.090266203704</v>
+        <v>37</v>
+      </c>
+      <c r="C63" s="2">
+        <v>45903.062071759261</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45904.471817129626</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="4">
-        <v>45906.221956018519</v>
-      </c>
-      <c r="D64" s="4">
-        <v>45907.510810185187</v>
+        <v>39</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45903.625138888892</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45905.008043981485</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" s="4">
-        <v>45910.021134259259</v>
-      </c>
-      <c r="E65" s="4">
-        <v>45911.324201388888</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45906.087141203701</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45907.494085648148</v>
+      </c>
+      <c r="E65" s="2"/>
       <c r="F65">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="4">
-        <v>45910.029456018521</v>
-      </c>
-      <c r="E66" s="4">
-        <v>45911.324201388888</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45902.767638888887</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45904.084664351853</v>
+      </c>
+      <c r="E66" s="2"/>
       <c r="F66">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="4">
-        <v>45907.24454861111</v>
-      </c>
-      <c r="D67" s="4">
-        <v>45908.508622685185</v>
-      </c>
-      <c r="E67" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45909.039467592593</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45910.373379629629</v>
+      </c>
+      <c r="E67" s="2"/>
       <c r="F67">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="4">
-        <v>45903.574432870373</v>
-      </c>
-      <c r="D68" s="4">
-        <v>45904.814143518517</v>
-      </c>
-      <c r="E68" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45911.040381944447</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2">
+        <v>45912.3358912037</v>
+      </c>
       <c r="F68">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -1822,34 +1831,35 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" s="4">
-        <v>45904.257928240739</v>
-      </c>
-      <c r="D69" s="4">
-        <v>45905.532916666663</v>
-      </c>
-      <c r="E69" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45910.054398148146</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45911.384293981479</v>
+      </c>
+      <c r="E69" s="2"/>
       <c r="F69">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" s="4">
-        <v>45910.054398148146</v>
-      </c>
-      <c r="E70" s="4">
-        <v>45911.324201388888</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C70" s="2">
+        <v>45907.194444444445</v>
+      </c>
+      <c r="D70" s="2">
+        <v>45908.530740740738</v>
+      </c>
+      <c r="E70" s="2"/>
       <c r="F70">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -1857,50 +1867,53 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="4">
-        <v>45903.095196759263</v>
-      </c>
-      <c r="D71" s="4">
-        <v>45904.33935185185</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45906.810439814813</v>
+      </c>
+      <c r="D71" s="2">
+        <v>45908.090266203704</v>
+      </c>
+      <c r="E71" s="2"/>
       <c r="F71">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" s="4">
-        <v>45909.260914351849</v>
-      </c>
-      <c r="D72" s="4">
-        <v>45910.524594907409</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45907.24454861111</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45908.508622685185</v>
+      </c>
+      <c r="E72" s="2"/>
       <c r="F72">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="4">
-        <v>45905.7655787037</v>
-      </c>
-      <c r="D73" s="4">
-        <v>45907.012766203705</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45910.029456018521</v>
+      </c>
+      <c r="D73" s="2">
+        <v>45911.331701388888</v>
+      </c>
+      <c r="E73" s="2"/>
       <c r="F73">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -1908,16 +1921,17 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" s="4">
-        <v>45910.067824074074</v>
-      </c>
-      <c r="D74" s="4">
-        <v>45911.284560185188</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45906.221956018519</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45907.510810185187</v>
+      </c>
+      <c r="E74" s="2"/>
       <c r="F74">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
@@ -1925,135 +1939,143 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="4">
-        <v>45901.125694444447</v>
-      </c>
-      <c r="D75" s="4">
-        <v>45902.348506944443</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45910.247546296298</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45911.529826388891</v>
+      </c>
+      <c r="E75" s="2"/>
       <c r="F75">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" s="4">
-        <v>45907.051342592589</v>
-      </c>
-      <c r="D76" s="4">
-        <v>45908.250138888892</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45905.7655787037</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45907.012766203705</v>
+      </c>
+      <c r="E76" s="2"/>
       <c r="F76">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" s="4">
-        <v>45903.550567129627</v>
-      </c>
-      <c r="D77" s="4">
-        <v>45904.756435185183</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45904.257928240739</v>
+      </c>
+      <c r="D77" s="2">
+        <v>45905.532916666663</v>
+      </c>
+      <c r="E77" s="2"/>
       <c r="F77">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="4">
-        <v>45903.346064814818</v>
-      </c>
-      <c r="D78" s="4">
-        <v>45904.573182870372</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45903.095196759263</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45904.33935185185</v>
+      </c>
+      <c r="E78" s="2"/>
       <c r="F78">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="4">
-        <v>45905.566099537034</v>
-      </c>
-      <c r="D79" s="4">
-        <v>45906.734594907408</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45903.574432870373</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45904.814143518517</v>
+      </c>
+      <c r="E79" s="2"/>
       <c r="F79">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="4">
-        <v>45907.048576388886</v>
-      </c>
-      <c r="D80" s="4">
-        <v>45908.228101851855</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45909.260914351849</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45910.524594907409</v>
+      </c>
+      <c r="E80" s="2"/>
       <c r="F80">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="4">
-        <v>45901.038946759261</v>
-      </c>
-      <c r="D81" s="4">
-        <v>45902.182835648149</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45903.550567129627</v>
+      </c>
+      <c r="D81" s="2">
+        <v>45904.756435185183</v>
+      </c>
+      <c r="E81" s="2"/>
       <c r="F81">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="4">
-        <v>45907.389652777776</v>
-      </c>
-      <c r="D82" s="4">
-        <v>45908.550567129627</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45903.346064814818</v>
+      </c>
+      <c r="D82" s="2">
+        <v>45904.573182870372</v>
+      </c>
+      <c r="E82" s="2"/>
       <c r="F82">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -2061,33 +2083,35 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="4">
-        <v>45904.03466435185</v>
-      </c>
-      <c r="D83" s="4">
-        <v>45905.192037037035</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45910.067824074074</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45911.284560185188</v>
+      </c>
+      <c r="E83" s="2"/>
       <c r="F83">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="4">
-        <v>45909.373738425929</v>
-      </c>
-      <c r="D84" s="4">
-        <v>45910.524085648147</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45901.125694444447</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45902.348506944443</v>
+      </c>
+      <c r="E84" s="2"/>
       <c r="F84">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -2095,50 +2119,53 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" s="4">
-        <v>45907.094305555554</v>
-      </c>
-      <c r="D85" s="4">
-        <v>45908.213356481479</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45907.051342592589</v>
+      </c>
+      <c r="D85" s="2">
+        <v>45908.250138888892</v>
+      </c>
+      <c r="E85" s="2"/>
       <c r="F85">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86" s="4">
-        <v>45909.091203703705</v>
-      </c>
-      <c r="D86" s="4">
-        <v>45910.220127314817</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45905.566099537034</v>
+      </c>
+      <c r="D86" s="2">
+        <v>45906.734594907408</v>
+      </c>
+      <c r="E86" s="2"/>
       <c r="F86">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87" s="4">
-        <v>45906.042974537035</v>
-      </c>
-      <c r="D87" s="4">
-        <v>45907.169976851852</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45907.048576388886</v>
+      </c>
+      <c r="D87" s="2">
+        <v>45908.228101851855</v>
+      </c>
+      <c r="E87" s="2"/>
       <c r="F87">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -2146,33 +2173,35 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" s="4">
-        <v>45906.575902777775</v>
-      </c>
-      <c r="D88" s="4">
-        <v>45907.67150462963</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45901.038946759261</v>
+      </c>
+      <c r="D88" s="2">
+        <v>45902.182835648149</v>
+      </c>
+      <c r="E88" s="2"/>
       <c r="F88">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
-      </c>
-      <c r="C89" s="4">
-        <v>45909.514016203706</v>
-      </c>
-      <c r="D89" s="4">
-        <v>45910.611180555556</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45910.356319444443</v>
+      </c>
+      <c r="D89" s="2">
+        <v>45911.500925925924</v>
+      </c>
+      <c r="E89" s="2"/>
       <c r="F89">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -2180,16 +2209,17 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
-      </c>
-      <c r="C90" s="4">
-        <v>45906.047337962962</v>
-      </c>
-      <c r="D90" s="4">
-        <v>45907.137569444443</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45907.389652777776</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45908.550567129627</v>
+      </c>
+      <c r="E90" s="2"/>
       <c r="F90">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -2197,135 +2227,143 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
-      </c>
-      <c r="C91" s="4">
-        <v>45908.118969907409</v>
-      </c>
-      <c r="D91" s="4">
-        <v>45909.179571759261</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45904.03466435185</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45905.192037037035</v>
+      </c>
+      <c r="E91" s="2"/>
       <c r="F91">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="4">
-        <v>45910.247546296298</v>
-      </c>
-      <c r="E92" s="4">
-        <v>45911.324201388888</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45909.373738425929</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45910.524085648147</v>
+      </c>
+      <c r="E92" s="2"/>
       <c r="F92">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="4">
-        <v>45902.027233796296</v>
-      </c>
-      <c r="D93" s="4">
-        <v>45903.087951388887</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45911.012094907404</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45912.137696759259</v>
+      </c>
+      <c r="E93" s="2"/>
       <c r="F93">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
-      </c>
-      <c r="C94" s="4">
-        <v>45907.134444444448</v>
-      </c>
-      <c r="D94" s="4">
-        <v>45908.224537037036</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45907.094305555554</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45908.213356481479</v>
+      </c>
+      <c r="E94" s="2"/>
       <c r="F94">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="4">
-        <v>45901.259722222225</v>
-      </c>
-      <c r="D95" s="4">
-        <v>45902.373217592591</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45909.091203703705</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45910.220127314817</v>
+      </c>
+      <c r="E95" s="2"/>
       <c r="F95">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="4">
-        <v>45909.039143518516</v>
-      </c>
-      <c r="D96" s="4">
-        <v>45910.102083333331</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45906.042974537035</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45907.169976851852</v>
+      </c>
+      <c r="E96" s="2"/>
       <c r="F96">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>59</v>
-      </c>
-      <c r="C97" s="4">
-        <v>45901.470590277779</v>
-      </c>
-      <c r="D97" s="4">
-        <v>45902.562650462962</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45906.575902777775</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45907.67150462963</v>
+      </c>
+      <c r="E97" s="2"/>
       <c r="F97">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
-      </c>
-      <c r="C98" s="4">
-        <v>45910.196134259262</v>
-      </c>
-      <c r="D98" s="4">
-        <v>45911.248784722222</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45901.470590277779</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45902.562650462962</v>
+      </c>
+      <c r="E98" s="2"/>
       <c r="F98">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
@@ -2333,150 +2371,159 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" s="4">
-        <v>45908.19803240741</v>
-      </c>
-      <c r="D99" s="4">
-        <v>45909.213159722225</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45909.514016203706</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45910.611180555556</v>
+      </c>
+      <c r="E99" s="2"/>
       <c r="F99">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
-      </c>
-      <c r="C100" s="4">
-        <v>45907.620358796295</v>
-      </c>
-      <c r="D100" s="4">
-        <v>45908.656805555554</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45908.118969907409</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45909.179571759261</v>
+      </c>
+      <c r="E100" s="2"/>
       <c r="F100">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="4">
-        <v>45908.567731481482</v>
-      </c>
-      <c r="D101" s="4">
-        <v>45909.606053240743</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45906.047337962962</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45907.137569444443</v>
+      </c>
+      <c r="E101" s="2"/>
       <c r="F101">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
-      </c>
-      <c r="C102" s="4">
-        <v>45905.577847222223</v>
-      </c>
-      <c r="D102" s="4">
-        <v>45906.623020833336</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45902.027233796296</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45903.087951388887</v>
+      </c>
+      <c r="E102" s="2"/>
       <c r="F102">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>61</v>
-      </c>
-      <c r="C103" s="4">
-        <v>45901.148784722223</v>
-      </c>
-      <c r="D103" s="4">
-        <v>45902.167685185188</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45909.039143518516</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45910.102083333331</v>
+      </c>
+      <c r="E103" s="2"/>
       <c r="F103">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
-      </c>
-      <c r="C104" s="4">
-        <v>45901.158136574071</v>
-      </c>
-      <c r="D104" s="4">
-        <v>45902.190081018518</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45901.259722222225</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45902.373217592591</v>
+      </c>
+      <c r="E104" s="2"/>
       <c r="F104">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
-      </c>
-      <c r="C105" s="4">
-        <v>45903.08121527778</v>
-      </c>
-      <c r="D105" s="4">
-        <v>45904.113680555558</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45907.134444444448</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45908.224537037036</v>
+      </c>
+      <c r="E105" s="2"/>
       <c r="F105">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" s="4">
-        <v>45903.038553240738</v>
-      </c>
-      <c r="D106" s="4">
-        <v>45904.044745370367</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45901.569282407407</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45902.593414351853</v>
+      </c>
+      <c r="E106" s="2"/>
       <c r="F106">
         <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="4">
-        <v>45908.570671296293</v>
-      </c>
-      <c r="D107" s="4">
-        <v>45909.609884259262</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45909.239444444444</v>
+      </c>
+      <c r="D107" s="2">
+        <v>45910.265706018516</v>
+      </c>
+      <c r="E107" s="2"/>
       <c r="F107">
         <v>25</v>
       </c>
@@ -2486,14 +2533,15 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
-      </c>
-      <c r="C108" s="4">
-        <v>45901.569282407407</v>
-      </c>
-      <c r="D108" s="4">
-        <v>45902.593414351853</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C108" s="2">
+        <v>45911.244166666664</v>
+      </c>
+      <c r="D108" s="2">
+        <v>45912.265601851854</v>
+      </c>
+      <c r="E108" s="2"/>
       <c r="F108">
         <v>25</v>
       </c>
@@ -2505,29 +2553,31 @@
       <c r="B109" t="s">
         <v>60</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="2">
         <v>45906.5156712963</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="2">
         <v>45907.565092592595</v>
       </c>
+      <c r="E109" s="2"/>
       <c r="F109">
         <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="4">
-        <v>45909.239444444444</v>
-      </c>
-      <c r="D110" s="4">
-        <v>45910.265706018516</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C110" s="2">
+        <v>45908.19803240741</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45909.213159722225</v>
+      </c>
+      <c r="E110" s="2"/>
       <c r="F110">
         <v>25</v>
       </c>
@@ -2537,16 +2587,17 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
-      </c>
-      <c r="C111" s="4">
-        <v>45904.531631944446</v>
-      </c>
-      <c r="D111" s="4">
-        <v>45905.530775462961</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45907.620358796295</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45908.656805555554</v>
+      </c>
+      <c r="E111" s="2"/>
       <c r="F111">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
@@ -2554,16 +2605,17 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>47</v>
-      </c>
-      <c r="C112" s="4">
-        <v>45909.029490740744</v>
-      </c>
-      <c r="D112" s="4">
-        <v>45910.00445601852</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C112" s="2">
+        <v>45908.567731481482</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45909.606053240743</v>
+      </c>
+      <c r="E112" s="2"/>
       <c r="F112">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
@@ -2573,14 +2625,15 @@
       <c r="B113" t="s">
         <v>35</v>
       </c>
-      <c r="C113" s="4">
-        <v>45903.551539351851</v>
-      </c>
-      <c r="D113" s="4">
-        <v>45904.543136574073</v>
-      </c>
+      <c r="C113" s="2">
+        <v>45905.577847222223</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45906.623020833336</v>
+      </c>
+      <c r="E113" s="2"/>
       <c r="F113">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
@@ -2588,50 +2641,53 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C114" s="4">
-        <v>45910.02920138889</v>
-      </c>
-      <c r="D114" s="4">
-        <v>45911.005185185182</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45910.196134259262</v>
+      </c>
+      <c r="D114" s="2">
+        <v>45911.248784722222</v>
+      </c>
+      <c r="E114" s="2"/>
       <c r="F114">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>67</v>
-      </c>
-      <c r="C115" s="4">
-        <v>45907.019560185188</v>
-      </c>
-      <c r="D115" s="4">
-        <v>45908.010844907411</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45901.148784722223</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45902.167685185188</v>
+      </c>
+      <c r="E115" s="2"/>
       <c r="F115">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="4">
-        <v>45903.531400462962</v>
-      </c>
-      <c r="D116" s="4">
-        <v>45904.523900462962</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C116" s="2">
+        <v>45901.158136574071</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45902.190081018518</v>
+      </c>
+      <c r="E116" s="2"/>
       <c r="F116">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
@@ -2639,16 +2695,17 @@
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>58</v>
-      </c>
-      <c r="C117" s="4">
-        <v>45905.028263888889</v>
-      </c>
-      <c r="D117" s="4">
-        <v>45906.015115740738</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C117" s="2">
+        <v>45903.038553240738</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45904.044745370367</v>
+      </c>
+      <c r="E117" s="2"/>
       <c r="F117">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
@@ -2658,14 +2715,15 @@
       <c r="B118" t="s">
         <v>63</v>
       </c>
-      <c r="C118" s="4">
-        <v>45906.993020833332</v>
-      </c>
-      <c r="D118" s="4">
-        <v>45907.99009259259</v>
-      </c>
+      <c r="C118" s="2">
+        <v>45903.08121527778</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45904.113680555558</v>
+      </c>
+      <c r="E118" s="2"/>
       <c r="F118">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
@@ -2673,304 +2731,538 @@
         <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
-      </c>
-      <c r="C119" s="4">
-        <v>45906.572326388887</v>
-      </c>
-      <c r="D119" s="4">
-        <v>45907.549814814818</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C119" s="2">
+        <v>45908.570671296293</v>
+      </c>
+      <c r="D119" s="2">
+        <v>45909.609884259262</v>
+      </c>
+      <c r="E119" s="2"/>
       <c r="F119">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
-      </c>
-      <c r="C120" s="4">
-        <v>45910.041087962964</v>
-      </c>
-      <c r="D120" s="4">
-        <v>45911.026550925926</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C120" s="2">
+        <v>45904.020173611112</v>
+      </c>
+      <c r="D120" s="2">
+        <v>45905.008136574077</v>
+      </c>
+      <c r="E120" s="2"/>
       <c r="F120">
         <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" s="4">
-        <v>45909.531261574077</v>
-      </c>
-      <c r="D121" s="4">
-        <v>45910.523888888885</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C121" s="2">
+        <v>45904.702118055553</v>
+      </c>
+      <c r="D121" s="2">
+        <v>45905.667326388888</v>
+      </c>
+      <c r="E121" s="2"/>
       <c r="F121">
         <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
-      </c>
-      <c r="C122" s="4">
-        <v>45904.038356481484</v>
-      </c>
-      <c r="D122" s="4">
-        <v>45905.000960648147</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C122" s="2">
+        <v>45902.329155092593</v>
+      </c>
+      <c r="D122" s="2">
+        <v>45903.310069444444</v>
+      </c>
+      <c r="E122" s="2"/>
       <c r="F122">
         <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>54</v>
-      </c>
-      <c r="C123" s="4">
-        <v>45903.040659722225</v>
-      </c>
-      <c r="D123" s="4">
-        <v>45904.012349537035</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C123" s="2">
+        <v>45904.531631944446</v>
+      </c>
+      <c r="D123" s="2">
+        <v>45905.530775462961</v>
+      </c>
+      <c r="E123" s="2"/>
       <c r="F123">
         <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>54</v>
-      </c>
-      <c r="C124" s="4">
-        <v>45905.033067129632</v>
-      </c>
-      <c r="D124" s="4">
-        <v>45906.00104166667</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C124" s="2">
+        <v>45909.029490740744</v>
+      </c>
+      <c r="D124" s="2">
+        <v>45910.00445601852</v>
+      </c>
+      <c r="E124" s="2"/>
       <c r="F124">
         <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
-      </c>
-      <c r="C125" s="4">
-        <v>45901.038090277776</v>
-      </c>
-      <c r="D125" s="4">
-        <v>45902.001168981478</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C125" s="2">
+        <v>45907.019560185188</v>
+      </c>
+      <c r="D125" s="2">
+        <v>45908.010844907411</v>
+      </c>
+      <c r="E125" s="2"/>
       <c r="F125">
         <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
-      </c>
-      <c r="C126" s="4">
-        <v>45905.558854166666</v>
-      </c>
-      <c r="D126" s="4">
-        <v>45906.555868055555</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C126" s="2">
+        <v>45903.551539351851</v>
+      </c>
+      <c r="D126" s="2">
+        <v>45904.543136574073</v>
+      </c>
+      <c r="E126" s="2"/>
       <c r="F126">
         <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" s="4">
-        <v>45901.116909722223</v>
-      </c>
-      <c r="D127" s="4">
-        <v>45902.102569444447</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45910.02920138889</v>
+      </c>
+      <c r="D127" s="2">
+        <v>45911.005185185182</v>
+      </c>
+      <c r="E127" s="2"/>
       <c r="F127">
         <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
-      </c>
-      <c r="C128" s="4">
-        <v>45901.538043981483</v>
-      </c>
-      <c r="D128" s="4">
-        <v>45902.527268518519</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C128" s="2">
+        <v>45911.034571759257</v>
+      </c>
+      <c r="D128" s="2">
+        <v>45912.001400462963</v>
+      </c>
+      <c r="E128" s="2"/>
       <c r="F128">
         <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>21</v>
-      </c>
-      <c r="C129" s="4">
-        <v>45908.923564814817</v>
-      </c>
-      <c r="D129" s="4">
-        <v>45909.953576388885</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C129" s="2">
+        <v>45903.531400462962</v>
+      </c>
+      <c r="D129" s="2">
+        <v>45904.523900462962</v>
+      </c>
+      <c r="E129" s="2"/>
       <c r="F129">
         <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>33</v>
-      </c>
-      <c r="C130" s="4">
-        <v>45907.041504629633</v>
-      </c>
-      <c r="D130" s="4">
-        <v>45908.003831018519</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C130" s="2">
+        <v>45904.038356481484</v>
+      </c>
+      <c r="D130" s="2">
+        <v>45905.000960648147</v>
+      </c>
+      <c r="E130" s="2"/>
       <c r="F130">
         <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>53</v>
-      </c>
-      <c r="C131" s="4">
-        <v>45902.031307870369</v>
-      </c>
-      <c r="D131" s="4">
-        <v>45903.015347222223</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C131" s="2">
+        <v>45909.531261574077</v>
+      </c>
+      <c r="D131" s="2">
+        <v>45910.523888888885</v>
+      </c>
+      <c r="E131" s="2"/>
       <c r="F131">
         <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>68</v>
-      </c>
-      <c r="C132" s="4">
-        <v>45906.520752314813</v>
-      </c>
-      <c r="D132" s="4">
-        <v>45907.527858796297</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C132" s="2">
+        <v>45901.116909722223</v>
+      </c>
+      <c r="D132" s="2">
+        <v>45902.102569444447</v>
+      </c>
+      <c r="E132" s="2"/>
       <c r="F132">
         <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
-      </c>
-      <c r="C133" s="4">
-        <v>45909.532372685186</v>
-      </c>
-      <c r="D133" s="4">
-        <v>45910.502280092594</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C133" s="2">
+        <v>45901.038090277776</v>
+      </c>
+      <c r="D133" s="2">
+        <v>45902.001168981478</v>
+      </c>
+      <c r="E133" s="2"/>
       <c r="F133">
         <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
-      </c>
-      <c r="C134" s="4">
-        <v>45904.702118055553</v>
-      </c>
-      <c r="D134" s="4">
-        <v>45905.667326388888</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C134" s="2">
+        <v>45905.558854166666</v>
+      </c>
+      <c r="D134" s="2">
+        <v>45906.555868055555</v>
+      </c>
+      <c r="E134" s="2"/>
       <c r="F134">
         <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>65</v>
-      </c>
-      <c r="C135" s="4">
-        <v>45904.020173611112</v>
-      </c>
-      <c r="D135" s="4">
-        <v>45905.008136574077</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C135" s="2">
+        <v>45906.572326388887</v>
+      </c>
+      <c r="D135" s="2">
+        <v>45907.549814814818</v>
+      </c>
+      <c r="E135" s="2"/>
       <c r="F135">
         <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B136" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136" s="2">
+        <v>45910.041087962964</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45911.026550925926</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>58</v>
+      </c>
+      <c r="C137" s="2">
+        <v>45905.028263888889</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45906.015115740738</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>63</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45906.993020833332</v>
+      </c>
+      <c r="D138" s="2">
+        <v>45907.99009259259</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>54</v>
+      </c>
+      <c r="C139" s="2">
+        <v>45903.040659722225</v>
+      </c>
+      <c r="D139" s="2">
+        <v>45904.012349537035</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" s="2">
+        <v>45905.033067129632</v>
+      </c>
+      <c r="D140" s="2">
+        <v>45906.00104166667</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>54</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45910.584328703706</v>
+      </c>
+      <c r="D141" s="2">
+        <v>45911.616053240738</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142" s="2">
+        <v>45901.538043981483</v>
+      </c>
+      <c r="D142" s="2">
+        <v>45902.527268518519</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>68</v>
+      </c>
+      <c r="C143" s="2">
+        <v>45906.520752314813</v>
+      </c>
+      <c r="D143" s="2">
+        <v>45907.527858796297</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="2">
+        <v>45908.923564814817</v>
+      </c>
+      <c r="D144" s="2">
+        <v>45909.953576388885</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45907.041504629633</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45908.003831018519</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
         <v>53</v>
       </c>
-      <c r="C136" s="4">
-        <v>45902.329155092593</v>
-      </c>
-      <c r="D136" s="4">
-        <v>45903.310069444444</v>
-      </c>
-      <c r="F136">
+      <c r="C146" s="2">
+        <v>45902.031307870369</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45903.015347222223</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>42</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45909.532372685186</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45910.502280092594</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>42</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45910.510555555556</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45911.524016203701</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="75">
   <si>
     <t>电站名称</t>
   </si>
@@ -227,6 +227,21 @@
   </si>
   <si>
     <t>107号直流</t>
+  </si>
+  <si>
+    <t>802号直流</t>
+  </si>
+  <si>
+    <t>B05号直流</t>
+  </si>
+  <si>
+    <t>204号直流</t>
+  </si>
+  <si>
+    <t>206号直流</t>
+  </si>
+  <si>
+    <t>205号直流</t>
   </si>
 </sst>
 </file>
@@ -587,17 +602,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -630,84 +648,84 @@
       <c r="C2" s="2">
         <v>45906.578356481485</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>45912.3358912037</v>
-      </c>
+      <c r="D2" s="2">
+        <v>45913.004490740743</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
-        <v>45904.4453125</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45909.56177083333</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>45907.567233796297</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>45913.348854166667</v>
+      </c>
       <c r="F3">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>45907.567233796297</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>45912.3358912037</v>
-      </c>
+        <v>45904.4453125</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45909.56177083333</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
-        <v>45908.550717592596</v>
+        <v>45908.603506944448</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>45912.3358912037</v>
+        <v>45913.348854166667</v>
       </c>
       <c r="F5">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
-        <v>45908.603506944448</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>45912.3358912037</v>
-      </c>
+        <v>45908.550717592596</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45913.021585648145</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -718,14 +736,14 @@
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>45905.534791666665</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45909.203703703701</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>45909.236574074072</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>45913.348854166667</v>
+      </c>
       <c r="F7">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -733,17 +751,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
-        <v>45902.230208333334</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45905.834178240744</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>45909.602083333331</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>45913.348854166667</v>
+      </c>
       <c r="F8">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -751,17 +769,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2">
-        <v>45908.525706018518</v>
+        <v>45909.053182870368</v>
       </c>
       <c r="D9" s="2">
-        <v>45912.034201388888</v>
+        <v>45912.756840277776</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -769,17 +787,17 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>45902.056701388887</v>
+        <v>45905.534791666665</v>
       </c>
       <c r="D10" s="2">
-        <v>45905.500868055555</v>
+        <v>45909.203703703701</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -787,35 +805,35 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
-        <v>45909.053182870368</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>45912.3358912037</v>
-      </c>
+        <v>45902.230208333334</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45905.834178240744</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
-        <v>45905.263715277775</v>
+        <v>45908.525706018518</v>
       </c>
       <c r="D12" s="2">
-        <v>45908.553703703707</v>
+        <v>45912.034201388888</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -823,49 +841,49 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>45909.236574074072</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
-        <v>45912.3358912037</v>
-      </c>
+        <v>45902.056701388887</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45905.500868055555</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>45906.271747685183</v>
+        <v>45905.263715277775</v>
       </c>
       <c r="D14" s="2">
-        <v>45909.218194444446</v>
+        <v>45908.553703703707</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>45907.570555555554</v>
+        <v>45906.271747685183</v>
       </c>
       <c r="D15" s="2">
-        <v>45910.500289351854</v>
+        <v>45909.218194444446</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15">
@@ -877,17 +895,17 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
-        <v>45909.602083333331</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>45912.3358912037</v>
-      </c>
+        <v>45907.570555555554</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45910.500289351854</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -895,17 +913,17 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2">
-        <v>45904.095752314817</v>
+        <v>45910.540219907409</v>
       </c>
       <c r="D17" s="2">
-        <v>45906.629687499997</v>
+        <v>45913.224270833336</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -918,12 +936,12 @@
       <c r="C18" s="2">
         <v>45910.021134259259</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
-        <v>45912.3358912037</v>
-      </c>
+      <c r="D18" s="2">
+        <v>45912.686157407406</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -931,17 +949,17 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>45906.25440972222</v>
+        <v>45904.095752314817</v>
       </c>
       <c r="D19" s="2">
-        <v>45908.543657407405</v>
+        <v>45906.629687499997</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -967,53 +985,53 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2">
-        <v>45902.031944444447</v>
+        <v>45906.25440972222</v>
       </c>
       <c r="D21" s="2">
-        <v>45904.216631944444</v>
+        <v>45908.543657407405</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2">
-        <v>45907.401435185187</v>
+        <v>45902.031944444447</v>
       </c>
       <c r="D22" s="2">
-        <v>45909.52579861111</v>
+        <v>45904.216631944444</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
-        <v>45908.552488425928</v>
+        <v>45907.401435185187</v>
       </c>
       <c r="D23" s="2">
-        <v>45910.652662037035</v>
+        <v>45909.52579861111</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -1057,17 +1075,17 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2">
-        <v>45907.522546296299</v>
+        <v>45908.552488425928</v>
       </c>
       <c r="D26" s="2">
-        <v>45909.570775462962</v>
+        <v>45910.652662037035</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -1080,44 +1098,44 @@
       <c r="C27" s="2">
         <v>45910.355798611112</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
-        <v>45912.3358912037</v>
-      </c>
+      <c r="D27" s="2">
+        <v>45912.393368055556</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2">
-        <v>45908.570474537039</v>
+        <v>45907.522546296299</v>
       </c>
       <c r="D28" s="2">
-        <v>45910.550486111111</v>
+        <v>45909.570775462962</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2">
-        <v>45903.038356481484</v>
+        <v>45911.040381944447</v>
       </c>
       <c r="D29" s="2">
-        <v>45905.020983796298</v>
+        <v>45913.023263888892</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
@@ -1126,16 +1144,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C30" s="2">
-        <v>45902.027557870373</v>
+        <v>45908.570474537039</v>
       </c>
       <c r="D30" s="2">
-        <v>45904.000578703701</v>
+        <v>45910.550486111111</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30">
@@ -1144,52 +1162,52 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C31" s="2">
-        <v>45908.082407407404</v>
+        <v>45903.038356481484</v>
       </c>
       <c r="D31" s="2">
-        <v>45910.006041666667</v>
+        <v>45905.020983796298</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C32" s="2">
-        <v>45903.579016203701</v>
+        <v>45902.027557870373</v>
       </c>
       <c r="D32" s="2">
-        <v>45905.501250000001</v>
+        <v>45904.000578703701</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2">
-        <v>45906.549328703702</v>
+        <v>45910.561724537038</v>
       </c>
       <c r="D33" s="2">
-        <v>45908.533761574072</v>
+        <v>45912.509375000001</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
@@ -1201,35 +1219,35 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2">
-        <v>45905.58865740741</v>
+        <v>45908.082407407404</v>
       </c>
       <c r="D34" s="2">
-        <v>45907.541539351849</v>
+        <v>45910.006041666667</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2">
-        <v>45906.091840277775</v>
+        <v>45903.579016203701</v>
       </c>
       <c r="D35" s="2">
-        <v>45908.0002662037</v>
+        <v>45905.501250000001</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -1240,14 +1258,14 @@
         <v>24</v>
       </c>
       <c r="C36" s="2">
-        <v>45903.560266203705</v>
+        <v>45910.5781712963</v>
       </c>
       <c r="D36" s="2">
-        <v>45905.407696759263</v>
+        <v>45912.528969907406</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -1255,89 +1273,89 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2">
-        <v>45910.540219907409</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2">
-        <v>45912.3358912037</v>
-      </c>
+        <v>45906.549328703702</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45908.533761574072</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C38" s="2">
-        <v>45910.561724537038</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2">
-        <v>45912.3358912037</v>
-      </c>
+        <v>45905.58865740741</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45907.541539351849</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2">
-        <v>45910.5781712963</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2">
-        <v>45912.3358912037</v>
-      </c>
+        <v>45906.091840277775</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45908.0002662037</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2">
-        <v>45904.367662037039</v>
-      </c>
-      <c r="D40" s="2">
-        <v>45906.129490740743</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>45911.52857638889</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>45913.348854166667</v>
+      </c>
       <c r="F40">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="2">
-        <v>45901.550439814811</v>
+        <v>45903.560266203705</v>
       </c>
       <c r="D41" s="2">
-        <v>45903.3437962963</v>
+        <v>45905.407696759263</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1345,89 +1363,89 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C42" s="2">
-        <v>45909.261608796296</v>
+        <v>45901.550439814811</v>
       </c>
       <c r="D42" s="2">
-        <v>45911.001076388886</v>
+        <v>45903.3437962963</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C43" s="2">
-        <v>45909.799317129633</v>
+        <v>45904.367662037039</v>
       </c>
       <c r="D43" s="2">
-        <v>45911.513888888891</v>
+        <v>45906.129490740743</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2">
-        <v>45906.348958333336</v>
-      </c>
-      <c r="D44" s="2">
-        <v>45908.012199074074</v>
-      </c>
-      <c r="E44" s="2"/>
+        <v>45911.562384259261</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>45913.348854166667</v>
+      </c>
       <c r="F44">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2">
-        <v>45903.75744212963</v>
+        <v>45909.261608796296</v>
       </c>
       <c r="D45" s="2">
-        <v>45905.312962962962</v>
+        <v>45911.001076388886</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" s="2">
-        <v>45907.705949074072</v>
+        <v>45909.799317129633</v>
       </c>
       <c r="D46" s="2">
-        <v>45909.21980324074</v>
+        <v>45911.513888888891</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -1435,35 +1453,35 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2">
-        <v>45908.210324074076</v>
-      </c>
-      <c r="D47" s="2">
-        <v>45909.712118055555</v>
-      </c>
-      <c r="E47" s="2"/>
+        <v>45911.646747685183</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
+        <v>45913.348854166667</v>
+      </c>
       <c r="F47">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C48" s="2">
-        <v>45910.534502314818</v>
+        <v>45906.348958333336</v>
       </c>
       <c r="D48" s="2">
-        <v>45912.012048611112</v>
+        <v>45908.012199074074</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -1471,17 +1489,17 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C49" s="2">
-        <v>45903.531446759262</v>
+        <v>45911.531018518515</v>
       </c>
       <c r="D49" s="2">
-        <v>45905.010671296295</v>
+        <v>45913.206875000003</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -1489,17 +1507,17 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="2">
-        <v>45901.03025462963</v>
+        <v>45903.75744212963</v>
       </c>
       <c r="D50" s="2">
-        <v>45902.500243055554</v>
+        <v>45905.312962962962</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -1507,31 +1525,31 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C51" s="2">
-        <v>45908.058252314811</v>
+        <v>45907.705949074072</v>
       </c>
       <c r="D51" s="2">
-        <v>45909.559004629627</v>
+        <v>45909.21980324074</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2">
-        <v>45909.579212962963</v>
+        <v>45907.729745370372</v>
       </c>
       <c r="D52" s="2">
-        <v>45911.07608796296</v>
+        <v>45909.231006944443</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
@@ -1543,13 +1561,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2">
-        <v>45907.729745370372</v>
+        <v>45903.548900462964</v>
       </c>
       <c r="D53" s="2">
-        <v>45909.231006944443</v>
+        <v>45905.052442129629</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
@@ -1558,16 +1576,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C54" s="2">
-        <v>45903.548900462964</v>
+        <v>45903.531446759262</v>
       </c>
       <c r="D54" s="2">
-        <v>45905.052442129629</v>
+        <v>45905.010671296295</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
@@ -1576,38 +1594,38 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C55" s="2">
-        <v>45906.573877314811</v>
+        <v>45908.058252314811</v>
       </c>
       <c r="D55" s="2">
-        <v>45908.008958333332</v>
+        <v>45909.559004629627</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C56" s="2">
-        <v>45902.025509259256</v>
+        <v>45909.579212962963</v>
       </c>
       <c r="D56" s="2">
-        <v>45903.49627314815</v>
+        <v>45911.07608796296</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -1615,17 +1633,17 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C57" s="2">
-        <v>45903.075219907405</v>
+        <v>45908.210324074076</v>
       </c>
       <c r="D57" s="2">
-        <v>45904.534386574072</v>
+        <v>45909.712118055555</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -1633,17 +1651,17 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C58" s="2">
-        <v>45902.545347222222</v>
+        <v>45910.534502314818</v>
       </c>
       <c r="D58" s="2">
-        <v>45904.018020833333</v>
+        <v>45912.012048611112</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -1651,31 +1669,31 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C59" s="2">
-        <v>45908.562800925924</v>
+        <v>45901.03025462963</v>
       </c>
       <c r="D59" s="2">
-        <v>45910.003263888888</v>
+        <v>45902.500243055554</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2">
-        <v>45906.065810185188</v>
+        <v>45906.573877314811</v>
       </c>
       <c r="D60" s="2">
-        <v>45907.50099537037</v>
+        <v>45908.008958333332</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
@@ -1720,200 +1738,200 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C63" s="2">
-        <v>45903.062071759261</v>
+        <v>45902.025509259256</v>
       </c>
       <c r="D63" s="2">
-        <v>45904.471817129626</v>
+        <v>45903.49627314815</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C64" s="2">
-        <v>45903.625138888892</v>
+        <v>45908.562800925924</v>
       </c>
       <c r="D64" s="2">
-        <v>45905.008043981485</v>
+        <v>45910.003263888888</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C65" s="2">
-        <v>45906.087141203701</v>
+        <v>45902.545347222222</v>
       </c>
       <c r="D65" s="2">
-        <v>45907.494085648148</v>
+        <v>45904.018020833333</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2">
-        <v>45902.767638888887</v>
+        <v>45903.075219907405</v>
       </c>
       <c r="D66" s="2">
-        <v>45904.084664351853</v>
+        <v>45904.534386574072</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C67" s="2">
-        <v>45909.039467592593</v>
+        <v>45906.065810185188</v>
       </c>
       <c r="D67" s="2">
-        <v>45910.373379629629</v>
+        <v>45907.50099537037</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C68" s="2">
-        <v>45911.040381944447</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2">
-        <v>45912.3358912037</v>
-      </c>
+        <v>45903.062071759261</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45904.471817129626</v>
+      </c>
+      <c r="E68" s="2"/>
       <c r="F68">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C69" s="2">
-        <v>45910.054398148146</v>
+        <v>45906.087141203701</v>
       </c>
       <c r="D69" s="2">
-        <v>45911.384293981479</v>
+        <v>45907.494085648148</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C70" s="2">
-        <v>45907.194444444445</v>
+        <v>45903.625138888892</v>
       </c>
       <c r="D70" s="2">
-        <v>45908.530740740738</v>
+        <v>45905.008043981485</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2">
-        <v>45906.810439814813</v>
+        <v>45909.039467592593</v>
       </c>
       <c r="D71" s="2">
-        <v>45908.090266203704</v>
+        <v>45910.373379629629</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C72" s="2">
-        <v>45907.24454861111</v>
+        <v>45902.767638888887</v>
       </c>
       <c r="D72" s="2">
-        <v>45908.508622685185</v>
+        <v>45904.084664351853</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C73" s="2">
-        <v>45910.029456018521</v>
+        <v>45907.194444444445</v>
       </c>
       <c r="D73" s="2">
-        <v>45911.331701388888</v>
+        <v>45908.530740740738</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -1921,17 +1939,17 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2">
-        <v>45906.221956018519</v>
+        <v>45910.054398148146</v>
       </c>
       <c r="D74" s="2">
-        <v>45907.510810185187</v>
+        <v>45911.384293981479</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
@@ -1939,13 +1957,13 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C75" s="2">
-        <v>45910.247546296298</v>
+        <v>45907.24454861111</v>
       </c>
       <c r="D75" s="2">
-        <v>45911.529826388891</v>
+        <v>45908.508622685185</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
@@ -1954,20 +1972,20 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C76" s="2">
-        <v>45905.7655787037</v>
+        <v>45910.029456018521</v>
       </c>
       <c r="D76" s="2">
-        <v>45907.012766203705</v>
+        <v>45911.331701388888</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -1975,17 +1993,17 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" s="2">
-        <v>45904.257928240739</v>
+        <v>45906.810439814813</v>
       </c>
       <c r="D77" s="2">
-        <v>45905.532916666663</v>
+        <v>45908.090266203704</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -1993,17 +2011,17 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C78" s="2">
-        <v>45903.095196759263</v>
+        <v>45906.221956018519</v>
       </c>
       <c r="D78" s="2">
-        <v>45904.33935185185</v>
+        <v>45907.510810185187</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -2011,35 +2029,35 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2">
-        <v>45903.574432870373</v>
-      </c>
-      <c r="D79" s="2">
-        <v>45904.814143518517</v>
-      </c>
-      <c r="E79" s="2"/>
+        <v>45912.060983796298</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2">
+        <v>45913.348854166667</v>
+      </c>
       <c r="F79">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C80" s="2">
-        <v>45909.260914351849</v>
+        <v>45910.247546296298</v>
       </c>
       <c r="D80" s="2">
-        <v>45910.524594907409</v>
+        <v>45911.529826388891</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -2047,35 +2065,35 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2">
-        <v>45903.550567129627</v>
+        <v>45905.7655787037</v>
       </c>
       <c r="D81" s="2">
-        <v>45904.756435185183</v>
+        <v>45907.012766203705</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2">
-        <v>45903.346064814818</v>
+        <v>45909.260914351849</v>
       </c>
       <c r="D82" s="2">
-        <v>45904.573182870372</v>
+        <v>45910.524594907409</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -2083,17 +2101,17 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C83" s="2">
-        <v>45910.067824074074</v>
+        <v>45903.095196759263</v>
       </c>
       <c r="D83" s="2">
-        <v>45911.284560185188</v>
+        <v>45904.33935185185</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -2101,17 +2119,17 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C84" s="2">
-        <v>45901.125694444447</v>
+        <v>45903.574432870373</v>
       </c>
       <c r="D84" s="2">
-        <v>45902.348506944443</v>
+        <v>45904.814143518517</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -2119,53 +2137,53 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C85" s="2">
-        <v>45907.051342592589</v>
+        <v>45904.257928240739</v>
       </c>
       <c r="D85" s="2">
-        <v>45908.250138888892</v>
+        <v>45905.532916666663</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2">
-        <v>45905.566099537034</v>
+        <v>45903.346064814818</v>
       </c>
       <c r="D86" s="2">
-        <v>45906.734594907408</v>
+        <v>45904.573182870372</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C87" s="2">
-        <v>45907.048576388886</v>
+        <v>45903.550567129627</v>
       </c>
       <c r="D87" s="2">
-        <v>45908.228101851855</v>
+        <v>45904.756435185183</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -2173,17 +2191,17 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2">
-        <v>45901.038946759261</v>
+        <v>45901.125694444447</v>
       </c>
       <c r="D88" s="2">
-        <v>45902.182835648149</v>
+        <v>45902.348506944443</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -2191,17 +2209,17 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C89" s="2">
-        <v>45910.356319444443</v>
+        <v>45910.067824074074</v>
       </c>
       <c r="D89" s="2">
-        <v>45911.500925925924</v>
+        <v>45911.284560185188</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -2209,31 +2227,31 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C90" s="2">
-        <v>45907.389652777776</v>
+        <v>45907.051342592589</v>
       </c>
       <c r="D90" s="2">
-        <v>45908.550567129627</v>
+        <v>45908.250138888892</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C91" s="2">
-        <v>45904.03466435185</v>
+        <v>45909.373738425929</v>
       </c>
       <c r="D91" s="2">
-        <v>45905.192037037035</v>
+        <v>45910.524085648147</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91">
@@ -2242,16 +2260,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C92" s="2">
-        <v>45909.373738425929</v>
+        <v>45905.566099537034</v>
       </c>
       <c r="D92" s="2">
-        <v>45910.524085648147</v>
+        <v>45906.734594907408</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92">
@@ -2263,17 +2281,17 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C93" s="2">
-        <v>45911.012094907404</v>
+        <v>45907.048576388886</v>
       </c>
       <c r="D93" s="2">
-        <v>45912.137696759259</v>
+        <v>45908.228101851855</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -2281,17 +2299,17 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C94" s="2">
-        <v>45907.094305555554</v>
+        <v>45901.038946759261</v>
       </c>
       <c r="D94" s="2">
-        <v>45908.213356481479</v>
+        <v>45902.182835648149</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
@@ -2299,17 +2317,17 @@
         <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C95" s="2">
-        <v>45909.091203703705</v>
+        <v>45910.356319444443</v>
       </c>
       <c r="D95" s="2">
-        <v>45910.220127314817</v>
+        <v>45911.500925925924</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
@@ -2317,17 +2335,17 @@
         <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C96" s="2">
-        <v>45906.042974537035</v>
+        <v>45907.389652777776</v>
       </c>
       <c r="D96" s="2">
-        <v>45907.169976851852</v>
+        <v>45908.550567129627</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
@@ -2335,53 +2353,53 @@
         <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C97" s="2">
-        <v>45906.575902777775</v>
+        <v>45904.03466435185</v>
       </c>
       <c r="D97" s="2">
-        <v>45907.67150462963</v>
+        <v>45905.192037037035</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C98" s="2">
-        <v>45901.470590277779</v>
+        <v>45911.012094907404</v>
       </c>
       <c r="D98" s="2">
-        <v>45902.562650462962</v>
+        <v>45912.137696759259</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C99" s="2">
-        <v>45909.514016203706</v>
+        <v>45909.091203703705</v>
       </c>
       <c r="D99" s="2">
-        <v>45910.611180555556</v>
+        <v>45910.220127314817</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
@@ -2389,17 +2407,17 @@
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C100" s="2">
-        <v>45908.118969907409</v>
+        <v>45906.575902777775</v>
       </c>
       <c r="D100" s="2">
-        <v>45909.179571759261</v>
+        <v>45907.67150462963</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
@@ -2407,67 +2425,67 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C101" s="2">
-        <v>45906.047337962962</v>
+        <v>45912.041076388887</v>
       </c>
       <c r="D101" s="2">
-        <v>45907.137569444443</v>
+        <v>45913.145925925928</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C102" s="2">
-        <v>45902.027233796296</v>
+        <v>45907.094305555554</v>
       </c>
       <c r="D102" s="2">
-        <v>45903.087951388887</v>
+        <v>45908.213356481479</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C103" s="2">
-        <v>45909.039143518516</v>
+        <v>45906.042974537035</v>
       </c>
       <c r="D103" s="2">
-        <v>45910.102083333331</v>
+        <v>45907.169976851852</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C104" s="2">
-        <v>45901.259722222225</v>
+        <v>45901.470590277779</v>
       </c>
       <c r="D104" s="2">
-        <v>45902.373217592591</v>
+        <v>45902.562650462962</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104">
@@ -2494,124 +2512,124 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C106" s="2">
-        <v>45901.569282407407</v>
+        <v>45902.027233796296</v>
       </c>
       <c r="D106" s="2">
-        <v>45902.593414351853</v>
+        <v>45903.087951388887</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C107" s="2">
-        <v>45909.239444444444</v>
+        <v>45901.259722222225</v>
       </c>
       <c r="D107" s="2">
-        <v>45910.265706018516</v>
+        <v>45902.373217592591</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C108" s="2">
-        <v>45911.244166666664</v>
+        <v>45909.039143518516</v>
       </c>
       <c r="D108" s="2">
-        <v>45912.265601851854</v>
+        <v>45910.102083333331</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C109" s="2">
-        <v>45906.5156712963</v>
+        <v>45909.514016203706</v>
       </c>
       <c r="D109" s="2">
-        <v>45907.565092592595</v>
+        <v>45910.611180555556</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C110" s="2">
-        <v>45908.19803240741</v>
+        <v>45906.047337962962</v>
       </c>
       <c r="D110" s="2">
-        <v>45909.213159722225</v>
+        <v>45907.137569444443</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C111" s="2">
-        <v>45907.620358796295</v>
+        <v>45908.118969907409</v>
       </c>
       <c r="D111" s="2">
-        <v>45908.656805555554</v>
+        <v>45909.179571759261</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="C112" s="2">
-        <v>45908.567731481482</v>
+        <v>45909.239444444444</v>
       </c>
       <c r="D112" s="2">
-        <v>45909.606053240743</v>
+        <v>45910.265706018516</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
@@ -2620,16 +2638,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C113" s="2">
-        <v>45905.577847222223</v>
+        <v>45911.244166666664</v>
       </c>
       <c r="D113" s="2">
-        <v>45906.623020833336</v>
+        <v>45912.265601851854</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113">
@@ -2638,16 +2656,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2">
-        <v>45910.196134259262</v>
+        <v>45901.569282407407</v>
       </c>
       <c r="D114" s="2">
-        <v>45911.248784722222</v>
+        <v>45902.593414351853</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
@@ -2656,16 +2674,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C115" s="2">
-        <v>45901.148784722223</v>
+        <v>45911.504976851851</v>
       </c>
       <c r="D115" s="2">
-        <v>45902.167685185188</v>
+        <v>45912.543333333335</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115">
@@ -2674,16 +2692,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2">
-        <v>45901.158136574071</v>
+        <v>45906.5156712963</v>
       </c>
       <c r="D116" s="2">
-        <v>45902.190081018518</v>
+        <v>45907.565092592595</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
@@ -2692,16 +2710,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C117" s="2">
-        <v>45903.038553240738</v>
+        <v>45908.567731481482</v>
       </c>
       <c r="D117" s="2">
-        <v>45904.044745370367</v>
+        <v>45909.606053240743</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117">
@@ -2710,16 +2728,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C118" s="2">
-        <v>45903.08121527778</v>
+        <v>45908.19803240741</v>
       </c>
       <c r="D118" s="2">
-        <v>45904.113680555558</v>
+        <v>45909.213159722225</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118">
@@ -2728,16 +2746,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C119" s="2">
-        <v>45908.570671296293</v>
+        <v>45907.620358796295</v>
       </c>
       <c r="D119" s="2">
-        <v>45909.609884259262</v>
+        <v>45908.656805555554</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
@@ -2746,182 +2764,182 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C120" s="2">
-        <v>45904.020173611112</v>
+        <v>45905.577847222223</v>
       </c>
       <c r="D120" s="2">
-        <v>45905.008136574077</v>
+        <v>45906.623020833336</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C121" s="2">
-        <v>45904.702118055553</v>
+        <v>45910.196134259262</v>
       </c>
       <c r="D121" s="2">
-        <v>45905.667326388888</v>
+        <v>45911.248784722222</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C122" s="2">
-        <v>45902.329155092593</v>
+        <v>45901.158136574071</v>
       </c>
       <c r="D122" s="2">
-        <v>45903.310069444444</v>
+        <v>45902.190081018518</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C123" s="2">
-        <v>45904.531631944446</v>
+        <v>45912.043020833335</v>
       </c>
       <c r="D123" s="2">
-        <v>45905.530775462961</v>
+        <v>45913.113923611112</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2">
-        <v>45909.029490740744</v>
+        <v>45903.08121527778</v>
       </c>
       <c r="D124" s="2">
-        <v>45910.00445601852</v>
+        <v>45904.113680555558</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2">
-        <v>45907.019560185188</v>
+        <v>45911.684641203705</v>
       </c>
       <c r="D125" s="2">
-        <v>45908.010844907411</v>
+        <v>45912.726527777777</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C126" s="2">
-        <v>45903.551539351851</v>
+        <v>45911.994386574072</v>
       </c>
       <c r="D126" s="2">
-        <v>45904.543136574073</v>
+        <v>45913.008622685185</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C127" s="2">
-        <v>45910.02920138889</v>
+        <v>45901.148784722223</v>
       </c>
       <c r="D127" s="2">
-        <v>45911.005185185182</v>
+        <v>45902.167685185188</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C128" s="2">
-        <v>45911.034571759257</v>
+        <v>45903.038553240738</v>
       </c>
       <c r="D128" s="2">
-        <v>45912.001400462963</v>
+        <v>45904.044745370367</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C129" s="2">
-        <v>45903.531400462962</v>
-      </c>
-      <c r="D129" s="2">
-        <v>45904.523900462962</v>
-      </c>
-      <c r="E129" s="2"/>
+        <v>45912.328969907408</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2">
+        <v>45913.348854166667</v>
+      </c>
       <c r="F129">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
@@ -2929,31 +2947,31 @@
         <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C130" s="2">
-        <v>45904.038356481484</v>
+        <v>45908.570671296293</v>
       </c>
       <c r="D130" s="2">
-        <v>45905.000960648147</v>
+        <v>45909.609884259262</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C131" s="2">
-        <v>45909.531261574077</v>
+        <v>45912.242094907408</v>
       </c>
       <c r="D131" s="2">
-        <v>45910.523888888885</v>
+        <v>45913.231030092589</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
@@ -2962,16 +2980,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C132" s="2">
-        <v>45901.116909722223</v>
+        <v>45904.702118055553</v>
       </c>
       <c r="D132" s="2">
-        <v>45902.102569444447</v>
+        <v>45905.667326388888</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132">
@@ -2980,16 +2998,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C133" s="2">
-        <v>45901.038090277776</v>
+        <v>45904.020173611112</v>
       </c>
       <c r="D133" s="2">
-        <v>45902.001168981478</v>
+        <v>45905.008136574077</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133">
@@ -2998,16 +3016,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C134" s="2">
-        <v>45905.558854166666</v>
+        <v>45902.329155092593</v>
       </c>
       <c r="D134" s="2">
-        <v>45906.555868055555</v>
+        <v>45903.310069444444</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134">
@@ -3016,16 +3034,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C135" s="2">
-        <v>45906.572326388887</v>
+        <v>45906.520752314813</v>
       </c>
       <c r="D135" s="2">
-        <v>45907.549814814818</v>
+        <v>45907.527858796297</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135">
@@ -3034,16 +3052,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C136" s="2">
-        <v>45910.041087962964</v>
+        <v>45902.031307870369</v>
       </c>
       <c r="D136" s="2">
-        <v>45911.026550925926</v>
+        <v>45903.015347222223</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136">
@@ -3052,16 +3070,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C137" s="2">
-        <v>45905.028263888889</v>
+        <v>45907.041504629633</v>
       </c>
       <c r="D137" s="2">
-        <v>45906.015115740738</v>
+        <v>45908.003831018519</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137">
@@ -3070,16 +3088,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C138" s="2">
-        <v>45906.993020833332</v>
+        <v>45908.923564814817</v>
       </c>
       <c r="D138" s="2">
-        <v>45907.99009259259</v>
+        <v>45909.953576388885</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138">
@@ -3088,16 +3106,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C139" s="2">
-        <v>45903.040659722225</v>
+        <v>45909.532372685186</v>
       </c>
       <c r="D139" s="2">
-        <v>45904.012349537035</v>
+        <v>45910.502280092594</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139">
@@ -3106,16 +3124,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C140" s="2">
-        <v>45905.033067129632</v>
+        <v>45910.510555555556</v>
       </c>
       <c r="D140" s="2">
-        <v>45906.00104166667</v>
+        <v>45911.524016203701</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140">
@@ -3124,16 +3142,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C141" s="2">
-        <v>45910.584328703706</v>
+        <v>45904.531631944446</v>
       </c>
       <c r="D141" s="2">
-        <v>45911.616053240738</v>
+        <v>45905.530775462961</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141">
@@ -3142,16 +3160,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C142" s="2">
-        <v>45901.538043981483</v>
+        <v>45909.029490740744</v>
       </c>
       <c r="D142" s="2">
-        <v>45902.527268518519</v>
+        <v>45910.00445601852</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142">
@@ -3160,16 +3178,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C143" s="2">
-        <v>45906.520752314813</v>
+        <v>45903.551539351851</v>
       </c>
       <c r="D143" s="2">
-        <v>45907.527858796297</v>
+        <v>45904.543136574073</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143">
@@ -3178,16 +3196,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C144" s="2">
-        <v>45908.923564814817</v>
+        <v>45910.02920138889</v>
       </c>
       <c r="D144" s="2">
-        <v>45909.953576388885</v>
+        <v>45911.005185185182</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144">
@@ -3196,16 +3214,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C145" s="2">
-        <v>45907.041504629633</v>
+        <v>45911.034571759257</v>
       </c>
       <c r="D145" s="2">
-        <v>45908.003831018519</v>
+        <v>45912.001400462963</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145">
@@ -3214,16 +3232,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C146" s="2">
-        <v>45902.031307870369</v>
+        <v>45912.03328703704</v>
       </c>
       <c r="D146" s="2">
-        <v>45903.015347222223</v>
+        <v>45913.003379629627</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146">
@@ -3232,16 +3250,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2">
-        <v>45909.532372685186</v>
+        <v>45907.019560185188</v>
       </c>
       <c r="D147" s="2">
-        <v>45910.502280092594</v>
+        <v>45908.010844907411</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147">
@@ -3250,19 +3268,271 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C148" s="2">
-        <v>45910.510555555556</v>
+        <v>45911.556932870371</v>
       </c>
       <c r="D148" s="2">
-        <v>45911.524016203701</v>
+        <v>45912.543055555558</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="2">
+        <v>45903.531400462962</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45904.523900462962</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>58</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45905.028263888889</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45906.015115740738</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" s="2">
+        <v>45909.531261574077</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45910.523888888885</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45901.116909722223</v>
+      </c>
+      <c r="D152" s="2">
+        <v>45902.102569444447</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>63</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45906.993020833332</v>
+      </c>
+      <c r="D153" s="2">
+        <v>45907.99009259259</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45901.038090277776</v>
+      </c>
+      <c r="D154" s="2">
+        <v>45902.001168981478</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45905.558854166666</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45906.555868055555</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>39</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45904.038356481484</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45905.000960648147</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>32</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45906.572326388887</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45907.549814814818</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
+        <v>32</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45910.041087962964</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45911.026550925926</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" s="2">
+        <v>45903.040659722225</v>
+      </c>
+      <c r="D159" s="2">
+        <v>45904.012349537035</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>54</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45905.033067129632</v>
+      </c>
+      <c r="D160" s="2">
+        <v>45906.00104166667</v>
+      </c>
+      <c r="E160" s="2"/>
+      <c r="F160">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>54</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45910.584328703706</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45911.616053240738</v>
+      </c>
+      <c r="E161" s="2"/>
+      <c r="F161">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>34</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45901.538043981483</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45902.527268518519</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$F$73</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="58">
   <si>
     <t>电站名称</t>
   </si>
@@ -34,9 +34,6 @@
     <t>未充电时长(小时)</t>
   </si>
   <si>
-    <t>长沙市开福区高岭香江国际城充电站建设项目</t>
-  </si>
-  <si>
     <t>104号直流</t>
   </si>
   <si>
@@ -100,21 +97,12 @@
     <t>903号直流</t>
   </si>
   <si>
-    <t>109号直流</t>
-  </si>
-  <si>
-    <t>805号直流</t>
-  </si>
-  <si>
     <t>A02号直流</t>
   </si>
   <si>
     <t>901号直流</t>
   </si>
   <si>
-    <t>303号直流</t>
-  </si>
-  <si>
     <t>801号直流</t>
   </si>
   <si>
@@ -127,12 +115,6 @@
     <t>406号直流</t>
   </si>
   <si>
-    <t>208号直流</t>
-  </si>
-  <si>
-    <t>B03号直流</t>
-  </si>
-  <si>
     <t>005B号直流</t>
   </si>
   <si>
@@ -148,9 +130,6 @@
     <t>402号直流</t>
   </si>
   <si>
-    <t>302号直流</t>
-  </si>
-  <si>
     <t>一直未充电时间</t>
   </si>
   <si>
@@ -172,12 +151,6 @@
     <t>905号直流</t>
   </si>
   <si>
-    <t>B01号直流</t>
-  </si>
-  <si>
-    <t>307号直流</t>
-  </si>
-  <si>
     <t>102号直流</t>
   </si>
   <si>
@@ -196,52 +169,28 @@
     <t>A05号直流</t>
   </si>
   <si>
-    <t>108号直流</t>
-  </si>
-  <si>
     <t>203号直流</t>
   </si>
   <si>
-    <t>A01号直流</t>
-  </si>
-  <si>
-    <t>605号直流</t>
-  </si>
-  <si>
     <t>403号直流</t>
   </si>
   <si>
-    <t>A03号直流</t>
-  </si>
-  <si>
-    <t>110号直流</t>
-  </si>
-  <si>
-    <t>111号直流</t>
-  </si>
-  <si>
     <t>405号直流</t>
   </si>
   <si>
     <t>002B号直流</t>
   </si>
   <si>
-    <t>107号直流</t>
-  </si>
-  <si>
     <t>802号直流</t>
   </si>
   <si>
     <t>B05号直流</t>
   </si>
   <si>
-    <t>204号直流</t>
-  </si>
-  <si>
-    <t>206号直流</t>
-  </si>
-  <si>
     <t>205号直流</t>
+  </si>
+  <si>
+    <t>803号直流</t>
   </si>
 </sst>
 </file>
@@ -602,19 +551,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
     <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -632,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -640,2899 +589,1963 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
-        <v>45906.578356481485</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45913.004490740743</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>45907.567233796297</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>45914.320879629631</v>
+      </c>
       <c r="F2">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>45907.567233796297</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>45913.348854166667</v>
-      </c>
+        <v>45906.578356481485</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45913.004490740743</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>45904.4453125</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45909.56177083333</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>45908.603506944448</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>45914.320879629631</v>
+      </c>
       <c r="F4">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
-        <v>45908.603506944448</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>45913.348854166667</v>
-      </c>
+        <v>45908.550717592596</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45913.021585648145</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
-        <v>45908.550717592596</v>
+        <v>45909.602083333331</v>
       </c>
       <c r="D6" s="2">
-        <v>45913.021585648145</v>
+        <v>45914.000115740739</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>45909.236574074072</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>45913.348854166667</v>
-      </c>
+      <c r="D7" s="2">
+        <v>45913.535138888888</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
-        <v>45909.602083333331</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>45913.348854166667</v>
-      </c>
+        <v>45909.053182870368</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45912.756840277776</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>45909.053182870368</v>
+        <v>45905.534791666665</v>
       </c>
       <c r="D9" s="2">
-        <v>45912.756840277776</v>
+        <v>45909.203703703701</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>45905.534791666665</v>
+        <v>45908.525706018518</v>
       </c>
       <c r="D10" s="2">
-        <v>45909.203703703701</v>
+        <v>45912.034201388888</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
-        <v>45902.230208333334</v>
+        <v>45905.263715277775</v>
       </c>
       <c r="D11" s="2">
-        <v>45905.834178240744</v>
+        <v>45908.553703703707</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2">
-        <v>45908.525706018518</v>
+        <v>45907.570555555554</v>
       </c>
       <c r="D12" s="2">
-        <v>45912.034201388888</v>
+        <v>45910.500289351854</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>45902.056701388887</v>
+        <v>45906.271747685183</v>
       </c>
       <c r="D13" s="2">
-        <v>45905.500868055555</v>
+        <v>45909.218194444446</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2">
-        <v>45905.263715277775</v>
-      </c>
-      <c r="D14" s="2">
-        <v>45908.553703703707</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>45911.52857638889</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>45914.320879629631</v>
+      </c>
       <c r="F14">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
-        <v>45906.271747685183</v>
+        <v>45910.540219907409</v>
       </c>
       <c r="D15" s="2">
-        <v>45909.218194444446</v>
+        <v>45913.224270833336</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
-        <v>45907.570555555554</v>
+        <v>45910.021134259259</v>
       </c>
       <c r="D16" s="2">
-        <v>45910.500289351854</v>
+        <v>45912.686157407406</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
       <c r="C17" s="2">
-        <v>45910.540219907409</v>
+        <v>45906.25440972222</v>
       </c>
       <c r="D17" s="2">
-        <v>45913.224270833336</v>
+        <v>45908.543657407405</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
-        <v>45910.021134259259</v>
+        <v>45907.401435185187</v>
       </c>
       <c r="D18" s="2">
-        <v>45912.686157407406</v>
+        <v>45909.52579861111</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>45904.095752314817</v>
+        <v>45905.060277777775</v>
       </c>
       <c r="D19" s="2">
-        <v>45906.629687499997</v>
+        <v>45907.134097222224</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2">
-        <v>45904.238113425927</v>
+        <v>45908.552488425928</v>
       </c>
       <c r="D20" s="2">
-        <v>45906.537569444445</v>
+        <v>45910.652662037035</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2">
-        <v>45906.25440972222</v>
+        <v>45907.522546296299</v>
       </c>
       <c r="D21" s="2">
-        <v>45908.543657407405</v>
+        <v>45909.570775462962</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
-        <v>45902.031944444447</v>
-      </c>
-      <c r="D22" s="2">
-        <v>45904.216631944444</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>45912.328969907408</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>45914.320879629631</v>
+      </c>
       <c r="F22">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2">
-        <v>45907.401435185187</v>
+        <v>45911.040381944447</v>
       </c>
       <c r="D23" s="2">
-        <v>45909.52579861111</v>
+        <v>45913.023263888892</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>45903.0937037037</v>
+        <v>45908.570474537039</v>
       </c>
       <c r="D24" s="2">
-        <v>45905.186064814814</v>
+        <v>45910.550486111111</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2">
-        <v>45905.060277777775</v>
+        <v>45912.060983796298</v>
       </c>
       <c r="D25" s="2">
-        <v>45907.134097222224</v>
+        <v>45914.012141203704</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2">
-        <v>45908.552488425928</v>
+        <v>45906.549328703702</v>
       </c>
       <c r="D26" s="2">
-        <v>45910.652662037035</v>
+        <v>45908.533761574072</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2">
-        <v>45910.355798611112</v>
+        <v>45908.082407407404</v>
       </c>
       <c r="D27" s="2">
-        <v>45912.393368055556</v>
+        <v>45910.006041666667</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2">
-        <v>45907.522546296299</v>
+        <v>45910.5781712963</v>
       </c>
       <c r="D28" s="2">
-        <v>45909.570775462962</v>
+        <v>45912.528969907406</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2">
-        <v>45911.040381944447</v>
+        <v>45906.091840277775</v>
       </c>
       <c r="D29" s="2">
-        <v>45913.023263888892</v>
+        <v>45908.0002662037</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>45908.570474537039</v>
+        <v>45905.58865740741</v>
       </c>
       <c r="D30" s="2">
-        <v>45910.550486111111</v>
+        <v>45907.541539351849</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2">
-        <v>45903.038356481484</v>
+        <v>45911.646747685183</v>
       </c>
       <c r="D31" s="2">
-        <v>45905.020983796298</v>
+        <v>45913.523923611108</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
       <c r="C32" s="2">
-        <v>45902.027557870373</v>
+        <v>45911.562384259261</v>
       </c>
       <c r="D32" s="2">
-        <v>45904.000578703701</v>
+        <v>45913.435532407406</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C33" s="2">
-        <v>45910.561724537038</v>
+        <v>45909.261608796296</v>
       </c>
       <c r="D33" s="2">
-        <v>45912.509375000001</v>
+        <v>45911.001076388886</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C34" s="2">
-        <v>45908.082407407404</v>
+        <v>45909.799317129633</v>
       </c>
       <c r="D34" s="2">
-        <v>45910.006041666667</v>
+        <v>45911.513888888891</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C35" s="2">
-        <v>45903.579016203701</v>
+        <v>45911.531018518515</v>
       </c>
       <c r="D35" s="2">
-        <v>45905.501250000001</v>
+        <v>45913.206875000003</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" s="2">
-        <v>45910.5781712963</v>
+        <v>45907.705949074072</v>
       </c>
       <c r="D36" s="2">
-        <v>45912.528969907406</v>
+        <v>45909.21980324074</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2">
-        <v>45906.549328703702</v>
+        <v>45908.058252314811</v>
       </c>
       <c r="D37" s="2">
-        <v>45908.533761574072</v>
+        <v>45909.559004629627</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2">
-        <v>45905.58865740741</v>
+        <v>45909.579212962963</v>
       </c>
       <c r="D38" s="2">
-        <v>45907.541539351849</v>
+        <v>45911.07608796296</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2">
-        <v>45906.091840277775</v>
+        <v>45908.210324074076</v>
       </c>
       <c r="D39" s="2">
-        <v>45908.0002662037</v>
+        <v>45909.712118055555</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C40" s="2">
-        <v>45911.52857638889</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2">
-        <v>45913.348854166667</v>
-      </c>
+        <v>45910.534502314818</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45912.012048611112</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2">
-        <v>45903.560266203705</v>
+        <v>45907.729745370372</v>
       </c>
       <c r="D41" s="2">
-        <v>45905.407696759263</v>
+        <v>45909.231006944443</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2">
-        <v>45901.550439814811</v>
+        <v>45908.562800925924</v>
       </c>
       <c r="D42" s="2">
-        <v>45903.3437962963</v>
+        <v>45910.003263888888</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C43" s="2">
-        <v>45904.367662037039</v>
+        <v>45906.065810185188</v>
       </c>
       <c r="D43" s="2">
-        <v>45906.129490740743</v>
+        <v>45907.50099537037</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2">
-        <v>45911.562384259261</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2">
-        <v>45913.348854166667</v>
-      </c>
+        <v>45912.567314814813</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45914.04074074074</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="2">
-        <v>45909.261608796296</v>
+        <v>45906.087141203701</v>
       </c>
       <c r="D45" s="2">
-        <v>45911.001076388886</v>
+        <v>45907.494085648148</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2">
-        <v>45909.799317129633</v>
+        <v>45912.627604166664</v>
       </c>
       <c r="D46" s="2">
-        <v>45911.513888888891</v>
+        <v>45914.005208333336</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2">
-        <v>45911.646747685183</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2">
-        <v>45913.348854166667</v>
-      </c>
+        <v>45910.054398148146</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45911.384293981479</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C48" s="2">
-        <v>45906.348958333336</v>
+        <v>45907.194444444445</v>
       </c>
       <c r="D48" s="2">
-        <v>45908.012199074074</v>
+        <v>45908.530740740738</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C49" s="2">
-        <v>45911.531018518515</v>
+        <v>45906.810439814813</v>
       </c>
       <c r="D49" s="2">
-        <v>45913.206875000003</v>
+        <v>45908.090266203704</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2">
-        <v>45903.75744212963</v>
+        <v>45907.24454861111</v>
       </c>
       <c r="D50" s="2">
-        <v>45905.312962962962</v>
+        <v>45908.508622685185</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="B51" t="s">
-        <v>26</v>
-      </c>
       <c r="C51" s="2">
-        <v>45907.705949074072</v>
+        <v>45910.247546296298</v>
       </c>
       <c r="D51" s="2">
-        <v>45909.21980324074</v>
+        <v>45911.529826388891</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2">
-        <v>45907.729745370372</v>
+        <v>45906.221956018519</v>
       </c>
       <c r="D52" s="2">
-        <v>45909.231006944443</v>
+        <v>45907.510810185187</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C53" s="2">
-        <v>45903.548900462964</v>
+        <v>45910.029456018521</v>
       </c>
       <c r="D53" s="2">
-        <v>45905.052442129629</v>
+        <v>45911.331701388888</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C54" s="2">
-        <v>45903.531446759262</v>
-      </c>
-      <c r="D54" s="2">
-        <v>45905.010671296295</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>45913.006967592592</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2">
+        <v>45914.320879629631</v>
+      </c>
       <c r="F54">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C55" s="2">
-        <v>45908.058252314811</v>
+        <v>45909.260914351849</v>
       </c>
       <c r="D55" s="2">
-        <v>45909.559004629627</v>
+        <v>45910.524594907409</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C56" s="2">
-        <v>45909.579212962963</v>
-      </c>
-      <c r="D56" s="2">
-        <v>45911.07608796296</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>45913.052685185183</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2">
+        <v>45914.320879629631</v>
+      </c>
       <c r="F56">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C57" s="2">
-        <v>45908.210324074076</v>
+        <v>45913.050844907404</v>
       </c>
       <c r="D57" s="2">
-        <v>45909.712118055555</v>
+        <v>45914.284895833334</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C58" s="2">
-        <v>45910.534502314818</v>
+        <v>45910.067824074074</v>
       </c>
       <c r="D58" s="2">
-        <v>45912.012048611112</v>
+        <v>45911.284560185188</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2">
-        <v>45901.03025462963</v>
+        <v>45907.051342592589</v>
       </c>
       <c r="D59" s="2">
-        <v>45902.500243055554</v>
+        <v>45908.250138888892</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C60" s="2">
-        <v>45906.573877314811</v>
+        <v>45907.389652777776</v>
       </c>
       <c r="D60" s="2">
-        <v>45908.008958333332</v>
+        <v>45908.550567129627</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C61" s="2">
-        <v>45904.063692129632</v>
+        <v>45910.356319444443</v>
       </c>
       <c r="D61" s="2">
-        <v>45905.506157407406</v>
+        <v>45911.500925925924</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C62" s="2">
-        <v>45901.560231481482</v>
+        <v>45909.373738425929</v>
       </c>
       <c r="D62" s="2">
-        <v>45903.0312037037</v>
+        <v>45910.524085648147</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C63" s="2">
-        <v>45902.025509259256</v>
+        <v>45905.566099537034</v>
       </c>
       <c r="D63" s="2">
-        <v>45903.49627314815</v>
+        <v>45906.734594907408</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C64" s="2">
-        <v>45908.562800925924</v>
+        <v>45907.048576388886</v>
       </c>
       <c r="D64" s="2">
-        <v>45910.003263888888</v>
+        <v>45908.228101851855</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C65" s="2">
-        <v>45902.545347222222</v>
+        <v>45906.042974537035</v>
       </c>
       <c r="D65" s="2">
-        <v>45904.018020833333</v>
+        <v>45907.169976851852</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C66" s="2">
-        <v>45903.075219907405</v>
+        <v>45909.091203703705</v>
       </c>
       <c r="D66" s="2">
-        <v>45904.534386574072</v>
+        <v>45910.220127314817</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2">
-        <v>45906.065810185188</v>
+        <v>45907.094305555554</v>
       </c>
       <c r="D67" s="2">
-        <v>45907.50099537037</v>
+        <v>45908.213356481479</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C68" s="2">
-        <v>45903.062071759261</v>
+        <v>45906.575902777775</v>
       </c>
       <c r="D68" s="2">
-        <v>45904.471817129626</v>
+        <v>45907.67150462963</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C69" s="2">
-        <v>45906.087141203701</v>
+        <v>45912.041076388887</v>
       </c>
       <c r="D69" s="2">
-        <v>45907.494085648148</v>
+        <v>45913.145925925928</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C70" s="2">
-        <v>45903.625138888892</v>
+        <v>45913.042430555557</v>
       </c>
       <c r="D70" s="2">
-        <v>45905.008043981485</v>
+        <v>45914.200810185182</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2">
-        <v>45909.039467592593</v>
+        <v>45911.012094907404</v>
       </c>
       <c r="D71" s="2">
-        <v>45910.373379629629</v>
+        <v>45912.137696759259</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C72" s="2">
-        <v>45902.767638888887</v>
+        <v>45908.118969907409</v>
       </c>
       <c r="D72" s="2">
-        <v>45904.084664351853</v>
+        <v>45909.179571759261</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C73" s="2">
-        <v>45907.194444444445</v>
+        <v>45906.047337962962</v>
       </c>
       <c r="D73" s="2">
-        <v>45908.530740740738</v>
+        <v>45907.137569444443</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C74" s="2">
-        <v>45910.054398148146</v>
-      </c>
-      <c r="D74" s="2">
-        <v>45911.384293981479</v>
-      </c>
-      <c r="E74" s="2"/>
+        <v>45913.23265046296</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2">
+        <v>45914.320879629631</v>
+      </c>
       <c r="F74">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C75" s="2">
-        <v>45907.24454861111</v>
+        <v>45909.039143518516</v>
       </c>
       <c r="D75" s="2">
-        <v>45908.508622685185</v>
+        <v>45910.102083333331</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2">
-        <v>45910.029456018521</v>
+        <v>45907.134444444448</v>
       </c>
       <c r="D76" s="2">
-        <v>45911.331701388888</v>
+        <v>45908.224537037036</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C77" s="2">
-        <v>45906.810439814813</v>
+        <v>45913.064467592594</v>
       </c>
       <c r="D77" s="2">
-        <v>45908.090266203704</v>
+        <v>45914.140983796293</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C78" s="2">
-        <v>45906.221956018519</v>
+        <v>45909.514016203706</v>
       </c>
       <c r="D78" s="2">
-        <v>45907.510810185187</v>
+        <v>45910.611180555556</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C79" s="2">
-        <v>45912.060983796298</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2">
-        <v>45913.348854166667</v>
-      </c>
+        <v>45912.043020833335</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45913.113923611112</v>
+      </c>
+      <c r="E79" s="2"/>
       <c r="F79">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2">
-        <v>45910.247546296298</v>
+        <v>45911.684641203705</v>
       </c>
       <c r="D80" s="2">
-        <v>45911.529826388891</v>
+        <v>45912.726527777777</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C81" s="2">
-        <v>45905.7655787037</v>
+        <v>45911.994386574072</v>
       </c>
       <c r="D81" s="2">
-        <v>45907.012766203705</v>
+        <v>45913.008622685185</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C82" s="2">
-        <v>45909.260914351849</v>
+        <v>45908.570671296293</v>
       </c>
       <c r="D82" s="2">
-        <v>45910.524594907409</v>
+        <v>45909.609884259262</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C83" s="2">
-        <v>45903.095196759263</v>
+        <v>45913.021006944444</v>
       </c>
       <c r="D83" s="2">
-        <v>45904.33935185185</v>
+        <v>45914.078969907408</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C84" s="2">
-        <v>45903.574432870373</v>
+        <v>45908.567731481482</v>
       </c>
       <c r="D84" s="2">
-        <v>45904.814143518517</v>
+        <v>45909.606053240743</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C85" s="2">
-        <v>45904.257928240739</v>
+        <v>45908.19803240741</v>
       </c>
       <c r="D85" s="2">
-        <v>45905.532916666663</v>
+        <v>45909.213159722225</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C86" s="2">
-        <v>45903.346064814818</v>
+        <v>45910.196134259262</v>
       </c>
       <c r="D86" s="2">
-        <v>45904.573182870372</v>
+        <v>45911.248784722222</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C87" s="2">
-        <v>45903.550567129627</v>
+        <v>45905.577847222223</v>
       </c>
       <c r="D87" s="2">
-        <v>45904.756435185183</v>
+        <v>45906.623020833336</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C88" s="2">
-        <v>45901.125694444447</v>
+        <v>45907.620358796295</v>
       </c>
       <c r="D88" s="2">
-        <v>45902.348506944443</v>
+        <v>45908.656805555554</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C89" s="2">
-        <v>45910.067824074074</v>
+        <v>45906.993020833332</v>
       </c>
       <c r="D89" s="2">
-        <v>45911.284560185188</v>
+        <v>45907.99009259259</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C90" s="2">
-        <v>45907.051342592589</v>
+        <v>45905.558854166666</v>
       </c>
       <c r="D90" s="2">
-        <v>45908.250138888892</v>
+        <v>45906.555868055555</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C91" s="2">
-        <v>45909.373738425929</v>
+        <v>45909.531261574077</v>
       </c>
       <c r="D91" s="2">
-        <v>45910.524085648147</v>
+        <v>45910.523888888885</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2">
-        <v>45905.566099537034</v>
+        <v>45913.030231481483</v>
       </c>
       <c r="D92" s="2">
-        <v>45906.734594907408</v>
+        <v>45914.003888888888</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2">
-        <v>45907.048576388886</v>
+        <v>45905.028263888889</v>
       </c>
       <c r="D93" s="2">
-        <v>45908.228101851855</v>
+        <v>45906.015115740738</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C94" s="2">
-        <v>45901.038946759261</v>
+        <v>45905.033067129632</v>
       </c>
       <c r="D94" s="2">
-        <v>45902.182835648149</v>
+        <v>45906.00104166667</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C95" s="2">
-        <v>45910.356319444443</v>
+        <v>45910.584328703706</v>
       </c>
       <c r="D95" s="2">
-        <v>45911.500925925924</v>
+        <v>45911.616053240738</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C96" s="2">
-        <v>45907.389652777776</v>
+        <v>45906.572326388887</v>
       </c>
       <c r="D96" s="2">
-        <v>45908.550567129627</v>
+        <v>45907.549814814818</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C97" s="2">
-        <v>45904.03466435185</v>
+        <v>45910.041087962964</v>
       </c>
       <c r="D97" s="2">
-        <v>45905.192037037035</v>
+        <v>45911.026550925926</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C98" s="2">
-        <v>45911.012094907404</v>
+        <v>45913.029675925929</v>
       </c>
       <c r="D98" s="2">
-        <v>45912.137696759259</v>
+        <v>45914.000960648147</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C99" s="2">
-        <v>45909.091203703705</v>
+        <v>45908.923564814817</v>
       </c>
       <c r="D99" s="2">
-        <v>45910.220127314817</v>
+        <v>45909.953576388885</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C100" s="2">
-        <v>45906.575902777775</v>
+        <v>45906.520752314813</v>
       </c>
       <c r="D100" s="2">
-        <v>45907.67150462963</v>
+        <v>45907.527858796297</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C101" s="2">
-        <v>45912.041076388887</v>
+        <v>45907.041504629633</v>
       </c>
       <c r="D101" s="2">
-        <v>45913.145925925928</v>
+        <v>45908.003831018519</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C102" s="2">
-        <v>45907.094305555554</v>
+        <v>45909.532372685186</v>
       </c>
       <c r="D102" s="2">
-        <v>45908.213356481479</v>
+        <v>45910.502280092594</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C103" s="2">
-        <v>45906.042974537035</v>
+        <v>45910.510555555556</v>
       </c>
       <c r="D103" s="2">
-        <v>45907.169976851852</v>
+        <v>45911.524016203701</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C104" s="2">
-        <v>45901.470590277779</v>
+        <v>45909.029490740744</v>
       </c>
       <c r="D104" s="2">
-        <v>45902.562650462962</v>
+        <v>45910.00445601852</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C105" s="2">
-        <v>45907.134444444448</v>
+        <v>45912.03328703704</v>
       </c>
       <c r="D105" s="2">
-        <v>45908.224537037036</v>
+        <v>45913.003379629627</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C106" s="2">
-        <v>45902.027233796296</v>
+        <v>45911.556932870371</v>
       </c>
       <c r="D106" s="2">
-        <v>45903.087951388887</v>
+        <v>45912.543055555558</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C107" s="2">
-        <v>45901.259722222225</v>
+        <v>45910.02920138889</v>
       </c>
       <c r="D107" s="2">
-        <v>45902.373217592591</v>
+        <v>45911.005185185182</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C108" s="2">
-        <v>45909.039143518516</v>
+        <v>45911.034571759257</v>
       </c>
       <c r="D108" s="2">
-        <v>45910.102083333331</v>
+        <v>45912.001400462963</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2">
-        <v>45909.514016203706</v>
+        <v>45907.019560185188</v>
       </c>
       <c r="D109" s="2">
-        <v>45910.611180555556</v>
+        <v>45908.010844907411</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C110" s="2">
-        <v>45906.047337962962</v>
+        <v>45913.032546296294</v>
       </c>
       <c r="D110" s="2">
-        <v>45907.137569444443</v>
+        <v>45914.002326388887</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111" t="s">
-        <v>41</v>
-      </c>
-      <c r="C111" s="2">
-        <v>45908.118969907409</v>
-      </c>
-      <c r="D111" s="2">
-        <v>45909.179571759261</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
-        <v>5</v>
-      </c>
-      <c r="B112" t="s">
-        <v>66</v>
-      </c>
-      <c r="C112" s="2">
-        <v>45909.239444444444</v>
-      </c>
-      <c r="D112" s="2">
-        <v>45910.265706018516</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
-        <v>5</v>
-      </c>
-      <c r="B113" t="s">
-        <v>66</v>
-      </c>
-      <c r="C113" s="2">
-        <v>45911.244166666664</v>
-      </c>
-      <c r="D113" s="2">
-        <v>45912.265601851854</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" t="s">
-        <v>65</v>
-      </c>
-      <c r="C114" s="2">
-        <v>45901.569282407407</v>
-      </c>
-      <c r="D114" s="2">
-        <v>45902.593414351853</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115" t="s">
-        <v>72</v>
-      </c>
-      <c r="C115" s="2">
-        <v>45911.504976851851</v>
-      </c>
-      <c r="D115" s="2">
-        <v>45912.543333333335</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A116" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116" s="2">
-        <v>45906.5156712963</v>
-      </c>
-      <c r="D116" s="2">
-        <v>45907.565092592595</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A117" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="2">
-        <v>45908.567731481482</v>
-      </c>
-      <c r="D117" s="2">
-        <v>45909.606053240743</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A118" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" s="2">
-        <v>45908.19803240741</v>
-      </c>
-      <c r="D118" s="2">
-        <v>45909.213159722225</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" t="s">
-        <v>60</v>
-      </c>
-      <c r="C119" s="2">
-        <v>45907.620358796295</v>
-      </c>
-      <c r="D119" s="2">
-        <v>45908.656805555554</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" t="s">
-        <v>35</v>
-      </c>
-      <c r="C120" s="2">
-        <v>45905.577847222223</v>
-      </c>
-      <c r="D120" s="2">
-        <v>45906.623020833336</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" s="2">
-        <v>45910.196134259262</v>
-      </c>
-      <c r="D121" s="2">
-        <v>45911.248784722222</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A122" t="s">
-        <v>7</v>
-      </c>
-      <c r="B122" t="s">
-        <v>62</v>
-      </c>
-      <c r="C122" s="2">
-        <v>45901.158136574071</v>
-      </c>
-      <c r="D122" s="2">
-        <v>45902.190081018518</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
-        <v>7</v>
-      </c>
-      <c r="B123" t="s">
-        <v>30</v>
-      </c>
-      <c r="C123" s="2">
-        <v>45912.043020833335</v>
-      </c>
-      <c r="D123" s="2">
-        <v>45913.113923611112</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A124" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" t="s">
-        <v>63</v>
-      </c>
-      <c r="C124" s="2">
-        <v>45903.08121527778</v>
-      </c>
-      <c r="D124" s="2">
-        <v>45904.113680555558</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A125" t="s">
-        <v>7</v>
-      </c>
-      <c r="B125" t="s">
-        <v>63</v>
-      </c>
-      <c r="C125" s="2">
-        <v>45911.684641203705</v>
-      </c>
-      <c r="D125" s="2">
-        <v>45912.726527777777</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" s="2">
-        <v>45911.994386574072</v>
-      </c>
-      <c r="D126" s="2">
-        <v>45913.008622685185</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
-        <v>7</v>
-      </c>
-      <c r="B127" t="s">
-        <v>61</v>
-      </c>
-      <c r="C127" s="2">
-        <v>45901.148784722223</v>
-      </c>
-      <c r="D127" s="2">
-        <v>45902.167685185188</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A128" t="s">
-        <v>7</v>
-      </c>
-      <c r="B128" t="s">
-        <v>64</v>
-      </c>
-      <c r="C128" s="2">
-        <v>45903.038553240738</v>
-      </c>
-      <c r="D128" s="2">
-        <v>45904.044745370367</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A129" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" t="s">
-        <v>33</v>
-      </c>
-      <c r="C129" s="2">
-        <v>45912.328969907408</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2">
-        <v>45913.348854166667</v>
-      </c>
-      <c r="F129">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
-        <v>7</v>
-      </c>
-      <c r="B130" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="2">
-        <v>45908.570671296293</v>
-      </c>
-      <c r="D130" s="2">
-        <v>45909.609884259262</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B131" t="s">
-        <v>73</v>
-      </c>
-      <c r="C131" s="2">
-        <v>45912.242094907408</v>
-      </c>
-      <c r="D131" s="2">
-        <v>45913.231030092589</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" t="s">
-        <v>31</v>
-      </c>
-      <c r="C132" s="2">
-        <v>45904.702118055553</v>
-      </c>
-      <c r="D132" s="2">
-        <v>45905.667326388888</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" t="s">
-        <v>65</v>
-      </c>
-      <c r="C133" s="2">
-        <v>45904.020173611112</v>
-      </c>
-      <c r="D133" s="2">
-        <v>45905.008136574077</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" t="s">
-        <v>53</v>
-      </c>
-      <c r="C134" s="2">
-        <v>45902.329155092593</v>
-      </c>
-      <c r="D134" s="2">
-        <v>45903.310069444444</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A135" t="s">
-        <v>12</v>
-      </c>
-      <c r="B135" t="s">
-        <v>68</v>
-      </c>
-      <c r="C135" s="2">
-        <v>45906.520752314813</v>
-      </c>
-      <c r="D135" s="2">
-        <v>45907.527858796297</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A136" t="s">
-        <v>12</v>
-      </c>
-      <c r="B136" t="s">
-        <v>53</v>
-      </c>
-      <c r="C136" s="2">
-        <v>45902.031307870369</v>
-      </c>
-      <c r="D136" s="2">
-        <v>45903.015347222223</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A137" t="s">
-        <v>12</v>
-      </c>
-      <c r="B137" t="s">
-        <v>33</v>
-      </c>
-      <c r="C137" s="2">
-        <v>45907.041504629633</v>
-      </c>
-      <c r="D137" s="2">
-        <v>45908.003831018519</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
-        <v>12</v>
-      </c>
-      <c r="B138" t="s">
-        <v>21</v>
-      </c>
-      <c r="C138" s="2">
-        <v>45908.923564814817</v>
-      </c>
-      <c r="D138" s="2">
-        <v>45909.953576388885</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A139" t="s">
-        <v>12</v>
-      </c>
-      <c r="B139" t="s">
-        <v>42</v>
-      </c>
-      <c r="C139" s="2">
-        <v>45909.532372685186</v>
-      </c>
-      <c r="D139" s="2">
-        <v>45910.502280092594</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A140" t="s">
-        <v>12</v>
-      </c>
-      <c r="B140" t="s">
-        <v>42</v>
-      </c>
-      <c r="C140" s="2">
-        <v>45910.510555555556</v>
-      </c>
-      <c r="D140" s="2">
-        <v>45911.524016203701</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
-        <v>9</v>
-      </c>
-      <c r="B141" t="s">
-        <v>47</v>
-      </c>
-      <c r="C141" s="2">
-        <v>45904.531631944446</v>
-      </c>
-      <c r="D141" s="2">
-        <v>45905.530775462961</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A142" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" t="s">
-        <v>47</v>
-      </c>
-      <c r="C142" s="2">
-        <v>45909.029490740744</v>
-      </c>
-      <c r="D142" s="2">
-        <v>45910.00445601852</v>
-      </c>
-      <c r="E142" s="2"/>
-      <c r="F142">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A143" t="s">
-        <v>9</v>
-      </c>
-      <c r="B143" t="s">
-        <v>35</v>
-      </c>
-      <c r="C143" s="2">
-        <v>45903.551539351851</v>
-      </c>
-      <c r="D143" s="2">
-        <v>45904.543136574073</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
-        <v>9</v>
-      </c>
-      <c r="B144" t="s">
-        <v>35</v>
-      </c>
-      <c r="C144" s="2">
-        <v>45910.02920138889</v>
-      </c>
-      <c r="D144" s="2">
-        <v>45911.005185185182</v>
-      </c>
-      <c r="E144" s="2"/>
-      <c r="F144">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
-        <v>9</v>
-      </c>
-      <c r="B145" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="2">
-        <v>45911.034571759257</v>
-      </c>
-      <c r="D145" s="2">
-        <v>45912.001400462963</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146" t="s">
-        <v>9</v>
-      </c>
-      <c r="B146" t="s">
-        <v>74</v>
-      </c>
-      <c r="C146" s="2">
-        <v>45912.03328703704</v>
-      </c>
-      <c r="D146" s="2">
-        <v>45913.003379629627</v>
-      </c>
-      <c r="E146" s="2"/>
-      <c r="F146">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147" t="s">
-        <v>9</v>
-      </c>
-      <c r="B147" t="s">
-        <v>67</v>
-      </c>
-      <c r="C147" s="2">
-        <v>45907.019560185188</v>
-      </c>
-      <c r="D147" s="2">
-        <v>45908.010844907411</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
-        <v>9</v>
-      </c>
-      <c r="B148" t="s">
-        <v>14</v>
-      </c>
-      <c r="C148" s="2">
-        <v>45911.556932870371</v>
-      </c>
-      <c r="D148" s="2">
-        <v>45912.543055555558</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" t="s">
-        <v>9</v>
-      </c>
-      <c r="B149" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" s="2">
-        <v>45903.531400462962</v>
-      </c>
-      <c r="D149" s="2">
-        <v>45904.523900462962</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="F149">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" t="s">
-        <v>7</v>
-      </c>
-      <c r="B150" t="s">
-        <v>58</v>
-      </c>
-      <c r="C150" s="2">
-        <v>45905.028263888889</v>
-      </c>
-      <c r="D150" s="2">
-        <v>45906.015115740738</v>
-      </c>
-      <c r="E150" s="2"/>
-      <c r="F150">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151" t="s">
-        <v>41</v>
-      </c>
-      <c r="C151" s="2">
-        <v>45909.531261574077</v>
-      </c>
-      <c r="D151" s="2">
-        <v>45910.523888888885</v>
-      </c>
-      <c r="E151" s="2"/>
-      <c r="F151">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" t="s">
-        <v>7</v>
-      </c>
-      <c r="B152" t="s">
-        <v>18</v>
-      </c>
-      <c r="C152" s="2">
-        <v>45901.116909722223</v>
-      </c>
-      <c r="D152" s="2">
-        <v>45902.102569444447</v>
-      </c>
-      <c r="E152" s="2"/>
-      <c r="F152">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" t="s">
-        <v>7</v>
-      </c>
-      <c r="B153" t="s">
-        <v>63</v>
-      </c>
-      <c r="C153" s="2">
-        <v>45906.993020833332</v>
-      </c>
-      <c r="D153" s="2">
-        <v>45907.99009259259</v>
-      </c>
-      <c r="E153" s="2"/>
-      <c r="F153">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" t="s">
-        <v>7</v>
-      </c>
-      <c r="B154" t="s">
-        <v>20</v>
-      </c>
-      <c r="C154" s="2">
-        <v>45901.038090277776</v>
-      </c>
-      <c r="D154" s="2">
-        <v>45902.001168981478</v>
-      </c>
-      <c r="E154" s="2"/>
-      <c r="F154">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" t="s">
-        <v>7</v>
-      </c>
-      <c r="B155" t="s">
-        <v>20</v>
-      </c>
-      <c r="C155" s="2">
-        <v>45905.558854166666</v>
-      </c>
-      <c r="D155" s="2">
-        <v>45906.555868055555</v>
-      </c>
-      <c r="E155" s="2"/>
-      <c r="F155">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" t="s">
-        <v>7</v>
-      </c>
-      <c r="B156" t="s">
-        <v>39</v>
-      </c>
-      <c r="C156" s="2">
-        <v>45904.038356481484</v>
-      </c>
-      <c r="D156" s="2">
-        <v>45905.000960648147</v>
-      </c>
-      <c r="E156" s="2"/>
-      <c r="F156">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" t="s">
-        <v>7</v>
-      </c>
-      <c r="B157" t="s">
-        <v>32</v>
-      </c>
-      <c r="C157" s="2">
-        <v>45906.572326388887</v>
-      </c>
-      <c r="D157" s="2">
-        <v>45907.549814814818</v>
-      </c>
-      <c r="E157" s="2"/>
-      <c r="F157">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A158" t="s">
-        <v>7</v>
-      </c>
-      <c r="B158" t="s">
-        <v>32</v>
-      </c>
-      <c r="C158" s="2">
-        <v>45910.041087962964</v>
-      </c>
-      <c r="D158" s="2">
-        <v>45911.026550925926</v>
-      </c>
-      <c r="E158" s="2"/>
-      <c r="F158">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A159" t="s">
-        <v>7</v>
-      </c>
-      <c r="B159" t="s">
-        <v>54</v>
-      </c>
-      <c r="C159" s="2">
-        <v>45903.040659722225</v>
-      </c>
-      <c r="D159" s="2">
-        <v>45904.012349537035</v>
-      </c>
-      <c r="E159" s="2"/>
-      <c r="F159">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" t="s">
-        <v>7</v>
-      </c>
-      <c r="B160" t="s">
-        <v>54</v>
-      </c>
-      <c r="C160" s="2">
-        <v>45905.033067129632</v>
-      </c>
-      <c r="D160" s="2">
-        <v>45906.00104166667</v>
-      </c>
-      <c r="E160" s="2"/>
-      <c r="F160">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A161" t="s">
-        <v>7</v>
-      </c>
-      <c r="B161" t="s">
-        <v>54</v>
-      </c>
-      <c r="C161" s="2">
-        <v>45910.584328703706</v>
-      </c>
-      <c r="D161" s="2">
-        <v>45911.616053240738</v>
-      </c>
-      <c r="E161" s="2"/>
-      <c r="F161">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A162" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" t="s">
-        <v>34</v>
-      </c>
-      <c r="C162" s="2">
-        <v>45901.538043981483</v>
-      </c>
-      <c r="D162" s="2">
-        <v>45902.527268518519</v>
-      </c>
-      <c r="E162" s="2"/>
-      <c r="F162">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="66">
   <si>
     <t>电站名称</t>
   </si>
@@ -191,6 +191,30 @@
   </si>
   <si>
     <t>803号直流</t>
+  </si>
+  <si>
+    <t>长沙市开福区高岭香江国际城充电站建设项目</t>
+  </si>
+  <si>
+    <t>107号直流</t>
+  </si>
+  <si>
+    <t>109号直流</t>
+  </si>
+  <si>
+    <t>208号直流</t>
+  </si>
+  <si>
+    <t>302号直流</t>
+  </si>
+  <si>
+    <t>111号直流</t>
+  </si>
+  <si>
+    <t>204号直流</t>
+  </si>
+  <si>
+    <t>206号直流</t>
   </si>
 </sst>
 </file>
@@ -551,19 +575,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.25" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="4" max="4" width="26.375" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
     <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -599,10 +623,10 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>45914.320879629631</v>
+        <v>45914.373865740738</v>
       </c>
       <c r="F2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -635,10 +659,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>45914.320879629631</v>
+        <v>45914.373865740738</v>
       </c>
       <c r="F4">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -769,16 +793,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
-        <v>45907.570555555554</v>
+        <v>45906.271747685183</v>
       </c>
       <c r="D12" s="2">
-        <v>45910.500289351854</v>
+        <v>45909.218194444446</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12">
@@ -787,16 +811,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>45906.271747685183</v>
+        <v>45907.570555555554</v>
       </c>
       <c r="D13" s="2">
-        <v>45909.218194444446</v>
+        <v>45910.500289351854</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13">
@@ -815,10 +839,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
-        <v>45914.320879629631</v>
+        <v>45914.373865740738</v>
       </c>
       <c r="F14">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -931,16 +955,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2">
-        <v>45907.522546296299</v>
+        <v>45910.355798611112</v>
       </c>
       <c r="D21" s="2">
-        <v>45909.570775462962</v>
+        <v>45912.393368055556</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
@@ -952,35 +976,35 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
-        <v>45912.328969907408</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
-        <v>45914.320879629631</v>
-      </c>
+        <v>45907.522546296299</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45909.570775462962</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2">
-        <v>45911.040381944447</v>
-      </c>
-      <c r="D23" s="2">
-        <v>45913.023263888892</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>45912.328969907408</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>45914.373865740738</v>
+      </c>
       <c r="F23">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -988,13 +1012,13 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2">
-        <v>45908.570474537039</v>
+        <v>45911.040381944447</v>
       </c>
       <c r="D24" s="2">
-        <v>45910.550486111111</v>
+        <v>45913.023263888892</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
@@ -1003,34 +1027,34 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>45912.060983796298</v>
+        <v>45908.570474537039</v>
       </c>
       <c r="D25" s="2">
-        <v>45914.012141203704</v>
+        <v>45910.550486111111</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>45906.549328703702</v>
+        <v>45910.561724537038</v>
       </c>
       <c r="D26" s="2">
-        <v>45908.533761574072</v>
+        <v>45912.509375000001</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
@@ -1078,53 +1102,53 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2">
-        <v>45906.091840277775</v>
+        <v>45912.060983796298</v>
       </c>
       <c r="D29" s="2">
-        <v>45908.0002662037</v>
+        <v>45914.012141203704</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2">
-        <v>45905.58865740741</v>
+        <v>45906.549328703702</v>
       </c>
       <c r="D30" s="2">
-        <v>45907.541539351849</v>
+        <v>45908.533761574072</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2">
-        <v>45911.646747685183</v>
+        <v>45905.58865740741</v>
       </c>
       <c r="D31" s="2">
-        <v>45913.523923611108</v>
+        <v>45907.541539351849</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1132,107 +1156,107 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2">
-        <v>45911.562384259261</v>
+        <v>45906.091840277775</v>
       </c>
       <c r="D32" s="2">
-        <v>45913.435532407406</v>
+        <v>45908.0002662037</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2">
-        <v>45909.261608796296</v>
+        <v>45911.646747685183</v>
       </c>
       <c r="D33" s="2">
-        <v>45911.001076388886</v>
+        <v>45913.523923611108</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2">
-        <v>45909.799317129633</v>
+        <v>45911.562384259261</v>
       </c>
       <c r="D34" s="2">
-        <v>45911.513888888891</v>
+        <v>45913.435532407406</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2">
-        <v>45911.531018518515</v>
+        <v>45909.261608796296</v>
       </c>
       <c r="D35" s="2">
-        <v>45913.206875000003</v>
+        <v>45911.001076388886</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="2">
-        <v>45907.705949074072</v>
+        <v>45909.799317129633</v>
       </c>
       <c r="D36" s="2">
-        <v>45909.21980324074</v>
+        <v>45911.513888888891</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C37" s="2">
-        <v>45908.058252314811</v>
+        <v>45906.348958333336</v>
       </c>
       <c r="D37" s="2">
-        <v>45909.559004629627</v>
+        <v>45908.012199074074</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1240,17 +1264,17 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2">
-        <v>45909.579212962963</v>
+        <v>45911.531018518515</v>
       </c>
       <c r="D38" s="2">
-        <v>45911.07608796296</v>
+        <v>45913.206875000003</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1258,31 +1282,31 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2">
-        <v>45908.210324074076</v>
+        <v>45907.705949074072</v>
       </c>
       <c r="D39" s="2">
-        <v>45909.712118055555</v>
+        <v>45909.21980324074</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2">
-        <v>45910.534502314818</v>
+        <v>45907.729745370372</v>
       </c>
       <c r="D40" s="2">
-        <v>45912.012048611112</v>
+        <v>45909.231006944443</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
@@ -1291,16 +1315,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C41" s="2">
-        <v>45907.729745370372</v>
+        <v>45908.058252314811</v>
       </c>
       <c r="D41" s="2">
-        <v>45909.231006944443</v>
+        <v>45909.559004629627</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
@@ -1312,17 +1336,17 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2">
-        <v>45908.562800925924</v>
+        <v>45909.579212962963</v>
       </c>
       <c r="D42" s="2">
-        <v>45910.003263888888</v>
+        <v>45911.07608796296</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -1330,71 +1354,71 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C43" s="2">
-        <v>45906.065810185188</v>
+        <v>45908.210324074076</v>
       </c>
       <c r="D43" s="2">
-        <v>45907.50099537037</v>
+        <v>45909.712118055555</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2">
-        <v>45912.567314814813</v>
+        <v>45910.534502314818</v>
       </c>
       <c r="D44" s="2">
-        <v>45914.04074074074</v>
+        <v>45912.012048611112</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C45" s="2">
-        <v>45906.087141203701</v>
+        <v>45906.573877314811</v>
       </c>
       <c r="D45" s="2">
-        <v>45907.494085648148</v>
+        <v>45908.008958333332</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="2">
-        <v>45912.627604166664</v>
+        <v>45912.567314814813</v>
       </c>
       <c r="D46" s="2">
-        <v>45914.005208333336</v>
+        <v>45914.04074074074</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -1402,107 +1426,107 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2">
-        <v>45910.054398148146</v>
+        <v>45908.562800925924</v>
       </c>
       <c r="D47" s="2">
-        <v>45911.384293981479</v>
+        <v>45910.003263888888</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C48" s="2">
-        <v>45907.194444444445</v>
+        <v>45906.065810185188</v>
       </c>
       <c r="D48" s="2">
-        <v>45908.530740740738</v>
+        <v>45907.50099537037</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2">
-        <v>45906.810439814813</v>
+        <v>45906.087141203701</v>
       </c>
       <c r="D49" s="2">
-        <v>45908.090266203704</v>
+        <v>45907.494085648148</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2">
-        <v>45907.24454861111</v>
+        <v>45912.627604166664</v>
       </c>
       <c r="D50" s="2">
-        <v>45908.508622685185</v>
+        <v>45914.005208333336</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C51" s="2">
-        <v>45910.247546296298</v>
+        <v>45907.194444444445</v>
       </c>
       <c r="D51" s="2">
-        <v>45911.529826388891</v>
+        <v>45908.530740740738</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C52" s="2">
-        <v>45906.221956018519</v>
+        <v>45909.039467592593</v>
       </c>
       <c r="D52" s="2">
-        <v>45907.510810185187</v>
+        <v>45910.373379629629</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -1510,17 +1534,17 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C53" s="2">
-        <v>45910.029456018521</v>
+        <v>45910.054398148146</v>
       </c>
       <c r="D53" s="2">
-        <v>45911.331701388888</v>
+        <v>45911.384293981479</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -1535,46 +1559,46 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2">
-        <v>45914.320879629631</v>
+        <v>45914.373865740738</v>
       </c>
       <c r="F54">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C55" s="2">
-        <v>45909.260914351849</v>
-      </c>
-      <c r="D55" s="2">
-        <v>45910.524594907409</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>45913.052685185183</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
+        <v>45914.373865740738</v>
+      </c>
       <c r="F55">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C56" s="2">
-        <v>45913.052685185183</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2">
-        <v>45914.320879629631</v>
-      </c>
+        <v>45906.810439814813</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45908.090266203704</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -1582,17 +1606,17 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C57" s="2">
-        <v>45913.050844907404</v>
+        <v>45907.24454861111</v>
       </c>
       <c r="D57" s="2">
-        <v>45914.284895833334</v>
+        <v>45908.508622685185</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -1600,17 +1624,17 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C58" s="2">
-        <v>45910.067824074074</v>
+        <v>45910.247546296298</v>
       </c>
       <c r="D58" s="2">
-        <v>45911.284560185188</v>
+        <v>45911.529826388891</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -1618,17 +1642,17 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C59" s="2">
-        <v>45907.051342592589</v>
+        <v>45906.221956018519</v>
       </c>
       <c r="D59" s="2">
-        <v>45908.250138888892</v>
+        <v>45907.510810185187</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -1636,89 +1660,89 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C60" s="2">
-        <v>45907.389652777776</v>
+        <v>45910.029456018521</v>
       </c>
       <c r="D60" s="2">
-        <v>45908.550567129627</v>
+        <v>45911.331701388888</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C61" s="2">
-        <v>45910.356319444443</v>
+        <v>45909.260914351849</v>
       </c>
       <c r="D61" s="2">
-        <v>45911.500925925924</v>
+        <v>45910.524594907409</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C62" s="2">
-        <v>45909.373738425929</v>
+        <v>45905.7655787037</v>
       </c>
       <c r="D62" s="2">
-        <v>45910.524085648147</v>
+        <v>45907.012766203705</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C63" s="2">
-        <v>45905.566099537034</v>
+        <v>45913.050844907404</v>
       </c>
       <c r="D63" s="2">
-        <v>45906.734594907408</v>
+        <v>45914.284895833334</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C64" s="2">
-        <v>45907.048576388886</v>
+        <v>45910.067824074074</v>
       </c>
       <c r="D64" s="2">
-        <v>45908.228101851855</v>
+        <v>45911.284560185188</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -1726,71 +1750,71 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2">
-        <v>45906.042974537035</v>
+        <v>45907.051342592589</v>
       </c>
       <c r="D65" s="2">
-        <v>45907.169976851852</v>
+        <v>45908.250138888892</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C66" s="2">
-        <v>45909.091203703705</v>
+        <v>45909.373738425929</v>
       </c>
       <c r="D66" s="2">
-        <v>45910.220127314817</v>
+        <v>45910.524085648147</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C67" s="2">
-        <v>45907.094305555554</v>
+        <v>45905.566099537034</v>
       </c>
       <c r="D67" s="2">
-        <v>45908.213356481479</v>
+        <v>45906.734594907408</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C68" s="2">
-        <v>45906.575902777775</v>
+        <v>45907.048576388886</v>
       </c>
       <c r="D68" s="2">
-        <v>45907.67150462963</v>
+        <v>45908.228101851855</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -1798,49 +1822,49 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2">
-        <v>45912.041076388887</v>
+        <v>45907.389652777776</v>
       </c>
       <c r="D69" s="2">
-        <v>45913.145925925928</v>
+        <v>45908.550567129627</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C70" s="2">
-        <v>45913.042430555557</v>
+        <v>45910.356319444443</v>
       </c>
       <c r="D70" s="2">
-        <v>45914.200810185182</v>
+        <v>45911.500925925924</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C71" s="2">
-        <v>45911.012094907404</v>
+        <v>45913.042430555557</v>
       </c>
       <c r="D71" s="2">
-        <v>45912.137696759259</v>
+        <v>45914.200810185182</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
@@ -1849,20 +1873,20 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2">
-        <v>45908.118969907409</v>
+        <v>45911.012094907404</v>
       </c>
       <c r="D72" s="2">
-        <v>45909.179571759261</v>
+        <v>45912.137696759259</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -1870,17 +1894,17 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2">
-        <v>45906.047337962962</v>
+        <v>45909.091203703705</v>
       </c>
       <c r="D73" s="2">
-        <v>45907.137569444443</v>
+        <v>45910.220127314817</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -1888,211 +1912,211 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2">
-        <v>45913.23265046296</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2">
-        <v>45914.320879629631</v>
-      </c>
+        <v>45906.042974537035</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45907.169976851852</v>
+      </c>
+      <c r="E74" s="2"/>
       <c r="F74">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C75" s="2">
-        <v>45909.039143518516</v>
+        <v>45907.094305555554</v>
       </c>
       <c r="D75" s="2">
-        <v>45910.102083333331</v>
+        <v>45908.213356481479</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C76" s="2">
-        <v>45907.134444444448</v>
+        <v>45906.575902777775</v>
       </c>
       <c r="D76" s="2">
-        <v>45908.224537037036</v>
+        <v>45907.67150462963</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C77" s="2">
-        <v>45913.064467592594</v>
+        <v>45912.041076388887</v>
       </c>
       <c r="D77" s="2">
-        <v>45914.140983796293</v>
+        <v>45913.145925925928</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C78" s="2">
-        <v>45909.514016203706</v>
-      </c>
-      <c r="D78" s="2">
-        <v>45910.611180555556</v>
-      </c>
-      <c r="E78" s="2"/>
+        <v>45913.23265046296</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2">
+        <v>45914.373865740738</v>
+      </c>
       <c r="F78">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C79" s="2">
-        <v>45912.043020833335</v>
+        <v>45909.039143518516</v>
       </c>
       <c r="D79" s="2">
-        <v>45913.113923611112</v>
+        <v>45910.102083333331</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C80" s="2">
-        <v>45911.684641203705</v>
+        <v>45907.134444444448</v>
       </c>
       <c r="D80" s="2">
-        <v>45912.726527777777</v>
+        <v>45908.224537037036</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C81" s="2">
-        <v>45911.994386574072</v>
+        <v>45913.064467592594</v>
       </c>
       <c r="D81" s="2">
-        <v>45913.008622685185</v>
+        <v>45914.140983796293</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C82" s="2">
-        <v>45908.570671296293</v>
+        <v>45909.514016203706</v>
       </c>
       <c r="D82" s="2">
-        <v>45909.609884259262</v>
+        <v>45910.611180555556</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C83" s="2">
-        <v>45913.021006944444</v>
+        <v>45908.118969907409</v>
       </c>
       <c r="D83" s="2">
-        <v>45914.078969907408</v>
+        <v>45909.179571759261</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2">
-        <v>45908.567731481482</v>
+        <v>45906.047337962962</v>
       </c>
       <c r="D84" s="2">
-        <v>45909.606053240743</v>
+        <v>45907.137569444443</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C85" s="2">
-        <v>45908.19803240741</v>
+        <v>45913.021006944444</v>
       </c>
       <c r="D85" s="2">
-        <v>45909.213159722225</v>
+        <v>45914.078969907408</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85">
@@ -2101,16 +2125,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2">
-        <v>45910.196134259262</v>
+        <v>45909.239444444444</v>
       </c>
       <c r="D86" s="2">
-        <v>45911.248784722222</v>
+        <v>45910.265706018516</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
@@ -2119,16 +2143,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2">
-        <v>45905.577847222223</v>
+        <v>45911.244166666664</v>
       </c>
       <c r="D87" s="2">
-        <v>45906.623020833336</v>
+        <v>45912.265601851854</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87">
@@ -2137,16 +2161,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2">
-        <v>45907.620358796295</v>
+        <v>45911.504976851851</v>
       </c>
       <c r="D88" s="2">
-        <v>45908.656805555554</v>
+        <v>45912.543333333335</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
@@ -2155,110 +2179,110 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C89" s="2">
-        <v>45906.993020833332</v>
+        <v>45906.5156712963</v>
       </c>
       <c r="D89" s="2">
-        <v>45907.99009259259</v>
+        <v>45907.565092592595</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C90" s="2">
-        <v>45905.558854166666</v>
+        <v>45908.19803240741</v>
       </c>
       <c r="D90" s="2">
-        <v>45906.555868055555</v>
+        <v>45909.213159722225</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C91" s="2">
-        <v>45909.531261574077</v>
+        <v>45908.567731481482</v>
       </c>
       <c r="D91" s="2">
-        <v>45910.523888888885</v>
+        <v>45909.606053240743</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C92" s="2">
-        <v>45913.030231481483</v>
+        <v>45910.196134259262</v>
       </c>
       <c r="D92" s="2">
-        <v>45914.003888888888</v>
+        <v>45911.248784722222</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C93" s="2">
-        <v>45905.028263888889</v>
+        <v>45905.577847222223</v>
       </c>
       <c r="D93" s="2">
-        <v>45906.015115740738</v>
+        <v>45906.623020833336</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2">
-        <v>45905.033067129632</v>
+        <v>45907.620358796295</v>
       </c>
       <c r="D94" s="2">
-        <v>45906.00104166667</v>
+        <v>45908.656805555554</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
@@ -2266,17 +2290,17 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C95" s="2">
-        <v>45910.584328703706</v>
+        <v>45912.043020833335</v>
       </c>
       <c r="D95" s="2">
-        <v>45911.616053240738</v>
+        <v>45913.113923611112</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
@@ -2284,17 +2308,17 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C96" s="2">
-        <v>45906.572326388887</v>
+        <v>45911.684641203705</v>
       </c>
       <c r="D96" s="2">
-        <v>45907.549814814818</v>
+        <v>45912.726527777777</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
@@ -2302,17 +2326,17 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C97" s="2">
-        <v>45910.041087962964</v>
+        <v>45911.994386574072</v>
       </c>
       <c r="D97" s="2">
-        <v>45911.026550925926</v>
+        <v>45913.008622685185</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
@@ -2320,17 +2344,17 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C98" s="2">
-        <v>45913.029675925929</v>
+        <v>45908.570671296293</v>
       </c>
       <c r="D98" s="2">
-        <v>45914.000960648147</v>
+        <v>45909.609884259262</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
@@ -2425,16 +2449,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C104" s="2">
-        <v>45909.029490740744</v>
+        <v>45912.242094907408</v>
       </c>
       <c r="D104" s="2">
-        <v>45910.00445601852</v>
+        <v>45913.231030092589</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104">
@@ -2446,13 +2470,13 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C105" s="2">
-        <v>45912.03328703704</v>
+        <v>45909.029490740744</v>
       </c>
       <c r="D105" s="2">
-        <v>45913.003379629627</v>
+        <v>45910.00445601852</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
@@ -2464,13 +2488,13 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C106" s="2">
-        <v>45911.556932870371</v>
+        <v>45912.03328703704</v>
       </c>
       <c r="D106" s="2">
-        <v>45912.543055555558</v>
+        <v>45913.003379629627</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
@@ -2482,13 +2506,13 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C107" s="2">
-        <v>45910.02920138889</v>
+        <v>45911.556932870371</v>
       </c>
       <c r="D107" s="2">
-        <v>45911.005185185182</v>
+        <v>45912.543055555558</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
@@ -2503,10 +2527,10 @@
         <v>31</v>
       </c>
       <c r="C108" s="2">
-        <v>45911.034571759257</v>
+        <v>45910.02920138889</v>
       </c>
       <c r="D108" s="2">
-        <v>45912.001400462963</v>
+        <v>45911.005185185182</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
@@ -2518,13 +2542,13 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C109" s="2">
-        <v>45907.019560185188</v>
+        <v>45911.034571759257</v>
       </c>
       <c r="D109" s="2">
-        <v>45908.010844907411</v>
+        <v>45912.001400462963</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
@@ -2539,13 +2563,211 @@
         <v>52</v>
       </c>
       <c r="C110" s="2">
-        <v>45913.032546296294</v>
+        <v>45907.019560185188</v>
       </c>
       <c r="D110" s="2">
-        <v>45914.002326388887</v>
+        <v>45908.010844907411</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45913.032546296294</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45914.002326388887</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" s="2">
+        <v>45906.993020833332</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45907.99009259259</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="2">
+        <v>45905.558854166666</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45906.555868055555</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45909.531261574077</v>
+      </c>
+      <c r="D114" s="2">
+        <v>45910.523888888885</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45913.030231481483</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45914.003888888888</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116" s="2">
+        <v>45905.028263888889</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45906.015115740738</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="2">
+        <v>45905.033067129632</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45906.00104166667</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="2">
+        <v>45910.584328703706</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45911.616053240738</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="2">
+        <v>45906.572326388887</v>
+      </c>
+      <c r="D119" s="2">
+        <v>45907.549814814818</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="2">
+        <v>45910.041087962964</v>
+      </c>
+      <c r="D120" s="2">
+        <v>45911.026550925926</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="2">
+        <v>45913.029675925929</v>
+      </c>
+      <c r="D121" s="2">
+        <v>45914.000960648147</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="70">
   <si>
     <t>电站名称</t>
   </si>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>206号直流</t>
+  </si>
+  <si>
+    <t>303号直流</t>
+  </si>
+  <si>
+    <t>108号直流</t>
+  </si>
+  <si>
+    <t>601号直流</t>
+  </si>
+  <si>
+    <t>110号直流</t>
   </si>
 </sst>
 </file>
@@ -575,20 +587,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="27.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
-    <col min="4" max="4" width="26.375" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -623,10 +631,10 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>45914.373865740738</v>
+        <v>45914.984722222223</v>
       </c>
       <c r="F2">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -659,208 +667,208 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>45914.373865740738</v>
+        <v>45914.984722222223</v>
       </c>
       <c r="F4">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>45908.550717592596</v>
+        <v>45904.4453125</v>
       </c>
       <c r="D5" s="2">
-        <v>45913.021585648145</v>
+        <v>45909.56177083333</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
-        <v>45909.602083333331</v>
+        <v>45908.550717592596</v>
       </c>
       <c r="D6" s="2">
-        <v>45914.000115740739</v>
+        <v>45913.021585648145</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
-        <v>45909.236574074072</v>
+        <v>45909.602083333331</v>
       </c>
       <c r="D7" s="2">
-        <v>45913.535138888888</v>
+        <v>45914.000115740739</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>45909.053182870368</v>
+        <v>45909.236574074072</v>
       </c>
       <c r="D8" s="2">
-        <v>45912.756840277776</v>
+        <v>45913.535138888888</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2">
-        <v>45905.534791666665</v>
+        <v>45909.053182870368</v>
       </c>
       <c r="D9" s="2">
-        <v>45909.203703703701</v>
+        <v>45912.756840277776</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>45908.525706018518</v>
+        <v>45905.534791666665</v>
       </c>
       <c r="D10" s="2">
-        <v>45912.034201388888</v>
+        <v>45909.203703703701</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>45905.263715277775</v>
+        <v>45908.525706018518</v>
       </c>
       <c r="D11" s="2">
-        <v>45908.553703703707</v>
+        <v>45912.034201388888</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2">
-        <v>45906.271747685183</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45909.218194444446</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>45911.52857638889</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>45914.984722222223</v>
+      </c>
       <c r="F12">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>45907.570555555554</v>
+        <v>45905.263715277775</v>
       </c>
       <c r="D13" s="2">
-        <v>45910.500289351854</v>
+        <v>45908.553703703707</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>45911.52857638889</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>45914.373865740738</v>
-      </c>
+        <v>45907.570555555554</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45910.500289351854</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>45910.540219907409</v>
+        <v>45906.271747685183</v>
       </c>
       <c r="D15" s="2">
-        <v>45913.224270833336</v>
+        <v>45909.218194444446</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -868,17 +876,17 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2">
-        <v>45910.021134259259</v>
+        <v>45910.540219907409</v>
       </c>
       <c r="D16" s="2">
-        <v>45912.686157407406</v>
+        <v>45913.224270833336</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -886,35 +894,35 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2">
-        <v>45906.25440972222</v>
+        <v>45910.021134259259</v>
       </c>
       <c r="D17" s="2">
-        <v>45908.543657407405</v>
+        <v>45912.686157407406</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
-        <v>45907.401435185187</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45909.52579861111</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>45912.328969907408</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>45914.984722222223</v>
+      </c>
       <c r="F18">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -922,17 +930,17 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2">
-        <v>45905.060277777775</v>
+        <v>45904.095752314817</v>
       </c>
       <c r="D19" s="2">
-        <v>45907.134097222224</v>
+        <v>45906.629687499997</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -940,53 +948,53 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>45908.552488425928</v>
+        <v>45906.25440972222</v>
       </c>
       <c r="D20" s="2">
-        <v>45910.652662037035</v>
+        <v>45908.543657407405</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>45910.355798611112</v>
+        <v>45904.238113425927</v>
       </c>
       <c r="D21" s="2">
-        <v>45912.393368055556</v>
+        <v>45906.537569444445</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
-        <v>45907.522546296299</v>
+        <v>45907.401435185187</v>
       </c>
       <c r="D22" s="2">
-        <v>45909.570775462962</v>
+        <v>45909.52579861111</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -994,53 +1002,53 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2">
-        <v>45912.328969907408</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
-        <v>45914.373865740738</v>
-      </c>
+        <v>45905.060277777775</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45907.134097222224</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2">
-        <v>45911.040381944447</v>
+        <v>45908.552488425928</v>
       </c>
       <c r="D24" s="2">
-        <v>45913.023263888892</v>
+        <v>45910.652662037035</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2">
-        <v>45908.570474537039</v>
+        <v>45907.522546296299</v>
       </c>
       <c r="D25" s="2">
-        <v>45910.550486111111</v>
+        <v>45909.570775462962</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -1048,17 +1056,17 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2">
-        <v>45910.561724537038</v>
+        <v>45910.355798611112</v>
       </c>
       <c r="D26" s="2">
-        <v>45912.509375000001</v>
+        <v>45912.393368055556</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -1066,17 +1074,17 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>45908.082407407404</v>
+        <v>45908.570474537039</v>
       </c>
       <c r="D27" s="2">
-        <v>45910.006041666667</v>
+        <v>45910.550486111111</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -1084,17 +1092,17 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2">
-        <v>45910.5781712963</v>
+        <v>45911.040381944447</v>
       </c>
       <c r="D28" s="2">
-        <v>45912.528969907406</v>
+        <v>45913.023263888892</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1135,128 +1143,128 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
-        <v>45905.58865740741</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45907.541539351849</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>45913.006967592592</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>45914.984722222223</v>
+      </c>
       <c r="F31">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2">
-        <v>45906.091840277775</v>
+        <v>45910.561724537038</v>
       </c>
       <c r="D32" s="2">
-        <v>45908.0002662037</v>
+        <v>45912.509375000001</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C33" s="2">
-        <v>45911.646747685183</v>
+        <v>45910.5781712963</v>
       </c>
       <c r="D33" s="2">
-        <v>45913.523923611108</v>
+        <v>45912.528969907406</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2">
-        <v>45911.562384259261</v>
+        <v>45908.082407407404</v>
       </c>
       <c r="D34" s="2">
-        <v>45913.435532407406</v>
+        <v>45910.006041666667</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2">
-        <v>45909.261608796296</v>
+        <v>45906.091840277775</v>
       </c>
       <c r="D35" s="2">
-        <v>45911.001076388886</v>
+        <v>45908.0002662037</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2">
-        <v>45909.799317129633</v>
+        <v>45905.58865740741</v>
       </c>
       <c r="D36" s="2">
-        <v>45911.513888888891</v>
+        <v>45907.541539351849</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C37" s="2">
-        <v>45906.348958333336</v>
-      </c>
-      <c r="D37" s="2">
-        <v>45908.012199074074</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>45913.052685185183</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
+        <v>45914.984722222223</v>
+      </c>
       <c r="F37">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1264,17 +1272,17 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
-        <v>45911.531018518515</v>
+        <v>45911.646747685183</v>
       </c>
       <c r="D38" s="2">
-        <v>45913.206875000003</v>
+        <v>45913.523923611108</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1282,35 +1290,35 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2">
-        <v>45907.705949074072</v>
+        <v>45911.562384259261</v>
       </c>
       <c r="D39" s="2">
-        <v>45909.21980324074</v>
+        <v>45913.435532407406</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2">
-        <v>45907.729745370372</v>
+        <v>45904.367662037039</v>
       </c>
       <c r="D40" s="2">
-        <v>45909.231006944443</v>
+        <v>45906.129490740743</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1318,53 +1326,53 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C41" s="2">
-        <v>45908.058252314811</v>
-      </c>
-      <c r="D41" s="2">
-        <v>45909.559004629627</v>
-      </c>
-      <c r="E41" s="2"/>
+        <v>45913.23265046296</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <v>45914.984722222223</v>
+      </c>
       <c r="F41">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2">
-        <v>45909.579212962963</v>
+        <v>45909.261608796296</v>
       </c>
       <c r="D42" s="2">
-        <v>45911.07608796296</v>
+        <v>45911.001076388886</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C43" s="2">
-        <v>45908.210324074076</v>
+        <v>45909.799317129633</v>
       </c>
       <c r="D43" s="2">
-        <v>45909.712118055555</v>
+        <v>45911.513888888891</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -1372,17 +1380,17 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2">
-        <v>45910.534502314818</v>
+        <v>45911.531018518515</v>
       </c>
       <c r="D44" s="2">
-        <v>45912.012048611112</v>
+        <v>45913.206875000003</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -1390,35 +1398,35 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2">
-        <v>45906.573877314811</v>
+        <v>45906.348958333336</v>
       </c>
       <c r="D45" s="2">
-        <v>45908.008958333332</v>
+        <v>45908.012199074074</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C46" s="2">
-        <v>45912.567314814813</v>
+        <v>45907.705949074072</v>
       </c>
       <c r="D46" s="2">
-        <v>45914.04074074074</v>
+        <v>45909.21980324074</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -1426,17 +1434,17 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C47" s="2">
-        <v>45908.562800925924</v>
+        <v>45908.058252314811</v>
       </c>
       <c r="D47" s="2">
-        <v>45910.003263888888</v>
+        <v>45909.559004629627</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -1444,53 +1452,53 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C48" s="2">
-        <v>45906.065810185188</v>
+        <v>45909.579212962963</v>
       </c>
       <c r="D48" s="2">
-        <v>45907.50099537037</v>
+        <v>45911.07608796296</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2">
-        <v>45906.087141203701</v>
+        <v>45908.210324074076</v>
       </c>
       <c r="D49" s="2">
-        <v>45907.494085648148</v>
+        <v>45909.712118055555</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C50" s="2">
-        <v>45912.627604166664</v>
+        <v>45910.534502314818</v>
       </c>
       <c r="D50" s="2">
-        <v>45914.005208333336</v>
+        <v>45912.012048611112</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -1498,35 +1506,35 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C51" s="2">
-        <v>45907.194444444445</v>
+        <v>45907.729745370372</v>
       </c>
       <c r="D51" s="2">
-        <v>45908.530740740738</v>
+        <v>45909.231006944443</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C52" s="2">
-        <v>45909.039467592593</v>
+        <v>45906.065810185188</v>
       </c>
       <c r="D52" s="2">
-        <v>45910.373379629629</v>
+        <v>45907.50099537037</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -1534,35 +1542,35 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2">
-        <v>45910.054398148146</v>
+        <v>45908.562800925924</v>
       </c>
       <c r="D53" s="2">
-        <v>45911.384293981479</v>
+        <v>45910.003263888888</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2">
-        <v>45913.006967592592</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2">
-        <v>45914.373865740738</v>
-      </c>
+        <v>45906.573877314811</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45908.008958333332</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -1570,35 +1578,35 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C55" s="2">
-        <v>45913.052685185183</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2">
-        <v>45914.373865740738</v>
-      </c>
+        <v>45912.567314814813</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45914.04074074074</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2">
-        <v>45906.810439814813</v>
+        <v>45904.063692129632</v>
       </c>
       <c r="D56" s="2">
-        <v>45908.090266203704</v>
+        <v>45905.506157407406</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -1606,53 +1614,53 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2">
-        <v>45907.24454861111</v>
-      </c>
-      <c r="D57" s="2">
-        <v>45908.508622685185</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>45913.566805555558</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2">
+        <v>45914.984722222223</v>
+      </c>
       <c r="F57">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C58" s="2">
-        <v>45910.247546296298</v>
+        <v>45906.087141203701</v>
       </c>
       <c r="D58" s="2">
-        <v>45911.529826388891</v>
+        <v>45907.494085648148</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2">
-        <v>45906.221956018519</v>
+        <v>45912.627604166664</v>
       </c>
       <c r="D59" s="2">
-        <v>45907.510810185187</v>
+        <v>45914.005208333336</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -1660,71 +1668,71 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C60" s="2">
-        <v>45910.029456018521</v>
+        <v>45910.054398148146</v>
       </c>
       <c r="D60" s="2">
-        <v>45911.331701388888</v>
+        <v>45911.384293981479</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2">
-        <v>45909.260914351849</v>
+        <v>45909.039467592593</v>
       </c>
       <c r="D61" s="2">
-        <v>45910.524594907409</v>
+        <v>45910.373379629629</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C62" s="2">
-        <v>45905.7655787037</v>
+        <v>45907.194444444445</v>
       </c>
       <c r="D62" s="2">
-        <v>45907.012766203705</v>
+        <v>45908.530740740738</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C63" s="2">
-        <v>45913.050844907404</v>
-      </c>
-      <c r="D63" s="2">
-        <v>45914.284895833334</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>45913.650914351849</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2">
+        <v>45914.984722222223</v>
+      </c>
       <c r="F63">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -1732,17 +1740,17 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C64" s="2">
-        <v>45910.067824074074</v>
+        <v>45906.221956018519</v>
       </c>
       <c r="D64" s="2">
-        <v>45911.284560185188</v>
+        <v>45907.510810185187</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -1750,71 +1758,71 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C65" s="2">
-        <v>45907.051342592589</v>
+        <v>45906.810439814813</v>
       </c>
       <c r="D65" s="2">
-        <v>45908.250138888892</v>
+        <v>45908.090266203704</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C66" s="2">
-        <v>45909.373738425929</v>
+        <v>45907.24454861111</v>
       </c>
       <c r="D66" s="2">
-        <v>45910.524085648147</v>
+        <v>45908.508622685185</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" s="2">
-        <v>45905.566099537034</v>
+        <v>45910.247546296298</v>
       </c>
       <c r="D67" s="2">
-        <v>45906.734594907408</v>
+        <v>45911.529826388891</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C68" s="2">
-        <v>45907.048576388886</v>
+        <v>45910.029456018521</v>
       </c>
       <c r="D68" s="2">
-        <v>45908.228101851855</v>
+        <v>45911.331701388888</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -1822,17 +1830,17 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C69" s="2">
-        <v>45907.389652777776</v>
+        <v>45904.257928240739</v>
       </c>
       <c r="D69" s="2">
-        <v>45908.550567129627</v>
+        <v>45905.532916666663</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -1840,53 +1848,53 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" s="2">
-        <v>45910.356319444443</v>
-      </c>
-      <c r="D70" s="2">
-        <v>45911.500925925924</v>
-      </c>
-      <c r="E70" s="2"/>
+        <v>45913.717233796298</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2">
+        <v>45914.984722222223</v>
+      </c>
       <c r="F70">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2">
-        <v>45913.042430555557</v>
+        <v>45905.7655787037</v>
       </c>
       <c r="D71" s="2">
-        <v>45914.200810185182</v>
+        <v>45907.012766203705</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C72" s="2">
-        <v>45911.012094907404</v>
+        <v>45909.260914351849</v>
       </c>
       <c r="D72" s="2">
-        <v>45912.137696759259</v>
+        <v>45910.524594907409</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -1894,17 +1902,17 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2">
-        <v>45909.091203703705</v>
+        <v>45910.067824074074</v>
       </c>
       <c r="D73" s="2">
-        <v>45910.220127314817</v>
+        <v>45911.284560185188</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -1912,17 +1920,17 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2">
-        <v>45906.042974537035</v>
+        <v>45907.051342592589</v>
       </c>
       <c r="D74" s="2">
-        <v>45907.169976851852</v>
+        <v>45908.250138888892</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
@@ -1930,35 +1938,35 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2">
-        <v>45907.094305555554</v>
+        <v>45913.050844907404</v>
       </c>
       <c r="D75" s="2">
-        <v>45908.213356481479</v>
+        <v>45914.284895833334</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C76" s="2">
-        <v>45906.575902777775</v>
-      </c>
-      <c r="D76" s="2">
-        <v>45907.67150462963</v>
-      </c>
-      <c r="E76" s="2"/>
+        <v>45913.76421296296</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2">
+        <v>45914.984722222223</v>
+      </c>
       <c r="F76">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -1966,17 +1974,17 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C77" s="2">
-        <v>45912.041076388887</v>
+        <v>45910.356319444443</v>
       </c>
       <c r="D77" s="2">
-        <v>45913.145925925928</v>
+        <v>45911.500925925924</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -1984,53 +1992,53 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2">
-        <v>45913.23265046296</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2">
-        <v>45914.373865740738</v>
-      </c>
+        <v>45907.389652777776</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45908.550567129627</v>
+      </c>
+      <c r="E78" s="2"/>
       <c r="F78">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C79" s="2">
-        <v>45909.039143518516</v>
+        <v>45904.03466435185</v>
       </c>
       <c r="D79" s="2">
-        <v>45910.102083333331</v>
+        <v>45905.192037037035</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C80" s="2">
-        <v>45907.134444444448</v>
+        <v>45905.566099537034</v>
       </c>
       <c r="D80" s="2">
-        <v>45908.224537037036</v>
+        <v>45906.734594907408</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -2038,35 +2046,35 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C81" s="2">
-        <v>45913.064467592594</v>
+        <v>45907.048576388886</v>
       </c>
       <c r="D81" s="2">
-        <v>45914.140983796293</v>
+        <v>45908.228101851855</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C82" s="2">
-        <v>45909.514016203706</v>
+        <v>45909.373738425929</v>
       </c>
       <c r="D82" s="2">
-        <v>45910.611180555556</v>
+        <v>45910.524085648147</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -2074,17 +2082,17 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C83" s="2">
-        <v>45908.118969907409</v>
+        <v>45907.094305555554</v>
       </c>
       <c r="D83" s="2">
-        <v>45909.179571759261</v>
+        <v>45908.213356481479</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -2092,161 +2100,161 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2">
-        <v>45906.047337962962</v>
+        <v>45913.579629629632</v>
       </c>
       <c r="D84" s="2">
-        <v>45907.137569444443</v>
+        <v>45914.686932870369</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C85" s="2">
-        <v>45913.021006944444</v>
+        <v>45906.042974537035</v>
       </c>
       <c r="D85" s="2">
-        <v>45914.078969907408</v>
+        <v>45907.169976851852</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C86" s="2">
-        <v>45909.239444444444</v>
+        <v>45909.091203703705</v>
       </c>
       <c r="D86" s="2">
-        <v>45910.265706018516</v>
+        <v>45910.220127314817</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C87" s="2">
-        <v>45911.244166666664</v>
+        <v>45906.575902777775</v>
       </c>
       <c r="D87" s="2">
-        <v>45912.265601851854</v>
+        <v>45907.67150462963</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C88" s="2">
-        <v>45911.504976851851</v>
+        <v>45912.041076388887</v>
       </c>
       <c r="D88" s="2">
-        <v>45912.543333333335</v>
+        <v>45913.145925925928</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C89" s="2">
-        <v>45906.5156712963</v>
+        <v>45911.012094907404</v>
       </c>
       <c r="D89" s="2">
-        <v>45907.565092592595</v>
+        <v>45912.137696759259</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C90" s="2">
-        <v>45908.19803240741</v>
+        <v>45913.042430555557</v>
       </c>
       <c r="D90" s="2">
-        <v>45909.213159722225</v>
+        <v>45914.200810185182</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C91" s="2">
-        <v>45908.567731481482</v>
+        <v>45908.118969907409</v>
       </c>
       <c r="D91" s="2">
-        <v>45909.606053240743</v>
+        <v>45909.179571759261</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2">
-        <v>45910.196134259262</v>
+        <v>45906.047337962962</v>
       </c>
       <c r="D92" s="2">
-        <v>45911.248784722222</v>
+        <v>45907.137569444443</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -2254,17 +2262,17 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C93" s="2">
-        <v>45905.577847222223</v>
+        <v>45909.514016203706</v>
       </c>
       <c r="D93" s="2">
-        <v>45906.623020833336</v>
+        <v>45910.611180555556</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -2272,53 +2280,53 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C94" s="2">
-        <v>45907.620358796295</v>
+        <v>45913.064467592594</v>
       </c>
       <c r="D94" s="2">
-        <v>45908.656805555554</v>
+        <v>45914.140983796293</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C95" s="2">
-        <v>45912.043020833335</v>
+        <v>45909.039143518516</v>
       </c>
       <c r="D95" s="2">
-        <v>45913.113923611112</v>
+        <v>45910.102083333331</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C96" s="2">
-        <v>45911.684641203705</v>
+        <v>45907.134444444448</v>
       </c>
       <c r="D96" s="2">
-        <v>45912.726527777777</v>
+        <v>45908.224537037036</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
@@ -2344,13 +2352,13 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C98" s="2">
-        <v>45908.570671296293</v>
+        <v>45912.043020833335</v>
       </c>
       <c r="D98" s="2">
-        <v>45909.609884259262</v>
+        <v>45913.113923611112</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
@@ -2359,92 +2367,92 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C99" s="2">
-        <v>45908.923564814817</v>
+        <v>45911.684641203705</v>
       </c>
       <c r="D99" s="2">
-        <v>45909.953576388885</v>
+        <v>45912.726527777777</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C100" s="2">
-        <v>45906.520752314813</v>
+        <v>45908.570671296293</v>
       </c>
       <c r="D100" s="2">
-        <v>45907.527858796297</v>
+        <v>45909.609884259262</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B101" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C101" s="2">
-        <v>45907.041504629633</v>
+        <v>45911.504976851851</v>
       </c>
       <c r="D101" s="2">
-        <v>45908.003831018519</v>
+        <v>45912.543333333335</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C102" s="2">
-        <v>45909.532372685186</v>
+        <v>45906.5156712963</v>
       </c>
       <c r="D102" s="2">
-        <v>45910.502280092594</v>
+        <v>45907.565092592595</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C103" s="2">
-        <v>45910.510555555556</v>
+        <v>45909.239444444444</v>
       </c>
       <c r="D103" s="2">
-        <v>45911.524016203701</v>
+        <v>45910.265706018516</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
@@ -2452,17 +2460,17 @@
         <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C104" s="2">
-        <v>45912.242094907408</v>
+        <v>45911.244166666664</v>
       </c>
       <c r="D104" s="2">
-        <v>45913.231030092589</v>
+        <v>45912.265601851854</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
@@ -2470,17 +2478,17 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C105" s="2">
-        <v>45909.029490740744</v>
+        <v>45908.19803240741</v>
       </c>
       <c r="D105" s="2">
-        <v>45910.00445601852</v>
+        <v>45909.213159722225</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
@@ -2488,17 +2496,17 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C106" s="2">
-        <v>45912.03328703704</v>
+        <v>45908.567731481482</v>
       </c>
       <c r="D106" s="2">
-        <v>45913.003379629627</v>
+        <v>45909.606053240743</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
@@ -2506,17 +2514,17 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C107" s="2">
-        <v>45911.556932870371</v>
+        <v>45907.620358796295</v>
       </c>
       <c r="D107" s="2">
-        <v>45912.543055555558</v>
+        <v>45908.656805555554</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
@@ -2524,17 +2532,17 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C108" s="2">
-        <v>45910.02920138889</v>
+        <v>45910.196134259262</v>
       </c>
       <c r="D108" s="2">
-        <v>45911.005185185182</v>
+        <v>45911.248784722222</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
@@ -2545,46 +2553,46 @@
         <v>31</v>
       </c>
       <c r="C109" s="2">
-        <v>45911.034571759257</v>
+        <v>45905.577847222223</v>
       </c>
       <c r="D109" s="2">
-        <v>45912.001400462963</v>
+        <v>45906.623020833336</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C110" s="2">
-        <v>45907.019560185188</v>
+        <v>45913.021006944444</v>
       </c>
       <c r="D110" s="2">
-        <v>45908.010844907411</v>
+        <v>45914.078969907408</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C111" s="2">
-        <v>45913.032546296294</v>
+        <v>45904.038356481484</v>
       </c>
       <c r="D111" s="2">
-        <v>45914.002326388887</v>
+        <v>45905.000960648147</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
@@ -2596,13 +2604,13 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C112" s="2">
-        <v>45906.993020833332</v>
+        <v>45905.033067129632</v>
       </c>
       <c r="D112" s="2">
-        <v>45907.99009259259</v>
+        <v>45906.00104166667</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
@@ -2614,13 +2622,13 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C113" s="2">
-        <v>45905.558854166666</v>
+        <v>45910.584328703706</v>
       </c>
       <c r="D113" s="2">
-        <v>45906.555868055555</v>
+        <v>45911.616053240738</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113">
@@ -2632,13 +2640,13 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C114" s="2">
-        <v>45909.531261574077</v>
+        <v>45913.701620370368</v>
       </c>
       <c r="D114" s="2">
-        <v>45910.523888888885</v>
+        <v>45914.694907407407</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
@@ -2668,13 +2676,13 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C116" s="2">
-        <v>45905.028263888889</v>
+        <v>45909.531261574077</v>
       </c>
       <c r="D116" s="2">
-        <v>45906.015115740738</v>
+        <v>45910.523888888885</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
@@ -2686,13 +2694,13 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C117" s="2">
-        <v>45905.033067129632</v>
+        <v>45905.558854166666</v>
       </c>
       <c r="D117" s="2">
-        <v>45906.00104166667</v>
+        <v>45906.555868055555</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117">
@@ -2704,13 +2712,13 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C118" s="2">
-        <v>45910.584328703706</v>
+        <v>45905.028263888889</v>
       </c>
       <c r="D118" s="2">
-        <v>45911.616053240738</v>
+        <v>45906.015115740738</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118">
@@ -2722,13 +2730,13 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C119" s="2">
-        <v>45906.572326388887</v>
+        <v>45913.029675925929</v>
       </c>
       <c r="D119" s="2">
-        <v>45907.549814814818</v>
+        <v>45914.000960648147</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
@@ -2740,13 +2748,13 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C120" s="2">
-        <v>45910.041087962964</v>
+        <v>45906.993020833332</v>
       </c>
       <c r="D120" s="2">
-        <v>45911.026550925926</v>
+        <v>45907.99009259259</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120">
@@ -2758,16 +2766,340 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C121" s="2">
-        <v>45913.029675925929</v>
+        <v>45906.572326388887</v>
       </c>
       <c r="D121" s="2">
-        <v>45914.000960648147</v>
+        <v>45907.549814814818</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" s="2">
+        <v>45910.041087962964</v>
+      </c>
+      <c r="D122" s="2">
+        <v>45911.026550925926</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123" t="s">
+        <v>66</v>
+      </c>
+      <c r="C123" s="2">
+        <v>45904.702118055553</v>
+      </c>
+      <c r="D123" s="2">
+        <v>45905.667326388888</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>58</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" s="2">
+        <v>45912.242094907408</v>
+      </c>
+      <c r="D124" s="2">
+        <v>45913.231030092589</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B125" t="s">
+        <v>50</v>
+      </c>
+      <c r="C125" s="2">
+        <v>45913.530856481484</v>
+      </c>
+      <c r="D125" s="2">
+        <v>45914.507928240739</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>58</v>
+      </c>
+      <c r="B126" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" s="2">
+        <v>45904.020173611112</v>
+      </c>
+      <c r="D126" s="2">
+        <v>45905.008136574077</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>52</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45907.019560185188</v>
+      </c>
+      <c r="D127" s="2">
+        <v>45908.010844907411</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>52</v>
+      </c>
+      <c r="C128" s="2">
+        <v>45913.032546296294</v>
+      </c>
+      <c r="D128" s="2">
+        <v>45914.002326388887</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" s="2">
+        <v>45912.03328703704</v>
+      </c>
+      <c r="D129" s="2">
+        <v>45913.003379629627</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="2">
+        <v>45904.531631944446</v>
+      </c>
+      <c r="D130" s="2">
+        <v>45905.530775462961</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" s="2">
+        <v>45909.029490740744</v>
+      </c>
+      <c r="D131" s="2">
+        <v>45910.00445601852</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="2">
+        <v>45911.556932870371</v>
+      </c>
+      <c r="D132" s="2">
+        <v>45912.543055555558</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" s="2">
+        <v>45910.02920138889</v>
+      </c>
+      <c r="D133" s="2">
+        <v>45911.005185185182</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" s="2">
+        <v>45911.034571759257</v>
+      </c>
+      <c r="D134" s="2">
+        <v>45912.001400462963</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="2">
+        <v>45908.923564814817</v>
+      </c>
+      <c r="D135" s="2">
+        <v>45909.953576388885</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>53</v>
+      </c>
+      <c r="C136" s="2">
+        <v>45906.520752314813</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45907.527858796297</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137" s="2">
+        <v>45907.041504629633</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45908.003831018519</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45909.532372685186</v>
+      </c>
+      <c r="D138" s="2">
+        <v>45910.502280092594</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="2">
+        <v>45910.510555555556</v>
+      </c>
+      <c r="D139" s="2">
+        <v>45911.524016203701</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="72">
   <si>
     <t>电站名称</t>
   </si>
@@ -217,16 +217,22 @@
     <t>206号直流</t>
   </si>
   <si>
-    <t>303号直流</t>
-  </si>
-  <si>
     <t>108号直流</t>
   </si>
   <si>
     <t>601号直流</t>
   </si>
   <si>
-    <t>110号直流</t>
+    <t>B01号直流</t>
+  </si>
+  <si>
+    <t>902号直流</t>
+  </si>
+  <si>
+    <t>A01号直流</t>
+  </si>
+  <si>
+    <t>006B号直流</t>
   </si>
 </sst>
 </file>
@@ -587,17 +593,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="38.125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="25.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -629,12 +631,12 @@
       <c r="C2" s="2">
         <v>45907.567233796297</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>45914.984722222223</v>
-      </c>
+      <c r="D2" s="2">
+        <v>45915.492719907408</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -642,17 +644,17 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>45906.578356481485</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45913.004490740743</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>45908.603506944448</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>45916.395532407405</v>
+      </c>
       <c r="F3">
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -660,89 +662,89 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>45908.603506944448</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>45914.984722222223</v>
-      </c>
+        <v>45906.578356481485</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45913.004490740743</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
-        <v>45904.4453125</v>
+        <v>45908.550717592596</v>
       </c>
       <c r="D5" s="2">
-        <v>45909.56177083333</v>
+        <v>45913.021585648145</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
-        <v>45908.550717592596</v>
+        <v>45909.602083333331</v>
       </c>
       <c r="D6" s="2">
-        <v>45913.021585648145</v>
+        <v>45914.000115740739</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>45909.602083333331</v>
+        <v>45909.236574074072</v>
       </c>
       <c r="D7" s="2">
-        <v>45914.000115740739</v>
+        <v>45913.535138888888</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
-        <v>45909.236574074072</v>
+        <v>45911.52857638889</v>
       </c>
       <c r="D8" s="2">
-        <v>45913.535138888888</v>
+        <v>45915.503275462965</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -804,49 +806,49 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>45911.52857638889</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>45914.984722222223</v>
-      </c>
+        <v>45905.263715277775</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45908.553703703707</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>45905.263715277775</v>
+        <v>45913.052685185183</v>
       </c>
       <c r="D13" s="2">
-        <v>45908.553703703707</v>
+        <v>45916.265127314815</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>45907.570555555554</v>
+        <v>45906.271747685183</v>
       </c>
       <c r="D14" s="2">
-        <v>45910.500289351854</v>
+        <v>45909.218194444446</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14">
@@ -855,16 +857,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2">
-        <v>45906.271747685183</v>
+        <v>45907.570555555554</v>
       </c>
       <c r="D15" s="2">
-        <v>45909.218194444446</v>
+        <v>45910.500289351854</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15">
@@ -873,20 +875,20 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2">
-        <v>45910.540219907409</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45913.224270833336</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>45913.650914351849</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>45916.395532407405</v>
+      </c>
       <c r="F16">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -894,17 +896,17 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
-        <v>45910.021134259259</v>
+        <v>45912.328969907408</v>
       </c>
       <c r="D17" s="2">
-        <v>45912.686157407406</v>
+        <v>45915.001701388886</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -912,17 +914,17 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
-        <v>45912.328969907408</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
-        <v>45914.984722222223</v>
-      </c>
+        <v>45910.540219907409</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45913.224270833336</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -930,17 +932,17 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2">
-        <v>45904.095752314817</v>
+        <v>45910.021134259259</v>
       </c>
       <c r="D19" s="2">
-        <v>45906.629687499997</v>
+        <v>45912.686157407406</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -948,17 +950,17 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>45906.25440972222</v>
+        <v>45913.006967592592</v>
       </c>
       <c r="D20" s="2">
-        <v>45908.543657407405</v>
+        <v>45915.473703703705</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -966,13 +968,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
-        <v>45904.238113425927</v>
+        <v>45906.25440972222</v>
       </c>
       <c r="D21" s="2">
-        <v>45906.537569444445</v>
+        <v>45908.543657407405</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
@@ -981,38 +983,38 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>45907.401435185187</v>
-      </c>
-      <c r="D22" s="2">
-        <v>45909.52579861111</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>45914.186030092591</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>45916.395532407405</v>
+      </c>
       <c r="F22">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
-        <v>45905.060277777775</v>
+        <v>45907.401435185187</v>
       </c>
       <c r="D23" s="2">
-        <v>45907.134097222224</v>
+        <v>45909.52579861111</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -1038,31 +1040,31 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2">
-        <v>45907.522546296299</v>
+        <v>45905.060277777775</v>
       </c>
       <c r="D25" s="2">
-        <v>45909.570775462962</v>
+        <v>45907.134097222224</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2">
-        <v>45910.355798611112</v>
+        <v>45907.522546296299</v>
       </c>
       <c r="D26" s="2">
-        <v>45912.393368055556</v>
+        <v>45909.570775462962</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
@@ -1071,20 +1073,20 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2">
-        <v>45908.570474537039</v>
+        <v>45910.355798611112</v>
       </c>
       <c r="D27" s="2">
-        <v>45910.550486111111</v>
+        <v>45912.393368055556</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -1107,34 +1109,34 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2">
-        <v>45912.060983796298</v>
+        <v>45908.570474537039</v>
       </c>
       <c r="D29" s="2">
-        <v>45914.012141203704</v>
+        <v>45910.550486111111</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2">
-        <v>45906.549328703702</v>
+        <v>45908.082407407404</v>
       </c>
       <c r="D30" s="2">
-        <v>45908.533761574072</v>
+        <v>45910.006041666667</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30">
@@ -1143,34 +1145,34 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2">
-        <v>45913.006967592592</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2">
-        <v>45914.984722222223</v>
-      </c>
+        <v>45910.5781712963</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45912.528969907406</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2">
-        <v>45910.561724537038</v>
+        <v>45912.060983796298</v>
       </c>
       <c r="D32" s="2">
-        <v>45912.509375000001</v>
+        <v>45914.012141203704</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32">
@@ -1179,16 +1181,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C33" s="2">
-        <v>45910.5781712963</v>
+        <v>45906.549328703702</v>
       </c>
       <c r="D33" s="2">
-        <v>45912.528969907406</v>
+        <v>45908.533761574072</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
@@ -1197,16 +1199,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2">
-        <v>45908.082407407404</v>
+        <v>45910.561724537038</v>
       </c>
       <c r="D34" s="2">
-        <v>45910.006041666667</v>
+        <v>45912.509375000001</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
@@ -1215,16 +1217,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>45906.091840277775</v>
+        <v>45905.58865740741</v>
       </c>
       <c r="D35" s="2">
-        <v>45908.0002662037</v>
+        <v>45907.541539351849</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35">
@@ -1233,16 +1235,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2">
-        <v>45905.58865740741</v>
+        <v>45906.091840277775</v>
       </c>
       <c r="D36" s="2">
-        <v>45907.541539351849</v>
+        <v>45908.0002662037</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36">
@@ -1251,20 +1253,20 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2">
-        <v>45913.052685185183</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2">
-        <v>45914.984722222223</v>
-      </c>
+        <v>45911.646747685183</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45913.523923611108</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1272,13 +1274,13 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2">
-        <v>45911.646747685183</v>
+        <v>45911.562384259261</v>
       </c>
       <c r="D38" s="2">
-        <v>45913.523923611108</v>
+        <v>45913.435532407406</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38">
@@ -1287,20 +1289,20 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2">
-        <v>45911.562384259261</v>
-      </c>
-      <c r="D39" s="2">
-        <v>45913.435532407406</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>45914.560046296298</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>45916.395532407405</v>
+      </c>
       <c r="F39">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1308,33 +1310,33 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C40" s="2">
-        <v>45904.367662037039</v>
+        <v>45913.23265046296</v>
       </c>
       <c r="D40" s="2">
-        <v>45906.129490740743</v>
+        <v>45914.981087962966</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2">
-        <v>45913.23265046296</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2">
-        <v>45914.984722222223</v>
-      </c>
+        <v>45913.76421296296</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45915.539942129632</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41">
         <v>42</v>
       </c>
@@ -1359,16 +1361,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C43" s="2">
-        <v>45909.799317129633</v>
+        <v>45914.040277777778</v>
       </c>
       <c r="D43" s="2">
-        <v>45911.513888888891</v>
+        <v>45915.733287037037</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
@@ -1377,34 +1379,34 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C44" s="2">
-        <v>45911.531018518515</v>
+        <v>45909.799317129633</v>
       </c>
       <c r="D44" s="2">
-        <v>45913.206875000003</v>
+        <v>45911.513888888891</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2">
-        <v>45906.348958333336</v>
+        <v>45911.531018518515</v>
       </c>
       <c r="D45" s="2">
-        <v>45908.012199074074</v>
+        <v>45913.206875000003</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
@@ -1413,20 +1415,20 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2">
-        <v>45907.705949074072</v>
+        <v>45906.348958333336</v>
       </c>
       <c r="D46" s="2">
-        <v>45909.21980324074</v>
+        <v>45908.012199074074</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -1434,17 +1436,17 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2">
-        <v>45908.058252314811</v>
+        <v>45914.486261574071</v>
       </c>
       <c r="D47" s="2">
-        <v>45909.559004629627</v>
+        <v>45916.002962962964</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -1452,17 +1454,17 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C48" s="2">
-        <v>45909.579212962963</v>
+        <v>45907.705949074072</v>
       </c>
       <c r="D48" s="2">
-        <v>45911.07608796296</v>
+        <v>45909.21980324074</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -1503,16 +1505,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C51" s="2">
-        <v>45907.729745370372</v>
+        <v>45908.058252314811</v>
       </c>
       <c r="D51" s="2">
-        <v>45909.231006944443</v>
+        <v>45909.559004629627</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
@@ -1524,49 +1526,49 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C52" s="2">
-        <v>45906.065810185188</v>
+        <v>45909.579212962963</v>
       </c>
       <c r="D52" s="2">
-        <v>45907.50099537037</v>
+        <v>45911.07608796296</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="2">
-        <v>45908.562800925924</v>
+        <v>45907.729745370372</v>
       </c>
       <c r="D53" s="2">
-        <v>45910.003263888888</v>
+        <v>45909.231006944443</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C54" s="2">
-        <v>45906.573877314811</v>
+        <v>45912.567314814813</v>
       </c>
       <c r="D54" s="2">
-        <v>45908.008958333332</v>
+        <v>45914.04074074074</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
@@ -1575,16 +1577,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2">
-        <v>45912.567314814813</v>
+        <v>45906.065810185188</v>
       </c>
       <c r="D55" s="2">
-        <v>45914.04074074074</v>
+        <v>45907.50099537037</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
@@ -1593,16 +1595,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C56" s="2">
-        <v>45904.063692129632</v>
+        <v>45913.566805555558</v>
       </c>
       <c r="D56" s="2">
-        <v>45905.506157407406</v>
+        <v>45915.004942129628</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
@@ -1614,89 +1616,89 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C57" s="2">
-        <v>45913.566805555558</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2">
-        <v>45914.984722222223</v>
-      </c>
+        <v>45908.562800925924</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45910.003263888888</v>
+      </c>
+      <c r="E57" s="2"/>
       <c r="F57">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C58" s="2">
-        <v>45906.087141203701</v>
+        <v>45913.717233796298</v>
       </c>
       <c r="D58" s="2">
-        <v>45907.494085648148</v>
+        <v>45915.203182870369</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2">
-        <v>45912.627604166664</v>
+        <v>45906.573877314811</v>
       </c>
       <c r="D59" s="2">
-        <v>45914.005208333336</v>
+        <v>45908.008958333332</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C60" s="2">
-        <v>45910.054398148146</v>
+        <v>45914.050219907411</v>
       </c>
       <c r="D60" s="2">
-        <v>45911.384293981479</v>
+        <v>45915.466817129629</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2">
-        <v>45909.039467592593</v>
-      </c>
-      <c r="D61" s="2">
-        <v>45910.373379629629</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>45915.025833333333</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <v>45916.395532407405</v>
+      </c>
       <c r="F61">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -1704,17 +1706,17 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C62" s="2">
-        <v>45907.194444444445</v>
+        <v>45906.087141203701</v>
       </c>
       <c r="D62" s="2">
-        <v>45908.530740740738</v>
+        <v>45907.494085648148</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -1722,35 +1724,35 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C63" s="2">
-        <v>45913.650914351849</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2">
-        <v>45914.984722222223</v>
-      </c>
+        <v>45912.627604166664</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45914.005208333336</v>
+      </c>
+      <c r="E63" s="2"/>
       <c r="F63">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C64" s="2">
-        <v>45906.221956018519</v>
-      </c>
-      <c r="D64" s="2">
-        <v>45907.510810185187</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>45915.061967592592</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2">
+        <v>45916.395532407405</v>
+      </c>
       <c r="F64">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -1758,53 +1760,53 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C65" s="2">
-        <v>45906.810439814813</v>
+        <v>45910.054398148146</v>
       </c>
       <c r="D65" s="2">
-        <v>45908.090266203704</v>
+        <v>45911.384293981479</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2">
-        <v>45907.24454861111</v>
+        <v>45909.039467592593</v>
       </c>
       <c r="D66" s="2">
-        <v>45908.508622685185</v>
+        <v>45910.373379629629</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C67" s="2">
-        <v>45910.247546296298</v>
+        <v>45907.194444444445</v>
       </c>
       <c r="D67" s="2">
-        <v>45911.529826388891</v>
+        <v>45908.530740740738</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
@@ -1812,13 +1814,13 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C68" s="2">
-        <v>45910.029456018521</v>
+        <v>45906.810439814813</v>
       </c>
       <c r="D68" s="2">
-        <v>45911.331701388888</v>
+        <v>45908.090266203704</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
@@ -1830,17 +1832,17 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C69" s="2">
-        <v>45904.257928240739</v>
+        <v>45910.029456018521</v>
       </c>
       <c r="D69" s="2">
-        <v>45905.532916666663</v>
+        <v>45911.331701388888</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -1848,53 +1850,53 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C70" s="2">
-        <v>45913.717233796298</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2">
-        <v>45914.984722222223</v>
-      </c>
+        <v>45910.247546296298</v>
+      </c>
+      <c r="D70" s="2">
+        <v>45911.529826388891</v>
+      </c>
+      <c r="E70" s="2"/>
       <c r="F70">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C71" s="2">
-        <v>45905.7655787037</v>
+        <v>45906.221956018519</v>
       </c>
       <c r="D71" s="2">
-        <v>45907.012766203705</v>
+        <v>45907.510810185187</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C72" s="2">
-        <v>45909.260914351849</v>
-      </c>
-      <c r="D72" s="2">
-        <v>45910.524594907409</v>
-      </c>
-      <c r="E72" s="2"/>
+        <v>45915.111643518518</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2">
+        <v>45916.395532407405</v>
+      </c>
       <c r="F72">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -1902,69 +1904,69 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C73" s="2">
-        <v>45910.067824074074</v>
+        <v>45907.24454861111</v>
       </c>
       <c r="D73" s="2">
-        <v>45911.284560185188</v>
+        <v>45908.508622685185</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2">
-        <v>45907.051342592589</v>
+        <v>45905.7655787037</v>
       </c>
       <c r="D74" s="2">
-        <v>45908.250138888892</v>
+        <v>45907.012766203705</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C75" s="2">
-        <v>45913.050844907404</v>
+        <v>45909.260914351849</v>
       </c>
       <c r="D75" s="2">
-        <v>45914.284895833334</v>
+        <v>45910.524594907409</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C76" s="2">
-        <v>45913.76421296296</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2">
-        <v>45914.984722222223</v>
-      </c>
+        <v>45914.064189814817</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45915.274594907409</v>
+      </c>
+      <c r="E76" s="2"/>
       <c r="F76">
         <v>29</v>
       </c>
@@ -1974,17 +1976,17 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2">
-        <v>45910.356319444443</v>
+        <v>45913.050844907404</v>
       </c>
       <c r="D77" s="2">
-        <v>45911.500925925924</v>
+        <v>45914.284895833334</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -1992,17 +1994,17 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C78" s="2">
-        <v>45907.389652777776</v>
+        <v>45907.051342592589</v>
       </c>
       <c r="D78" s="2">
-        <v>45908.550567129627</v>
+        <v>45908.250138888892</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -2010,35 +2012,35 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2">
-        <v>45904.03466435185</v>
+        <v>45910.067824074074</v>
       </c>
       <c r="D79" s="2">
-        <v>45905.192037037035</v>
+        <v>45911.284560185188</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C80" s="2">
-        <v>45905.566099537034</v>
+        <v>45914.304675925923</v>
       </c>
       <c r="D80" s="2">
-        <v>45906.734594907408</v>
+        <v>45915.505648148152</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -2061,16 +2063,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C82" s="2">
-        <v>45909.373738425929</v>
+        <v>45905.566099537034</v>
       </c>
       <c r="D82" s="2">
-        <v>45910.524085648147</v>
+        <v>45906.734594907408</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
@@ -2082,17 +2084,17 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2">
-        <v>45907.094305555554</v>
+        <v>45914.011388888888</v>
       </c>
       <c r="D83" s="2">
-        <v>45908.213356481479</v>
+        <v>45915.187569444446</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -2100,17 +2102,17 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C84" s="2">
-        <v>45913.579629629632</v>
+        <v>45915.035682870373</v>
       </c>
       <c r="D84" s="2">
-        <v>45914.686932870369</v>
+        <v>45916.204282407409</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -2118,17 +2120,17 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C85" s="2">
-        <v>45906.042974537035</v>
+        <v>45907.389652777776</v>
       </c>
       <c r="D85" s="2">
-        <v>45907.169976851852</v>
+        <v>45908.550567129627</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -2136,17 +2138,17 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C86" s="2">
-        <v>45909.091203703705</v>
-      </c>
-      <c r="D86" s="2">
-        <v>45910.220127314817</v>
-      </c>
-      <c r="E86" s="2"/>
+        <v>45915.231793981482</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2">
+        <v>45916.395532407405</v>
+      </c>
       <c r="F86">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -2154,67 +2156,67 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C87" s="2">
-        <v>45906.575902777775</v>
+        <v>45910.356319444443</v>
       </c>
       <c r="D87" s="2">
-        <v>45907.67150462963</v>
+        <v>45911.500925925924</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C88" s="2">
-        <v>45912.041076388887</v>
+        <v>45909.373738425929</v>
       </c>
       <c r="D88" s="2">
-        <v>45913.145925925928</v>
+        <v>45910.524085648147</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C89" s="2">
-        <v>45911.012094907404</v>
+        <v>45914.060752314814</v>
       </c>
       <c r="D89" s="2">
-        <v>45912.137696759259</v>
+        <v>45915.225474537037</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C90" s="2">
-        <v>45913.042430555557</v>
+        <v>45911.012094907404</v>
       </c>
       <c r="D90" s="2">
-        <v>45914.200810185182</v>
+        <v>45912.137696759259</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90">
@@ -2226,17 +2228,17 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C91" s="2">
-        <v>45908.118969907409</v>
+        <v>45909.091203703705</v>
       </c>
       <c r="D91" s="2">
-        <v>45909.179571759261</v>
+        <v>45910.220127314817</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -2244,89 +2246,89 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C92" s="2">
-        <v>45906.047337962962</v>
+        <v>45913.579629629632</v>
       </c>
       <c r="D92" s="2">
-        <v>45907.137569444443</v>
+        <v>45914.686932870369</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C93" s="2">
-        <v>45909.514016203706</v>
+        <v>45907.094305555554</v>
       </c>
       <c r="D93" s="2">
-        <v>45910.611180555556</v>
+        <v>45908.213356481479</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2">
-        <v>45913.064467592594</v>
+        <v>45915.075706018521</v>
       </c>
       <c r="D94" s="2">
-        <v>45914.140983796293</v>
+        <v>45916.188900462963</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2">
-        <v>45909.039143518516</v>
+        <v>45914.151493055557</v>
       </c>
       <c r="D95" s="2">
-        <v>45910.102083333331</v>
+        <v>45915.287997685184</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C96" s="2">
-        <v>45907.134444444448</v>
+        <v>45906.042974537035</v>
       </c>
       <c r="D96" s="2">
-        <v>45908.224537037036</v>
+        <v>45907.169976851852</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
@@ -2334,17 +2336,17 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C97" s="2">
-        <v>45911.994386574072</v>
-      </c>
-      <c r="D97" s="2">
-        <v>45913.008622685185</v>
-      </c>
-      <c r="E97" s="2"/>
+        <v>45915.250428240739</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2">
+        <v>45916.395532407405</v>
+      </c>
       <c r="F97">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
@@ -2352,17 +2354,17 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C98" s="2">
-        <v>45912.043020833335</v>
+        <v>45906.575902777775</v>
       </c>
       <c r="D98" s="2">
-        <v>45913.113923611112</v>
+        <v>45907.67150462963</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
@@ -2370,17 +2372,17 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C99" s="2">
-        <v>45911.684641203705</v>
+        <v>45912.041076388887</v>
       </c>
       <c r="D99" s="2">
-        <v>45912.726527777777</v>
+        <v>45913.145925925928</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
@@ -2388,161 +2390,161 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C100" s="2">
-        <v>45908.570671296293</v>
-      </c>
-      <c r="D100" s="2">
-        <v>45909.609884259262</v>
-      </c>
-      <c r="E100" s="2"/>
+        <v>45915.259062500001</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2">
+        <v>45916.395532407405</v>
+      </c>
       <c r="F100">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C101" s="2">
-        <v>45911.504976851851</v>
+        <v>45914.045497685183</v>
       </c>
       <c r="D101" s="2">
-        <v>45912.543333333335</v>
+        <v>45915.202696759261</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C102" s="2">
-        <v>45906.5156712963</v>
+        <v>45913.042430555557</v>
       </c>
       <c r="D102" s="2">
-        <v>45907.565092592595</v>
+        <v>45914.200810185182</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C103" s="2">
-        <v>45909.239444444444</v>
+        <v>45913.064467592594</v>
       </c>
       <c r="D103" s="2">
-        <v>45910.265706018516</v>
+        <v>45914.140983796293</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C104" s="2">
-        <v>45911.244166666664</v>
+        <v>45909.514016203706</v>
       </c>
       <c r="D104" s="2">
-        <v>45912.265601851854</v>
+        <v>45910.611180555556</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C105" s="2">
-        <v>45908.19803240741</v>
+        <v>45908.118969907409</v>
       </c>
       <c r="D105" s="2">
-        <v>45909.213159722225</v>
+        <v>45909.179571759261</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2">
-        <v>45908.567731481482</v>
+        <v>45906.047337962962</v>
       </c>
       <c r="D106" s="2">
-        <v>45909.606053240743</v>
+        <v>45907.137569444443</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C107" s="2">
-        <v>45907.620358796295</v>
+        <v>45909.039143518516</v>
       </c>
       <c r="D107" s="2">
-        <v>45908.656805555554</v>
+        <v>45910.102083333331</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C108" s="2">
-        <v>45910.196134259262</v>
+        <v>45907.134444444448</v>
       </c>
       <c r="D108" s="2">
-        <v>45911.248784722222</v>
+        <v>45908.224537037036</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
@@ -2550,13 +2552,13 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C109" s="2">
-        <v>45905.577847222223</v>
+        <v>45910.196134259262</v>
       </c>
       <c r="D109" s="2">
-        <v>45906.623020833336</v>
+        <v>45911.248784722222</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
@@ -2565,16 +2567,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2">
-        <v>45913.021006944444</v>
+        <v>45907.620358796295</v>
       </c>
       <c r="D110" s="2">
-        <v>45914.078969907408</v>
+        <v>45908.656805555554</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
@@ -2583,74 +2585,74 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C111" s="2">
-        <v>45904.038356481484</v>
+        <v>45914.036979166667</v>
       </c>
       <c r="D111" s="2">
-        <v>45905.000960648147</v>
+        <v>45915.079004629632</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C112" s="2">
-        <v>45905.033067129632</v>
+        <v>45905.577847222223</v>
       </c>
       <c r="D112" s="2">
-        <v>45906.00104166667</v>
+        <v>45906.623020833336</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C113" s="2">
-        <v>45910.584328703706</v>
+        <v>45908.19803240741</v>
       </c>
       <c r="D113" s="2">
-        <v>45911.616053240738</v>
+        <v>45909.213159722225</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C114" s="2">
-        <v>45913.701620370368</v>
+        <v>45908.567731481482</v>
       </c>
       <c r="D114" s="2">
-        <v>45914.694907407407</v>
+        <v>45909.606053240743</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
@@ -2658,17 +2660,17 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C115" s="2">
-        <v>45913.030231481483</v>
+        <v>45911.684641203705</v>
       </c>
       <c r="D115" s="2">
-        <v>45914.003888888888</v>
+        <v>45912.726527777777</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
@@ -2676,17 +2678,17 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C116" s="2">
-        <v>45909.531261574077</v>
+        <v>45915.055277777778</v>
       </c>
       <c r="D116" s="2">
-        <v>45910.523888888885</v>
+        <v>45916.095949074072</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
@@ -2694,17 +2696,17 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C117" s="2">
-        <v>45905.558854166666</v>
+        <v>45912.043020833335</v>
       </c>
       <c r="D117" s="2">
-        <v>45906.555868055555</v>
+        <v>45913.113923611112</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
@@ -2712,17 +2714,17 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C118" s="2">
-        <v>45905.028263888889</v>
+        <v>45911.994386574072</v>
       </c>
       <c r="D118" s="2">
-        <v>45906.015115740738</v>
+        <v>45913.008622685185</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
@@ -2730,71 +2732,71 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C119" s="2">
-        <v>45913.029675925929</v>
+        <v>45908.570671296293</v>
       </c>
       <c r="D119" s="2">
-        <v>45914.000960648147</v>
+        <v>45909.609884259262</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C120" s="2">
-        <v>45906.993020833332</v>
+        <v>45909.239444444444</v>
       </c>
       <c r="D120" s="2">
-        <v>45907.99009259259</v>
+        <v>45910.265706018516</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B121" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C121" s="2">
-        <v>45906.572326388887</v>
+        <v>45911.244166666664</v>
       </c>
       <c r="D121" s="2">
-        <v>45907.549814814818</v>
+        <v>45912.265601851854</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C122" s="2">
-        <v>45910.041087962964</v>
+        <v>45911.504976851851</v>
       </c>
       <c r="D122" s="2">
-        <v>45911.026550925926</v>
+        <v>45912.543333333335</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
@@ -2802,49 +2804,49 @@
         <v>58</v>
       </c>
       <c r="B123" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C123" s="2">
-        <v>45904.702118055553</v>
+        <v>45906.5156712963</v>
       </c>
       <c r="D123" s="2">
-        <v>45905.667326388888</v>
+        <v>45907.565092592595</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C124" s="2">
-        <v>45912.242094907408</v>
+        <v>45913.021006944444</v>
       </c>
       <c r="D124" s="2">
-        <v>45913.231030092589</v>
+        <v>45914.078969907408</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C125" s="2">
-        <v>45913.530856481484</v>
+        <v>45911.556932870371</v>
       </c>
       <c r="D125" s="2">
-        <v>45914.507928240739</v>
+        <v>45912.543055555558</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
@@ -2853,16 +2855,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C126" s="2">
-        <v>45904.020173611112</v>
+        <v>45912.03328703704</v>
       </c>
       <c r="D126" s="2">
-        <v>45905.008136574077</v>
+        <v>45913.003379629627</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126">
@@ -2910,13 +2912,13 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C129" s="2">
-        <v>45912.03328703704</v>
+        <v>45909.029490740744</v>
       </c>
       <c r="D129" s="2">
-        <v>45913.003379629627</v>
+        <v>45910.00445601852</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129">
@@ -2928,13 +2930,13 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C130" s="2">
-        <v>45904.531631944446</v>
+        <v>45910.02920138889</v>
       </c>
       <c r="D130" s="2">
-        <v>45905.530775462961</v>
+        <v>45911.005185185182</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
@@ -2946,13 +2948,13 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C131" s="2">
-        <v>45909.029490740744</v>
+        <v>45911.034571759257</v>
       </c>
       <c r="D131" s="2">
-        <v>45910.00445601852</v>
+        <v>45912.001400462963</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
@@ -2964,13 +2966,13 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C132" s="2">
-        <v>45911.556932870371</v>
+        <v>45914.0625</v>
       </c>
       <c r="D132" s="2">
-        <v>45912.543055555558</v>
+        <v>45915.059525462966</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132">
@@ -2979,16 +2981,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2">
-        <v>45910.02920138889</v>
+        <v>45913.030231481483</v>
       </c>
       <c r="D133" s="2">
-        <v>45911.005185185182</v>
+        <v>45914.003888888888</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133">
@@ -2997,16 +2999,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C134" s="2">
-        <v>45911.034571759257</v>
+        <v>45915.220127314817</v>
       </c>
       <c r="D134" s="2">
-        <v>45912.001400462963</v>
+        <v>45916.216979166667</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134">
@@ -3015,16 +3017,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C135" s="2">
-        <v>45908.923564814817</v>
+        <v>45915.020277777781</v>
       </c>
       <c r="D135" s="2">
-        <v>45909.953576388885</v>
+        <v>45916.002210648148</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135">
@@ -3033,16 +3035,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C136" s="2">
-        <v>45906.520752314813</v>
+        <v>45906.993020833332</v>
       </c>
       <c r="D136" s="2">
-        <v>45907.527858796297</v>
+        <v>45907.99009259259</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136">
@@ -3051,16 +3053,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C137" s="2">
-        <v>45907.041504629633</v>
+        <v>45906.572326388887</v>
       </c>
       <c r="D137" s="2">
-        <v>45908.003831018519</v>
+        <v>45907.549814814818</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137">
@@ -3069,16 +3071,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C138" s="2">
-        <v>45909.532372685186</v>
+        <v>45910.041087962964</v>
       </c>
       <c r="D138" s="2">
-        <v>45910.502280092594</v>
+        <v>45911.026550925926</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138">
@@ -3087,19 +3089,289 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C139" s="2">
-        <v>45910.510555555556</v>
+        <v>45905.033067129632</v>
       </c>
       <c r="D139" s="2">
-        <v>45911.524016203701</v>
+        <v>45906.00104166667</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="2">
+        <v>45910.584328703706</v>
+      </c>
+      <c r="D140" s="2">
+        <v>45911.616053240738</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45913.029675925929</v>
+      </c>
+      <c r="D141" s="2">
+        <v>45914.000960648147</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" s="2">
+        <v>45909.531261574077</v>
+      </c>
+      <c r="D142" s="2">
+        <v>45910.523888888885</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" t="s">
+        <v>67</v>
+      </c>
+      <c r="C143" s="2">
+        <v>45913.701620370368</v>
+      </c>
+      <c r="D143" s="2">
+        <v>45914.694907407407</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="2">
+        <v>45905.558854166666</v>
+      </c>
+      <c r="D144" s="2">
+        <v>45906.555868055555</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" t="s">
+        <v>49</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45905.028263888889</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45906.015115740738</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>58</v>
+      </c>
+      <c r="B146" t="s">
+        <v>65</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45912.242094907408</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45913.231030092589</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>58</v>
+      </c>
+      <c r="B147" t="s">
+        <v>50</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45913.530856481484</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45914.507928240739</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45908.923564814817</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45909.953576388885</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" s="2">
+        <v>45907.041504629633</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45908.003831018519</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>43</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45914.019074074073</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45915.000347222223</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" t="s">
+        <v>71</v>
+      </c>
+      <c r="C151" s="2">
+        <v>45914.043333333335</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45915.064780092594</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45909.532372685186</v>
+      </c>
+      <c r="D152" s="2">
+        <v>45910.502280092594</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45910.510555555556</v>
+      </c>
+      <c r="D153" s="2">
+        <v>45911.524016203701</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45906.520752314813</v>
+      </c>
+      <c r="D154" s="2">
+        <v>45907.527858796297</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="69">
   <si>
     <t>电站名称</t>
   </si>
@@ -163,12 +163,6 @@
     <t>A04号直流</t>
   </si>
   <si>
-    <t>704号直流</t>
-  </si>
-  <si>
-    <t>A05号直流</t>
-  </si>
-  <si>
     <t>203号直流</t>
   </si>
   <si>
@@ -199,15 +193,6 @@
     <t>107号直流</t>
   </si>
   <si>
-    <t>109号直流</t>
-  </si>
-  <si>
-    <t>208号直流</t>
-  </si>
-  <si>
-    <t>302号直流</t>
-  </si>
-  <si>
     <t>111号直流</t>
   </si>
   <si>
@@ -233,6 +218,12 @@
   </si>
   <si>
     <t>006B号直流</t>
+  </si>
+  <si>
+    <t>A03号直流</t>
+  </si>
+  <si>
+    <t>804号直流</t>
   </si>
 </sst>
 </file>
@@ -596,10 +587,13 @@
   <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -623,128 +617,128 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>45907.567233796297</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45915.492719907408</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>45908.603506944448</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>45917.338078703702</v>
+      </c>
       <c r="F2">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>45908.603506944448</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>45916.395532407405</v>
-      </c>
+        <v>45907.567233796297</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45915.492719907408</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
-        <v>45906.578356481485</v>
+        <v>45908.550717592596</v>
       </c>
       <c r="D4" s="2">
-        <v>45913.004490740743</v>
+        <v>45913.021585648145</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4">
-        <v>155</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
-        <v>45908.550717592596</v>
+        <v>45909.602083333331</v>
       </c>
       <c r="D5" s="2">
-        <v>45913.021585648145</v>
+        <v>45914.000115740739</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>45909.602083333331</v>
+        <v>45909.236574074072</v>
       </c>
       <c r="D6" s="2">
-        <v>45914.000115740739</v>
+        <v>45913.535138888888</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
-        <v>45909.236574074072</v>
+        <v>45911.52857638889</v>
       </c>
       <c r="D7" s="2">
-        <v>45913.535138888888</v>
+        <v>45915.503275462965</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
-        <v>45911.52857638889</v>
+        <v>45909.053182870368</v>
       </c>
       <c r="D8" s="2">
-        <v>45915.503275462965</v>
+        <v>45912.756840277776</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -752,107 +746,107 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>45909.053182870368</v>
+        <v>45908.525706018518</v>
       </c>
       <c r="D9" s="2">
-        <v>45912.756840277776</v>
+        <v>45912.034201388888</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2">
-        <v>45905.534791666665</v>
+        <v>45913.650914351849</v>
       </c>
       <c r="D10" s="2">
-        <v>45909.203703703701</v>
+        <v>45917.025937500002</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>45908.525706018518</v>
+        <v>45913.052685185183</v>
       </c>
       <c r="D11" s="2">
-        <v>45912.034201388888</v>
+        <v>45916.265127314815</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2">
-        <v>45905.263715277775</v>
+        <v>45907.570555555554</v>
       </c>
       <c r="D12" s="2">
-        <v>45908.553703703707</v>
+        <v>45910.500289351854</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
-        <v>45913.052685185183</v>
+        <v>45914.186030092591</v>
       </c>
       <c r="D13" s="2">
-        <v>45916.265127314815</v>
+        <v>45917.006539351853</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>45906.271747685183</v>
+        <v>45910.540219907409</v>
       </c>
       <c r="D14" s="2">
-        <v>45909.218194444446</v>
+        <v>45913.224270833336</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -860,35 +854,35 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>45907.570555555554</v>
+        <v>45912.328969907408</v>
       </c>
       <c r="D15" s="2">
-        <v>45910.500289351854</v>
+        <v>45915.001701388886</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
-        <v>45913.650914351849</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>45916.395532407405</v>
-      </c>
+        <v>45910.021134259259</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45912.686157407406</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -896,35 +890,35 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>45912.328969907408</v>
+        <v>45913.006967592592</v>
       </c>
       <c r="D17" s="2">
-        <v>45915.001701388886</v>
+        <v>45915.473703703705</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
-        <v>45910.540219907409</v>
+        <v>45907.401435185187</v>
       </c>
       <c r="D18" s="2">
-        <v>45913.224270833336</v>
+        <v>45909.52579861111</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -932,35 +926,35 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
-        <v>45910.021134259259</v>
+        <v>45908.552488425928</v>
       </c>
       <c r="D19" s="2">
-        <v>45912.686157407406</v>
+        <v>45910.652662037035</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2">
-        <v>45913.006967592592</v>
+        <v>45910.355798611112</v>
       </c>
       <c r="D20" s="2">
-        <v>45915.473703703705</v>
+        <v>45912.393368055556</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -968,197 +962,197 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2">
-        <v>45906.25440972222</v>
+        <v>45907.522546296299</v>
       </c>
       <c r="D21" s="2">
-        <v>45908.543657407405</v>
+        <v>45909.570775462962</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2">
-        <v>45914.186030092591</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
-        <v>45916.395532407405</v>
-      </c>
+        <v>45911.040381944447</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45913.023263888892</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>45907.401435185187</v>
+        <v>45908.570474537039</v>
       </c>
       <c r="D23" s="2">
-        <v>45909.52579861111</v>
+        <v>45910.550486111111</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2">
-        <v>45908.552488425928</v>
+        <v>45910.561724537038</v>
       </c>
       <c r="D24" s="2">
-        <v>45910.652662037035</v>
+        <v>45912.509375000001</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>45905.060277777775</v>
+        <v>45910.5781712963</v>
       </c>
       <c r="D25" s="2">
-        <v>45907.134097222224</v>
+        <v>45912.528969907406</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2">
-        <v>45907.522546296299</v>
+        <v>45908.082407407404</v>
       </c>
       <c r="D26" s="2">
-        <v>45909.570775462962</v>
+        <v>45910.006041666667</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2">
-        <v>45910.355798611112</v>
+        <v>45912.060983796298</v>
       </c>
       <c r="D27" s="2">
-        <v>45912.393368055556</v>
+        <v>45914.012141203704</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2">
-        <v>45911.040381944447</v>
+        <v>45914.560046296298</v>
       </c>
       <c r="D28" s="2">
-        <v>45913.023263888892</v>
+        <v>45916.478472222225</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2">
-        <v>45908.570474537039</v>
+        <v>45911.562384259261</v>
       </c>
       <c r="D29" s="2">
-        <v>45910.550486111111</v>
+        <v>45913.435532407406</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2">
-        <v>45908.082407407404</v>
+        <v>45911.646747685183</v>
       </c>
       <c r="D30" s="2">
-        <v>45910.006041666667</v>
+        <v>45913.523923611108</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2">
-        <v>45910.5781712963</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45912.528969907406</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>45915.503680555557</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>45917.338078703702</v>
+      </c>
       <c r="F31">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1166,71 +1160,71 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2">
-        <v>45912.060983796298</v>
+        <v>45915.231793981482</v>
       </c>
       <c r="D32" s="2">
-        <v>45914.012141203704</v>
+        <v>45917.019432870373</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2">
-        <v>45906.549328703702</v>
+        <v>45913.76421296296</v>
       </c>
       <c r="D33" s="2">
-        <v>45908.533761574072</v>
+        <v>45915.539942129632</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2">
-        <v>45910.561724537038</v>
-      </c>
-      <c r="D34" s="2">
-        <v>45912.509375000001</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>45915.583414351851</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>45917.338078703702</v>
+      </c>
       <c r="F34">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2">
-        <v>45905.58865740741</v>
+        <v>45909.261608796296</v>
       </c>
       <c r="D35" s="2">
-        <v>45907.541539351849</v>
+        <v>45911.001076388886</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -1238,35 +1232,35 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="2">
-        <v>45906.091840277775</v>
+        <v>45913.23265046296</v>
       </c>
       <c r="D36" s="2">
-        <v>45908.0002662037</v>
+        <v>45914.981087962966</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2">
-        <v>45911.646747685183</v>
+        <v>45909.799317129633</v>
       </c>
       <c r="D37" s="2">
-        <v>45913.523923611108</v>
+        <v>45911.513888888891</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1274,35 +1268,35 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2">
-        <v>45911.562384259261</v>
+        <v>45914.040277777778</v>
       </c>
       <c r="D38" s="2">
-        <v>45913.435532407406</v>
+        <v>45915.733287037037</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="2">
-        <v>45914.560046296298</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2">
-        <v>45916.395532407405</v>
-      </c>
+        <v>45911.531018518515</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45913.206875000003</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1310,125 +1304,125 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C40" s="2">
-        <v>45913.23265046296</v>
+        <v>45915.111643518518</v>
       </c>
       <c r="D40" s="2">
-        <v>45914.981087962966</v>
+        <v>45916.694467592592</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C41" s="2">
-        <v>45913.76421296296</v>
+        <v>45907.705949074072</v>
       </c>
       <c r="D41" s="2">
-        <v>45915.539942129632</v>
+        <v>45909.21980324074</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2">
-        <v>45909.261608796296</v>
+        <v>45914.486261574071</v>
       </c>
       <c r="D42" s="2">
-        <v>45911.001076388886</v>
+        <v>45916.002962962964</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C43" s="2">
-        <v>45914.040277777778</v>
+        <v>45915.025833333333</v>
       </c>
       <c r="D43" s="2">
-        <v>45915.733287037037</v>
+        <v>45916.511203703703</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2">
-        <v>45909.799317129633</v>
+        <v>45915.061967592592</v>
       </c>
       <c r="D44" s="2">
-        <v>45911.513888888891</v>
+        <v>45916.546516203707</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C45" s="2">
-        <v>45911.531018518515</v>
+        <v>45907.729745370372</v>
       </c>
       <c r="D45" s="2">
-        <v>45913.206875000003</v>
+        <v>45909.231006944443</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C46" s="2">
-        <v>45906.348958333336</v>
+        <v>45908.210324074076</v>
       </c>
       <c r="D46" s="2">
-        <v>45908.012199074074</v>
+        <v>45909.712118055555</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -1436,17 +1430,17 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C47" s="2">
-        <v>45914.486261574071</v>
+        <v>45910.534502314818</v>
       </c>
       <c r="D47" s="2">
-        <v>45916.002962962964</v>
+        <v>45912.012048611112</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -1454,17 +1448,17 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C48" s="2">
-        <v>45907.705949074072</v>
+        <v>45908.058252314811</v>
       </c>
       <c r="D48" s="2">
-        <v>45909.21980324074</v>
+        <v>45909.559004629627</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -1472,13 +1466,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C49" s="2">
-        <v>45908.210324074076</v>
+        <v>45909.579212962963</v>
       </c>
       <c r="D49" s="2">
-        <v>45909.712118055555</v>
+        <v>45911.07608796296</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
@@ -1487,20 +1481,20 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2">
-        <v>45910.534502314818</v>
+        <v>45912.567314814813</v>
       </c>
       <c r="D50" s="2">
-        <v>45912.012048611112</v>
+        <v>45914.04074074074</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -1508,17 +1502,17 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2">
-        <v>45908.058252314811</v>
+        <v>45913.566805555558</v>
       </c>
       <c r="D51" s="2">
-        <v>45909.559004629627</v>
+        <v>45915.004942129628</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -1526,53 +1520,53 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C52" s="2">
-        <v>45909.579212962963</v>
+        <v>45913.717233796298</v>
       </c>
       <c r="D52" s="2">
-        <v>45911.07608796296</v>
+        <v>45915.203182870369</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2">
-        <v>45907.729745370372</v>
+        <v>45908.562800925924</v>
       </c>
       <c r="D53" s="2">
-        <v>45909.231006944443</v>
+        <v>45910.003263888888</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2">
-        <v>45912.567314814813</v>
+        <v>45914.050219907411</v>
       </c>
       <c r="D54" s="2">
-        <v>45914.04074074074</v>
+        <v>45915.466817129629</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -1580,179 +1574,179 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C55" s="2">
-        <v>45906.065810185188</v>
+        <v>45915.541979166665</v>
       </c>
       <c r="D55" s="2">
-        <v>45907.50099537037</v>
+        <v>45916.988449074073</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C56" s="2">
-        <v>45913.566805555558</v>
+        <v>45912.627604166664</v>
       </c>
       <c r="D56" s="2">
-        <v>45915.004942129628</v>
+        <v>45914.005208333336</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2">
-        <v>45908.562800925924</v>
+        <v>45909.039467592593</v>
       </c>
       <c r="D57" s="2">
-        <v>45910.003263888888</v>
+        <v>45910.373379629629</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C58" s="2">
-        <v>45913.717233796298</v>
+        <v>45907.194444444445</v>
       </c>
       <c r="D58" s="2">
-        <v>45915.203182870369</v>
+        <v>45908.530740740738</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C59" s="2">
-        <v>45906.573877314811</v>
+        <v>45910.054398148146</v>
       </c>
       <c r="D59" s="2">
-        <v>45908.008958333332</v>
+        <v>45911.384293981479</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C60" s="2">
-        <v>45914.050219907411</v>
-      </c>
-      <c r="D60" s="2">
-        <v>45915.466817129629</v>
-      </c>
-      <c r="E60" s="2"/>
+        <v>45916.041956018518</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2">
+        <v>45917.338078703702</v>
+      </c>
       <c r="F60">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C61" s="2">
-        <v>45915.025833333333</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2">
-        <v>45916.395532407405</v>
-      </c>
+        <v>45910.247546296298</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45911.529826388891</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C62" s="2">
-        <v>45906.087141203701</v>
+        <v>45907.24454861111</v>
       </c>
       <c r="D62" s="2">
-        <v>45907.494085648148</v>
+        <v>45908.508622685185</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C63" s="2">
-        <v>45912.627604166664</v>
+        <v>45910.029456018521</v>
       </c>
       <c r="D63" s="2">
-        <v>45914.005208333336</v>
+        <v>45911.331701388888</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C64" s="2">
-        <v>45915.061967592592</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2">
-        <v>45916.395532407405</v>
-      </c>
+        <v>45915.259062500001</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45916.545428240737</v>
+      </c>
+      <c r="E64" s="2"/>
       <c r="F64">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -1760,35 +1754,35 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2">
-        <v>45910.054398148146</v>
-      </c>
-      <c r="D65" s="2">
-        <v>45911.384293981479</v>
-      </c>
-      <c r="E65" s="2"/>
+        <v>45916.051249999997</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2">
+        <v>45917.338078703702</v>
+      </c>
       <c r="F65">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C66" s="2">
-        <v>45909.039467592593</v>
-      </c>
-      <c r="D66" s="2">
-        <v>45910.373379629629</v>
-      </c>
-      <c r="E66" s="2"/>
+        <v>45916.059074074074</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2">
+        <v>45917.338078703702</v>
+      </c>
       <c r="F66">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -1796,53 +1790,53 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C67" s="2">
-        <v>45907.194444444445</v>
+        <v>45909.260914351849</v>
       </c>
       <c r="D67" s="2">
-        <v>45908.530740740738</v>
+        <v>45910.524594907409</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2">
-        <v>45906.810439814813</v>
+        <v>45914.304675925923</v>
       </c>
       <c r="D68" s="2">
-        <v>45908.090266203704</v>
+        <v>45915.505648148152</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C69" s="2">
-        <v>45910.029456018521</v>
+        <v>45914.064189814817</v>
       </c>
       <c r="D69" s="2">
-        <v>45911.331701388888</v>
+        <v>45915.274594907409</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -1850,17 +1844,17 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2">
-        <v>45910.247546296298</v>
+        <v>45913.050844907404</v>
       </c>
       <c r="D70" s="2">
-        <v>45911.529826388891</v>
+        <v>45914.284895833334</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -1868,17 +1862,17 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2">
-        <v>45906.221956018519</v>
+        <v>45910.067824074074</v>
       </c>
       <c r="D71" s="2">
-        <v>45907.510810185187</v>
+        <v>45911.284560185188</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
@@ -1886,17 +1880,17 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2">
-        <v>45915.111643518518</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2">
-        <v>45916.395532407405</v>
-      </c>
+        <v>45915.250428240739</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45916.492291666669</v>
+      </c>
+      <c r="E72" s="2"/>
       <c r="F72">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -1904,35 +1898,35 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2">
-        <v>45907.24454861111</v>
+        <v>45907.051342592589</v>
       </c>
       <c r="D73" s="2">
-        <v>45908.508622685185</v>
+        <v>45908.250138888892</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C74" s="2">
-        <v>45905.7655787037</v>
+        <v>45907.048576388886</v>
       </c>
       <c r="D74" s="2">
-        <v>45907.012766203705</v>
+        <v>45908.228101851855</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
@@ -1940,35 +1934,35 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C75" s="2">
-        <v>45909.260914351849</v>
+        <v>45909.373738425929</v>
       </c>
       <c r="D75" s="2">
-        <v>45910.524594907409</v>
+        <v>45910.524085648147</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="2">
-        <v>45914.064189814817</v>
+        <v>45914.060752314814</v>
       </c>
       <c r="D76" s="2">
-        <v>45915.274594907409</v>
+        <v>45915.225474537037</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -1976,17 +1970,17 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2">
-        <v>45913.050844907404</v>
+        <v>45914.011388888888</v>
       </c>
       <c r="D77" s="2">
-        <v>45914.284895833334</v>
+        <v>45915.187569444446</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -1994,17 +1988,17 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C78" s="2">
-        <v>45907.051342592589</v>
+        <v>45910.356319444443</v>
       </c>
       <c r="D78" s="2">
-        <v>45908.250138888892</v>
+        <v>45911.500925925924</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -2012,35 +2006,35 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2">
-        <v>45910.067824074074</v>
+        <v>45907.389652777776</v>
       </c>
       <c r="D79" s="2">
-        <v>45911.284560185188</v>
+        <v>45908.550567129627</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C80" s="2">
-        <v>45914.304675925923</v>
+        <v>45915.035682870373</v>
       </c>
       <c r="D80" s="2">
-        <v>45915.505648148152</v>
+        <v>45916.204282407409</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -2048,35 +2042,35 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2">
-        <v>45907.048576388886</v>
+        <v>45911.012094907404</v>
       </c>
       <c r="D81" s="2">
-        <v>45908.228101851855</v>
+        <v>45912.137696759259</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C82" s="2">
-        <v>45905.566099537034</v>
+        <v>45913.042430555557</v>
       </c>
       <c r="D82" s="2">
-        <v>45906.734594907408</v>
+        <v>45914.200810185182</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -2084,17 +2078,17 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C83" s="2">
-        <v>45914.011388888888</v>
+        <v>45913.579629629632</v>
       </c>
       <c r="D83" s="2">
-        <v>45915.187569444446</v>
+        <v>45914.686932870369</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -2102,17 +2096,17 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C84" s="2">
-        <v>45915.035682870373</v>
+        <v>45914.045497685183</v>
       </c>
       <c r="D84" s="2">
-        <v>45916.204282407409</v>
+        <v>45915.202696759261</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -2120,17 +2114,17 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2">
-        <v>45907.389652777776</v>
+        <v>45915.075706018521</v>
       </c>
       <c r="D85" s="2">
-        <v>45908.550567129627</v>
+        <v>45916.188900462963</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -2138,17 +2132,17 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C86" s="2">
-        <v>45915.231793981482</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2">
-        <v>45916.395532407405</v>
-      </c>
+        <v>45907.094305555554</v>
+      </c>
+      <c r="D86" s="2">
+        <v>45908.213356481479</v>
+      </c>
+      <c r="E86" s="2"/>
       <c r="F86">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -2156,53 +2150,53 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C87" s="2">
-        <v>45910.356319444443</v>
+        <v>45909.091203703705</v>
       </c>
       <c r="D87" s="2">
-        <v>45911.500925925924</v>
+        <v>45910.220127314817</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2">
-        <v>45909.373738425929</v>
+        <v>45914.151493055557</v>
       </c>
       <c r="D88" s="2">
-        <v>45910.524085648147</v>
+        <v>45915.287997685184</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C89" s="2">
-        <v>45914.060752314814</v>
+        <v>45912.041076388887</v>
       </c>
       <c r="D89" s="2">
-        <v>45915.225474537037</v>
+        <v>45913.145925925928</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -2210,89 +2204,89 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C90" s="2">
-        <v>45911.012094907404</v>
+        <v>45909.514016203706</v>
       </c>
       <c r="D90" s="2">
-        <v>45912.137696759259</v>
+        <v>45910.611180555556</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C91" s="2">
-        <v>45909.091203703705</v>
+        <v>45913.064467592594</v>
       </c>
       <c r="D91" s="2">
-        <v>45910.220127314817</v>
+        <v>45914.140983796293</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C92" s="2">
-        <v>45913.579629629632</v>
-      </c>
-      <c r="D92" s="2">
-        <v>45914.686932870369</v>
-      </c>
-      <c r="E92" s="2"/>
+        <v>45916.28261574074</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2">
+        <v>45917.338078703702</v>
+      </c>
       <c r="F92">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C93" s="2">
-        <v>45907.094305555554</v>
+        <v>45909.039143518516</v>
       </c>
       <c r="D93" s="2">
-        <v>45908.213356481479</v>
+        <v>45910.102083333331</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C94" s="2">
-        <v>45915.075706018521</v>
+        <v>45907.134444444448</v>
       </c>
       <c r="D94" s="2">
-        <v>45916.188900462963</v>
+        <v>45908.224537037036</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
@@ -2300,143 +2294,143 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C95" s="2">
-        <v>45914.151493055557</v>
+        <v>45908.118969907409</v>
       </c>
       <c r="D95" s="2">
-        <v>45915.287997685184</v>
+        <v>45909.179571759261</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C96" s="2">
-        <v>45906.042974537035</v>
+        <v>45915.525405092594</v>
       </c>
       <c r="D96" s="2">
-        <v>45907.169976851852</v>
+        <v>45916.54210648148</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C97" s="2">
-        <v>45915.250428240739</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2">
-        <v>45916.395532407405</v>
-      </c>
+        <v>45909.239444444444</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45910.265706018516</v>
+      </c>
+      <c r="E97" s="2"/>
       <c r="F97">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2">
-        <v>45906.575902777775</v>
+        <v>45911.244166666664</v>
       </c>
       <c r="D98" s="2">
-        <v>45907.67150462963</v>
+        <v>45912.265601851854</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2">
-        <v>45912.041076388887</v>
+        <v>45911.504976851851</v>
       </c>
       <c r="D99" s="2">
-        <v>45913.145925925928</v>
+        <v>45912.543333333335</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45914.036979166667</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45915.079004629632</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100">
         <v>25</v>
-      </c>
-      <c r="C100" s="2">
-        <v>45915.259062500001</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2">
-        <v>45916.395532407405</v>
-      </c>
-      <c r="F100">
-        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C101" s="2">
-        <v>45914.045497685183</v>
+        <v>45910.196134259262</v>
       </c>
       <c r="D101" s="2">
-        <v>45915.202696759261</v>
+        <v>45911.248784722222</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C102" s="2">
-        <v>45913.042430555557</v>
+        <v>45908.19803240741</v>
       </c>
       <c r="D102" s="2">
-        <v>45914.200810185182</v>
+        <v>45909.213159722225</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
@@ -2444,17 +2438,17 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C103" s="2">
-        <v>45913.064467592594</v>
+        <v>45908.567731481482</v>
       </c>
       <c r="D103" s="2">
-        <v>45914.140983796293</v>
+        <v>45909.606053240743</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
@@ -2462,35 +2456,35 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2">
-        <v>45909.514016203706</v>
+        <v>45907.620358796295</v>
       </c>
       <c r="D104" s="2">
-        <v>45910.611180555556</v>
+        <v>45908.656805555554</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C105" s="2">
-        <v>45908.118969907409</v>
+        <v>45913.021006944444</v>
       </c>
       <c r="D105" s="2">
-        <v>45909.179571759261</v>
+        <v>45914.078969907408</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
@@ -2498,67 +2492,67 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C106" s="2">
-        <v>45906.047337962962</v>
+        <v>45908.570671296293</v>
       </c>
       <c r="D106" s="2">
-        <v>45907.137569444443</v>
+        <v>45909.609884259262</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C107" s="2">
-        <v>45909.039143518516</v>
+        <v>45911.684641203705</v>
       </c>
       <c r="D107" s="2">
-        <v>45910.102083333331</v>
+        <v>45912.726527777777</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C108" s="2">
-        <v>45907.134444444448</v>
+        <v>45915.475578703707</v>
       </c>
       <c r="D108" s="2">
-        <v>45908.224537037036</v>
+        <v>45916.538958333331</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C109" s="2">
-        <v>45910.196134259262</v>
+        <v>45912.043020833335</v>
       </c>
       <c r="D109" s="2">
-        <v>45911.248784722222</v>
+        <v>45913.113923611112</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
@@ -2567,16 +2561,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C110" s="2">
-        <v>45907.620358796295</v>
+        <v>45911.994386574072</v>
       </c>
       <c r="D110" s="2">
-        <v>45908.656805555554</v>
+        <v>45913.008622685185</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
@@ -2585,16 +2579,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C111" s="2">
-        <v>45914.036979166667</v>
+        <v>45915.483831018515</v>
       </c>
       <c r="D111" s="2">
-        <v>45915.079004629632</v>
+        <v>45916.511701388888</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
@@ -2603,16 +2597,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C112" s="2">
-        <v>45905.577847222223</v>
+        <v>45915.055277777778</v>
       </c>
       <c r="D112" s="2">
-        <v>45906.623020833336</v>
+        <v>45916.095949074072</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
@@ -2621,232 +2615,232 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C113" s="2">
-        <v>45908.19803240741</v>
+        <v>45913.530856481484</v>
       </c>
       <c r="D113" s="2">
-        <v>45909.213159722225</v>
+        <v>45914.507928240739</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C114" s="2">
-        <v>45908.567731481482</v>
+        <v>45912.242094907408</v>
       </c>
       <c r="D114" s="2">
-        <v>45909.606053240743</v>
+        <v>45913.231030092589</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B115" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2">
-        <v>45911.684641203705</v>
-      </c>
-      <c r="D115" s="2">
-        <v>45912.726527777777</v>
-      </c>
-      <c r="E115" s="2"/>
+        <v>45916.350173611114</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2">
+        <v>45917.338078703702</v>
+      </c>
       <c r="F115">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C116" s="2">
-        <v>45915.055277777778</v>
+        <v>45912.03328703704</v>
       </c>
       <c r="D116" s="2">
-        <v>45916.095949074072</v>
+        <v>45913.003379629627</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C117" s="2">
-        <v>45912.043020833335</v>
+        <v>45907.019560185188</v>
       </c>
       <c r="D117" s="2">
-        <v>45913.113923611112</v>
+        <v>45908.010844907411</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C118" s="2">
-        <v>45911.994386574072</v>
+        <v>45913.032546296294</v>
       </c>
       <c r="D118" s="2">
-        <v>45913.008622685185</v>
+        <v>45914.002326388887</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C119" s="2">
-        <v>45908.570671296293</v>
+        <v>45909.029490740744</v>
       </c>
       <c r="D119" s="2">
-        <v>45909.609884259262</v>
+        <v>45910.00445601852</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C120" s="2">
-        <v>45909.239444444444</v>
+        <v>45911.556932870371</v>
       </c>
       <c r="D120" s="2">
-        <v>45910.265706018516</v>
+        <v>45912.543055555558</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C121" s="2">
-        <v>45911.244166666664</v>
+        <v>45916.019108796296</v>
       </c>
       <c r="D121" s="2">
-        <v>45912.265601851854</v>
+        <v>45917.00277777778</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C122" s="2">
-        <v>45911.504976851851</v>
+        <v>45910.02920138889</v>
       </c>
       <c r="D122" s="2">
-        <v>45912.543333333335</v>
+        <v>45911.005185185182</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C123" s="2">
-        <v>45906.5156712963</v>
+        <v>45911.034571759257</v>
       </c>
       <c r="D123" s="2">
-        <v>45907.565092592595</v>
+        <v>45912.001400462963</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C124" s="2">
-        <v>45913.021006944444</v>
+        <v>45914.0625</v>
       </c>
       <c r="D124" s="2">
-        <v>45914.078969907408</v>
+        <v>45915.059525462966</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
       </c>
       <c r="C125" s="2">
-        <v>45911.556932870371</v>
+        <v>45915.540833333333</v>
       </c>
       <c r="D125" s="2">
-        <v>45912.543055555558</v>
+        <v>45916.513043981482</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
@@ -2855,16 +2849,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C126" s="2">
-        <v>45912.03328703704</v>
+        <v>45908.923564814817</v>
       </c>
       <c r="D126" s="2">
-        <v>45913.003379629627</v>
+        <v>45909.953576388885</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126">
@@ -2873,16 +2867,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C127" s="2">
-        <v>45907.019560185188</v>
+        <v>45915.55263888889</v>
       </c>
       <c r="D127" s="2">
-        <v>45908.010844907411</v>
+        <v>45916.542962962965</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127">
@@ -2891,16 +2885,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C128" s="2">
-        <v>45913.032546296294</v>
+        <v>45914.043333333335</v>
       </c>
       <c r="D128" s="2">
-        <v>45914.002326388887</v>
+        <v>45915.064780092594</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128">
@@ -2909,16 +2903,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C129" s="2">
-        <v>45909.029490740744</v>
+        <v>45914.019074074073</v>
       </c>
       <c r="D129" s="2">
-        <v>45910.00445601852</v>
+        <v>45915.000347222223</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129">
@@ -2927,16 +2921,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C130" s="2">
-        <v>45910.02920138889</v>
+        <v>45907.041504629633</v>
       </c>
       <c r="D130" s="2">
-        <v>45911.005185185182</v>
+        <v>45908.003831018519</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
@@ -2945,16 +2939,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C131" s="2">
-        <v>45911.034571759257</v>
+        <v>45909.532372685186</v>
       </c>
       <c r="D131" s="2">
-        <v>45912.001400462963</v>
+        <v>45910.502280092594</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
@@ -2963,16 +2957,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C132" s="2">
-        <v>45914.0625</v>
+        <v>45910.510555555556</v>
       </c>
       <c r="D132" s="2">
-        <v>45915.059525462966</v>
+        <v>45911.524016203701</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132">
@@ -2984,13 +2978,13 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C133" s="2">
-        <v>45913.030231481483</v>
+        <v>45915.220127314817</v>
       </c>
       <c r="D133" s="2">
-        <v>45914.003888888888</v>
+        <v>45916.216979166667</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133">
@@ -3002,13 +2996,13 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C134" s="2">
-        <v>45915.220127314817</v>
+        <v>45910.041087962964</v>
       </c>
       <c r="D134" s="2">
-        <v>45916.216979166667</v>
+        <v>45911.026550925926</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134">
@@ -3020,13 +3014,13 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C135" s="2">
-        <v>45915.020277777781</v>
+        <v>45915.572175925925</v>
       </c>
       <c r="D135" s="2">
-        <v>45916.002210648148</v>
+        <v>45916.543171296296</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135">
@@ -3038,13 +3032,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C136" s="2">
-        <v>45906.993020833332</v>
+        <v>45909.531261574077</v>
       </c>
       <c r="D136" s="2">
-        <v>45907.99009259259</v>
+        <v>45910.523888888885</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136">
@@ -3056,13 +3050,13 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C137" s="2">
-        <v>45906.572326388887</v>
+        <v>45913.030231481483</v>
       </c>
       <c r="D137" s="2">
-        <v>45907.549814814818</v>
+        <v>45914.003888888888</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137">
@@ -3074,13 +3068,13 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C138" s="2">
-        <v>45910.041087962964</v>
+        <v>45913.701620370368</v>
       </c>
       <c r="D138" s="2">
-        <v>45911.026550925926</v>
+        <v>45914.694907407407</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138">
@@ -3092,13 +3086,13 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C139" s="2">
-        <v>45905.033067129632</v>
+        <v>45915.020277777781</v>
       </c>
       <c r="D139" s="2">
-        <v>45906.00104166667</v>
+        <v>45916.002210648148</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139">
@@ -3128,15 +3122,15 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C141" s="2">
-        <v>45913.029675925929</v>
-      </c>
-      <c r="D141" s="2">
-        <v>45914.000960648147</v>
-      </c>
-      <c r="E141" s="2"/>
+        <v>45916.352418981478</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2">
+        <v>45917.338078703702</v>
+      </c>
       <c r="F141">
         <v>24</v>
       </c>
@@ -3146,13 +3140,13 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C142" s="2">
-        <v>45909.531261574077</v>
+        <v>45913.029675925929</v>
       </c>
       <c r="D142" s="2">
-        <v>45910.523888888885</v>
+        <v>45914.000960648147</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142">
@@ -3160,220 +3154,64 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A143" t="s">
-        <v>6</v>
-      </c>
-      <c r="B143" t="s">
-        <v>67</v>
-      </c>
-      <c r="C143" s="2">
-        <v>45913.701620370368</v>
-      </c>
-      <c r="D143" s="2">
-        <v>45914.694907407407</v>
-      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
       <c r="E143" s="2"/>
-      <c r="F143">
-        <v>24</v>
-      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="2">
-        <v>45905.558854166666</v>
-      </c>
-      <c r="D144" s="2">
-        <v>45906.555868055555</v>
-      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
       <c r="E144" s="2"/>
-      <c r="F144">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" t="s">
-        <v>49</v>
-      </c>
-      <c r="C145" s="2">
-        <v>45905.028263888889</v>
-      </c>
-      <c r="D145" s="2">
-        <v>45906.015115740738</v>
-      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
       <c r="E145" s="2"/>
-      <c r="F145">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146" t="s">
-        <v>58</v>
-      </c>
-      <c r="B146" t="s">
-        <v>65</v>
-      </c>
-      <c r="C146" s="2">
-        <v>45912.242094907408</v>
-      </c>
-      <c r="D146" s="2">
-        <v>45913.231030092589</v>
-      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
       <c r="E146" s="2"/>
-      <c r="F146">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147" t="s">
-        <v>58</v>
-      </c>
-      <c r="B147" t="s">
-        <v>50</v>
-      </c>
-      <c r="C147" s="2">
-        <v>45913.530856481484</v>
-      </c>
-      <c r="D147" s="2">
-        <v>45914.507928240739</v>
-      </c>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
       <c r="E147" s="2"/>
-      <c r="F147">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
-        <v>11</v>
-      </c>
-      <c r="B148" t="s">
-        <v>20</v>
-      </c>
-      <c r="C148" s="2">
-        <v>45908.923564814817</v>
-      </c>
-      <c r="D148" s="2">
-        <v>45909.953576388885</v>
-      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
       <c r="E148" s="2"/>
-      <c r="F148">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" t="s">
-        <v>11</v>
-      </c>
-      <c r="B149" t="s">
-        <v>29</v>
-      </c>
-      <c r="C149" s="2">
-        <v>45907.041504629633</v>
-      </c>
-      <c r="D149" s="2">
-        <v>45908.003831018519</v>
-      </c>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
       <c r="E149" s="2"/>
-      <c r="F149">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" t="s">
-        <v>11</v>
-      </c>
-      <c r="B150" t="s">
-        <v>43</v>
-      </c>
-      <c r="C150" s="2">
-        <v>45914.019074074073</v>
-      </c>
-      <c r="D150" s="2">
-        <v>45915.000347222223</v>
-      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
       <c r="E150" s="2"/>
-      <c r="F150">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" t="s">
-        <v>11</v>
-      </c>
-      <c r="B151" t="s">
-        <v>71</v>
-      </c>
-      <c r="C151" s="2">
-        <v>45914.043333333335</v>
-      </c>
-      <c r="D151" s="2">
-        <v>45915.064780092594</v>
-      </c>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
       <c r="E151" s="2"/>
-      <c r="F151">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" t="s">
-        <v>11</v>
-      </c>
-      <c r="B152" t="s">
-        <v>36</v>
-      </c>
-      <c r="C152" s="2">
-        <v>45909.532372685186</v>
-      </c>
-      <c r="D152" s="2">
-        <v>45910.502280092594</v>
-      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
       <c r="E152" s="2"/>
-      <c r="F152">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" t="s">
-        <v>11</v>
-      </c>
-      <c r="B153" t="s">
-        <v>36</v>
-      </c>
-      <c r="C153" s="2">
-        <v>45910.510555555556</v>
-      </c>
-      <c r="D153" s="2">
-        <v>45911.524016203701</v>
-      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
       <c r="E153" s="2"/>
-      <c r="F153">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" t="s">
-        <v>53</v>
-      </c>
-      <c r="C154" s="2">
-        <v>45906.520752314813</v>
-      </c>
-      <c r="D154" s="2">
-        <v>45907.527858796297</v>
-      </c>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
       <c r="E154" s="2"/>
-      <c r="F154">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="67">
   <si>
     <t>电站名称</t>
   </si>
@@ -115,15 +115,9 @@
     <t>406号直流</t>
   </si>
   <si>
-    <t>005B号直流</t>
-  </si>
-  <si>
     <t>105号直流</t>
   </si>
   <si>
-    <t>202号直流</t>
-  </si>
-  <si>
     <t>703号直流</t>
   </si>
   <si>
@@ -223,7 +217,7 @@
     <t>A03号直流</t>
   </si>
   <si>
-    <t>804号直流</t>
+    <t>305号直流</t>
   </si>
 </sst>
 </file>
@@ -584,15 +578,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="44.5" customWidth="1"/>
+    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -609,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -627,100 +626,100 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>45917.338078703702</v>
+        <v>45918.314965277779</v>
       </c>
       <c r="F2">
-        <v>210</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
-        <v>45907.567233796297</v>
+        <v>45908.550717592596</v>
       </c>
       <c r="D3" s="2">
-        <v>45915.492719907408</v>
+        <v>45913.021585648145</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3">
-        <v>190</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
-        <v>45908.550717592596</v>
+        <v>45909.602083333331</v>
       </c>
       <c r="D4" s="2">
-        <v>45913.021585648145</v>
+        <v>45914.000115740739</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>45909.602083333331</v>
+        <v>45909.236574074072</v>
       </c>
       <c r="D5" s="2">
-        <v>45914.000115740739</v>
+        <v>45913.535138888888</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
-        <v>45909.236574074072</v>
+        <v>45911.52857638889</v>
       </c>
       <c r="D6" s="2">
-        <v>45913.535138888888</v>
+        <v>45915.503275462965</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2">
-        <v>45911.52857638889</v>
+        <v>45909.053182870368</v>
       </c>
       <c r="D7" s="2">
-        <v>45915.503275462965</v>
+        <v>45912.756840277776</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -728,89 +727,89 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>45909.053182870368</v>
+        <v>45908.525706018518</v>
       </c>
       <c r="D8" s="2">
-        <v>45912.756840277776</v>
+        <v>45912.034201388888</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
-        <v>45908.525706018518</v>
+        <v>45913.650914351849</v>
       </c>
       <c r="D9" s="2">
-        <v>45912.034201388888</v>
+        <v>45917.025937500002</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
-        <v>45913.650914351849</v>
+        <v>45913.052685185183</v>
       </c>
       <c r="D10" s="2">
-        <v>45917.025937500002</v>
+        <v>45916.265127314815</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>45913.052685185183</v>
+        <v>45914.186030092591</v>
       </c>
       <c r="D11" s="2">
-        <v>45916.265127314815</v>
+        <v>45917.006539351853</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
-        <v>45907.570555555554</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45910.500289351854</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>45915.503680555557</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>45918.314965277779</v>
+      </c>
       <c r="F12">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -818,17 +817,17 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
-        <v>45914.186030092591</v>
+        <v>45910.540219907409</v>
       </c>
       <c r="D13" s="2">
-        <v>45917.006539351853</v>
+        <v>45913.224270833336</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -836,13 +835,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
-        <v>45910.540219907409</v>
+        <v>45912.328969907408</v>
       </c>
       <c r="D14" s="2">
-        <v>45913.224270833336</v>
+        <v>45915.001701388886</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14">
@@ -854,17 +853,17 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2">
-        <v>45912.328969907408</v>
+        <v>45910.021134259259</v>
       </c>
       <c r="D15" s="2">
-        <v>45915.001701388886</v>
+        <v>45912.686157407406</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -872,107 +871,107 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
-        <v>45910.021134259259</v>
+        <v>45913.006967592592</v>
       </c>
       <c r="D16" s="2">
-        <v>45912.686157407406</v>
+        <v>45915.473703703705</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>45913.006967592592</v>
+        <v>45916.041956018518</v>
       </c>
       <c r="D17" s="2">
-        <v>45915.473703703705</v>
+        <v>45918.243055555555</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
-        <v>45907.401435185187</v>
+        <v>45908.552488425928</v>
       </c>
       <c r="D18" s="2">
-        <v>45909.52579861111</v>
+        <v>45910.652662037035</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2">
-        <v>45908.552488425928</v>
+        <v>45910.355798611112</v>
       </c>
       <c r="D19" s="2">
-        <v>45910.652662037035</v>
+        <v>45912.393368055556</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>45910.355798611112</v>
-      </c>
-      <c r="D20" s="2">
-        <v>45912.393368055556</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>45916.28261574074</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>45918.314965277779</v>
+      </c>
       <c r="F20">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2">
-        <v>45907.522546296299</v>
+        <v>45911.040381944447</v>
       </c>
       <c r="D21" s="2">
-        <v>45909.570775462962</v>
+        <v>45913.023263888892</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -980,13 +979,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>45911.040381944447</v>
+        <v>45908.570474537039</v>
       </c>
       <c r="D22" s="2">
-        <v>45913.023263888892</v>
+        <v>45910.550486111111</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
@@ -995,34 +994,34 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2">
-        <v>45908.570474537039</v>
+        <v>45910.561724537038</v>
       </c>
       <c r="D23" s="2">
-        <v>45910.550486111111</v>
+        <v>45912.509375000001</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2">
-        <v>45910.561724537038</v>
+        <v>45912.060983796298</v>
       </c>
       <c r="D24" s="2">
-        <v>45912.509375000001</v>
+        <v>45914.012141203704</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
@@ -1034,13 +1033,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>45910.5781712963</v>
+        <v>45915.583414351851</v>
       </c>
       <c r="D25" s="2">
-        <v>45912.528969907406</v>
+        <v>45917.582627314812</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
@@ -1067,16 +1066,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>45912.060983796298</v>
+        <v>45910.5781712963</v>
       </c>
       <c r="D27" s="2">
-        <v>45914.012141203704</v>
+        <v>45912.528969907406</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
@@ -1088,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2">
         <v>45914.560046296298</v>
@@ -1106,13 +1105,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>45911.562384259261</v>
+        <v>45911.646747685183</v>
       </c>
       <c r="D29" s="2">
-        <v>45913.435532407406</v>
+        <v>45913.523923611108</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
@@ -1124,13 +1123,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2">
-        <v>45911.646747685183</v>
+        <v>45911.562384259261</v>
       </c>
       <c r="D30" s="2">
-        <v>45913.523923611108</v>
+        <v>45913.435532407406</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30">
@@ -1139,20 +1138,20 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2">
-        <v>45915.503680555557</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2">
-        <v>45917.338078703702</v>
-      </c>
+        <v>45915.231793981482</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45917.019432870373</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1160,25 +1159,25 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2">
-        <v>45915.231793981482</v>
-      </c>
-      <c r="D32" s="2">
-        <v>45917.019432870373</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>45916.534282407411</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>45918.314965277779</v>
+      </c>
       <c r="F32">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2">
         <v>45913.76421296296</v>
@@ -1193,18 +1192,18 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C34" s="2">
-        <v>45915.583414351851</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2">
-        <v>45917.338078703702</v>
-      </c>
+        <v>45913.23265046296</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45914.981087962966</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34">
         <v>42</v>
       </c>
@@ -1232,17 +1231,17 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2">
-        <v>45913.23265046296</v>
+        <v>45914.040277777778</v>
       </c>
       <c r="D36" s="2">
-        <v>45914.981087962966</v>
+        <v>45915.733287037037</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -1268,17 +1267,17 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
-        <v>45914.040277777778</v>
+        <v>45911.531018518515</v>
       </c>
       <c r="D38" s="2">
-        <v>45915.733287037037</v>
+        <v>45913.206875000003</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1286,17 +1285,17 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2">
-        <v>45911.531018518515</v>
+        <v>45915.111643518518</v>
       </c>
       <c r="D39" s="2">
-        <v>45913.206875000003</v>
+        <v>45916.694467592592</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1304,17 +1303,17 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2">
-        <v>45915.111643518518</v>
+        <v>45914.486261574071</v>
       </c>
       <c r="D40" s="2">
-        <v>45916.694467592592</v>
+        <v>45916.002962962964</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1322,17 +1321,17 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2">
-        <v>45907.705949074072</v>
+        <v>45908.210324074076</v>
       </c>
       <c r="D41" s="2">
-        <v>45909.21980324074</v>
+        <v>45909.712118055555</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1340,31 +1339,31 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2">
-        <v>45914.486261574071</v>
+        <v>45910.534502314818</v>
       </c>
       <c r="D42" s="2">
-        <v>45916.002962962964</v>
+        <v>45912.012048611112</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C43" s="2">
-        <v>45915.025833333333</v>
+        <v>45908.058252314811</v>
       </c>
       <c r="D43" s="2">
-        <v>45916.511203703703</v>
+        <v>45909.559004629627</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
@@ -1373,16 +1372,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C44" s="2">
-        <v>45915.061967592592</v>
+        <v>45909.579212962963</v>
       </c>
       <c r="D44" s="2">
-        <v>45916.546516203707</v>
+        <v>45911.07608796296</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
@@ -1391,16 +1390,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="2">
-        <v>45907.729745370372</v>
+        <v>45916.051249999997</v>
       </c>
       <c r="D45" s="2">
-        <v>45909.231006944443</v>
+        <v>45917.567256944443</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
@@ -1409,16 +1408,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2">
-        <v>45908.210324074076</v>
+        <v>45915.025833333333</v>
       </c>
       <c r="D46" s="2">
-        <v>45909.712118055555</v>
+        <v>45916.511203703703</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
@@ -1427,16 +1426,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C47" s="2">
-        <v>45910.534502314818</v>
+        <v>45915.061967592592</v>
       </c>
       <c r="D47" s="2">
-        <v>45912.012048611112</v>
+        <v>45916.546516203707</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
@@ -1448,17 +1447,17 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2">
-        <v>45908.058252314811</v>
+        <v>45913.566805555558</v>
       </c>
       <c r="D48" s="2">
-        <v>45909.559004629627</v>
+        <v>45915.004942129628</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -1466,31 +1465,31 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C49" s="2">
-        <v>45909.579212962963</v>
+        <v>45913.717233796298</v>
       </c>
       <c r="D49" s="2">
-        <v>45911.07608796296</v>
+        <v>45915.203182870369</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C50" s="2">
-        <v>45912.567314814813</v>
+        <v>45908.562800925924</v>
       </c>
       <c r="D50" s="2">
-        <v>45914.04074074074</v>
+        <v>45910.003263888888</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
@@ -1499,16 +1498,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C51" s="2">
-        <v>45913.566805555558</v>
+        <v>45912.567314814813</v>
       </c>
       <c r="D51" s="2">
-        <v>45915.004942129628</v>
+        <v>45914.04074074074</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
@@ -1520,17 +1519,17 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C52" s="2">
-        <v>45913.717233796298</v>
+        <v>45915.541979166665</v>
       </c>
       <c r="D52" s="2">
-        <v>45915.203182870369</v>
+        <v>45916.988449074073</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -1538,31 +1537,31 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C53" s="2">
-        <v>45908.562800925924</v>
+        <v>45916.059074074074</v>
       </c>
       <c r="D53" s="2">
-        <v>45910.003263888888</v>
+        <v>45917.468865740739</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C54" s="2">
-        <v>45914.050219907411</v>
+        <v>45916.623356481483</v>
       </c>
       <c r="D54" s="2">
-        <v>45915.466817129629</v>
+        <v>45918.0237037037</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
@@ -1571,16 +1570,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C55" s="2">
-        <v>45915.541979166665</v>
+        <v>45914.050219907411</v>
       </c>
       <c r="D55" s="2">
-        <v>45916.988449074073</v>
+        <v>45915.466817129629</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
@@ -1607,10 +1606,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C57" s="2">
         <v>45909.039467592593</v>
@@ -1625,16 +1624,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C58" s="2">
-        <v>45907.194444444445</v>
+        <v>45910.054398148146</v>
       </c>
       <c r="D58" s="2">
-        <v>45908.530740740738</v>
+        <v>45911.384293981479</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
@@ -1646,33 +1645,33 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C59" s="2">
-        <v>45910.054398148146</v>
+        <v>45916.531759259262</v>
       </c>
       <c r="D59" s="2">
-        <v>45911.384293981479</v>
+        <v>45917.797986111109</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C60" s="2">
-        <v>45916.041956018518</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2">
-        <v>45917.338078703702</v>
-      </c>
+        <v>45910.029456018521</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45911.331701388888</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="F60">
         <v>31</v>
       </c>
@@ -1682,13 +1681,13 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C61" s="2">
-        <v>45910.247546296298</v>
+        <v>45915.259062500001</v>
       </c>
       <c r="D61" s="2">
-        <v>45911.529826388891</v>
+        <v>45916.545428240737</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61">
@@ -1700,13 +1699,13 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C62" s="2">
-        <v>45907.24454861111</v>
+        <v>45910.247546296298</v>
       </c>
       <c r="D62" s="2">
-        <v>45908.508622685185</v>
+        <v>45911.529826388891</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
@@ -1718,17 +1717,17 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2">
-        <v>45910.029456018521</v>
+        <v>45917.038738425923</v>
       </c>
       <c r="D63" s="2">
-        <v>45911.331701388888</v>
+        <v>45918.261030092595</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -1736,85 +1735,85 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C64" s="2">
-        <v>45915.259062500001</v>
-      </c>
-      <c r="D64" s="2">
-        <v>45916.545428240737</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>45917.051562499997</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2">
+        <v>45918.314965277779</v>
+      </c>
       <c r="F64">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C65" s="2">
-        <v>45916.051249999997</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2">
-        <v>45917.338078703702</v>
-      </c>
+        <v>45909.260914351849</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45910.524594907409</v>
+      </c>
+      <c r="E65" s="2"/>
       <c r="F65">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C66" s="2">
-        <v>45916.059074074074</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2">
-        <v>45917.338078703702</v>
-      </c>
+        <v>45914.304675925923</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45915.505648148152</v>
+      </c>
+      <c r="E66" s="2"/>
       <c r="F66">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C67" s="2">
-        <v>45909.260914351849</v>
+        <v>45916.350173611114</v>
       </c>
       <c r="D67" s="2">
-        <v>45910.524594907409</v>
+        <v>45917.544189814813</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2">
-        <v>45914.304675925923</v>
+        <v>45913.050844907404</v>
       </c>
       <c r="D68" s="2">
-        <v>45915.505648148152</v>
+        <v>45914.284895833334</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
@@ -1823,16 +1822,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C69" s="2">
-        <v>45914.064189814817</v>
+        <v>45915.250428240739</v>
       </c>
       <c r="D69" s="2">
-        <v>45915.274594907409</v>
+        <v>45916.492291666669</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
@@ -1844,13 +1843,13 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2">
-        <v>45913.050844907404</v>
+        <v>45910.067824074074</v>
       </c>
       <c r="D70" s="2">
-        <v>45914.284895833334</v>
+        <v>45911.284560185188</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70">
@@ -1859,16 +1858,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C71" s="2">
-        <v>45910.067824074074</v>
+        <v>45914.064189814817</v>
       </c>
       <c r="D71" s="2">
-        <v>45911.284560185188</v>
+        <v>45915.274594907409</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
@@ -1880,17 +1879,17 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C72" s="2">
-        <v>45915.250428240739</v>
+        <v>45917.046249999999</v>
       </c>
       <c r="D72" s="2">
-        <v>45916.492291666669</v>
+        <v>45918.227696759262</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -1898,31 +1897,31 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C73" s="2">
-        <v>45907.051342592589</v>
+        <v>45910.356319444443</v>
       </c>
       <c r="D73" s="2">
-        <v>45908.250138888892</v>
+        <v>45911.500925925924</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C74" s="2">
-        <v>45907.048576388886</v>
+        <v>45915.035682870373</v>
       </c>
       <c r="D74" s="2">
-        <v>45908.228101851855</v>
+        <v>45916.204282407409</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74">
@@ -1931,16 +1930,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2">
-        <v>45909.373738425929</v>
+        <v>45914.011388888888</v>
       </c>
       <c r="D75" s="2">
-        <v>45910.524085648147</v>
+        <v>45915.187569444446</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
@@ -1949,34 +1948,34 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2">
-        <v>45914.060752314814</v>
-      </c>
-      <c r="D76" s="2">
-        <v>45915.225474537037</v>
-      </c>
-      <c r="E76" s="2"/>
+        <v>45917.128229166665</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2">
+        <v>45918.314965277779</v>
+      </c>
       <c r="F76">
         <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C77" s="2">
-        <v>45914.011388888888</v>
+        <v>45914.060752314814</v>
       </c>
       <c r="D77" s="2">
-        <v>45915.187569444446</v>
+        <v>45915.225474537037</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
@@ -1985,16 +1984,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C78" s="2">
-        <v>45910.356319444443</v>
+        <v>45909.373738425929</v>
       </c>
       <c r="D78" s="2">
-        <v>45911.500925925924</v>
+        <v>45910.524085648147</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
@@ -2006,17 +2005,17 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2">
-        <v>45907.389652777776</v>
+        <v>45915.075706018521</v>
       </c>
       <c r="D79" s="2">
-        <v>45908.550567129627</v>
+        <v>45916.188900462963</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -2024,31 +2023,31 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2">
-        <v>45915.035682870373</v>
+        <v>45913.579629629632</v>
       </c>
       <c r="D80" s="2">
-        <v>45916.204282407409</v>
+        <v>45914.686932870369</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2">
-        <v>45911.012094907404</v>
+        <v>45914.151493055557</v>
       </c>
       <c r="D81" s="2">
-        <v>45912.137696759259</v>
+        <v>45915.287997685184</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
@@ -2057,16 +2056,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C82" s="2">
-        <v>45913.042430555557</v>
+        <v>45912.041076388887</v>
       </c>
       <c r="D82" s="2">
-        <v>45914.200810185182</v>
+        <v>45913.145925925928</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
@@ -2078,13 +2077,13 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C83" s="2">
-        <v>45913.579629629632</v>
+        <v>45914.045497685183</v>
       </c>
       <c r="D83" s="2">
-        <v>45914.686932870369</v>
+        <v>45915.202696759261</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
@@ -2096,15 +2095,15 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C84" s="2">
-        <v>45914.045497685183</v>
-      </c>
-      <c r="D84" s="2">
-        <v>45915.202696759261</v>
-      </c>
-      <c r="E84" s="2"/>
+        <v>45917.200092592589</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2">
+        <v>45918.314965277779</v>
+      </c>
       <c r="F84">
         <v>27</v>
       </c>
@@ -2114,13 +2113,13 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C85" s="2">
-        <v>45915.075706018521</v>
+        <v>45909.091203703705</v>
       </c>
       <c r="D85" s="2">
-        <v>45916.188900462963</v>
+        <v>45910.220127314817</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85">
@@ -2129,16 +2128,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C86" s="2">
-        <v>45907.094305555554</v>
+        <v>45913.042430555557</v>
       </c>
       <c r="D86" s="2">
-        <v>45908.213356481479</v>
+        <v>45914.200810185182</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
@@ -2147,16 +2146,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C87" s="2">
-        <v>45909.091203703705</v>
+        <v>45911.012094907404</v>
       </c>
       <c r="D87" s="2">
-        <v>45910.220127314817</v>
+        <v>45912.137696759259</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87">
@@ -2168,51 +2167,51 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C88" s="2">
-        <v>45914.151493055557</v>
+        <v>45908.118969907409</v>
       </c>
       <c r="D88" s="2">
-        <v>45915.287997685184</v>
+        <v>45909.179571759261</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C89" s="2">
-        <v>45912.041076388887</v>
+        <v>45909.039143518516</v>
       </c>
       <c r="D89" s="2">
-        <v>45913.145925925928</v>
+        <v>45910.102083333331</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C90" s="2">
-        <v>45909.514016203706</v>
-      </c>
-      <c r="D90" s="2">
-        <v>45910.611180555556</v>
-      </c>
-      <c r="E90" s="2"/>
+        <v>45917.219965277778</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2">
+        <v>45918.314965277779</v>
+      </c>
       <c r="F90">
         <v>26</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C91" s="2">
         <v>45913.064467592594</v>
@@ -2240,79 +2239,79 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C92" s="2">
-        <v>45916.28261574074</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2">
-        <v>45917.338078703702</v>
-      </c>
+        <v>45909.514016203706</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45910.611180555556</v>
+      </c>
+      <c r="E92" s="2"/>
       <c r="F92">
         <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C93" s="2">
-        <v>45909.039143518516</v>
+        <v>45909.239444444444</v>
       </c>
       <c r="D93" s="2">
-        <v>45910.102083333331</v>
+        <v>45910.265706018516</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C94" s="2">
-        <v>45907.134444444448</v>
+        <v>45911.244166666664</v>
       </c>
       <c r="D94" s="2">
-        <v>45908.224537037036</v>
+        <v>45912.265601851854</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C95" s="2">
-        <v>45908.118969907409</v>
+        <v>45911.504976851851</v>
       </c>
       <c r="D95" s="2">
-        <v>45909.179571759261</v>
+        <v>45912.543333333335</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C96" s="2">
         <v>45915.525405092594</v>
@@ -2327,16 +2326,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C97" s="2">
-        <v>45909.239444444444</v>
+        <v>45917.244652777779</v>
       </c>
       <c r="D97" s="2">
-        <v>45910.265706018516</v>
+        <v>45918.285451388889</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97">
@@ -2345,16 +2344,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C98" s="2">
-        <v>45911.244166666664</v>
+        <v>45911.684641203705</v>
       </c>
       <c r="D98" s="2">
-        <v>45912.265601851854</v>
+        <v>45912.726527777777</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
@@ -2363,16 +2362,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C99" s="2">
-        <v>45911.504976851851</v>
+        <v>45911.994386574072</v>
       </c>
       <c r="D99" s="2">
-        <v>45912.543333333335</v>
+        <v>45913.008622685185</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99">
@@ -2381,16 +2380,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C100" s="2">
-        <v>45914.036979166667</v>
+        <v>45915.055277777778</v>
       </c>
       <c r="D100" s="2">
-        <v>45915.079004629632</v>
+        <v>45916.095949074072</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100">
@@ -2399,16 +2398,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C101" s="2">
-        <v>45910.196134259262</v>
+        <v>45912.043020833335</v>
       </c>
       <c r="D101" s="2">
-        <v>45911.248784722222</v>
+        <v>45913.113923611112</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101">
@@ -2417,16 +2416,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C102" s="2">
-        <v>45908.19803240741</v>
+        <v>45915.475578703707</v>
       </c>
       <c r="D102" s="2">
-        <v>45909.213159722225</v>
+        <v>45916.538958333331</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102">
@@ -2435,16 +2434,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" s="2">
-        <v>45908.567731481482</v>
+        <v>45908.570671296293</v>
       </c>
       <c r="D103" s="2">
-        <v>45909.606053240743</v>
+        <v>45909.609884259262</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
@@ -2453,36 +2452,36 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C104" s="2">
-        <v>45907.620358796295</v>
-      </c>
-      <c r="D104" s="2">
-        <v>45908.656805555554</v>
-      </c>
-      <c r="E104" s="2"/>
+        <v>45917.260844907411</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2">
+        <v>45918.314965277779</v>
+      </c>
       <c r="F104">
         <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C105" s="2">
-        <v>45913.021006944444</v>
-      </c>
-      <c r="D105" s="2">
-        <v>45914.078969907408</v>
-      </c>
-      <c r="E105" s="2"/>
+        <v>45917.258240740739</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2">
+        <v>45918.314965277779</v>
+      </c>
       <c r="F105">
         <v>25</v>
       </c>
@@ -2492,13 +2491,13 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C106" s="2">
-        <v>45908.570671296293</v>
+        <v>45915.483831018515</v>
       </c>
       <c r="D106" s="2">
-        <v>45909.609884259262</v>
+        <v>45916.511701388888</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
@@ -2507,16 +2506,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C107" s="2">
-        <v>45911.684641203705</v>
+        <v>45913.021006944444</v>
       </c>
       <c r="D107" s="2">
-        <v>45912.726527777777</v>
+        <v>45914.078969907408</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
@@ -2525,16 +2524,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C108" s="2">
-        <v>45915.475578703707</v>
+        <v>45914.036979166667</v>
       </c>
       <c r="D108" s="2">
-        <v>45916.538958333331</v>
+        <v>45915.079004629632</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
@@ -2543,16 +2542,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C109" s="2">
-        <v>45912.043020833335</v>
+        <v>45910.196134259262</v>
       </c>
       <c r="D109" s="2">
-        <v>45913.113923611112</v>
+        <v>45911.248784722222</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
@@ -2561,16 +2560,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C110" s="2">
-        <v>45911.994386574072</v>
+        <v>45908.19803240741</v>
       </c>
       <c r="D110" s="2">
-        <v>45913.008622685185</v>
+        <v>45909.213159722225</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
@@ -2579,16 +2578,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C111" s="2">
-        <v>45915.483831018515</v>
+        <v>45908.567731481482</v>
       </c>
       <c r="D111" s="2">
-        <v>45916.511701388888</v>
+        <v>45909.606053240743</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
@@ -2597,34 +2596,34 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B112" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C112" s="2">
-        <v>45915.055277777778</v>
+        <v>45913.530856481484</v>
       </c>
       <c r="D112" s="2">
-        <v>45916.095949074072</v>
+        <v>45914.507928240739</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B113" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C113" s="2">
-        <v>45913.530856481484</v>
+        <v>45912.242094907408</v>
       </c>
       <c r="D113" s="2">
-        <v>45914.507928240739</v>
+        <v>45913.231030092589</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113">
@@ -2633,16 +2632,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C114" s="2">
-        <v>45912.242094907408</v>
+        <v>45917.243622685186</v>
       </c>
       <c r="D114" s="2">
-        <v>45913.231030092589</v>
+        <v>45918.209560185183</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
@@ -2651,34 +2650,34 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C115" s="2">
-        <v>45916.350173611114</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2">
-        <v>45917.338078703702</v>
-      </c>
+        <v>45909.531261574077</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45910.523888888885</v>
+      </c>
+      <c r="E115" s="2"/>
       <c r="F115">
         <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C116" s="2">
-        <v>45912.03328703704</v>
+        <v>45910.584328703706</v>
       </c>
       <c r="D116" s="2">
-        <v>45913.003379629627</v>
+        <v>45911.616053240738</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
@@ -2687,16 +2686,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C117" s="2">
-        <v>45907.019560185188</v>
+        <v>45913.030231481483</v>
       </c>
       <c r="D117" s="2">
-        <v>45908.010844907411</v>
+        <v>45914.003888888888</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117">
@@ -2705,16 +2704,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C118" s="2">
-        <v>45913.032546296294</v>
+        <v>45915.020277777781</v>
       </c>
       <c r="D118" s="2">
-        <v>45914.002326388887</v>
+        <v>45916.002210648148</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118">
@@ -2723,16 +2722,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C119" s="2">
-        <v>45909.029490740744</v>
+        <v>45915.572175925925</v>
       </c>
       <c r="D119" s="2">
-        <v>45910.00445601852</v>
+        <v>45916.543171296296</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
@@ -2741,16 +2740,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C120" s="2">
-        <v>45911.556932870371</v>
+        <v>45913.029675925929</v>
       </c>
       <c r="D120" s="2">
-        <v>45912.543055555558</v>
+        <v>45914.000960648147</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120">
@@ -2759,16 +2758,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C121" s="2">
-        <v>45916.019108796296</v>
+        <v>45915.220127314817</v>
       </c>
       <c r="D121" s="2">
-        <v>45917.00277777778</v>
+        <v>45916.216979166667</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
@@ -2777,16 +2776,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C122" s="2">
-        <v>45910.02920138889</v>
+        <v>45910.041087962964</v>
       </c>
       <c r="D122" s="2">
-        <v>45911.005185185182</v>
+        <v>45911.026550925926</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122">
@@ -2795,16 +2794,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C123" s="2">
-        <v>45911.034571759257</v>
+        <v>45913.701620370368</v>
       </c>
       <c r="D123" s="2">
-        <v>45912.001400462963</v>
+        <v>45914.694907407407</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123">
@@ -2813,16 +2812,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C124" s="2">
-        <v>45914.0625</v>
+        <v>45915.540833333333</v>
       </c>
       <c r="D124" s="2">
-        <v>45915.059525462966</v>
+        <v>45916.513043981482</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124">
@@ -2834,13 +2833,13 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C125" s="2">
-        <v>45915.540833333333</v>
+        <v>45914.043333333335</v>
       </c>
       <c r="D125" s="2">
-        <v>45916.513043981482</v>
+        <v>45915.064780092594</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
@@ -2870,13 +2869,13 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C127" s="2">
-        <v>45915.55263888889</v>
+        <v>45914.019074074073</v>
       </c>
       <c r="D127" s="2">
-        <v>45916.542962962965</v>
+        <v>45915.000347222223</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127">
@@ -2888,13 +2887,13 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C128" s="2">
-        <v>45914.043333333335</v>
+        <v>45915.55263888889</v>
       </c>
       <c r="D128" s="2">
-        <v>45915.064780092594</v>
+        <v>45916.542962962965</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128">
@@ -2906,13 +2905,13 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C129" s="2">
-        <v>45914.019074074073</v>
+        <v>45909.532372685186</v>
       </c>
       <c r="D129" s="2">
-        <v>45915.000347222223</v>
+        <v>45910.502280092594</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129">
@@ -2924,13 +2923,13 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C130" s="2">
-        <v>45907.041504629633</v>
+        <v>45910.510555555556</v>
       </c>
       <c r="D130" s="2">
-        <v>45908.003831018519</v>
+        <v>45911.524016203701</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
@@ -2939,16 +2938,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C131" s="2">
-        <v>45909.532372685186</v>
+        <v>45910.02920138889</v>
       </c>
       <c r="D131" s="2">
-        <v>45910.502280092594</v>
+        <v>45911.005185185182</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
@@ -2957,16 +2956,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C132" s="2">
-        <v>45910.510555555556</v>
+        <v>45911.034571759257</v>
       </c>
       <c r="D132" s="2">
-        <v>45911.524016203701</v>
+        <v>45912.001400462963</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132">
@@ -2975,16 +2974,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C133" s="2">
-        <v>45915.220127314817</v>
+        <v>45914.0625</v>
       </c>
       <c r="D133" s="2">
-        <v>45916.216979166667</v>
+        <v>45915.059525462966</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133">
@@ -2993,16 +2992,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C134" s="2">
-        <v>45910.041087962964</v>
+        <v>45909.029490740744</v>
       </c>
       <c r="D134" s="2">
-        <v>45911.026550925926</v>
+        <v>45910.00445601852</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134">
@@ -3011,16 +3010,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C135" s="2">
-        <v>45915.572175925925</v>
+        <v>45912.03328703704</v>
       </c>
       <c r="D135" s="2">
-        <v>45916.543171296296</v>
+        <v>45913.003379629627</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135">
@@ -3029,16 +3028,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C136" s="2">
-        <v>45909.531261574077</v>
+        <v>45911.556932870371</v>
       </c>
       <c r="D136" s="2">
-        <v>45910.523888888885</v>
+        <v>45912.543055555558</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136">
@@ -3047,16 +3046,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C137" s="2">
-        <v>45913.030231481483</v>
+        <v>45916.019108796296</v>
       </c>
       <c r="D137" s="2">
-        <v>45914.003888888888</v>
+        <v>45917.00277777778</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137">
@@ -3065,16 +3064,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C138" s="2">
-        <v>45913.701620370368</v>
+        <v>45913.032546296294</v>
       </c>
       <c r="D138" s="2">
-        <v>45914.694907407407</v>
+        <v>45914.002326388887</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138">
@@ -3083,135 +3082,21 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C139" s="2">
-        <v>45915.020277777781</v>
+        <v>45916.579988425925</v>
       </c>
       <c r="D139" s="2">
-        <v>45916.002210648148</v>
+        <v>45917.561284722222</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139">
         <v>24</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A140" t="s">
-        <v>6</v>
-      </c>
-      <c r="B140" t="s">
-        <v>45</v>
-      </c>
-      <c r="C140" s="2">
-        <v>45910.584328703706</v>
-      </c>
-      <c r="D140" s="2">
-        <v>45911.616053240738</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
-        <v>6</v>
-      </c>
-      <c r="B141" t="s">
-        <v>68</v>
-      </c>
-      <c r="C141" s="2">
-        <v>45916.352418981478</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2">
-        <v>45917.338078703702</v>
-      </c>
-      <c r="F141">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A142" t="s">
-        <v>6</v>
-      </c>
-      <c r="B142" t="s">
-        <v>39</v>
-      </c>
-      <c r="C142" s="2">
-        <v>45913.029675925929</v>
-      </c>
-      <c r="D142" s="2">
-        <v>45914.000960648147</v>
-      </c>
-      <c r="E142" s="2"/>
-      <c r="F142">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="66">
   <si>
     <t>电站名称</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>103号直流</t>
-  </si>
-  <si>
-    <t>603号直流</t>
   </si>
   <si>
     <t>701号直流</t>
@@ -578,19 +575,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="3" max="5" width="21.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -608,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -619,17 +614,17 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
-        <v>45908.603506944448</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>45918.314965277779</v>
-      </c>
+        <v>45909.602083333331</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45914.000115740739</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2">
-        <v>233</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -637,143 +632,143 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>45908.550717592596</v>
+        <v>45909.236574074072</v>
       </c>
       <c r="D3" s="2">
-        <v>45913.021585648145</v>
+        <v>45913.535138888888</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
-        <v>45909.602083333331</v>
+        <v>45911.52857638889</v>
       </c>
       <c r="D4" s="2">
-        <v>45914.000115740739</v>
+        <v>45915.503275462965</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
-        <v>45909.236574074072</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45913.535138888888</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>45915.503680555557</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>45919.361435185187</v>
+      </c>
       <c r="F5">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2">
-        <v>45911.52857638889</v>
+        <v>45909.053182870368</v>
       </c>
       <c r="D6" s="2">
-        <v>45915.503275462965</v>
+        <v>45912.756840277776</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
-        <v>45909.053182870368</v>
+        <v>45913.650914351849</v>
       </c>
       <c r="D7" s="2">
-        <v>45912.756840277776</v>
+        <v>45917.025937500002</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>45908.525706018518</v>
+        <v>45913.052685185183</v>
       </c>
       <c r="D8" s="2">
-        <v>45912.034201388888</v>
+        <v>45916.265127314815</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
-        <v>45913.650914351849</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45917.025937500002</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>45916.28261574074</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>45919.361435185187</v>
+      </c>
       <c r="F9">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>45913.052685185183</v>
+        <v>45914.186030092591</v>
       </c>
       <c r="D10" s="2">
-        <v>45916.265127314815</v>
+        <v>45917.006539351853</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -781,35 +776,35 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>45914.186030092591</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45917.006539351853</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>45916.534282407411</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>45919.361435185187</v>
+      </c>
       <c r="F11">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
-        <v>45915.503680555557</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>45918.314965277779</v>
-      </c>
+        <v>45910.540219907409</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45913.224270833336</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -817,13 +812,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
-        <v>45910.540219907409</v>
+        <v>45912.328969907408</v>
       </c>
       <c r="D13" s="2">
-        <v>45913.224270833336</v>
+        <v>45915.001701388886</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13">
@@ -835,17 +830,17 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2">
-        <v>45912.328969907408</v>
+        <v>45910.021134259259</v>
       </c>
       <c r="D14" s="2">
-        <v>45915.001701388886</v>
+        <v>45912.686157407406</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -853,53 +848,53 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>45910.021134259259</v>
+        <v>45913.006967592592</v>
       </c>
       <c r="D15" s="2">
-        <v>45912.686157407406</v>
+        <v>45915.473703703705</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>45913.006967592592</v>
+        <v>45916.041956018518</v>
       </c>
       <c r="D16" s="2">
-        <v>45915.473703703705</v>
+        <v>45918.243055555555</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>45916.041956018518</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45918.243055555555</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>45917.260844907411</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>45919.361435185187</v>
+      </c>
       <c r="F17">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -907,25 +902,25 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
-        <v>45908.552488425928</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45910.652662037035</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>45917.258240740739</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>45919.361435185187</v>
+      </c>
       <c r="F18">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
       </c>
       <c r="C19" s="2">
         <v>45910.355798611112</v>
@@ -943,67 +938,67 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2">
-        <v>45916.28261574074</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>45918.314965277779</v>
-      </c>
+        <v>45911.040381944447</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45913.023263888892</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2">
-        <v>45911.040381944447</v>
+        <v>45912.060983796298</v>
       </c>
       <c r="D21" s="2">
-        <v>45913.023263888892</v>
+        <v>45914.012141203704</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2">
-        <v>45908.570474537039</v>
+        <v>45910.561724537038</v>
       </c>
       <c r="D22" s="2">
-        <v>45910.550486111111</v>
+        <v>45912.509375000001</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2">
-        <v>45910.561724537038</v>
+        <v>45915.583414351851</v>
       </c>
       <c r="D23" s="2">
-        <v>45912.509375000001</v>
+        <v>45917.582627314812</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
@@ -1012,16 +1007,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>45912.060983796298</v>
+        <v>45910.5781712963</v>
       </c>
       <c r="D24" s="2">
-        <v>45914.012141203704</v>
+        <v>45912.528969907406</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
@@ -1030,74 +1025,74 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2">
-        <v>45915.583414351851</v>
+        <v>45914.560046296298</v>
       </c>
       <c r="D25" s="2">
-        <v>45917.582627314812</v>
+        <v>45916.478472222225</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2">
-        <v>45908.082407407404</v>
+        <v>45917.219965277778</v>
       </c>
       <c r="D26" s="2">
-        <v>45910.006041666667</v>
+        <v>45919.087418981479</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2">
-        <v>45910.5781712963</v>
+        <v>45911.646747685183</v>
       </c>
       <c r="D27" s="2">
-        <v>45912.528969907406</v>
+        <v>45913.523923611108</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2">
-        <v>45914.560046296298</v>
+        <v>45911.562384259261</v>
       </c>
       <c r="D28" s="2">
-        <v>45916.478472222225</v>
+        <v>45913.435532407406</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1105,17 +1100,17 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2">
-        <v>45911.646747685183</v>
+        <v>45917.200092592589</v>
       </c>
       <c r="D29" s="2">
-        <v>45913.523923611108</v>
+        <v>45918.990624999999</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1126,32 +1121,32 @@
         <v>7</v>
       </c>
       <c r="C30" s="2">
-        <v>45911.562384259261</v>
+        <v>45915.231793981482</v>
       </c>
       <c r="D30" s="2">
-        <v>45913.435532407406</v>
+        <v>45917.019432870373</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2">
-        <v>45915.231793981482</v>
+        <v>45909.261608796296</v>
       </c>
       <c r="D31" s="2">
-        <v>45917.019432870373</v>
+        <v>45911.001076388886</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1159,25 +1154,25 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2">
-        <v>45916.534282407411</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
-        <v>45918.314965277779</v>
-      </c>
+        <v>45913.23265046296</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45914.981087962966</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2">
         <v>45913.76421296296</v>
@@ -1192,74 +1187,74 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C34" s="2">
-        <v>45913.23265046296</v>
+        <v>45909.799317129633</v>
       </c>
       <c r="D34" s="2">
-        <v>45914.981087962966</v>
+        <v>45911.513888888891</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2">
-        <v>45909.261608796296</v>
+        <v>45914.040277777778</v>
       </c>
       <c r="D35" s="2">
-        <v>45911.001076388886</v>
+        <v>45915.733287037037</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2">
-        <v>45914.040277777778</v>
-      </c>
-      <c r="D36" s="2">
-        <v>45915.733287037037</v>
-      </c>
-      <c r="E36" s="2"/>
+        <v>45917.638888888891</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>45919.361435185187</v>
+      </c>
       <c r="F36">
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
-        <v>45909.799317129633</v>
+        <v>45911.531018518515</v>
       </c>
       <c r="D37" s="2">
-        <v>45911.513888888891</v>
+        <v>45913.206875000003</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1267,17 +1262,17 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C38" s="2">
-        <v>45911.531018518515</v>
+        <v>45915.111643518518</v>
       </c>
       <c r="D38" s="2">
-        <v>45913.206875000003</v>
+        <v>45916.694467592592</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1285,17 +1280,17 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2">
-        <v>45915.111643518518</v>
+        <v>45914.486261574071</v>
       </c>
       <c r="D39" s="2">
-        <v>45916.694467592592</v>
+        <v>45916.002962962964</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1303,17 +1298,17 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C40" s="2">
-        <v>45914.486261574071</v>
+        <v>45909.579212962963</v>
       </c>
       <c r="D40" s="2">
-        <v>45916.002962962964</v>
+        <v>45911.07608796296</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1321,13 +1316,13 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="2">
-        <v>45908.210324074076</v>
+        <v>45910.534502314818</v>
       </c>
       <c r="D41" s="2">
-        <v>45909.712118055555</v>
+        <v>45912.012048611112</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
@@ -1339,13 +1334,13 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2">
-        <v>45910.534502314818</v>
+        <v>45916.051249999997</v>
       </c>
       <c r="D42" s="2">
-        <v>45912.012048611112</v>
+        <v>45917.567256944443</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
@@ -1354,16 +1349,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2">
-        <v>45908.058252314811</v>
+        <v>45915.061967592592</v>
       </c>
       <c r="D43" s="2">
-        <v>45909.559004629627</v>
+        <v>45916.546516203707</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
@@ -1372,16 +1367,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2">
-        <v>45909.579212962963</v>
+        <v>45915.025833333333</v>
       </c>
       <c r="D44" s="2">
-        <v>45911.07608796296</v>
+        <v>45916.511203703703</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
@@ -1393,67 +1388,67 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2">
-        <v>45916.051249999997</v>
+        <v>45917.128229166665</v>
       </c>
       <c r="D45" s="2">
-        <v>45917.567256944443</v>
+        <v>45918.609236111108</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2">
-        <v>45915.025833333333</v>
+        <v>45913.566805555558</v>
       </c>
       <c r="D46" s="2">
-        <v>45916.511203703703</v>
+        <v>45915.004942129628</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C47" s="2">
-        <v>45915.061967592592</v>
+        <v>45913.717233796298</v>
       </c>
       <c r="D47" s="2">
-        <v>45916.546516203707</v>
+        <v>45915.203182870369</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C48" s="2">
-        <v>45913.566805555558</v>
+        <v>45912.567314814813</v>
       </c>
       <c r="D48" s="2">
-        <v>45915.004942129628</v>
+        <v>45914.04074074074</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
@@ -1462,20 +1457,20 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C49" s="2">
-        <v>45913.717233796298</v>
+        <v>45914.050219907411</v>
       </c>
       <c r="D49" s="2">
-        <v>45915.203182870369</v>
+        <v>45915.466817129629</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -1483,35 +1478,35 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2">
-        <v>45908.562800925924</v>
+        <v>45915.541979166665</v>
       </c>
       <c r="D50" s="2">
-        <v>45910.003263888888</v>
+        <v>45916.988449074073</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C51" s="2">
-        <v>45912.567314814813</v>
+        <v>45916.059074074074</v>
       </c>
       <c r="D51" s="2">
-        <v>45914.04074074074</v>
+        <v>45917.468865740739</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -1519,13 +1514,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C52" s="2">
-        <v>45915.541979166665</v>
+        <v>45916.623356481483</v>
       </c>
       <c r="D52" s="2">
-        <v>45916.988449074073</v>
+        <v>45918.0237037037</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
@@ -1537,13 +1532,13 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C53" s="2">
-        <v>45916.059074074074</v>
+        <v>45917.589189814818</v>
       </c>
       <c r="D53" s="2">
-        <v>45917.468865740739</v>
+        <v>45919.000393518516</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
@@ -1552,64 +1547,64 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C54" s="2">
-        <v>45916.623356481483</v>
+        <v>45912.627604166664</v>
       </c>
       <c r="D54" s="2">
-        <v>45918.0237037037</v>
+        <v>45914.005208333336</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C55" s="2">
-        <v>45914.050219907411</v>
+        <v>45910.054398148146</v>
       </c>
       <c r="D55" s="2">
-        <v>45915.466817129629</v>
+        <v>45911.384293981479</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C56" s="2">
-        <v>45912.627604166664</v>
-      </c>
-      <c r="D56" s="2">
-        <v>45914.005208333336</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>45918.02584490741</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2">
+        <v>45919.361435185187</v>
+      </c>
       <c r="F56">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57" s="2">
         <v>45909.039467592593</v>
@@ -1627,17 +1622,17 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C58" s="2">
-        <v>45910.054398148146</v>
+        <v>45910.029456018521</v>
       </c>
       <c r="D58" s="2">
-        <v>45911.384293981479</v>
+        <v>45911.331701388888</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -1645,13 +1640,13 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C59" s="2">
-        <v>45916.531759259262</v>
+        <v>45915.259062500001</v>
       </c>
       <c r="D59" s="2">
-        <v>45917.797986111109</v>
+        <v>45916.545428240737</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
@@ -1663,13 +1658,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C60" s="2">
-        <v>45910.029456018521</v>
+        <v>45917.051562499997</v>
       </c>
       <c r="D60" s="2">
-        <v>45911.331701388888</v>
+        <v>45918.348865740743</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
@@ -1681,15 +1676,15 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2">
-        <v>45915.259062500001</v>
-      </c>
-      <c r="D61" s="2">
-        <v>45916.545428240737</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>45918.06113425926</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <v>45919.361435185187</v>
+      </c>
       <c r="F61">
         <v>31</v>
       </c>
@@ -1699,13 +1694,13 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C62" s="2">
-        <v>45910.247546296298</v>
+        <v>45916.531759259262</v>
       </c>
       <c r="D62" s="2">
-        <v>45911.529826388891</v>
+        <v>45917.797986111109</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
@@ -1717,49 +1712,49 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C63" s="2">
-        <v>45917.038738425923</v>
+        <v>45910.247546296298</v>
       </c>
       <c r="D63" s="2">
-        <v>45918.261030092595</v>
+        <v>45911.529826388891</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C64" s="2">
-        <v>45917.051562499997</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2">
-        <v>45918.314965277779</v>
-      </c>
+        <v>45909.260914351849</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45910.524594907409</v>
+      </c>
+      <c r="E64" s="2"/>
       <c r="F64">
         <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C65" s="2">
-        <v>45909.260914351849</v>
+        <v>45917.038738425923</v>
       </c>
       <c r="D65" s="2">
-        <v>45910.524594907409</v>
+        <v>45918.261030092595</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
@@ -1768,16 +1763,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2">
-        <v>45914.304675925923</v>
+        <v>45913.050844907404</v>
       </c>
       <c r="D66" s="2">
-        <v>45915.505648148152</v>
+        <v>45914.284895833334</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66">
@@ -1786,16 +1781,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2">
-        <v>45916.350173611114</v>
+        <v>45910.067824074074</v>
       </c>
       <c r="D67" s="2">
-        <v>45917.544189814813</v>
+        <v>45911.284560185188</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
@@ -1807,13 +1802,13 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C68" s="2">
-        <v>45913.050844907404</v>
+        <v>45915.250428240739</v>
       </c>
       <c r="D68" s="2">
-        <v>45914.284895833334</v>
+        <v>45916.492291666669</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
@@ -1822,16 +1817,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C69" s="2">
-        <v>45915.250428240739</v>
+        <v>45916.350173611114</v>
       </c>
       <c r="D69" s="2">
-        <v>45916.492291666669</v>
+        <v>45917.544189814813</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
@@ -1840,16 +1835,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2">
-        <v>45910.067824074074</v>
+        <v>45914.304675925923</v>
       </c>
       <c r="D70" s="2">
-        <v>45911.284560185188</v>
+        <v>45915.505648148152</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70">
@@ -1876,16 +1871,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C72" s="2">
-        <v>45917.046249999999</v>
+        <v>45909.373738425929</v>
       </c>
       <c r="D72" s="2">
-        <v>45918.227696759262</v>
+        <v>45910.524085648147</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72">
@@ -1894,16 +1889,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C73" s="2">
-        <v>45910.356319444443</v>
+        <v>45914.060752314814</v>
       </c>
       <c r="D73" s="2">
-        <v>45911.500925925924</v>
+        <v>45915.225474537037</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73">
@@ -1915,13 +1910,13 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2">
-        <v>45915.035682870373</v>
+        <v>45914.011388888888</v>
       </c>
       <c r="D74" s="2">
-        <v>45916.204282407409</v>
+        <v>45915.187569444446</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74">
@@ -1933,13 +1928,13 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C75" s="2">
-        <v>45914.011388888888</v>
+        <v>45910.356319444443</v>
       </c>
       <c r="D75" s="2">
-        <v>45915.187569444446</v>
+        <v>45911.500925925924</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
@@ -1951,31 +1946,31 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C76" s="2">
-        <v>45917.128229166665</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2">
-        <v>45918.314965277779</v>
-      </c>
+        <v>45917.046249999999</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45918.227696759262</v>
+      </c>
+      <c r="E76" s="2"/>
       <c r="F76">
         <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C77" s="2">
-        <v>45914.060752314814</v>
+        <v>45915.035682870373</v>
       </c>
       <c r="D77" s="2">
-        <v>45915.225474537037</v>
+        <v>45916.204282407409</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
@@ -1984,16 +1979,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2">
-        <v>45909.373738425929</v>
+        <v>45917.862303240741</v>
       </c>
       <c r="D78" s="2">
-        <v>45910.524085648147</v>
+        <v>45919.004907407405</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
@@ -2002,16 +1997,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C79" s="2">
-        <v>45915.075706018521</v>
+        <v>45913.042430555557</v>
       </c>
       <c r="D79" s="2">
-        <v>45916.188900462963</v>
+        <v>45914.200810185182</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79">
@@ -2020,18 +2015,18 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C80" s="2">
-        <v>45913.579629629632</v>
-      </c>
-      <c r="D80" s="2">
-        <v>45914.686932870369</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>45918.238622685189</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2">
+        <v>45919.361435185187</v>
+      </c>
       <c r="F80">
         <v>27</v>
       </c>
@@ -2041,13 +2036,13 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C81" s="2">
-        <v>45914.151493055557</v>
+        <v>45909.091203703705</v>
       </c>
       <c r="D81" s="2">
-        <v>45915.287997685184</v>
+        <v>45910.220127314817</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
@@ -2059,13 +2054,13 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2">
-        <v>45912.041076388887</v>
+        <v>45914.151493055557</v>
       </c>
       <c r="D82" s="2">
-        <v>45913.145925925928</v>
+        <v>45915.287997685184</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
@@ -2077,13 +2072,13 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C83" s="2">
-        <v>45914.045497685183</v>
+        <v>45915.075706018521</v>
       </c>
       <c r="D83" s="2">
-        <v>45915.202696759261</v>
+        <v>45916.188900462963</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
@@ -2095,15 +2090,15 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C84" s="2">
-        <v>45917.200092592589</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2">
-        <v>45918.314965277779</v>
-      </c>
+        <v>45912.041076388887</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45913.145925925928</v>
+      </c>
+      <c r="E84" s="2"/>
       <c r="F84">
         <v>27</v>
       </c>
@@ -2113,13 +2108,13 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2">
-        <v>45909.091203703705</v>
+        <v>45913.579629629632</v>
       </c>
       <c r="D85" s="2">
-        <v>45910.220127314817</v>
+        <v>45914.686932870369</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85">
@@ -2128,16 +2123,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C86" s="2">
-        <v>45913.042430555557</v>
+        <v>45914.045497685183</v>
       </c>
       <c r="D86" s="2">
-        <v>45914.200810185182</v>
+        <v>45915.202696759261</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
@@ -2149,7 +2144,7 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" s="2">
         <v>45911.012094907404</v>
@@ -2164,16 +2159,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C88" s="2">
-        <v>45908.118969907409</v>
+        <v>45909.039143518516</v>
       </c>
       <c r="D88" s="2">
-        <v>45909.179571759261</v>
+        <v>45910.102083333331</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
@@ -2182,35 +2177,35 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C89" s="2">
-        <v>45909.039143518516</v>
-      </c>
-      <c r="D89" s="2">
-        <v>45910.102083333331</v>
-      </c>
-      <c r="E89" s="2"/>
+        <v>45918.264537037037</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2">
+        <v>45919.361435185187</v>
+      </c>
       <c r="F89">
         <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C90" s="2">
-        <v>45917.219965277778</v>
+        <v>45918.257824074077</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2">
-        <v>45918.314965277779</v>
+        <v>45919.361435185187</v>
       </c>
       <c r="F90">
         <v>26</v>
@@ -2221,13 +2216,13 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C91" s="2">
-        <v>45913.064467592594</v>
+        <v>45909.514016203706</v>
       </c>
       <c r="D91" s="2">
-        <v>45914.140983796293</v>
+        <v>45910.611180555556</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91">
@@ -2239,13 +2234,13 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C92" s="2">
-        <v>45909.514016203706</v>
+        <v>45913.064467592594</v>
       </c>
       <c r="D92" s="2">
-        <v>45910.611180555556</v>
+        <v>45914.140983796293</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92">
@@ -2254,16 +2249,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C93" s="2">
-        <v>45909.239444444444</v>
+        <v>45913.021006944444</v>
       </c>
       <c r="D93" s="2">
-        <v>45910.265706018516</v>
+        <v>45914.078969907408</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
@@ -2272,16 +2267,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C94" s="2">
-        <v>45911.244166666664</v>
+        <v>45911.994386574072</v>
       </c>
       <c r="D94" s="2">
-        <v>45912.265601851854</v>
+        <v>45913.008622685185</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
@@ -2290,16 +2285,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C95" s="2">
-        <v>45911.504976851851</v>
+        <v>45918.199444444443</v>
       </c>
       <c r="D95" s="2">
-        <v>45912.543333333335</v>
+        <v>45919.209988425922</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
@@ -2308,16 +2303,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C96" s="2">
-        <v>45915.525405092594</v>
+        <v>45911.684641203705</v>
       </c>
       <c r="D96" s="2">
-        <v>45916.54210648148</v>
+        <v>45912.726527777777</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
@@ -2329,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C97" s="2">
         <v>45917.244652777779</v>
@@ -2347,13 +2342,13 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C98" s="2">
-        <v>45911.684641203705</v>
+        <v>45915.055277777778</v>
       </c>
       <c r="D98" s="2">
-        <v>45912.726527777777</v>
+        <v>45916.095949074072</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
@@ -2365,13 +2360,13 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C99" s="2">
-        <v>45911.994386574072</v>
+        <v>45912.043020833335</v>
       </c>
       <c r="D99" s="2">
-        <v>45913.008622685185</v>
+        <v>45913.113923611112</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99">
@@ -2383,13 +2378,13 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C100" s="2">
-        <v>45915.055277777778</v>
+        <v>45915.475578703707</v>
       </c>
       <c r="D100" s="2">
-        <v>45916.095949074072</v>
+        <v>45916.538958333331</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100">
@@ -2401,13 +2396,13 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C101" s="2">
-        <v>45912.043020833335</v>
+        <v>45915.483831018515</v>
       </c>
       <c r="D101" s="2">
-        <v>45913.113923611112</v>
+        <v>45916.511701388888</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101">
@@ -2416,16 +2411,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C102" s="2">
-        <v>45915.475578703707</v>
+        <v>45909.239444444444</v>
       </c>
       <c r="D102" s="2">
-        <v>45916.538958333331</v>
+        <v>45910.265706018516</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102">
@@ -2434,16 +2429,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2">
-        <v>45908.570671296293</v>
+        <v>45911.244166666664</v>
       </c>
       <c r="D103" s="2">
-        <v>45909.609884259262</v>
+        <v>45912.265601851854</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
@@ -2452,52 +2447,52 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2">
-        <v>45917.260844907411</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2">
-        <v>45918.314965277779</v>
-      </c>
+        <v>45911.504976851851</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45912.543333333335</v>
+      </c>
+      <c r="E104" s="2"/>
       <c r="F104">
         <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C105" s="2">
-        <v>45917.258240740739</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2">
-        <v>45918.314965277779</v>
-      </c>
+        <v>45915.525405092594</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45916.54210648148</v>
+      </c>
+      <c r="E105" s="2"/>
       <c r="F105">
         <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C106" s="2">
-        <v>45915.483831018515</v>
+        <v>45910.196134259262</v>
       </c>
       <c r="D106" s="2">
-        <v>45916.511701388888</v>
+        <v>45911.248784722222</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
@@ -2506,16 +2501,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C107" s="2">
-        <v>45913.021006944444</v>
+        <v>45914.036979166667</v>
       </c>
       <c r="D107" s="2">
-        <v>45914.078969907408</v>
+        <v>45915.079004629632</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
@@ -2524,88 +2519,88 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C108" s="2">
-        <v>45914.036979166667</v>
+        <v>45915.55263888889</v>
       </c>
       <c r="D108" s="2">
-        <v>45915.079004629632</v>
+        <v>45916.542962962965</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C109" s="2">
-        <v>45910.196134259262</v>
+        <v>45917.562847222223</v>
       </c>
       <c r="D109" s="2">
-        <v>45911.248784722222</v>
+        <v>45918.543981481482</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C110" s="2">
-        <v>45908.19803240741</v>
+        <v>45914.043333333335</v>
       </c>
       <c r="D110" s="2">
-        <v>45909.213159722225</v>
+        <v>45915.064780092594</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C111" s="2">
-        <v>45908.567731481482</v>
+        <v>45914.019074074073</v>
       </c>
       <c r="D111" s="2">
-        <v>45909.606053240743</v>
+        <v>45915.000347222223</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C112" s="2">
-        <v>45913.530856481484</v>
+        <v>45915.540833333333</v>
       </c>
       <c r="D112" s="2">
-        <v>45914.507928240739</v>
+        <v>45916.513043981482</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
@@ -2614,16 +2609,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C113" s="2">
-        <v>45912.242094907408</v>
+        <v>45909.532372685186</v>
       </c>
       <c r="D113" s="2">
-        <v>45913.231030092589</v>
+        <v>45910.502280092594</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113">
@@ -2632,16 +2627,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C114" s="2">
-        <v>45917.243622685186</v>
+        <v>45910.510555555556</v>
       </c>
       <c r="D114" s="2">
-        <v>45918.209560185183</v>
+        <v>45911.524016203701</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
@@ -2653,13 +2648,13 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C115" s="2">
-        <v>45909.531261574077</v>
+        <v>45915.220127314817</v>
       </c>
       <c r="D115" s="2">
-        <v>45910.523888888885</v>
+        <v>45916.216979166667</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115">
@@ -2671,13 +2666,13 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C116" s="2">
-        <v>45910.584328703706</v>
+        <v>45915.020277777781</v>
       </c>
       <c r="D116" s="2">
-        <v>45911.616053240738</v>
+        <v>45916.002210648148</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
@@ -2689,13 +2684,13 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C117" s="2">
-        <v>45913.030231481483</v>
+        <v>45917.243622685186</v>
       </c>
       <c r="D117" s="2">
-        <v>45914.003888888888</v>
+        <v>45918.209560185183</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117">
@@ -2707,13 +2702,13 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C118" s="2">
-        <v>45915.020277777781</v>
+        <v>45909.531261574077</v>
       </c>
       <c r="D118" s="2">
-        <v>45916.002210648148</v>
+        <v>45910.523888888885</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118">
@@ -2725,13 +2720,13 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C119" s="2">
-        <v>45915.572175925925</v>
+        <v>45913.701620370368</v>
       </c>
       <c r="D119" s="2">
-        <v>45916.543171296296</v>
+        <v>45914.694907407407</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
@@ -2743,13 +2738,13 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C120" s="2">
-        <v>45913.029675925929</v>
+        <v>45918.039143518516</v>
       </c>
       <c r="D120" s="2">
-        <v>45914.000960648147</v>
+        <v>45919.000752314816</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120">
@@ -2761,13 +2756,13 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C121" s="2">
-        <v>45915.220127314817</v>
+        <v>45913.030231481483</v>
       </c>
       <c r="D121" s="2">
-        <v>45916.216979166667</v>
+        <v>45914.003888888888</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
@@ -2779,13 +2774,13 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C122" s="2">
-        <v>45910.041087962964</v>
+        <v>45913.029675925929</v>
       </c>
       <c r="D122" s="2">
-        <v>45911.026550925926</v>
+        <v>45914.000960648147</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122">
@@ -2797,13 +2792,13 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C123" s="2">
-        <v>45913.701620370368</v>
+        <v>45910.041087962964</v>
       </c>
       <c r="D123" s="2">
-        <v>45914.694907407407</v>
+        <v>45911.026550925926</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123">
@@ -2812,16 +2807,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C124" s="2">
-        <v>45915.540833333333</v>
+        <v>45915.572175925925</v>
       </c>
       <c r="D124" s="2">
-        <v>45916.513043981482</v>
+        <v>45916.543171296296</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124">
@@ -2830,16 +2825,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B125" t="s">
         <v>64</v>
       </c>
       <c r="C125" s="2">
-        <v>45914.043333333335</v>
+        <v>45917.543113425927</v>
       </c>
       <c r="D125" s="2">
-        <v>45915.064780092594</v>
+        <v>45918.545127314814</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
@@ -2848,16 +2843,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C126" s="2">
-        <v>45908.923564814817</v>
+        <v>45910.584328703706</v>
       </c>
       <c r="D126" s="2">
-        <v>45909.953576388885</v>
+        <v>45911.616053240738</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126">
@@ -2866,16 +2861,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B127" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2">
-        <v>45914.019074074073</v>
+        <v>45912.242094907408</v>
       </c>
       <c r="D127" s="2">
-        <v>45915.000347222223</v>
+        <v>45913.231030092589</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127">
@@ -2884,16 +2879,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C128" s="2">
-        <v>45915.55263888889</v>
+        <v>45913.530856481484</v>
       </c>
       <c r="D128" s="2">
-        <v>45916.542962962965</v>
+        <v>45914.507928240739</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128">
@@ -2902,16 +2897,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C129" s="2">
-        <v>45909.532372685186</v>
+        <v>45916.019108796296</v>
       </c>
       <c r="D129" s="2">
-        <v>45910.502280092594</v>
+        <v>45917.00277777778</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129">
@@ -2920,16 +2915,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C130" s="2">
-        <v>45910.510555555556</v>
+        <v>45916.579988425925</v>
       </c>
       <c r="D130" s="2">
-        <v>45911.524016203701</v>
+        <v>45917.561284722222</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
@@ -2941,13 +2936,13 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C131" s="2">
-        <v>45910.02920138889</v>
+        <v>45913.032546296294</v>
       </c>
       <c r="D131" s="2">
-        <v>45911.005185185182</v>
+        <v>45914.002326388887</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
@@ -2959,13 +2954,13 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C132" s="2">
-        <v>45911.034571759257</v>
+        <v>45910.02920138889</v>
       </c>
       <c r="D132" s="2">
-        <v>45912.001400462963</v>
+        <v>45911.005185185182</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132">
@@ -2977,13 +2972,13 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C133" s="2">
-        <v>45914.0625</v>
+        <v>45911.034571759257</v>
       </c>
       <c r="D133" s="2">
-        <v>45915.059525462966</v>
+        <v>45912.001400462963</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133">
@@ -2995,13 +2990,13 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C134" s="2">
-        <v>45909.029490740744</v>
+        <v>45914.0625</v>
       </c>
       <c r="D134" s="2">
-        <v>45910.00445601852</v>
+        <v>45915.059525462966</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134">
@@ -3013,13 +3008,13 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C135" s="2">
-        <v>45912.03328703704</v>
+        <v>45909.029490740744</v>
       </c>
       <c r="D135" s="2">
-        <v>45913.003379629627</v>
+        <v>45910.00445601852</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135">
@@ -3049,52 +3044,16 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C137" s="2">
-        <v>45916.019108796296</v>
+        <v>45912.03328703704</v>
       </c>
       <c r="D137" s="2">
-        <v>45917.00277777778</v>
+        <v>45913.003379629627</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" t="s">
-        <v>48</v>
-      </c>
-      <c r="C138" s="2">
-        <v>45913.032546296294</v>
-      </c>
-      <c r="D138" s="2">
-        <v>45914.002326388887</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A139" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C139" s="2">
-        <v>45916.579988425925</v>
-      </c>
-      <c r="D139" s="2">
-        <v>45917.561284722222</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="67">
   <si>
     <t>电站名称</t>
   </si>
@@ -115,9 +115,6 @@
     <t>105号直流</t>
   </si>
   <si>
-    <t>703号直流</t>
-  </si>
-  <si>
     <t>402号直流</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>106号直流</t>
   </si>
   <si>
-    <t>301号直流</t>
-  </si>
-  <si>
     <t>B04号直流</t>
   </si>
   <si>
@@ -215,6 +209,15 @@
   </si>
   <si>
     <t>305号直流</t>
+  </si>
+  <si>
+    <t>303号直流</t>
+  </si>
+  <si>
+    <t>302号直流</t>
+  </si>
+  <si>
+    <t>011A号直流</t>
   </si>
 </sst>
 </file>
@@ -575,17 +578,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -603,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -611,20 +616,20 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
-        <v>45909.602083333331</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45914.000115740739</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>45915.503680555557</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F2">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -632,17 +637,17 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
-        <v>45909.236574074072</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45913.535138888888</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>45916.28261574074</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F3">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -650,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>45911.52857638889</v>
@@ -665,17 +670,17 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>45915.503680555557</v>
+        <v>45916.534282407411</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>45919.361435185187</v>
+        <v>45920.341481481482</v>
       </c>
       <c r="F5">
         <v>92</v>
@@ -683,71 +688,71 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
-        <v>45909.053182870368</v>
+        <v>45913.650914351849</v>
       </c>
       <c r="D6" s="2">
-        <v>45912.756840277776</v>
+        <v>45917.025937500002</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>45913.650914351849</v>
+        <v>45913.052685185183</v>
       </c>
       <c r="D7" s="2">
-        <v>45917.025937500002</v>
+        <v>45916.265127314815</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>45913.052685185183</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45916.265127314815</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>45917.260844907411</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F8">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
-        <v>45916.28261574074</v>
+        <v>45917.258240740739</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
-        <v>45919.361435185187</v>
+        <v>45920.341481481482</v>
       </c>
       <c r="F9">
         <v>74</v>
@@ -776,17 +781,17 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>45916.534282407411</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>45919.361435185187</v>
-      </c>
+        <v>45910.540219907409</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45913.224270833336</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -794,13 +799,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
-        <v>45910.540219907409</v>
+        <v>45912.328969907408</v>
       </c>
       <c r="D12" s="2">
-        <v>45913.224270833336</v>
+        <v>45915.001701388886</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12">
@@ -812,17 +817,17 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
-        <v>45912.328969907408</v>
+        <v>45910.021134259259</v>
       </c>
       <c r="D13" s="2">
-        <v>45915.001701388886</v>
+        <v>45912.686157407406</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -830,17 +835,17 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>45910.021134259259</v>
+        <v>45913.006967592592</v>
       </c>
       <c r="D14" s="2">
-        <v>45912.686157407406</v>
+        <v>45915.473703703705</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -848,17 +853,17 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
-        <v>45913.006967592592</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45915.473703703705</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>45918.06113425926</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F15">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -881,56 +886,56 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2">
-        <v>45917.260844907411</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <v>45919.361435185187</v>
-      </c>
+        <v>45910.355798611112</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45912.393368055556</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
-        <v>45917.258240740739</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
-        <v>45919.361435185187</v>
-      </c>
+        <v>45911.040381944447</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45913.023263888892</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2">
-        <v>45910.355798611112</v>
+        <v>45912.060983796298</v>
       </c>
       <c r="D19" s="2">
-        <v>45912.393368055556</v>
+        <v>45914.012141203704</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -938,31 +943,31 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
-        <v>45911.040381944447</v>
+        <v>45915.583414351851</v>
       </c>
       <c r="D20" s="2">
-        <v>45913.023263888892</v>
+        <v>45917.582627314812</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>45912.060983796298</v>
+        <v>45910.5781712963</v>
       </c>
       <c r="D21" s="2">
-        <v>45914.012141203704</v>
+        <v>45912.528969907406</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
@@ -971,10 +976,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2">
         <v>45910.561724537038</v>
@@ -989,70 +994,70 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2">
-        <v>45915.583414351851</v>
+        <v>45914.560046296298</v>
       </c>
       <c r="D23" s="2">
-        <v>45917.582627314812</v>
+        <v>45916.478472222225</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2">
-        <v>45910.5781712963</v>
+        <v>45911.646747685183</v>
       </c>
       <c r="D24" s="2">
-        <v>45912.528969907406</v>
+        <v>45913.523923611108</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2">
-        <v>45914.560046296298</v>
+        <v>45911.562384259261</v>
       </c>
       <c r="D25" s="2">
-        <v>45916.478472222225</v>
+        <v>45913.435532407406</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>45917.219965277778</v>
+        <v>45917.638888888891</v>
       </c>
       <c r="D26" s="2">
-        <v>45919.087418981479</v>
+        <v>45919.518240740741</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
@@ -1061,16 +1066,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
-        <v>45911.646747685183</v>
+        <v>45917.219965277778</v>
       </c>
       <c r="D27" s="2">
-        <v>45913.523923611108</v>
+        <v>45919.087418981479</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
@@ -1082,17 +1087,17 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2">
-        <v>45911.562384259261</v>
+        <v>45917.200092592589</v>
       </c>
       <c r="D28" s="2">
-        <v>45913.435532407406</v>
+        <v>45918.990624999999</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1100,13 +1105,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2">
-        <v>45917.200092592589</v>
+        <v>45915.231793981482</v>
       </c>
       <c r="D29" s="2">
-        <v>45918.990624999999</v>
+        <v>45917.019432870373</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
@@ -1115,16 +1120,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2">
-        <v>45915.231793981482</v>
+        <v>45918.238622685189</v>
       </c>
       <c r="D30" s="2">
-        <v>45917.019432870373</v>
+        <v>45920.002534722225</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30">
@@ -1136,17 +1141,17 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2">
-        <v>45909.261608796296</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45911.001076388886</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>45918.557500000003</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F31">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1154,31 +1159,31 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2">
-        <v>45913.23265046296</v>
-      </c>
-      <c r="D32" s="2">
-        <v>45914.981087962966</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>45918.603634259256</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F32">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C33" s="2">
-        <v>45913.76421296296</v>
+        <v>45913.23265046296</v>
       </c>
       <c r="D33" s="2">
-        <v>45915.539942129632</v>
+        <v>45914.981087962966</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
@@ -1187,20 +1192,20 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2">
-        <v>45909.799317129633</v>
+        <v>45913.76421296296</v>
       </c>
       <c r="D34" s="2">
-        <v>45911.513888888891</v>
+        <v>45915.539942129632</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -1223,18 +1228,18 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2">
-        <v>45917.638888888891</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2">
-        <v>45919.361435185187</v>
-      </c>
+        <v>45918.02584490741</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45919.731539351851</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36">
         <v>41</v>
       </c>
@@ -1244,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2">
         <v>45911.531018518515</v>
@@ -1259,20 +1264,20 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2">
-        <v>45915.111643518518</v>
-      </c>
-      <c r="D38" s="2">
-        <v>45916.694467592592</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>45918.673472222225</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F38">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1280,17 +1285,17 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2">
-        <v>45914.486261574071</v>
-      </c>
-      <c r="D39" s="2">
-        <v>45916.002962962964</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>45918.715682870374</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F39">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1298,17 +1303,17 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2">
-        <v>45909.579212962963</v>
+        <v>45915.111643518518</v>
       </c>
       <c r="D40" s="2">
-        <v>45911.07608796296</v>
+        <v>45916.694467592592</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1316,17 +1321,17 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2">
-        <v>45910.534502314818</v>
+        <v>45914.486261574071</v>
       </c>
       <c r="D41" s="2">
-        <v>45912.012048611112</v>
+        <v>45916.002962962964</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1334,13 +1339,13 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2">
-        <v>45916.051249999997</v>
+        <v>45910.534502314818</v>
       </c>
       <c r="D42" s="2">
-        <v>45917.567256944443</v>
+        <v>45912.012048611112</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
@@ -1349,16 +1354,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C43" s="2">
-        <v>45915.061967592592</v>
+        <v>45916.051249999997</v>
       </c>
       <c r="D43" s="2">
-        <v>45916.546516203707</v>
+        <v>45917.567256944443</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
@@ -1370,13 +1375,13 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2">
-        <v>45915.025833333333</v>
+        <v>45915.061967592592</v>
       </c>
       <c r="D44" s="2">
-        <v>45916.511203703703</v>
+        <v>45916.546516203707</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
@@ -1385,70 +1390,70 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2">
-        <v>45917.128229166665</v>
+        <v>45915.025833333333</v>
       </c>
       <c r="D45" s="2">
-        <v>45918.609236111108</v>
+        <v>45916.511203703703</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2">
-        <v>45913.566805555558</v>
+        <v>45918.539907407408</v>
       </c>
       <c r="D46" s="2">
-        <v>45915.004942129628</v>
+        <v>45920.001921296294</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2">
-        <v>45913.717233796298</v>
+        <v>45918.526932870373</v>
       </c>
       <c r="D47" s="2">
-        <v>45915.203182870369</v>
+        <v>45920.000578703701</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C48" s="2">
-        <v>45912.567314814813</v>
+        <v>45913.717233796298</v>
       </c>
       <c r="D48" s="2">
-        <v>45914.04074074074</v>
+        <v>45915.203182870369</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
@@ -1457,20 +1462,20 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2">
-        <v>45914.050219907411</v>
+        <v>45913.566805555558</v>
       </c>
       <c r="D49" s="2">
-        <v>45915.466817129629</v>
+        <v>45915.004942129628</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -1478,17 +1483,17 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2">
-        <v>45915.541979166665</v>
+        <v>45918.54587962963</v>
       </c>
       <c r="D50" s="2">
-        <v>45916.988449074073</v>
+        <v>45920.000509259262</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -1496,35 +1501,35 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2">
-        <v>45916.059074074074</v>
+        <v>45917.128229166665</v>
       </c>
       <c r="D51" s="2">
-        <v>45917.468865740739</v>
+        <v>45918.609236111108</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C52" s="2">
-        <v>45916.623356481483</v>
+        <v>45912.567314814813</v>
       </c>
       <c r="D52" s="2">
-        <v>45918.0237037037</v>
+        <v>45914.04074074074</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -1532,13 +1537,13 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C53" s="2">
-        <v>45917.589189814818</v>
+        <v>45916.059074074074</v>
       </c>
       <c r="D53" s="2">
-        <v>45919.000393518516</v>
+        <v>45917.468865740739</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
@@ -1547,20 +1552,20 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C54" s="2">
-        <v>45912.627604166664</v>
+        <v>45916.623356481483</v>
       </c>
       <c r="D54" s="2">
-        <v>45914.005208333336</v>
+        <v>45918.0237037037</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -1568,17 +1573,17 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C55" s="2">
-        <v>45910.054398148146</v>
+        <v>45917.589189814818</v>
       </c>
       <c r="D55" s="2">
-        <v>45911.384293981479</v>
+        <v>45919.000393518516</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -1586,53 +1591,53 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C56" s="2">
-        <v>45918.02584490741</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2">
-        <v>45919.361435185187</v>
-      </c>
+        <v>45915.541979166665</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45916.988449074073</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C57" s="2">
-        <v>45909.039467592593</v>
+        <v>45914.050219907411</v>
       </c>
       <c r="D57" s="2">
-        <v>45910.373379629629</v>
+        <v>45915.466817129629</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C58" s="2">
-        <v>45910.029456018521</v>
+        <v>45912.627604166664</v>
       </c>
       <c r="D58" s="2">
-        <v>45911.331701388888</v>
+        <v>45914.005208333336</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -1640,17 +1645,17 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2">
-        <v>45915.259062500001</v>
+        <v>45910.054398148146</v>
       </c>
       <c r="D59" s="2">
-        <v>45916.545428240737</v>
+        <v>45911.384293981479</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -1658,13 +1663,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C60" s="2">
-        <v>45917.051562499997</v>
+        <v>45915.259062500001</v>
       </c>
       <c r="D60" s="2">
-        <v>45918.348865740743</v>
+        <v>45916.545428240737</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
@@ -1676,15 +1681,15 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2">
-        <v>45918.06113425926</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2">
-        <v>45919.361435185187</v>
-      </c>
+        <v>45917.051562499997</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45918.348865740743</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61">
         <v>31</v>
       </c>
@@ -1712,53 +1717,53 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C63" s="2">
-        <v>45910.247546296298</v>
-      </c>
-      <c r="D63" s="2">
-        <v>45911.529826388891</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>45919.051585648151</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F63">
         <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C64" s="2">
-        <v>45909.260914351849</v>
+        <v>45910.247546296298</v>
       </c>
       <c r="D64" s="2">
-        <v>45910.524594907409</v>
+        <v>45911.529826388891</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C65" s="2">
-        <v>45917.038738425923</v>
+        <v>45918.712372685186</v>
       </c>
       <c r="D65" s="2">
-        <v>45918.261030092595</v>
+        <v>45920.004004629627</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
@@ -1766,17 +1771,17 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C66" s="2">
-        <v>45913.050844907404</v>
+        <v>45917.038738425923</v>
       </c>
       <c r="D66" s="2">
-        <v>45914.284895833334</v>
+        <v>45918.261030092595</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -1784,17 +1789,17 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2">
-        <v>45910.067824074074</v>
+        <v>45918.264537037037</v>
       </c>
       <c r="D67" s="2">
-        <v>45911.284560185188</v>
+        <v>45919.504305555558</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
@@ -1802,31 +1807,31 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C68" s="2">
-        <v>45915.250428240739</v>
+        <v>45918.257824074077</v>
       </c>
       <c r="D68" s="2">
-        <v>45916.492291666669</v>
+        <v>45919.535219907404</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C69" s="2">
-        <v>45916.350173611114</v>
+        <v>45913.050844907404</v>
       </c>
       <c r="D69" s="2">
-        <v>45917.544189814813</v>
+        <v>45914.284895833334</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
@@ -1835,16 +1840,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2">
-        <v>45914.304675925923</v>
+        <v>45915.250428240739</v>
       </c>
       <c r="D70" s="2">
-        <v>45915.505648148152</v>
+        <v>45916.492291666669</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70">
@@ -1853,16 +1858,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C71" s="2">
-        <v>45914.064189814817</v>
+        <v>45910.067824074074</v>
       </c>
       <c r="D71" s="2">
-        <v>45915.274594907409</v>
+        <v>45911.284560185188</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
@@ -1871,20 +1876,20 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C72" s="2">
-        <v>45909.373738425929</v>
+        <v>45914.064189814817</v>
       </c>
       <c r="D72" s="2">
-        <v>45910.524085648147</v>
+        <v>45915.274594907409</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -1892,53 +1897,53 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C73" s="2">
-        <v>45914.060752314814</v>
+        <v>45918.558819444443</v>
       </c>
       <c r="D73" s="2">
-        <v>45915.225474537037</v>
+        <v>45919.759699074071</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2">
-        <v>45914.011388888888</v>
+        <v>45914.304675925923</v>
       </c>
       <c r="D74" s="2">
-        <v>45915.187569444446</v>
+        <v>45915.505648148152</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2">
-        <v>45910.356319444443</v>
+        <v>45916.350173611114</v>
       </c>
       <c r="D75" s="2">
-        <v>45911.500925925924</v>
+        <v>45917.544189814813</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -1946,13 +1951,13 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C76" s="2">
-        <v>45917.046249999999</v>
+        <v>45910.356319444443</v>
       </c>
       <c r="D76" s="2">
-        <v>45918.227696759262</v>
+        <v>45911.500925925924</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76">
@@ -1964,13 +1969,13 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C77" s="2">
-        <v>45915.035682870373</v>
+        <v>45917.046249999999</v>
       </c>
       <c r="D77" s="2">
-        <v>45916.204282407409</v>
+        <v>45918.227696759262</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
@@ -1979,16 +1984,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2">
-        <v>45917.862303240741</v>
+        <v>45914.011388888888</v>
       </c>
       <c r="D78" s="2">
-        <v>45919.004907407405</v>
+        <v>45915.187569444446</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
@@ -1997,74 +2002,74 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C79" s="2">
-        <v>45913.042430555557</v>
+        <v>45915.035682870373</v>
       </c>
       <c r="D79" s="2">
-        <v>45914.200810185182</v>
+        <v>45916.204282407409</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2">
-        <v>45918.238622685189</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2">
-        <v>45919.361435185187</v>
-      </c>
+        <v>45919.064259259256</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45920.216261574074</v>
+      </c>
+      <c r="E80" s="2"/>
       <c r="F80">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
         <v>44</v>
       </c>
       <c r="C81" s="2">
-        <v>45909.091203703705</v>
+        <v>45917.862303240741</v>
       </c>
       <c r="D81" s="2">
-        <v>45910.220127314817</v>
+        <v>45919.004907407405</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C82" s="2">
-        <v>45914.151493055557</v>
+        <v>45914.060752314814</v>
       </c>
       <c r="D82" s="2">
-        <v>45915.287997685184</v>
+        <v>45915.225474537037</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -2072,13 +2077,13 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C83" s="2">
-        <v>45915.075706018521</v>
+        <v>45912.041076388887</v>
       </c>
       <c r="D83" s="2">
-        <v>45916.188900462963</v>
+        <v>45913.145925925928</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
@@ -2090,13 +2095,13 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C84" s="2">
-        <v>45912.041076388887</v>
+        <v>45915.075706018521</v>
       </c>
       <c r="D84" s="2">
-        <v>45913.145925925928</v>
+        <v>45916.188900462963</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84">
@@ -2108,7 +2113,7 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C85" s="2">
         <v>45913.579629629632</v>
@@ -2126,13 +2131,13 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2">
-        <v>45914.045497685183</v>
+        <v>45914.151493055557</v>
       </c>
       <c r="D86" s="2">
-        <v>45915.202696759261</v>
+        <v>45915.287997685184</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
@@ -2141,16 +2146,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C87" s="2">
-        <v>45911.012094907404</v>
+        <v>45914.045497685183</v>
       </c>
       <c r="D87" s="2">
-        <v>45912.137696759259</v>
+        <v>45915.202696759261</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87">
@@ -2159,106 +2164,106 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2">
-        <v>45909.039143518516</v>
+        <v>45911.012094907404</v>
       </c>
       <c r="D88" s="2">
-        <v>45910.102083333331</v>
+        <v>45912.137696759259</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C89" s="2">
-        <v>45918.264537037037</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2">
-        <v>45919.361435185187</v>
-      </c>
+        <v>45913.042430555557</v>
+      </c>
+      <c r="D89" s="2">
+        <v>45914.200810185182</v>
+      </c>
+      <c r="E89" s="2"/>
       <c r="F89">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C90" s="2">
-        <v>45918.257824074077</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2">
-        <v>45919.361435185187</v>
-      </c>
+        <v>45913.064467592594</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45914.140983796293</v>
+      </c>
+      <c r="E90" s="2"/>
       <c r="F90">
         <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2">
-        <v>45909.514016203706</v>
-      </c>
-      <c r="D91" s="2">
-        <v>45910.611180555556</v>
-      </c>
-      <c r="E91" s="2"/>
+        <v>45919.267326388886</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F91">
         <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2">
-        <v>45913.064467592594</v>
+        <v>45911.684641203705</v>
       </c>
       <c r="D92" s="2">
-        <v>45914.140983796293</v>
+        <v>45912.726527777777</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C93" s="2">
-        <v>45913.021006944444</v>
+        <v>45919.067708333336</v>
       </c>
       <c r="D93" s="2">
-        <v>45914.078969907408</v>
+        <v>45920.088587962964</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
@@ -2270,13 +2275,13 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C94" s="2">
-        <v>45911.994386574072</v>
+        <v>45915.475578703707</v>
       </c>
       <c r="D94" s="2">
-        <v>45913.008622685185</v>
+        <v>45916.538958333331</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
@@ -2288,13 +2293,13 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C95" s="2">
-        <v>45918.199444444443</v>
+        <v>45917.244652777779</v>
       </c>
       <c r="D95" s="2">
-        <v>45919.209988425922</v>
+        <v>45918.285451388889</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
@@ -2306,13 +2311,13 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C96" s="2">
-        <v>45911.684641203705</v>
+        <v>45911.994386574072</v>
       </c>
       <c r="D96" s="2">
-        <v>45912.726527777777</v>
+        <v>45913.008622685185</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
@@ -2324,13 +2329,13 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C97" s="2">
-        <v>45917.244652777779</v>
+        <v>45918.199444444443</v>
       </c>
       <c r="D97" s="2">
-        <v>45918.285451388889</v>
+        <v>45919.209988425922</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97">
@@ -2342,13 +2347,13 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C98" s="2">
-        <v>45915.055277777778</v>
+        <v>45912.043020833335</v>
       </c>
       <c r="D98" s="2">
-        <v>45916.095949074072</v>
+        <v>45913.113923611112</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
@@ -2360,15 +2365,15 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C99" s="2">
-        <v>45912.043020833335</v>
-      </c>
-      <c r="D99" s="2">
-        <v>45913.113923611112</v>
-      </c>
-      <c r="E99" s="2"/>
+        <v>45919.2965625</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F99">
         <v>25</v>
       </c>
@@ -2378,13 +2383,13 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C100" s="2">
-        <v>45915.475578703707</v>
+        <v>45915.055277777778</v>
       </c>
       <c r="D100" s="2">
-        <v>45916.538958333331</v>
+        <v>45916.095949074072</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100">
@@ -2411,16 +2416,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C102" s="2">
-        <v>45909.239444444444</v>
+        <v>45914.036979166667</v>
       </c>
       <c r="D102" s="2">
-        <v>45910.265706018516</v>
+        <v>45915.079004629632</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102">
@@ -2429,16 +2434,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C103" s="2">
-        <v>45911.244166666664</v>
+        <v>45919.036516203705</v>
       </c>
       <c r="D103" s="2">
-        <v>45912.265601851854</v>
+        <v>45920.041701388887</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
@@ -2447,16 +2452,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C104" s="2">
-        <v>45911.504976851851</v>
+        <v>45910.196134259262</v>
       </c>
       <c r="D104" s="2">
-        <v>45912.543333333335</v>
+        <v>45911.248784722222</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104">
@@ -2465,16 +2470,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C105" s="2">
-        <v>45915.525405092594</v>
+        <v>45913.021006944444</v>
       </c>
       <c r="D105" s="2">
-        <v>45916.54210648148</v>
+        <v>45914.078969907408</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
@@ -2483,16 +2488,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C106" s="2">
-        <v>45910.196134259262</v>
+        <v>45911.244166666664</v>
       </c>
       <c r="D106" s="2">
-        <v>45911.248784722222</v>
+        <v>45912.265601851854</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
@@ -2501,16 +2506,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C107" s="2">
-        <v>45914.036979166667</v>
+        <v>45911.504976851851</v>
       </c>
       <c r="D107" s="2">
-        <v>45915.079004629632</v>
+        <v>45912.543333333335</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
@@ -2519,34 +2524,34 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C108" s="2">
-        <v>45915.55263888889</v>
+        <v>45915.525405092594</v>
       </c>
       <c r="D108" s="2">
-        <v>45916.542962962965</v>
+        <v>45916.54210648148</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C109" s="2">
-        <v>45917.562847222223</v>
+        <v>45917.243622685186</v>
       </c>
       <c r="D109" s="2">
-        <v>45918.543981481482</v>
+        <v>45918.209560185183</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
@@ -2555,16 +2560,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2">
-        <v>45914.043333333335</v>
+        <v>45913.701620370368</v>
       </c>
       <c r="D110" s="2">
-        <v>45915.064780092594</v>
+        <v>45914.694907407407</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
@@ -2573,16 +2578,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C111" s="2">
-        <v>45914.019074074073</v>
+        <v>45915.220127314817</v>
       </c>
       <c r="D111" s="2">
-        <v>45915.000347222223</v>
+        <v>45916.216979166667</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
@@ -2591,16 +2596,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C112" s="2">
-        <v>45915.540833333333</v>
+        <v>45917.543113425927</v>
       </c>
       <c r="D112" s="2">
-        <v>45916.513043981482</v>
+        <v>45918.545127314814</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
@@ -2609,16 +2614,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C113" s="2">
-        <v>45909.532372685186</v>
+        <v>45910.041087962964</v>
       </c>
       <c r="D113" s="2">
-        <v>45910.502280092594</v>
+        <v>45911.026550925926</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113">
@@ -2627,16 +2632,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C114" s="2">
-        <v>45910.510555555556</v>
+        <v>45919.033101851855</v>
       </c>
       <c r="D114" s="2">
-        <v>45911.524016203701</v>
+        <v>45920.037638888891</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
@@ -2648,13 +2653,13 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C115" s="2">
-        <v>45915.220127314817</v>
+        <v>45915.020277777781</v>
       </c>
       <c r="D115" s="2">
-        <v>45916.216979166667</v>
+        <v>45916.002210648148</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115">
@@ -2666,13 +2671,13 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C116" s="2">
-        <v>45915.020277777781</v>
+        <v>45913.029675925929</v>
       </c>
       <c r="D116" s="2">
-        <v>45916.002210648148</v>
+        <v>45914.000960648147</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
@@ -2684,13 +2689,13 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C117" s="2">
-        <v>45917.243622685186</v>
+        <v>45919.028819444444</v>
       </c>
       <c r="D117" s="2">
-        <v>45918.209560185183</v>
+        <v>45920.000590277778</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117">
@@ -2702,13 +2707,13 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C118" s="2">
-        <v>45909.531261574077</v>
+        <v>45913.030231481483</v>
       </c>
       <c r="D118" s="2">
-        <v>45910.523888888885</v>
+        <v>45914.003888888888</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118">
@@ -2720,13 +2725,13 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C119" s="2">
-        <v>45913.701620370368</v>
+        <v>45918.378263888888</v>
       </c>
       <c r="D119" s="2">
-        <v>45914.694907407407</v>
+        <v>45919.401689814818</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
@@ -2756,13 +2761,13 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C121" s="2">
-        <v>45913.030231481483</v>
+        <v>45915.572175925925</v>
       </c>
       <c r="D121" s="2">
-        <v>45914.003888888888</v>
+        <v>45916.543171296296</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
@@ -2774,13 +2779,13 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C122" s="2">
-        <v>45913.029675925929</v>
+        <v>45910.584328703706</v>
       </c>
       <c r="D122" s="2">
-        <v>45914.000960648147</v>
+        <v>45911.616053240738</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122">
@@ -2789,16 +2794,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C123" s="2">
-        <v>45910.041087962964</v>
+        <v>45919.277962962966</v>
       </c>
       <c r="D123" s="2">
-        <v>45911.026550925926</v>
+        <v>45920.264999999999</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123">
@@ -2807,16 +2812,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C124" s="2">
-        <v>45915.572175925925</v>
+        <v>45916.019108796296</v>
       </c>
       <c r="D124" s="2">
-        <v>45916.543171296296</v>
+        <v>45917.00277777778</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124">
@@ -2825,16 +2830,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="C125" s="2">
-        <v>45917.543113425927</v>
+        <v>45916.579988425925</v>
       </c>
       <c r="D125" s="2">
-        <v>45918.545127314814</v>
+        <v>45917.561284722222</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
@@ -2843,16 +2848,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C126" s="2">
-        <v>45910.584328703706</v>
+        <v>45911.556932870371</v>
       </c>
       <c r="D126" s="2">
-        <v>45911.616053240738</v>
+        <v>45912.543055555558</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126">
@@ -2861,16 +2866,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C127" s="2">
-        <v>45912.242094907408</v>
+        <v>45912.03328703704</v>
       </c>
       <c r="D127" s="2">
-        <v>45913.231030092589</v>
+        <v>45913.003379629627</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127">
@@ -2879,16 +2884,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
         <v>45</v>
       </c>
       <c r="C128" s="2">
-        <v>45913.530856481484</v>
+        <v>45913.032546296294</v>
       </c>
       <c r="D128" s="2">
-        <v>45914.507928240739</v>
+        <v>45914.002326388887</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128">
@@ -2900,13 +2905,13 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C129" s="2">
-        <v>45916.019108796296</v>
+        <v>45910.02920138889</v>
       </c>
       <c r="D129" s="2">
-        <v>45917.00277777778</v>
+        <v>45911.005185185182</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129">
@@ -2918,13 +2923,13 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C130" s="2">
-        <v>45916.579988425925</v>
+        <v>45911.034571759257</v>
       </c>
       <c r="D130" s="2">
-        <v>45917.561284722222</v>
+        <v>45912.001400462963</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
@@ -2936,13 +2941,13 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C131" s="2">
-        <v>45913.032546296294</v>
+        <v>45914.0625</v>
       </c>
       <c r="D131" s="2">
-        <v>45914.002326388887</v>
+        <v>45915.059525462966</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
@@ -2954,13 +2959,13 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C132" s="2">
-        <v>45910.02920138889</v>
+        <v>45919.031469907408</v>
       </c>
       <c r="D132" s="2">
-        <v>45911.005185185182</v>
+        <v>45920.003437500003</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132">
@@ -2969,16 +2974,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C133" s="2">
-        <v>45911.034571759257</v>
+        <v>45915.55263888889</v>
       </c>
       <c r="D133" s="2">
-        <v>45912.001400462963</v>
+        <v>45916.542962962965</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133">
@@ -2987,16 +2992,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C134" s="2">
-        <v>45914.0625</v>
+        <v>45914.043333333335</v>
       </c>
       <c r="D134" s="2">
-        <v>45915.059525462966</v>
+        <v>45915.064780092594</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134">
@@ -3005,16 +3010,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C135" s="2">
-        <v>45909.029490740744</v>
+        <v>45915.540833333333</v>
       </c>
       <c r="D135" s="2">
-        <v>45910.00445601852</v>
+        <v>45916.513043981482</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135">
@@ -3023,16 +3028,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C136" s="2">
-        <v>45911.556932870371</v>
+        <v>45914.019074074073</v>
       </c>
       <c r="D136" s="2">
-        <v>45912.543055555558</v>
+        <v>45915.000347222223</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136">
@@ -3041,19 +3046,109 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C137" s="2">
-        <v>45912.03328703704</v>
+        <v>45917.562847222223</v>
       </c>
       <c r="D137" s="2">
-        <v>45913.003379629627</v>
+        <v>45918.543981481482</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45910.510555555556</v>
+      </c>
+      <c r="D138" s="2">
+        <v>45911.524016203701</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>51</v>
+      </c>
+      <c r="B139" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139" s="2">
+        <v>45912.242094907408</v>
+      </c>
+      <c r="D139" s="2">
+        <v>45913.231030092589</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>51</v>
+      </c>
+      <c r="B140" t="s">
+        <v>43</v>
+      </c>
+      <c r="C140" s="2">
+        <v>45913.530856481484</v>
+      </c>
+      <c r="D140" s="2">
+        <v>45914.507928240739</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>51</v>
+      </c>
+      <c r="B141" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45919.362210648149</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2">
+        <v>45920.341481481482</v>
+      </c>
+      <c r="F141">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>51</v>
+      </c>
+      <c r="B142" t="s">
+        <v>56</v>
+      </c>
+      <c r="C142" s="2">
+        <v>45919.351388888892</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2">
+        <v>45920.341481481482</v>
+      </c>
+      <c r="F142">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="71">
   <si>
     <t>电站名称</t>
   </si>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>011A号直流</t>
+  </si>
+  <si>
+    <t>307号直流</t>
+  </si>
+  <si>
+    <t>207号直流</t>
+  </si>
+  <si>
+    <t>208号直流</t>
+  </si>
+  <si>
+    <t>308号直流</t>
   </si>
 </sst>
 </file>
@@ -578,19 +590,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -626,10 +638,10 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>45920.341481481482</v>
+        <v>45920.649699074071</v>
       </c>
       <c r="F2">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -644,46 +656,46 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>45920.341481481482</v>
+        <v>45920.649699074071</v>
       </c>
       <c r="F3">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>45911.52857638889</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45915.503275462965</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>45916.534282407411</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F4">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2">
-        <v>45916.534282407411</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45911.52857638889</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45915.503275462965</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -706,20 +718,20 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
-        <v>45913.052685185183</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45916.265127314815</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>45917.258240740739</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F7">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -732,30 +744,30 @@
       <c r="C8" s="2">
         <v>45917.260844907411</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>45920.341481481482</v>
-      </c>
+      <c r="D8" s="2">
+        <v>45920.502418981479</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
-        <v>45917.258240740739</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45913.052685185183</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45916.265127314815</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -835,17 +847,17 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2">
-        <v>45913.006967592592</v>
+        <v>45918.06113425926</v>
       </c>
       <c r="D14" s="2">
-        <v>45915.473703703705</v>
+        <v>45920.554386574076</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -853,17 +865,17 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>45918.06113425926</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45913.006967592592</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45915.473703703705</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -886,38 +898,38 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>45910.355798611112</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45912.393368055556</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>45918.557500000003</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F17">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2">
-        <v>45911.040381944447</v>
+        <v>45910.355798611112</v>
       </c>
       <c r="D18" s="2">
-        <v>45913.023263888892</v>
+        <v>45912.393368055556</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -925,17 +937,17 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2">
-        <v>45912.060983796298</v>
+        <v>45918.603634259256</v>
       </c>
       <c r="D19" s="2">
-        <v>45914.012141203704</v>
+        <v>45920.611122685186</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -943,31 +955,31 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
-        <v>45915.583414351851</v>
+        <v>45911.040381944447</v>
       </c>
       <c r="D20" s="2">
-        <v>45917.582627314812</v>
+        <v>45913.023263888892</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2">
-        <v>45910.5781712963</v>
+        <v>45910.561724537038</v>
       </c>
       <c r="D21" s="2">
-        <v>45912.528969907406</v>
+        <v>45912.509375000001</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
@@ -976,16 +988,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2">
-        <v>45910.561724537038</v>
+        <v>45912.060983796298</v>
       </c>
       <c r="D22" s="2">
-        <v>45912.509375000001</v>
+        <v>45914.012141203704</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
@@ -994,70 +1006,70 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2">
-        <v>45914.560046296298</v>
+        <v>45915.583414351851</v>
       </c>
       <c r="D23" s="2">
-        <v>45916.478472222225</v>
+        <v>45917.582627314812</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>45911.646747685183</v>
+        <v>45910.5781712963</v>
       </c>
       <c r="D24" s="2">
-        <v>45913.523923611108</v>
+        <v>45912.528969907406</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2">
-        <v>45911.562384259261</v>
+        <v>45914.560046296298</v>
       </c>
       <c r="D25" s="2">
-        <v>45913.435532407406</v>
+        <v>45916.478472222225</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2">
-        <v>45917.638888888891</v>
+        <v>45917.219965277778</v>
       </c>
       <c r="D26" s="2">
-        <v>45919.518240740741</v>
+        <v>45919.087418981479</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
@@ -1066,16 +1078,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2">
-        <v>45917.219965277778</v>
+        <v>45911.646747685183</v>
       </c>
       <c r="D27" s="2">
-        <v>45919.087418981479</v>
+        <v>45913.523923611108</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
@@ -1087,35 +1099,35 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2">
-        <v>45917.200092592589</v>
+        <v>45911.562384259261</v>
       </c>
       <c r="D28" s="2">
-        <v>45918.990624999999</v>
+        <v>45913.435532407406</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>45915.231793981482</v>
+        <v>45917.638888888891</v>
       </c>
       <c r="D29" s="2">
-        <v>45917.019432870373</v>
+        <v>45919.518240740741</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1138,18 +1150,18 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2">
-        <v>45918.557500000003</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45915.231793981482</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45917.019432870373</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31">
         <v>43</v>
       </c>
@@ -1159,31 +1171,31 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2">
-        <v>45918.603634259256</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45917.200092592589</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45918.990624999999</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2">
-        <v>45913.23265046296</v>
+        <v>45913.76421296296</v>
       </c>
       <c r="D33" s="2">
-        <v>45914.981087962966</v>
+        <v>45915.539942129632</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
@@ -1192,16 +1204,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C34" s="2">
-        <v>45913.76421296296</v>
+        <v>45913.23265046296</v>
       </c>
       <c r="D34" s="2">
-        <v>45915.539942129632</v>
+        <v>45914.981087962966</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
@@ -1246,36 +1258,36 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2">
-        <v>45911.531018518515</v>
+        <v>45918.673472222225</v>
       </c>
       <c r="D37" s="2">
-        <v>45913.206875000003</v>
+        <v>45920.394062500003</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2">
-        <v>45918.673472222225</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45911.531018518515</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45913.206875000003</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38">
         <v>40</v>
       </c>
@@ -1285,17 +1297,17 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45915.111643518518</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45916.694467592592</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39">
         <v>38</v>
-      </c>
-      <c r="C39" s="2">
-        <v>45918.715682870374</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2">
-        <v>45920.341481481482</v>
-      </c>
-      <c r="F39">
-        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1303,13 +1315,13 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2">
-        <v>45915.111643518518</v>
+        <v>45918.715682870374</v>
       </c>
       <c r="D40" s="2">
-        <v>45916.694467592592</v>
+        <v>45920.332812499997</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
@@ -1321,17 +1333,17 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C41" s="2">
-        <v>45914.486261574071</v>
-      </c>
-      <c r="D41" s="2">
-        <v>45916.002962962964</v>
-      </c>
-      <c r="E41" s="2"/>
+        <v>45919.051585648151</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F41">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1339,31 +1351,31 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2">
-        <v>45910.534502314818</v>
+        <v>45914.486261574071</v>
       </c>
       <c r="D42" s="2">
-        <v>45912.012048611112</v>
+        <v>45916.002962962964</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2">
-        <v>45916.051249999997</v>
+        <v>45918.526932870373</v>
       </c>
       <c r="D43" s="2">
-        <v>45917.567256944443</v>
+        <v>45920.000578703701</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
@@ -1372,16 +1384,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2">
-        <v>45915.061967592592</v>
+        <v>45918.539907407408</v>
       </c>
       <c r="D44" s="2">
-        <v>45916.546516203707</v>
+        <v>45920.001921296294</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
@@ -1390,16 +1402,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2">
-        <v>45915.025833333333</v>
+        <v>45910.534502314818</v>
       </c>
       <c r="D45" s="2">
-        <v>45916.511203703703</v>
+        <v>45912.012048611112</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
@@ -1408,16 +1420,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C46" s="2">
-        <v>45918.539907407408</v>
+        <v>45916.051249999997</v>
       </c>
       <c r="D46" s="2">
-        <v>45920.001921296294</v>
+        <v>45917.567256944443</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
@@ -1426,16 +1438,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C47" s="2">
-        <v>45918.526932870373</v>
+        <v>45915.061967592592</v>
       </c>
       <c r="D47" s="2">
-        <v>45920.000578703701</v>
+        <v>45916.546516203707</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
@@ -1444,20 +1456,20 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2">
-        <v>45913.717233796298</v>
+        <v>45915.025833333333</v>
       </c>
       <c r="D48" s="2">
-        <v>45915.203182870369</v>
+        <v>45916.511203703703</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -1465,13 +1477,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2">
-        <v>45913.566805555558</v>
+        <v>45918.54587962963</v>
       </c>
       <c r="D49" s="2">
-        <v>45915.004942129628</v>
+        <v>45920.000509259262</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
@@ -1483,13 +1495,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C50" s="2">
-        <v>45918.54587962963</v>
+        <v>45913.717233796298</v>
       </c>
       <c r="D50" s="2">
-        <v>45920.000509259262</v>
+        <v>45915.203182870369</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
@@ -1501,13 +1513,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2">
-        <v>45917.128229166665</v>
+        <v>45913.566805555558</v>
       </c>
       <c r="D51" s="2">
-        <v>45918.609236111108</v>
+        <v>45915.004942129628</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
@@ -1516,16 +1528,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C52" s="2">
-        <v>45912.567314814813</v>
+        <v>45917.128229166665</v>
       </c>
       <c r="D52" s="2">
-        <v>45914.04074074074</v>
+        <v>45918.609236111108</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
@@ -1534,34 +1546,34 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2">
-        <v>45916.059074074074</v>
+        <v>45912.567314814813</v>
       </c>
       <c r="D53" s="2">
-        <v>45917.468865740739</v>
+        <v>45914.04074074074</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C54" s="2">
-        <v>45916.623356481483</v>
+        <v>45914.050219907411</v>
       </c>
       <c r="D54" s="2">
-        <v>45918.0237037037</v>
+        <v>45915.466817129629</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
@@ -1573,13 +1585,13 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C55" s="2">
-        <v>45917.589189814818</v>
+        <v>45915.541979166665</v>
       </c>
       <c r="D55" s="2">
-        <v>45919.000393518516</v>
+        <v>45916.988449074073</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
@@ -1591,13 +1603,13 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C56" s="2">
-        <v>45915.541979166665</v>
+        <v>45916.059074074074</v>
       </c>
       <c r="D56" s="2">
-        <v>45916.988449074073</v>
+        <v>45917.468865740739</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
@@ -1606,16 +1618,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C57" s="2">
-        <v>45914.050219907411</v>
+        <v>45916.623356481483</v>
       </c>
       <c r="D57" s="2">
-        <v>45915.466817129629</v>
+        <v>45918.0237037037</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57">
@@ -1624,38 +1636,38 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C58" s="2">
-        <v>45912.627604166664</v>
+        <v>45917.589189814818</v>
       </c>
       <c r="D58" s="2">
-        <v>45914.005208333336</v>
+        <v>45919.000393518516</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2">
-        <v>45910.054398148146</v>
+        <v>45912.627604166664</v>
       </c>
       <c r="D59" s="2">
-        <v>45911.384293981479</v>
+        <v>45914.005208333336</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -1663,17 +1675,17 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2">
-        <v>45915.259062500001</v>
+        <v>45910.054398148146</v>
       </c>
       <c r="D60" s="2">
-        <v>45916.545428240737</v>
+        <v>45911.384293981479</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -1681,17 +1693,17 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2">
-        <v>45917.051562499997</v>
-      </c>
-      <c r="D61" s="2">
-        <v>45918.348865740743</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>45919.2965625</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F61">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -1699,13 +1711,13 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C62" s="2">
-        <v>45916.531759259262</v>
+        <v>45910.247546296298</v>
       </c>
       <c r="D62" s="2">
-        <v>45917.797986111109</v>
+        <v>45911.529826388891</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
@@ -1717,15 +1729,15 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C63" s="2">
-        <v>45919.051585648151</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45915.259062500001</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45916.545428240737</v>
+      </c>
+      <c r="E63" s="2"/>
       <c r="F63">
         <v>31</v>
       </c>
@@ -1735,13 +1747,13 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C64" s="2">
-        <v>45910.247546296298</v>
+        <v>45917.051562499997</v>
       </c>
       <c r="D64" s="2">
-        <v>45911.529826388891</v>
+        <v>45918.348865740743</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
@@ -1750,16 +1762,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C65" s="2">
-        <v>45918.712372685186</v>
+        <v>45916.531759259262</v>
       </c>
       <c r="D65" s="2">
-        <v>45920.004004629627</v>
+        <v>45917.797986111109</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
@@ -1768,34 +1780,34 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2">
-        <v>45917.038738425923</v>
+        <v>45918.712372685186</v>
       </c>
       <c r="D66" s="2">
-        <v>45918.261030092595</v>
+        <v>45920.004004629627</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C67" s="2">
-        <v>45918.264537037037</v>
+        <v>45919.267326388886</v>
       </c>
       <c r="D67" s="2">
-        <v>45919.504305555558</v>
+        <v>45920.507592592592</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
@@ -1807,13 +1819,13 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C68" s="2">
-        <v>45918.257824074077</v>
+        <v>45918.264537037037</v>
       </c>
       <c r="D68" s="2">
-        <v>45919.535219907404</v>
+        <v>45919.504305555558</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
@@ -1825,17 +1837,17 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C69" s="2">
-        <v>45913.050844907404</v>
+        <v>45917.038738425923</v>
       </c>
       <c r="D69" s="2">
-        <v>45914.284895833334</v>
+        <v>45918.261030092595</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -1843,31 +1855,31 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C70" s="2">
-        <v>45915.250428240739</v>
+        <v>45918.257824074077</v>
       </c>
       <c r="D70" s="2">
-        <v>45916.492291666669</v>
+        <v>45919.535219907404</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2">
-        <v>45910.067824074074</v>
+        <v>45914.304675925923</v>
       </c>
       <c r="D71" s="2">
-        <v>45911.284560185188</v>
+        <v>45915.505648148152</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
@@ -1876,16 +1888,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2">
-        <v>45914.064189814817</v>
+        <v>45916.350173611114</v>
       </c>
       <c r="D72" s="2">
-        <v>45915.274594907409</v>
+        <v>45917.544189814813</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72">
@@ -1912,16 +1924,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2">
-        <v>45914.304675925923</v>
+        <v>45915.250428240739</v>
       </c>
       <c r="D74" s="2">
-        <v>45915.505648148152</v>
+        <v>45916.492291666669</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74">
@@ -1930,16 +1942,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2">
-        <v>45916.350173611114</v>
+        <v>45913.050844907404</v>
       </c>
       <c r="D75" s="2">
-        <v>45917.544189814813</v>
+        <v>45914.284895833334</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
@@ -1951,49 +1963,49 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C76" s="2">
-        <v>45910.356319444443</v>
+        <v>45910.067824074074</v>
       </c>
       <c r="D76" s="2">
-        <v>45911.500925925924</v>
+        <v>45911.284560185188</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C77" s="2">
-        <v>45917.046249999999</v>
+        <v>45914.064189814817</v>
       </c>
       <c r="D77" s="2">
-        <v>45918.227696759262</v>
+        <v>45915.274594907409</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C78" s="2">
-        <v>45914.011388888888</v>
+        <v>45914.060752314814</v>
       </c>
       <c r="D78" s="2">
-        <v>45915.187569444446</v>
+        <v>45915.225474537037</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
@@ -2005,13 +2017,13 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C79" s="2">
-        <v>45915.035682870373</v>
+        <v>45910.356319444443</v>
       </c>
       <c r="D79" s="2">
-        <v>45916.204282407409</v>
+        <v>45911.500925925924</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79">
@@ -2020,16 +2032,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C80" s="2">
-        <v>45919.064259259256</v>
+        <v>45917.046249999999</v>
       </c>
       <c r="D80" s="2">
-        <v>45920.216261574074</v>
+        <v>45918.227696759262</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80">
@@ -2038,16 +2050,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2">
-        <v>45917.862303240741</v>
+        <v>45914.011388888888</v>
       </c>
       <c r="D81" s="2">
-        <v>45919.004907407405</v>
+        <v>45915.187569444446</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
@@ -2056,16 +2068,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C82" s="2">
-        <v>45914.060752314814</v>
+        <v>45915.035682870373</v>
       </c>
       <c r="D82" s="2">
-        <v>45915.225474537037</v>
+        <v>45916.204282407409</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
@@ -2074,52 +2086,52 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2">
-        <v>45912.041076388887</v>
+        <v>45919.064259259256</v>
       </c>
       <c r="D83" s="2">
-        <v>45913.145925925928</v>
+        <v>45920.216261574074</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
         <v>44</v>
       </c>
       <c r="C84" s="2">
-        <v>45915.075706018521</v>
+        <v>45917.862303240741</v>
       </c>
       <c r="D84" s="2">
-        <v>45916.188900462963</v>
+        <v>45919.004907407405</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C85" s="2">
-        <v>45913.579629629632</v>
+        <v>45919.362210648149</v>
       </c>
       <c r="D85" s="2">
-        <v>45914.686932870369</v>
+        <v>45920.481516203705</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85">
@@ -2128,16 +2140,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C86" s="2">
-        <v>45914.151493055557</v>
+        <v>45913.042430555557</v>
       </c>
       <c r="D86" s="2">
-        <v>45915.287997685184</v>
+        <v>45914.200810185182</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
@@ -2164,16 +2176,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C88" s="2">
-        <v>45911.012094907404</v>
+        <v>45915.075706018521</v>
       </c>
       <c r="D88" s="2">
-        <v>45912.137696759259</v>
+        <v>45916.188900462963</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
@@ -2182,16 +2194,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C89" s="2">
-        <v>45913.042430555557</v>
+        <v>45912.041076388887</v>
       </c>
       <c r="D89" s="2">
-        <v>45914.200810185182</v>
+        <v>45913.145925925928</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89">
@@ -2200,124 +2212,124 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C90" s="2">
-        <v>45913.064467592594</v>
+        <v>45913.579629629632</v>
       </c>
       <c r="D90" s="2">
-        <v>45914.140983796293</v>
+        <v>45914.686932870369</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2">
-        <v>45919.267326388886</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45914.151493055557</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45915.287997685184</v>
+      </c>
+      <c r="E91" s="2"/>
       <c r="F91">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C92" s="2">
-        <v>45911.684641203705</v>
+        <v>45911.012094907404</v>
       </c>
       <c r="D92" s="2">
-        <v>45912.726527777777</v>
+        <v>45912.137696759259</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C93" s="2">
-        <v>45919.067708333336</v>
-      </c>
-      <c r="D93" s="2">
-        <v>45920.088587962964</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>45919.528935185182</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F93">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C94" s="2">
-        <v>45915.475578703707</v>
+        <v>45919.351388888892</v>
       </c>
       <c r="D94" s="2">
-        <v>45916.538958333331</v>
+        <v>45920.447187500002</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C95" s="2">
-        <v>45917.244652777779</v>
+        <v>45913.064467592594</v>
       </c>
       <c r="D95" s="2">
-        <v>45918.285451388889</v>
+        <v>45914.140983796293</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2">
-        <v>45911.994386574072</v>
+        <v>45911.244166666664</v>
       </c>
       <c r="D96" s="2">
-        <v>45913.008622685185</v>
+        <v>45912.265601851854</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
@@ -2326,16 +2338,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2">
-        <v>45918.199444444443</v>
+        <v>45911.504976851851</v>
       </c>
       <c r="D97" s="2">
-        <v>45919.209988425922</v>
+        <v>45912.543333333335</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97">
@@ -2344,16 +2356,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C98" s="2">
-        <v>45912.043020833335</v>
+        <v>45915.525405092594</v>
       </c>
       <c r="D98" s="2">
-        <v>45913.113923611112</v>
+        <v>45916.54210648148</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
@@ -2362,70 +2374,70 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2">
-        <v>45919.2965625</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45919.499756944446</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45920.505324074074</v>
+      </c>
+      <c r="E99" s="2"/>
       <c r="F99">
         <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C100" s="2">
-        <v>45915.055277777778</v>
-      </c>
-      <c r="D100" s="2">
-        <v>45916.095949074072</v>
-      </c>
-      <c r="E100" s="2"/>
+        <v>45919.605023148149</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F100">
         <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C101" s="2">
-        <v>45915.483831018515</v>
-      </c>
-      <c r="D101" s="2">
-        <v>45916.511701388888</v>
-      </c>
-      <c r="E101" s="2"/>
+        <v>45919.589224537034</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F101">
         <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C102" s="2">
-        <v>45914.036979166667</v>
+        <v>45919.472337962965</v>
       </c>
       <c r="D102" s="2">
-        <v>45915.079004629632</v>
+        <v>45920.537222222221</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102">
@@ -2434,16 +2446,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C103" s="2">
-        <v>45919.036516203705</v>
+        <v>45913.021006944444</v>
       </c>
       <c r="D103" s="2">
-        <v>45920.041701388887</v>
+        <v>45914.078969907408</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
@@ -2452,16 +2464,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2">
-        <v>45910.196134259262</v>
+        <v>45915.475578703707</v>
       </c>
       <c r="D104" s="2">
-        <v>45911.248784722222</v>
+        <v>45916.538958333331</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104">
@@ -2470,16 +2482,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C105" s="2">
-        <v>45913.021006944444</v>
+        <v>45911.994386574072</v>
       </c>
       <c r="D105" s="2">
-        <v>45914.078969907408</v>
+        <v>45913.008622685185</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
@@ -2488,16 +2500,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C106" s="2">
-        <v>45911.244166666664</v>
+        <v>45918.199444444443</v>
       </c>
       <c r="D106" s="2">
-        <v>45912.265601851854</v>
+        <v>45919.209988425922</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
@@ -2506,16 +2518,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C107" s="2">
-        <v>45911.504976851851</v>
+        <v>45912.043020833335</v>
       </c>
       <c r="D107" s="2">
-        <v>45912.543333333335</v>
+        <v>45913.113923611112</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
@@ -2524,16 +2536,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C108" s="2">
-        <v>45915.525405092594</v>
+        <v>45911.684641203705</v>
       </c>
       <c r="D108" s="2">
-        <v>45916.54210648148</v>
+        <v>45912.726527777777</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
@@ -2545,17 +2557,17 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C109" s="2">
-        <v>45917.243622685186</v>
+        <v>45919.067708333336</v>
       </c>
       <c r="D109" s="2">
-        <v>45918.209560185183</v>
+        <v>45920.088587962964</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
@@ -2563,17 +2575,17 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C110" s="2">
-        <v>45913.701620370368</v>
+        <v>45917.244652777779</v>
       </c>
       <c r="D110" s="2">
-        <v>45914.694907407407</v>
+        <v>45918.285451388889</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
@@ -2581,17 +2593,17 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C111" s="2">
-        <v>45915.220127314817</v>
+        <v>45915.055277777778</v>
       </c>
       <c r="D111" s="2">
-        <v>45916.216979166667</v>
+        <v>45916.095949074072</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
@@ -2599,85 +2611,85 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C112" s="2">
-        <v>45917.543113425927</v>
+        <v>45915.483831018515</v>
       </c>
       <c r="D112" s="2">
-        <v>45918.545127314814</v>
+        <v>45916.511701388888</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C113" s="2">
-        <v>45910.041087962964</v>
+        <v>45914.036979166667</v>
       </c>
       <c r="D113" s="2">
-        <v>45911.026550925926</v>
+        <v>45915.079004629632</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C114" s="2">
-        <v>45919.033101851855</v>
+        <v>45919.036516203705</v>
       </c>
       <c r="D114" s="2">
-        <v>45920.037638888891</v>
+        <v>45920.041701388887</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C115" s="2">
-        <v>45915.020277777781</v>
+        <v>45910.196134259262</v>
       </c>
       <c r="D115" s="2">
-        <v>45916.002210648148</v>
+        <v>45911.248784722222</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C116" s="2">
-        <v>45913.029675925929</v>
+        <v>45919.566770833335</v>
       </c>
       <c r="D116" s="2">
-        <v>45914.000960648147</v>
+        <v>45920.544930555552</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
@@ -2686,16 +2698,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C117" s="2">
-        <v>45919.028819444444</v>
+        <v>45912.242094907408</v>
       </c>
       <c r="D117" s="2">
-        <v>45920.000590277778</v>
+        <v>45913.231030092589</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117">
@@ -2704,16 +2716,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B118" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C118" s="2">
-        <v>45913.030231481483</v>
+        <v>45913.530856481484</v>
       </c>
       <c r="D118" s="2">
-        <v>45914.003888888888</v>
+        <v>45914.507928240739</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118">
@@ -2722,16 +2734,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C119" s="2">
-        <v>45918.378263888888</v>
+        <v>45914.043333333335</v>
       </c>
       <c r="D119" s="2">
-        <v>45919.401689814818</v>
+        <v>45915.064780092594</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
@@ -2740,16 +2752,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C120" s="2">
-        <v>45918.039143518516</v>
+        <v>45914.019074074073</v>
       </c>
       <c r="D120" s="2">
-        <v>45919.000752314816</v>
+        <v>45915.000347222223</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120">
@@ -2758,16 +2770,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C121" s="2">
-        <v>45915.572175925925</v>
+        <v>45917.562847222223</v>
       </c>
       <c r="D121" s="2">
-        <v>45916.543171296296</v>
+        <v>45918.543981481482</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
@@ -2776,16 +2788,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C122" s="2">
-        <v>45910.584328703706</v>
+        <v>45915.540833333333</v>
       </c>
       <c r="D122" s="2">
-        <v>45911.616053240738</v>
+        <v>45916.513043981482</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122">
@@ -2794,16 +2806,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C123" s="2">
-        <v>45919.277962962966</v>
+        <v>45915.55263888889</v>
       </c>
       <c r="D123" s="2">
-        <v>45920.264999999999</v>
+        <v>45916.542962962965</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123">
@@ -2812,34 +2824,34 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C124" s="2">
-        <v>45916.019108796296</v>
-      </c>
-      <c r="D124" s="2">
-        <v>45917.00277777778</v>
-      </c>
-      <c r="E124" s="2"/>
+        <v>45919.638368055559</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F124">
         <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C125" s="2">
-        <v>45916.579988425925</v>
+        <v>45910.510555555556</v>
       </c>
       <c r="D125" s="2">
-        <v>45917.561284722222</v>
+        <v>45911.524016203701</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
@@ -2848,16 +2860,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C126" s="2">
-        <v>45911.556932870371</v>
+        <v>45913.030231481483</v>
       </c>
       <c r="D126" s="2">
-        <v>45912.543055555558</v>
+        <v>45914.003888888888</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126">
@@ -2866,16 +2878,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C127" s="2">
-        <v>45912.03328703704</v>
+        <v>45917.543113425927</v>
       </c>
       <c r="D127" s="2">
-        <v>45913.003379629627</v>
+        <v>45918.545127314814</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127">
@@ -2884,16 +2896,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C128" s="2">
-        <v>45913.032546296294</v>
+        <v>45910.584328703706</v>
       </c>
       <c r="D128" s="2">
-        <v>45914.002326388887</v>
+        <v>45911.616053240738</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128">
@@ -2902,16 +2914,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C129" s="2">
-        <v>45910.02920138889</v>
+        <v>45915.020277777781</v>
       </c>
       <c r="D129" s="2">
-        <v>45911.005185185182</v>
+        <v>45916.002210648148</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129">
@@ -2920,16 +2932,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C130" s="2">
-        <v>45911.034571759257</v>
+        <v>45918.378263888888</v>
       </c>
       <c r="D130" s="2">
-        <v>45912.001400462963</v>
+        <v>45919.401689814818</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
@@ -2938,16 +2950,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C131" s="2">
-        <v>45914.0625</v>
+        <v>45917.243622685186</v>
       </c>
       <c r="D131" s="2">
-        <v>45915.059525462966</v>
+        <v>45918.209560185183</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
@@ -2956,16 +2968,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C132" s="2">
-        <v>45919.031469907408</v>
+        <v>45915.572175925925</v>
       </c>
       <c r="D132" s="2">
-        <v>45920.003437500003</v>
+        <v>45916.543171296296</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132">
@@ -2974,16 +2986,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2">
-        <v>45915.55263888889</v>
+        <v>45913.701620370368</v>
       </c>
       <c r="D133" s="2">
-        <v>45916.542962962965</v>
+        <v>45914.694907407407</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133">
@@ -2992,16 +3004,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C134" s="2">
-        <v>45914.043333333335</v>
+        <v>45915.220127314817</v>
       </c>
       <c r="D134" s="2">
-        <v>45915.064780092594</v>
+        <v>45916.216979166667</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134">
@@ -3010,16 +3022,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C135" s="2">
-        <v>45915.540833333333</v>
+        <v>45910.041087962964</v>
       </c>
       <c r="D135" s="2">
-        <v>45916.513043981482</v>
+        <v>45911.026550925926</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135">
@@ -3028,16 +3040,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C136" s="2">
-        <v>45914.019074074073</v>
+        <v>45919.033101851855</v>
       </c>
       <c r="D136" s="2">
-        <v>45915.000347222223</v>
+        <v>45920.037638888891</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136">
@@ -3046,16 +3058,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C137" s="2">
-        <v>45917.562847222223</v>
+        <v>45913.029675925929</v>
       </c>
       <c r="D137" s="2">
-        <v>45918.543981481482</v>
+        <v>45914.000960648147</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137">
@@ -3064,16 +3076,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C138" s="2">
-        <v>45910.510555555556</v>
+        <v>45919.028819444444</v>
       </c>
       <c r="D138" s="2">
-        <v>45911.524016203701</v>
+        <v>45920.000590277778</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138">
@@ -3082,16 +3094,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C139" s="2">
-        <v>45912.242094907408</v>
+        <v>45918.039143518516</v>
       </c>
       <c r="D139" s="2">
-        <v>45913.231030092589</v>
+        <v>45919.000752314816</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139">
@@ -3100,16 +3112,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C140" s="2">
-        <v>45913.530856481484</v>
+        <v>45916.019108796296</v>
       </c>
       <c r="D140" s="2">
-        <v>45914.507928240739</v>
+        <v>45917.00277777778</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140">
@@ -3118,37 +3130,163 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C141" s="2">
-        <v>45919.362210648149</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45910.02920138889</v>
+      </c>
+      <c r="D141" s="2">
+        <v>45911.005185185182</v>
+      </c>
+      <c r="E141" s="2"/>
       <c r="F141">
         <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C142" s="2">
-        <v>45919.351388888892</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45911.034571759257</v>
+      </c>
+      <c r="D142" s="2">
+        <v>45912.001400462963</v>
+      </c>
+      <c r="E142" s="2"/>
       <c r="F142">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143" s="2">
+        <v>45914.0625</v>
+      </c>
+      <c r="D143" s="2">
+        <v>45915.059525462966</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="2">
+        <v>45919.277962962966</v>
+      </c>
+      <c r="D144" s="2">
+        <v>45920.264999999999</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45911.556932870371</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45912.543055555558</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45916.579988425925</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45917.561284722222</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45912.03328703704</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45913.003379629627</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45913.032546296294</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45914.002326388887</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" s="2">
+        <v>45919.031469907408</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45920.003437500003</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -593,7 +593,7 @@
   <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="71">
   <si>
     <t>电站名称</t>
   </si>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>011A号直流</t>
+  </si>
+  <si>
+    <t>307号直流</t>
+  </si>
+  <si>
+    <t>207号直流</t>
+  </si>
+  <si>
+    <t>208号直流</t>
+  </si>
+  <si>
+    <t>308号直流</t>
   </si>
 </sst>
 </file>
@@ -578,21 +590,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="31.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -626,10 +630,10 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>45920.341481481482</v>
+        <v>45920.649699074071</v>
       </c>
       <c r="F2">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -644,46 +648,46 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>45920.341481481482</v>
+        <v>45920.649699074071</v>
       </c>
       <c r="F3">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>45911.52857638889</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45915.503275462965</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>45916.534282407411</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F4">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2">
-        <v>45916.534282407411</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45911.52857638889</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45915.503275462965</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -706,20 +710,20 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
-        <v>45913.052685185183</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45916.265127314815</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>45917.258240740739</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F7">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -732,30 +736,30 @@
       <c r="C8" s="2">
         <v>45917.260844907411</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>45920.341481481482</v>
-      </c>
+      <c r="D8" s="2">
+        <v>45920.502418981479</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
-        <v>45917.258240740739</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45913.052685185183</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45916.265127314815</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -835,17 +839,17 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2">
-        <v>45913.006967592592</v>
+        <v>45918.06113425926</v>
       </c>
       <c r="D14" s="2">
-        <v>45915.473703703705</v>
+        <v>45920.554386574076</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -853,17 +857,17 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>45918.06113425926</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45913.006967592592</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45915.473703703705</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -886,38 +890,38 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>45910.355798611112</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45912.393368055556</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>45918.557500000003</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F17">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2">
-        <v>45911.040381944447</v>
+        <v>45910.355798611112</v>
       </c>
       <c r="D18" s="2">
-        <v>45913.023263888892</v>
+        <v>45912.393368055556</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -925,17 +929,17 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2">
-        <v>45912.060983796298</v>
+        <v>45918.603634259256</v>
       </c>
       <c r="D19" s="2">
-        <v>45914.012141203704</v>
+        <v>45920.611122685186</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -943,31 +947,31 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
-        <v>45915.583414351851</v>
+        <v>45911.040381944447</v>
       </c>
       <c r="D20" s="2">
-        <v>45917.582627314812</v>
+        <v>45913.023263888892</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2">
-        <v>45910.5781712963</v>
+        <v>45910.561724537038</v>
       </c>
       <c r="D21" s="2">
-        <v>45912.528969907406</v>
+        <v>45912.509375000001</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
@@ -976,16 +980,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2">
-        <v>45910.561724537038</v>
+        <v>45912.060983796298</v>
       </c>
       <c r="D22" s="2">
-        <v>45912.509375000001</v>
+        <v>45914.012141203704</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
@@ -994,70 +998,70 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2">
-        <v>45914.560046296298</v>
+        <v>45915.583414351851</v>
       </c>
       <c r="D23" s="2">
-        <v>45916.478472222225</v>
+        <v>45917.582627314812</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>45911.646747685183</v>
+        <v>45910.5781712963</v>
       </c>
       <c r="D24" s="2">
-        <v>45913.523923611108</v>
+        <v>45912.528969907406</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2">
-        <v>45911.562384259261</v>
+        <v>45914.560046296298</v>
       </c>
       <c r="D25" s="2">
-        <v>45913.435532407406</v>
+        <v>45916.478472222225</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2">
-        <v>45917.638888888891</v>
+        <v>45917.219965277778</v>
       </c>
       <c r="D26" s="2">
-        <v>45919.518240740741</v>
+        <v>45919.087418981479</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
@@ -1066,16 +1070,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2">
-        <v>45917.219965277778</v>
+        <v>45911.646747685183</v>
       </c>
       <c r="D27" s="2">
-        <v>45919.087418981479</v>
+        <v>45913.523923611108</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
@@ -1087,35 +1091,35 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2">
-        <v>45917.200092592589</v>
+        <v>45911.562384259261</v>
       </c>
       <c r="D28" s="2">
-        <v>45918.990624999999</v>
+        <v>45913.435532407406</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>45915.231793981482</v>
+        <v>45917.638888888891</v>
       </c>
       <c r="D29" s="2">
-        <v>45917.019432870373</v>
+        <v>45919.518240740741</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1138,18 +1142,18 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2">
-        <v>45918.557500000003</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45915.231793981482</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45917.019432870373</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31">
         <v>43</v>
       </c>
@@ -1159,31 +1163,31 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2">
-        <v>45918.603634259256</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45917.200092592589</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45918.990624999999</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2">
-        <v>45913.23265046296</v>
+        <v>45913.76421296296</v>
       </c>
       <c r="D33" s="2">
-        <v>45914.981087962966</v>
+        <v>45915.539942129632</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
@@ -1192,16 +1196,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C34" s="2">
-        <v>45913.76421296296</v>
+        <v>45913.23265046296</v>
       </c>
       <c r="D34" s="2">
-        <v>45915.539942129632</v>
+        <v>45914.981087962966</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
@@ -1246,36 +1250,36 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2">
-        <v>45911.531018518515</v>
+        <v>45918.673472222225</v>
       </c>
       <c r="D37" s="2">
-        <v>45913.206875000003</v>
+        <v>45920.394062500003</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2">
-        <v>45918.673472222225</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45911.531018518515</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45913.206875000003</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38">
         <v>40</v>
       </c>
@@ -1285,17 +1289,17 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45915.111643518518</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45916.694467592592</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39">
         <v>38</v>
-      </c>
-      <c r="C39" s="2">
-        <v>45918.715682870374</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2">
-        <v>45920.341481481482</v>
-      </c>
-      <c r="F39">
-        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1303,13 +1307,13 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2">
-        <v>45915.111643518518</v>
+        <v>45918.715682870374</v>
       </c>
       <c r="D40" s="2">
-        <v>45916.694467592592</v>
+        <v>45920.332812499997</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
@@ -1321,17 +1325,17 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C41" s="2">
-        <v>45914.486261574071</v>
-      </c>
-      <c r="D41" s="2">
-        <v>45916.002962962964</v>
-      </c>
-      <c r="E41" s="2"/>
+        <v>45919.051585648151</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F41">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1339,31 +1343,31 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2">
-        <v>45910.534502314818</v>
+        <v>45914.486261574071</v>
       </c>
       <c r="D42" s="2">
-        <v>45912.012048611112</v>
+        <v>45916.002962962964</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2">
-        <v>45916.051249999997</v>
+        <v>45918.526932870373</v>
       </c>
       <c r="D43" s="2">
-        <v>45917.567256944443</v>
+        <v>45920.000578703701</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
@@ -1372,16 +1376,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2">
-        <v>45915.061967592592</v>
+        <v>45918.539907407408</v>
       </c>
       <c r="D44" s="2">
-        <v>45916.546516203707</v>
+        <v>45920.001921296294</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
@@ -1390,16 +1394,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2">
-        <v>45915.025833333333</v>
+        <v>45910.534502314818</v>
       </c>
       <c r="D45" s="2">
-        <v>45916.511203703703</v>
+        <v>45912.012048611112</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
@@ -1408,16 +1412,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C46" s="2">
-        <v>45918.539907407408</v>
+        <v>45916.051249999997</v>
       </c>
       <c r="D46" s="2">
-        <v>45920.001921296294</v>
+        <v>45917.567256944443</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
@@ -1426,16 +1430,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C47" s="2">
-        <v>45918.526932870373</v>
+        <v>45915.061967592592</v>
       </c>
       <c r="D47" s="2">
-        <v>45920.000578703701</v>
+        <v>45916.546516203707</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
@@ -1444,20 +1448,20 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2">
-        <v>45913.717233796298</v>
+        <v>45915.025833333333</v>
       </c>
       <c r="D48" s="2">
-        <v>45915.203182870369</v>
+        <v>45916.511203703703</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -1465,13 +1469,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2">
-        <v>45913.566805555558</v>
+        <v>45918.54587962963</v>
       </c>
       <c r="D49" s="2">
-        <v>45915.004942129628</v>
+        <v>45920.000509259262</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
@@ -1483,13 +1487,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C50" s="2">
-        <v>45918.54587962963</v>
+        <v>45913.717233796298</v>
       </c>
       <c r="D50" s="2">
-        <v>45920.000509259262</v>
+        <v>45915.203182870369</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
@@ -1501,13 +1505,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2">
-        <v>45917.128229166665</v>
+        <v>45913.566805555558</v>
       </c>
       <c r="D51" s="2">
-        <v>45918.609236111108</v>
+        <v>45915.004942129628</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
@@ -1516,16 +1520,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C52" s="2">
-        <v>45912.567314814813</v>
+        <v>45917.128229166665</v>
       </c>
       <c r="D52" s="2">
-        <v>45914.04074074074</v>
+        <v>45918.609236111108</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
@@ -1534,34 +1538,34 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2">
-        <v>45916.059074074074</v>
+        <v>45912.567314814813</v>
       </c>
       <c r="D53" s="2">
-        <v>45917.468865740739</v>
+        <v>45914.04074074074</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C54" s="2">
-        <v>45916.623356481483</v>
+        <v>45914.050219907411</v>
       </c>
       <c r="D54" s="2">
-        <v>45918.0237037037</v>
+        <v>45915.466817129629</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
@@ -1573,13 +1577,13 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C55" s="2">
-        <v>45917.589189814818</v>
+        <v>45915.541979166665</v>
       </c>
       <c r="D55" s="2">
-        <v>45919.000393518516</v>
+        <v>45916.988449074073</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
@@ -1591,13 +1595,13 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C56" s="2">
-        <v>45915.541979166665</v>
+        <v>45916.059074074074</v>
       </c>
       <c r="D56" s="2">
-        <v>45916.988449074073</v>
+        <v>45917.468865740739</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
@@ -1606,16 +1610,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C57" s="2">
-        <v>45914.050219907411</v>
+        <v>45916.623356481483</v>
       </c>
       <c r="D57" s="2">
-        <v>45915.466817129629</v>
+        <v>45918.0237037037</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57">
@@ -1624,38 +1628,38 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C58" s="2">
-        <v>45912.627604166664</v>
+        <v>45917.589189814818</v>
       </c>
       <c r="D58" s="2">
-        <v>45914.005208333336</v>
+        <v>45919.000393518516</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2">
-        <v>45910.054398148146</v>
+        <v>45912.627604166664</v>
       </c>
       <c r="D59" s="2">
-        <v>45911.384293981479</v>
+        <v>45914.005208333336</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -1663,17 +1667,17 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2">
-        <v>45915.259062500001</v>
+        <v>45910.054398148146</v>
       </c>
       <c r="D60" s="2">
-        <v>45916.545428240737</v>
+        <v>45911.384293981479</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -1681,17 +1685,17 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2">
-        <v>45917.051562499997</v>
-      </c>
-      <c r="D61" s="2">
-        <v>45918.348865740743</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>45919.2965625</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F61">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -1699,13 +1703,13 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C62" s="2">
-        <v>45916.531759259262</v>
+        <v>45910.247546296298</v>
       </c>
       <c r="D62" s="2">
-        <v>45917.797986111109</v>
+        <v>45911.529826388891</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
@@ -1717,15 +1721,15 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C63" s="2">
-        <v>45919.051585648151</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45915.259062500001</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45916.545428240737</v>
+      </c>
+      <c r="E63" s="2"/>
       <c r="F63">
         <v>31</v>
       </c>
@@ -1735,13 +1739,13 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C64" s="2">
-        <v>45910.247546296298</v>
+        <v>45917.051562499997</v>
       </c>
       <c r="D64" s="2">
-        <v>45911.529826388891</v>
+        <v>45918.348865740743</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
@@ -1750,16 +1754,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C65" s="2">
-        <v>45918.712372685186</v>
+        <v>45916.531759259262</v>
       </c>
       <c r="D65" s="2">
-        <v>45920.004004629627</v>
+        <v>45917.797986111109</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
@@ -1768,34 +1772,34 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2">
-        <v>45917.038738425923</v>
+        <v>45918.712372685186</v>
       </c>
       <c r="D66" s="2">
-        <v>45918.261030092595</v>
+        <v>45920.004004629627</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C67" s="2">
-        <v>45918.264537037037</v>
+        <v>45919.267326388886</v>
       </c>
       <c r="D67" s="2">
-        <v>45919.504305555558</v>
+        <v>45920.507592592592</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
@@ -1807,13 +1811,13 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C68" s="2">
-        <v>45918.257824074077</v>
+        <v>45918.264537037037</v>
       </c>
       <c r="D68" s="2">
-        <v>45919.535219907404</v>
+        <v>45919.504305555558</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
@@ -1825,17 +1829,17 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C69" s="2">
-        <v>45913.050844907404</v>
+        <v>45917.038738425923</v>
       </c>
       <c r="D69" s="2">
-        <v>45914.284895833334</v>
+        <v>45918.261030092595</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -1843,31 +1847,31 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C70" s="2">
-        <v>45915.250428240739</v>
+        <v>45918.257824074077</v>
       </c>
       <c r="D70" s="2">
-        <v>45916.492291666669</v>
+        <v>45919.535219907404</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2">
-        <v>45910.067824074074</v>
+        <v>45914.304675925923</v>
       </c>
       <c r="D71" s="2">
-        <v>45911.284560185188</v>
+        <v>45915.505648148152</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
@@ -1876,16 +1880,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2">
-        <v>45914.064189814817</v>
+        <v>45916.350173611114</v>
       </c>
       <c r="D72" s="2">
-        <v>45915.274594907409</v>
+        <v>45917.544189814813</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72">
@@ -1912,16 +1916,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2">
-        <v>45914.304675925923</v>
+        <v>45915.250428240739</v>
       </c>
       <c r="D74" s="2">
-        <v>45915.505648148152</v>
+        <v>45916.492291666669</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74">
@@ -1930,16 +1934,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2">
-        <v>45916.350173611114</v>
+        <v>45913.050844907404</v>
       </c>
       <c r="D75" s="2">
-        <v>45917.544189814813</v>
+        <v>45914.284895833334</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
@@ -1951,49 +1955,49 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C76" s="2">
-        <v>45910.356319444443</v>
+        <v>45910.067824074074</v>
       </c>
       <c r="D76" s="2">
-        <v>45911.500925925924</v>
+        <v>45911.284560185188</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C77" s="2">
-        <v>45917.046249999999</v>
+        <v>45914.064189814817</v>
       </c>
       <c r="D77" s="2">
-        <v>45918.227696759262</v>
+        <v>45915.274594907409</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C78" s="2">
-        <v>45914.011388888888</v>
+        <v>45914.060752314814</v>
       </c>
       <c r="D78" s="2">
-        <v>45915.187569444446</v>
+        <v>45915.225474537037</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
@@ -2005,13 +2009,13 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C79" s="2">
-        <v>45915.035682870373</v>
+        <v>45910.356319444443</v>
       </c>
       <c r="D79" s="2">
-        <v>45916.204282407409</v>
+        <v>45911.500925925924</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79">
@@ -2020,16 +2024,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C80" s="2">
-        <v>45919.064259259256</v>
+        <v>45917.046249999999</v>
       </c>
       <c r="D80" s="2">
-        <v>45920.216261574074</v>
+        <v>45918.227696759262</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80">
@@ -2038,16 +2042,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2">
-        <v>45917.862303240741</v>
+        <v>45914.011388888888</v>
       </c>
       <c r="D81" s="2">
-        <v>45919.004907407405</v>
+        <v>45915.187569444446</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
@@ -2056,16 +2060,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C82" s="2">
-        <v>45914.060752314814</v>
+        <v>45915.035682870373</v>
       </c>
       <c r="D82" s="2">
-        <v>45915.225474537037</v>
+        <v>45916.204282407409</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
@@ -2074,52 +2078,52 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2">
-        <v>45912.041076388887</v>
+        <v>45919.064259259256</v>
       </c>
       <c r="D83" s="2">
-        <v>45913.145925925928</v>
+        <v>45920.216261574074</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
         <v>44</v>
       </c>
       <c r="C84" s="2">
-        <v>45915.075706018521</v>
+        <v>45917.862303240741</v>
       </c>
       <c r="D84" s="2">
-        <v>45916.188900462963</v>
+        <v>45919.004907407405</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C85" s="2">
-        <v>45913.579629629632</v>
+        <v>45919.362210648149</v>
       </c>
       <c r="D85" s="2">
-        <v>45914.686932870369</v>
+        <v>45920.481516203705</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85">
@@ -2128,16 +2132,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C86" s="2">
-        <v>45914.151493055557</v>
+        <v>45913.042430555557</v>
       </c>
       <c r="D86" s="2">
-        <v>45915.287997685184</v>
+        <v>45914.200810185182</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
@@ -2164,16 +2168,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C88" s="2">
-        <v>45911.012094907404</v>
+        <v>45915.075706018521</v>
       </c>
       <c r="D88" s="2">
-        <v>45912.137696759259</v>
+        <v>45916.188900462963</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
@@ -2182,16 +2186,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C89" s="2">
-        <v>45913.042430555557</v>
+        <v>45912.041076388887</v>
       </c>
       <c r="D89" s="2">
-        <v>45914.200810185182</v>
+        <v>45913.145925925928</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89">
@@ -2200,124 +2204,124 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C90" s="2">
-        <v>45913.064467592594</v>
+        <v>45913.579629629632</v>
       </c>
       <c r="D90" s="2">
-        <v>45914.140983796293</v>
+        <v>45914.686932870369</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2">
-        <v>45919.267326388886</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45914.151493055557</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45915.287997685184</v>
+      </c>
+      <c r="E91" s="2"/>
       <c r="F91">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C92" s="2">
-        <v>45911.684641203705</v>
+        <v>45911.012094907404</v>
       </c>
       <c r="D92" s="2">
-        <v>45912.726527777777</v>
+        <v>45912.137696759259</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C93" s="2">
-        <v>45919.067708333336</v>
-      </c>
-      <c r="D93" s="2">
-        <v>45920.088587962964</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>45919.528935185182</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F93">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C94" s="2">
-        <v>45915.475578703707</v>
+        <v>45919.351388888892</v>
       </c>
       <c r="D94" s="2">
-        <v>45916.538958333331</v>
+        <v>45920.447187500002</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C95" s="2">
-        <v>45917.244652777779</v>
+        <v>45913.064467592594</v>
       </c>
       <c r="D95" s="2">
-        <v>45918.285451388889</v>
+        <v>45914.140983796293</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2">
-        <v>45911.994386574072</v>
+        <v>45911.244166666664</v>
       </c>
       <c r="D96" s="2">
-        <v>45913.008622685185</v>
+        <v>45912.265601851854</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
@@ -2326,16 +2330,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2">
-        <v>45918.199444444443</v>
+        <v>45911.504976851851</v>
       </c>
       <c r="D97" s="2">
-        <v>45919.209988425922</v>
+        <v>45912.543333333335</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97">
@@ -2344,16 +2348,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C98" s="2">
-        <v>45912.043020833335</v>
+        <v>45915.525405092594</v>
       </c>
       <c r="D98" s="2">
-        <v>45913.113923611112</v>
+        <v>45916.54210648148</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
@@ -2362,70 +2366,70 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2">
-        <v>45919.2965625</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45919.499756944446</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45920.505324074074</v>
+      </c>
+      <c r="E99" s="2"/>
       <c r="F99">
         <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C100" s="2">
-        <v>45915.055277777778</v>
-      </c>
-      <c r="D100" s="2">
-        <v>45916.095949074072</v>
-      </c>
-      <c r="E100" s="2"/>
+        <v>45919.605023148149</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F100">
         <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C101" s="2">
-        <v>45915.483831018515</v>
-      </c>
-      <c r="D101" s="2">
-        <v>45916.511701388888</v>
-      </c>
-      <c r="E101" s="2"/>
+        <v>45919.589224537034</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F101">
         <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C102" s="2">
-        <v>45914.036979166667</v>
+        <v>45919.472337962965</v>
       </c>
       <c r="D102" s="2">
-        <v>45915.079004629632</v>
+        <v>45920.537222222221</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102">
@@ -2434,16 +2438,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C103" s="2">
-        <v>45919.036516203705</v>
+        <v>45913.021006944444</v>
       </c>
       <c r="D103" s="2">
-        <v>45920.041701388887</v>
+        <v>45914.078969907408</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
@@ -2452,16 +2456,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2">
-        <v>45910.196134259262</v>
+        <v>45915.475578703707</v>
       </c>
       <c r="D104" s="2">
-        <v>45911.248784722222</v>
+        <v>45916.538958333331</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104">
@@ -2470,16 +2474,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C105" s="2">
-        <v>45913.021006944444</v>
+        <v>45911.994386574072</v>
       </c>
       <c r="D105" s="2">
-        <v>45914.078969907408</v>
+        <v>45913.008622685185</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
@@ -2488,16 +2492,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C106" s="2">
-        <v>45911.244166666664</v>
+        <v>45918.199444444443</v>
       </c>
       <c r="D106" s="2">
-        <v>45912.265601851854</v>
+        <v>45919.209988425922</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
@@ -2506,16 +2510,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C107" s="2">
-        <v>45911.504976851851</v>
+        <v>45912.043020833335</v>
       </c>
       <c r="D107" s="2">
-        <v>45912.543333333335</v>
+        <v>45913.113923611112</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
@@ -2524,16 +2528,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C108" s="2">
-        <v>45915.525405092594</v>
+        <v>45911.684641203705</v>
       </c>
       <c r="D108" s="2">
-        <v>45916.54210648148</v>
+        <v>45912.726527777777</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
@@ -2545,17 +2549,17 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C109" s="2">
-        <v>45917.243622685186</v>
+        <v>45919.067708333336</v>
       </c>
       <c r="D109" s="2">
-        <v>45918.209560185183</v>
+        <v>45920.088587962964</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
@@ -2563,17 +2567,17 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C110" s="2">
-        <v>45913.701620370368</v>
+        <v>45917.244652777779</v>
       </c>
       <c r="D110" s="2">
-        <v>45914.694907407407</v>
+        <v>45918.285451388889</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
@@ -2581,17 +2585,17 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C111" s="2">
-        <v>45915.220127314817</v>
+        <v>45915.055277777778</v>
       </c>
       <c r="D111" s="2">
-        <v>45916.216979166667</v>
+        <v>45916.095949074072</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
@@ -2599,85 +2603,85 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C112" s="2">
-        <v>45917.543113425927</v>
+        <v>45915.483831018515</v>
       </c>
       <c r="D112" s="2">
-        <v>45918.545127314814</v>
+        <v>45916.511701388888</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C113" s="2">
-        <v>45910.041087962964</v>
+        <v>45914.036979166667</v>
       </c>
       <c r="D113" s="2">
-        <v>45911.026550925926</v>
+        <v>45915.079004629632</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C114" s="2">
-        <v>45919.033101851855</v>
+        <v>45919.036516203705</v>
       </c>
       <c r="D114" s="2">
-        <v>45920.037638888891</v>
+        <v>45920.041701388887</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C115" s="2">
-        <v>45915.020277777781</v>
+        <v>45910.196134259262</v>
       </c>
       <c r="D115" s="2">
-        <v>45916.002210648148</v>
+        <v>45911.248784722222</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C116" s="2">
-        <v>45913.029675925929</v>
+        <v>45919.566770833335</v>
       </c>
       <c r="D116" s="2">
-        <v>45914.000960648147</v>
+        <v>45920.544930555552</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
@@ -2686,16 +2690,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C117" s="2">
-        <v>45919.028819444444</v>
+        <v>45912.242094907408</v>
       </c>
       <c r="D117" s="2">
-        <v>45920.000590277778</v>
+        <v>45913.231030092589</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117">
@@ -2704,16 +2708,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B118" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C118" s="2">
-        <v>45913.030231481483</v>
+        <v>45913.530856481484</v>
       </c>
       <c r="D118" s="2">
-        <v>45914.003888888888</v>
+        <v>45914.507928240739</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118">
@@ -2722,16 +2726,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C119" s="2">
-        <v>45918.378263888888</v>
+        <v>45914.043333333335</v>
       </c>
       <c r="D119" s="2">
-        <v>45919.401689814818</v>
+        <v>45915.064780092594</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
@@ -2740,16 +2744,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C120" s="2">
-        <v>45918.039143518516</v>
+        <v>45914.019074074073</v>
       </c>
       <c r="D120" s="2">
-        <v>45919.000752314816</v>
+        <v>45915.000347222223</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120">
@@ -2758,16 +2762,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C121" s="2">
-        <v>45915.572175925925</v>
+        <v>45917.562847222223</v>
       </c>
       <c r="D121" s="2">
-        <v>45916.543171296296</v>
+        <v>45918.543981481482</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
@@ -2776,16 +2780,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C122" s="2">
-        <v>45910.584328703706</v>
+        <v>45915.540833333333</v>
       </c>
       <c r="D122" s="2">
-        <v>45911.616053240738</v>
+        <v>45916.513043981482</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122">
@@ -2794,16 +2798,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C123" s="2">
-        <v>45919.277962962966</v>
+        <v>45915.55263888889</v>
       </c>
       <c r="D123" s="2">
-        <v>45920.264999999999</v>
+        <v>45916.542962962965</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123">
@@ -2812,34 +2816,34 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C124" s="2">
-        <v>45916.019108796296</v>
-      </c>
-      <c r="D124" s="2">
-        <v>45917.00277777778</v>
-      </c>
-      <c r="E124" s="2"/>
+        <v>45919.638368055559</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2">
+        <v>45920.649699074071</v>
+      </c>
       <c r="F124">
         <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C125" s="2">
-        <v>45916.579988425925</v>
+        <v>45910.510555555556</v>
       </c>
       <c r="D125" s="2">
-        <v>45917.561284722222</v>
+        <v>45911.524016203701</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
@@ -2848,16 +2852,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C126" s="2">
-        <v>45911.556932870371</v>
+        <v>45913.030231481483</v>
       </c>
       <c r="D126" s="2">
-        <v>45912.543055555558</v>
+        <v>45914.003888888888</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126">
@@ -2866,16 +2870,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C127" s="2">
-        <v>45912.03328703704</v>
+        <v>45917.543113425927</v>
       </c>
       <c r="D127" s="2">
-        <v>45913.003379629627</v>
+        <v>45918.545127314814</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127">
@@ -2884,16 +2888,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C128" s="2">
-        <v>45913.032546296294</v>
+        <v>45910.584328703706</v>
       </c>
       <c r="D128" s="2">
-        <v>45914.002326388887</v>
+        <v>45911.616053240738</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128">
@@ -2902,16 +2906,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C129" s="2">
-        <v>45910.02920138889</v>
+        <v>45915.020277777781</v>
       </c>
       <c r="D129" s="2">
-        <v>45911.005185185182</v>
+        <v>45916.002210648148</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129">
@@ -2920,16 +2924,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C130" s="2">
-        <v>45911.034571759257</v>
+        <v>45918.378263888888</v>
       </c>
       <c r="D130" s="2">
-        <v>45912.001400462963</v>
+        <v>45919.401689814818</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
@@ -2938,16 +2942,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C131" s="2">
-        <v>45914.0625</v>
+        <v>45917.243622685186</v>
       </c>
       <c r="D131" s="2">
-        <v>45915.059525462966</v>
+        <v>45918.209560185183</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
@@ -2956,16 +2960,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C132" s="2">
-        <v>45919.031469907408</v>
+        <v>45915.572175925925</v>
       </c>
       <c r="D132" s="2">
-        <v>45920.003437500003</v>
+        <v>45916.543171296296</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132">
@@ -2974,16 +2978,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2">
-        <v>45915.55263888889</v>
+        <v>45913.701620370368</v>
       </c>
       <c r="D133" s="2">
-        <v>45916.542962962965</v>
+        <v>45914.694907407407</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133">
@@ -2992,16 +2996,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C134" s="2">
-        <v>45914.043333333335</v>
+        <v>45915.220127314817</v>
       </c>
       <c r="D134" s="2">
-        <v>45915.064780092594</v>
+        <v>45916.216979166667</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134">
@@ -3010,16 +3014,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C135" s="2">
-        <v>45915.540833333333</v>
+        <v>45910.041087962964</v>
       </c>
       <c r="D135" s="2">
-        <v>45916.513043981482</v>
+        <v>45911.026550925926</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135">
@@ -3028,16 +3032,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C136" s="2">
-        <v>45914.019074074073</v>
+        <v>45919.033101851855</v>
       </c>
       <c r="D136" s="2">
-        <v>45915.000347222223</v>
+        <v>45920.037638888891</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136">
@@ -3046,16 +3050,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C137" s="2">
-        <v>45917.562847222223</v>
+        <v>45913.029675925929</v>
       </c>
       <c r="D137" s="2">
-        <v>45918.543981481482</v>
+        <v>45914.000960648147</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137">
@@ -3064,16 +3068,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C138" s="2">
-        <v>45910.510555555556</v>
+        <v>45919.028819444444</v>
       </c>
       <c r="D138" s="2">
-        <v>45911.524016203701</v>
+        <v>45920.000590277778</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138">
@@ -3082,16 +3086,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C139" s="2">
-        <v>45912.242094907408</v>
+        <v>45918.039143518516</v>
       </c>
       <c r="D139" s="2">
-        <v>45913.231030092589</v>
+        <v>45919.000752314816</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139">
@@ -3100,16 +3104,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C140" s="2">
-        <v>45913.530856481484</v>
+        <v>45916.019108796296</v>
       </c>
       <c r="D140" s="2">
-        <v>45914.507928240739</v>
+        <v>45917.00277777778</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140">
@@ -3118,37 +3122,163 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C141" s="2">
-        <v>45919.362210648149</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45910.02920138889</v>
+      </c>
+      <c r="D141" s="2">
+        <v>45911.005185185182</v>
+      </c>
+      <c r="E141" s="2"/>
       <c r="F141">
         <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C142" s="2">
-        <v>45919.351388888892</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2">
-        <v>45920.341481481482</v>
-      </c>
+        <v>45911.034571759257</v>
+      </c>
+      <c r="D142" s="2">
+        <v>45912.001400462963</v>
+      </c>
+      <c r="E142" s="2"/>
       <c r="F142">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143" s="2">
+        <v>45914.0625</v>
+      </c>
+      <c r="D143" s="2">
+        <v>45915.059525462966</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="2">
+        <v>45919.277962962966</v>
+      </c>
+      <c r="D144" s="2">
+        <v>45920.264999999999</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45911.556932870371</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45912.543055555558</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45916.579988425925</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45917.561284722222</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45912.03328703704</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45913.003379629627</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45913.032546296294</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45914.002326388887</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" s="2">
+        <v>45919.031469907408</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45920.003437500003</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="73">
   <si>
     <t>电站名称</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>308号直流</t>
+  </si>
+  <si>
+    <t>805号直流</t>
+  </si>
+  <si>
+    <t>202号直流</t>
   </si>
 </sst>
 </file>
@@ -590,13 +596,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -630,10 +642,10 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>45920.649699074071</v>
+        <v>45921.339629629627</v>
       </c>
       <c r="F2">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -648,10 +660,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>45920.649699074071</v>
+        <v>45921.339629629627</v>
       </c>
       <c r="F3">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -666,28 +678,28 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>45920.649699074071</v>
+        <v>45921.339629629627</v>
       </c>
       <c r="F4">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>45911.52857638889</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45915.503275462965</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>45917.258240740739</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>45921.339629629627</v>
+      </c>
       <c r="F5">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -695,33 +707,33 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
-        <v>45913.650914351849</v>
+        <v>45911.52857638889</v>
       </c>
       <c r="D6" s="2">
-        <v>45917.025937500002</v>
+        <v>45915.503275462965</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2">
-        <v>45917.258240740739</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>45920.649699074071</v>
-      </c>
+        <v>45913.650914351849</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45917.025937500002</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7">
         <v>81</v>
       </c>
@@ -785,13 +797,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>45910.540219907409</v>
+        <v>45912.328969907408</v>
       </c>
       <c r="D11" s="2">
-        <v>45913.224270833336</v>
+        <v>45915.001701388886</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11">
@@ -803,13 +815,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
-        <v>45912.328969907408</v>
+        <v>45910.540219907409</v>
       </c>
       <c r="D12" s="2">
-        <v>45915.001701388886</v>
+        <v>45913.224270833336</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12">
@@ -854,16 +866,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
-        <v>45913.006967592592</v>
+        <v>45918.557500000003</v>
       </c>
       <c r="D15" s="2">
-        <v>45915.473703703705</v>
+        <v>45921.013229166667</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15">
@@ -872,38 +884,38 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>45916.041956018518</v>
+        <v>45913.006967592592</v>
       </c>
       <c r="D16" s="2">
-        <v>45918.243055555555</v>
+        <v>45915.473703703705</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>45918.557500000003</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <v>45920.649699074071</v>
-      </c>
+        <v>45916.041956018518</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45918.243055555555</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -929,31 +941,31 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
-        <v>45918.603634259256</v>
-      </c>
-      <c r="D19" s="2">
-        <v>45920.611122685186</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>45919.2965625</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>45921.339629629627</v>
+      </c>
       <c r="F19">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2">
-        <v>45911.040381944447</v>
+        <v>45918.603634259256</v>
       </c>
       <c r="D20" s="2">
-        <v>45913.023263888892</v>
+        <v>45920.611122685186</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20">
@@ -962,34 +974,34 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
-        <v>45910.561724537038</v>
+        <v>45911.040381944447</v>
       </c>
       <c r="D21" s="2">
-        <v>45912.509375000001</v>
+        <v>45913.023263888892</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>45912.060983796298</v>
+        <v>45910.561724537038</v>
       </c>
       <c r="D22" s="2">
-        <v>45914.012141203704</v>
+        <v>45912.509375000001</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
@@ -998,16 +1010,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2">
-        <v>45915.583414351851</v>
+        <v>45912.060983796298</v>
       </c>
       <c r="D23" s="2">
-        <v>45917.582627314812</v>
+        <v>45914.012141203704</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
@@ -1034,20 +1046,20 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>45914.560046296298</v>
+        <v>45915.583414351851</v>
       </c>
       <c r="D25" s="2">
-        <v>45916.478472222225</v>
+        <v>45917.582627314812</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -1055,31 +1067,31 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2">
-        <v>45917.219965277778</v>
+        <v>45914.560046296298</v>
       </c>
       <c r="D26" s="2">
-        <v>45919.087418981479</v>
+        <v>45916.478472222225</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
-        <v>45911.646747685183</v>
+        <v>45917.219965277778</v>
       </c>
       <c r="D27" s="2">
-        <v>45913.523923611108</v>
+        <v>45919.087418981479</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
@@ -1091,13 +1103,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
-        <v>45911.562384259261</v>
+        <v>45911.646747685183</v>
       </c>
       <c r="D28" s="2">
-        <v>45913.435532407406</v>
+        <v>45913.523923611108</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
@@ -1106,16 +1118,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2">
-        <v>45917.638888888891</v>
+        <v>45911.562384259261</v>
       </c>
       <c r="D29" s="2">
-        <v>45919.518240740741</v>
+        <v>45913.435532407406</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
@@ -1124,20 +1136,20 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>45918.238622685189</v>
+        <v>45917.638888888891</v>
       </c>
       <c r="D30" s="2">
-        <v>45920.002534722225</v>
+        <v>45919.518240740741</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1145,31 +1157,31 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2">
-        <v>45915.231793981482</v>
+        <v>45919.051585648151</v>
       </c>
       <c r="D31" s="2">
-        <v>45917.019432870373</v>
+        <v>45920.878449074073</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2">
-        <v>45917.200092592589</v>
+        <v>45918.238622685189</v>
       </c>
       <c r="D32" s="2">
-        <v>45918.990624999999</v>
+        <v>45920.002534722225</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32">
@@ -1178,20 +1190,20 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C33" s="2">
-        <v>45913.76421296296</v>
+        <v>45915.231793981482</v>
       </c>
       <c r="D33" s="2">
-        <v>45915.539942129632</v>
+        <v>45917.019432870373</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1199,71 +1211,71 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2">
-        <v>45913.23265046296</v>
+        <v>45917.200092592589</v>
       </c>
       <c r="D34" s="2">
-        <v>45914.981087962966</v>
+        <v>45918.990624999999</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2">
-        <v>45914.040277777778</v>
+        <v>45913.76421296296</v>
       </c>
       <c r="D35" s="2">
-        <v>45915.733287037037</v>
+        <v>45915.539942129632</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C36" s="2">
-        <v>45918.02584490741</v>
-      </c>
-      <c r="D36" s="2">
-        <v>45919.731539351851</v>
-      </c>
-      <c r="E36" s="2"/>
+        <v>45919.589224537034</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>45921.339629629627</v>
+      </c>
       <c r="F36">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C37" s="2">
-        <v>45918.673472222225</v>
+        <v>45913.23265046296</v>
       </c>
       <c r="D37" s="2">
-        <v>45920.394062500003</v>
+        <v>45914.981087962966</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1271,17 +1283,17 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C38" s="2">
-        <v>45911.531018518515</v>
+        <v>45918.02584490741</v>
       </c>
       <c r="D38" s="2">
-        <v>45913.206875000003</v>
+        <v>45919.731539351851</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1289,35 +1301,35 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C39" s="2">
-        <v>45915.111643518518</v>
+        <v>45914.040277777778</v>
       </c>
       <c r="D39" s="2">
-        <v>45916.694467592592</v>
+        <v>45915.733287037037</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2">
-        <v>45918.715682870374</v>
+        <v>45918.673472222225</v>
       </c>
       <c r="D40" s="2">
-        <v>45920.332812499997</v>
+        <v>45920.394062500003</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1325,35 +1337,35 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2">
-        <v>45919.051585648151</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2">
-        <v>45920.649699074071</v>
-      </c>
+        <v>45911.531018518515</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45913.206875000003</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2">
-        <v>45914.486261574071</v>
+        <v>45919.528935185182</v>
       </c>
       <c r="D42" s="2">
-        <v>45916.002962962964</v>
+        <v>45921.204571759263</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -1361,35 +1373,35 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C43" s="2">
-        <v>45918.526932870373</v>
+        <v>45919.638368055559</v>
       </c>
       <c r="D43" s="2">
-        <v>45920.000578703701</v>
+        <v>45921.272141203706</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C44" s="2">
-        <v>45918.539907407408</v>
+        <v>45915.111643518518</v>
       </c>
       <c r="D44" s="2">
-        <v>45920.001921296294</v>
+        <v>45916.694467592592</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -1397,17 +1409,17 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C45" s="2">
-        <v>45910.534502314818</v>
+        <v>45918.715682870374</v>
       </c>
       <c r="D45" s="2">
-        <v>45912.012048611112</v>
+        <v>45920.332812499997</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -1418,28 +1430,28 @@
         <v>35</v>
       </c>
       <c r="C46" s="2">
-        <v>45916.051249999997</v>
+        <v>45914.486261574071</v>
       </c>
       <c r="D46" s="2">
-        <v>45917.567256944443</v>
+        <v>45916.002962962964</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2">
-        <v>45915.061967592592</v>
+        <v>45918.539907407408</v>
       </c>
       <c r="D47" s="2">
-        <v>45916.546516203707</v>
+        <v>45920.001921296294</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
@@ -1448,16 +1460,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C48" s="2">
-        <v>45915.025833333333</v>
+        <v>45918.526932870373</v>
       </c>
       <c r="D48" s="2">
-        <v>45916.511203703703</v>
+        <v>45920.000578703701</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
@@ -1466,20 +1478,20 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C49" s="2">
-        <v>45918.54587962963</v>
+        <v>45919.605023148149</v>
       </c>
       <c r="D49" s="2">
-        <v>45920.000509259262</v>
+        <v>45921.08798611111</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -1487,17 +1499,17 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2">
-        <v>45913.717233796298</v>
+        <v>45910.534502314818</v>
       </c>
       <c r="D50" s="2">
-        <v>45915.203182870369</v>
+        <v>45912.012048611112</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -1505,35 +1517,35 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C51" s="2">
-        <v>45913.566805555558</v>
+        <v>45916.051249999997</v>
       </c>
       <c r="D51" s="2">
-        <v>45915.004942129628</v>
+        <v>45917.567256944443</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2">
-        <v>45917.128229166665</v>
+        <v>45915.025833333333</v>
       </c>
       <c r="D52" s="2">
-        <v>45918.609236111108</v>
+        <v>45916.511203703703</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -1541,35 +1553,35 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C53" s="2">
-        <v>45912.567314814813</v>
+        <v>45915.061967592592</v>
       </c>
       <c r="D53" s="2">
-        <v>45914.04074074074</v>
+        <v>45916.546516203707</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C54" s="2">
-        <v>45914.050219907411</v>
+        <v>45913.566805555558</v>
       </c>
       <c r="D54" s="2">
-        <v>45915.466817129629</v>
+        <v>45915.004942129628</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -1577,17 +1589,17 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2">
-        <v>45915.541979166665</v>
+        <v>45919.726388888892</v>
       </c>
       <c r="D55" s="2">
-        <v>45916.988449074073</v>
+        <v>45921.203738425924</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -1595,17 +1607,17 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C56" s="2">
-        <v>45916.059074074074</v>
+        <v>45913.717233796298</v>
       </c>
       <c r="D56" s="2">
-        <v>45917.468865740739</v>
+        <v>45915.203182870369</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -1613,17 +1625,17 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2">
-        <v>45916.623356481483</v>
+        <v>45918.54587962963</v>
       </c>
       <c r="D57" s="2">
-        <v>45918.0237037037</v>
+        <v>45920.000509259262</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -1631,53 +1643,53 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C58" s="2">
-        <v>45917.589189814818</v>
+        <v>45917.128229166665</v>
       </c>
       <c r="D58" s="2">
-        <v>45919.000393518516</v>
+        <v>45918.609236111108</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="2">
-        <v>45912.627604166664</v>
+        <v>45912.567314814813</v>
       </c>
       <c r="D59" s="2">
-        <v>45914.005208333336</v>
+        <v>45914.04074074074</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C60" s="2">
-        <v>45910.054398148146</v>
+        <v>45914.050219907411</v>
       </c>
       <c r="D60" s="2">
-        <v>45911.384293981479</v>
+        <v>45915.466817129629</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -1685,17 +1697,17 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C61" s="2">
-        <v>45919.2965625</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2">
-        <v>45920.649699074071</v>
-      </c>
+        <v>45916.059074074074</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45917.468865740739</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -1703,17 +1715,17 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C62" s="2">
-        <v>45910.247546296298</v>
+        <v>45915.541979166665</v>
       </c>
       <c r="D62" s="2">
-        <v>45911.529826388891</v>
+        <v>45916.988449074073</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -1721,17 +1733,17 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C63" s="2">
-        <v>45915.259062500001</v>
+        <v>45916.623356481483</v>
       </c>
       <c r="D63" s="2">
-        <v>45916.545428240737</v>
+        <v>45918.0237037037</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -1739,53 +1751,53 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C64" s="2">
-        <v>45917.051562499997</v>
+        <v>45917.589189814818</v>
       </c>
       <c r="D64" s="2">
-        <v>45918.348865740743</v>
+        <v>45919.000393518516</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C65" s="2">
-        <v>45916.531759259262</v>
+        <v>45912.627604166664</v>
       </c>
       <c r="D65" s="2">
-        <v>45917.797986111109</v>
+        <v>45914.005208333336</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C66" s="2">
-        <v>45918.712372685186</v>
+        <v>45910.054398148146</v>
       </c>
       <c r="D66" s="2">
-        <v>45920.004004629627</v>
+        <v>45911.384293981479</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -1793,17 +1805,17 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C67" s="2">
-        <v>45919.267326388886</v>
-      </c>
-      <c r="D67" s="2">
-        <v>45920.507592592592</v>
-      </c>
-      <c r="E67" s="2"/>
+        <v>45920.072627314818</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2">
+        <v>45921.339629629627</v>
+      </c>
       <c r="F67">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
@@ -1811,17 +1823,17 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C68" s="2">
-        <v>45918.264537037037</v>
+        <v>45915.259062500001</v>
       </c>
       <c r="D68" s="2">
-        <v>45919.504305555558</v>
+        <v>45916.545428240737</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -1829,17 +1841,17 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C69" s="2">
-        <v>45917.038738425923</v>
+        <v>45916.531759259262</v>
       </c>
       <c r="D69" s="2">
-        <v>45918.261030092595</v>
+        <v>45917.797986111109</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -1847,107 +1859,107 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C70" s="2">
-        <v>45918.257824074077</v>
+        <v>45910.247546296298</v>
       </c>
       <c r="D70" s="2">
-        <v>45919.535219907404</v>
+        <v>45911.529826388891</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C71" s="2">
-        <v>45914.304675925923</v>
+        <v>45917.051562499997</v>
       </c>
       <c r="D71" s="2">
-        <v>45915.505648148152</v>
+        <v>45918.348865740743</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C72" s="2">
-        <v>45916.350173611114</v>
-      </c>
-      <c r="D72" s="2">
-        <v>45917.544189814813</v>
-      </c>
-      <c r="E72" s="2"/>
+        <v>45920.057673611111</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2">
+        <v>45921.339629629627</v>
+      </c>
       <c r="F72">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C73" s="2">
-        <v>45918.558819444443</v>
-      </c>
-      <c r="D73" s="2">
-        <v>45919.759699074071</v>
-      </c>
-      <c r="E73" s="2"/>
+        <v>45920.046643518515</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2">
+        <v>45921.339629629627</v>
+      </c>
       <c r="F73">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2">
-        <v>45915.250428240739</v>
+        <v>45918.712372685186</v>
       </c>
       <c r="D74" s="2">
-        <v>45916.492291666669</v>
+        <v>45920.004004629627</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2">
-        <v>45913.050844907404</v>
+        <v>45919.267326388886</v>
       </c>
       <c r="D75" s="2">
-        <v>45914.284895833334</v>
+        <v>45920.507592592592</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -1955,53 +1967,53 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C76" s="2">
-        <v>45910.067824074074</v>
+        <v>45918.264537037037</v>
       </c>
       <c r="D76" s="2">
-        <v>45911.284560185188</v>
+        <v>45919.504305555558</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2">
-        <v>45914.064189814817</v>
+        <v>45917.038738425923</v>
       </c>
       <c r="D77" s="2">
-        <v>45915.274594907409</v>
+        <v>45918.261030092595</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C78" s="2">
-        <v>45914.060752314814</v>
+        <v>45918.257824074077</v>
       </c>
       <c r="D78" s="2">
-        <v>45915.225474537037</v>
+        <v>45919.535219907404</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -2009,179 +2021,179 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C79" s="2">
-        <v>45910.356319444443</v>
-      </c>
-      <c r="D79" s="2">
-        <v>45911.500925925924</v>
-      </c>
-      <c r="E79" s="2"/>
+        <v>45920.118576388886</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2">
+        <v>45921.339629629627</v>
+      </c>
       <c r="F79">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2">
-        <v>45917.046249999999</v>
+        <v>45918.558819444443</v>
       </c>
       <c r="D80" s="2">
-        <v>45918.227696759262</v>
+        <v>45919.759699074071</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2">
-        <v>45914.011388888888</v>
+        <v>45914.304675925923</v>
       </c>
       <c r="D81" s="2">
-        <v>45915.187569444446</v>
+        <v>45915.505648148152</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2">
-        <v>45915.035682870373</v>
+        <v>45916.350173611114</v>
       </c>
       <c r="D82" s="2">
-        <v>45916.204282407409</v>
+        <v>45917.544189814813</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2">
-        <v>45919.064259259256</v>
+        <v>45915.250428240739</v>
       </c>
       <c r="D83" s="2">
-        <v>45920.216261574074</v>
+        <v>45916.492291666669</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
         <v>44</v>
       </c>
       <c r="C84" s="2">
-        <v>45917.862303240741</v>
+        <v>45913.050844907404</v>
       </c>
       <c r="D84" s="2">
-        <v>45919.004907407405</v>
+        <v>45914.284895833334</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C85" s="2">
-        <v>45919.362210648149</v>
+        <v>45910.067824074074</v>
       </c>
       <c r="D85" s="2">
-        <v>45920.481516203705</v>
+        <v>45911.284560185188</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2">
-        <v>45913.042430555557</v>
+        <v>45920.023310185185</v>
       </c>
       <c r="D86" s="2">
-        <v>45914.200810185182</v>
+        <v>45921.21974537037</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C87" s="2">
-        <v>45914.045497685183</v>
+        <v>45914.064189814817</v>
       </c>
       <c r="D87" s="2">
-        <v>45915.202696759261</v>
+        <v>45915.274594907409</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C88" s="2">
-        <v>45915.075706018521</v>
+        <v>45914.060752314814</v>
       </c>
       <c r="D88" s="2">
-        <v>45916.188900462963</v>
+        <v>45915.225474537037</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -2189,17 +2201,17 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C89" s="2">
-        <v>45912.041076388887</v>
+        <v>45910.356319444443</v>
       </c>
       <c r="D89" s="2">
-        <v>45913.145925925928</v>
+        <v>45911.500925925924</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -2207,17 +2219,17 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C90" s="2">
-        <v>45913.579629629632</v>
+        <v>45914.011388888888</v>
       </c>
       <c r="D90" s="2">
-        <v>45914.686932870369</v>
+        <v>45915.187569444446</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -2225,35 +2237,35 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C91" s="2">
-        <v>45914.151493055557</v>
+        <v>45915.035682870373</v>
       </c>
       <c r="D91" s="2">
-        <v>45915.287997685184</v>
+        <v>45916.204282407409</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C92" s="2">
-        <v>45911.012094907404</v>
+        <v>45917.046249999999</v>
       </c>
       <c r="D92" s="2">
-        <v>45912.137696759259</v>
+        <v>45918.227696759262</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -2261,53 +2273,53 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C93" s="2">
-        <v>45919.528935185182</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2">
-        <v>45920.649699074071</v>
-      </c>
+        <v>45917.862303240741</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45919.004907407405</v>
+      </c>
+      <c r="E93" s="2"/>
       <c r="F93">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2">
-        <v>45919.351388888892</v>
+        <v>45919.064259259256</v>
       </c>
       <c r="D94" s="2">
-        <v>45920.447187500002</v>
+        <v>45920.216261574074</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C95" s="2">
-        <v>45913.064467592594</v>
+        <v>45913.042430555557</v>
       </c>
       <c r="D95" s="2">
-        <v>45914.140983796293</v>
+        <v>45914.200810185182</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
@@ -2315,211 +2327,211 @@
         <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C96" s="2">
-        <v>45911.244166666664</v>
+        <v>45919.362210648149</v>
       </c>
       <c r="D96" s="2">
-        <v>45912.265601851854</v>
+        <v>45920.481516203705</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C97" s="2">
-        <v>45911.504976851851</v>
+        <v>45912.041076388887</v>
       </c>
       <c r="D97" s="2">
-        <v>45912.543333333335</v>
+        <v>45913.145925925928</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C98" s="2">
-        <v>45915.525405092594</v>
+        <v>45914.151493055557</v>
       </c>
       <c r="D98" s="2">
-        <v>45916.54210648148</v>
+        <v>45915.287997685184</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C99" s="2">
-        <v>45919.499756944446</v>
+        <v>45913.579629629632</v>
       </c>
       <c r="D99" s="2">
-        <v>45920.505324074074</v>
+        <v>45914.686932870369</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C100" s="2">
-        <v>45919.605023148149</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2">
-        <v>45920.649699074071</v>
-      </c>
+        <v>45915.075706018521</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45916.188900462963</v>
+      </c>
+      <c r="E100" s="2"/>
       <c r="F100">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C101" s="2">
-        <v>45919.589224537034</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2">
-        <v>45920.649699074071</v>
-      </c>
+        <v>45914.045497685183</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45915.202696759261</v>
+      </c>
+      <c r="E101" s="2"/>
       <c r="F101">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C102" s="2">
-        <v>45919.472337962965</v>
-      </c>
-      <c r="D102" s="2">
-        <v>45920.537222222221</v>
-      </c>
-      <c r="E102" s="2"/>
+        <v>45920.226956018516</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2">
+        <v>45921.339629629627</v>
+      </c>
       <c r="F102">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C103" s="2">
-        <v>45913.021006944444</v>
+        <v>45911.012094907404</v>
       </c>
       <c r="D103" s="2">
-        <v>45914.078969907408</v>
+        <v>45912.137696759259</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C104" s="2">
-        <v>45915.475578703707</v>
-      </c>
-      <c r="D104" s="2">
-        <v>45916.538958333331</v>
-      </c>
-      <c r="E104" s="2"/>
+        <v>45920.218981481485</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2">
+        <v>45921.339629629627</v>
+      </c>
       <c r="F104">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C105" s="2">
-        <v>45911.994386574072</v>
+        <v>45919.351388888892</v>
       </c>
       <c r="D105" s="2">
-        <v>45913.008622685185</v>
+        <v>45920.447187500002</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C106" s="2">
-        <v>45918.199444444443</v>
+        <v>45913.064467592594</v>
       </c>
       <c r="D106" s="2">
-        <v>45919.209988425922</v>
+        <v>45914.140983796293</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C107" s="2">
-        <v>45912.043020833335</v>
+        <v>45913.021006944444</v>
       </c>
       <c r="D107" s="2">
-        <v>45913.113923611112</v>
+        <v>45914.078969907408</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
@@ -2528,16 +2540,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C108" s="2">
-        <v>45911.684641203705</v>
+        <v>45920.069849537038</v>
       </c>
       <c r="D108" s="2">
-        <v>45912.726527777777</v>
+        <v>45921.099664351852</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
@@ -2546,16 +2558,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C109" s="2">
-        <v>45919.067708333336</v>
+        <v>45919.472337962965</v>
       </c>
       <c r="D109" s="2">
-        <v>45920.088587962964</v>
+        <v>45920.537222222221</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
@@ -2564,16 +2576,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C110" s="2">
-        <v>45917.244652777779</v>
+        <v>45919.499756944446</v>
       </c>
       <c r="D110" s="2">
-        <v>45918.285451388889</v>
+        <v>45920.505324074074</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
@@ -2582,16 +2594,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2">
-        <v>45915.055277777778</v>
+        <v>45915.525405092594</v>
       </c>
       <c r="D111" s="2">
-        <v>45916.095949074072</v>
+        <v>45916.54210648148</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
@@ -2600,16 +2612,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2">
-        <v>45915.483831018515</v>
+        <v>45911.244166666664</v>
       </c>
       <c r="D112" s="2">
-        <v>45916.511701388888</v>
+        <v>45912.265601851854</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
@@ -2618,16 +2630,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2">
-        <v>45914.036979166667</v>
+        <v>45911.504976851851</v>
       </c>
       <c r="D113" s="2">
-        <v>45915.079004629632</v>
+        <v>45912.543333333335</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113">
@@ -2636,16 +2648,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C114" s="2">
-        <v>45919.036516203705</v>
+        <v>45911.994386574072</v>
       </c>
       <c r="D114" s="2">
-        <v>45920.041701388887</v>
+        <v>45913.008622685185</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
@@ -2654,16 +2666,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C115" s="2">
-        <v>45910.196134259262</v>
+        <v>45918.199444444443</v>
       </c>
       <c r="D115" s="2">
-        <v>45911.248784722222</v>
+        <v>45919.209988425922</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115">
@@ -2672,196 +2684,196 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C116" s="2">
-        <v>45919.566770833335</v>
+        <v>45915.475578703707</v>
       </c>
       <c r="D116" s="2">
-        <v>45920.544930555552</v>
+        <v>45916.538958333331</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C117" s="2">
-        <v>45912.242094907408</v>
+        <v>45915.055277777778</v>
       </c>
       <c r="D117" s="2">
-        <v>45913.231030092589</v>
+        <v>45916.095949074072</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C118" s="2">
-        <v>45913.530856481484</v>
+        <v>45917.244652777779</v>
       </c>
       <c r="D118" s="2">
-        <v>45914.507928240739</v>
+        <v>45918.285451388889</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C119" s="2">
-        <v>45914.043333333335</v>
+        <v>45911.684641203705</v>
       </c>
       <c r="D119" s="2">
-        <v>45915.064780092594</v>
+        <v>45912.726527777777</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C120" s="2">
-        <v>45914.019074074073</v>
+        <v>45912.043020833335</v>
       </c>
       <c r="D120" s="2">
-        <v>45915.000347222223</v>
+        <v>45913.113923611112</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C121" s="2">
-        <v>45917.562847222223</v>
+        <v>45919.067708333336</v>
       </c>
       <c r="D121" s="2">
-        <v>45918.543981481482</v>
+        <v>45920.088587962964</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C122" s="2">
-        <v>45915.540833333333</v>
+        <v>45915.483831018515</v>
       </c>
       <c r="D122" s="2">
-        <v>45916.513043981482</v>
+        <v>45916.511701388888</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C123" s="2">
-        <v>45915.55263888889</v>
+        <v>45910.196134259262</v>
       </c>
       <c r="D123" s="2">
-        <v>45916.542962962965</v>
+        <v>45911.248784722222</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C124" s="2">
-        <v>45919.638368055559</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2">
-        <v>45920.649699074071</v>
-      </c>
+        <v>45914.036979166667</v>
+      </c>
+      <c r="D124" s="2">
+        <v>45915.079004629632</v>
+      </c>
+      <c r="E124" s="2"/>
       <c r="F124">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C125" s="2">
-        <v>45910.510555555556</v>
+        <v>45919.036516203705</v>
       </c>
       <c r="D125" s="2">
-        <v>45911.524016203701</v>
+        <v>45920.041701388887</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C126" s="2">
-        <v>45913.030231481483</v>
+        <v>45915.55263888889</v>
       </c>
       <c r="D126" s="2">
-        <v>45914.003888888888</v>
+        <v>45916.542962962965</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126">
@@ -2870,16 +2882,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C127" s="2">
-        <v>45917.543113425927</v>
+        <v>45914.043333333335</v>
       </c>
       <c r="D127" s="2">
-        <v>45918.545127314814</v>
+        <v>45915.064780092594</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127">
@@ -2888,16 +2900,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C128" s="2">
-        <v>45910.584328703706</v>
+        <v>45915.540833333333</v>
       </c>
       <c r="D128" s="2">
-        <v>45911.616053240738</v>
+        <v>45916.513043981482</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128">
@@ -2906,16 +2918,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C129" s="2">
-        <v>45915.020277777781</v>
+        <v>45914.019074074073</v>
       </c>
       <c r="D129" s="2">
-        <v>45916.002210648148</v>
+        <v>45915.000347222223</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129">
@@ -2924,16 +2936,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C130" s="2">
-        <v>45918.378263888888</v>
+        <v>45917.562847222223</v>
       </c>
       <c r="D130" s="2">
-        <v>45919.401689814818</v>
+        <v>45918.543981481482</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
@@ -2942,16 +2954,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C131" s="2">
-        <v>45917.243622685186</v>
+        <v>45910.510555555556</v>
       </c>
       <c r="D131" s="2">
-        <v>45918.209560185183</v>
+        <v>45911.524016203701</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
@@ -2960,16 +2972,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C132" s="2">
-        <v>45915.572175925925</v>
+        <v>45919.566770833335</v>
       </c>
       <c r="D132" s="2">
-        <v>45916.543171296296</v>
+        <v>45920.544930555552</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132">
@@ -2978,16 +2990,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B133" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C133" s="2">
-        <v>45913.701620370368</v>
+        <v>45912.242094907408</v>
       </c>
       <c r="D133" s="2">
-        <v>45914.694907407407</v>
+        <v>45913.231030092589</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133">
@@ -2996,16 +3008,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B134" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C134" s="2">
-        <v>45915.220127314817</v>
+        <v>45913.530856481484</v>
       </c>
       <c r="D134" s="2">
-        <v>45916.216979166667</v>
+        <v>45914.507928240739</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134">
@@ -3017,13 +3029,13 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C135" s="2">
-        <v>45910.041087962964</v>
+        <v>45920.249756944446</v>
       </c>
       <c r="D135" s="2">
-        <v>45911.026550925926</v>
+        <v>45921.209710648145</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135">
@@ -3035,13 +3047,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C136" s="2">
-        <v>45919.033101851855</v>
+        <v>45920.033518518518</v>
       </c>
       <c r="D136" s="2">
-        <v>45920.037638888891</v>
+        <v>45921.002650462964</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136">
@@ -3053,13 +3065,13 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C137" s="2">
-        <v>45913.029675925929</v>
+        <v>45913.030231481483</v>
       </c>
       <c r="D137" s="2">
-        <v>45914.000960648147</v>
+        <v>45914.003888888888</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137">
@@ -3071,13 +3083,13 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C138" s="2">
-        <v>45919.028819444444</v>
+        <v>45915.220127314817</v>
       </c>
       <c r="D138" s="2">
-        <v>45920.000590277778</v>
+        <v>45916.216979166667</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138">
@@ -3089,13 +3101,13 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C139" s="2">
-        <v>45918.039143518516</v>
+        <v>45918.378263888888</v>
       </c>
       <c r="D139" s="2">
-        <v>45919.000752314816</v>
+        <v>45919.401689814818</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139">
@@ -3104,16 +3116,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C140" s="2">
-        <v>45916.019108796296</v>
+        <v>45917.543113425927</v>
       </c>
       <c r="D140" s="2">
-        <v>45917.00277777778</v>
+        <v>45918.545127314814</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140">
@@ -3122,16 +3134,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C141" s="2">
-        <v>45910.02920138889</v>
+        <v>45918.039143518516</v>
       </c>
       <c r="D141" s="2">
-        <v>45911.005185185182</v>
+        <v>45919.000752314816</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141">
@@ -3140,16 +3152,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C142" s="2">
-        <v>45911.034571759257</v>
+        <v>45915.020277777781</v>
       </c>
       <c r="D142" s="2">
-        <v>45912.001400462963</v>
+        <v>45916.002210648148</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142">
@@ -3158,16 +3170,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C143" s="2">
-        <v>45914.0625</v>
+        <v>45917.243622685186</v>
       </c>
       <c r="D143" s="2">
-        <v>45915.059525462966</v>
+        <v>45918.209560185183</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143">
@@ -3176,16 +3188,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C144" s="2">
-        <v>45919.277962962966</v>
+        <v>45910.584328703706</v>
       </c>
       <c r="D144" s="2">
-        <v>45920.264999999999</v>
+        <v>45911.616053240738</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144">
@@ -3194,16 +3206,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C145" s="2">
-        <v>45911.556932870371</v>
+        <v>45915.572175925925</v>
       </c>
       <c r="D145" s="2">
-        <v>45912.543055555558</v>
+        <v>45916.543171296296</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145">
@@ -3212,16 +3224,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C146" s="2">
-        <v>45916.579988425925</v>
+        <v>45913.701620370368</v>
       </c>
       <c r="D146" s="2">
-        <v>45917.561284722222</v>
+        <v>45914.694907407407</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146">
@@ -3230,16 +3242,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C147" s="2">
-        <v>45912.03328703704</v>
+        <v>45910.041087962964</v>
       </c>
       <c r="D147" s="2">
-        <v>45913.003379629627</v>
+        <v>45911.026550925926</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147">
@@ -3248,16 +3260,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C148" s="2">
-        <v>45913.032546296294</v>
+        <v>45919.033101851855</v>
       </c>
       <c r="D148" s="2">
-        <v>45914.002326388887</v>
+        <v>45920.037638888891</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148">
@@ -3266,19 +3278,217 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C149" s="2">
-        <v>45919.031469907408</v>
+        <v>45913.029675925929</v>
       </c>
       <c r="D149" s="2">
-        <v>45920.003437500003</v>
+        <v>45914.000960648147</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" t="s">
+        <v>35</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45919.028819444444</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45920.000590277778</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" s="2">
+        <v>45913.032546296294</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45914.002326388887</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45912.03328703704</v>
+      </c>
+      <c r="D152" s="2">
+        <v>45913.003379629627</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45919.031469907408</v>
+      </c>
+      <c r="D153" s="2">
+        <v>45920.003437500003</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45911.556932870371</v>
+      </c>
+      <c r="D154" s="2">
+        <v>45912.543055555558</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45916.019108796296</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45917.00277777778</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45910.02920138889</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45911.005185185182</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45911.034571759257</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45912.001400462963</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45914.0625</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45915.059525462966</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="2">
+        <v>45919.277962962966</v>
+      </c>
+      <c r="D159" s="2">
+        <v>45920.264999999999</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45916.579988425925</v>
+      </c>
+      <c r="D160" s="2">
+        <v>45917.561284722222</v>
+      </c>
+      <c r="E160" s="2"/>
+      <c r="F160">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="78">
   <si>
     <t>电站名称</t>
   </si>
@@ -130,9 +130,6 @@
     <t>106号直流</t>
   </si>
   <si>
-    <t>B04号直流</t>
-  </si>
-  <si>
     <t>905号直流</t>
   </si>
   <si>
@@ -236,6 +233,24 @@
   </si>
   <si>
     <t>202号直流</t>
+  </si>
+  <si>
+    <t>001B号直流</t>
+  </si>
+  <si>
+    <t>312号直流</t>
+  </si>
+  <si>
+    <t>109号直流</t>
+  </si>
+  <si>
+    <t>703号直流</t>
+  </si>
+  <si>
+    <t>003A号直流</t>
+  </si>
+  <si>
+    <t>906号直流</t>
   </si>
 </sst>
 </file>
@@ -596,10 +611,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,10 +657,10 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>45921.339629629627</v>
+        <v>45922.350138888891</v>
       </c>
       <c r="F2">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -658,12 +673,12 @@
       <c r="C3" s="2">
         <v>45916.28261574074</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>45921.339629629627</v>
-      </c>
+      <c r="D3" s="2">
+        <v>45922.03229166667</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -676,12 +691,12 @@
       <c r="C4" s="2">
         <v>45916.534282407411</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>45921.339629629627</v>
-      </c>
+      <c r="D4" s="2">
+        <v>45922.244120370371</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -694,12 +709,12 @@
       <c r="C5" s="2">
         <v>45917.258240740739</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>45921.339629629627</v>
-      </c>
+      <c r="D5" s="2">
+        <v>45922.024768518517</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -725,7 +740,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>45913.650914351849</v>
@@ -815,17 +830,17 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
-        <v>45910.540219907409</v>
+        <v>45918.06113425926</v>
       </c>
       <c r="D12" s="2">
-        <v>45913.224270833336</v>
+        <v>45920.554386574076</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -833,71 +848,71 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>45910.021134259259</v>
+        <v>45913.006967592592</v>
       </c>
       <c r="D13" s="2">
-        <v>45912.686157407406</v>
+        <v>45915.473703703705</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
-        <v>45918.06113425926</v>
+        <v>45918.557500000003</v>
       </c>
       <c r="D14" s="2">
-        <v>45920.554386574076</v>
+        <v>45921.013229166667</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2">
-        <v>45918.557500000003</v>
+        <v>45919.2965625</v>
       </c>
       <c r="D15" s="2">
-        <v>45921.013229166667</v>
+        <v>45921.530428240738</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>45913.006967592592</v>
+        <v>45916.041956018518</v>
       </c>
       <c r="D16" s="2">
-        <v>45915.473703703705</v>
+        <v>45918.243055555555</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -905,35 +920,35 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>45916.041956018518</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45918.243055555555</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>45920.218981481485</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>45922.350138888891</v>
+      </c>
       <c r="F17">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2">
-        <v>45910.355798611112</v>
+        <v>45920.057673611111</v>
       </c>
       <c r="D18" s="2">
-        <v>45912.393368055556</v>
+        <v>45922.138402777775</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -941,31 +956,31 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2">
-        <v>45919.2965625</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
-        <v>45921.339629629627</v>
-      </c>
+        <v>45918.603634259256</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45920.611122685186</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2">
-        <v>45918.603634259256</v>
+        <v>45911.040381944447</v>
       </c>
       <c r="D20" s="2">
-        <v>45920.611122685186</v>
+        <v>45913.023263888892</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20">
@@ -974,34 +989,34 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2">
-        <v>45911.040381944447</v>
+        <v>45912.060983796298</v>
       </c>
       <c r="D21" s="2">
-        <v>45913.023263888892</v>
+        <v>45914.012141203704</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2">
-        <v>45910.561724537038</v>
+        <v>45920.046643518515</v>
       </c>
       <c r="D22" s="2">
-        <v>45912.509375000001</v>
+        <v>45922.024236111109</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
@@ -1013,13 +1028,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2">
-        <v>45912.060983796298</v>
+        <v>45920.118576388886</v>
       </c>
       <c r="D23" s="2">
-        <v>45914.012141203704</v>
+        <v>45922.064479166664</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
@@ -1031,13 +1046,13 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2">
-        <v>45910.5781712963</v>
+        <v>45915.583414351851</v>
       </c>
       <c r="D24" s="2">
-        <v>45912.528969907406</v>
+        <v>45917.582627314812</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
@@ -1046,52 +1061,52 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2">
-        <v>45915.583414351851</v>
+        <v>45914.560046296298</v>
       </c>
       <c r="D25" s="2">
-        <v>45917.582627314812</v>
+        <v>45916.478472222225</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2">
-        <v>45914.560046296298</v>
+        <v>45911.646747685183</v>
       </c>
       <c r="D26" s="2">
-        <v>45916.478472222225</v>
+        <v>45913.523923611108</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2">
-        <v>45917.219965277778</v>
+        <v>45911.562384259261</v>
       </c>
       <c r="D27" s="2">
-        <v>45919.087418981479</v>
+        <v>45913.435532407406</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
@@ -1100,16 +1115,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2">
-        <v>45911.646747685183</v>
+        <v>45917.219965277778</v>
       </c>
       <c r="D28" s="2">
-        <v>45913.523923611108</v>
+        <v>45919.087418981479</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
@@ -1118,16 +1133,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>45911.562384259261</v>
+        <v>45917.638888888891</v>
       </c>
       <c r="D29" s="2">
-        <v>45913.435532407406</v>
+        <v>45919.518240740741</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
@@ -1136,20 +1151,20 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2">
-        <v>45917.638888888891</v>
+        <v>45919.589224537034</v>
       </c>
       <c r="D30" s="2">
-        <v>45919.518240740741</v>
+        <v>45921.4450462963</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1172,20 +1187,20 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2">
-        <v>45918.238622685189</v>
-      </c>
-      <c r="D32" s="2">
-        <v>45920.002534722225</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>45920.533217592594</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>45922.350138888891</v>
+      </c>
       <c r="F32">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1193,13 +1208,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2">
-        <v>45915.231793981482</v>
+        <v>45917.200092592589</v>
       </c>
       <c r="D33" s="2">
-        <v>45917.019432870373</v>
+        <v>45918.990624999999</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
@@ -1211,13 +1226,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2">
-        <v>45917.200092592589</v>
+        <v>45915.231793981482</v>
       </c>
       <c r="D34" s="2">
-        <v>45918.990624999999</v>
+        <v>45917.019432870373</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
@@ -1226,52 +1241,52 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2">
-        <v>45913.76421296296</v>
+        <v>45918.238622685189</v>
       </c>
       <c r="D35" s="2">
-        <v>45915.539942129632</v>
+        <v>45920.002534722225</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2">
-        <v>45919.589224537034</v>
+        <v>45920.556597222225</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
-        <v>45921.339629629627</v>
+        <v>45922.350138888891</v>
       </c>
       <c r="F36">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C37" s="2">
-        <v>45913.23265046296</v>
+        <v>45913.76421296296</v>
       </c>
       <c r="D37" s="2">
-        <v>45914.981087962966</v>
+        <v>45915.539942129632</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37">
@@ -1283,31 +1298,31 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C38" s="2">
-        <v>45918.02584490741</v>
+        <v>45913.23265046296</v>
       </c>
       <c r="D38" s="2">
-        <v>45919.731539351851</v>
+        <v>45914.981087962966</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2">
-        <v>45914.040277777778</v>
+        <v>45920.49628472222</v>
       </c>
       <c r="D39" s="2">
-        <v>45915.733287037037</v>
+        <v>45922.174942129626</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39">
@@ -1316,16 +1331,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2">
-        <v>45918.673472222225</v>
+        <v>45914.040277777778</v>
       </c>
       <c r="D40" s="2">
-        <v>45920.394062500003</v>
+        <v>45915.733287037037</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
@@ -1337,17 +1352,17 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C41" s="2">
-        <v>45911.531018518515</v>
+        <v>45918.02584490741</v>
       </c>
       <c r="D41" s="2">
-        <v>45913.206875000003</v>
+        <v>45919.731539351851</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1355,89 +1370,89 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2">
-        <v>45919.528935185182</v>
+        <v>45918.673472222225</v>
       </c>
       <c r="D42" s="2">
-        <v>45921.204571759263</v>
+        <v>45920.394062500003</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2">
-        <v>45919.638368055559</v>
+        <v>45911.531018518515</v>
       </c>
       <c r="D43" s="2">
-        <v>45921.272141203706</v>
+        <v>45913.206875000003</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C44" s="2">
-        <v>45915.111643518518</v>
+        <v>45920.564571759256</v>
       </c>
       <c r="D44" s="2">
-        <v>45916.694467592592</v>
+        <v>45922.247418981482</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C45" s="2">
-        <v>45918.715682870374</v>
+        <v>45919.528935185182</v>
       </c>
       <c r="D45" s="2">
-        <v>45920.332812499997</v>
+        <v>45921.204571759263</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2">
-        <v>45914.486261574071</v>
-      </c>
-      <c r="D46" s="2">
-        <v>45916.002962962964</v>
-      </c>
-      <c r="E46" s="2"/>
+        <v>45920.74355324074</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
+        <v>45922.350138888891</v>
+      </c>
       <c r="F46">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -1445,53 +1460,53 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C47" s="2">
-        <v>45918.539907407408</v>
+        <v>45919.638368055559</v>
       </c>
       <c r="D47" s="2">
-        <v>45920.001921296294</v>
+        <v>45921.272141203706</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C48" s="2">
-        <v>45918.526932870373</v>
+        <v>45915.111643518518</v>
       </c>
       <c r="D48" s="2">
-        <v>45920.000578703701</v>
+        <v>45916.694467592592</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C49" s="2">
-        <v>45919.605023148149</v>
+        <v>45918.715682870374</v>
       </c>
       <c r="D49" s="2">
-        <v>45921.08798611111</v>
+        <v>45920.332812499997</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -1499,31 +1514,31 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C50" s="2">
-        <v>45910.534502314818</v>
+        <v>45914.486261574071</v>
       </c>
       <c r="D50" s="2">
-        <v>45912.012048611112</v>
+        <v>45916.002962962964</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2">
-        <v>45916.051249999997</v>
+        <v>45919.605023148149</v>
       </c>
       <c r="D51" s="2">
-        <v>45917.567256944443</v>
+        <v>45921.08798611111</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
@@ -1532,16 +1547,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C52" s="2">
-        <v>45915.025833333333</v>
+        <v>45916.051249999997</v>
       </c>
       <c r="D52" s="2">
-        <v>45916.511203703703</v>
+        <v>45917.567256944443</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
@@ -1550,16 +1565,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C53" s="2">
-        <v>45915.061967592592</v>
+        <v>45918.539907407408</v>
       </c>
       <c r="D53" s="2">
-        <v>45916.546516203707</v>
+        <v>45920.001921296294</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
@@ -1568,56 +1583,56 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C54" s="2">
-        <v>45913.566805555558</v>
+        <v>45918.526932870373</v>
       </c>
       <c r="D54" s="2">
-        <v>45915.004942129628</v>
+        <v>45920.000578703701</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2">
-        <v>45919.726388888892</v>
+        <v>45915.025833333333</v>
       </c>
       <c r="D55" s="2">
-        <v>45921.203738425924</v>
+        <v>45916.511203703703</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C56" s="2">
-        <v>45913.717233796298</v>
+        <v>45915.061967592592</v>
       </c>
       <c r="D56" s="2">
-        <v>45915.203182870369</v>
+        <v>45916.546516203707</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -1625,13 +1640,13 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C57" s="2">
-        <v>45918.54587962963</v>
+        <v>45913.566805555558</v>
       </c>
       <c r="D57" s="2">
-        <v>45920.000509259262</v>
+        <v>45915.004942129628</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57">
@@ -1643,13 +1658,13 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2">
-        <v>45917.128229166665</v>
+        <v>45918.54587962963</v>
       </c>
       <c r="D58" s="2">
-        <v>45918.609236111108</v>
+        <v>45920.000509259262</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
@@ -1658,16 +1673,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C59" s="2">
-        <v>45912.567314814813</v>
+        <v>45917.128229166665</v>
       </c>
       <c r="D59" s="2">
-        <v>45914.04074074074</v>
+        <v>45918.609236111108</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
@@ -1676,20 +1691,20 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2">
-        <v>45914.050219907411</v>
+        <v>45919.726388888892</v>
       </c>
       <c r="D60" s="2">
-        <v>45915.466817129629</v>
+        <v>45921.203738425924</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -1697,53 +1712,53 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C61" s="2">
-        <v>45916.059074074074</v>
+        <v>45913.717233796298</v>
       </c>
       <c r="D61" s="2">
-        <v>45917.468865740739</v>
+        <v>45915.203182870369</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C62" s="2">
-        <v>45915.541979166665</v>
+        <v>45920.072627314818</v>
       </c>
       <c r="D62" s="2">
-        <v>45916.988449074073</v>
+        <v>45921.502418981479</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C63" s="2">
-        <v>45916.623356481483</v>
+        <v>45912.567314814813</v>
       </c>
       <c r="D63" s="2">
-        <v>45918.0237037037</v>
+        <v>45914.04074074074</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -1766,20 +1781,20 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C65" s="2">
-        <v>45912.627604166664</v>
+        <v>45916.623356481483</v>
       </c>
       <c r="D65" s="2">
-        <v>45914.005208333336</v>
+        <v>45918.0237037037</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
@@ -1787,71 +1802,71 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C66" s="2">
-        <v>45910.054398148146</v>
+        <v>45916.059074074074</v>
       </c>
       <c r="D66" s="2">
-        <v>45911.384293981479</v>
+        <v>45917.468865740739</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C67" s="2">
-        <v>45920.072627314818</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2">
-        <v>45921.339629629627</v>
-      </c>
+        <v>45915.541979166665</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45916.988449074073</v>
+      </c>
+      <c r="E67" s="2"/>
       <c r="F67">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C68" s="2">
-        <v>45915.259062500001</v>
+        <v>45914.050219907411</v>
       </c>
       <c r="D68" s="2">
-        <v>45916.545428240737</v>
+        <v>45915.466817129629</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C69" s="2">
-        <v>45916.531759259262</v>
+        <v>45912.627604166664</v>
       </c>
       <c r="D69" s="2">
-        <v>45917.797986111109</v>
+        <v>45914.005208333336</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -1859,17 +1874,17 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C70" s="2">
-        <v>45910.247546296298</v>
-      </c>
-      <c r="D70" s="2">
-        <v>45911.529826388891</v>
-      </c>
-      <c r="E70" s="2"/>
+        <v>45921.028217592589</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2">
+        <v>45922.350138888891</v>
+      </c>
       <c r="F70">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -1877,7 +1892,7 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2">
         <v>45917.051562499997</v>
@@ -1895,15 +1910,15 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2">
-        <v>45920.057673611111</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2">
-        <v>45921.339629629627</v>
-      </c>
+        <v>45920.226956018516</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45921.501458333332</v>
+      </c>
+      <c r="E72" s="2"/>
       <c r="F72">
         <v>31</v>
       </c>
@@ -1913,53 +1928,53 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C73" s="2">
-        <v>45920.046643518515</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2">
-        <v>45921.339629629627</v>
-      </c>
+        <v>45915.259062500001</v>
+      </c>
+      <c r="D73" s="2">
+        <v>45916.545428240737</v>
+      </c>
+      <c r="E73" s="2"/>
       <c r="F73">
         <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C74" s="2">
-        <v>45918.712372685186</v>
-      </c>
-      <c r="D74" s="2">
-        <v>45920.004004629627</v>
-      </c>
-      <c r="E74" s="2"/>
+        <v>45921.05846064815</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2">
+        <v>45922.350138888891</v>
+      </c>
       <c r="F74">
         <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C75" s="2">
-        <v>45919.267326388886</v>
-      </c>
-      <c r="D75" s="2">
-        <v>45920.507592592592</v>
-      </c>
-      <c r="E75" s="2"/>
+        <v>45921.059305555558</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2">
+        <v>45922.350138888891</v>
+      </c>
       <c r="F75">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -1967,35 +1982,35 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C76" s="2">
-        <v>45918.264537037037</v>
+        <v>45916.531759259262</v>
       </c>
       <c r="D76" s="2">
-        <v>45919.504305555558</v>
+        <v>45917.797986111109</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C77" s="2">
-        <v>45917.038738425923</v>
+        <v>45918.712372685186</v>
       </c>
       <c r="D77" s="2">
-        <v>45918.261030092595</v>
+        <v>45920.004004629627</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -2003,13 +2018,13 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2">
-        <v>45918.257824074077</v>
+        <v>45918.264537037037</v>
       </c>
       <c r="D78" s="2">
-        <v>45919.535219907404</v>
+        <v>45919.504305555558</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
@@ -2021,85 +2036,85 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2">
-        <v>45920.118576388886</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2">
-        <v>45921.339629629627</v>
-      </c>
+        <v>45917.038738425923</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45918.261030092595</v>
+      </c>
+      <c r="E79" s="2"/>
       <c r="F79">
         <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C80" s="2">
-        <v>45918.558819444443</v>
+        <v>45918.257824074077</v>
       </c>
       <c r="D80" s="2">
-        <v>45919.759699074071</v>
+        <v>45919.535219907404</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2">
-        <v>45914.304675925923</v>
-      </c>
-      <c r="D81" s="2">
-        <v>45915.505648148152</v>
-      </c>
-      <c r="E81" s="2"/>
+        <v>45921.095937500002</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2">
+        <v>45922.350138888891</v>
+      </c>
       <c r="F81">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2">
-        <v>45916.350173611114</v>
+        <v>45919.267326388886</v>
       </c>
       <c r="D82" s="2">
-        <v>45917.544189814813</v>
+        <v>45920.507592592592</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2">
-        <v>45915.250428240739</v>
+        <v>45916.350173611114</v>
       </c>
       <c r="D83" s="2">
-        <v>45916.492291666669</v>
+        <v>45917.544189814813</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
@@ -2108,16 +2123,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2">
-        <v>45913.050844907404</v>
+        <v>45914.304675925923</v>
       </c>
       <c r="D84" s="2">
-        <v>45914.284895833334</v>
+        <v>45915.505648148152</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84">
@@ -2129,13 +2144,13 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C85" s="2">
-        <v>45910.067824074074</v>
+        <v>45913.050844907404</v>
       </c>
       <c r="D85" s="2">
-        <v>45911.284560185188</v>
+        <v>45914.284895833334</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85">
@@ -2144,16 +2159,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2">
-        <v>45920.023310185185</v>
+        <v>45915.250428240739</v>
       </c>
       <c r="D86" s="2">
-        <v>45921.21974537037</v>
+        <v>45916.492291666669</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
@@ -2162,124 +2177,124 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C87" s="2">
-        <v>45914.064189814817</v>
-      </c>
-      <c r="D87" s="2">
-        <v>45915.274594907409</v>
-      </c>
-      <c r="E87" s="2"/>
+        <v>45921.157870370371</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2">
+        <v>45922.350138888891</v>
+      </c>
       <c r="F87">
         <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C88" s="2">
-        <v>45914.060752314814</v>
-      </c>
-      <c r="D88" s="2">
-        <v>45915.225474537037</v>
-      </c>
-      <c r="E88" s="2"/>
+        <v>45921.137314814812</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2">
+        <v>45922.350138888891</v>
+      </c>
       <c r="F88">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2">
-        <v>45910.356319444443</v>
+        <v>45918.558819444443</v>
       </c>
       <c r="D89" s="2">
-        <v>45911.500925925924</v>
+        <v>45919.759699074071</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C90" s="2">
-        <v>45914.011388888888</v>
+        <v>45920.421863425923</v>
       </c>
       <c r="D90" s="2">
-        <v>45915.187569444446</v>
+        <v>45921.626620370371</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C91" s="2">
-        <v>45915.035682870373</v>
+        <v>45914.064189814817</v>
       </c>
       <c r="D91" s="2">
-        <v>45916.204282407409</v>
+        <v>45915.274594907409</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2">
-        <v>45917.046249999999</v>
+        <v>45920.023310185185</v>
       </c>
       <c r="D92" s="2">
-        <v>45918.227696759262</v>
+        <v>45921.21974537037</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C93" s="2">
-        <v>45917.862303240741</v>
+        <v>45914.011388888888</v>
       </c>
       <c r="D93" s="2">
-        <v>45919.004907407405</v>
+        <v>45915.187569444446</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
@@ -2288,16 +2303,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C94" s="2">
-        <v>45919.064259259256</v>
+        <v>45917.046249999999</v>
       </c>
       <c r="D94" s="2">
-        <v>45920.216261574074</v>
+        <v>45918.227696759262</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
@@ -2306,88 +2321,88 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C95" s="2">
-        <v>45913.042430555557</v>
+        <v>45915.035682870373</v>
       </c>
       <c r="D95" s="2">
-        <v>45914.200810185182</v>
+        <v>45916.204282407409</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C96" s="2">
-        <v>45919.362210648149</v>
+        <v>45914.060752314814</v>
       </c>
       <c r="D96" s="2">
-        <v>45920.481516203705</v>
+        <v>45915.225474537037</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C97" s="2">
-        <v>45912.041076388887</v>
+        <v>45919.064259259256</v>
       </c>
       <c r="D97" s="2">
-        <v>45913.145925925928</v>
+        <v>45920.216261574074</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C98" s="2">
-        <v>45914.151493055557</v>
+        <v>45917.862303240741</v>
       </c>
       <c r="D98" s="2">
-        <v>45915.287997685184</v>
+        <v>45919.004907407405</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C99" s="2">
-        <v>45913.579629629632</v>
+        <v>45919.362210648149</v>
       </c>
       <c r="D99" s="2">
-        <v>45914.686932870369</v>
+        <v>45920.481516203705</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99">
@@ -2399,13 +2414,13 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C100" s="2">
-        <v>45915.075706018521</v>
+        <v>45920.552754629629</v>
       </c>
       <c r="D100" s="2">
-        <v>45916.188900462963</v>
+        <v>45921.668356481481</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100">
@@ -2417,13 +2432,13 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C101" s="2">
-        <v>45914.045497685183</v>
+        <v>45915.075706018521</v>
       </c>
       <c r="D101" s="2">
-        <v>45915.202696759261</v>
+        <v>45916.188900462963</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101">
@@ -2435,31 +2450,31 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C102" s="2">
-        <v>45920.226956018516</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2">
-        <v>45921.339629629627</v>
-      </c>
+        <v>45913.579629629632</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45914.686932870369</v>
+      </c>
+      <c r="E102" s="2"/>
       <c r="F102">
         <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C103" s="2">
-        <v>45911.012094907404</v>
+        <v>45914.151493055557</v>
       </c>
       <c r="D103" s="2">
-        <v>45912.137696759259</v>
+        <v>45915.287997685184</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
@@ -2468,56 +2483,56 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C104" s="2">
-        <v>45920.218981481485</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2">
-        <v>45921.339629629627</v>
-      </c>
+        <v>45920.377418981479</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45921.533807870372</v>
+      </c>
+      <c r="E104" s="2"/>
       <c r="F104">
         <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C105" s="2">
-        <v>45919.351388888892</v>
+        <v>45912.041076388887</v>
       </c>
       <c r="D105" s="2">
-        <v>45920.447187500002</v>
+        <v>45913.145925925928</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C106" s="2">
-        <v>45913.064467592594</v>
+        <v>45914.045497685183</v>
       </c>
       <c r="D106" s="2">
-        <v>45914.140983796293</v>
+        <v>45915.202696759261</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
@@ -2525,17 +2540,17 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C107" s="2">
-        <v>45913.021006944444</v>
+        <v>45913.042430555557</v>
       </c>
       <c r="D107" s="2">
-        <v>45914.078969907408</v>
+        <v>45914.200810185182</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
@@ -2543,121 +2558,121 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C108" s="2">
-        <v>45920.069849537038</v>
+        <v>45920.406226851854</v>
       </c>
       <c r="D108" s="2">
-        <v>45921.099664351852</v>
+        <v>45921.508819444447</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C109" s="2">
-        <v>45919.472337962965</v>
+        <v>45911.012094907404</v>
       </c>
       <c r="D109" s="2">
-        <v>45920.537222222221</v>
+        <v>45912.137696759259</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C110" s="2">
-        <v>45919.499756944446</v>
+        <v>45919.351388888892</v>
       </c>
       <c r="D110" s="2">
-        <v>45920.505324074074</v>
+        <v>45920.447187500002</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C111" s="2">
-        <v>45915.525405092594</v>
+        <v>45920.431886574072</v>
       </c>
       <c r="D111" s="2">
-        <v>45916.54210648148</v>
+        <v>45921.540509259263</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C112" s="2">
-        <v>45911.244166666664</v>
+        <v>45913.064467592594</v>
       </c>
       <c r="D112" s="2">
-        <v>45912.265601851854</v>
+        <v>45914.140983796293</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C113" s="2">
-        <v>45911.504976851851</v>
-      </c>
-      <c r="D113" s="2">
-        <v>45912.543333333335</v>
-      </c>
-      <c r="E113" s="2"/>
+        <v>45921.253159722219</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2">
+        <v>45922.350138888891</v>
+      </c>
       <c r="F113">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C114" s="2">
-        <v>45911.994386574072</v>
+        <v>45920.491261574076</v>
       </c>
       <c r="D114" s="2">
-        <v>45913.008622685185</v>
+        <v>45921.517442129632</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
@@ -2666,16 +2681,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C115" s="2">
-        <v>45918.199444444443</v>
+        <v>45911.504976851851</v>
       </c>
       <c r="D115" s="2">
-        <v>45919.209988425922</v>
+        <v>45912.543333333335</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115">
@@ -2684,16 +2699,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C116" s="2">
-        <v>45915.475578703707</v>
+        <v>45915.525405092594</v>
       </c>
       <c r="D116" s="2">
-        <v>45916.538958333331</v>
+        <v>45916.54210648148</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
@@ -2702,16 +2717,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C117" s="2">
-        <v>45915.055277777778</v>
+        <v>45919.499756944446</v>
       </c>
       <c r="D117" s="2">
-        <v>45916.095949074072</v>
+        <v>45920.505324074074</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117">
@@ -2720,52 +2735,52 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C118" s="2">
-        <v>45917.244652777779</v>
-      </c>
-      <c r="D118" s="2">
-        <v>45918.285451388889</v>
-      </c>
-      <c r="E118" s="2"/>
+        <v>45921.329513888886</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2">
+        <v>45922.350138888891</v>
+      </c>
       <c r="F118">
         <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C119" s="2">
-        <v>45911.684641203705</v>
-      </c>
-      <c r="D119" s="2">
-        <v>45912.726527777777</v>
-      </c>
-      <c r="E119" s="2"/>
+        <v>45921.307766203703</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2">
+        <v>45922.350138888891</v>
+      </c>
       <c r="F119">
         <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C120" s="2">
-        <v>45912.043020833335</v>
+        <v>45911.244166666664</v>
       </c>
       <c r="D120" s="2">
-        <v>45913.113923611112</v>
+        <v>45912.265601851854</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120">
@@ -2777,13 +2792,13 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C121" s="2">
-        <v>45919.067708333336</v>
+        <v>45915.483831018515</v>
       </c>
       <c r="D121" s="2">
-        <v>45920.088587962964</v>
+        <v>45916.511701388888</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
@@ -2795,13 +2810,13 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C122" s="2">
-        <v>45915.483831018515</v>
+        <v>45921.199143518519</v>
       </c>
       <c r="D122" s="2">
-        <v>45916.511701388888</v>
+        <v>45922.214166666665</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122">
@@ -2810,16 +2825,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C123" s="2">
-        <v>45910.196134259262</v>
+        <v>45912.043020833335</v>
       </c>
       <c r="D123" s="2">
-        <v>45911.248784722222</v>
+        <v>45913.113923611112</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123">
@@ -2828,16 +2843,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C124" s="2">
-        <v>45914.036979166667</v>
+        <v>45911.684641203705</v>
       </c>
       <c r="D124" s="2">
-        <v>45915.079004629632</v>
+        <v>45912.726527777777</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124">
@@ -2846,16 +2861,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C125" s="2">
-        <v>45919.036516203705</v>
+        <v>45915.055277777778</v>
       </c>
       <c r="D125" s="2">
-        <v>45920.041701388887</v>
+        <v>45916.095949074072</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
@@ -2864,92 +2879,92 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C126" s="2">
-        <v>45915.55263888889</v>
+        <v>45919.067708333336</v>
       </c>
       <c r="D126" s="2">
-        <v>45916.542962962965</v>
+        <v>45920.088587962964</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C127" s="2">
-        <v>45914.043333333335</v>
+        <v>45911.994386574072</v>
       </c>
       <c r="D127" s="2">
-        <v>45915.064780092594</v>
+        <v>45913.008622685185</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C128" s="2">
-        <v>45915.540833333333</v>
+        <v>45918.199444444443</v>
       </c>
       <c r="D128" s="2">
-        <v>45916.513043981482</v>
+        <v>45919.209988425922</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C129" s="2">
-        <v>45914.019074074073</v>
+        <v>45915.475578703707</v>
       </c>
       <c r="D129" s="2">
-        <v>45915.000347222223</v>
+        <v>45916.538958333331</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C130" s="2">
-        <v>45917.562847222223</v>
+        <v>45917.244652777779</v>
       </c>
       <c r="D130" s="2">
-        <v>45918.543981481482</v>
+        <v>45918.285451388889</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
@@ -2957,175 +2972,175 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C131" s="2">
-        <v>45910.510555555556</v>
+        <v>45913.021006944444</v>
       </c>
       <c r="D131" s="2">
-        <v>45911.524016203701</v>
+        <v>45914.078969907408</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C132" s="2">
-        <v>45919.566770833335</v>
+        <v>45920.069849537038</v>
       </c>
       <c r="D132" s="2">
-        <v>45920.544930555552</v>
+        <v>45921.099664351852</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C133" s="2">
-        <v>45912.242094907408</v>
+        <v>45921.14434027778</v>
       </c>
       <c r="D133" s="2">
-        <v>45913.231030092589</v>
+        <v>45922.190069444441</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C134" s="2">
-        <v>45913.530856481484</v>
+        <v>45921.066388888888</v>
       </c>
       <c r="D134" s="2">
-        <v>45914.507928240739</v>
+        <v>45922.111550925925</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C135" s="2">
-        <v>45920.249756944446</v>
+        <v>45919.472337962965</v>
       </c>
       <c r="D135" s="2">
-        <v>45921.209710648145</v>
+        <v>45920.537222222221</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C136" s="2">
-        <v>45920.033518518518</v>
+        <v>45920.519814814812</v>
       </c>
       <c r="D136" s="2">
-        <v>45921.002650462964</v>
+        <v>45921.570925925924</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C137" s="2">
-        <v>45913.030231481483</v>
+        <v>45920.582268518519</v>
       </c>
       <c r="D137" s="2">
-        <v>45914.003888888888</v>
+        <v>45921.598645833335</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C138" s="2">
-        <v>45915.220127314817</v>
+        <v>45914.036979166667</v>
       </c>
       <c r="D138" s="2">
-        <v>45916.216979166667</v>
+        <v>45915.079004629632</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C139" s="2">
-        <v>45918.378263888888</v>
+        <v>45919.036516203705</v>
       </c>
       <c r="D139" s="2">
-        <v>45919.401689814818</v>
+        <v>45920.041701388887</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B140" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C140" s="2">
-        <v>45917.543113425927</v>
+        <v>45912.242094907408</v>
       </c>
       <c r="D140" s="2">
-        <v>45918.545127314814</v>
+        <v>45913.231030092589</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140">
@@ -3134,16 +3149,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B141" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C141" s="2">
-        <v>45918.039143518516</v>
+        <v>45913.530856481484</v>
       </c>
       <c r="D141" s="2">
-        <v>45919.000752314816</v>
+        <v>45914.507928240739</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141">
@@ -3152,16 +3167,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B142" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C142" s="2">
-        <v>45915.020277777781</v>
+        <v>45919.566770833335</v>
       </c>
       <c r="D142" s="2">
-        <v>45916.002210648148</v>
+        <v>45920.544930555552</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142">
@@ -3173,13 +3188,13 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C143" s="2">
-        <v>45917.243622685186</v>
+        <v>45913.029675925929</v>
       </c>
       <c r="D143" s="2">
-        <v>45918.209560185183</v>
+        <v>45914.000960648147</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143">
@@ -3191,13 +3206,13 @@
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C144" s="2">
-        <v>45910.584328703706</v>
+        <v>45919.028819444444</v>
       </c>
       <c r="D144" s="2">
-        <v>45911.616053240738</v>
+        <v>45920.000590277778</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144">
@@ -3209,13 +3224,13 @@
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C145" s="2">
-        <v>45915.572175925925</v>
+        <v>45920.033518518518</v>
       </c>
       <c r="D145" s="2">
-        <v>45916.543171296296</v>
+        <v>45921.002650462964</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145">
@@ -3227,13 +3242,13 @@
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C146" s="2">
-        <v>45913.701620370368</v>
+        <v>45921.242048611108</v>
       </c>
       <c r="D146" s="2">
-        <v>45914.694907407407</v>
+        <v>45922.232083333336</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146">
@@ -3245,13 +3260,13 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C147" s="2">
-        <v>45910.041087962964</v>
+        <v>45915.220127314817</v>
       </c>
       <c r="D147" s="2">
-        <v>45911.026550925926</v>
+        <v>45916.216979166667</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147">
@@ -3281,13 +3296,13 @@
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C149" s="2">
-        <v>45913.029675925929</v>
+        <v>45917.243622685186</v>
       </c>
       <c r="D149" s="2">
-        <v>45914.000960648147</v>
+        <v>45918.209560185183</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149">
@@ -3299,13 +3314,13 @@
         <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C150" s="2">
-        <v>45919.028819444444</v>
+        <v>45920.249756944446</v>
       </c>
       <c r="D150" s="2">
-        <v>45920.000590277778</v>
+        <v>45921.209710648145</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150">
@@ -3314,16 +3329,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C151" s="2">
-        <v>45913.032546296294</v>
+        <v>45915.020277777781</v>
       </c>
       <c r="D151" s="2">
-        <v>45914.002326388887</v>
+        <v>45916.002210648148</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151">
@@ -3332,16 +3347,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C152" s="2">
-        <v>45912.03328703704</v>
+        <v>45918.378263888888</v>
       </c>
       <c r="D152" s="2">
-        <v>45913.003379629627</v>
+        <v>45919.401689814818</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152">
@@ -3350,16 +3365,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C153" s="2">
-        <v>45919.031469907408</v>
+        <v>45918.039143518516</v>
       </c>
       <c r="D153" s="2">
-        <v>45920.003437500003</v>
+        <v>45919.000752314816</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153">
@@ -3368,16 +3383,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C154" s="2">
-        <v>45911.556932870371</v>
+        <v>45913.701620370368</v>
       </c>
       <c r="D154" s="2">
-        <v>45912.543055555558</v>
+        <v>45914.694907407407</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154">
@@ -3386,16 +3401,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C155" s="2">
-        <v>45916.019108796296</v>
+        <v>45915.572175925925</v>
       </c>
       <c r="D155" s="2">
-        <v>45917.00277777778</v>
+        <v>45916.543171296296</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155">
@@ -3404,16 +3419,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C156" s="2">
-        <v>45910.02920138889</v>
+        <v>45913.030231481483</v>
       </c>
       <c r="D156" s="2">
-        <v>45911.005185185182</v>
+        <v>45914.003888888888</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156">
@@ -3422,16 +3437,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C157" s="2">
-        <v>45911.034571759257</v>
+        <v>45917.543113425927</v>
       </c>
       <c r="D157" s="2">
-        <v>45912.001400462963</v>
+        <v>45918.545127314814</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157">
@@ -3440,16 +3455,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C158" s="2">
-        <v>45914.0625</v>
+        <v>45914.043333333335</v>
       </c>
       <c r="D158" s="2">
-        <v>45915.059525462966</v>
+        <v>45915.064780092594</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158">
@@ -3458,16 +3473,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C159" s="2">
-        <v>45919.277962962966</v>
+        <v>45915.55263888889</v>
       </c>
       <c r="D159" s="2">
-        <v>45920.264999999999</v>
+        <v>45916.542962962965</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159">
@@ -3476,19 +3491,253 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C160" s="2">
-        <v>45916.579988425925</v>
+        <v>45915.540833333333</v>
       </c>
       <c r="D160" s="2">
-        <v>45917.561284722222</v>
+        <v>45916.513043981482</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" t="s">
+        <v>37</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45914.019074074073</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45915.000347222223</v>
+      </c>
+      <c r="E161" s="2"/>
+      <c r="F161">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45917.562847222223</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45918.543981481482</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45911.034571759257</v>
+      </c>
+      <c r="D163" s="2">
+        <v>45912.001400462963</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="F163">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>30</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45914.0625</v>
+      </c>
+      <c r="D164" s="2">
+        <v>45915.059525462966</v>
+      </c>
+      <c r="E164" s="2"/>
+      <c r="F164">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45921.242662037039</v>
+      </c>
+      <c r="D165" s="2">
+        <v>45922.242719907408</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
+        <v>54</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45920.548333333332</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45921.550543981481</v>
+      </c>
+      <c r="E166" s="2"/>
+      <c r="F166">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45919.277962962966</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45920.264999999999</v>
+      </c>
+      <c r="E167" s="2"/>
+      <c r="F167">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45916.019108796296</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45917.00277777778</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="F168">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>48</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45912.03328703704</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45913.003379629627</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>44</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45913.032546296294</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45914.002326388887</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45911.556932870371</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45912.543055555558</v>
+      </c>
+      <c r="E171" s="2"/>
+      <c r="F171">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
+        <v>36</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45919.031469907408</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45920.003437500003</v>
+      </c>
+      <c r="E172" s="2"/>
+      <c r="F172">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45916.579988425925</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45917.561284722222</v>
+      </c>
+      <c r="E173" s="2"/>
+      <c r="F173">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="79">
   <si>
     <t>电站名称</t>
   </si>
@@ -160,9 +160,6 @@
     <t>802号直流</t>
   </si>
   <si>
-    <t>B05号直流</t>
-  </si>
-  <si>
     <t>205号直流</t>
   </si>
   <si>
@@ -251,6 +248,12 @@
   </si>
   <si>
     <t>906号直流</t>
+  </si>
+  <si>
+    <t>501号直流</t>
+  </si>
+  <si>
+    <t>B03号直流</t>
   </si>
 </sst>
 </file>
@@ -611,19 +614,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="24" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -657,10 +654,10 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>45922.350138888891</v>
+        <v>45923.329664351855</v>
       </c>
       <c r="F2">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -722,71 +719,71 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2">
-        <v>45911.52857638889</v>
+        <v>45913.650914351849</v>
       </c>
       <c r="D6" s="2">
-        <v>45915.503275462965</v>
+        <v>45917.025937500002</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>45913.650914351849</v>
+        <v>45917.260844907411</v>
       </c>
       <c r="D7" s="2">
-        <v>45917.025937500002</v>
+        <v>45920.502418981479</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>45917.260844907411</v>
+        <v>45913.052685185183</v>
       </c>
       <c r="D8" s="2">
-        <v>45920.502418981479</v>
+        <v>45916.265127314815</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>45913.052685185183</v>
+        <v>45914.186030092591</v>
       </c>
       <c r="D9" s="2">
-        <v>45916.265127314815</v>
+        <v>45917.006539351853</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -794,17 +791,17 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>45914.186030092591</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45917.006539351853</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>45920.533217592594</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F10">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -812,35 +809,35 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
-        <v>45912.328969907408</v>
+        <v>45918.06113425926</v>
       </c>
       <c r="D11" s="2">
-        <v>45915.001701388886</v>
+        <v>45920.554386574076</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
-        <v>45918.06113425926</v>
+        <v>45918.557500000003</v>
       </c>
       <c r="D12" s="2">
-        <v>45920.554386574076</v>
+        <v>45921.013229166667</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -863,20 +860,20 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>45918.557500000003</v>
+        <v>45920.218981481485</v>
       </c>
       <c r="D14" s="2">
-        <v>45921.013229166667</v>
+        <v>45922.570208333331</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -884,35 +881,35 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>45919.2965625</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45921.530428240738</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>45921.028217592589</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F15">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
-        <v>45916.041956018518</v>
+        <v>45919.2965625</v>
       </c>
       <c r="D16" s="2">
-        <v>45918.243055555555</v>
+        <v>45921.530428240738</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -920,17 +917,17 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>45920.218981481485</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <v>45922.350138888891</v>
-      </c>
+        <v>45916.041956018518</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45918.243055555555</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -938,17 +935,17 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
-        <v>45920.057673611111</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45922.138402777775</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>45921.157870370371</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F18">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -956,17 +953,17 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2">
-        <v>45918.603634259256</v>
+        <v>45920.057673611111</v>
       </c>
       <c r="D19" s="2">
-        <v>45920.611122685186</v>
+        <v>45922.138402777775</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -974,35 +971,35 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2">
-        <v>45911.040381944447</v>
-      </c>
-      <c r="D20" s="2">
-        <v>45913.023263888892</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>45921.253159722219</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F20">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2">
-        <v>45912.060983796298</v>
-      </c>
-      <c r="D21" s="2">
-        <v>45914.012141203704</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>45921.329513888886</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F21">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -1010,17 +1007,17 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2">
-        <v>45920.046643518515</v>
+        <v>45918.603634259256</v>
       </c>
       <c r="D22" s="2">
-        <v>45922.024236111109</v>
+        <v>45920.611122685186</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -1028,31 +1025,31 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2">
-        <v>45920.118576388886</v>
+        <v>45921.095937500002</v>
       </c>
       <c r="D23" s="2">
-        <v>45922.064479166664</v>
+        <v>45923.123043981483</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2">
-        <v>45915.583414351851</v>
+        <v>45920.556597222225</v>
       </c>
       <c r="D24" s="2">
-        <v>45917.582627314812</v>
+        <v>45922.509699074071</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
@@ -1061,20 +1058,20 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>45914.560046296298</v>
+        <v>45915.583414351851</v>
       </c>
       <c r="D25" s="2">
-        <v>45916.478472222225</v>
+        <v>45917.582627314812</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -1082,17 +1079,17 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2">
-        <v>45911.646747685183</v>
+        <v>45920.118576388886</v>
       </c>
       <c r="D26" s="2">
-        <v>45913.523923611108</v>
+        <v>45922.064479166664</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -1100,17 +1097,17 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2">
-        <v>45911.562384259261</v>
+        <v>45920.046643518515</v>
       </c>
       <c r="D27" s="2">
-        <v>45913.435532407406</v>
+        <v>45922.024236111109</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -1118,31 +1115,31 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2">
-        <v>45917.219965277778</v>
+        <v>45914.560046296298</v>
       </c>
       <c r="D28" s="2">
-        <v>45919.087418981479</v>
+        <v>45916.478472222225</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2">
-        <v>45917.638888888891</v>
+        <v>45917.219965277778</v>
       </c>
       <c r="D29" s="2">
-        <v>45919.518240740741</v>
+        <v>45919.087418981479</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
@@ -1151,34 +1148,34 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>45919.589224537034</v>
+        <v>45917.638888888891</v>
       </c>
       <c r="D30" s="2">
-        <v>45921.4450462963</v>
+        <v>45919.518240740741</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2">
-        <v>45919.051585648151</v>
+        <v>45919.589224537034</v>
       </c>
       <c r="D31" s="2">
-        <v>45920.878449074073</v>
+        <v>45921.4450462963</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31">
@@ -1190,31 +1187,31 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2">
-        <v>45920.533217592594</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
-        <v>45922.350138888891</v>
-      </c>
+        <v>45919.051585648151</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45920.878449074073</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C33" s="2">
-        <v>45917.200092592589</v>
+        <v>45918.238622685189</v>
       </c>
       <c r="D33" s="2">
-        <v>45918.990624999999</v>
+        <v>45920.002534722225</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
@@ -1226,13 +1223,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2">
-        <v>45915.231793981482</v>
+        <v>45917.200092592589</v>
       </c>
       <c r="D34" s="2">
-        <v>45917.019432870373</v>
+        <v>45918.990624999999</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
@@ -1241,46 +1238,46 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2">
-        <v>45918.238622685189</v>
-      </c>
-      <c r="D35" s="2">
-        <v>45920.002534722225</v>
-      </c>
-      <c r="E35" s="2"/>
+        <v>45921.524293981478</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F35">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2">
-        <v>45920.556597222225</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2">
-        <v>45922.350138888891</v>
-      </c>
+        <v>45915.231793981482</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45917.019432870373</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="2">
         <v>45913.76421296296</v>
@@ -1313,16 +1310,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C39" s="2">
-        <v>45920.49628472222</v>
+        <v>45920.74355324074</v>
       </c>
       <c r="D39" s="2">
-        <v>45922.174942129626</v>
+        <v>45922.439247685186</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39">
@@ -1331,16 +1328,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C40" s="2">
-        <v>45914.040277777778</v>
+        <v>45920.49628472222</v>
       </c>
       <c r="D40" s="2">
-        <v>45915.733287037037</v>
+        <v>45922.174942129626</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
@@ -1349,16 +1346,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2">
-        <v>45918.02584490741</v>
+        <v>45918.673472222225</v>
       </c>
       <c r="D41" s="2">
-        <v>45919.731539351851</v>
+        <v>45920.394062500003</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
@@ -1370,15 +1367,15 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2">
-        <v>45918.673472222225</v>
-      </c>
-      <c r="D42" s="2">
-        <v>45920.394062500003</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>45921.592141203706</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F42">
         <v>41</v>
       </c>
@@ -1388,35 +1385,35 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C43" s="2">
-        <v>45911.531018518515</v>
+        <v>45914.040277777778</v>
       </c>
       <c r="D43" s="2">
-        <v>45913.206875000003</v>
+        <v>45915.733287037037</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="2">
-        <v>45920.564571759256</v>
+        <v>45918.02584490741</v>
       </c>
       <c r="D44" s="2">
-        <v>45922.247418981482</v>
+        <v>45919.731539351851</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -1424,13 +1421,13 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C45" s="2">
-        <v>45919.528935185182</v>
+        <v>45920.564571759256</v>
       </c>
       <c r="D45" s="2">
-        <v>45921.204571759263</v>
+        <v>45922.247418981482</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
@@ -1439,20 +1436,20 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2">
-        <v>45920.74355324074</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2">
-        <v>45922.350138888891</v>
-      </c>
+        <v>45919.528935185182</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45921.204571759263</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -1475,20 +1472,20 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C48" s="2">
-        <v>45915.111643518518</v>
-      </c>
-      <c r="D48" s="2">
-        <v>45916.694467592592</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>45921.69458333333</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F48">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -1496,13 +1493,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C49" s="2">
-        <v>45918.715682870374</v>
+        <v>45915.111643518518</v>
       </c>
       <c r="D49" s="2">
-        <v>45920.332812499997</v>
+        <v>45916.694467592592</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
@@ -1514,49 +1511,49 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C50" s="2">
-        <v>45914.486261574071</v>
+        <v>45918.715682870374</v>
       </c>
       <c r="D50" s="2">
-        <v>45916.002962962964</v>
+        <v>45920.332812499997</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C51" s="2">
-        <v>45919.605023148149</v>
+        <v>45914.486261574071</v>
       </c>
       <c r="D51" s="2">
-        <v>45921.08798611111</v>
+        <v>45916.002962962964</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2">
-        <v>45916.051249999997</v>
+        <v>45919.605023148149</v>
       </c>
       <c r="D52" s="2">
-        <v>45917.567256944443</v>
+        <v>45921.08798611111</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
@@ -1604,13 +1601,13 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C55" s="2">
-        <v>45915.025833333333</v>
+        <v>45915.061967592592</v>
       </c>
       <c r="D55" s="2">
-        <v>45916.511203703703</v>
+        <v>45916.546516203707</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
@@ -1622,13 +1619,13 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C56" s="2">
-        <v>45915.061967592592</v>
+        <v>45915.025833333333</v>
       </c>
       <c r="D56" s="2">
-        <v>45916.546516203707</v>
+        <v>45916.511203703703</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
@@ -1640,17 +1637,17 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C57" s="2">
-        <v>45913.566805555558</v>
+        <v>45921.059305555558</v>
       </c>
       <c r="D57" s="2">
-        <v>45915.004942129628</v>
+        <v>45922.549004629633</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -1658,31 +1655,31 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C58" s="2">
-        <v>45918.54587962963</v>
+        <v>45916.051249999997</v>
       </c>
       <c r="D58" s="2">
-        <v>45920.000509259262</v>
+        <v>45917.567256944443</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2">
-        <v>45917.128229166665</v>
+        <v>45920.072627314818</v>
       </c>
       <c r="D59" s="2">
-        <v>45918.609236111108</v>
+        <v>45921.502418981479</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
@@ -1694,13 +1691,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2">
-        <v>45919.726388888892</v>
+        <v>45917.128229166665</v>
       </c>
       <c r="D60" s="2">
-        <v>45921.203738425924</v>
+        <v>45918.609236111108</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
@@ -1712,13 +1709,13 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2">
-        <v>45913.717233796298</v>
+        <v>45919.726388888892</v>
       </c>
       <c r="D61" s="2">
-        <v>45915.203182870369</v>
+        <v>45921.203738425924</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61">
@@ -1727,16 +1724,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C62" s="2">
-        <v>45920.072627314818</v>
+        <v>45918.54587962963</v>
       </c>
       <c r="D62" s="2">
-        <v>45921.502418981479</v>
+        <v>45920.000509259262</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
@@ -1745,16 +1742,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C63" s="2">
-        <v>45912.567314814813</v>
+        <v>45913.566805555558</v>
       </c>
       <c r="D63" s="2">
-        <v>45914.04074074074</v>
+        <v>45915.004942129628</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63">
@@ -1766,31 +1763,31 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C64" s="2">
-        <v>45917.589189814818</v>
+        <v>45913.717233796298</v>
       </c>
       <c r="D64" s="2">
-        <v>45919.000393518516</v>
+        <v>45915.203182870369</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C65" s="2">
-        <v>45916.623356481483</v>
+        <v>45914.050219907411</v>
       </c>
       <c r="D65" s="2">
-        <v>45918.0237037037</v>
+        <v>45915.466817129629</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
@@ -1802,13 +1799,13 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C66" s="2">
-        <v>45916.059074074074</v>
+        <v>45921.05846064815</v>
       </c>
       <c r="D66" s="2">
-        <v>45917.468865740739</v>
+        <v>45922.473738425928</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66">
@@ -1820,13 +1817,13 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C67" s="2">
-        <v>45915.541979166665</v>
+        <v>45916.623356481483</v>
       </c>
       <c r="D67" s="2">
-        <v>45916.988449074073</v>
+        <v>45918.0237037037</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
@@ -1835,16 +1832,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C68" s="2">
-        <v>45914.050219907411</v>
+        <v>45916.059074074074</v>
       </c>
       <c r="D68" s="2">
-        <v>45915.466817129629</v>
+        <v>45917.468865740739</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
@@ -1853,20 +1850,20 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C69" s="2">
-        <v>45912.627604166664</v>
+        <v>45915.541979166665</v>
       </c>
       <c r="D69" s="2">
-        <v>45914.005208333336</v>
+        <v>45916.988449074073</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -1874,17 +1871,17 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C70" s="2">
-        <v>45921.028217592589</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2">
-        <v>45922.350138888891</v>
-      </c>
+        <v>45921.583819444444</v>
+      </c>
+      <c r="D70" s="2">
+        <v>45923.000474537039</v>
+      </c>
+      <c r="E70" s="2"/>
       <c r="F70">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -1892,49 +1889,49 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C71" s="2">
-        <v>45917.051562499997</v>
+        <v>45917.589189814818</v>
       </c>
       <c r="D71" s="2">
-        <v>45918.348865740743</v>
+        <v>45919.000393518516</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C72" s="2">
-        <v>45920.226956018516</v>
+        <v>45921.423414351855</v>
       </c>
       <c r="D72" s="2">
-        <v>45921.501458333332</v>
+        <v>45922.778611111113</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2">
-        <v>45915.259062500001</v>
+        <v>45918.712372685186</v>
       </c>
       <c r="D73" s="2">
-        <v>45916.545428240737</v>
+        <v>45920.004004629627</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73">
@@ -1943,18 +1940,18 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C74" s="2">
-        <v>45921.05846064815</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2">
-        <v>45922.350138888891</v>
-      </c>
+        <v>45921.582569444443</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45922.871388888889</v>
+      </c>
+      <c r="E74" s="2"/>
       <c r="F74">
         <v>31</v>
       </c>
@@ -1964,15 +1961,15 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2">
-        <v>45921.059305555558</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2">
-        <v>45922.350138888891</v>
-      </c>
+        <v>45917.051562499997</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45918.348865740743</v>
+      </c>
+      <c r="E75" s="2"/>
       <c r="F75">
         <v>31</v>
       </c>
@@ -1982,13 +1979,13 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C76" s="2">
-        <v>45916.531759259262</v>
+        <v>45920.226956018516</v>
       </c>
       <c r="D76" s="2">
-        <v>45917.797986111109</v>
+        <v>45921.501458333332</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76">
@@ -1997,16 +1994,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C77" s="2">
-        <v>45918.712372685186</v>
+        <v>45915.259062500001</v>
       </c>
       <c r="D77" s="2">
-        <v>45920.004004629627</v>
+        <v>45916.545428240737</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
@@ -2018,31 +2015,31 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C78" s="2">
-        <v>45918.264537037037</v>
+        <v>45916.531759259262</v>
       </c>
       <c r="D78" s="2">
-        <v>45919.504305555558</v>
+        <v>45917.797986111109</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2">
-        <v>45917.038738425923</v>
+        <v>45919.267326388886</v>
       </c>
       <c r="D79" s="2">
-        <v>45918.261030092595</v>
+        <v>45920.507592592592</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79">
@@ -2051,18 +2048,18 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C80" s="2">
-        <v>45918.257824074077</v>
-      </c>
-      <c r="D80" s="2">
-        <v>45919.535219907404</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>45922.064953703702</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F80">
         <v>30</v>
       </c>
@@ -2072,31 +2069,31 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C81" s="2">
-        <v>45921.095937500002</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2">
-        <v>45922.350138888891</v>
-      </c>
+        <v>45918.257824074077</v>
+      </c>
+      <c r="D81" s="2">
+        <v>45919.535219907404</v>
+      </c>
+      <c r="E81" s="2"/>
       <c r="F81">
         <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C82" s="2">
-        <v>45919.267326388886</v>
+        <v>45918.264537037037</v>
       </c>
       <c r="D82" s="2">
-        <v>45920.507592592592</v>
+        <v>45919.504305555558</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
@@ -2105,28 +2102,28 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2">
-        <v>45916.350173611114</v>
+        <v>45917.038738425923</v>
       </c>
       <c r="D83" s="2">
-        <v>45917.544189814813</v>
+        <v>45918.261030092595</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C84" s="2">
         <v>45914.304675925923</v>
@@ -2141,16 +2138,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C85" s="2">
-        <v>45913.050844907404</v>
+        <v>45921.307766203703</v>
       </c>
       <c r="D85" s="2">
-        <v>45914.284895833334</v>
+        <v>45922.536527777775</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85">
@@ -2159,16 +2156,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C86" s="2">
-        <v>45915.250428240739</v>
+        <v>45916.350173611114</v>
       </c>
       <c r="D86" s="2">
-        <v>45916.492291666669</v>
+        <v>45917.544189814813</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
@@ -2177,36 +2174,36 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2">
-        <v>45921.157870370371</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2">
-        <v>45922.350138888891</v>
-      </c>
+        <v>45918.558819444443</v>
+      </c>
+      <c r="D87" s="2">
+        <v>45919.759699074071</v>
+      </c>
+      <c r="E87" s="2"/>
       <c r="F87">
         <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C88" s="2">
-        <v>45921.137314814812</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2">
-        <v>45922.350138888891</v>
-      </c>
+        <v>45920.421863425923</v>
+      </c>
+      <c r="D88" s="2">
+        <v>45921.626620370371</v>
+      </c>
+      <c r="E88" s="2"/>
       <c r="F88">
         <v>29</v>
       </c>
@@ -2216,31 +2213,31 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C89" s="2">
-        <v>45918.558819444443</v>
-      </c>
-      <c r="D89" s="2">
-        <v>45919.759699074071</v>
-      </c>
-      <c r="E89" s="2"/>
+        <v>45922.097395833334</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F89">
         <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C90" s="2">
-        <v>45920.421863425923</v>
+        <v>45914.064189814817</v>
       </c>
       <c r="D90" s="2">
-        <v>45921.626620370371</v>
+        <v>45915.274594907409</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90">
@@ -2252,13 +2249,13 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2">
-        <v>45914.064189814817</v>
+        <v>45920.023310185185</v>
       </c>
       <c r="D91" s="2">
-        <v>45915.274594907409</v>
+        <v>45921.21974537037</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91">
@@ -2267,16 +2264,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C92" s="2">
-        <v>45920.023310185185</v>
+        <v>45915.250428240739</v>
       </c>
       <c r="D92" s="2">
-        <v>45921.21974537037</v>
+        <v>45916.492291666669</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92">
@@ -2288,17 +2285,17 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C93" s="2">
-        <v>45914.011388888888</v>
+        <v>45913.050844907404</v>
       </c>
       <c r="D93" s="2">
-        <v>45915.187569444446</v>
+        <v>45914.284895833334</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -2306,31 +2303,31 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2">
-        <v>45917.046249999999</v>
+        <v>45921.137314814812</v>
       </c>
       <c r="D94" s="2">
-        <v>45918.227696759262</v>
+        <v>45922.354317129626</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C95" s="2">
-        <v>45915.035682870373</v>
+        <v>45914.060752314814</v>
       </c>
       <c r="D95" s="2">
-        <v>45916.204282407409</v>
+        <v>45915.225474537037</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
@@ -2339,16 +2336,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C96" s="2">
-        <v>45914.060752314814</v>
+        <v>45919.064259259256</v>
       </c>
       <c r="D96" s="2">
-        <v>45915.225474537037</v>
+        <v>45920.216261574074</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
@@ -2360,13 +2357,13 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C97" s="2">
-        <v>45919.064259259256</v>
+        <v>45917.862303240741</v>
       </c>
       <c r="D97" s="2">
-        <v>45920.216261574074</v>
+        <v>45919.004907407405</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97">
@@ -2375,16 +2372,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C98" s="2">
-        <v>45917.862303240741</v>
+        <v>45917.046249999999</v>
       </c>
       <c r="D98" s="2">
-        <v>45919.004907407405</v>
+        <v>45918.227696759262</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
@@ -2393,20 +2390,20 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C99" s="2">
-        <v>45919.362210648149</v>
+        <v>45914.011388888888</v>
       </c>
       <c r="D99" s="2">
-        <v>45920.481516203705</v>
+        <v>45915.187569444446</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
@@ -2414,31 +2411,31 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C100" s="2">
-        <v>45920.552754629629</v>
+        <v>45915.035682870373</v>
       </c>
       <c r="D100" s="2">
-        <v>45921.668356481481</v>
+        <v>45916.204282407409</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C101" s="2">
-        <v>45915.075706018521</v>
+        <v>45919.362210648149</v>
       </c>
       <c r="D101" s="2">
-        <v>45916.188900462963</v>
+        <v>45920.481516203705</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101">
@@ -2447,16 +2444,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C102" s="2">
-        <v>45913.579629629632</v>
+        <v>45920.406226851854</v>
       </c>
       <c r="D102" s="2">
-        <v>45914.686932870369</v>
+        <v>45921.508819444447</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102">
@@ -2465,16 +2462,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C103" s="2">
-        <v>45914.151493055557</v>
+        <v>45913.042430555557</v>
       </c>
       <c r="D103" s="2">
-        <v>45915.287997685184</v>
+        <v>45914.200810185182</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
@@ -2486,13 +2483,13 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2">
-        <v>45920.377418981479</v>
+        <v>45914.151493055557</v>
       </c>
       <c r="D104" s="2">
-        <v>45921.533807870372</v>
+        <v>45915.287997685184</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104">
@@ -2504,13 +2501,13 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C105" s="2">
-        <v>45912.041076388887</v>
+        <v>45922.024722222224</v>
       </c>
       <c r="D105" s="2">
-        <v>45913.145925925928</v>
+        <v>45923.16505787037</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
@@ -2522,13 +2519,13 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C106" s="2">
-        <v>45914.045497685183</v>
+        <v>45915.075706018521</v>
       </c>
       <c r="D106" s="2">
-        <v>45915.202696759261</v>
+        <v>45916.188900462963</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
@@ -2537,16 +2534,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C107" s="2">
-        <v>45913.042430555557</v>
+        <v>45913.579629629632</v>
       </c>
       <c r="D107" s="2">
-        <v>45914.200810185182</v>
+        <v>45914.686932870369</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
@@ -2555,16 +2552,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C108" s="2">
-        <v>45920.406226851854</v>
+        <v>45920.552754629629</v>
       </c>
       <c r="D108" s="2">
-        <v>45921.508819444447</v>
+        <v>45921.668356481481</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
@@ -2573,16 +2570,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C109" s="2">
-        <v>45911.012094907404</v>
+        <v>45920.377418981479</v>
       </c>
       <c r="D109" s="2">
-        <v>45912.137696759259</v>
+        <v>45921.533807870372</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
@@ -2591,34 +2588,34 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C110" s="2">
-        <v>45919.351388888892</v>
+        <v>45914.045497685183</v>
       </c>
       <c r="D110" s="2">
-        <v>45920.447187500002</v>
+        <v>45915.202696759261</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2">
-        <v>45920.431886574072</v>
+        <v>45919.351388888892</v>
       </c>
       <c r="D111" s="2">
-        <v>45921.540509259263</v>
+        <v>45920.447187500002</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
@@ -2630,13 +2627,13 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C112" s="2">
-        <v>45913.064467592594</v>
+        <v>45920.431886574072</v>
       </c>
       <c r="D112" s="2">
-        <v>45914.140983796293</v>
+        <v>45921.540509259263</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
@@ -2648,139 +2645,139 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2">
-        <v>45921.253159722219</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2">
-        <v>45922.350138888891</v>
-      </c>
+        <v>45921.74591435185</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45922.807905092595</v>
+      </c>
+      <c r="E113" s="2"/>
       <c r="F113">
         <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C114" s="2">
-        <v>45920.491261574076</v>
+        <v>45913.064467592594</v>
       </c>
       <c r="D114" s="2">
-        <v>45921.517442129632</v>
+        <v>45914.140983796293</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C115" s="2">
-        <v>45911.504976851851</v>
+        <v>45922.041203703702</v>
       </c>
       <c r="D115" s="2">
-        <v>45912.543333333335</v>
+        <v>45923.100868055553</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C116" s="2">
-        <v>45915.525405092594</v>
-      </c>
-      <c r="D116" s="2">
-        <v>45916.54210648148</v>
-      </c>
-      <c r="E116" s="2"/>
+        <v>45922.242962962962</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F116">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C117" s="2">
-        <v>45919.499756944446</v>
-      </c>
-      <c r="D117" s="2">
-        <v>45920.505324074074</v>
-      </c>
-      <c r="E117" s="2"/>
+        <v>45922.224942129629</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F117">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" t="s">
         <v>50</v>
       </c>
-      <c r="B118" t="s">
-        <v>31</v>
-      </c>
       <c r="C118" s="2">
-        <v>45921.329513888886</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2">
-        <v>45922.350138888891</v>
-      </c>
+        <v>45915.525405092594</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45916.54210648148</v>
+      </c>
+      <c r="E118" s="2"/>
       <c r="F118">
         <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B119" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C119" s="2">
-        <v>45921.307766203703</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2">
-        <v>45922.350138888891</v>
-      </c>
+        <v>45919.499756944446</v>
+      </c>
+      <c r="D119" s="2">
+        <v>45920.505324074074</v>
+      </c>
+      <c r="E119" s="2"/>
       <c r="F119">
         <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C120" s="2">
-        <v>45911.244166666664</v>
+        <v>45922.081238425926</v>
       </c>
       <c r="D120" s="2">
-        <v>45912.265601851854</v>
+        <v>45923.107094907406</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120">
@@ -2789,16 +2786,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C121" s="2">
-        <v>45915.483831018515</v>
+        <v>45920.491261574076</v>
       </c>
       <c r="D121" s="2">
-        <v>45916.511701388888</v>
+        <v>45921.517442129632</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
@@ -2807,16 +2804,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C122" s="2">
-        <v>45921.199143518519</v>
+        <v>45921.066388888888</v>
       </c>
       <c r="D122" s="2">
-        <v>45922.214166666665</v>
+        <v>45922.111550925925</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122">
@@ -2825,16 +2822,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C123" s="2">
-        <v>45912.043020833335</v>
+        <v>45919.472337962965</v>
       </c>
       <c r="D123" s="2">
-        <v>45913.113923611112</v>
+        <v>45920.537222222221</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123">
@@ -2843,16 +2840,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C124" s="2">
-        <v>45911.684641203705</v>
+        <v>45921.14434027778</v>
       </c>
       <c r="D124" s="2">
-        <v>45912.726527777777</v>
+        <v>45922.190069444441</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124">
@@ -2861,16 +2858,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C125" s="2">
-        <v>45915.055277777778</v>
+        <v>45913.021006944444</v>
       </c>
       <c r="D125" s="2">
-        <v>45916.095949074072</v>
+        <v>45914.078969907408</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
@@ -2879,16 +2876,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C126" s="2">
-        <v>45919.067708333336</v>
+        <v>45920.069849537038</v>
       </c>
       <c r="D126" s="2">
-        <v>45920.088587962964</v>
+        <v>45921.099664351852</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126">
@@ -2897,34 +2894,34 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C127" s="2">
-        <v>45911.994386574072</v>
-      </c>
-      <c r="D127" s="2">
-        <v>45913.008622685185</v>
-      </c>
-      <c r="E127" s="2"/>
+        <v>45922.284201388888</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F127">
         <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C128" s="2">
-        <v>45918.199444444443</v>
+        <v>45914.036979166667</v>
       </c>
       <c r="D128" s="2">
-        <v>45919.209988425922</v>
+        <v>45915.079004629632</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128">
@@ -2933,16 +2930,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C129" s="2">
-        <v>45915.475578703707</v>
+        <v>45919.036516203705</v>
       </c>
       <c r="D129" s="2">
-        <v>45916.538958333331</v>
+        <v>45920.041701388887</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129">
@@ -2951,16 +2948,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C130" s="2">
-        <v>45917.244652777779</v>
+        <v>45920.582268518519</v>
       </c>
       <c r="D130" s="2">
-        <v>45918.285451388889</v>
+        <v>45921.598645833335</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
@@ -2969,16 +2966,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C131" s="2">
-        <v>45913.021006944444</v>
+        <v>45920.519814814812</v>
       </c>
       <c r="D131" s="2">
-        <v>45914.078969907408</v>
+        <v>45921.570925925924</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
@@ -2987,52 +2984,52 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C132" s="2">
-        <v>45920.069849537038</v>
-      </c>
-      <c r="D132" s="2">
-        <v>45921.099664351852</v>
-      </c>
-      <c r="E132" s="2"/>
+        <v>45922.276886574073</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F132">
         <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C133" s="2">
-        <v>45921.14434027778</v>
-      </c>
-      <c r="D133" s="2">
-        <v>45922.190069444441</v>
-      </c>
-      <c r="E133" s="2"/>
+        <v>45922.253599537034</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F133">
         <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="C134" s="2">
-        <v>45921.066388888888</v>
+        <v>45917.244652777779</v>
       </c>
       <c r="D134" s="2">
-        <v>45922.111550925925</v>
+        <v>45918.285451388889</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134">
@@ -3041,16 +3038,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C135" s="2">
-        <v>45919.472337962965</v>
+        <v>45921.199143518519</v>
       </c>
       <c r="D135" s="2">
-        <v>45920.537222222221</v>
+        <v>45922.214166666665</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135">
@@ -3059,16 +3056,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C136" s="2">
-        <v>45920.519814814812</v>
+        <v>45921.503078703703</v>
       </c>
       <c r="D136" s="2">
-        <v>45921.570925925924</v>
+        <v>45922.562141203707</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136">
@@ -3077,16 +3074,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C137" s="2">
-        <v>45920.582268518519</v>
+        <v>45915.475578703707</v>
       </c>
       <c r="D137" s="2">
-        <v>45921.598645833335</v>
+        <v>45916.538958333331</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137">
@@ -3095,16 +3092,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C138" s="2">
-        <v>45914.036979166667</v>
+        <v>45915.055277777778</v>
       </c>
       <c r="D138" s="2">
-        <v>45915.079004629632</v>
+        <v>45916.095949074072</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138">
@@ -3113,16 +3110,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C139" s="2">
-        <v>45919.036516203705</v>
+        <v>45918.199444444443</v>
       </c>
       <c r="D139" s="2">
-        <v>45920.041701388887</v>
+        <v>45919.209988425922</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139">
@@ -3131,70 +3128,70 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C140" s="2">
-        <v>45912.242094907408</v>
+        <v>45919.067708333336</v>
       </c>
       <c r="D140" s="2">
-        <v>45913.231030092589</v>
+        <v>45920.088587962964</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C141" s="2">
-        <v>45913.530856481484</v>
+        <v>45915.483831018515</v>
       </c>
       <c r="D141" s="2">
-        <v>45914.507928240739</v>
+        <v>45916.511701388888</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C142" s="2">
-        <v>45919.566770833335</v>
-      </c>
-      <c r="D142" s="2">
-        <v>45920.544930555552</v>
-      </c>
-      <c r="E142" s="2"/>
+        <v>45922.252685185187</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2">
+        <v>45923.329664351855</v>
+      </c>
       <c r="F142">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C143" s="2">
-        <v>45913.029675925929</v>
+        <v>45919.566770833335</v>
       </c>
       <c r="D143" s="2">
-        <v>45914.000960648147</v>
+        <v>45920.544930555552</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143">
@@ -3203,16 +3200,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B144" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C144" s="2">
-        <v>45919.028819444444</v>
+        <v>45913.530856481484</v>
       </c>
       <c r="D144" s="2">
-        <v>45920.000590277778</v>
+        <v>45914.507928240739</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144">
@@ -3221,16 +3218,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C145" s="2">
-        <v>45920.033518518518</v>
+        <v>45914.043333333335</v>
       </c>
       <c r="D145" s="2">
-        <v>45921.002650462964</v>
+        <v>45915.064780092594</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145">
@@ -3239,16 +3236,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C146" s="2">
-        <v>45921.242048611108</v>
+        <v>45917.562847222223</v>
       </c>
       <c r="D146" s="2">
-        <v>45922.232083333336</v>
+        <v>45918.543981481482</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146">
@@ -3257,16 +3254,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C147" s="2">
-        <v>45915.220127314817</v>
+        <v>45914.019074074073</v>
       </c>
       <c r="D147" s="2">
-        <v>45916.216979166667</v>
+        <v>45915.000347222223</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147">
@@ -3275,16 +3272,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C148" s="2">
-        <v>45919.033101851855</v>
+        <v>45922.039305555554</v>
       </c>
       <c r="D148" s="2">
-        <v>45920.037638888891</v>
+        <v>45923.0000462963</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148">
@@ -3293,16 +3290,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C149" s="2">
-        <v>45917.243622685186</v>
+        <v>45915.55263888889</v>
       </c>
       <c r="D149" s="2">
-        <v>45918.209560185183</v>
+        <v>45916.542962962965</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149">
@@ -3311,16 +3308,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C150" s="2">
-        <v>45920.249756944446</v>
+        <v>45915.540833333333</v>
       </c>
       <c r="D150" s="2">
-        <v>45921.209710648145</v>
+        <v>45916.513043981482</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150">
@@ -3329,16 +3326,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C151" s="2">
-        <v>45915.020277777781</v>
+        <v>45916.579988425925</v>
       </c>
       <c r="D151" s="2">
-        <v>45916.002210648148</v>
+        <v>45917.561284722222</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151">
@@ -3347,16 +3344,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C152" s="2">
-        <v>45918.378263888888</v>
+        <v>45913.032546296294</v>
       </c>
       <c r="D152" s="2">
-        <v>45919.401689814818</v>
+        <v>45914.002326388887</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152">
@@ -3365,16 +3362,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C153" s="2">
-        <v>45918.039143518516</v>
+        <v>45919.031469907408</v>
       </c>
       <c r="D153" s="2">
-        <v>45919.000752314816</v>
+        <v>45920.003437500003</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153">
@@ -3383,16 +3380,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C154" s="2">
-        <v>45913.701620370368</v>
+        <v>45922.03570601852</v>
       </c>
       <c r="D154" s="2">
-        <v>45914.694907407407</v>
+        <v>45923.002534722225</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154">
@@ -3401,16 +3398,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C155" s="2">
-        <v>45915.572175925925</v>
+        <v>45920.548333333332</v>
       </c>
       <c r="D155" s="2">
-        <v>45916.543171296296</v>
+        <v>45921.550543981481</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155">
@@ -3419,16 +3416,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C156" s="2">
-        <v>45913.030231481483</v>
+        <v>45916.019108796296</v>
       </c>
       <c r="D156" s="2">
-        <v>45914.003888888888</v>
+        <v>45917.00277777778</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156">
@@ -3437,16 +3434,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C157" s="2">
-        <v>45917.543113425927</v>
+        <v>45919.277962962966</v>
       </c>
       <c r="D157" s="2">
-        <v>45918.545127314814</v>
+        <v>45920.264999999999</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157">
@@ -3455,16 +3452,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C158" s="2">
-        <v>45914.043333333335</v>
+        <v>45914.0625</v>
       </c>
       <c r="D158" s="2">
-        <v>45915.064780092594</v>
+        <v>45915.059525462966</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158">
@@ -3473,16 +3470,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C159" s="2">
-        <v>45915.55263888889</v>
+        <v>45921.242662037039</v>
       </c>
       <c r="D159" s="2">
-        <v>45916.542962962965</v>
+        <v>45922.242719907408</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159">
@@ -3491,16 +3488,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C160" s="2">
-        <v>45915.540833333333</v>
+        <v>45920.033518518518</v>
       </c>
       <c r="D160" s="2">
-        <v>45916.513043981482</v>
+        <v>45921.002650462964</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160">
@@ -3509,16 +3506,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C161" s="2">
-        <v>45914.019074074073</v>
+        <v>45921.242048611108</v>
       </c>
       <c r="D161" s="2">
-        <v>45915.000347222223</v>
+        <v>45922.232083333336</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161">
@@ -3527,16 +3524,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C162" s="2">
-        <v>45917.562847222223</v>
+        <v>45921.541365740741</v>
       </c>
       <c r="D162" s="2">
-        <v>45918.543981481482</v>
+        <v>45922.512129629627</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162">
@@ -3545,16 +3542,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C163" s="2">
-        <v>45911.034571759257</v>
+        <v>45918.378263888888</v>
       </c>
       <c r="D163" s="2">
-        <v>45912.001400462963</v>
+        <v>45919.401689814818</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163">
@@ -3563,16 +3560,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C164" s="2">
-        <v>45914.0625</v>
+        <v>45917.243622685186</v>
       </c>
       <c r="D164" s="2">
-        <v>45915.059525462966</v>
+        <v>45918.209560185183</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164">
@@ -3581,16 +3578,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C165" s="2">
-        <v>45921.242662037039</v>
+        <v>45917.543113425927</v>
       </c>
       <c r="D165" s="2">
-        <v>45922.242719907408</v>
+        <v>45918.545127314814</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165">
@@ -3599,16 +3596,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C166" s="2">
-        <v>45920.548333333332</v>
+        <v>45921.860902777778</v>
       </c>
       <c r="D166" s="2">
-        <v>45921.550543981481</v>
+        <v>45922.843414351853</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166">
@@ -3617,16 +3614,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C167" s="2">
-        <v>45919.277962962966</v>
+        <v>45920.249756944446</v>
       </c>
       <c r="D167" s="2">
-        <v>45920.264999999999</v>
+        <v>45921.209710648145</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167">
@@ -3635,16 +3632,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C168" s="2">
-        <v>45916.019108796296</v>
+        <v>45922.063263888886</v>
       </c>
       <c r="D168" s="2">
-        <v>45917.00277777778</v>
+        <v>45923.069189814814</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168">
@@ -3653,16 +3650,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B169" t="s">
         <v>48</v>
       </c>
       <c r="C169" s="2">
-        <v>45912.03328703704</v>
+        <v>45913.030231481483</v>
       </c>
       <c r="D169" s="2">
-        <v>45913.003379629627</v>
+        <v>45914.003888888888</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169">
@@ -3671,16 +3668,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C170" s="2">
-        <v>45913.032546296294</v>
+        <v>45915.020277777781</v>
       </c>
       <c r="D170" s="2">
-        <v>45914.002326388887</v>
+        <v>45916.002210648148</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170">
@@ -3689,16 +3686,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C171" s="2">
-        <v>45911.556932870371</v>
+        <v>45919.033101851855</v>
       </c>
       <c r="D171" s="2">
-        <v>45912.543055555558</v>
+        <v>45920.037638888891</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171">
@@ -3707,16 +3704,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C172" s="2">
-        <v>45919.031469907408</v>
+        <v>45918.039143518516</v>
       </c>
       <c r="D172" s="2">
-        <v>45920.003437500003</v>
+        <v>45919.000752314816</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172">
@@ -3725,19 +3722,91 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C173" s="2">
-        <v>45916.579988425925</v>
+        <v>45913.701620370368</v>
       </c>
       <c r="D173" s="2">
-        <v>45917.561284722222</v>
+        <v>45914.694907407407</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>37</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45915.572175925925</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45916.543171296296</v>
+      </c>
+      <c r="E174" s="2"/>
+      <c r="F174">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45913.029675925929</v>
+      </c>
+      <c r="D175" s="2">
+        <v>45914.000960648147</v>
+      </c>
+      <c r="E175" s="2"/>
+      <c r="F175">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45919.028819444444</v>
+      </c>
+      <c r="D176" s="2">
+        <v>45920.000590277778</v>
+      </c>
+      <c r="E176" s="2"/>
+      <c r="F176">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>56</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45915.220127314817</v>
+      </c>
+      <c r="D177" s="2">
+        <v>45916.216979166667</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="F177">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="81">
   <si>
     <t>电站名称</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>B03号直流</t>
+  </si>
+  <si>
+    <t>006A号直流</t>
+  </si>
+  <si>
+    <t>603号直流</t>
   </si>
 </sst>
 </file>
@@ -614,13 +620,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -654,10 +666,10 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>45923.329664351855</v>
+        <v>45924.318298611113</v>
       </c>
       <c r="F2">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -716,20 +728,20 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>45913.650914351849</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45917.025937500002</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>45920.533217592594</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>45924.318298611113</v>
+      </c>
       <c r="F6">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -737,35 +749,35 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2">
-        <v>45917.260844907411</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45920.502418981479</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>45921.028217592589</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>45924.318298611113</v>
+      </c>
       <c r="F7">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>45913.052685185183</v>
+        <v>45917.260844907411</v>
       </c>
       <c r="D8" s="2">
-        <v>45916.265127314815</v>
+        <v>45920.502418981479</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -773,17 +785,17 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>45914.186030092591</v>
+        <v>45921.157870370371</v>
       </c>
       <c r="D9" s="2">
-        <v>45917.006539351853</v>
+        <v>45924.054502314815</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -791,17 +803,17 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>45920.533217592594</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>45923.329664351855</v>
-      </c>
+        <v>45914.186030092591</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45917.006539351853</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -812,46 +824,46 @@
         <v>39</v>
       </c>
       <c r="C11" s="2">
-        <v>45918.06113425926</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45920.554386574076</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>45921.524293981478</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>45924.318298611113</v>
+      </c>
       <c r="F11">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
-        <v>45918.557500000003</v>
+        <v>45918.06113425926</v>
       </c>
       <c r="D12" s="2">
-        <v>45921.013229166667</v>
+        <v>45920.554386574076</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
-        <v>45913.006967592592</v>
+        <v>45918.557500000003</v>
       </c>
       <c r="D13" s="2">
-        <v>45915.473703703705</v>
+        <v>45921.013229166667</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13">
@@ -878,20 +890,20 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
-        <v>45921.028217592589</v>
+        <v>45922.064953703702</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
-        <v>45923.329664351855</v>
+        <v>45924.318298611113</v>
       </c>
       <c r="F15">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -935,35 +947,35 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2">
-        <v>45921.157870370371</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
-        <v>45923.329664351855</v>
-      </c>
+        <v>45920.057673611111</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45922.138402777775</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2">
-        <v>45920.057673611111</v>
+        <v>45921.253159722219</v>
       </c>
       <c r="D19" s="2">
-        <v>45922.138402777775</v>
+        <v>45923.321712962963</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -971,14 +983,14 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
-        <v>45921.253159722219</v>
+        <v>45922.276886574073</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <v>45923.329664351855</v>
+        <v>45924.318298611113</v>
       </c>
       <c r="F20">
         <v>49</v>
@@ -986,34 +998,34 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
-        <v>45921.329513888886</v>
+        <v>45922.252685185187</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
-        <v>45923.329664351855</v>
+        <v>45924.318298611113</v>
       </c>
       <c r="F21">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2">
-        <v>45918.603634259256</v>
+        <v>45921.329513888886</v>
       </c>
       <c r="D22" s="2">
-        <v>45920.611122685186</v>
+        <v>45923.323877314811</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
@@ -1040,20 +1052,20 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2">
-        <v>45920.556597222225</v>
+        <v>45918.603634259256</v>
       </c>
       <c r="D24" s="2">
-        <v>45922.509699074071</v>
+        <v>45920.611122685186</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -1115,17 +1127,17 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2">
-        <v>45914.560046296298</v>
+        <v>45920.556597222225</v>
       </c>
       <c r="D28" s="2">
-        <v>45916.478472222225</v>
+        <v>45922.509699074071</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1133,17 +1145,17 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2">
-        <v>45917.219965277778</v>
+        <v>45914.560046296298</v>
       </c>
       <c r="D29" s="2">
-        <v>45919.087418981479</v>
+        <v>45916.478472222225</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1166,56 +1178,56 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2">
-        <v>45919.589224537034</v>
+        <v>45921.592141203706</v>
       </c>
       <c r="D31" s="2">
-        <v>45921.4450462963</v>
+        <v>45923.491747685184</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C32" s="2">
-        <v>45919.051585648151</v>
+        <v>45917.219965277778</v>
       </c>
       <c r="D32" s="2">
-        <v>45920.878449074073</v>
+        <v>45919.087418981479</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2">
-        <v>45918.238622685189</v>
+        <v>45919.589224537034</v>
       </c>
       <c r="D33" s="2">
-        <v>45920.002534722225</v>
+        <v>45921.4450462963</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1223,35 +1235,35 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="2">
-        <v>45917.200092592589</v>
+        <v>45919.051585648151</v>
       </c>
       <c r="D34" s="2">
-        <v>45918.990624999999</v>
+        <v>45920.878449074073</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2">
-        <v>45921.524293981478</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2">
-        <v>45923.329664351855</v>
-      </c>
+        <v>45921.69458333333</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45923.503553240742</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -1259,13 +1271,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2">
-        <v>45915.231793981482</v>
+        <v>45917.200092592589</v>
       </c>
       <c r="D36" s="2">
-        <v>45917.019432870373</v>
+        <v>45918.990624999999</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36">
@@ -1274,70 +1286,70 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2">
-        <v>45913.76421296296</v>
+        <v>45915.231793981482</v>
       </c>
       <c r="D37" s="2">
-        <v>45915.539942129632</v>
+        <v>45917.019432870373</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C38" s="2">
-        <v>45913.23265046296</v>
+        <v>45918.238622685189</v>
       </c>
       <c r="D38" s="2">
-        <v>45914.981087962966</v>
+        <v>45920.002534722225</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C39" s="2">
-        <v>45920.74355324074</v>
-      </c>
-      <c r="D39" s="2">
-        <v>45922.439247685186</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>45922.523368055554</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>45924.318298611113</v>
+      </c>
       <c r="F39">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2">
-        <v>45920.49628472222</v>
+        <v>45918.673472222225</v>
       </c>
       <c r="D40" s="2">
-        <v>45922.174942129626</v>
+        <v>45920.394062500003</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40">
@@ -1346,16 +1358,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C41" s="2">
-        <v>45918.673472222225</v>
+        <v>45920.49628472222</v>
       </c>
       <c r="D41" s="2">
-        <v>45920.394062500003</v>
+        <v>45922.174942129626</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
@@ -1364,18 +1376,18 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2">
-        <v>45921.592141203706</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2">
-        <v>45923.329664351855</v>
-      </c>
+        <v>45920.74355324074</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45922.439247685186</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42">
         <v>41</v>
       </c>
@@ -1421,13 +1433,13 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C45" s="2">
-        <v>45920.564571759256</v>
+        <v>45919.528935185182</v>
       </c>
       <c r="D45" s="2">
-        <v>45922.247418981482</v>
+        <v>45921.204571759263</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
@@ -1439,13 +1451,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C46" s="2">
-        <v>45919.528935185182</v>
+        <v>45920.564571759256</v>
       </c>
       <c r="D46" s="2">
-        <v>45921.204571759263</v>
+        <v>45922.247418981482</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
@@ -1472,20 +1484,20 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C48" s="2">
-        <v>45921.69458333333</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2">
-        <v>45923.329664351855</v>
-      </c>
+        <v>45918.715682870374</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45920.332812499997</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -1511,31 +1523,31 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C50" s="2">
-        <v>45918.715682870374</v>
-      </c>
-      <c r="D50" s="2">
-        <v>45920.332812499997</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>45922.734409722223</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <v>45924.318298611113</v>
+      </c>
       <c r="F50">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C51" s="2">
-        <v>45914.486261574071</v>
+        <v>45922.538206018522</v>
       </c>
       <c r="D51" s="2">
-        <v>45916.002962962964</v>
+        <v>45924.062465277777</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
@@ -1544,52 +1556,52 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2">
-        <v>45919.605023148149</v>
+        <v>45922.467291666668</v>
       </c>
       <c r="D52" s="2">
-        <v>45921.08798611111</v>
+        <v>45924.015011574076</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C53" s="2">
-        <v>45918.539907407408</v>
+        <v>45914.486261574071</v>
       </c>
       <c r="D53" s="2">
-        <v>45920.001921296294</v>
+        <v>45916.002962962964</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2">
-        <v>45918.526932870373</v>
+        <v>45915.025833333333</v>
       </c>
       <c r="D54" s="2">
-        <v>45920.000578703701</v>
+        <v>45916.511203703703</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
@@ -1616,16 +1628,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2">
-        <v>45915.025833333333</v>
+        <v>45919.605023148149</v>
       </c>
       <c r="D56" s="2">
-        <v>45916.511203703703</v>
+        <v>45921.08798611111</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
@@ -1673,35 +1685,35 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C59" s="2">
-        <v>45920.072627314818</v>
+        <v>45918.539907407408</v>
       </c>
       <c r="D59" s="2">
-        <v>45921.502418981479</v>
+        <v>45920.001921296294</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2">
-        <v>45917.128229166665</v>
+        <v>45918.526932870373</v>
       </c>
       <c r="D60" s="2">
-        <v>45918.609236111108</v>
+        <v>45920.000578703701</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -1709,13 +1721,13 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C61" s="2">
-        <v>45919.726388888892</v>
+        <v>45917.128229166665</v>
       </c>
       <c r="D61" s="2">
-        <v>45921.203738425924</v>
+        <v>45918.609236111108</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61">
@@ -1745,13 +1757,13 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2">
-        <v>45913.566805555558</v>
+        <v>45919.726388888892</v>
       </c>
       <c r="D63" s="2">
-        <v>45915.004942129628</v>
+        <v>45921.203738425924</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63">
@@ -1760,16 +1772,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C64" s="2">
-        <v>45913.717233796298</v>
+        <v>45920.072627314818</v>
       </c>
       <c r="D64" s="2">
-        <v>45915.203182870369</v>
+        <v>45921.502418981479</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
@@ -1781,33 +1793,33 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C65" s="2">
-        <v>45914.050219907411</v>
+        <v>45922.097395833334</v>
       </c>
       <c r="D65" s="2">
-        <v>45915.466817129629</v>
+        <v>45923.547685185185</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2">
-        <v>45921.05846064815</v>
-      </c>
-      <c r="D66" s="2">
-        <v>45922.473738425928</v>
-      </c>
-      <c r="E66" s="2"/>
+        <v>45922.880486111113</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2">
+        <v>45924.318298611113</v>
+      </c>
       <c r="F66">
         <v>34</v>
       </c>
@@ -1817,13 +1829,13 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C67" s="2">
-        <v>45916.623356481483</v>
+        <v>45921.05846064815</v>
       </c>
       <c r="D67" s="2">
-        <v>45918.0237037037</v>
+        <v>45922.473738425928</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
@@ -1853,13 +1865,13 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C69" s="2">
-        <v>45915.541979166665</v>
+        <v>45916.623356481483</v>
       </c>
       <c r="D69" s="2">
-        <v>45916.988449074073</v>
+        <v>45918.0237037037</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
@@ -1874,10 +1886,10 @@
         <v>15</v>
       </c>
       <c r="C70" s="2">
-        <v>45921.583819444444</v>
+        <v>45915.541979166665</v>
       </c>
       <c r="D70" s="2">
-        <v>45923.000474537039</v>
+        <v>45916.988449074073</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70">
@@ -1889,13 +1901,13 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C71" s="2">
-        <v>45917.589189814818</v>
+        <v>45921.583819444444</v>
       </c>
       <c r="D71" s="2">
-        <v>45919.000393518516</v>
+        <v>45923.000474537039</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
@@ -1904,38 +1916,38 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C72" s="2">
-        <v>45921.423414351855</v>
+        <v>45917.589189814818</v>
       </c>
       <c r="D72" s="2">
-        <v>45922.778611111113</v>
+        <v>45919.000393518516</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C73" s="2">
-        <v>45918.712372685186</v>
+        <v>45914.050219907411</v>
       </c>
       <c r="D73" s="2">
-        <v>45920.004004629627</v>
+        <v>45915.466817129629</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -1943,35 +1955,35 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C74" s="2">
-        <v>45921.582569444443</v>
+        <v>45922.253599537034</v>
       </c>
       <c r="D74" s="2">
-        <v>45922.871388888889</v>
+        <v>45923.644120370373</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2">
-        <v>45917.051562499997</v>
+        <v>45921.423414351855</v>
       </c>
       <c r="D75" s="2">
-        <v>45918.348865740743</v>
+        <v>45922.778611111113</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -1979,31 +1991,31 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C76" s="2">
-        <v>45920.226956018516</v>
+        <v>45922.242962962962</v>
       </c>
       <c r="D76" s="2">
-        <v>45921.501458333332</v>
+        <v>45923.556979166664</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C77" s="2">
-        <v>45915.259062500001</v>
+        <v>45921.582569444443</v>
       </c>
       <c r="D77" s="2">
-        <v>45916.545428240737</v>
+        <v>45922.871388888889</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
@@ -2012,16 +2024,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2">
-        <v>45916.531759259262</v>
+        <v>45918.712372685186</v>
       </c>
       <c r="D78" s="2">
-        <v>45917.797986111109</v>
+        <v>45920.004004629627</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
@@ -2030,38 +2042,38 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C79" s="2">
-        <v>45919.267326388886</v>
-      </c>
-      <c r="D79" s="2">
-        <v>45920.507592592592</v>
-      </c>
-      <c r="E79" s="2"/>
+        <v>45923.04146990741</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2">
+        <v>45924.318298611113</v>
+      </c>
       <c r="F79">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C80" s="2">
-        <v>45922.064953703702</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2">
-        <v>45923.329664351855</v>
-      </c>
+        <v>45915.259062500001</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45916.545428240737</v>
+      </c>
+      <c r="E80" s="2"/>
       <c r="F80">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -2069,17 +2081,17 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2">
-        <v>45918.257824074077</v>
+        <v>45917.051562499997</v>
       </c>
       <c r="D81" s="2">
-        <v>45919.535219907404</v>
+        <v>45918.348865740743</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -2087,17 +2099,17 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2">
-        <v>45918.264537037037</v>
+        <v>45920.226956018516</v>
       </c>
       <c r="D82" s="2">
-        <v>45919.504305555558</v>
+        <v>45921.501458333332</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -2105,193 +2117,193 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C83" s="2">
-        <v>45917.038738425923</v>
-      </c>
-      <c r="D83" s="2">
-        <v>45918.261030092595</v>
-      </c>
-      <c r="E83" s="2"/>
+        <v>45923.024293981478</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2">
+        <v>45924.318298611113</v>
+      </c>
       <c r="F83">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C84" s="2">
-        <v>45914.304675925923</v>
+        <v>45916.531759259262</v>
       </c>
       <c r="D84" s="2">
-        <v>45915.505648148152</v>
+        <v>45917.797986111109</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C85" s="2">
-        <v>45921.307766203703</v>
-      </c>
-      <c r="D85" s="2">
-        <v>45922.536527777775</v>
-      </c>
-      <c r="E85" s="2"/>
+        <v>45923.034421296295</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2">
+        <v>45924.318298611113</v>
+      </c>
       <c r="F85">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2">
-        <v>45916.350173611114</v>
+        <v>45917.038738425923</v>
       </c>
       <c r="D86" s="2">
-        <v>45917.544189814813</v>
+        <v>45918.261030092595</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C87" s="2">
-        <v>45918.558819444443</v>
+        <v>45918.264537037037</v>
       </c>
       <c r="D87" s="2">
-        <v>45919.759699074071</v>
+        <v>45919.504305555558</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C88" s="2">
-        <v>45920.421863425923</v>
+        <v>45918.257824074077</v>
       </c>
       <c r="D88" s="2">
-        <v>45921.626620370371</v>
+        <v>45919.535219907404</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C89" s="2">
-        <v>45922.097395833334</v>
+        <v>45923.057719907411</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2">
-        <v>45923.329664351855</v>
+        <v>45924.318298611113</v>
       </c>
       <c r="F89">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C90" s="2">
-        <v>45914.064189814817</v>
-      </c>
-      <c r="D90" s="2">
-        <v>45915.274594907409</v>
-      </c>
-      <c r="E90" s="2"/>
+        <v>45923.053912037038</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2">
+        <v>45924.318298611113</v>
+      </c>
       <c r="F90">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2">
-        <v>45920.023310185185</v>
+        <v>45919.267326388886</v>
       </c>
       <c r="D91" s="2">
-        <v>45921.21974537037</v>
+        <v>45920.507592592592</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C92" s="2">
-        <v>45915.250428240739</v>
+        <v>45922.284201388888</v>
       </c>
       <c r="D92" s="2">
-        <v>45916.492291666669</v>
+        <v>45923.539131944446</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C93" s="2">
-        <v>45913.050844907404</v>
+        <v>45920.023310185185</v>
       </c>
       <c r="D93" s="2">
-        <v>45914.284895833334</v>
+        <v>45921.21974537037</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
@@ -2300,16 +2312,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C94" s="2">
-        <v>45921.137314814812</v>
+        <v>45914.064189814817</v>
       </c>
       <c r="D94" s="2">
-        <v>45922.354317129626</v>
+        <v>45915.274594907409</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
@@ -2318,56 +2330,56 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2">
-        <v>45914.060752314814</v>
+        <v>45914.304675925923</v>
       </c>
       <c r="D95" s="2">
-        <v>45915.225474537037</v>
+        <v>45915.505648148152</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2">
-        <v>45919.064259259256</v>
+        <v>45921.307766203703</v>
       </c>
       <c r="D96" s="2">
-        <v>45920.216261574074</v>
+        <v>45922.536527777775</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2">
-        <v>45917.862303240741</v>
+        <v>45916.350173611114</v>
       </c>
       <c r="D97" s="2">
-        <v>45919.004907407405</v>
+        <v>45917.544189814813</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
@@ -2375,17 +2387,17 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C98" s="2">
-        <v>45917.046249999999</v>
+        <v>45921.137314814812</v>
       </c>
       <c r="D98" s="2">
-        <v>45918.227696759262</v>
+        <v>45922.354317129626</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
@@ -2393,89 +2405,89 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2">
-        <v>45914.011388888888</v>
+        <v>45915.250428240739</v>
       </c>
       <c r="D99" s="2">
-        <v>45915.187569444446</v>
+        <v>45916.492291666669</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2">
-        <v>45915.035682870373</v>
+        <v>45918.558819444443</v>
       </c>
       <c r="D100" s="2">
-        <v>45916.204282407409</v>
+        <v>45919.759699074071</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C101" s="2">
-        <v>45919.362210648149</v>
+        <v>45920.421863425923</v>
       </c>
       <c r="D101" s="2">
-        <v>45920.481516203705</v>
+        <v>45921.626620370371</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C102" s="2">
-        <v>45920.406226851854</v>
+        <v>45917.862303240741</v>
       </c>
       <c r="D102" s="2">
-        <v>45921.508819444447</v>
+        <v>45919.004907407405</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C103" s="2">
-        <v>45913.042430555557</v>
+        <v>45919.064259259256</v>
       </c>
       <c r="D103" s="2">
-        <v>45914.200810185182</v>
+        <v>45920.216261574074</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
@@ -2483,17 +2495,17 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2">
-        <v>45914.151493055557</v>
+        <v>45914.011388888888</v>
       </c>
       <c r="D104" s="2">
-        <v>45915.287997685184</v>
+        <v>45915.187569444446</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
@@ -2501,17 +2513,17 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C105" s="2">
-        <v>45922.024722222224</v>
+        <v>45917.046249999999</v>
       </c>
       <c r="D105" s="2">
-        <v>45923.16505787037</v>
+        <v>45918.227696759262</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
@@ -2519,17 +2531,17 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2">
-        <v>45915.075706018521</v>
-      </c>
-      <c r="D106" s="2">
-        <v>45916.188900462963</v>
-      </c>
-      <c r="E106" s="2"/>
+        <v>45923.145520833335</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2">
+        <v>45924.318298611113</v>
+      </c>
       <c r="F106">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
@@ -2537,49 +2549,49 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C107" s="2">
-        <v>45913.579629629632</v>
+        <v>45915.035682870373</v>
       </c>
       <c r="D107" s="2">
-        <v>45914.686932870369</v>
+        <v>45916.204282407409</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C108" s="2">
-        <v>45920.552754629629</v>
+        <v>45914.060752314814</v>
       </c>
       <c r="D108" s="2">
-        <v>45921.668356481481</v>
+        <v>45915.225474537037</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C109" s="2">
-        <v>45920.377418981479</v>
+        <v>45919.362210648149</v>
       </c>
       <c r="D109" s="2">
-        <v>45921.533807870372</v>
+        <v>45920.481516203705</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
@@ -2591,13 +2603,13 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C110" s="2">
-        <v>45914.045497685183</v>
+        <v>45915.075706018521</v>
       </c>
       <c r="D110" s="2">
-        <v>45915.202696759261</v>
+        <v>45916.188900462963</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
@@ -2606,74 +2618,74 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C111" s="2">
-        <v>45919.351388888892</v>
+        <v>45914.151493055557</v>
       </c>
       <c r="D111" s="2">
-        <v>45920.447187500002</v>
+        <v>45915.287997685184</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2">
-        <v>45920.431886574072</v>
+        <v>45922.024722222224</v>
       </c>
       <c r="D112" s="2">
-        <v>45921.540509259263</v>
+        <v>45923.16505787037</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C113" s="2">
-        <v>45921.74591435185</v>
+        <v>45922.224942129629</v>
       </c>
       <c r="D113" s="2">
-        <v>45922.807905092595</v>
+        <v>45923.35019675926</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C114" s="2">
-        <v>45913.064467592594</v>
+        <v>45920.377418981479</v>
       </c>
       <c r="D114" s="2">
-        <v>45914.140983796293</v>
+        <v>45921.533807870372</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
@@ -2681,17 +2693,17 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C115" s="2">
-        <v>45922.041203703702</v>
-      </c>
-      <c r="D115" s="2">
-        <v>45923.100868055553</v>
-      </c>
-      <c r="E115" s="2"/>
+        <v>45923.196840277778</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2">
+        <v>45924.318298611113</v>
+      </c>
       <c r="F115">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
@@ -2699,17 +2711,17 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C116" s="2">
-        <v>45922.242962962962</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2">
-        <v>45923.329664351855</v>
-      </c>
+        <v>45920.552754629629</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45921.668356481481</v>
+      </c>
+      <c r="E116" s="2"/>
       <c r="F116">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
@@ -2717,157 +2729,157 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C117" s="2">
-        <v>45922.224942129629</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2">
-        <v>45923.329664351855</v>
-      </c>
+        <v>45914.045497685183</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45915.202696759261</v>
+      </c>
+      <c r="E117" s="2"/>
       <c r="F117">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C118" s="2">
-        <v>45915.525405092594</v>
+        <v>45920.406226851854</v>
       </c>
       <c r="D118" s="2">
-        <v>45916.54210648148</v>
+        <v>45921.508819444447</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C119" s="2">
-        <v>45919.499756944446</v>
+        <v>45923.167361111111</v>
       </c>
       <c r="D119" s="2">
-        <v>45920.505324074074</v>
+        <v>45924.263229166667</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C120" s="2">
-        <v>45922.081238425926</v>
+        <v>45921.74591435185</v>
       </c>
       <c r="D120" s="2">
-        <v>45923.107094907406</v>
+        <v>45922.807905092595</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C121" s="2">
-        <v>45920.491261574076</v>
+        <v>45920.431886574072</v>
       </c>
       <c r="D121" s="2">
-        <v>45921.517442129632</v>
+        <v>45921.540509259263</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B122" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C122" s="2">
-        <v>45921.066388888888</v>
+        <v>45919.351388888892</v>
       </c>
       <c r="D122" s="2">
-        <v>45922.111550925925</v>
+        <v>45920.447187500002</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C123" s="2">
-        <v>45919.472337962965</v>
+        <v>45922.041203703702</v>
       </c>
       <c r="D123" s="2">
-        <v>45920.537222222221</v>
+        <v>45923.100868055553</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C124" s="2">
-        <v>45921.14434027778</v>
-      </c>
-      <c r="D124" s="2">
-        <v>45922.190069444441</v>
-      </c>
-      <c r="E124" s="2"/>
+        <v>45923.247025462966</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2">
+        <v>45924.318298611113</v>
+      </c>
       <c r="F124">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C125" s="2">
-        <v>45913.021006944444</v>
+        <v>45914.036979166667</v>
       </c>
       <c r="D125" s="2">
-        <v>45914.078969907408</v>
+        <v>45915.079004629632</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
@@ -2876,16 +2888,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C126" s="2">
-        <v>45920.069849537038</v>
+        <v>45919.036516203705</v>
       </c>
       <c r="D126" s="2">
-        <v>45921.099664351852</v>
+        <v>45920.041701388887</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126">
@@ -2894,18 +2906,18 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C127" s="2">
-        <v>45922.284201388888</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2">
-        <v>45923.329664351855</v>
-      </c>
+        <v>45920.519814814812</v>
+      </c>
+      <c r="D127" s="2">
+        <v>45921.570925925924</v>
+      </c>
+      <c r="E127" s="2"/>
       <c r="F127">
         <v>25</v>
       </c>
@@ -2915,13 +2927,13 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C128" s="2">
-        <v>45914.036979166667</v>
+        <v>45920.582268518519</v>
       </c>
       <c r="D128" s="2">
-        <v>45915.079004629632</v>
+        <v>45921.598645833335</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128">
@@ -2930,16 +2942,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C129" s="2">
-        <v>45919.036516203705</v>
+        <v>45919.499756944446</v>
       </c>
       <c r="D129" s="2">
-        <v>45920.041701388887</v>
+        <v>45920.505324074074</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129">
@@ -2948,16 +2960,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C130" s="2">
-        <v>45920.582268518519</v>
+        <v>45920.491261574076</v>
       </c>
       <c r="D130" s="2">
-        <v>45921.598645833335</v>
+        <v>45921.517442129632</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
@@ -2966,16 +2978,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C131" s="2">
-        <v>45920.519814814812</v>
+        <v>45922.081238425926</v>
       </c>
       <c r="D131" s="2">
-        <v>45921.570925925924</v>
+        <v>45923.107094907406</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
@@ -2984,36 +2996,36 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B132" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C132" s="2">
-        <v>45922.276886574073</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2">
-        <v>45923.329664351855</v>
-      </c>
+        <v>45915.525405092594</v>
+      </c>
+      <c r="D132" s="2">
+        <v>45916.54210648148</v>
+      </c>
+      <c r="E132" s="2"/>
       <c r="F132">
         <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C133" s="2">
-        <v>45922.253599537034</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2">
-        <v>45923.329664351855</v>
-      </c>
+        <v>45921.199143518519</v>
+      </c>
+      <c r="D133" s="2">
+        <v>45922.214166666665</v>
+      </c>
+      <c r="E133" s="2"/>
       <c r="F133">
         <v>25</v>
       </c>
@@ -3023,13 +3035,13 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C134" s="2">
-        <v>45917.244652777779</v>
+        <v>45915.475578703707</v>
       </c>
       <c r="D134" s="2">
-        <v>45918.285451388889</v>
+        <v>45916.538958333331</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134">
@@ -3041,13 +3053,13 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C135" s="2">
-        <v>45921.199143518519</v>
+        <v>45921.503078703703</v>
       </c>
       <c r="D135" s="2">
-        <v>45922.214166666665</v>
+        <v>45922.562141203707</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135">
@@ -3059,13 +3071,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C136" s="2">
-        <v>45921.503078703703</v>
+        <v>45919.067708333336</v>
       </c>
       <c r="D136" s="2">
-        <v>45922.562141203707</v>
+        <v>45920.088587962964</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136">
@@ -3077,13 +3089,13 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C137" s="2">
-        <v>45915.475578703707</v>
+        <v>45917.244652777779</v>
       </c>
       <c r="D137" s="2">
-        <v>45916.538958333331</v>
+        <v>45918.285451388889</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137">
@@ -3131,13 +3143,13 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C140" s="2">
-        <v>45919.067708333336</v>
+        <v>45915.483831018515</v>
       </c>
       <c r="D140" s="2">
-        <v>45920.088587962964</v>
+        <v>45916.511701388888</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140">
@@ -3146,16 +3158,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C141" s="2">
-        <v>45915.483831018515</v>
+        <v>45921.14434027778</v>
       </c>
       <c r="D141" s="2">
-        <v>45916.511701388888</v>
+        <v>45922.190069444441</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141">
@@ -3164,56 +3176,56 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C142" s="2">
-        <v>45922.252685185187</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2">
-        <v>45923.329664351855</v>
-      </c>
+        <v>45922.53628472222</v>
+      </c>
+      <c r="D142" s="2">
+        <v>45923.547500000001</v>
+      </c>
+      <c r="E142" s="2"/>
       <c r="F142">
         <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C143" s="2">
-        <v>45919.566770833335</v>
+        <v>45919.472337962965</v>
       </c>
       <c r="D143" s="2">
-        <v>45920.544930555552</v>
+        <v>45920.537222222221</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C144" s="2">
-        <v>45913.530856481484</v>
+        <v>45921.066388888888</v>
       </c>
       <c r="D144" s="2">
-        <v>45914.507928240739</v>
+        <v>45922.111550925925</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
@@ -3221,31 +3233,31 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C145" s="2">
-        <v>45914.043333333335</v>
+        <v>45920.069849537038</v>
       </c>
       <c r="D145" s="2">
-        <v>45915.064780092594</v>
+        <v>45921.099664351852</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C146" s="2">
-        <v>45917.562847222223</v>
+        <v>45923.248379629629</v>
       </c>
       <c r="D146" s="2">
-        <v>45918.543981481482</v>
+        <v>45924.213425925926</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146">
@@ -3254,16 +3266,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C147" s="2">
-        <v>45914.019074074073</v>
+        <v>45919.277962962966</v>
       </c>
       <c r="D147" s="2">
-        <v>45915.000347222223</v>
+        <v>45920.264999999999</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147">
@@ -3272,16 +3284,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C148" s="2">
-        <v>45922.039305555554</v>
+        <v>45922.528819444444</v>
       </c>
       <c r="D148" s="2">
-        <v>45923.0000462963</v>
+        <v>45923.501018518517</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148">
@@ -3290,16 +3302,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C149" s="2">
-        <v>45915.55263888889</v>
+        <v>45920.548333333332</v>
       </c>
       <c r="D149" s="2">
-        <v>45916.542962962965</v>
+        <v>45921.550543981481</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149">
@@ -3308,16 +3320,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C150" s="2">
-        <v>45915.540833333333</v>
+        <v>45916.019108796296</v>
       </c>
       <c r="D150" s="2">
-        <v>45916.513043981482</v>
+        <v>45917.00277777778</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150">
@@ -3329,13 +3341,13 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C151" s="2">
-        <v>45916.579988425925</v>
+        <v>45919.031469907408</v>
       </c>
       <c r="D151" s="2">
-        <v>45917.561284722222</v>
+        <v>45920.003437500003</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151">
@@ -3347,13 +3359,13 @@
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C152" s="2">
-        <v>45913.032546296294</v>
+        <v>45922.03570601852</v>
       </c>
       <c r="D152" s="2">
-        <v>45914.002326388887</v>
+        <v>45923.002534722225</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152">
@@ -3365,13 +3377,13 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C153" s="2">
-        <v>45919.031469907408</v>
+        <v>45921.242662037039</v>
       </c>
       <c r="D153" s="2">
-        <v>45920.003437500003</v>
+        <v>45922.242719907408</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153">
@@ -3383,13 +3395,13 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C154" s="2">
-        <v>45922.03570601852</v>
+        <v>45916.579988425925</v>
       </c>
       <c r="D154" s="2">
-        <v>45923.002534722225</v>
+        <v>45917.561284722222</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154">
@@ -3401,15 +3413,15 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C155" s="2">
-        <v>45920.548333333332</v>
-      </c>
-      <c r="D155" s="2">
-        <v>45921.550543981481</v>
-      </c>
-      <c r="E155" s="2"/>
+        <v>45923.299409722225</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2">
+        <v>45924.318298611113</v>
+      </c>
       <c r="F155">
         <v>24</v>
       </c>
@@ -3419,13 +3431,13 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C156" s="2">
-        <v>45916.019108796296</v>
+        <v>45914.0625</v>
       </c>
       <c r="D156" s="2">
-        <v>45917.00277777778</v>
+        <v>45915.059525462966</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156">
@@ -3434,16 +3446,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C157" s="2">
-        <v>45919.277962962966</v>
+        <v>45919.566770833335</v>
       </c>
       <c r="D157" s="2">
-        <v>45920.264999999999</v>
+        <v>45920.544930555552</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157">
@@ -3452,16 +3464,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C158" s="2">
-        <v>45914.0625</v>
+        <v>45917.243622685186</v>
       </c>
       <c r="D158" s="2">
-        <v>45915.059525462966</v>
+        <v>45918.209560185183</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158">
@@ -3470,16 +3482,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C159" s="2">
-        <v>45921.242662037039</v>
+        <v>45917.543113425927</v>
       </c>
       <c r="D159" s="2">
-        <v>45922.242719907408</v>
+        <v>45918.545127314814</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159">
@@ -3491,13 +3503,13 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C160" s="2">
-        <v>45920.033518518518</v>
+        <v>45923.038668981484</v>
       </c>
       <c r="D160" s="2">
-        <v>45921.002650462964</v>
+        <v>45924.03534722222</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160">
@@ -3509,13 +3521,13 @@
         <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C161" s="2">
-        <v>45921.242048611108</v>
+        <v>45920.249756944446</v>
       </c>
       <c r="D161" s="2">
-        <v>45922.232083333336</v>
+        <v>45921.209710648145</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161">
@@ -3527,13 +3539,13 @@
         <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C162" s="2">
-        <v>45921.541365740741</v>
+        <v>45922.063263888886</v>
       </c>
       <c r="D162" s="2">
-        <v>45922.512129629627</v>
+        <v>45923.069189814814</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162">
@@ -3545,13 +3557,13 @@
         <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C163" s="2">
-        <v>45918.378263888888</v>
+        <v>45915.572175925925</v>
       </c>
       <c r="D163" s="2">
-        <v>45919.401689814818</v>
+        <v>45916.543171296296</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163">
@@ -3563,13 +3575,13 @@
         <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C164" s="2">
-        <v>45917.243622685186</v>
+        <v>45915.020277777781</v>
       </c>
       <c r="D164" s="2">
-        <v>45918.209560185183</v>
+        <v>45916.002210648148</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164">
@@ -3581,13 +3593,13 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C165" s="2">
-        <v>45917.543113425927</v>
+        <v>45919.033101851855</v>
       </c>
       <c r="D165" s="2">
-        <v>45918.545127314814</v>
+        <v>45920.037638888891</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165">
@@ -3617,13 +3629,13 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C167" s="2">
-        <v>45920.249756944446</v>
+        <v>45918.378263888888</v>
       </c>
       <c r="D167" s="2">
-        <v>45921.209710648145</v>
+        <v>45919.401689814818</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167">
@@ -3635,13 +3647,13 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C168" s="2">
-        <v>45922.063263888886</v>
+        <v>45921.541365740741</v>
       </c>
       <c r="D168" s="2">
-        <v>45923.069189814814</v>
+        <v>45922.512129629627</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168">
@@ -3653,13 +3665,13 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C169" s="2">
-        <v>45913.030231481483</v>
+        <v>45915.220127314817</v>
       </c>
       <c r="D169" s="2">
-        <v>45914.003888888888</v>
+        <v>45916.216979166667</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169">
@@ -3671,13 +3683,13 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C170" s="2">
-        <v>45915.020277777781</v>
+        <v>45922.514814814815</v>
       </c>
       <c r="D170" s="2">
-        <v>45916.002210648148</v>
+        <v>45923.512754629628</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170">
@@ -3689,13 +3701,13 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C171" s="2">
-        <v>45919.033101851855</v>
+        <v>45920.033518518518</v>
       </c>
       <c r="D171" s="2">
-        <v>45920.037638888891</v>
+        <v>45921.002650462964</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171">
@@ -3707,13 +3719,13 @@
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C172" s="2">
-        <v>45918.039143518516</v>
+        <v>45921.242048611108</v>
       </c>
       <c r="D172" s="2">
-        <v>45919.000752314816</v>
+        <v>45922.232083333336</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172">
@@ -3725,13 +3737,13 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C173" s="2">
-        <v>45913.701620370368</v>
+        <v>45918.039143518516</v>
       </c>
       <c r="D173" s="2">
-        <v>45914.694907407407</v>
+        <v>45919.000752314816</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173">
@@ -3743,13 +3755,13 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C174" s="2">
-        <v>45915.572175925925</v>
+        <v>45919.028819444444</v>
       </c>
       <c r="D174" s="2">
-        <v>45916.543171296296</v>
+        <v>45920.000590277778</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174">
@@ -3758,16 +3770,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C175" s="2">
-        <v>45913.029675925929</v>
+        <v>45914.043333333335</v>
       </c>
       <c r="D175" s="2">
-        <v>45914.000960648147</v>
+        <v>45915.064780092594</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175">
@@ -3776,16 +3788,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C176" s="2">
-        <v>45919.028819444444</v>
+        <v>45917.562847222223</v>
       </c>
       <c r="D176" s="2">
-        <v>45920.000590277778</v>
+        <v>45918.543981481482</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176">
@@ -3794,19 +3806,73 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B177" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C177" s="2">
-        <v>45915.220127314817</v>
+        <v>45915.540833333333</v>
       </c>
       <c r="D177" s="2">
-        <v>45916.216979166667</v>
+        <v>45916.513043981482</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" t="s">
+        <v>37</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45914.019074074073</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45915.000347222223</v>
+      </c>
+      <c r="E178" s="2"/>
+      <c r="F178">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" t="s">
+        <v>37</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45922.039305555554</v>
+      </c>
+      <c r="D179" s="2">
+        <v>45923.0000462963</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45915.55263888889</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45916.542962962965</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="84">
   <si>
     <t>电站名称</t>
   </si>
@@ -260,6 +260,15 @@
   </si>
   <si>
     <t>603号直流</t>
+  </si>
+  <si>
+    <t>301号直流</t>
+  </si>
+  <si>
+    <t>008B号直流</t>
+  </si>
+  <si>
+    <t>004A号直流</t>
   </si>
 </sst>
 </file>
@@ -620,10 +629,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -666,10 +675,10 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>45924.318298611113</v>
+        <v>45925.327546296299</v>
       </c>
       <c r="F2">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -713,17 +722,17 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>45917.258240740739</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45922.024768518517</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>45920.533217592594</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>45925.327546296299</v>
+      </c>
       <c r="F5">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -731,17 +740,17 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>45920.533217592594</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45917.258240740739</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45922.024768518517</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -756,10 +765,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
-        <v>45924.318298611113</v>
+        <v>45925.327546296299</v>
       </c>
       <c r="F7">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -767,17 +776,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
-        <v>45917.260844907411</v>
+        <v>45921.524293981478</v>
       </c>
       <c r="D8" s="2">
-        <v>45920.502418981479</v>
+        <v>45925.20380787037</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -785,17 +794,17 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>45921.157870370371</v>
+        <v>45917.260844907411</v>
       </c>
       <c r="D9" s="2">
-        <v>45924.054502314815</v>
+        <v>45920.502418981479</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -803,35 +812,35 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>45914.186030092591</v>
+        <v>45922.252685185187</v>
       </c>
       <c r="D10" s="2">
-        <v>45917.006539351853</v>
+        <v>45925.214166666665</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>45921.524293981478</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45922.064953703702</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45925.018113425926</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -839,177 +848,177 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
-        <v>45918.06113425926</v>
+        <v>45921.157870370371</v>
       </c>
       <c r="D12" s="2">
-        <v>45920.554386574076</v>
+        <v>45924.054502314815</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
-        <v>45918.557500000003</v>
+        <v>45922.276886574073</v>
       </c>
       <c r="D13" s="2">
-        <v>45921.013229166667</v>
+        <v>45925.160613425927</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2">
-        <v>45920.218981481485</v>
+        <v>45918.06113425926</v>
       </c>
       <c r="D14" s="2">
-        <v>45922.570208333331</v>
+        <v>45920.554386574076</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
-        <v>45922.064953703702</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45918.557500000003</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45921.013229166667</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>45919.2965625</v>
+        <v>45920.218981481485</v>
       </c>
       <c r="D16" s="2">
-        <v>45921.530428240738</v>
+        <v>45922.570208333331</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2">
-        <v>45916.041956018518</v>
+        <v>45919.2965625</v>
       </c>
       <c r="D17" s="2">
-        <v>45918.243055555555</v>
+        <v>45921.530428240738</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
-        <v>45920.057673611111</v>
+        <v>45916.041956018518</v>
       </c>
       <c r="D18" s="2">
-        <v>45922.138402777775</v>
+        <v>45918.243055555555</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2">
-        <v>45921.253159722219</v>
+        <v>45920.057673611111</v>
       </c>
       <c r="D19" s="2">
-        <v>45923.321712962963</v>
+        <v>45922.138402777775</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2">
-        <v>45922.276886574073</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45922.523368055554</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45924.574421296296</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2">
-        <v>45922.252685185187</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45921.253159722219</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45923.321712962963</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21">
         <v>49</v>
       </c>
@@ -1037,13 +1046,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2">
-        <v>45921.095937500002</v>
+        <v>45923.196840277778</v>
       </c>
       <c r="D23" s="2">
-        <v>45923.123043981483</v>
+        <v>45925.189317129632</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
@@ -1070,34 +1079,34 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2">
-        <v>45915.583414351851</v>
+        <v>45921.095937500002</v>
       </c>
       <c r="D25" s="2">
-        <v>45917.582627314812</v>
+        <v>45923.123043981483</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2">
-        <v>45920.118576388886</v>
+        <v>45920.556597222225</v>
       </c>
       <c r="D26" s="2">
-        <v>45922.064479166664</v>
+        <v>45922.509699074071</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
@@ -1109,13 +1118,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2">
-        <v>45920.046643518515</v>
+        <v>45920.118576388886</v>
       </c>
       <c r="D27" s="2">
-        <v>45922.024236111109</v>
+        <v>45922.064479166664</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
@@ -1124,16 +1133,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2">
-        <v>45920.556597222225</v>
+        <v>45920.046643518515</v>
       </c>
       <c r="D28" s="2">
-        <v>45922.509699074071</v>
+        <v>45922.024236111109</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
@@ -1142,34 +1151,34 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2">
-        <v>45914.560046296298</v>
+        <v>45915.583414351851</v>
       </c>
       <c r="D29" s="2">
-        <v>45916.478472222225</v>
+        <v>45917.582627314812</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2">
-        <v>45917.638888888891</v>
+        <v>45917.219965277778</v>
       </c>
       <c r="D30" s="2">
-        <v>45919.518240740741</v>
+        <v>45919.087418981479</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30">
@@ -1178,16 +1187,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C31" s="2">
-        <v>45921.592141203706</v>
+        <v>45923.247025462966</v>
       </c>
       <c r="D31" s="2">
-        <v>45923.491747685184</v>
+        <v>45925.123113425929</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31">
@@ -1196,16 +1205,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2">
-        <v>45917.219965277778</v>
+        <v>45921.592141203706</v>
       </c>
       <c r="D32" s="2">
-        <v>45919.087418981479</v>
+        <v>45923.491747685184</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32">
@@ -1214,34 +1223,34 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C33" s="2">
-        <v>45919.589224537034</v>
+        <v>45917.638888888891</v>
       </c>
       <c r="D33" s="2">
-        <v>45921.4450462963</v>
+        <v>45919.518240740741</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2">
-        <v>45919.051585648151</v>
+        <v>45919.589224537034</v>
       </c>
       <c r="D34" s="2">
-        <v>45920.878449074073</v>
+        <v>45921.4450462963</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
@@ -1271,31 +1280,31 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2">
-        <v>45917.200092592589</v>
+        <v>45919.051585648151</v>
       </c>
       <c r="D36" s="2">
-        <v>45918.990624999999</v>
+        <v>45920.878449074073</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C37" s="2">
-        <v>45915.231793981482</v>
+        <v>45918.238622685189</v>
       </c>
       <c r="D37" s="2">
-        <v>45917.019432870373</v>
+        <v>45920.002534722225</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37">
@@ -1304,16 +1313,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2">
-        <v>45918.238622685189</v>
+        <v>45922.734409722223</v>
       </c>
       <c r="D38" s="2">
-        <v>45920.002534722225</v>
+        <v>45924.503692129627</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38">
@@ -1322,56 +1331,56 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C39" s="2">
-        <v>45922.523368055554</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45917.200092592589</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45918.990624999999</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2">
-        <v>45918.673472222225</v>
-      </c>
-      <c r="D40" s="2">
-        <v>45920.394062500003</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>45923.530925925923</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>45925.327546296299</v>
+      </c>
       <c r="F40">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2">
-        <v>45920.49628472222</v>
+        <v>45915.231793981482</v>
       </c>
       <c r="D41" s="2">
-        <v>45922.174942129626</v>
+        <v>45917.019432870373</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1379,13 +1388,13 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C42" s="2">
-        <v>45920.74355324074</v>
+        <v>45920.49628472222</v>
       </c>
       <c r="D42" s="2">
-        <v>45922.439247685186</v>
+        <v>45922.174942129626</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
@@ -1394,16 +1403,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2">
-        <v>45914.040277777778</v>
+        <v>45920.74355324074</v>
       </c>
       <c r="D43" s="2">
-        <v>45915.733287037037</v>
+        <v>45922.439247685186</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
@@ -1415,35 +1424,35 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C44" s="2">
-        <v>45918.02584490741</v>
-      </c>
-      <c r="D44" s="2">
-        <v>45919.731539351851</v>
-      </c>
-      <c r="E44" s="2"/>
+        <v>45923.591284722221</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>45925.327546296299</v>
+      </c>
       <c r="F44">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C45" s="2">
-        <v>45919.528935185182</v>
+        <v>45918.02584490741</v>
       </c>
       <c r="D45" s="2">
-        <v>45921.204571759263</v>
+        <v>45919.731539351851</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -1451,197 +1460,197 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2">
-        <v>45920.564571759256</v>
+        <v>45918.673472222225</v>
       </c>
       <c r="D46" s="2">
-        <v>45922.247418981482</v>
+        <v>45920.394062500003</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C47" s="2">
-        <v>45919.638368055559</v>
+        <v>45920.564571759256</v>
       </c>
       <c r="D47" s="2">
-        <v>45921.272141203706</v>
+        <v>45922.247418981482</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C48" s="2">
-        <v>45918.715682870374</v>
+        <v>45919.528935185182</v>
       </c>
       <c r="D48" s="2">
-        <v>45920.332812499997</v>
+        <v>45921.204571759263</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2">
-        <v>45915.111643518518</v>
+        <v>45923.653194444443</v>
       </c>
       <c r="D49" s="2">
-        <v>45916.694467592592</v>
+        <v>45925.260046296295</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" s="2">
-        <v>45922.734409722223</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45919.638368055559</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45921.272141203706</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C51" s="2">
-        <v>45922.538206018522</v>
+        <v>45923.053912037038</v>
       </c>
       <c r="D51" s="2">
-        <v>45924.062465277777</v>
+        <v>45924.684652777774</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C52" s="2">
-        <v>45922.467291666668</v>
-      </c>
-      <c r="D52" s="2">
-        <v>45924.015011574076</v>
-      </c>
-      <c r="E52" s="2"/>
+        <v>45923.67596064815</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2">
+        <v>45925.327546296299</v>
+      </c>
       <c r="F52">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2">
-        <v>45914.486261574071</v>
-      </c>
-      <c r="D53" s="2">
-        <v>45916.002962962964</v>
-      </c>
-      <c r="E53" s="2"/>
+        <v>45923.743506944447</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2">
+        <v>45925.327546296299</v>
+      </c>
       <c r="F53">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C54" s="2">
-        <v>45915.025833333333</v>
+        <v>45915.111643518518</v>
       </c>
       <c r="D54" s="2">
-        <v>45916.511203703703</v>
+        <v>45916.694467592592</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C55" s="2">
-        <v>45915.061967592592</v>
+        <v>45918.715682870374</v>
       </c>
       <c r="D55" s="2">
-        <v>45916.546516203707</v>
+        <v>45920.332812499997</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C56" s="2">
-        <v>45919.605023148149</v>
+        <v>45923.034421296295</v>
       </c>
       <c r="D56" s="2">
-        <v>45921.08798611111</v>
+        <v>45924.566620370373</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -1649,49 +1658,49 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C57" s="2">
-        <v>45921.059305555558</v>
+        <v>45922.467291666668</v>
       </c>
       <c r="D57" s="2">
-        <v>45922.549004629633</v>
+        <v>45924.015011574076</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C58" s="2">
-        <v>45916.051249999997</v>
+        <v>45922.538206018522</v>
       </c>
       <c r="D58" s="2">
-        <v>45917.567256944443</v>
+        <v>45924.062465277777</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2">
-        <v>45918.539907407408</v>
+        <v>45919.605023148149</v>
       </c>
       <c r="D59" s="2">
-        <v>45920.001921296294</v>
+        <v>45921.08798611111</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
@@ -1703,13 +1712,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C60" s="2">
-        <v>45918.526932870373</v>
+        <v>45918.539907407408</v>
       </c>
       <c r="D60" s="2">
-        <v>45920.000578703701</v>
+        <v>45920.001921296294</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
@@ -1718,20 +1727,20 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C61" s="2">
-        <v>45917.128229166665</v>
+        <v>45918.526932870373</v>
       </c>
       <c r="D61" s="2">
-        <v>45918.609236111108</v>
+        <v>45920.000578703701</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -1739,17 +1748,17 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C62" s="2">
-        <v>45918.54587962963</v>
+        <v>45921.059305555558</v>
       </c>
       <c r="D62" s="2">
-        <v>45920.000509259262</v>
+        <v>45922.549004629633</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -1757,125 +1766,125 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C63" s="2">
-        <v>45919.726388888892</v>
+        <v>45923.024293981478</v>
       </c>
       <c r="D63" s="2">
-        <v>45921.203738425924</v>
+        <v>45924.518865740742</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C64" s="2">
-        <v>45920.072627314818</v>
+        <v>45916.051249999997</v>
       </c>
       <c r="D64" s="2">
-        <v>45921.502418981479</v>
+        <v>45917.567256944443</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C65" s="2">
-        <v>45922.097395833334</v>
+        <v>45915.061967592592</v>
       </c>
       <c r="D65" s="2">
-        <v>45923.547685185185</v>
+        <v>45916.546516203707</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
         <v>52</v>
       </c>
       <c r="C66" s="2">
-        <v>45922.880486111113</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45915.025833333333</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45916.511203703703</v>
+      </c>
+      <c r="E66" s="2"/>
       <c r="F66">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2">
-        <v>45921.05846064815</v>
+        <v>45922.880486111113</v>
       </c>
       <c r="D67" s="2">
-        <v>45922.473738425928</v>
+        <v>45924.359467592592</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2">
-        <v>45916.059074074074</v>
+        <v>45920.072627314818</v>
       </c>
       <c r="D68" s="2">
-        <v>45917.468865740739</v>
+        <v>45921.502418981479</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C69" s="2">
-        <v>45916.623356481483</v>
+        <v>45922.097395833334</v>
       </c>
       <c r="D69" s="2">
-        <v>45918.0237037037</v>
+        <v>45923.547685185185</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -1883,17 +1892,17 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2">
-        <v>45915.541979166665</v>
+        <v>45917.128229166665</v>
       </c>
       <c r="D70" s="2">
-        <v>45916.988449074073</v>
+        <v>45918.609236111108</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -1901,17 +1910,17 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C71" s="2">
-        <v>45921.583819444444</v>
+        <v>45919.726388888892</v>
       </c>
       <c r="D71" s="2">
-        <v>45923.000474537039</v>
+        <v>45921.203738425924</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
@@ -1919,35 +1928,35 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C72" s="2">
-        <v>45917.589189814818</v>
+        <v>45918.54587962963</v>
       </c>
       <c r="D72" s="2">
-        <v>45919.000393518516</v>
+        <v>45920.000509259262</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
       </c>
       <c r="C73" s="2">
-        <v>45914.050219907411</v>
+        <v>45923.057719907411</v>
       </c>
       <c r="D73" s="2">
-        <v>45915.466817129629</v>
+        <v>45924.50136574074</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -1955,35 +1964,35 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C74" s="2">
-        <v>45922.253599537034</v>
+        <v>45923.561099537037</v>
       </c>
       <c r="D74" s="2">
-        <v>45923.644120370373</v>
+        <v>45925.014513888891</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C75" s="2">
-        <v>45921.423414351855</v>
+        <v>45916.623356481483</v>
       </c>
       <c r="D75" s="2">
-        <v>45922.778611111113</v>
+        <v>45918.0237037037</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -1991,71 +2000,71 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C76" s="2">
-        <v>45922.242962962962</v>
+        <v>45921.05846064815</v>
       </c>
       <c r="D76" s="2">
-        <v>45923.556979166664</v>
+        <v>45922.473738425928</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C77" s="2">
-        <v>45921.582569444443</v>
+        <v>45915.541979166665</v>
       </c>
       <c r="D77" s="2">
-        <v>45922.871388888889</v>
+        <v>45916.988449074073</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C78" s="2">
-        <v>45918.712372685186</v>
+        <v>45921.583819444444</v>
       </c>
       <c r="D78" s="2">
-        <v>45920.004004629627</v>
+        <v>45923.000474537039</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C79" s="2">
-        <v>45923.04146990741</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45917.589189814818</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45919.000393518516</v>
+      </c>
+      <c r="E79" s="2"/>
       <c r="F79">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -2063,53 +2072,53 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C80" s="2">
-        <v>45915.259062500001</v>
+        <v>45916.059074074074</v>
       </c>
       <c r="D80" s="2">
-        <v>45916.545428240737</v>
+        <v>45917.468865740739</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C81" s="2">
-        <v>45917.051562499997</v>
+        <v>45922.253599537034</v>
       </c>
       <c r="D81" s="2">
-        <v>45918.348865740743</v>
+        <v>45923.644120370373</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2">
-        <v>45920.226956018516</v>
+        <v>45921.423414351855</v>
       </c>
       <c r="D82" s="2">
-        <v>45921.501458333332</v>
+        <v>45922.778611111113</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -2117,51 +2126,51 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C83" s="2">
-        <v>45923.024293981478</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45922.242962962962</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45923.556979166664</v>
+      </c>
+      <c r="E83" s="2"/>
       <c r="F83">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C84" s="2">
-        <v>45916.531759259262</v>
+        <v>45923.04146990741</v>
       </c>
       <c r="D84" s="2">
-        <v>45917.797986111109</v>
+        <v>45924.360682870371</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2">
-        <v>45923.034421296295</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45917.051562499997</v>
+      </c>
+      <c r="D85" s="2">
+        <v>45918.348865740743</v>
+      </c>
+      <c r="E85" s="2"/>
       <c r="F85">
         <v>31</v>
       </c>
@@ -2171,17 +2180,17 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2">
-        <v>45917.038738425923</v>
+        <v>45920.226956018516</v>
       </c>
       <c r="D86" s="2">
-        <v>45918.261030092595</v>
+        <v>45921.501458333332</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -2189,17 +2198,17 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C87" s="2">
-        <v>45918.264537037037</v>
+        <v>45915.259062500001</v>
       </c>
       <c r="D87" s="2">
-        <v>45919.504305555558</v>
+        <v>45916.545428240737</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -2207,53 +2216,53 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C88" s="2">
-        <v>45918.257824074077</v>
+        <v>45916.531759259262</v>
       </c>
       <c r="D88" s="2">
-        <v>45919.535219907404</v>
+        <v>45917.797986111109</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C89" s="2">
-        <v>45923.057719907411</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45918.712372685186</v>
+      </c>
+      <c r="D89" s="2">
+        <v>45920.004004629627</v>
+      </c>
+      <c r="E89" s="2"/>
       <c r="F89">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C90" s="2">
-        <v>45923.053912037038</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45921.582569444443</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45922.871388888889</v>
+      </c>
+      <c r="E90" s="2"/>
       <c r="F90">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -2294,106 +2303,106 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C93" s="2">
-        <v>45920.023310185185</v>
+        <v>45918.264537037037</v>
       </c>
       <c r="D93" s="2">
-        <v>45921.21974537037</v>
+        <v>45919.504305555558</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2">
-        <v>45914.064189814817</v>
+        <v>45917.038738425923</v>
       </c>
       <c r="D94" s="2">
-        <v>45915.274594907409</v>
+        <v>45918.261030092595</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C95" s="2">
-        <v>45914.304675925923</v>
+        <v>45918.257824074077</v>
       </c>
       <c r="D95" s="2">
-        <v>45915.505648148152</v>
+        <v>45919.535219907404</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C96" s="2">
-        <v>45921.307766203703</v>
-      </c>
-      <c r="D96" s="2">
-        <v>45922.536527777775</v>
-      </c>
-      <c r="E96" s="2"/>
+        <v>45924.054479166669</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2">
+        <v>45925.327546296299</v>
+      </c>
       <c r="F96">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C97" s="2">
-        <v>45916.350173611114</v>
+        <v>45923.299409722225</v>
       </c>
       <c r="D97" s="2">
-        <v>45917.544189814813</v>
+        <v>45924.546655092592</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2">
-        <v>45921.137314814812</v>
+        <v>45916.350173611114</v>
       </c>
       <c r="D98" s="2">
-        <v>45922.354317129626</v>
+        <v>45917.544189814813</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
@@ -2402,16 +2411,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2">
-        <v>45915.250428240739</v>
+        <v>45921.307766203703</v>
       </c>
       <c r="D99" s="2">
-        <v>45916.492291666669</v>
+        <v>45922.536527777775</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99">
@@ -2456,38 +2465,38 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C102" s="2">
-        <v>45917.862303240741</v>
+        <v>45921.137314814812</v>
       </c>
       <c r="D102" s="2">
-        <v>45919.004907407405</v>
+        <v>45922.354317129626</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C103" s="2">
-        <v>45919.064259259256</v>
+        <v>45915.250428240739</v>
       </c>
       <c r="D103" s="2">
-        <v>45920.216261574074</v>
+        <v>45916.492291666669</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
@@ -2495,17 +2504,17 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C104" s="2">
-        <v>45914.011388888888</v>
+        <v>45923.927754629629</v>
       </c>
       <c r="D104" s="2">
-        <v>45915.187569444446</v>
+        <v>45925.148414351854</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
@@ -2513,67 +2522,67 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C105" s="2">
-        <v>45917.046249999999</v>
-      </c>
-      <c r="D105" s="2">
-        <v>45918.227696759262</v>
-      </c>
-      <c r="E105" s="2"/>
+        <v>45924.090486111112</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2">
+        <v>45925.327546296299</v>
+      </c>
       <c r="F105">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C106" s="2">
-        <v>45923.145520833335</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45920.023310185185</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45921.21974537037</v>
+      </c>
+      <c r="E106" s="2"/>
       <c r="F106">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C107" s="2">
-        <v>45915.035682870373</v>
-      </c>
-      <c r="D107" s="2">
-        <v>45916.204282407409</v>
-      </c>
-      <c r="E107" s="2"/>
+        <v>45924.15552083333</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2">
+        <v>45925.327546296299</v>
+      </c>
       <c r="F107">
         <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C108" s="2">
-        <v>45914.060752314814</v>
+        <v>45924.045902777776</v>
       </c>
       <c r="D108" s="2">
-        <v>45915.225474537037</v>
+        <v>45925.227627314816</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
@@ -2582,20 +2591,20 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C109" s="2">
-        <v>45919.362210648149</v>
+        <v>45924.040196759262</v>
       </c>
       <c r="D109" s="2">
-        <v>45920.481516203705</v>
+        <v>45925.199328703704</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
@@ -2603,17 +2612,17 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C110" s="2">
-        <v>45915.075706018521</v>
+        <v>45923.145520833335</v>
       </c>
       <c r="D110" s="2">
-        <v>45916.188900462963</v>
+        <v>45924.324699074074</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
@@ -2621,17 +2630,17 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C111" s="2">
-        <v>45914.151493055557</v>
+        <v>45917.046249999999</v>
       </c>
       <c r="D111" s="2">
-        <v>45915.287997685184</v>
+        <v>45918.227696759262</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
@@ -2639,85 +2648,85 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C112" s="2">
-        <v>45922.024722222224</v>
+        <v>45915.035682870373</v>
       </c>
       <c r="D112" s="2">
-        <v>45923.16505787037</v>
+        <v>45916.204282407409</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2">
-        <v>45922.224942129629</v>
+        <v>45919.064259259256</v>
       </c>
       <c r="D113" s="2">
-        <v>45923.35019675926</v>
+        <v>45920.216261574074</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C114" s="2">
-        <v>45920.377418981479</v>
+        <v>45917.862303240741</v>
       </c>
       <c r="D114" s="2">
-        <v>45921.533807870372</v>
+        <v>45919.004907407405</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C115" s="2">
-        <v>45923.196840277778</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45919.362210648149</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45920.481516203705</v>
+      </c>
+      <c r="E115" s="2"/>
       <c r="F115">
         <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C116" s="2">
-        <v>45920.552754629629</v>
+        <v>45920.406226851854</v>
       </c>
       <c r="D116" s="2">
-        <v>45921.668356481481</v>
+        <v>45921.508819444447</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
@@ -2729,13 +2738,13 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C117" s="2">
-        <v>45914.045497685183</v>
+        <v>45922.024722222224</v>
       </c>
       <c r="D117" s="2">
-        <v>45915.202696759261</v>
+        <v>45923.16505787037</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117">
@@ -2744,16 +2753,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C118" s="2">
-        <v>45920.406226851854</v>
+        <v>45915.075706018521</v>
       </c>
       <c r="D118" s="2">
-        <v>45921.508819444447</v>
+        <v>45916.188900462963</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118">
@@ -2762,56 +2771,56 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C119" s="2">
-        <v>45923.167361111111</v>
+        <v>45922.224942129629</v>
       </c>
       <c r="D119" s="2">
-        <v>45924.263229166667</v>
+        <v>45923.35019675926</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C120" s="2">
-        <v>45921.74591435185</v>
+        <v>45920.377418981479</v>
       </c>
       <c r="D120" s="2">
-        <v>45922.807905092595</v>
+        <v>45921.533807870372</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C121" s="2">
-        <v>45920.431886574072</v>
+        <v>45920.552754629629</v>
       </c>
       <c r="D121" s="2">
-        <v>45921.540509259263</v>
+        <v>45921.668356481481</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
@@ -2855,14 +2864,14 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C124" s="2">
-        <v>45923.247025462966</v>
+        <v>45924.233495370368</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2">
-        <v>45924.318298611113</v>
+        <v>45925.327546296299</v>
       </c>
       <c r="F124">
         <v>26</v>
@@ -2873,17 +2882,17 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C125" s="2">
-        <v>45914.036979166667</v>
+        <v>45921.74591435185</v>
       </c>
       <c r="D125" s="2">
-        <v>45915.079004629632</v>
+        <v>45922.807905092595</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
@@ -2891,17 +2900,17 @@
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C126" s="2">
-        <v>45919.036516203705</v>
+        <v>45920.431886574072</v>
       </c>
       <c r="D126" s="2">
-        <v>45920.041701388887</v>
+        <v>45921.540509259263</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
@@ -2909,31 +2918,31 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C127" s="2">
-        <v>45920.519814814812</v>
+        <v>45923.167361111111</v>
       </c>
       <c r="D127" s="2">
-        <v>45921.570925925924</v>
+        <v>45924.263229166667</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C128" s="2">
-        <v>45920.582268518519</v>
+        <v>45919.499756944446</v>
       </c>
       <c r="D128" s="2">
-        <v>45921.598645833335</v>
+        <v>45920.505324074074</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128">
@@ -2945,13 +2954,13 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C129" s="2">
-        <v>45919.499756944446</v>
+        <v>45920.491261574076</v>
       </c>
       <c r="D129" s="2">
-        <v>45920.505324074074</v>
+        <v>45921.517442129632</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129">
@@ -2963,13 +2972,13 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C130" s="2">
-        <v>45920.491261574076</v>
+        <v>45922.081238425926</v>
       </c>
       <c r="D130" s="2">
-        <v>45921.517442129632</v>
+        <v>45923.107094907406</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
@@ -2981,13 +2990,13 @@
         <v>49</v>
       </c>
       <c r="B131" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C131" s="2">
-        <v>45922.081238425926</v>
+        <v>45915.525405092594</v>
       </c>
       <c r="D131" s="2">
-        <v>45923.107094907406</v>
+        <v>45916.54210648148</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
@@ -2996,16 +3005,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C132" s="2">
-        <v>45915.525405092594</v>
+        <v>45924.160810185182</v>
       </c>
       <c r="D132" s="2">
-        <v>45916.54210648148</v>
+        <v>45925.168263888889</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132">
@@ -3014,16 +3023,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C133" s="2">
-        <v>45921.199143518519</v>
+        <v>45923.737210648149</v>
       </c>
       <c r="D133" s="2">
-        <v>45922.214166666665</v>
+        <v>45924.755347222221</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133">
@@ -3032,16 +3041,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C134" s="2">
-        <v>45915.475578703707</v>
+        <v>45921.066388888888</v>
       </c>
       <c r="D134" s="2">
-        <v>45916.538958333331</v>
+        <v>45922.111550925925</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134">
@@ -3050,16 +3059,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C135" s="2">
-        <v>45921.503078703703</v>
+        <v>45921.14434027778</v>
       </c>
       <c r="D135" s="2">
-        <v>45922.562141203707</v>
+        <v>45922.190069444441</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135">
@@ -3068,16 +3077,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C136" s="2">
-        <v>45919.067708333336</v>
+        <v>45922.53628472222</v>
       </c>
       <c r="D136" s="2">
-        <v>45920.088587962964</v>
+        <v>45923.547500000001</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136">
@@ -3086,16 +3095,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C137" s="2">
-        <v>45917.244652777779</v>
+        <v>45920.069849537038</v>
       </c>
       <c r="D137" s="2">
-        <v>45918.285451388889</v>
+        <v>45921.099664351852</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137">
@@ -3104,16 +3113,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C138" s="2">
-        <v>45915.055277777778</v>
+        <v>45919.472337962965</v>
       </c>
       <c r="D138" s="2">
-        <v>45916.095949074072</v>
+        <v>45920.537222222221</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138">
@@ -3125,13 +3134,13 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C139" s="2">
-        <v>45918.199444444443</v>
+        <v>45921.199143518519</v>
       </c>
       <c r="D139" s="2">
-        <v>45919.209988425922</v>
+        <v>45922.214166666665</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139">
@@ -3143,13 +3152,13 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C140" s="2">
-        <v>45915.483831018515</v>
+        <v>45917.244652777779</v>
       </c>
       <c r="D140" s="2">
-        <v>45916.511701388888</v>
+        <v>45918.285451388889</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140">
@@ -3158,16 +3167,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C141" s="2">
-        <v>45921.14434027778</v>
+        <v>45915.483831018515</v>
       </c>
       <c r="D141" s="2">
-        <v>45922.190069444441</v>
+        <v>45916.511701388888</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141">
@@ -3176,16 +3185,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C142" s="2">
-        <v>45922.53628472222</v>
+        <v>45915.475578703707</v>
       </c>
       <c r="D142" s="2">
-        <v>45923.547500000001</v>
+        <v>45916.538958333331</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142">
@@ -3194,16 +3203,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C143" s="2">
-        <v>45919.472337962965</v>
+        <v>45921.503078703703</v>
       </c>
       <c r="D143" s="2">
-        <v>45920.537222222221</v>
+        <v>45922.562141203707</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143">
@@ -3212,16 +3221,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C144" s="2">
-        <v>45921.066388888888</v>
+        <v>45915.055277777778</v>
       </c>
       <c r="D144" s="2">
-        <v>45922.111550925925</v>
+        <v>45916.095949074072</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144">
@@ -3230,16 +3239,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C145" s="2">
-        <v>45920.069849537038</v>
+        <v>45918.199444444443</v>
       </c>
       <c r="D145" s="2">
-        <v>45921.099664351852</v>
+        <v>45919.209988425922</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145">
@@ -3248,20 +3257,20 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C146" s="2">
-        <v>45923.248379629629</v>
+        <v>45919.067708333336</v>
       </c>
       <c r="D146" s="2">
-        <v>45924.213425925926</v>
+        <v>45920.088587962964</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
@@ -3272,14 +3281,14 @@
         <v>10</v>
       </c>
       <c r="C147" s="2">
-        <v>45919.277962962966</v>
+        <v>45920.519814814812</v>
       </c>
       <c r="D147" s="2">
-        <v>45920.264999999999</v>
+        <v>45921.570925925924</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
@@ -3287,17 +3296,17 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C148" s="2">
-        <v>45922.528819444444</v>
+        <v>45920.582268518519</v>
       </c>
       <c r="D148" s="2">
-        <v>45923.501018518517</v>
+        <v>45921.598645833335</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
@@ -3305,31 +3314,31 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C149" s="2">
-        <v>45920.548333333332</v>
+        <v>45919.036516203705</v>
       </c>
       <c r="D149" s="2">
-        <v>45921.550543981481</v>
+        <v>45920.041701388887</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C150" s="2">
-        <v>45916.019108796296</v>
+        <v>45919.566770833335</v>
       </c>
       <c r="D150" s="2">
-        <v>45917.00277777778</v>
+        <v>45920.544930555552</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150">
@@ -3338,16 +3347,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C151" s="2">
-        <v>45919.031469907408</v>
+        <v>45924.282488425924</v>
       </c>
       <c r="D151" s="2">
-        <v>45920.003437500003</v>
+        <v>45925.273194444446</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151">
@@ -3356,16 +3365,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C152" s="2">
-        <v>45922.03570601852</v>
+        <v>45923.571180555555</v>
       </c>
       <c r="D152" s="2">
-        <v>45923.002534722225</v>
+        <v>45924.543275462966</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152">
@@ -3374,16 +3383,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C153" s="2">
-        <v>45921.242662037039</v>
+        <v>45922.039305555554</v>
       </c>
       <c r="D153" s="2">
-        <v>45922.242719907408</v>
+        <v>45923.0000462963</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153">
@@ -3392,16 +3401,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C154" s="2">
-        <v>45916.579988425925</v>
+        <v>45924.032384259262</v>
       </c>
       <c r="D154" s="2">
-        <v>45917.561284722222</v>
+        <v>45925.003750000003</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154">
@@ -3410,34 +3419,34 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C155" s="2">
-        <v>45923.299409722225</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2">
-        <v>45924.318298611113</v>
-      </c>
+        <v>45923.565949074073</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45924.576388888891</v>
+      </c>
+      <c r="E155" s="2"/>
       <c r="F155">
         <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C156" s="2">
-        <v>45914.0625</v>
+        <v>45915.55263888889</v>
       </c>
       <c r="D156" s="2">
-        <v>45915.059525462966</v>
+        <v>45916.542962962965</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156">
@@ -3446,16 +3455,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C157" s="2">
-        <v>45919.566770833335</v>
+        <v>45915.540833333333</v>
       </c>
       <c r="D157" s="2">
-        <v>45920.544930555552</v>
+        <v>45916.513043981482</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157">
@@ -3464,16 +3473,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C158" s="2">
-        <v>45917.243622685186</v>
+        <v>45917.562847222223</v>
       </c>
       <c r="D158" s="2">
-        <v>45918.209560185183</v>
+        <v>45918.543981481482</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158">
@@ -3485,13 +3494,13 @@
         <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C159" s="2">
-        <v>45917.543113425927</v>
+        <v>45924.193344907406</v>
       </c>
       <c r="D159" s="2">
-        <v>45918.545127314814</v>
+        <v>45925.181655092594</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159">
@@ -3503,13 +3512,13 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C160" s="2">
-        <v>45923.038668981484</v>
+        <v>45917.243622685186</v>
       </c>
       <c r="D160" s="2">
-        <v>45924.03534722222</v>
+        <v>45918.209560185183</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160">
@@ -3521,13 +3530,13 @@
         <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C161" s="2">
-        <v>45920.249756944446</v>
+        <v>45918.378263888888</v>
       </c>
       <c r="D161" s="2">
-        <v>45921.209710648145</v>
+        <v>45919.401689814818</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161">
@@ -3539,13 +3548,13 @@
         <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C162" s="2">
-        <v>45922.063263888886</v>
+        <v>45920.033518518518</v>
       </c>
       <c r="D162" s="2">
-        <v>45923.069189814814</v>
+        <v>45921.002650462964</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162">
@@ -3557,13 +3566,13 @@
         <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C163" s="2">
-        <v>45915.572175925925</v>
+        <v>45921.242048611108</v>
       </c>
       <c r="D163" s="2">
-        <v>45916.543171296296</v>
+        <v>45922.232083333336</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163">
@@ -3575,13 +3584,13 @@
         <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C164" s="2">
-        <v>45915.020277777781</v>
+        <v>45917.543113425927</v>
       </c>
       <c r="D164" s="2">
-        <v>45916.002210648148</v>
+        <v>45918.545127314814</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164">
@@ -3593,13 +3602,13 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C165" s="2">
-        <v>45919.033101851855</v>
+        <v>45921.860902777778</v>
       </c>
       <c r="D165" s="2">
-        <v>45920.037638888891</v>
+        <v>45922.843414351853</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165">
@@ -3611,13 +3620,13 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C166" s="2">
-        <v>45921.860902777778</v>
+        <v>45923.540532407409</v>
       </c>
       <c r="D166" s="2">
-        <v>45922.843414351853</v>
+        <v>45924.504004629627</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166">
@@ -3629,13 +3638,13 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C167" s="2">
-        <v>45918.378263888888</v>
+        <v>45923.038668981484</v>
       </c>
       <c r="D167" s="2">
-        <v>45919.401689814818</v>
+        <v>45924.03534722222</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167">
@@ -3647,13 +3656,13 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C168" s="2">
-        <v>45921.541365740741</v>
+        <v>45915.020277777781</v>
       </c>
       <c r="D168" s="2">
-        <v>45922.512129629627</v>
+        <v>45916.002210648148</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168">
@@ -3665,13 +3674,13 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C169" s="2">
-        <v>45915.220127314817</v>
+        <v>45918.039143518516</v>
       </c>
       <c r="D169" s="2">
-        <v>45916.216979166667</v>
+        <v>45919.000752314816</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169">
@@ -3683,13 +3692,13 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C170" s="2">
-        <v>45922.514814814815</v>
+        <v>45915.572175925925</v>
       </c>
       <c r="D170" s="2">
-        <v>45923.512754629628</v>
+        <v>45916.543171296296</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170">
@@ -3701,13 +3710,13 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C171" s="2">
-        <v>45920.033518518518</v>
+        <v>45923.530810185184</v>
       </c>
       <c r="D171" s="2">
-        <v>45921.002650462964</v>
+        <v>45924.531608796293</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171">
@@ -3719,13 +3728,13 @@
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C172" s="2">
-        <v>45921.242048611108</v>
+        <v>45919.028819444444</v>
       </c>
       <c r="D172" s="2">
-        <v>45922.232083333336</v>
+        <v>45920.000590277778</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172">
@@ -3737,13 +3746,13 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C173" s="2">
-        <v>45918.039143518516</v>
+        <v>45920.249756944446</v>
       </c>
       <c r="D173" s="2">
-        <v>45919.000752314816</v>
+        <v>45921.209710648145</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173">
@@ -3755,13 +3764,13 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C174" s="2">
-        <v>45919.028819444444</v>
+        <v>45922.063263888886</v>
       </c>
       <c r="D174" s="2">
-        <v>45920.000590277778</v>
+        <v>45923.069189814814</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174">
@@ -3770,16 +3779,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C175" s="2">
-        <v>45914.043333333335</v>
+        <v>45919.033101851855</v>
       </c>
       <c r="D175" s="2">
-        <v>45915.064780092594</v>
+        <v>45920.037638888891</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175">
@@ -3788,16 +3797,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C176" s="2">
-        <v>45917.562847222223</v>
+        <v>45921.541365740741</v>
       </c>
       <c r="D176" s="2">
-        <v>45918.543981481482</v>
+        <v>45922.512129629627</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176">
@@ -3806,16 +3815,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C177" s="2">
-        <v>45915.540833333333</v>
+        <v>45915.220127314817</v>
       </c>
       <c r="D177" s="2">
-        <v>45916.513043981482</v>
+        <v>45916.216979166667</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177">
@@ -3824,16 +3833,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C178" s="2">
-        <v>45914.019074074073</v>
+        <v>45922.514814814815</v>
       </c>
       <c r="D178" s="2">
-        <v>45915.000347222223</v>
+        <v>45923.512754629628</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178">
@@ -3842,16 +3851,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C179" s="2">
-        <v>45922.039305555554</v>
+        <v>45919.277962962966</v>
       </c>
       <c r="D179" s="2">
-        <v>45923.0000462963</v>
+        <v>45920.264999999999</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179">
@@ -3860,19 +3869,163 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C180" s="2">
-        <v>45915.55263888889</v>
+        <v>45922.528819444444</v>
       </c>
       <c r="D180" s="2">
-        <v>45916.542962962965</v>
+        <v>45923.501018518517</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45916.579988425925</v>
+      </c>
+      <c r="D181" s="2">
+        <v>45917.561284722222</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="2">
+        <v>45916.019108796296</v>
+      </c>
+      <c r="D182" s="2">
+        <v>45917.00277777778</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" s="2">
+        <v>45924.069803240738</v>
+      </c>
+      <c r="D183" s="2">
+        <v>45925.070717592593</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" t="s">
+        <v>53</v>
+      </c>
+      <c r="C184" s="2">
+        <v>45920.548333333332</v>
+      </c>
+      <c r="D184" s="2">
+        <v>45921.550543981481</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>36</v>
+      </c>
+      <c r="C185" s="2">
+        <v>45919.031469907408</v>
+      </c>
+      <c r="D185" s="2">
+        <v>45920.003437500003</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" t="s">
+        <v>36</v>
+      </c>
+      <c r="C186" s="2">
+        <v>45922.03570601852</v>
+      </c>
+      <c r="D186" s="2">
+        <v>45923.002534722225</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>43</v>
+      </c>
+      <c r="C187" s="2">
+        <v>45923.248379629629</v>
+      </c>
+      <c r="D187" s="2">
+        <v>45924.213425925926</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45921.242662037039</v>
+      </c>
+      <c r="D188" s="2">
+        <v>45922.242719907408</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="F188">
         <v>24</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -124,9 +124,6 @@
     <t>A02号直流</t>
   </si>
   <si>
-    <t>最近一次充电结束时间</t>
-  </si>
-  <si>
     <t>截止一直未充电时间</t>
   </si>
   <si>
@@ -134,6 +131,10 @@
   </si>
   <si>
     <t>006B号直流</t>
+  </si>
+  <si>
+    <t>一次充电结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -143,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +164,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -199,6 +207,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -507,33 +518,33 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.25" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="4" width="24.25" style="2"/>
     <col min="5" max="5" width="24.25" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -550,7 +561,7 @@
         <v>262.35166666656733</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -567,7 +578,7 @@
         <v>141.64277777768439</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -584,7 +595,7 @@
         <v>69.697777777793817</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -601,7 +612,7 @@
         <v>66.216944444342516</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -618,7 +629,7 @@
         <v>46.147777777689043</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -635,7 +646,7 @@
         <v>45.429444444424007</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -652,7 +663,7 @@
         <v>45.299999999930151</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -669,7 +680,7 @@
         <v>45.193333333299961</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -686,7 +697,7 @@
         <v>39.853888888901565</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -703,7 +714,7 @@
         <v>33.051666666695382</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -720,7 +731,7 @@
         <v>32.911111111112405</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -737,7 +748,7 @@
         <v>28.936388888920192</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -754,7 +765,7 @@
         <v>28.793333333276678</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -771,7 +782,7 @@
         <v>28.66833333321847</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -788,7 +799,7 @@
         <v>28.534166666620877</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -805,7 +816,7 @@
         <v>22.708055555471219</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -822,7 +833,7 @@
         <v>21.635277777677402</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -839,7 +850,7 @@
         <v>21.613055555499159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -856,7 +867,7 @@
         <v>21.503055555454921</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -873,7 +884,7 @@
         <v>21.492222222208511</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -890,7 +901,7 @@
         <v>21.464444444398396</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -907,7 +918,7 @@
         <v>21.365833333285991</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -924,12 +935,12 @@
         <v>21.27972222212702</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>45925.550555555557</v>
@@ -941,7 +952,7 @@
         <v>21.226666666567326</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -958,7 +969,7 @@
         <v>21.13722222216893</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -975,7 +986,7 @@
         <v>20.821111111028586</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -992,7 +1003,7 @@
         <v>20.739166666637175</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1020,7 @@
         <v>19.988055555440951</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1026,7 +1037,7 @@
         <v>17.633611111028586</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1043,7 +1054,7 @@
         <v>16.527222222124692</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1071,7 @@
         <v>15.509444444440305</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1088,7 @@
         <v>15.403888888831716</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>2</v>
       </c>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -10,14 +10,14 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$E$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$F$73</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>电站名称</t>
   </si>
@@ -133,7 +133,11 @@
     <t>006B号直流</t>
   </si>
   <si>
-    <t>一次充电结束时间</t>
+    <t>上一次充电结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次充电开始时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -515,19 +519,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.25" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="4" width="24.25" style="2"/>
-    <col min="5" max="5" width="24.25" style="6"/>
+    <col min="3" max="5" width="24.25" style="2"/>
+    <col min="6" max="6" width="24.25" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -537,14 +541,17 @@
       <c r="C1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -554,14 +561,14 @@
       <c r="C2" s="2">
         <v>45915.503680555557</v>
       </c>
-      <c r="D2" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F2" s="6">
         <v>262.35166666656733</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -571,14 +578,14 @@
       <c r="C3" s="2">
         <v>45920.533217592594</v>
       </c>
-      <c r="D3" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F3" s="6">
         <v>141.64277777768439</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -588,14 +595,14 @@
       <c r="C4" s="2">
         <v>45923.530925925923</v>
       </c>
-      <c r="D4" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F4" s="6">
         <v>69.697777777793817</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -605,14 +612,14 @@
       <c r="C5" s="2">
         <v>45923.67596064815</v>
       </c>
-      <c r="D5" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F5" s="6">
         <v>66.216944444342516</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -622,14 +629,14 @@
       <c r="C6" s="2">
         <v>45924.512175925927</v>
       </c>
-      <c r="D6" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F6" s="6">
         <v>46.147777777689043</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -639,14 +646,14 @@
       <c r="C7" s="2">
         <v>45924.54210648148</v>
       </c>
-      <c r="D7" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F7" s="6">
         <v>45.429444444424007</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -656,14 +663,14 @@
       <c r="C8" s="2">
         <v>45924.547500000001</v>
       </c>
-      <c r="D8" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F8" s="6">
         <v>45.299999999930151</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -673,14 +680,14 @@
       <c r="C9" s="2">
         <v>45924.551944444444</v>
       </c>
-      <c r="D9" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F9" s="6">
         <v>45.193333333299961</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -690,14 +697,14 @@
       <c r="C10" s="2">
         <v>45924.774421296293</v>
       </c>
-      <c r="D10" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="E10" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F10" s="6">
         <v>39.853888888901565</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -707,14 +714,14 @@
       <c r="C11" s="2">
         <v>45925.057847222219</v>
       </c>
-      <c r="D11" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="E11" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F11" s="6">
         <v>33.051666666695382</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -724,14 +731,14 @@
       <c r="C12" s="2">
         <v>45925.063703703701</v>
       </c>
-      <c r="D12" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="E12" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F12" s="6">
         <v>32.911111111112405</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -741,14 +748,14 @@
       <c r="C13" s="2">
         <v>45925.229317129626</v>
       </c>
-      <c r="D13" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="E13" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F13" s="6">
         <v>28.936388888920192</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -758,14 +765,14 @@
       <c r="C14" s="2">
         <v>45925.235277777778</v>
       </c>
-      <c r="D14" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="E14" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F14" s="6">
         <v>28.793333333276678</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -775,14 +782,14 @@
       <c r="C15" s="2">
         <v>45925.240486111114</v>
       </c>
-      <c r="D15" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="E15" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F15" s="6">
         <v>28.66833333321847</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -792,14 +799,14 @@
       <c r="C16" s="2">
         <v>45925.246076388888</v>
       </c>
-      <c r="D16" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="E16" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F16" s="6">
         <v>28.534166666620877</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -809,14 +816,14 @@
       <c r="C17" s="2">
         <v>45925.48883101852</v>
       </c>
-      <c r="D17" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="E17" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F17" s="6">
         <v>22.708055555471219</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -826,14 +833,14 @@
       <c r="C18" s="2">
         <v>45925.533530092594</v>
       </c>
-      <c r="D18" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="E18" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F18" s="6">
         <v>21.635277777677402</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -843,14 +850,14 @@
       <c r="C19" s="2">
         <v>45925.534456018519</v>
       </c>
-      <c r="D19" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="E19" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F19" s="6">
         <v>21.613055555499159</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -860,14 +867,14 @@
       <c r="C20" s="2">
         <v>45925.539039351854</v>
       </c>
-      <c r="D20" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="E20" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F20" s="6">
         <v>21.503055555454921</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -877,14 +884,14 @@
       <c r="C21" s="2">
         <v>45925.539490740739</v>
       </c>
-      <c r="D21" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="E21" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F21" s="6">
         <v>21.492222222208511</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -894,14 +901,14 @@
       <c r="C22" s="2">
         <v>45925.540648148148</v>
       </c>
-      <c r="D22" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="E22" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F22" s="6">
         <v>21.464444444398396</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -911,14 +918,14 @@
       <c r="C23" s="2">
         <v>45925.544756944444</v>
       </c>
-      <c r="D23" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="E23" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F23" s="6">
         <v>21.365833333285991</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -928,14 +935,14 @@
       <c r="C24" s="2">
         <v>45925.548344907409</v>
       </c>
-      <c r="D24" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="E24" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F24" s="6">
         <v>21.27972222212702</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -945,14 +952,14 @@
       <c r="C25" s="2">
         <v>45925.550555555557</v>
       </c>
-      <c r="D25" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="E25" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F25" s="6">
         <v>21.226666666567326</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -962,14 +969,14 @@
       <c r="C26" s="2">
         <v>45925.554282407407</v>
       </c>
-      <c r="D26" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="E26" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F26" s="6">
         <v>21.13722222216893</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -979,14 +986,14 @@
       <c r="C27" s="2">
         <v>45925.567453703705</v>
       </c>
-      <c r="D27" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="E27" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F27" s="6">
         <v>20.821111111028586</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -996,14 +1003,14 @@
       <c r="C28" s="2">
         <v>45925.570868055554</v>
       </c>
-      <c r="D28" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="E28" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F28" s="6">
         <v>20.739166666637175</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1013,14 +1020,14 @@
       <c r="C29" s="2">
         <v>45925.602164351854</v>
       </c>
-      <c r="D29" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="E29" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F29" s="6">
         <v>19.988055555440951</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1030,14 +1037,14 @@
       <c r="C30" s="2">
         <v>45925.700266203705</v>
       </c>
-      <c r="D30" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="E30" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F30" s="6">
         <v>17.633611111028586</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1047,14 +1054,14 @@
       <c r="C31" s="2">
         <v>45925.746365740742</v>
       </c>
-      <c r="D31" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="E31" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F31" s="6">
         <v>16.527222222124692</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1064,14 +1071,14 @@
       <c r="C32" s="2">
         <v>45925.788773148146</v>
       </c>
-      <c r="D32" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="E32" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F32" s="6">
         <v>15.509444444440305</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1081,14 +1088,14 @@
       <c r="C33" s="2">
         <v>45925.793171296296</v>
       </c>
-      <c r="D33" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="E33" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F33" s="6">
         <v>15.403888888831716</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1098,10 +1105,10 @@
       <c r="C34" s="2">
         <v>45925.860277777778</v>
       </c>
-      <c r="D34" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="E34" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="F34" s="6">
         <v>13.793333333276678</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -10,14 +10,14 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$F$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$E$73</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>电站名称</t>
   </si>
@@ -134,10 +134,6 @@
   </si>
   <si>
     <t>上一次充电结束时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一次充电开始时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -519,19 +515,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.25" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="5" width="24.25" style="2"/>
-    <col min="6" max="6" width="24.25" style="6"/>
+    <col min="3" max="4" width="24.25" style="2"/>
+    <col min="5" max="5" width="24.25" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -541,17 +537,14 @@
       <c r="C1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -561,14 +554,14 @@
       <c r="C2" s="2">
         <v>45915.503680555557</v>
       </c>
-      <c r="E2" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="D2" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E2" s="6">
         <v>262.35166666656733</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -578,14 +571,14 @@
       <c r="C3" s="2">
         <v>45920.533217592594</v>
       </c>
-      <c r="E3" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D3" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E3" s="6">
         <v>141.64277777768439</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -595,14 +588,14 @@
       <c r="C4" s="2">
         <v>45923.530925925923</v>
       </c>
-      <c r="E4" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E4" s="6">
         <v>69.697777777793817</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -612,14 +605,14 @@
       <c r="C5" s="2">
         <v>45923.67596064815</v>
       </c>
-      <c r="E5" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="D5" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E5" s="6">
         <v>66.216944444342516</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -629,14 +622,14 @@
       <c r="C6" s="2">
         <v>45924.512175925927</v>
       </c>
-      <c r="E6" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="D6" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E6" s="6">
         <v>46.147777777689043</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -646,14 +639,14 @@
       <c r="C7" s="2">
         <v>45924.54210648148</v>
       </c>
-      <c r="E7" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="D7" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E7" s="6">
         <v>45.429444444424007</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -663,14 +656,14 @@
       <c r="C8" s="2">
         <v>45924.547500000001</v>
       </c>
-      <c r="E8" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D8" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E8" s="6">
         <v>45.299999999930151</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -680,14 +673,14 @@
       <c r="C9" s="2">
         <v>45924.551944444444</v>
       </c>
-      <c r="E9" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E9" s="6">
         <v>45.193333333299961</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -697,14 +690,14 @@
       <c r="C10" s="2">
         <v>45924.774421296293</v>
       </c>
-      <c r="E10" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="D10" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E10" s="6">
         <v>39.853888888901565</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -714,14 +707,14 @@
       <c r="C11" s="2">
         <v>45925.057847222219</v>
       </c>
-      <c r="E11" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="D11" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E11" s="6">
         <v>33.051666666695382</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -731,14 +724,14 @@
       <c r="C12" s="2">
         <v>45925.063703703701</v>
       </c>
-      <c r="E12" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="D12" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E12" s="6">
         <v>32.911111111112405</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -748,14 +741,14 @@
       <c r="C13" s="2">
         <v>45925.229317129626</v>
       </c>
-      <c r="E13" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="D13" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E13" s="6">
         <v>28.936388888920192</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -765,14 +758,14 @@
       <c r="C14" s="2">
         <v>45925.235277777778</v>
       </c>
-      <c r="E14" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="D14" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E14" s="6">
         <v>28.793333333276678</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -782,14 +775,14 @@
       <c r="C15" s="2">
         <v>45925.240486111114</v>
       </c>
-      <c r="E15" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="D15" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E15" s="6">
         <v>28.66833333321847</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -799,14 +792,14 @@
       <c r="C16" s="2">
         <v>45925.246076388888</v>
       </c>
-      <c r="E16" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="D16" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E16" s="6">
         <v>28.534166666620877</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -816,14 +809,14 @@
       <c r="C17" s="2">
         <v>45925.48883101852</v>
       </c>
-      <c r="E17" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="D17" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E17" s="6">
         <v>22.708055555471219</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -833,14 +826,14 @@
       <c r="C18" s="2">
         <v>45925.533530092594</v>
       </c>
-      <c r="E18" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="D18" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E18" s="6">
         <v>21.635277777677402</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -850,14 +843,14 @@
       <c r="C19" s="2">
         <v>45925.534456018519</v>
       </c>
-      <c r="E19" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="D19" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E19" s="6">
         <v>21.613055555499159</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -867,14 +860,14 @@
       <c r="C20" s="2">
         <v>45925.539039351854</v>
       </c>
-      <c r="E20" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="D20" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E20" s="6">
         <v>21.503055555454921</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -884,14 +877,14 @@
       <c r="C21" s="2">
         <v>45925.539490740739</v>
       </c>
-      <c r="E21" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="D21" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E21" s="6">
         <v>21.492222222208511</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -901,14 +894,14 @@
       <c r="C22" s="2">
         <v>45925.540648148148</v>
       </c>
-      <c r="E22" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="D22" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E22" s="6">
         <v>21.464444444398396</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -918,14 +911,14 @@
       <c r="C23" s="2">
         <v>45925.544756944444</v>
       </c>
-      <c r="E23" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="D23" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E23" s="6">
         <v>21.365833333285991</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -935,14 +928,14 @@
       <c r="C24" s="2">
         <v>45925.548344907409</v>
       </c>
-      <c r="E24" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="D24" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E24" s="6">
         <v>21.27972222212702</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -952,14 +945,14 @@
       <c r="C25" s="2">
         <v>45925.550555555557</v>
       </c>
-      <c r="E25" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="D25" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E25" s="6">
         <v>21.226666666567326</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -969,14 +962,14 @@
       <c r="C26" s="2">
         <v>45925.554282407407</v>
       </c>
-      <c r="E26" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="D26" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E26" s="6">
         <v>21.13722222216893</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -986,14 +979,14 @@
       <c r="C27" s="2">
         <v>45925.567453703705</v>
       </c>
-      <c r="E27" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="D27" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E27" s="6">
         <v>20.821111111028586</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1003,14 +996,14 @@
       <c r="C28" s="2">
         <v>45925.570868055554</v>
       </c>
-      <c r="E28" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="D28" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E28" s="6">
         <v>20.739166666637175</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1020,14 +1013,14 @@
       <c r="C29" s="2">
         <v>45925.602164351854</v>
       </c>
-      <c r="E29" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="D29" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E29" s="6">
         <v>19.988055555440951</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1037,14 +1030,14 @@
       <c r="C30" s="2">
         <v>45925.700266203705</v>
       </c>
-      <c r="E30" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="D30" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E30" s="6">
         <v>17.633611111028586</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1054,14 +1047,14 @@
       <c r="C31" s="2">
         <v>45925.746365740742</v>
       </c>
-      <c r="E31" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="D31" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E31" s="6">
         <v>16.527222222124692</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1071,14 +1064,14 @@
       <c r="C32" s="2">
         <v>45925.788773148146</v>
       </c>
-      <c r="E32" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="D32" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E32" s="6">
         <v>15.509444444440305</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1088,14 +1081,14 @@
       <c r="C33" s="2">
         <v>45925.793171296296</v>
       </c>
-      <c r="E33" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="D33" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E33" s="6">
         <v>15.403888888831716</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1105,10 +1098,10 @@
       <c r="C34" s="2">
         <v>45925.860277777778</v>
       </c>
-      <c r="E34" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="D34" s="2">
+        <v>45926.434999999998</v>
+      </c>
+      <c r="E34" s="6">
         <v>13.793333333276678</v>
       </c>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -43,84 +43,36 @@
     <t>001A号直流</t>
   </si>
   <si>
-    <t>103号直流</t>
-  </si>
-  <si>
-    <t>701号直流</t>
-  </si>
-  <si>
-    <t>B02号直流</t>
-  </si>
-  <si>
     <t>604号直流</t>
   </si>
   <si>
-    <t>504号直流</t>
-  </si>
-  <si>
-    <t>401号直流</t>
-  </si>
-  <si>
     <t>306号直流</t>
   </si>
   <si>
-    <t>002A号直流</t>
-  </si>
-  <si>
     <t>904号直流</t>
   </si>
   <si>
-    <t>406号直流</t>
-  </si>
-  <si>
     <t>402号直流</t>
   </si>
   <si>
-    <t>702号直流</t>
-  </si>
-  <si>
     <t>905号直流</t>
   </si>
   <si>
-    <t>404号直流</t>
-  </si>
-  <si>
-    <t>A04号直流</t>
-  </si>
-  <si>
     <t>203号直流</t>
   </si>
   <si>
-    <t>403号直流</t>
-  </si>
-  <si>
     <t>002B号直流</t>
   </si>
   <si>
     <t>长沙市开福区高岭香江国际城充电站建设项目</t>
   </si>
   <si>
-    <t>107号直流</t>
-  </si>
-  <si>
     <t>204号直流</t>
   </si>
   <si>
-    <t>B01号直流</t>
-  </si>
-  <si>
-    <t>902号直流</t>
-  </si>
-  <si>
-    <t>208号直流</t>
-  </si>
-  <si>
     <t>804号直流</t>
   </si>
   <si>
-    <t>B05号直流</t>
-  </si>
-  <si>
     <t>A02号直流</t>
   </si>
   <si>
@@ -130,11 +82,58 @@
     <t>截止一直未充电时长(小时)</t>
   </si>
   <si>
-    <t>006B号直流</t>
-  </si>
-  <si>
-    <t>上一次充电结束时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>最近一次充电结束时间</t>
+  </si>
+  <si>
+    <t>101号直流</t>
+  </si>
+  <si>
+    <t>603号直流</t>
+  </si>
+  <si>
+    <t>602号直流</t>
+  </si>
+  <si>
+    <t>301号直流</t>
+  </si>
+  <si>
+    <t>109号直流</t>
+  </si>
+  <si>
+    <t>008B号直流</t>
+  </si>
+  <si>
+    <t>110号直流</t>
+  </si>
+  <si>
+    <t>102号直流</t>
+  </si>
+  <si>
+    <t>B03号直流</t>
+  </si>
+  <si>
+    <t>505号直流</t>
+  </si>
+  <si>
+    <t>903号直流</t>
+  </si>
+  <si>
+    <t>011A号直流</t>
+  </si>
+  <si>
+    <t>006A号直流</t>
+  </si>
+  <si>
+    <t>901号直流</t>
+  </si>
+  <si>
+    <t>309号直流</t>
+  </si>
+  <si>
+    <t>A05号直流</t>
+  </si>
+  <si>
+    <t>212号直流</t>
   </si>
 </sst>
 </file>
@@ -144,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,13 +163,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -207,9 +199,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -518,50 +507,53 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="24.25" style="2"/>
-    <col min="5" max="5" width="24.25" style="6"/>
+    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>38</v>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>45915.503680555557</v>
       </c>
       <c r="D2" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E2" s="6">
-        <v>262.35166666656733</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>283.98805555544095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -572,541 +564,542 @@
         <v>45920.533217592594</v>
       </c>
       <c r="D3" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E3" s="6">
-        <v>141.64277777768439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>163.27916666655801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>45923.530925925923</v>
+        <v>45923.67596064815</v>
       </c>
       <c r="D4" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E4" s="6">
-        <v>69.697777777793817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>87.853333333216142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45925.057847222219</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45927.336516203701</v>
+      </c>
+      <c r="E5" s="6">
+        <v>54.688055555569008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45925.246076388888</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45927.336516203701</v>
+      </c>
+      <c r="E6" s="6">
+        <v>50.170555555494502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
-        <v>45923.67596064815</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E5" s="6">
-        <v>66.216944444342516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45924.512175925927</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E6" s="6">
-        <v>46.147777777689043</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="C7" s="2">
+        <v>45925.540648148148</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45927.336516203701</v>
+      </c>
+      <c r="E7" s="6">
+        <v>43.100833333272021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45925.700266203705</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45927.336516203701</v>
+      </c>
+      <c r="E8" s="6">
+        <v>39.269999999902211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45924.54210648148</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E7" s="6">
-        <v>45.429444444424007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45924.547500000001</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E8" s="6">
-        <v>45.299999999930151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>45924.551944444444</v>
+        <v>45926.043692129628</v>
       </c>
       <c r="D9" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E9" s="6">
-        <v>45.193333333299961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>31.027777777751908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45926.099652777775</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45927.336516203701</v>
+      </c>
+      <c r="E10" s="6">
+        <v>29.684722222213168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45926.242071759261</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45927.336516203701</v>
+      </c>
+      <c r="E11" s="6">
+        <v>26.266666666546371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45926.29142361111</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45927.336516203701</v>
+      </c>
+      <c r="E12" s="6">
+        <v>25.082222222175915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C13" s="2">
+        <v>45926.523564814815</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45927.336516203701</v>
+      </c>
+      <c r="E13" s="6">
+        <v>19.51083333324641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2">
-        <v>45924.774421296293</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E10" s="6">
-        <v>39.853888888901565</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45925.057847222219</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E11" s="6">
-        <v>33.051666666695382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45925.063703703701</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E12" s="6">
-        <v>32.911111111112405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45925.229317129626</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E13" s="6">
-        <v>28.936388888920192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
       <c r="C14" s="2">
-        <v>45925.235277777778</v>
+        <v>45926.525636574072</v>
       </c>
       <c r="D14" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E14" s="6">
-        <v>28.793333333276678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>19.461111111100763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>45925.240486111114</v>
+        <v>45926.526828703703</v>
       </c>
       <c r="D15" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E15" s="6">
-        <v>28.66833333321847</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>19.432499999937136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>45925.246076388888</v>
+        <v>45926.537534722222</v>
       </c>
       <c r="D16" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E16" s="6">
-        <v>28.534166666620877</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>19.175555555499159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>45925.48883101852</v>
+        <v>45926.541666666664</v>
       </c>
       <c r="D17" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E17" s="6">
-        <v>22.708055555471219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>19.076388888875954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45926.548831018517</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45927.336516203701</v>
+      </c>
+      <c r="E18" s="6">
+        <v>18.904444444400724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2">
-        <v>45925.533530092594</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E18" s="6">
-        <v>21.635277777677402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="C19" s="2">
+        <v>45926.555208333331</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45927.336516203701</v>
+      </c>
+      <c r="E19" s="6">
+        <v>18.751388888864312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2">
-        <v>45925.534456018519</v>
-      </c>
-      <c r="D19" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E19" s="6">
-        <v>21.613055555499159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" s="2">
-        <v>45925.539039351854</v>
+        <v>45926.556597222225</v>
       </c>
       <c r="D20" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E20" s="6">
-        <v>21.503055555454921</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>18.718055555422325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2">
-        <v>45925.539490740739</v>
+        <v>45926.560879629629</v>
       </c>
       <c r="D21" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E21" s="6">
-        <v>21.492222222208511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>18.615277777716983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2">
-        <v>45925.540648148148</v>
+        <v>45926.566296296296</v>
       </c>
       <c r="D22" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E22" s="6">
-        <v>21.464444444398396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>18.485277777712326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45926.573981481481</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45927.336516203701</v>
+      </c>
+      <c r="E23" s="6">
+        <v>18.300833333283663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45926.581770833334</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45927.336516203701</v>
+      </c>
+      <c r="E24" s="6">
+        <v>18.113888888794463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2">
-        <v>45925.544756944444</v>
-      </c>
-      <c r="D23" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E23" s="6">
-        <v>21.365833333285991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45926.600729166668</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45927.336516203701</v>
+      </c>
+      <c r="E25" s="6">
+        <v>17.658888888778165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2">
-        <v>45925.548344907409</v>
-      </c>
-      <c r="D24" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E24" s="6">
-        <v>21.27972222212702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45926.642141203702</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45927.336516203701</v>
+      </c>
+      <c r="E26" s="6">
+        <v>16.664999999979045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="2">
-        <v>45925.550555555557</v>
-      </c>
-      <c r="D25" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E25" s="6">
-        <v>21.226666666567326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="2">
-        <v>45925.554282407407</v>
-      </c>
-      <c r="D26" s="2">
-        <v>45926.434999999998</v>
-      </c>
-      <c r="E26" s="6">
-        <v>21.13722222216893</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
       <c r="C27" s="2">
-        <v>45925.567453703705</v>
+        <v>45926.671435185184</v>
       </c>
       <c r="D27" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E27" s="6">
-        <v>20.821111111028586</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>15.961944444396067</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2">
-        <v>45925.570868055554</v>
+        <v>45926.672175925924</v>
       </c>
       <c r="D28" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E28" s="6">
-        <v>20.739166666637175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>15.944166666653473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
-        <v>45925.602164351854</v>
+        <v>45926.674560185187</v>
       </c>
       <c r="D29" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E29" s="6">
-        <v>19.988055555440951</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>15.886944444326218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>45925.700266203705</v>
+        <v>45926.703703703701</v>
       </c>
       <c r="D30" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E30" s="6">
-        <v>17.633611111028586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>15.1875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2">
-        <v>45925.746365740742</v>
+        <v>45926.713923611111</v>
       </c>
       <c r="D31" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E31" s="6">
-        <v>16.527222222124692</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>14.942222222161945</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C32" s="2">
-        <v>45925.788773148146</v>
+        <v>45926.729629629626</v>
       </c>
       <c r="D32" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E32" s="6">
-        <v>15.509444444440305</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>14.565277777786832</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="2">
-        <v>45925.793171296296</v>
+        <v>45926.740451388891</v>
       </c>
       <c r="D33" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E33" s="6">
-        <v>15.403888888831716</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>14.305555555445608</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2">
-        <v>45925.860277777778</v>
+        <v>45926.766643518517</v>
       </c>
       <c r="D34" s="2">
-        <v>45926.434999999998</v>
+        <v>45927.336516203701</v>
       </c>
       <c r="E34" s="6">
-        <v>13.793333333276678</v>
+        <v>13.676944444421679</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>电站名称</t>
   </si>
@@ -43,9 +43,6 @@
     <t>001A号直流</t>
   </si>
   <si>
-    <t>604号直流</t>
-  </si>
-  <si>
     <t>306号直流</t>
   </si>
   <si>
@@ -58,24 +55,12 @@
     <t>905号直流</t>
   </si>
   <si>
-    <t>203号直流</t>
-  </si>
-  <si>
-    <t>002B号直流</t>
-  </si>
-  <si>
     <t>长沙市开福区高岭香江国际城充电站建设项目</t>
   </si>
   <si>
     <t>204号直流</t>
   </si>
   <si>
-    <t>804号直流</t>
-  </si>
-  <si>
-    <t>A02号直流</t>
-  </si>
-  <si>
     <t>截止一直未充电时间</t>
   </si>
   <si>
@@ -94,46 +79,67 @@
     <t>602号直流</t>
   </si>
   <si>
-    <t>301号直流</t>
-  </si>
-  <si>
-    <t>109号直流</t>
-  </si>
-  <si>
     <t>008B号直流</t>
   </si>
   <si>
-    <t>110号直流</t>
-  </si>
-  <si>
     <t>102号直流</t>
   </si>
   <si>
-    <t>B03号直流</t>
-  </si>
-  <si>
-    <t>505号直流</t>
-  </si>
-  <si>
     <t>903号直流</t>
   </si>
   <si>
-    <t>011A号直流</t>
-  </si>
-  <si>
-    <t>006A号直流</t>
-  </si>
-  <si>
     <t>901号直流</t>
   </si>
   <si>
-    <t>309号直流</t>
-  </si>
-  <si>
-    <t>A05号直流</t>
-  </si>
-  <si>
-    <t>212号直流</t>
+    <t>801号直流</t>
+  </si>
+  <si>
+    <t>406号直流</t>
+  </si>
+  <si>
+    <t>401号直流</t>
+  </si>
+  <si>
+    <t>A04号直流</t>
+  </si>
+  <si>
+    <t>003B号直流</t>
+  </si>
+  <si>
+    <t>103号直流</t>
+  </si>
+  <si>
+    <t>B01号直流</t>
+  </si>
+  <si>
+    <t>803号直流</t>
+  </si>
+  <si>
+    <t>701号直流</t>
+  </si>
+  <si>
+    <t>B02号直流</t>
+  </si>
+  <si>
+    <t>504号直流</t>
+  </si>
+  <si>
+    <t>902号直流</t>
+  </si>
+  <si>
+    <t>202号直流</t>
+  </si>
+  <si>
+    <t>106号直流</t>
+  </si>
+  <si>
+    <t>705号直流</t>
+  </si>
+  <si>
+    <t>002A号直流</t>
+  </si>
+  <si>
+    <t>005A号直流</t>
   </si>
 </sst>
 </file>
@@ -504,19 +510,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -527,13 +532,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -541,33 +546,33 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>45915.503680555557</v>
       </c>
       <c r="D2" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E2" s="6">
-        <v>283.98805555544095</v>
+        <v>307.89583333331393</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>45920.533217592594</v>
+        <v>45925.246076388888</v>
       </c>
       <c r="D3" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E3" s="6">
-        <v>163.27916666655801</v>
+        <v>74.078333333367482</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -575,16 +580,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>45923.67596064815</v>
+        <v>45926.043692129628</v>
       </c>
       <c r="D4" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E4" s="6">
-        <v>87.853333333216142</v>
+        <v>54.935555555624887</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -592,33 +597,33 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>45925.057847222219</v>
+        <v>45926.099652777775</v>
       </c>
       <c r="D5" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E5" s="6">
-        <v>54.688055555569008</v>
+        <v>53.592500000086147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>45925.246076388888</v>
+        <v>45926.242071759261</v>
       </c>
       <c r="D6" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E6" s="6">
-        <v>50.170555555494502</v>
+        <v>50.17444444441935</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -626,50 +631,50 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>45925.540648148148</v>
+        <v>45926.525636574072</v>
       </c>
       <c r="D7" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E7" s="6">
-        <v>43.100833333272021</v>
+        <v>43.368888888973743</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>45925.700266203705</v>
+        <v>45926.556597222225</v>
       </c>
       <c r="D8" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E8" s="6">
-        <v>39.269999999902211</v>
+        <v>42.625833333295304</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>45926.043692129628</v>
+        <v>45926.560879629629</v>
       </c>
       <c r="D9" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E9" s="6">
-        <v>31.027777777751908</v>
+        <v>42.523055555589963</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -677,16 +682,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>45926.099652777775</v>
+        <v>45927.038657407407</v>
       </c>
       <c r="D10" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E10" s="6">
-        <v>29.684722222213168</v>
+        <v>31.056388888915535</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -694,135 +699,135 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>45926.242071759261</v>
+        <v>45927.050925925927</v>
       </c>
       <c r="D11" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E11" s="6">
-        <v>26.266666666546371</v>
+        <v>30.761944444442634</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>45926.29142361111</v>
+        <v>45927.051412037035</v>
       </c>
       <c r="D12" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E12" s="6">
-        <v>25.082222222175915</v>
+        <v>30.750277777842712</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>45926.523564814815</v>
+        <v>45927.051574074074</v>
       </c>
       <c r="D13" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E13" s="6">
-        <v>19.51083333324641</v>
+        <v>30.746388888917863</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>45926.525636574072</v>
+        <v>45927.157442129632</v>
       </c>
       <c r="D14" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E14" s="6">
-        <v>19.461111111100763</v>
+        <v>28.205555555527098</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>45926.526828703703</v>
+        <v>45927.251550925925</v>
       </c>
       <c r="D15" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E15" s="6">
-        <v>19.432499999937136</v>
+        <v>25.946944444498513</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
-        <v>45926.537534722222</v>
+        <v>45927.302870370368</v>
       </c>
       <c r="D16" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E16" s="6">
-        <v>19.175555555499159</v>
+        <v>24.715277777868323</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
-        <v>45926.541666666664</v>
+        <v>45927.358912037038</v>
       </c>
       <c r="D17" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E17" s="6">
-        <v>19.076388888875954</v>
+        <v>23.370277777779847</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>45926.548831018517</v>
+        <v>45927.408541666664</v>
       </c>
       <c r="D18" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E18" s="6">
-        <v>18.904444444400724</v>
+        <v>22.179166666755918</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -830,33 +835,33 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
-        <v>45926.555208333331</v>
+        <v>45927.413043981483</v>
       </c>
       <c r="D19" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E19" s="6">
-        <v>18.751388888864312</v>
+        <v>22.071111111086793</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2">
-        <v>45926.556597222225</v>
+        <v>45927.41479166667</v>
       </c>
       <c r="D20" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E20" s="6">
-        <v>18.718055555422325</v>
+        <v>22.02916666661622</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -864,101 +869,101 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
-        <v>45926.560879629629</v>
+        <v>45927.445706018516</v>
       </c>
       <c r="D21" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E21" s="6">
-        <v>18.615277777716983</v>
+        <v>21.287222222308628</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2">
-        <v>45926.566296296296</v>
+        <v>45927.457337962966</v>
       </c>
       <c r="D22" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E22" s="6">
-        <v>18.485277777712326</v>
+        <v>21.008055555517785</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2">
-        <v>45926.573981481481</v>
+        <v>45927.508564814816</v>
       </c>
       <c r="D23" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E23" s="6">
-        <v>18.300833333283663</v>
+        <v>19.77861111110542</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2">
-        <v>45926.581770833334</v>
+        <v>45927.523240740738</v>
       </c>
       <c r="D24" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E24" s="6">
-        <v>18.113888888794463</v>
+        <v>19.426388888969086</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
-        <v>45926.600729166668</v>
+        <v>45927.524837962963</v>
       </c>
       <c r="D25" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E25" s="6">
-        <v>17.658888888778165</v>
+        <v>19.38805555558065</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2">
-        <v>45926.642141203702</v>
+        <v>45927.534305555557</v>
       </c>
       <c r="D26" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E26" s="6">
-        <v>16.664999999979045</v>
+        <v>19.160833333327901</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -966,101 +971,101 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2">
-        <v>45926.671435185184</v>
+        <v>45927.543576388889</v>
       </c>
       <c r="D27" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E27" s="6">
-        <v>15.961944444396067</v>
+        <v>18.938333333353512</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2">
-        <v>45926.672175925924</v>
+        <v>45927.545995370368</v>
       </c>
       <c r="D28" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E28" s="6">
-        <v>15.944166666653473</v>
+        <v>18.880277777847368</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2">
-        <v>45926.674560185187</v>
+        <v>45927.563981481479</v>
       </c>
       <c r="D29" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E29" s="6">
-        <v>15.886944444326218</v>
+        <v>18.448611111205537</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2">
-        <v>45926.703703703701</v>
+        <v>45927.569039351853</v>
       </c>
       <c r="D30" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E30" s="6">
-        <v>15.1875</v>
+        <v>18.327222222229466</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2">
-        <v>45926.713923611111</v>
+        <v>45927.586284722223</v>
       </c>
       <c r="D31" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E31" s="6">
-        <v>14.942222222161945</v>
+        <v>17.913333333330229</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2">
-        <v>45926.729629629626</v>
+        <v>45927.606226851851</v>
       </c>
       <c r="D32" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E32" s="6">
-        <v>14.565277777786832</v>
+        <v>17.434722222271375</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -1068,33 +1073,101 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2">
-        <v>45926.740451388891</v>
+        <v>45927.65315972222</v>
       </c>
       <c r="D33" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E33" s="6">
-        <v>14.305555555445608</v>
+        <v>16.308333333407063</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2">
-        <v>45926.766643518517</v>
+        <v>45927.677430555559</v>
       </c>
       <c r="D34" s="2">
-        <v>45927.336516203701</v>
+        <v>45928.332673611112</v>
       </c>
       <c r="E34" s="6">
-        <v>13.676944444421679</v>
+        <v>15.725833333272021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45927.746261574073</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45928.332673611112</v>
+      </c>
+      <c r="E35" s="6">
+        <v>14.073888888931833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45927.758240740739</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45928.332673611112</v>
+      </c>
+      <c r="E36" s="6">
+        <v>13.786388888955116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45927.776076388887</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45928.332673611112</v>
+      </c>
+      <c r="E37" s="6">
+        <v>13.358333333395422</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45927.828460648147</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45928.332673611112</v>
+      </c>
+      <c r="E38" s="6">
+        <v>12.101111111172941</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>电站名称</t>
   </si>
@@ -34,21 +34,12 @@
     <t>长沙特来电飞狐四方坪南区充电站</t>
   </si>
   <si>
-    <t>201号直流</t>
-  </si>
-  <si>
     <t>长沙特来电飞狐四方坪东区充电站</t>
   </si>
   <si>
-    <t>001A号直流</t>
-  </si>
-  <si>
     <t>306号直流</t>
   </si>
   <si>
-    <t>904号直流</t>
-  </si>
-  <si>
     <t>402号直流</t>
   </si>
   <si>
@@ -91,27 +82,9 @@
     <t>901号直流</t>
   </si>
   <si>
-    <t>801号直流</t>
-  </si>
-  <si>
-    <t>406号直流</t>
-  </si>
-  <si>
-    <t>401号直流</t>
-  </si>
-  <si>
-    <t>A04号直流</t>
-  </si>
-  <si>
     <t>003B号直流</t>
   </si>
   <si>
-    <t>103号直流</t>
-  </si>
-  <si>
-    <t>B01号直流</t>
-  </si>
-  <si>
     <t>803号直流</t>
   </si>
   <si>
@@ -121,25 +94,40 @@
     <t>B02号直流</t>
   </si>
   <si>
-    <t>504号直流</t>
-  </si>
-  <si>
-    <t>902号直流</t>
-  </si>
-  <si>
-    <t>202号直流</t>
-  </si>
-  <si>
-    <t>106号直流</t>
-  </si>
-  <si>
     <t>705号直流</t>
   </si>
   <si>
-    <t>002A号直流</t>
-  </si>
-  <si>
-    <t>005A号直流</t>
+    <t>301号直流</t>
+  </si>
+  <si>
+    <t>A01号直流</t>
+  </si>
+  <si>
+    <t>001B号直流</t>
+  </si>
+  <si>
+    <t>604号直流</t>
+  </si>
+  <si>
+    <t>702号直流</t>
+  </si>
+  <si>
+    <t>505号直流</t>
+  </si>
+  <si>
+    <t>404号直流</t>
+  </si>
+  <si>
+    <t>210号直流</t>
+  </si>
+  <si>
+    <t>107号直流</t>
+  </si>
+  <si>
+    <t>111号直流</t>
+  </si>
+  <si>
+    <t>B03号直流</t>
   </si>
 </sst>
 </file>
@@ -510,10 +498,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -532,30 +520,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>45915.503680555557</v>
       </c>
       <c r="D2" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E2" s="6">
-        <v>307.89583333331393</v>
+        <v>333.20166666666046</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -563,33 +551,33 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>45925.246076388888</v>
+        <v>45926.043692129628</v>
       </c>
       <c r="D3" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E3" s="6">
-        <v>74.078333333367482</v>
+        <v>80.241388888971414</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>45926.043692129628</v>
+        <v>45926.099652777775</v>
       </c>
       <c r="D4" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E4" s="6">
-        <v>54.935555555624887</v>
+        <v>78.898333333432674</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -597,67 +585,67 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>45926.099652777775</v>
+        <v>45926.242071759261</v>
       </c>
       <c r="D5" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E5" s="6">
-        <v>53.592500000086147</v>
+        <v>75.480277777765878</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>45926.242071759261</v>
+        <v>45926.525636574072</v>
       </c>
       <c r="D6" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E6" s="6">
-        <v>50.17444444441935</v>
+        <v>68.67472222232027</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>45926.525636574072</v>
+        <v>45927.302870370368</v>
       </c>
       <c r="D7" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E7" s="6">
-        <v>43.368888888973743</v>
+        <v>50.02111111121485</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
-        <v>45926.556597222225</v>
+        <v>45927.457337962966</v>
       </c>
       <c r="D8" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E8" s="6">
-        <v>42.625833333295304</v>
+        <v>46.313888888864312</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -665,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
-        <v>45926.560879629629</v>
+        <v>45927.65315972222</v>
       </c>
       <c r="D9" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E9" s="6">
-        <v>42.523055555589963</v>
+        <v>41.61416666675359</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -682,16 +670,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>45927.038657407407</v>
+        <v>45928.017442129632</v>
       </c>
       <c r="D10" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E10" s="6">
-        <v>31.056388888915535</v>
+        <v>32.871388888859656</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -699,50 +687,50 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2">
-        <v>45927.050925925927</v>
+        <v>45928.110659722224</v>
       </c>
       <c r="D11" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E11" s="6">
-        <v>30.761944444442634</v>
+        <v>30.634166666655801</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
-        <v>45927.051412037035</v>
+        <v>45928.127974537034</v>
       </c>
       <c r="D12" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E12" s="6">
-        <v>30.750277777842712</v>
+        <v>30.218611111224163</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2">
-        <v>45927.051574074074</v>
+        <v>45928.226944444446</v>
       </c>
       <c r="D13" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E13" s="6">
-        <v>30.746388888917863</v>
+        <v>27.843333333323244</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -750,67 +738,67 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
-        <v>45927.157442129632</v>
+        <v>45928.532187500001</v>
       </c>
       <c r="D14" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E14" s="6">
-        <v>28.205555555527098</v>
+        <v>20.517500000016298</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2">
-        <v>45927.251550925925</v>
+        <v>45928.540798611109</v>
       </c>
       <c r="D15" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E15" s="6">
-        <v>25.946944444498513</v>
+        <v>20.310833333409391</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2">
-        <v>45927.302870370368</v>
+        <v>45928.549571759257</v>
       </c>
       <c r="D16" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E16" s="6">
-        <v>24.715277777868323</v>
+        <v>20.100277777877636</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2">
-        <v>45927.358912037038</v>
+        <v>45928.553310185183</v>
       </c>
       <c r="D17" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E17" s="6">
-        <v>23.370277777779847</v>
+        <v>20.010555555636529</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -818,33 +806,33 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>45927.408541666664</v>
+        <v>45928.554293981484</v>
       </c>
       <c r="D18" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E18" s="6">
-        <v>22.179166666755918</v>
+        <v>19.98694444441935</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>45927.413043981483</v>
+        <v>45928.554675925923</v>
       </c>
       <c r="D19" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E19" s="6">
-        <v>22.071111111086793</v>
+        <v>19.977777777879965</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -852,33 +840,33 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>45927.41479166667</v>
+        <v>45928.556516203702</v>
       </c>
       <c r="D20" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E20" s="6">
-        <v>22.02916666661622</v>
+        <v>19.933611111191567</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>45927.445706018516</v>
+        <v>45928.562118055554</v>
       </c>
       <c r="D21" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E21" s="6">
-        <v>21.287222222308628</v>
+        <v>19.799166666751262</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -886,16 +874,16 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
-        <v>45927.457337962966</v>
+        <v>45928.572928240741</v>
       </c>
       <c r="D22" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E22" s="6">
-        <v>21.008055555517785</v>
+        <v>19.539722222252749</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -903,16 +891,16 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
-        <v>45927.508564814816</v>
+        <v>45928.576990740738</v>
       </c>
       <c r="D23" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E23" s="6">
-        <v>19.77861111110542</v>
+        <v>19.442222222336568</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -920,67 +908,67 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
-        <v>45927.523240740738</v>
+        <v>45928.598923611113</v>
       </c>
       <c r="D24" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E24" s="6">
-        <v>19.426388888969086</v>
+        <v>18.915833333332557</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2">
-        <v>45927.524837962963</v>
+        <v>45928.633726851855</v>
       </c>
       <c r="D25" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E25" s="6">
-        <v>19.38805555558065</v>
+        <v>18.080555555527098</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2">
-        <v>45927.534305555557</v>
+        <v>45928.635104166664</v>
       </c>
       <c r="D26" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E26" s="6">
-        <v>19.160833333327901</v>
+        <v>18.047500000102445</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
-        <v>45927.543576388889</v>
+        <v>45928.713287037041</v>
       </c>
       <c r="D27" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E27" s="6">
-        <v>18.938333333353512</v>
+        <v>16.17111111106351</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -988,186 +976,33 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2">
-        <v>45927.545995370368</v>
+        <v>45928.737696759257</v>
       </c>
       <c r="D28" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E28" s="6">
-        <v>18.880277777847368</v>
+        <v>15.585277777863666</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
-        <v>45927.563981481479</v>
+        <v>45928.766284722224</v>
       </c>
       <c r="D29" s="2">
-        <v>45928.332673611112</v>
+        <v>45929.387083333335</v>
       </c>
       <c r="E29" s="6">
-        <v>18.448611111205537</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2">
-        <v>45927.569039351853</v>
-      </c>
-      <c r="D30" s="2">
-        <v>45928.332673611112</v>
-      </c>
-      <c r="E30" s="6">
-        <v>18.327222222229466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="2">
-        <v>45927.586284722223</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45928.332673611112</v>
-      </c>
-      <c r="E31" s="6">
-        <v>17.913333333330229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="2">
-        <v>45927.606226851851</v>
-      </c>
-      <c r="D32" s="2">
-        <v>45928.332673611112</v>
-      </c>
-      <c r="E32" s="6">
-        <v>17.434722222271375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="2">
-        <v>45927.65315972222</v>
-      </c>
-      <c r="D33" s="2">
-        <v>45928.332673611112</v>
-      </c>
-      <c r="E33" s="6">
-        <v>16.308333333407063</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="2">
-        <v>45927.677430555559</v>
-      </c>
-      <c r="D34" s="2">
-        <v>45928.332673611112</v>
-      </c>
-      <c r="E34" s="6">
-        <v>15.725833333272021</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="2">
-        <v>45927.746261574073</v>
-      </c>
-      <c r="D35" s="2">
-        <v>45928.332673611112</v>
-      </c>
-      <c r="E35" s="6">
-        <v>14.073888888931833</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="2">
-        <v>45927.758240740739</v>
-      </c>
-      <c r="D36" s="2">
-        <v>45928.332673611112</v>
-      </c>
-      <c r="E36" s="6">
-        <v>13.786388888955116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="2">
-        <v>45927.776076388887</v>
-      </c>
-      <c r="D37" s="2">
-        <v>45928.332673611112</v>
-      </c>
-      <c r="E37" s="6">
-        <v>13.358333333395422</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="2">
-        <v>45927.828460648147</v>
-      </c>
-      <c r="D38" s="2">
-        <v>45928.332673611112</v>
-      </c>
-      <c r="E38" s="6">
-        <v>12.101111111172941</v>
+        <v>14.899166666669771</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>电站名称</t>
   </si>
@@ -28,9 +28,6 @@
     <t>长沙特来电飞狐四方坪西区充电站</t>
   </si>
   <si>
-    <t>502号直流</t>
-  </si>
-  <si>
     <t>长沙特来电飞狐四方坪南区充电站</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>长沙市开福区高岭香江国际城充电站建设项目</t>
   </si>
   <si>
-    <t>204号直流</t>
-  </si>
-  <si>
     <t>截止一直未充电时间</t>
   </si>
   <si>
@@ -64,70 +58,49 @@
     <t>101号直流</t>
   </si>
   <si>
-    <t>603号直流</t>
-  </si>
-  <si>
     <t>602号直流</t>
   </si>
   <si>
     <t>008B号直流</t>
   </si>
   <si>
-    <t>102号直流</t>
-  </si>
-  <si>
     <t>903号直流</t>
   </si>
   <si>
-    <t>901号直流</t>
-  </si>
-  <si>
-    <t>003B号直流</t>
-  </si>
-  <si>
-    <t>803号直流</t>
-  </si>
-  <si>
     <t>701号直流</t>
   </si>
   <si>
-    <t>B02号直流</t>
-  </si>
-  <si>
-    <t>705号直流</t>
-  </si>
-  <si>
-    <t>301号直流</t>
-  </si>
-  <si>
-    <t>A01号直流</t>
-  </si>
-  <si>
-    <t>001B号直流</t>
-  </si>
-  <si>
-    <t>604号直流</t>
-  </si>
-  <si>
     <t>702号直流</t>
   </si>
   <si>
-    <t>505号直流</t>
-  </si>
-  <si>
-    <t>404号直流</t>
-  </si>
-  <si>
-    <t>210号直流</t>
-  </si>
-  <si>
-    <t>107号直流</t>
-  </si>
-  <si>
-    <t>111号直流</t>
-  </si>
-  <si>
     <t>B03号直流</t>
+  </si>
+  <si>
+    <t>B05号直流</t>
+  </si>
+  <si>
+    <t>203号直流</t>
+  </si>
+  <si>
+    <t>103号直流</t>
+  </si>
+  <si>
+    <t>801号直流</t>
+  </si>
+  <si>
+    <t>002B号直流</t>
+  </si>
+  <si>
+    <t>503号直流</t>
+  </si>
+  <si>
+    <t>B01号直流</t>
+  </si>
+  <si>
+    <t>110号直流</t>
+  </si>
+  <si>
+    <t>006B号直流</t>
   </si>
 </sst>
 </file>
@@ -498,10 +471,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -520,47 +493,47 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>45915.503680555557</v>
       </c>
       <c r="D2" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E2" s="6">
-        <v>333.20166666666046</v>
+        <v>357.82916666666279</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>45926.043692129628</v>
       </c>
       <c r="D3" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E3" s="6">
-        <v>80.241388888971414</v>
+        <v>104.86888888897374</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -568,84 +541,84 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>45926.099652777775</v>
+        <v>45926.242071759261</v>
       </c>
       <c r="D4" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E4" s="6">
-        <v>78.898333333432674</v>
+        <v>100.10777777776821</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>45926.242071759261</v>
+        <v>45926.525636574072</v>
       </c>
       <c r="D5" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E5" s="6">
-        <v>75.480277777765878</v>
+        <v>93.302222222322598</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>45926.525636574072</v>
+        <v>45927.457337962966</v>
       </c>
       <c r="D6" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E6" s="6">
-        <v>68.67472222232027</v>
+        <v>70.941388888866641</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>45927.302870370368</v>
+        <v>45928.532187500001</v>
       </c>
       <c r="D7" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E7" s="6">
-        <v>50.02111111121485</v>
+        <v>45.145000000018626</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>45927.457337962966</v>
+        <v>45928.598923611113</v>
       </c>
       <c r="D8" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E8" s="6">
-        <v>46.313888888864312</v>
+        <v>43.543333333334886</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -653,16 +626,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>45927.65315972222</v>
+        <v>45928.766284722224</v>
       </c>
       <c r="D9" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E9" s="6">
-        <v>41.61416666675359</v>
+        <v>39.526666666672099</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -670,50 +643,50 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>45928.017442129632</v>
+        <v>45929.019733796296</v>
       </c>
       <c r="D10" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E10" s="6">
-        <v>32.871388888859656</v>
+        <v>33.443888888927177</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>45928.110659722224</v>
+        <v>45929.021990740737</v>
       </c>
       <c r="D11" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E11" s="6">
-        <v>30.634166666655801</v>
+        <v>33.389722222345881</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
-        <v>45928.127974537034</v>
+        <v>45929.033831018518</v>
       </c>
       <c r="D12" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E12" s="6">
-        <v>30.218611111224163</v>
+        <v>33.105555555608589</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -721,50 +694,50 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>45928.226944444446</v>
+        <v>45929.036909722221</v>
       </c>
       <c r="D13" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E13" s="6">
-        <v>27.843333333323244</v>
+        <v>33.031666666734964</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2">
-        <v>45928.532187500001</v>
+        <v>45929.038738425923</v>
       </c>
       <c r="D14" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E14" s="6">
-        <v>20.517500000016298</v>
+        <v>32.987777777889278</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
-        <v>45928.540798611109</v>
+        <v>45929.158055555556</v>
       </c>
       <c r="D15" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E15" s="6">
-        <v>20.310833333409391</v>
+        <v>30.124166666704696</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -772,16 +745,16 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2">
-        <v>45928.549571759257</v>
+        <v>45929.525648148148</v>
       </c>
       <c r="D16" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E16" s="6">
-        <v>20.100277777877636</v>
+        <v>21.301944444479886</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -789,16 +762,16 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>45928.553310185183</v>
+        <v>45929.531018518515</v>
       </c>
       <c r="D17" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E17" s="6">
-        <v>20.010555555636529</v>
+        <v>21.173055555671453</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -806,50 +779,50 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>45928.554293981484</v>
+        <v>45929.535868055558</v>
       </c>
       <c r="D18" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E18" s="6">
-        <v>19.98694444441935</v>
+        <v>21.056666666641831</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>45928.554675925923</v>
+        <v>45929.563611111109</v>
       </c>
       <c r="D19" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E19" s="6">
-        <v>19.977777777879965</v>
+        <v>20.390833333425689</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>45928.556516203702</v>
+        <v>45929.56958333333</v>
       </c>
       <c r="D20" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E20" s="6">
-        <v>19.933611111191567</v>
+        <v>20.247500000114087</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -857,16 +830,16 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2">
-        <v>45928.562118055554</v>
+        <v>45929.611122685186</v>
       </c>
       <c r="D21" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E21" s="6">
-        <v>19.799166666751262</v>
+        <v>19.250555555569008</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -874,135 +847,16 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>45928.572928240741</v>
+        <v>45929.709687499999</v>
       </c>
       <c r="D22" s="2">
-        <v>45929.387083333335</v>
+        <v>45930.413229166668</v>
       </c>
       <c r="E22" s="6">
-        <v>19.539722222252749</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2">
-        <v>45928.576990740738</v>
-      </c>
-      <c r="D23" s="2">
-        <v>45929.387083333335</v>
-      </c>
-      <c r="E23" s="6">
-        <v>19.442222222336568</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2">
-        <v>45928.598923611113</v>
-      </c>
-      <c r="D24" s="2">
-        <v>45929.387083333335</v>
-      </c>
-      <c r="E24" s="6">
-        <v>18.915833333332557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="2">
-        <v>45928.633726851855</v>
-      </c>
-      <c r="D25" s="2">
-        <v>45929.387083333335</v>
-      </c>
-      <c r="E25" s="6">
-        <v>18.080555555527098</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="2">
-        <v>45928.635104166664</v>
-      </c>
-      <c r="D26" s="2">
-        <v>45929.387083333335</v>
-      </c>
-      <c r="E26" s="6">
-        <v>18.047500000102445</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="2">
-        <v>45928.713287037041</v>
-      </c>
-      <c r="D27" s="2">
-        <v>45929.387083333335</v>
-      </c>
-      <c r="E27" s="6">
-        <v>16.17111111106351</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="2">
-        <v>45928.737696759257</v>
-      </c>
-      <c r="D28" s="2">
-        <v>45929.387083333335</v>
-      </c>
-      <c r="E28" s="6">
-        <v>15.585277777863666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="2">
-        <v>45928.766284722224</v>
-      </c>
-      <c r="D29" s="2">
-        <v>45929.387083333335</v>
-      </c>
-      <c r="E29" s="6">
-        <v>14.899166666669771</v>
+        <v>16.885000000067521</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>电站名称</t>
   </si>
@@ -58,49 +58,76 @@
     <t>101号直流</t>
   </si>
   <si>
-    <t>602号直流</t>
-  </si>
-  <si>
-    <t>008B号直流</t>
-  </si>
-  <si>
-    <t>903号直流</t>
-  </si>
-  <si>
     <t>701号直流</t>
   </si>
   <si>
-    <t>702号直流</t>
-  </si>
-  <si>
     <t>B03号直流</t>
   </si>
   <si>
-    <t>B05号直流</t>
-  </si>
-  <si>
-    <t>203号直流</t>
-  </si>
-  <si>
     <t>103号直流</t>
   </si>
   <si>
     <t>801号直流</t>
   </si>
   <si>
-    <t>002B号直流</t>
-  </si>
-  <si>
-    <t>503号直流</t>
-  </si>
-  <si>
-    <t>B01号直流</t>
-  </si>
-  <si>
-    <t>110号直流</t>
-  </si>
-  <si>
-    <t>006B号直流</t>
+    <t>603号直流</t>
+  </si>
+  <si>
+    <t>403号直流</t>
+  </si>
+  <si>
+    <t>502号直流</t>
+  </si>
+  <si>
+    <t>001A号直流</t>
+  </si>
+  <si>
+    <t>208号直流</t>
+  </si>
+  <si>
+    <t>112号直流</t>
+  </si>
+  <si>
+    <t>210号直流</t>
+  </si>
+  <si>
+    <t>006A号直流</t>
+  </si>
+  <si>
+    <t>904号直流</t>
+  </si>
+  <si>
+    <t>505号直流</t>
+  </si>
+  <si>
+    <t>109号直流</t>
+  </si>
+  <si>
+    <t>401号直流</t>
+  </si>
+  <si>
+    <t>111号直流</t>
+  </si>
+  <si>
+    <t>804号直流</t>
+  </si>
+  <si>
+    <t>405号直流</t>
+  </si>
+  <si>
+    <t>504号直流</t>
+  </si>
+  <si>
+    <t>906号直流</t>
+  </si>
+  <si>
+    <t>902号直流</t>
+  </si>
+  <si>
+    <t>201号直流</t>
+  </si>
+  <si>
+    <t>A05号直流</t>
   </si>
 </sst>
 </file>
@@ -471,10 +498,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -504,36 +531,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>45915.503680555557</v>
+        <v>45927.457337962966</v>
       </c>
       <c r="D2" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E2" s="6">
-        <v>357.82916666666279</v>
+        <v>95.135277777677402</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>45926.043692129628</v>
+        <v>45929.036909722221</v>
       </c>
       <c r="D3" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E3" s="6">
-        <v>104.86888888897374</v>
+        <v>57.225555555545725</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -541,33 +568,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>45926.242071759261</v>
+        <v>45930.076643518521</v>
       </c>
       <c r="D4" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E4" s="6">
-        <v>100.10777777776821</v>
+        <v>32.271944444335531</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>45926.525636574072</v>
+        <v>45930.231006944443</v>
       </c>
       <c r="D5" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E5" s="6">
-        <v>93.302222222322598</v>
+        <v>28.567222222220153</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -575,152 +602,152 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>45927.457337962966</v>
+        <v>45930.238043981481</v>
       </c>
       <c r="D6" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E6" s="6">
-        <v>70.941388888866641</v>
+        <v>28.398333333316259</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>45928.532187500001</v>
+        <v>45930.244895833333</v>
       </c>
       <c r="D7" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E7" s="6">
-        <v>45.145000000018626</v>
+        <v>28.233888888848014</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>45928.598923611113</v>
+        <v>45930.29310185185</v>
       </c>
       <c r="D8" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E8" s="6">
-        <v>43.543333333334886</v>
+        <v>27.076944444444962</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>45928.766284722224</v>
+        <v>45930.517060185186</v>
       </c>
       <c r="D9" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E9" s="6">
-        <v>39.526666666672099</v>
+        <v>21.701944444386754</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>45929.019733796296</v>
+        <v>45930.534039351849</v>
       </c>
       <c r="D10" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E10" s="6">
-        <v>33.443888888927177</v>
+        <v>21.294444444472902</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>45929.021990740737</v>
+        <v>45930.545231481483</v>
       </c>
       <c r="D11" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E11" s="6">
-        <v>33.389722222345881</v>
+        <v>21.02583333326038</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>45929.033831018518</v>
+        <v>45930.554375</v>
       </c>
       <c r="D12" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E12" s="6">
-        <v>33.105555555608589</v>
+        <v>20.806388888857327</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
-        <v>45929.036909722221</v>
+        <v>45930.560763888891</v>
       </c>
       <c r="D13" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E13" s="6">
-        <v>33.031666666734964</v>
+        <v>20.653055555478204</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>45929.038738425923</v>
+        <v>45930.561828703707</v>
       </c>
       <c r="D14" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E14" s="6">
-        <v>32.987777777889278</v>
+        <v>20.627499999885913</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -728,16 +755,16 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>45929.158055555556</v>
+        <v>45930.578321759262</v>
       </c>
       <c r="D15" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E15" s="6">
-        <v>30.124166666704696</v>
+        <v>20.231666666571982</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -745,118 +772,237 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>45929.525648148148</v>
+        <v>45930.598854166667</v>
       </c>
       <c r="D16" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E16" s="6">
-        <v>21.301944444479886</v>
+        <v>19.738888888852671</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
-        <v>45929.531018518515</v>
+        <v>45930.599120370367</v>
       </c>
       <c r="D17" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E17" s="6">
-        <v>21.173055555671453</v>
+        <v>19.73250000004191</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>45929.535868055558</v>
+        <v>45930.61010416667</v>
       </c>
       <c r="D18" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E18" s="6">
-        <v>21.056666666641831</v>
+        <v>19.468888888775837</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
-        <v>45929.563611111109</v>
+        <v>45930.618518518517</v>
       </c>
       <c r="D19" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E19" s="6">
-        <v>20.390833333425689</v>
+        <v>19.26694444444729</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>45929.56958333333</v>
+        <v>45930.644131944442</v>
       </c>
       <c r="D20" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E20" s="6">
-        <v>20.247500000114087</v>
+        <v>18.652222222241107</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2">
-        <v>45929.611122685186</v>
+        <v>45930.682557870372</v>
       </c>
       <c r="D21" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E21" s="6">
-        <v>19.250555555569008</v>
+        <v>17.729999999923166</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
-        <v>45929.709687499999</v>
+        <v>45930.690810185188</v>
       </c>
       <c r="D22" s="2">
-        <v>45930.413229166668</v>
+        <v>45931.421307870369</v>
       </c>
       <c r="E22" s="6">
-        <v>16.885000000067521</v>
+        <v>17.531944444344845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45930.705358796295</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45931.421307870369</v>
+      </c>
+      <c r="E23" s="6">
+        <v>17.182777777779847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45930.729097222225</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45931.421307870369</v>
+      </c>
+      <c r="E24" s="6">
+        <v>16.613055555440951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45930.73982638889</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45931.421307870369</v>
+      </c>
+      <c r="E25" s="6">
+        <v>16.355555555492174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45930.829074074078</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45931.421307870369</v>
+      </c>
+      <c r="E26" s="6">
+        <v>14.213611110986676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45930.849641203706</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45931.421307870369</v>
+      </c>
+      <c r="E27" s="6">
+        <v>13.719999999913853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45930.86791666667</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45931.421307870369</v>
+      </c>
+      <c r="E28" s="6">
+        <v>13.281388888775837</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45930.872395833336</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45931.421307870369</v>
+      </c>
+      <c r="E29" s="6">
+        <v>13.173888888792135</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>电站名称</t>
   </si>
@@ -37,12 +37,6 @@
     <t>306号直流</t>
   </si>
   <si>
-    <t>402号直流</t>
-  </si>
-  <si>
-    <t>905号直流</t>
-  </si>
-  <si>
     <t>长沙市开福区高岭香江国际城充电站建设项目</t>
   </si>
   <si>
@@ -61,18 +55,9 @@
     <t>701号直流</t>
   </si>
   <si>
-    <t>B03号直流</t>
-  </si>
-  <si>
     <t>103号直流</t>
   </si>
   <si>
-    <t>801号直流</t>
-  </si>
-  <si>
-    <t>603号直流</t>
-  </si>
-  <si>
     <t>403号直流</t>
   </si>
   <si>
@@ -82,52 +67,88 @@
     <t>001A号直流</t>
   </si>
   <si>
-    <t>208号直流</t>
-  </si>
-  <si>
     <t>112号直流</t>
   </si>
   <si>
     <t>210号直流</t>
   </si>
   <si>
-    <t>006A号直流</t>
-  </si>
-  <si>
     <t>904号直流</t>
   </si>
   <si>
     <t>505号直流</t>
   </si>
   <si>
-    <t>109号直流</t>
-  </si>
-  <si>
     <t>401号直流</t>
   </si>
   <si>
     <t>111号直流</t>
   </si>
   <si>
-    <t>804号直流</t>
-  </si>
-  <si>
-    <t>405号直流</t>
-  </si>
-  <si>
-    <t>504号直流</t>
-  </si>
-  <si>
-    <t>906号直流</t>
-  </si>
-  <si>
-    <t>902号直流</t>
-  </si>
-  <si>
     <t>201号直流</t>
   </si>
   <si>
-    <t>A05号直流</t>
+    <t>105号直流</t>
+  </si>
+  <si>
+    <t>602号直流</t>
+  </si>
+  <si>
+    <t>604号直流</t>
+  </si>
+  <si>
+    <t>705号直流</t>
+  </si>
+  <si>
+    <t>206号直流</t>
+  </si>
+  <si>
+    <t>503号直流</t>
+  </si>
+  <si>
+    <t>107号直流</t>
+  </si>
+  <si>
+    <t>005A号直流</t>
+  </si>
+  <si>
+    <t>108号直流</t>
+  </si>
+  <si>
+    <t>006B号直流</t>
+  </si>
+  <si>
+    <t>002A号直流</t>
+  </si>
+  <si>
+    <t>203号直流</t>
+  </si>
+  <si>
+    <t>702号直流</t>
+  </si>
+  <si>
+    <t>A01号直流</t>
+  </si>
+  <si>
+    <t>B02号直流</t>
+  </si>
+  <si>
+    <t>304号直流</t>
+  </si>
+  <si>
+    <t>301号直流</t>
+  </si>
+  <si>
+    <t>102号直流</t>
+  </si>
+  <si>
+    <t>007A号直流</t>
+  </si>
+  <si>
+    <t>805号直流</t>
+  </si>
+  <si>
+    <t>106号直流</t>
   </si>
 </sst>
 </file>
@@ -498,10 +519,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -520,13 +541,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -534,16 +555,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>45927.457337962966</v>
       </c>
       <c r="D2" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E2" s="6">
-        <v>95.135277777677402</v>
+        <v>116.51555555546656</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -551,50 +572,50 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>45929.036909722221</v>
+        <v>45930.238043981481</v>
       </c>
       <c r="D3" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E3" s="6">
-        <v>57.225555555545725</v>
+        <v>49.77861111110542</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>45930.076643518521</v>
+        <v>45930.244895833333</v>
       </c>
       <c r="D4" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E4" s="6">
-        <v>32.271944444335531</v>
+        <v>49.614166666637175</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>45930.231006944443</v>
+        <v>45930.517060185186</v>
       </c>
       <c r="D5" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E5" s="6">
-        <v>28.567222222220153</v>
+        <v>43.082222222175915</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -602,101 +623,101 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>45930.238043981481</v>
+        <v>45930.554375</v>
       </c>
       <c r="D6" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E6" s="6">
-        <v>28.398333333316259</v>
+        <v>42.186666666646488</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>45930.244895833333</v>
+        <v>45930.561828703707</v>
       </c>
       <c r="D7" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E7" s="6">
-        <v>28.233888888848014</v>
+        <v>42.007777777675074</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>45930.29310185185</v>
+        <v>45930.618518518517</v>
       </c>
       <c r="D8" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E8" s="6">
-        <v>27.076944444444962</v>
+        <v>40.647222222236451</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>45930.517060185186</v>
+        <v>45930.644131944442</v>
       </c>
       <c r="D9" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E9" s="6">
-        <v>21.701944444386754</v>
+        <v>40.032500000030268</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>45930.534039351849</v>
+        <v>45930.690810185188</v>
       </c>
       <c r="D10" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E10" s="6">
-        <v>21.294444444472902</v>
+        <v>38.912222222134005</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
-        <v>45930.545231481483</v>
+        <v>45931.039722222224</v>
       </c>
       <c r="D11" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E11" s="6">
-        <v>21.02583333326038</v>
+        <v>30.538333333272021</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -704,67 +725,67 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
-        <v>45930.554375</v>
+        <v>45931.226261574076</v>
       </c>
       <c r="D12" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E12" s="6">
-        <v>20.806388888857327</v>
+        <v>26.061388888803776</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>45930.560763888891</v>
+        <v>45931.228819444441</v>
       </c>
       <c r="D13" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E13" s="6">
-        <v>20.653055555478204</v>
+        <v>26.000000000058208</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>45930.561828703707</v>
+        <v>45931.231759259259</v>
       </c>
       <c r="D14" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E14" s="6">
-        <v>20.627499999885913</v>
+        <v>25.929444444424007</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>45930.578321759262</v>
+        <v>45931.240578703706</v>
       </c>
       <c r="D15" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E15" s="6">
-        <v>20.231666666571982</v>
+        <v>25.717777777696028</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -772,169 +793,169 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
-        <v>45930.598854166667</v>
+        <v>45931.260625000003</v>
       </c>
       <c r="D16" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E16" s="6">
-        <v>19.738888888852671</v>
+        <v>25.236666666576639</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
-        <v>45930.599120370367</v>
+        <v>45931.411145833335</v>
       </c>
       <c r="D17" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E17" s="6">
-        <v>19.73250000004191</v>
+        <v>21.62416666658828</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
-        <v>45930.61010416667</v>
+        <v>45931.517777777779</v>
       </c>
       <c r="D18" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E18" s="6">
-        <v>19.468888888775837</v>
+        <v>19.064999999944121</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
-        <v>45930.618518518517</v>
+        <v>45931.519201388888</v>
       </c>
       <c r="D19" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E19" s="6">
-        <v>19.26694444444729</v>
+        <v>19.030833333323244</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
-        <v>45930.644131944442</v>
+        <v>45931.532442129632</v>
       </c>
       <c r="D20" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E20" s="6">
-        <v>18.652222222241107</v>
+        <v>18.713055555475876</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
-        <v>45930.682557870372</v>
+        <v>45931.551527777781</v>
       </c>
       <c r="D21" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E21" s="6">
-        <v>17.729999999923166</v>
+        <v>18.254999999888241</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2">
-        <v>45930.690810185188</v>
+        <v>45931.556157407409</v>
       </c>
       <c r="D22" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E22" s="6">
-        <v>17.531944444344845</v>
+        <v>18.143888888822403</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>45930.705358796295</v>
+        <v>45931.575543981482</v>
       </c>
       <c r="D23" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E23" s="6">
-        <v>17.182777777779847</v>
+        <v>17.678611111070495</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>45930.729097222225</v>
+        <v>45931.584861111114</v>
       </c>
       <c r="D24" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E24" s="6">
-        <v>16.613055555440951</v>
+        <v>17.454999999899883</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2">
-        <v>45930.73982638889</v>
+        <v>45931.585393518515</v>
       </c>
       <c r="D25" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E25" s="6">
-        <v>16.355555555492174</v>
+        <v>17.44222222227836</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -942,16 +963,16 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2">
-        <v>45930.829074074078</v>
+        <v>45931.587048611109</v>
       </c>
       <c r="D26" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E26" s="6">
-        <v>14.213611110986676</v>
+        <v>17.402500000025611</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -959,16 +980,16 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2">
-        <v>45930.849641203706</v>
+        <v>45931.592060185183</v>
       </c>
       <c r="D27" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E27" s="6">
-        <v>13.719999999913853</v>
+        <v>17.282222222245764</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -979,30 +1000,183 @@
         <v>36</v>
       </c>
       <c r="C28" s="2">
-        <v>45930.86791666667</v>
+        <v>45931.606249999997</v>
       </c>
       <c r="D28" s="2">
-        <v>45931.421307870369</v>
+        <v>45932.312152777777</v>
       </c>
       <c r="E28" s="6">
-        <v>13.281388888775837</v>
+        <v>16.941666666709352</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45931.606979166667</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45932.312152777777</v>
+      </c>
+      <c r="E29" s="6">
+        <v>16.924166666634846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45931.620266203703</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45932.312152777777</v>
+      </c>
+      <c r="E30" s="6">
+        <v>16.605277777765878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45931.621701388889</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45932.312152777777</v>
+      </c>
+      <c r="E31" s="6">
+        <v>16.570833333302289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="2">
-        <v>45930.872395833336</v>
-      </c>
-      <c r="D29" s="2">
-        <v>45931.421307870369</v>
-      </c>
-      <c r="E29" s="6">
-        <v>13.173888888792135</v>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45931.640659722223</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45932.312152777777</v>
+      </c>
+      <c r="E32" s="6">
+        <v>16.115833333285991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45931.647233796299</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45932.312152777777</v>
+      </c>
+      <c r="E33" s="6">
+        <v>15.958055555471219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45931.647812499999</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45932.312152777777</v>
+      </c>
+      <c r="E34" s="6">
+        <v>15.944166666653473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45931.666666666664</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45932.312152777777</v>
+      </c>
+      <c r="E35" s="6">
+        <v>15.491666666697711</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45931.766435185185</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45932.312152777777</v>
+      </c>
+      <c r="E36" s="6">
+        <v>13.097222222189885</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45931.789456018516</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45932.312152777777</v>
+      </c>
+      <c r="E37" s="6">
+        <v>12.544722222257406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45931.808495370373</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45932.312152777777</v>
+      </c>
+      <c r="E38" s="6">
+        <v>12.087777777691372</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>电站名称</t>
   </si>
@@ -49,24 +49,15 @@
     <t>最近一次充电结束时间</t>
   </si>
   <si>
-    <t>101号直流</t>
-  </si>
-  <si>
     <t>701号直流</t>
   </si>
   <si>
     <t>103号直流</t>
   </si>
   <si>
-    <t>403号直流</t>
-  </si>
-  <si>
     <t>502号直流</t>
   </si>
   <si>
-    <t>001A号直流</t>
-  </si>
-  <si>
     <t>112号直流</t>
   </si>
   <si>
@@ -97,58 +88,55 @@
     <t>604号直流</t>
   </si>
   <si>
-    <t>705号直流</t>
-  </si>
-  <si>
-    <t>206号直流</t>
-  </si>
-  <si>
-    <t>503号直流</t>
-  </si>
-  <si>
-    <t>107号直流</t>
-  </si>
-  <si>
-    <t>005A号直流</t>
-  </si>
-  <si>
-    <t>108号直流</t>
-  </si>
-  <si>
-    <t>006B号直流</t>
-  </si>
-  <si>
-    <t>002A号直流</t>
-  </si>
-  <si>
     <t>203号直流</t>
   </si>
   <si>
-    <t>702号直流</t>
-  </si>
-  <si>
-    <t>A01号直流</t>
-  </si>
-  <si>
-    <t>B02号直流</t>
-  </si>
-  <si>
     <t>304号直流</t>
   </si>
   <si>
-    <t>301号直流</t>
-  </si>
-  <si>
     <t>102号直流</t>
   </si>
   <si>
-    <t>007A号直流</t>
-  </si>
-  <si>
-    <t>805号直流</t>
-  </si>
-  <si>
-    <t>106号直流</t>
+    <t>003B号直流</t>
+  </si>
+  <si>
+    <t>801号直流</t>
+  </si>
+  <si>
+    <t>603号直流</t>
+  </si>
+  <si>
+    <t>B03号直流</t>
+  </si>
+  <si>
+    <t>905号直流</t>
+  </si>
+  <si>
+    <t>402号直流</t>
+  </si>
+  <si>
+    <t>404号直流</t>
+  </si>
+  <si>
+    <t>903号直流</t>
+  </si>
+  <si>
+    <t>006A号直流</t>
+  </si>
+  <si>
+    <t>804号直流</t>
+  </si>
+  <si>
+    <t>208号直流</t>
+  </si>
+  <si>
+    <t>901号直流</t>
+  </si>
+  <si>
+    <t>A03号直流</t>
+  </si>
+  <si>
+    <t>204号直流</t>
   </si>
 </sst>
 </file>
@@ -519,10 +507,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,16 +543,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>45927.457337962966</v>
       </c>
       <c r="D2" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E2" s="6">
-        <v>116.51555555546656</v>
+        <v>141.22055555542465</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -572,33 +560,33 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>45930.238043981481</v>
       </c>
       <c r="D3" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E3" s="6">
-        <v>49.77861111110542</v>
+        <v>74.48361111106351</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>45930.244895833333</v>
+        <v>45930.517060185186</v>
       </c>
       <c r="D4" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E4" s="6">
-        <v>49.614166666637175</v>
+        <v>67.787222222134005</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -606,16 +594,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>45930.517060185186</v>
+        <v>45930.618518518517</v>
       </c>
       <c r="D5" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E5" s="6">
-        <v>43.082222222175915</v>
+        <v>65.352222222194541</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -623,101 +611,101 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
-        <v>45930.554375</v>
+        <v>45931.226261574076</v>
       </c>
       <c r="D6" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E6" s="6">
-        <v>42.186666666646488</v>
+        <v>50.766388888761867</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
-        <v>45930.561828703707</v>
+        <v>45931.575543981482</v>
       </c>
       <c r="D7" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E7" s="6">
-        <v>42.007777777675074</v>
+        <v>42.383611111028586</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>45930.618518518517</v>
+        <v>45931.592060185183</v>
       </c>
       <c r="D8" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E8" s="6">
-        <v>40.647222222236451</v>
+        <v>41.987222222203854</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45930.644131944442</v>
+        <v>45931.647233796299</v>
       </c>
       <c r="D9" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E9" s="6">
-        <v>40.032500000030268</v>
+        <v>40.66305555542931</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
-        <v>45930.690810185188</v>
+        <v>45931.647812499999</v>
       </c>
       <c r="D10" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E10" s="6">
-        <v>38.912222222134005</v>
+        <v>40.649166666611563</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>45931.039722222224</v>
+        <v>45932.050335648149</v>
       </c>
       <c r="D11" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E11" s="6">
-        <v>30.538333333272021</v>
+        <v>30.988611111009959</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -725,33 +713,33 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2">
-        <v>45931.226261574076</v>
+        <v>45932.072800925926</v>
       </c>
       <c r="D12" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E12" s="6">
-        <v>26.061388888803776</v>
+        <v>30.449444444384426</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>45931.228819444441</v>
+        <v>45932.075300925928</v>
       </c>
       <c r="D13" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E13" s="6">
-        <v>26.000000000058208</v>
+        <v>30.389444444328547</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -759,16 +747,16 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>45931.231759259259</v>
+        <v>45932.081099537034</v>
       </c>
       <c r="D14" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E14" s="6">
-        <v>25.929444444424007</v>
+        <v>30.250277777784504</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -776,16 +764,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
-        <v>45931.240578703706</v>
+        <v>45932.114317129628</v>
       </c>
       <c r="D15" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E15" s="6">
-        <v>25.717777777696028</v>
+        <v>29.45305555552477</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -793,33 +781,33 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>45931.260625000003</v>
+        <v>45932.143969907411</v>
       </c>
       <c r="D16" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E16" s="6">
-        <v>25.236666666576639</v>
+        <v>28.741388888738584</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>45931.411145833335</v>
+        <v>45932.25236111111</v>
       </c>
       <c r="D17" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E17" s="6">
-        <v>21.62416666658828</v>
+        <v>26.139999999955762</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -827,33 +815,33 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>45931.517777777779</v>
+        <v>45932.255543981482</v>
       </c>
       <c r="D18" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E18" s="6">
-        <v>19.064999999944121</v>
+        <v>26.063611111021601</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>45931.519201388888</v>
+        <v>45932.258009259262</v>
       </c>
       <c r="D19" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E19" s="6">
-        <v>19.030833333323244</v>
+        <v>26.004444444319233</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -861,152 +849,152 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>45931.532442129632</v>
+        <v>45932.463321759256</v>
       </c>
       <c r="D20" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E20" s="6">
-        <v>18.713055555475876</v>
+        <v>21.076944444444962</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2">
-        <v>45931.551527777781</v>
+        <v>45932.531018518515</v>
       </c>
       <c r="D21" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E21" s="6">
-        <v>18.254999999888241</v>
+        <v>19.452222222229466</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2">
-        <v>45931.556157407409</v>
+        <v>45932.532604166663</v>
       </c>
       <c r="D22" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E22" s="6">
-        <v>18.143888888822403</v>
+        <v>19.414166666683741</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2">
-        <v>45931.575543981482</v>
+        <v>45932.53601851852</v>
       </c>
       <c r="D23" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E23" s="6">
-        <v>17.678611111070495</v>
+        <v>19.332222222117707</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2">
-        <v>45931.584861111114</v>
+        <v>45932.538726851853</v>
       </c>
       <c r="D24" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E24" s="6">
-        <v>17.454999999899883</v>
+        <v>19.267222222115379</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="2">
-        <v>45931.585393518515</v>
+        <v>45932.554108796299</v>
       </c>
       <c r="D25" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E25" s="6">
-        <v>17.44222222227836</v>
+        <v>18.89805555541534</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2">
-        <v>45931.587048611109</v>
+        <v>45932.55982638889</v>
       </c>
       <c r="D26" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E26" s="6">
-        <v>17.402500000025611</v>
+        <v>18.76083333324641</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
-        <v>45931.592060185183</v>
+        <v>45932.573414351849</v>
       </c>
       <c r="D27" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E27" s="6">
-        <v>17.282222222245764</v>
+        <v>18.434722222213168</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2">
-        <v>45931.606249999997</v>
+        <v>45932.585451388892</v>
       </c>
       <c r="D28" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E28" s="6">
-        <v>16.941666666709352</v>
+        <v>18.145833333197515</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1014,16 +1002,16 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2">
-        <v>45931.606979166667</v>
+        <v>45932.644085648149</v>
       </c>
       <c r="D29" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E29" s="6">
-        <v>16.924166666634846</v>
+        <v>16.738611111009959</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1031,16 +1019,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2">
-        <v>45931.620266203703</v>
+        <v>45932.663437499999</v>
       </c>
       <c r="D30" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E30" s="6">
-        <v>16.605277777765878</v>
+        <v>16.274166666611563</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -1048,135 +1036,67 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2">
-        <v>45931.621701388889</v>
+        <v>45932.677557870367</v>
       </c>
       <c r="D31" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E31" s="6">
-        <v>16.570833333302289</v>
+        <v>15.935277777782176</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2">
-        <v>45931.640659722223</v>
+        <v>45932.698055555556</v>
       </c>
       <c r="D32" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E32" s="6">
-        <v>16.115833333285991</v>
+        <v>15.443333333241753</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2">
-        <v>45931.647233796299</v>
+        <v>45932.723483796297</v>
       </c>
       <c r="D33" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E33" s="6">
-        <v>15.958055555471219</v>
+        <v>14.833055555471219</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C34" s="2">
-        <v>45931.647812499999</v>
+        <v>45932.736400462964</v>
       </c>
       <c r="D34" s="2">
-        <v>45932.312152777777</v>
+        <v>45933.341527777775</v>
       </c>
       <c r="E34" s="6">
-        <v>15.944166666653473</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="2">
-        <v>45931.666666666664</v>
-      </c>
-      <c r="D35" s="2">
-        <v>45932.312152777777</v>
-      </c>
-      <c r="E35" s="6">
-        <v>15.491666666697711</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="2">
-        <v>45931.766435185185</v>
-      </c>
-      <c r="D36" s="2">
-        <v>45932.312152777777</v>
-      </c>
-      <c r="E36" s="6">
-        <v>13.097222222189885</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="2">
-        <v>45931.789456018516</v>
-      </c>
-      <c r="D37" s="2">
-        <v>45932.312152777777</v>
-      </c>
-      <c r="E37" s="6">
-        <v>12.544722222257406</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="2">
-        <v>45931.808495370373</v>
-      </c>
-      <c r="D38" s="2">
-        <v>45932.312152777777</v>
-      </c>
-      <c r="E38" s="6">
-        <v>12.087777777691372</v>
+        <v>14.523055555473547</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>电站名称</t>
   </si>
@@ -61,15 +61,9 @@
     <t>112号直流</t>
   </si>
   <si>
-    <t>210号直流</t>
-  </si>
-  <si>
     <t>904号直流</t>
   </si>
   <si>
-    <t>505号直流</t>
-  </si>
-  <si>
     <t>401号直流</t>
   </si>
   <si>
@@ -85,30 +79,18 @@
     <t>602号直流</t>
   </si>
   <si>
-    <t>604号直流</t>
-  </si>
-  <si>
     <t>203号直流</t>
   </si>
   <si>
-    <t>304号直流</t>
-  </si>
-  <si>
     <t>102号直流</t>
   </si>
   <si>
-    <t>003B号直流</t>
-  </si>
-  <si>
     <t>801号直流</t>
   </si>
   <si>
     <t>603号直流</t>
   </si>
   <si>
-    <t>B03号直流</t>
-  </si>
-  <si>
     <t>905号直流</t>
   </si>
   <si>
@@ -118,25 +100,58 @@
     <t>404号直流</t>
   </si>
   <si>
-    <t>903号直流</t>
-  </si>
-  <si>
-    <t>006A号直流</t>
-  </si>
-  <si>
-    <t>804号直流</t>
-  </si>
-  <si>
-    <t>208号直流</t>
-  </si>
-  <si>
-    <t>901号直流</t>
-  </si>
-  <si>
-    <t>A03号直流</t>
-  </si>
-  <si>
-    <t>204号直流</t>
+    <t>209号直流</t>
+  </si>
+  <si>
+    <t>805号直流</t>
+  </si>
+  <si>
+    <t>406号直流</t>
+  </si>
+  <si>
+    <t>109号直流</t>
+  </si>
+  <si>
+    <t>002A号直流</t>
+  </si>
+  <si>
+    <t>104号直流</t>
+  </si>
+  <si>
+    <t>A01号直流</t>
+  </si>
+  <si>
+    <t>504号直流</t>
+  </si>
+  <si>
+    <t>107号直流</t>
+  </si>
+  <si>
+    <t>205号直流</t>
+  </si>
+  <si>
+    <t>207号直流</t>
+  </si>
+  <si>
+    <t>002B号直流</t>
+  </si>
+  <si>
+    <t>705号直流</t>
+  </si>
+  <si>
+    <t>011A号直流</t>
+  </si>
+  <si>
+    <t>703号直流</t>
+  </si>
+  <si>
+    <t>601号直流</t>
+  </si>
+  <si>
+    <t>906号直流</t>
+  </si>
+  <si>
+    <t>212号直流</t>
   </si>
 </sst>
 </file>
@@ -507,10 +522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -549,10 +564,10 @@
         <v>45927.457337962966</v>
       </c>
       <c r="D2" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E2" s="6">
-        <v>141.22055555542465</v>
+        <v>165.62194444437046</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -566,10 +581,10 @@
         <v>45930.238043981481</v>
       </c>
       <c r="D3" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E3" s="6">
-        <v>74.48361111106351</v>
+        <v>98.885000000009313</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -583,10 +598,10 @@
         <v>45930.517060185186</v>
       </c>
       <c r="D4" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E4" s="6">
-        <v>67.787222222134005</v>
+        <v>92.188611111079808</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -594,16 +609,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>45930.618518518517</v>
       </c>
       <c r="D5" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E5" s="6">
-        <v>65.352222222194541</v>
+        <v>89.753611111140344</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -611,16 +626,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>45931.226261574076</v>
       </c>
       <c r="D6" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E6" s="6">
-        <v>50.766388888761867</v>
+        <v>75.16777777770767</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -628,33 +643,33 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>45931.575543981482</v>
       </c>
       <c r="D7" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E7" s="6">
-        <v>42.383611111028586</v>
+        <v>66.784999999974389</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>45931.592060185183</v>
+        <v>45931.647812499999</v>
       </c>
       <c r="D8" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E8" s="6">
-        <v>41.987222222203854</v>
+        <v>65.050555555557366</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -662,33 +677,33 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>45931.647233796299</v>
+        <v>45932.072800925926</v>
       </c>
       <c r="D9" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E9" s="6">
-        <v>40.66305555542931</v>
+        <v>54.850833333330229</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>45931.647812499999</v>
+        <v>45932.081099537034</v>
       </c>
       <c r="D10" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E10" s="6">
-        <v>40.649166666611563</v>
+        <v>54.651666666730307</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -696,50 +711,50 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>45932.050335648149</v>
+        <v>45932.25236111111</v>
       </c>
       <c r="D11" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E11" s="6">
-        <v>30.988611111009959</v>
+        <v>50.541388888901565</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>45932.072800925926</v>
+        <v>45932.255543981482</v>
       </c>
       <c r="D12" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E12" s="6">
-        <v>30.449444444384426</v>
+        <v>50.464999999967404</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>45932.075300925928</v>
+        <v>45933.030578703707</v>
       </c>
       <c r="D13" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E13" s="6">
-        <v>30.389444444328547</v>
+        <v>31.864166666578967</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -750,13 +765,13 @@
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>45932.081099537034</v>
+        <v>45933.035462962966</v>
       </c>
       <c r="D14" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E14" s="6">
-        <v>30.250277777784504</v>
+        <v>31.746944444370456</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -764,33 +779,33 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>45932.114317129628</v>
+        <v>45933.039143518516</v>
       </c>
       <c r="D15" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E15" s="6">
-        <v>29.45305555552477</v>
+        <v>31.658611111168284</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>45932.143969907411</v>
+        <v>45933.063738425924</v>
       </c>
       <c r="D16" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E16" s="6">
-        <v>28.741388888738584</v>
+        <v>31.068333333358169</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -798,84 +813,84 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>45932.25236111111</v>
+        <v>45933.065972222219</v>
       </c>
       <c r="D17" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E17" s="6">
-        <v>26.139999999955762</v>
+        <v>31.014722222287674</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>45932.255543981482</v>
+        <v>45933.088784722226</v>
       </c>
       <c r="D18" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E18" s="6">
-        <v>26.063611111021601</v>
+        <v>30.46722222212702</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>45932.258009259262</v>
+        <v>45933.200601851851</v>
       </c>
       <c r="D19" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E19" s="6">
-        <v>26.004444444319233</v>
+        <v>27.783611111110076</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>45932.463321759256</v>
+        <v>45933.222430555557</v>
       </c>
       <c r="D20" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E20" s="6">
-        <v>21.076944444444962</v>
+        <v>27.259722222166602</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
-        <v>45932.531018518515</v>
+        <v>45933.270925925928</v>
       </c>
       <c r="D21" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E21" s="6">
-        <v>19.452222222229466</v>
+        <v>26.095833333267365</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -883,84 +898,84 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2">
-        <v>45932.532604166663</v>
+        <v>45933.305023148147</v>
       </c>
       <c r="D22" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E22" s="6">
-        <v>19.414166666683741</v>
+        <v>25.277500000025611</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
-        <v>45932.53601851852</v>
+        <v>45933.386261574073</v>
       </c>
       <c r="D23" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E23" s="6">
-        <v>19.332222222117707</v>
+        <v>23.327777777798474</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
-        <v>45932.538726851853</v>
+        <v>45933.405219907407</v>
       </c>
       <c r="D24" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E24" s="6">
-        <v>19.267222222115379</v>
+        <v>22.872777777782176</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
-        <v>45932.554108796299</v>
+        <v>45933.481249999997</v>
       </c>
       <c r="D25" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E25" s="6">
-        <v>18.89805555541534</v>
+        <v>21.048055555613246</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
-        <v>45932.55982638889</v>
+        <v>45933.517557870371</v>
       </c>
       <c r="D26" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E26" s="6">
-        <v>18.76083333324641</v>
+        <v>20.176666666637175</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -968,16 +983,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
-        <v>45932.573414351849</v>
+        <v>45933.521967592591</v>
       </c>
       <c r="D27" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E27" s="6">
-        <v>18.434722222213168</v>
+        <v>20.070833333360497</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -985,16 +1000,16 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2">
-        <v>45932.585451388892</v>
+        <v>45933.529745370368</v>
       </c>
       <c r="D28" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E28" s="6">
-        <v>18.145833333197515</v>
+        <v>19.884166666714009</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1002,33 +1017,33 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
-        <v>45932.644085648149</v>
+        <v>45933.537893518522</v>
       </c>
       <c r="D29" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E29" s="6">
-        <v>16.738611111009959</v>
+        <v>19.688611111021601</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
-        <v>45932.663437499999</v>
+        <v>45933.552754629629</v>
       </c>
       <c r="D30" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E30" s="6">
-        <v>16.274166666611563</v>
+        <v>19.331944444449618</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -1036,50 +1051,50 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2">
-        <v>45932.677557870367</v>
+        <v>45933.557268518518</v>
       </c>
       <c r="D31" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E31" s="6">
-        <v>15.935277777782176</v>
+        <v>19.223611111112405</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C32" s="2">
-        <v>45932.698055555556</v>
+        <v>45933.64603009259</v>
       </c>
       <c r="D32" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E32" s="6">
-        <v>15.443333333241753</v>
+        <v>17.093333333381452</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2">
-        <v>45932.723483796297</v>
+        <v>45933.663263888891</v>
       </c>
       <c r="D33" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E33" s="6">
-        <v>14.833055555471219</v>
+        <v>16.679722222150303</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -1087,16 +1102,84 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2">
-        <v>45932.736400462964</v>
+        <v>45933.714675925927</v>
       </c>
       <c r="D34" s="2">
-        <v>45933.341527777775</v>
+        <v>45934.358252314814</v>
       </c>
       <c r="E34" s="6">
-        <v>14.523055555473547</v>
+        <v>15.445833333302289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45933.724224537036</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45934.358252314814</v>
+      </c>
+      <c r="E35" s="6">
+        <v>15.216666666674428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45933.791134259256</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45934.358252314814</v>
+      </c>
+      <c r="E36" s="6">
+        <v>13.61083333339775</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45933.821712962963</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45934.358252314814</v>
+      </c>
+      <c r="E37" s="6">
+        <v>12.87694444443332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45933.847962962966</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45934.358252314814</v>
+      </c>
+      <c r="E38" s="6">
+        <v>12.246944444370456</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>电站名称</t>
   </si>
@@ -76,9 +76,6 @@
     <t>105号直流</t>
   </si>
   <si>
-    <t>602号直流</t>
-  </si>
-  <si>
     <t>203号直流</t>
   </si>
   <si>
@@ -97,61 +94,73 @@
     <t>402号直流</t>
   </si>
   <si>
-    <t>404号直流</t>
-  </si>
-  <si>
-    <t>209号直流</t>
-  </si>
-  <si>
-    <t>805号直流</t>
-  </si>
-  <si>
     <t>406号直流</t>
   </si>
   <si>
-    <t>109号直流</t>
-  </si>
-  <si>
-    <t>002A号直流</t>
-  </si>
-  <si>
-    <t>104号直流</t>
-  </si>
-  <si>
-    <t>A01号直流</t>
-  </si>
-  <si>
     <t>504号直流</t>
   </si>
   <si>
-    <t>107号直流</t>
-  </si>
-  <si>
     <t>205号直流</t>
   </si>
   <si>
-    <t>207号直流</t>
-  </si>
-  <si>
     <t>002B号直流</t>
   </si>
   <si>
-    <t>705号直流</t>
-  </si>
-  <si>
     <t>011A号直流</t>
   </si>
   <si>
-    <t>703号直流</t>
-  </si>
-  <si>
-    <t>601号直流</t>
-  </si>
-  <si>
-    <t>906号直流</t>
-  </si>
-  <si>
     <t>212号直流</t>
+  </si>
+  <si>
+    <t>503号直流</t>
+  </si>
+  <si>
+    <t>003B号直流</t>
+  </si>
+  <si>
+    <t>505号直流</t>
+  </si>
+  <si>
+    <t>106号直流</t>
+  </si>
+  <si>
+    <t>702号直流</t>
+  </si>
+  <si>
+    <t>006B号直流</t>
+  </si>
+  <si>
+    <t>901号直流</t>
+  </si>
+  <si>
+    <t>903号直流</t>
+  </si>
+  <si>
+    <t>001B号直流</t>
+  </si>
+  <si>
+    <t>A05号直流</t>
+  </si>
+  <si>
+    <t>B04号直流</t>
+  </si>
+  <si>
+    <t>206号直流</t>
+  </si>
+  <si>
+    <t>110号直流</t>
+  </si>
+  <si>
+    <t>108号直流</t>
+  </si>
+  <si>
+    <t>804号直流</t>
+  </si>
+  <si>
+    <t>202号直流</t>
+  </si>
+  <si>
+    <t>301号直流</t>
   </si>
 </sst>
 </file>
@@ -522,10 +531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -564,10 +573,10 @@
         <v>45927.457337962966</v>
       </c>
       <c r="D2" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E2" s="6">
-        <v>165.62194444437046</v>
+        <v>188.91722222208045</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -581,10 +590,10 @@
         <v>45930.238043981481</v>
       </c>
       <c r="D3" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E3" s="6">
-        <v>98.885000000009313</v>
+        <v>122.18027777771931</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -598,10 +607,10 @@
         <v>45930.517060185186</v>
       </c>
       <c r="D4" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E4" s="6">
-        <v>92.188611111079808</v>
+        <v>115.48388888878981</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -615,61 +624,61 @@
         <v>45930.618518518517</v>
       </c>
       <c r="D5" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E5" s="6">
-        <v>89.753611111140344</v>
+        <v>113.04888888885034</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>45931.226261574076</v>
+        <v>45931.575543981482</v>
       </c>
       <c r="D6" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E6" s="6">
-        <v>75.16777777770767</v>
+        <v>90.080277777684387</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
-        <v>45931.575543981482</v>
+        <v>45932.081099537034</v>
       </c>
       <c r="D7" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E7" s="6">
-        <v>66.784999999974389</v>
+        <v>77.946944444440305</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
-        <v>45931.647812499999</v>
+        <v>45933.039143518516</v>
       </c>
       <c r="D8" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E8" s="6">
-        <v>65.050555555557366</v>
+        <v>54.953888888878282</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -677,16 +686,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>45932.072800925926</v>
+        <v>45933.088784722226</v>
       </c>
       <c r="D9" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E9" s="6">
-        <v>54.850833333330229</v>
+        <v>53.762499999837019</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -694,33 +703,33 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>45932.081099537034</v>
+        <v>45933.270925925928</v>
       </c>
       <c r="D10" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E10" s="6">
-        <v>54.651666666730307</v>
+        <v>49.391111110977363</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>45932.25236111111</v>
+        <v>45933.305023148147</v>
       </c>
       <c r="D11" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E11" s="6">
-        <v>50.541388888901565</v>
+        <v>48.57277777773561</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -728,33 +737,33 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
-        <v>45932.255543981482</v>
+        <v>45933.517557870371</v>
       </c>
       <c r="D12" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E12" s="6">
-        <v>50.464999999967404</v>
+        <v>43.471944444347173</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>45933.030578703707</v>
+        <v>45934.067881944444</v>
       </c>
       <c r="D13" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E13" s="6">
-        <v>31.864166666578967</v>
+        <v>30.26416666660225</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -762,16 +771,16 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2">
-        <v>45933.035462962966</v>
+        <v>45934.068425925929</v>
       </c>
       <c r="D14" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E14" s="6">
-        <v>31.746944444370456</v>
+        <v>30.251111110963393</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -779,101 +788,101 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
-        <v>45933.039143518516</v>
+        <v>45934.232268518521</v>
       </c>
       <c r="D15" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E15" s="6">
-        <v>31.658611111168284</v>
+        <v>26.318888888752554</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2">
-        <v>45933.063738425924</v>
+        <v>45934.262986111113</v>
       </c>
       <c r="D16" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E16" s="6">
-        <v>31.068333333358169</v>
+        <v>25.581666666548699</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2">
-        <v>45933.065972222219</v>
+        <v>45934.284421296295</v>
       </c>
       <c r="D17" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E17" s="6">
-        <v>31.014722222287674</v>
+        <v>25.067222222161945</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2">
-        <v>45933.088784722226</v>
+        <v>45934.342083333337</v>
       </c>
       <c r="D18" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E18" s="6">
-        <v>30.46722222212702</v>
+        <v>23.683333333174232</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2">
-        <v>45933.200601851851</v>
+        <v>45934.344675925924</v>
       </c>
       <c r="D19" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E19" s="6">
-        <v>27.783611111110076</v>
+        <v>23.621111111075152</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2">
-        <v>45933.222430555557</v>
+        <v>45934.406018518515</v>
       </c>
       <c r="D20" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E20" s="6">
-        <v>27.259722222166602</v>
+        <v>22.148888888885267</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -881,16 +890,16 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2">
-        <v>45933.270925925928</v>
+        <v>45934.527488425927</v>
       </c>
       <c r="D21" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E21" s="6">
-        <v>26.095833333267365</v>
+        <v>19.233611111005303</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -898,135 +907,135 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
-        <v>45933.305023148147</v>
+        <v>45934.532418981478</v>
       </c>
       <c r="D22" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E22" s="6">
-        <v>25.277500000025611</v>
+        <v>19.115277777775191</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2">
-        <v>45933.386261574073</v>
+        <v>45934.542071759257</v>
       </c>
       <c r="D23" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E23" s="6">
-        <v>23.327777777798474</v>
+        <v>18.883611111086793</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2">
-        <v>45933.405219907407</v>
+        <v>45934.554988425924</v>
       </c>
       <c r="D24" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E24" s="6">
-        <v>22.872777777782176</v>
+        <v>18.573611111089122</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>45933.481249999997</v>
+        <v>45934.55914351852</v>
       </c>
       <c r="D25" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E25" s="6">
-        <v>21.048055555613246</v>
+        <v>18.473888888780493</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
-        <v>45933.517557870371</v>
+        <v>45934.572893518518</v>
       </c>
       <c r="D26" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E26" s="6">
-        <v>20.176666666637175</v>
+        <v>18.143888888822403</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2">
-        <v>45933.521967592591</v>
+        <v>45934.578287037039</v>
       </c>
       <c r="D27" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E27" s="6">
-        <v>20.070833333360497</v>
+        <v>18.014444444328547</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2">
-        <v>45933.529745370368</v>
+        <v>45934.597407407404</v>
       </c>
       <c r="D28" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E28" s="6">
-        <v>19.884166666714009</v>
+        <v>17.555555555562023</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>45933.537893518522</v>
+        <v>45934.600995370369</v>
       </c>
       <c r="D29" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E29" s="6">
-        <v>19.688611111021601</v>
+        <v>17.469444444403052</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1034,16 +1043,16 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2">
-        <v>45933.552754629629</v>
+        <v>45934.63821759259</v>
       </c>
       <c r="D30" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E30" s="6">
-        <v>19.331944444449618</v>
+        <v>16.57611111109145</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -1051,101 +1060,101 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="2">
-        <v>45933.557268518518</v>
+        <v>45934.645196759258</v>
       </c>
       <c r="D31" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E31" s="6">
-        <v>19.223611111112405</v>
+        <v>16.408611111051869</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C32" s="2">
-        <v>45933.64603009259</v>
+        <v>45934.654016203705</v>
       </c>
       <c r="D32" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E32" s="6">
-        <v>17.093333333381452</v>
+        <v>16.19694444432389</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2">
-        <v>45933.663263888891</v>
+        <v>45934.672256944446</v>
       </c>
       <c r="D33" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E33" s="6">
-        <v>16.679722222150303</v>
+        <v>15.759166666539386</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2">
-        <v>45933.714675925927</v>
+        <v>45934.675659722219</v>
       </c>
       <c r="D34" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E34" s="6">
-        <v>15.445833333302289</v>
+        <v>15.677499999990687</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C35" s="2">
-        <v>45933.724224537036</v>
+        <v>45934.695162037038</v>
       </c>
       <c r="D35" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E35" s="6">
-        <v>15.216666666674428</v>
+        <v>15.209444444335531</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="2">
-        <v>45933.791134259256</v>
+        <v>45934.707303240742</v>
       </c>
       <c r="D36" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E36" s="6">
-        <v>13.61083333339775</v>
+        <v>14.918055555433966</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -1156,30 +1165,115 @@
         <v>44</v>
       </c>
       <c r="C37" s="2">
-        <v>45933.821712962963</v>
+        <v>45934.734479166669</v>
       </c>
       <c r="D37" s="2">
-        <v>45934.358252314814</v>
+        <v>45935.328888888886</v>
       </c>
       <c r="E37" s="6">
-        <v>12.87694444443332</v>
+        <v>14.265833333192859</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45934.752916666665</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45935.328888888886</v>
+      </c>
+      <c r="E38" s="6">
+        <v>13.823333333304618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>3</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="2">
-        <v>45933.847962962966</v>
-      </c>
-      <c r="D38" s="2">
-        <v>45934.358252314814</v>
-      </c>
-      <c r="E38" s="6">
-        <v>12.246944444370456</v>
+      <c r="C39" s="2">
+        <v>45934.772418981483</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45935.328888888886</v>
+      </c>
+      <c r="E39" s="6">
+        <v>13.355277777649462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45934.774108796293</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45935.328888888886</v>
+      </c>
+      <c r="E40" s="6">
+        <v>13.314722222217824</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45934.798344907409</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45935.328888888886</v>
+      </c>
+      <c r="E41" s="6">
+        <v>12.733055555436295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45934.814062500001</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45935.328888888886</v>
+      </c>
+      <c r="E42" s="6">
+        <v>12.35583333321847</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45934.823310185187</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45935.328888888886</v>
+      </c>
+      <c r="E43" s="6">
+        <v>12.133888888754882</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
   <si>
     <t>电站名称</t>
   </si>
@@ -79,9 +79,6 @@
     <t>203号直流</t>
   </si>
   <si>
-    <t>102号直流</t>
-  </si>
-  <si>
     <t>801号直流</t>
   </si>
   <si>
@@ -97,15 +94,9 @@
     <t>406号直流</t>
   </si>
   <si>
-    <t>504号直流</t>
-  </si>
-  <si>
     <t>205号直流</t>
   </si>
   <si>
-    <t>002B号直流</t>
-  </si>
-  <si>
     <t>011A号直流</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
     <t>006B号直流</t>
   </si>
   <si>
-    <t>901号直流</t>
-  </si>
-  <si>
     <t>903号直流</t>
   </si>
   <si>
@@ -142,25 +130,70 @@
     <t>A05号直流</t>
   </si>
   <si>
-    <t>B04号直流</t>
-  </si>
-  <si>
     <t>206号直流</t>
   </si>
   <si>
     <t>110号直流</t>
   </si>
   <si>
-    <t>108号直流</t>
-  </si>
-  <si>
     <t>804号直流</t>
   </si>
   <si>
-    <t>202号直流</t>
-  </si>
-  <si>
-    <t>301号直流</t>
+    <t>B02号直流</t>
+  </si>
+  <si>
+    <t>101号直流</t>
+  </si>
+  <si>
+    <t>208号直流</t>
+  </si>
+  <si>
+    <t>501号直流</t>
+  </si>
+  <si>
+    <t>705号直流</t>
+  </si>
+  <si>
+    <t>304号直流</t>
+  </si>
+  <si>
+    <t>404号直流</t>
+  </si>
+  <si>
+    <t>403号直流</t>
+  </si>
+  <si>
+    <t>107号直流</t>
+  </si>
+  <si>
+    <t>109号直流</t>
+  </si>
+  <si>
+    <t>604号直流</t>
+  </si>
+  <si>
+    <t>104号直流</t>
+  </si>
+  <si>
+    <t>308号直流</t>
+  </si>
+  <si>
+    <t>906号直流</t>
+  </si>
+  <si>
+    <t>312号直流</t>
+  </si>
+  <si>
+    <t>805号直流</t>
+  </si>
+  <si>
+    <t>405号直流</t>
+  </si>
+  <si>
+    <t>305号直流</t>
+  </si>
+  <si>
+    <t>A03号直流</t>
   </si>
 </sst>
 </file>
@@ -531,10 +564,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -573,10 +606,10 @@
         <v>45927.457337962966</v>
       </c>
       <c r="D2" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E2" s="6">
-        <v>188.91722222208045</v>
+        <v>213.35527777770767</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -590,10 +623,10 @@
         <v>45930.238043981481</v>
       </c>
       <c r="D3" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E3" s="6">
-        <v>122.18027777771931</v>
+        <v>146.61833333334653</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -607,10 +640,10 @@
         <v>45930.517060185186</v>
       </c>
       <c r="D4" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E4" s="6">
-        <v>115.48388888878981</v>
+        <v>139.92194444441702</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -624,10 +657,10 @@
         <v>45930.618518518517</v>
       </c>
       <c r="D5" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E5" s="6">
-        <v>113.04888888885034</v>
+        <v>137.48694444447756</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -641,10 +674,10 @@
         <v>45931.575543981482</v>
       </c>
       <c r="D6" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E6" s="6">
-        <v>90.080277777684387</v>
+        <v>114.5183333333116</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -652,16 +685,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>45932.081099537034</v>
       </c>
       <c r="D7" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E7" s="6">
-        <v>77.946944444440305</v>
+        <v>102.38500000006752</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -669,33 +702,33 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>45933.039143518516</v>
       </c>
       <c r="D8" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E8" s="6">
-        <v>54.953888888878282</v>
+        <v>79.391944444505498</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>45933.088784722226</v>
+        <v>45933.305023148147</v>
       </c>
       <c r="D9" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E9" s="6">
-        <v>53.762499999837019</v>
+        <v>73.010833333362825</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -703,33 +736,33 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
-        <v>45933.270925925928</v>
+        <v>45934.068425925929</v>
       </c>
       <c r="D10" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E10" s="6">
-        <v>49.391111110977363</v>
+        <v>54.689166666590609</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
-        <v>45933.305023148147</v>
+        <v>45934.284421296295</v>
       </c>
       <c r="D11" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E11" s="6">
-        <v>48.57277777773561</v>
+        <v>49.505277777789161</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -737,101 +770,101 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
-        <v>45933.517557870371</v>
+        <v>45934.542071759257</v>
       </c>
       <c r="D12" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E12" s="6">
-        <v>43.471944444347173</v>
+        <v>43.321666666714009</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
-        <v>45934.067881944444</v>
+        <v>45934.554988425924</v>
       </c>
       <c r="D13" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E13" s="6">
-        <v>30.26416666660225</v>
+        <v>43.011666666716337</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2">
-        <v>45934.068425925929</v>
+        <v>45934.55914351852</v>
       </c>
       <c r="D14" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E14" s="6">
-        <v>30.251111110963393</v>
+        <v>42.911944444407709</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
-        <v>45934.232268518521</v>
+        <v>45934.707303240742</v>
       </c>
       <c r="D15" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E15" s="6">
-        <v>26.318888888752554</v>
+        <v>39.356111111061182</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2">
-        <v>45934.262986111113</v>
+        <v>45935.026076388887</v>
       </c>
       <c r="D16" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E16" s="6">
-        <v>25.581666666548699</v>
+        <v>31.705555555585306</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2">
-        <v>45934.284421296295</v>
+        <v>45935.0465625</v>
       </c>
       <c r="D17" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E17" s="6">
-        <v>25.067222222161945</v>
+        <v>31.213888888887595</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -839,16 +872,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>45934.342083333337</v>
+        <v>45935.057013888887</v>
       </c>
       <c r="D18" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E18" s="6">
-        <v>23.683333333174232</v>
+        <v>30.963055555592291</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -856,33 +889,33 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2">
-        <v>45934.344675925924</v>
+        <v>45935.118333333332</v>
       </c>
       <c r="D19" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E19" s="6">
-        <v>23.621111111075152</v>
+        <v>29.491388888913207</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2">
-        <v>45934.406018518515</v>
+        <v>45935.183657407404</v>
       </c>
       <c r="D20" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E20" s="6">
-        <v>22.148888888885267</v>
+        <v>27.923611111182254</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -890,16 +923,16 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2">
-        <v>45934.527488425927</v>
+        <v>45935.199178240742</v>
       </c>
       <c r="D21" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E21" s="6">
-        <v>19.233611111005303</v>
+        <v>27.551111111068167</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -907,33 +940,33 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
-        <v>45934.532418981478</v>
+        <v>45935.232499999998</v>
       </c>
       <c r="D22" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E22" s="6">
-        <v>19.115277777775191</v>
+        <v>26.75138888892252</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>45934.542071759257</v>
+        <v>45935.236712962964</v>
       </c>
       <c r="D23" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E23" s="6">
-        <v>18.883611111086793</v>
+        <v>26.650277777749579</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -941,152 +974,152 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2">
-        <v>45934.554988425924</v>
+        <v>45935.240381944444</v>
       </c>
       <c r="D24" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E24" s="6">
-        <v>18.573611111089122</v>
+        <v>26.562222222215496</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2">
-        <v>45934.55914351852</v>
+        <v>45935.245081018518</v>
       </c>
       <c r="D25" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E25" s="6">
-        <v>18.473888888780493</v>
+        <v>26.449444444442634</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2">
-        <v>45934.572893518518</v>
+        <v>45935.359930555554</v>
       </c>
       <c r="D26" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E26" s="6">
-        <v>18.143888888822403</v>
+        <v>23.693055555573665</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2">
-        <v>45934.578287037039</v>
+        <v>45935.367847222224</v>
       </c>
       <c r="D27" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E27" s="6">
-        <v>18.014444444328547</v>
+        <v>23.503055555513129</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2">
-        <v>45934.597407407404</v>
+        <v>45935.376030092593</v>
       </c>
       <c r="D28" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E28" s="6">
-        <v>17.555555555562023</v>
+        <v>23.306666666641831</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2">
-        <v>45934.600995370369</v>
+        <v>45935.455196759256</v>
       </c>
       <c r="D29" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E29" s="6">
-        <v>17.469444444403052</v>
+        <v>21.406666666734964</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2">
-        <v>45934.63821759259</v>
+        <v>45935.496365740742</v>
       </c>
       <c r="D30" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E30" s="6">
-        <v>16.57611111109145</v>
+        <v>20.418611111061182</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C31" s="2">
-        <v>45934.645196759258</v>
+        <v>45935.510324074072</v>
       </c>
       <c r="D31" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E31" s="6">
-        <v>16.408611111051869</v>
+        <v>20.083611111156642</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2">
-        <v>45934.654016203705</v>
+        <v>45935.517800925925</v>
       </c>
       <c r="D32" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E32" s="6">
-        <v>16.19694444432389</v>
+        <v>19.904166666674428</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -1094,67 +1127,67 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2">
-        <v>45934.672256944446</v>
+        <v>45935.528865740744</v>
       </c>
       <c r="D33" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E33" s="6">
-        <v>15.759166666539386</v>
+        <v>19.638611111033242</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C34" s="2">
-        <v>45934.675659722219</v>
+        <v>45935.53224537037</v>
       </c>
       <c r="D34" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E34" s="6">
-        <v>15.677499999990687</v>
+        <v>19.557499999995343</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C35" s="2">
-        <v>45934.695162037038</v>
+        <v>45935.532754629632</v>
       </c>
       <c r="D35" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E35" s="6">
-        <v>15.209444444335531</v>
+        <v>19.545277777709998</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2">
-        <v>45934.707303240742</v>
+        <v>45935.540162037039</v>
       </c>
       <c r="D36" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E36" s="6">
-        <v>14.918055555433966</v>
+        <v>19.367499999934807</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -1162,16 +1195,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C37" s="2">
-        <v>45934.734479166669</v>
+        <v>45935.547060185185</v>
       </c>
       <c r="D37" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E37" s="6">
-        <v>14.265833333192859</v>
+        <v>19.201944444444962</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -1179,101 +1212,373 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2">
-        <v>45934.752916666665</v>
+        <v>45935.549293981479</v>
       </c>
       <c r="D38" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E38" s="6">
-        <v>13.823333333304618</v>
+        <v>19.148333333374467</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2">
-        <v>45934.772418981483</v>
+        <v>45935.560706018521</v>
       </c>
       <c r="D39" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E39" s="6">
-        <v>13.355277777649462</v>
+        <v>18.874444444372784</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C40" s="2">
-        <v>45934.774108796293</v>
+        <v>45935.573391203703</v>
       </c>
       <c r="D40" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E40" s="6">
-        <v>13.314722222217824</v>
+        <v>18.570000000006985</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2">
-        <v>45934.798344907409</v>
+        <v>45935.577557870369</v>
       </c>
       <c r="D41" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E41" s="6">
-        <v>12.733055555436295</v>
+        <v>18.470000000030268</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2">
-        <v>45934.814062500001</v>
+        <v>45935.584687499999</v>
       </c>
       <c r="D42" s="2">
-        <v>45935.328888888886</v>
+        <v>45936.347141203703</v>
       </c>
       <c r="E42" s="6">
-        <v>12.35583333321847</v>
+        <v>18.29888888890855</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45935.591550925928</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E43" s="6">
+        <v>18.134166666597594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45935.591967592591</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E44" s="6">
+        <v>18.124166666704696</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45935.597280092596</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E45" s="6">
+        <v>17.996666666585952</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="2">
-        <v>45934.823310185187</v>
-      </c>
-      <c r="D43" s="2">
-        <v>45935.328888888886</v>
-      </c>
-      <c r="E43" s="6">
-        <v>12.133888888754882</v>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45935.627534722225</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E46" s="6">
+        <v>17.270555555471219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45935.648599537039</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E47" s="6">
+        <v>16.764999999955762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45935.662916666668</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E48" s="6">
+        <v>16.421388888848014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45935.670243055552</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E49" s="6">
+        <v>16.245555555622559</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45935.678483796299</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E50" s="6">
+        <v>16.047777777712326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45935.708032407405</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E51" s="6">
+        <v>15.338611111161299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45935.710706018515</v>
+      </c>
+      <c r="D52" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E52" s="6">
+        <v>15.274444444512483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45935.721226851849</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E53" s="6">
+        <v>15.021944444510154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45935.728483796294</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E54" s="6">
+        <v>14.8477777778171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45935.745150462964</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E55" s="6">
+        <v>14.44777777773561</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45935.793541666666</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E56" s="6">
+        <v>13.286388888896909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45935.804583333331</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E57" s="6">
+        <v>13.021388888941146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45935.83017361111</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E58" s="6">
+        <v>12.407222222245764</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45935.841516203705</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45936.347141203703</v>
+      </c>
+      <c r="E59" s="6">
+        <v>12.134999999951106</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>电站名称</t>
   </si>
@@ -34,9 +34,6 @@
     <t>长沙特来电飞狐四方坪东区充电站</t>
   </si>
   <si>
-    <t>306号直流</t>
-  </si>
-  <si>
     <t>长沙市开福区高岭香江国际城充电站建设项目</t>
   </si>
   <si>
@@ -64,12 +61,6 @@
     <t>904号直流</t>
   </si>
   <si>
-    <t>401号直流</t>
-  </si>
-  <si>
-    <t>111号直流</t>
-  </si>
-  <si>
     <t>201号直流</t>
   </si>
   <si>
@@ -91,57 +82,15 @@
     <t>402号直流</t>
   </si>
   <si>
-    <t>406号直流</t>
-  </si>
-  <si>
     <t>205号直流</t>
   </si>
   <si>
-    <t>011A号直流</t>
-  </si>
-  <si>
-    <t>212号直流</t>
-  </si>
-  <si>
-    <t>503号直流</t>
-  </si>
-  <si>
-    <t>003B号直流</t>
-  </si>
-  <si>
     <t>505号直流</t>
   </si>
   <si>
-    <t>106号直流</t>
-  </si>
-  <si>
-    <t>702号直流</t>
-  </si>
-  <si>
-    <t>006B号直流</t>
-  </si>
-  <si>
-    <t>903号直流</t>
-  </si>
-  <si>
-    <t>001B号直流</t>
-  </si>
-  <si>
     <t>A05号直流</t>
   </si>
   <si>
-    <t>206号直流</t>
-  </si>
-  <si>
-    <t>110号直流</t>
-  </si>
-  <si>
-    <t>804号直流</t>
-  </si>
-  <si>
-    <t>B02号直流</t>
-  </si>
-  <si>
     <t>101号直流</t>
   </si>
   <si>
@@ -151,49 +100,40 @@
     <t>501号直流</t>
   </si>
   <si>
-    <t>705号直流</t>
-  </si>
-  <si>
-    <t>304号直流</t>
-  </si>
-  <si>
     <t>404号直流</t>
   </si>
   <si>
-    <t>403号直流</t>
-  </si>
-  <si>
-    <t>107号直流</t>
-  </si>
-  <si>
     <t>109号直流</t>
   </si>
   <si>
-    <t>604号直流</t>
-  </si>
-  <si>
-    <t>104号直流</t>
-  </si>
-  <si>
-    <t>308号直流</t>
-  </si>
-  <si>
-    <t>906号直流</t>
-  </si>
-  <si>
-    <t>312号直流</t>
-  </si>
-  <si>
-    <t>805号直流</t>
-  </si>
-  <si>
-    <t>405号直流</t>
-  </si>
-  <si>
-    <t>305号直流</t>
-  </si>
-  <si>
-    <t>A03号直流</t>
+    <t>704号直流</t>
+  </si>
+  <si>
+    <t>602号直流</t>
+  </si>
+  <si>
+    <t>210号直流</t>
+  </si>
+  <si>
+    <t>207号直流</t>
+  </si>
+  <si>
+    <t>211号直流</t>
+  </si>
+  <si>
+    <t>A01号直流</t>
+  </si>
+  <si>
+    <t>006A号直流</t>
+  </si>
+  <si>
+    <t>901号直流</t>
+  </si>
+  <si>
+    <t>301号直流</t>
+  </si>
+  <si>
+    <t>009A号直流</t>
   </si>
 </sst>
 </file>
@@ -564,10 +504,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -586,13 +526,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -600,16 +540,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>45927.457337962966</v>
       </c>
       <c r="D2" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E2" s="6">
-        <v>213.35527777770767</v>
+        <v>236.84638888877816</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -617,169 +557,169 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>45930.238043981481</v>
       </c>
       <c r="D3" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E3" s="6">
-        <v>146.61833333334653</v>
+        <v>170.10944444441702</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>45930.517060185186</v>
       </c>
       <c r="D4" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E4" s="6">
-        <v>139.92194444441702</v>
+        <v>163.41305555548752</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>45930.618518518517</v>
+        <v>45931.575543981482</v>
       </c>
       <c r="D5" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E5" s="6">
-        <v>137.48694444447756</v>
+        <v>138.0094444443821</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>45931.575543981482</v>
+        <v>45932.081099537034</v>
       </c>
       <c r="D6" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E6" s="6">
-        <v>114.5183333333116</v>
+        <v>125.87611111113802</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>45932.081099537034</v>
+        <v>45933.305023148147</v>
       </c>
       <c r="D7" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E7" s="6">
-        <v>102.38500000006752</v>
+        <v>96.50194444443332</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>45933.039143518516</v>
+        <v>45934.284421296295</v>
       </c>
       <c r="D8" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E8" s="6">
-        <v>79.391944444505498</v>
+        <v>72.996388888859656</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>45933.305023148147</v>
+        <v>45934.554988425924</v>
       </c>
       <c r="D9" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E9" s="6">
-        <v>73.010833333362825</v>
+        <v>66.502777777786832</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>45934.068425925929</v>
+        <v>45935.0465625</v>
       </c>
       <c r="D10" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E10" s="6">
-        <v>54.689166666590609</v>
+        <v>54.70499999995809</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>45934.284421296295</v>
+        <v>45935.057013888887</v>
       </c>
       <c r="D11" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E11" s="6">
-        <v>49.505277777789161</v>
+        <v>54.454166666662786</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>45934.542071759257</v>
+        <v>45935.118333333332</v>
       </c>
       <c r="D12" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E12" s="6">
-        <v>43.321666666714009</v>
+        <v>52.982499999983702</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -787,50 +727,50 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>45934.554988425924</v>
+        <v>45935.549293981479</v>
       </c>
       <c r="D13" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E13" s="6">
-        <v>43.011666666716337</v>
+        <v>42.639444444444962</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>45934.55914351852</v>
+        <v>45935.591550925928</v>
       </c>
       <c r="D14" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E14" s="6">
-        <v>42.911944444407709</v>
+        <v>41.625277777668089</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>45934.707303240742</v>
+        <v>45935.670243055552</v>
       </c>
       <c r="D15" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E15" s="6">
-        <v>39.356111111061182</v>
+        <v>39.736666666693054</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -838,50 +778,50 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>45935.026076388887</v>
+        <v>45936.045416666668</v>
       </c>
       <c r="D16" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E16" s="6">
-        <v>31.705555555585306</v>
+        <v>30.732499999925494</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
-        <v>45935.0465625</v>
+        <v>45936.083506944444</v>
       </c>
       <c r="D17" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E17" s="6">
-        <v>31.213888888887595</v>
+        <v>29.818333333299961</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
-        <v>45935.057013888887</v>
+        <v>45936.214814814812</v>
       </c>
       <c r="D18" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E18" s="6">
-        <v>30.963055555592291</v>
+        <v>26.666944444470573</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -889,152 +829,152 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
-        <v>45935.118333333332</v>
+        <v>45936.228472222225</v>
       </c>
       <c r="D19" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E19" s="6">
-        <v>29.491388888913207</v>
+        <v>26.339166666555684</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>45935.183657407404</v>
+        <v>45936.25403935185</v>
       </c>
       <c r="D20" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E20" s="6">
-        <v>27.923611111182254</v>
+        <v>25.725555555545725</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2">
-        <v>45935.199178240742</v>
+        <v>45936.362372685187</v>
       </c>
       <c r="D21" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E21" s="6">
-        <v>27.551111111068167</v>
+        <v>23.125555555452593</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2">
-        <v>45935.232499999998</v>
+        <v>45936.452581018515</v>
       </c>
       <c r="D22" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E22" s="6">
-        <v>26.75138888892252</v>
+        <v>20.960555555589963</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2">
-        <v>45935.236712962964</v>
+        <v>45936.497083333335</v>
       </c>
       <c r="D23" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E23" s="6">
-        <v>26.650277777749579</v>
+        <v>19.892499999899883</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2">
-        <v>45935.240381944444</v>
+        <v>45936.505381944444</v>
       </c>
       <c r="D24" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E24" s="6">
-        <v>26.562222222215496</v>
+        <v>19.693333333299961</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>45935.245081018518</v>
+        <v>45936.526226851849</v>
       </c>
       <c r="D25" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E25" s="6">
-        <v>26.449444444442634</v>
+        <v>19.193055555573665</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2">
-        <v>45935.359930555554</v>
+        <v>45936.53769675926</v>
       </c>
       <c r="D26" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E26" s="6">
-        <v>23.693055555573665</v>
+        <v>18.91777777770767</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2">
-        <v>45935.367847222224</v>
+        <v>45936.552708333336</v>
       </c>
       <c r="D27" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E27" s="6">
-        <v>23.503055555513129</v>
+        <v>18.557499999878928</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1042,543 +982,169 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2">
-        <v>45935.376030092593</v>
+        <v>45936.573252314818</v>
       </c>
       <c r="D28" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E28" s="6">
-        <v>23.306666666641831</v>
+        <v>18.064444444316905</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2">
-        <v>45935.455196759256</v>
+        <v>45936.574780092589</v>
       </c>
       <c r="D29" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E29" s="6">
-        <v>21.406666666734964</v>
+        <v>18.027777777810115</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C30" s="2">
-        <v>45935.496365740742</v>
+        <v>45936.578611111108</v>
       </c>
       <c r="D30" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E30" s="6">
-        <v>20.418611111061182</v>
+        <v>17.935833333351184</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C31" s="2">
-        <v>45935.510324074072</v>
+        <v>45936.587754629632</v>
       </c>
       <c r="D31" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E31" s="6">
-        <v>20.083611111156642</v>
+        <v>17.716388888773508</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2">
-        <v>45935.517800925925</v>
+        <v>45936.595497685186</v>
       </c>
       <c r="D32" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E32" s="6">
-        <v>19.904166666674428</v>
+        <v>17.530555555480532</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="2">
-        <v>45935.528865740744</v>
+        <v>45936.597326388888</v>
       </c>
       <c r="D33" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E33" s="6">
-        <v>19.638611111033242</v>
+        <v>17.486666666634846</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2">
-        <v>45935.53224537037</v>
+        <v>45936.615208333336</v>
       </c>
       <c r="D34" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E34" s="6">
-        <v>19.557499999995343</v>
+        <v>17.057499999878928</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C35" s="2">
-        <v>45935.532754629632</v>
+        <v>45936.623969907407</v>
       </c>
       <c r="D35" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E35" s="6">
-        <v>19.545277777709998</v>
+        <v>16.847222222189885</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2">
-        <v>45935.540162037039</v>
+        <v>45936.761967592596</v>
       </c>
       <c r="D36" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E36" s="6">
-        <v>19.367499999934807</v>
+        <v>13.535277777642477</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2">
-        <v>45935.547060185185</v>
+        <v>45936.822662037041</v>
       </c>
       <c r="D37" s="2">
-        <v>45936.347141203703</v>
+        <v>45937.325937499998</v>
       </c>
       <c r="E37" s="6">
-        <v>19.201944444444962</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="2">
-        <v>45935.549293981479</v>
-      </c>
-      <c r="D38" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E38" s="6">
-        <v>19.148333333374467</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="2">
-        <v>45935.560706018521</v>
-      </c>
-      <c r="D39" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E39" s="6">
-        <v>18.874444444372784</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="2">
-        <v>45935.573391203703</v>
-      </c>
-      <c r="D40" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E40" s="6">
-        <v>18.570000000006985</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="2">
-        <v>45935.577557870369</v>
-      </c>
-      <c r="D41" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E41" s="6">
-        <v>18.470000000030268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="2">
-        <v>45935.584687499999</v>
-      </c>
-      <c r="D42" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E42" s="6">
-        <v>18.29888888890855</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="2">
-        <v>45935.591550925928</v>
-      </c>
-      <c r="D43" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E43" s="6">
-        <v>18.134166666597594</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="2">
-        <v>45935.591967592591</v>
-      </c>
-      <c r="D44" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E44" s="6">
-        <v>18.124166666704696</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="2">
-        <v>45935.597280092596</v>
-      </c>
-      <c r="D45" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E45" s="6">
-        <v>17.996666666585952</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="2">
-        <v>45935.627534722225</v>
-      </c>
-      <c r="D46" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E46" s="6">
-        <v>17.270555555471219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="2">
-        <v>45935.648599537039</v>
-      </c>
-      <c r="D47" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E47" s="6">
-        <v>16.764999999955762</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="2">
-        <v>45935.662916666668</v>
-      </c>
-      <c r="D48" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E48" s="6">
-        <v>16.421388888848014</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="2">
-        <v>45935.670243055552</v>
-      </c>
-      <c r="D49" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E49" s="6">
-        <v>16.245555555622559</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="2">
-        <v>45935.678483796299</v>
-      </c>
-      <c r="D50" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E50" s="6">
-        <v>16.047777777712326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="2">
-        <v>45935.708032407405</v>
-      </c>
-      <c r="D51" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E51" s="6">
-        <v>15.338611111161299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="2">
-        <v>45935.710706018515</v>
-      </c>
-      <c r="D52" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E52" s="6">
-        <v>15.274444444512483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="2">
-        <v>45935.721226851849</v>
-      </c>
-      <c r="D53" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E53" s="6">
-        <v>15.021944444510154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="2">
-        <v>45935.728483796294</v>
-      </c>
-      <c r="D54" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E54" s="6">
-        <v>14.8477777778171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="2">
-        <v>45935.745150462964</v>
-      </c>
-      <c r="D55" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E55" s="6">
-        <v>14.44777777773561</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="2">
-        <v>45935.793541666666</v>
-      </c>
-      <c r="D56" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E56" s="6">
-        <v>13.286388888896909</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="2">
-        <v>45935.804583333331</v>
-      </c>
-      <c r="D57" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E57" s="6">
-        <v>13.021388888941146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="2">
-        <v>45935.83017361111</v>
-      </c>
-      <c r="D58" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E58" s="6">
-        <v>12.407222222245764</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="2">
-        <v>45935.841516203705</v>
-      </c>
-      <c r="D59" s="2">
-        <v>45936.347141203703</v>
-      </c>
-      <c r="E59" s="6">
-        <v>12.134999999951106</v>
+        <v>12.078611110977363</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
     <t>电站名称</t>
   </si>
@@ -58,18 +58,12 @@
     <t>603号直流</t>
   </si>
   <si>
-    <t>905号直流</t>
-  </si>
-  <si>
     <t>101号直流</t>
   </si>
   <si>
     <t>602号直流</t>
   </si>
   <si>
-    <t>006A号直流</t>
-  </si>
-  <si>
     <t>004B号直流</t>
   </si>
   <si>
@@ -163,31 +157,55 @@
     <t>702号直流</t>
   </si>
   <si>
-    <t>401号直流</t>
-  </si>
-  <si>
-    <t>304号直流</t>
-  </si>
-  <si>
     <t>406号直流</t>
   </si>
   <si>
-    <t>104号直流</t>
-  </si>
-  <si>
-    <t>108号直流</t>
-  </si>
-  <si>
-    <t>002A号直流</t>
-  </si>
-  <si>
-    <t>902号直流</t>
-  </si>
-  <si>
-    <t>111号直流</t>
-  </si>
-  <si>
-    <t>001B号直流</t>
+    <t>705号直流</t>
+  </si>
+  <si>
+    <t>805号直流</t>
+  </si>
+  <si>
+    <t>801号直流</t>
+  </si>
+  <si>
+    <t>404号直流</t>
+  </si>
+  <si>
+    <t>402号直流</t>
+  </si>
+  <si>
+    <t>204号直流</t>
+  </si>
+  <si>
+    <t>901号直流</t>
+  </si>
+  <si>
+    <t>505号直流</t>
+  </si>
+  <si>
+    <t>202号直流</t>
+  </si>
+  <si>
+    <t>A03号直流</t>
+  </si>
+  <si>
+    <t>110号直流</t>
+  </si>
+  <si>
+    <t>503号直流</t>
+  </si>
+  <si>
+    <t>904号直流</t>
+  </si>
+  <si>
+    <t>006B号直流</t>
+  </si>
+  <si>
+    <t>305号直流</t>
+  </si>
+  <si>
+    <t>207号直流</t>
   </si>
 </sst>
 </file>
@@ -602,10 +620,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -639,10 +657,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
@@ -652,10 +670,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
@@ -665,10 +683,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -678,10 +696,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -691,10 +709,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -704,10 +722,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
@@ -717,10 +735,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
@@ -730,10 +748,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
@@ -743,10 +761,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
@@ -756,10 +774,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
@@ -769,10 +787,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
@@ -782,10 +800,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
@@ -795,10 +813,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
@@ -808,10 +826,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
@@ -821,10 +839,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
@@ -873,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="10">
         <v>45935.0465625</v>
@@ -899,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="10">
         <v>45936.228472222225</v>
@@ -915,33 +933,33 @@
         <v>47</v>
       </c>
       <c r="C23" s="10">
-        <v>45937.040960648148</v>
+        <v>45937.570289351854</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="10">
-        <v>45937.092569444445</v>
+        <v>45938.214999999997</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="10">
-        <v>45937.237905092596</v>
+        <v>45938.519571759258</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
@@ -954,7 +972,7 @@
         <v>50</v>
       </c>
       <c r="C26" s="10">
-        <v>45937.24627314815</v>
+        <v>45938.536863425928</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
@@ -964,36 +982,36 @@
         <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C27" s="10">
-        <v>45937.24659722222</v>
+        <v>45938.55363425926</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="10">
-        <v>45937.348912037036</v>
+        <v>45938.557615740741</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C29" s="10">
-        <v>45937.519699074073</v>
+        <v>45938.565057870372</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
@@ -1006,62 +1024,153 @@
         <v>53</v>
       </c>
       <c r="C30" s="10">
-        <v>45937.527013888888</v>
+        <v>45938.566145833334</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C31" s="10">
-        <v>45937.537442129629</v>
+        <v>45938.586284722223</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="10">
-        <v>45937.543032407404</v>
+        <v>45938.61614583333</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C33" s="10">
-        <v>45937.549560185187</v>
+        <v>45938.618113425924</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="10">
-        <v>45937.560555555552</v>
+        <v>45938.650150462963</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="10">
+        <v>45938.651747685188</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="10">
+        <v>45938.668240740742</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="10">
+        <v>45938.670856481483</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="10">
+        <v>45938.689699074072</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="10">
+        <v>45938.718877314815</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="10">
+        <v>45938.723634259259</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="10">
+        <v>45938.756805555553</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>电站名称</t>
   </si>
@@ -34,9 +34,6 @@
     <t>长沙特来电飞狐四方坪东区充电站</t>
   </si>
   <si>
-    <t>长沙市开福区高岭香江国际城充电站建设项目</t>
-  </si>
-  <si>
     <t>截止一直未充电时间</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>502号直流</t>
   </si>
   <si>
-    <t>203号直流</t>
-  </si>
-  <si>
     <t>603号直流</t>
   </si>
   <si>
@@ -160,52 +154,61 @@
     <t>406号直流</t>
   </si>
   <si>
-    <t>705号直流</t>
-  </si>
-  <si>
-    <t>805号直流</t>
-  </si>
-  <si>
     <t>801号直流</t>
   </si>
   <si>
     <t>404号直流</t>
   </si>
   <si>
-    <t>402号直流</t>
-  </si>
-  <si>
-    <t>204号直流</t>
-  </si>
-  <si>
-    <t>901号直流</t>
-  </si>
-  <si>
     <t>505号直流</t>
   </si>
   <si>
-    <t>202号直流</t>
-  </si>
-  <si>
-    <t>A03号直流</t>
-  </si>
-  <si>
-    <t>110号直流</t>
-  </si>
-  <si>
     <t>503号直流</t>
   </si>
   <si>
-    <t>904号直流</t>
-  </si>
-  <si>
     <t>006B号直流</t>
   </si>
   <si>
-    <t>305号直流</t>
-  </si>
-  <si>
-    <t>207号直流</t>
+    <t>604号直流</t>
+  </si>
+  <si>
+    <t>003B号直流</t>
+  </si>
+  <si>
+    <t>605号直流</t>
+  </si>
+  <si>
+    <t>106号直流</t>
+  </si>
+  <si>
+    <t>104号直流</t>
+  </si>
+  <si>
+    <t>601号直流</t>
+  </si>
+  <si>
+    <t>902号直流</t>
+  </si>
+  <si>
+    <t>103号直流</t>
+  </si>
+  <si>
+    <t>302号直流</t>
+  </si>
+  <si>
+    <t>A05号直流</t>
+  </si>
+  <si>
+    <t>B04号直流</t>
+  </si>
+  <si>
+    <t>304号直流</t>
+  </si>
+  <si>
+    <t>B02号直流</t>
+  </si>
+  <si>
+    <t>405号直流</t>
   </si>
 </sst>
 </file>
@@ -281,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -314,6 +317,15 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,10 +632,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,13 +655,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -657,10 +669,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
@@ -670,10 +682,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
@@ -683,10 +695,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -696,10 +708,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -709,10 +721,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -722,10 +734,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
@@ -735,10 +747,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
@@ -748,10 +760,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
@@ -761,10 +773,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
@@ -774,10 +786,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
@@ -787,10 +799,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
@@ -800,10 +812,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
@@ -813,10 +825,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
@@ -826,10 +838,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
@@ -839,10 +851,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
@@ -852,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="14">
         <v>45927.457337962966</v>
@@ -862,13 +874,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="10">
-        <v>45930.238043981481</v>
+        <v>45935.0465625</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
@@ -878,49 +890,49 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C19" s="10">
-        <v>45932.081099537034</v>
+        <v>45939.547511574077</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C20" s="10">
-        <v>45935.0465625</v>
+        <v>45939.747453703705</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C21" s="10">
-        <v>45936.045416666668</v>
+        <v>45940.517048611109</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C22" s="10">
-        <v>45936.228472222225</v>
+        <v>45940.552430555559</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
@@ -930,23 +942,23 @@
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C23" s="10">
-        <v>45937.570289351854</v>
+        <v>45940.556215277778</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C24" s="10">
-        <v>45938.214999999997</v>
+        <v>45940.557627314818</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
@@ -956,23 +968,23 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C25" s="10">
-        <v>45938.519571759258</v>
+        <v>45940.558483796296</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C26" s="10">
-        <v>45938.536863425928</v>
+        <v>45940.56554398148</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
@@ -985,46 +997,46 @@
         <v>46</v>
       </c>
       <c r="C27" s="10">
-        <v>45938.55363425926</v>
+        <v>45940.64230324074</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28" s="10">
-        <v>45938.557615740741</v>
+        <v>45941.021111111113</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" s="10">
-        <v>45938.565057870372</v>
+        <v>45941.03565972222</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="10">
-        <v>45938.566145833334</v>
+        <v>45941.035682870373</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
@@ -1034,23 +1046,23 @@
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="10">
-        <v>45938.586284722223</v>
+        <v>45941.042812500003</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="10">
-        <v>45938.61614583333</v>
+        <v>45941.042928240742</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
@@ -1060,23 +1072,23 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C33" s="10">
-        <v>45938.618113425924</v>
+        <v>45941.043564814812</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="10">
-        <v>45938.650150462963</v>
+        <v>45941.04478009259</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
@@ -1086,10 +1098,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C35" s="10">
-        <v>45938.651747685188</v>
+        <v>45941.046307870369</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
@@ -1099,78 +1111,91 @@
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="10">
-        <v>45938.668240740742</v>
+        <v>45941.04965277778</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C37" s="10">
-        <v>45938.670856481483</v>
+        <v>45941.064675925925</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="10">
-        <v>45938.689699074072</v>
+        <v>45941.079953703702</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C39" s="10">
-        <v>45938.718877314815</v>
+        <v>45941.092465277776</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="10">
-        <v>45938.723634259259</v>
+        <v>45941.108923611115</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C41" s="10">
-        <v>45938.756805555553</v>
+        <v>45941.150960648149</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="16">
+        <v>45941.193680555552</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>电站名称</t>
   </si>
@@ -46,9 +46,6 @@
     <t>701号直流</t>
   </si>
   <si>
-    <t>502号直流</t>
-  </si>
-  <si>
     <t>603号直流</t>
   </si>
   <si>
@@ -148,24 +145,12 @@
     <t>2025-01-25 17:08:37</t>
   </si>
   <si>
-    <t>702号直流</t>
-  </si>
-  <si>
     <t>406号直流</t>
   </si>
   <si>
-    <t>801号直流</t>
-  </si>
-  <si>
     <t>404号直流</t>
   </si>
   <si>
-    <t>505号直流</t>
-  </si>
-  <si>
-    <t>503号直流</t>
-  </si>
-  <si>
     <t>006B号直流</t>
   </si>
   <si>
@@ -181,34 +166,70 @@
     <t>106号直流</t>
   </si>
   <si>
-    <t>104号直流</t>
-  </si>
-  <si>
-    <t>601号直流</t>
-  </si>
-  <si>
-    <t>902号直流</t>
-  </si>
-  <si>
     <t>103号直流</t>
   </si>
   <si>
-    <t>302号直流</t>
-  </si>
-  <si>
-    <t>A05号直流</t>
-  </si>
-  <si>
     <t>B04号直流</t>
   </si>
   <si>
-    <t>304号直流</t>
-  </si>
-  <si>
-    <t>B02号直流</t>
-  </si>
-  <si>
     <t>405号直流</t>
+  </si>
+  <si>
+    <t>403号直流</t>
+  </si>
+  <si>
+    <t>长沙市开福区高岭香江国际城充电站建设项目</t>
+  </si>
+  <si>
+    <t>108号直流</t>
+  </si>
+  <si>
+    <t>110号直流</t>
+  </si>
+  <si>
+    <t>901号直流</t>
+  </si>
+  <si>
+    <t>001A号直流</t>
+  </si>
+  <si>
+    <t>102号直流</t>
+  </si>
+  <si>
+    <t>305号直流</t>
+  </si>
+  <si>
+    <t>402号直流</t>
+  </si>
+  <si>
+    <t>203号直流</t>
+  </si>
+  <si>
+    <t>201号直流</t>
+  </si>
+  <si>
+    <t>401号直流</t>
+  </si>
+  <si>
+    <t>303号直流</t>
+  </si>
+  <si>
+    <t>105号直流</t>
+  </si>
+  <si>
+    <t>905号直流</t>
+  </si>
+  <si>
+    <t>208号直流</t>
+  </si>
+  <si>
+    <t>202号直流</t>
+  </si>
+  <si>
+    <t>211号直流</t>
+  </si>
+  <si>
+    <t>112号直流</t>
   </si>
 </sst>
 </file>
@@ -632,10 +653,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -669,10 +690,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
@@ -682,10 +703,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
@@ -695,10 +716,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -708,10 +729,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -721,10 +742,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -734,10 +755,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
@@ -747,10 +768,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
@@ -760,10 +781,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
@@ -773,10 +794,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
@@ -786,10 +807,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
@@ -799,10 +820,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
@@ -812,10 +833,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
@@ -825,10 +846,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
@@ -838,10 +859,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
@@ -851,10 +872,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
@@ -877,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="10">
         <v>45935.0465625</v>
@@ -890,23 +911,23 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="10">
-        <v>45939.547511574077</v>
+        <v>45939.747453703705</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C20" s="10">
-        <v>45939.747453703705</v>
+        <v>45940.517048611109</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
@@ -916,49 +937,49 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="10">
-        <v>45940.517048611109</v>
+        <v>45940.552430555559</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C22" s="10">
-        <v>45940.552430555559</v>
+        <v>45940.556215277778</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C23" s="10">
-        <v>45940.556215277778</v>
+        <v>45940.557627314818</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C24" s="10">
-        <v>45940.557627314818</v>
+        <v>45940.558483796296</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
@@ -968,10 +989,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="10">
-        <v>45940.558483796296</v>
+        <v>45941.043564814812</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
@@ -981,88 +1002,88 @@
         <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C26" s="10">
-        <v>45940.56554398148</v>
+        <v>45941.079953703702</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C27" s="10">
-        <v>45940.64230324074</v>
+        <v>45941.19804398148</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="10">
-        <v>45941.021111111113</v>
+        <v>45941.233275462961</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="10">
-        <v>45941.03565972222</v>
+        <v>45941.259837962964</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C30" s="10">
-        <v>45941.035682870373</v>
+        <v>45941.277685185189</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="10">
-        <v>45941.042812500003</v>
+        <v>45941.331342592595</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="10">
-        <v>45941.042928240742</v>
+        <v>45941.345983796295</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
@@ -1072,101 +1093,101 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C33" s="10">
-        <v>45941.043564814812</v>
+        <v>45941.365798611114</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="10">
-        <v>45941.04478009259</v>
+        <v>45941.527708333335</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="10">
-        <v>45941.046307870369</v>
+        <v>45941.538611111115</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="10">
-        <v>45941.04965277778</v>
+        <v>45941.542245370372</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C37" s="10">
-        <v>45941.064675925925</v>
+        <v>45941.545925925922</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" s="10">
-        <v>45941.079953703702</v>
+        <v>45941.555543981478</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C39" s="10">
-        <v>45941.092465277776</v>
+        <v>45941.55740740741</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="10">
-        <v>45941.108923611115</v>
+        <v>45941.561180555553</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
@@ -1176,26 +1197,169 @@
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="10">
-        <v>45941.150960648149</v>
+        <v>45941.584722222222</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="16">
-        <v>45941.193680555552</v>
+        <v>45941.591643518521</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45941.595682870371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45941.641412037039</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45941.650648148148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45941.65084490741</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45941.66269675926</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45941.666030092594</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45941.682395833333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45941.728981481479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45941.730914351851</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45941.732175925928</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45941.73809027778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45941.752488425926</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45941.755798611113</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>电站名称</t>
   </si>
@@ -145,33 +145,18 @@
     <t>2025-01-25 17:08:37</t>
   </si>
   <si>
-    <t>406号直流</t>
-  </si>
-  <si>
     <t>404号直流</t>
   </si>
   <si>
     <t>006B号直流</t>
   </si>
   <si>
-    <t>604号直流</t>
-  </si>
-  <si>
-    <t>003B号直流</t>
-  </si>
-  <si>
-    <t>605号直流</t>
-  </si>
-  <si>
     <t>106号直流</t>
   </si>
   <si>
     <t>103号直流</t>
   </si>
   <si>
-    <t>B04号直流</t>
-  </si>
-  <si>
     <t>405号直流</t>
   </si>
   <si>
@@ -184,15 +169,6 @@
     <t>108号直流</t>
   </si>
   <si>
-    <t>110号直流</t>
-  </si>
-  <si>
-    <t>901号直流</t>
-  </si>
-  <si>
-    <t>001A号直流</t>
-  </si>
-  <si>
     <t>102号直流</t>
   </si>
   <si>
@@ -205,15 +181,9 @@
     <t>203号直流</t>
   </si>
   <si>
-    <t>201号直流</t>
-  </si>
-  <si>
     <t>401号直流</t>
   </si>
   <si>
-    <t>303号直流</t>
-  </si>
-  <si>
     <t>105号直流</t>
   </si>
   <si>
@@ -223,13 +193,52 @@
     <t>208号直流</t>
   </si>
   <si>
-    <t>202号直流</t>
-  </si>
-  <si>
-    <t>211号直流</t>
-  </si>
-  <si>
     <t>112号直流</t>
+  </si>
+  <si>
+    <t>111号直流</t>
+  </si>
+  <si>
+    <t>702号直流</t>
+  </si>
+  <si>
+    <t>306号直流</t>
+  </si>
+  <si>
+    <t>212号直流</t>
+  </si>
+  <si>
+    <t>A04号直流</t>
+  </si>
+  <si>
+    <t>107号直流</t>
+  </si>
+  <si>
+    <t>207号直流</t>
+  </si>
+  <si>
+    <t>002A号直流</t>
+  </si>
+  <si>
+    <t>801号直流</t>
+  </si>
+  <si>
+    <t>803号直流</t>
+  </si>
+  <si>
+    <t>804号直流</t>
+  </si>
+  <si>
+    <t>504号直流</t>
+  </si>
+  <si>
+    <t>B03号直流</t>
+  </si>
+  <si>
+    <t>505号直流</t>
+  </si>
+  <si>
+    <t>301号直流</t>
   </si>
 </sst>
 </file>
@@ -653,10 +662,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -908,39 +917,39 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="10">
-        <v>45939.747453703705</v>
+        <v>45940.517048611109</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C20" s="10">
-        <v>45940.517048611109</v>
+        <v>45941.043564814812</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="10">
-        <v>45940.552430555559</v>
+        <v>45941.19804398148</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
@@ -953,7 +962,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="10">
-        <v>45940.556215277778</v>
+        <v>45941.233275462961</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
@@ -963,10 +972,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C23" s="10">
-        <v>45940.557627314818</v>
+        <v>45941.259837962964</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
@@ -976,140 +985,140 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C24" s="10">
-        <v>45940.558483796296</v>
+        <v>45941.277685185189</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C25" s="10">
-        <v>45941.043564814812</v>
+        <v>45941.331342592595</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C26" s="10">
-        <v>45941.079953703702</v>
+        <v>45941.730914351851</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C27" s="10">
-        <v>45941.19804398148</v>
+        <v>45942.017800925925</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C28" s="10">
-        <v>45941.233275462961</v>
+        <v>45942.20449074074</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C29" s="10">
-        <v>45941.259837962964</v>
+        <v>45942.25513888889</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C30" s="10">
-        <v>45941.277685185189</v>
+        <v>45942.260659722226</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C31" s="10">
-        <v>45941.331342592595</v>
+        <v>45942.342129629629</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C32" s="10">
-        <v>45941.345983796295</v>
+        <v>45942.459050925929</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C33" s="10">
-        <v>45941.365798611114</v>
+        <v>45942.511412037034</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C34" s="10">
-        <v>45941.527708333335</v>
+        <v>45942.527013888888</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
@@ -1119,247 +1128,247 @@
         <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C35" s="10">
-        <v>45941.538611111115</v>
+        <v>45942.532361111109</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C36" s="10">
-        <v>45941.542245370372</v>
+        <v>45942.534108796295</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C37" s="10">
-        <v>45941.545925925922</v>
+        <v>45942.541909722226</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C38" s="10">
-        <v>45941.555543981478</v>
+        <v>45942.544432870367</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C39" s="10">
-        <v>45941.55740740741</v>
+        <v>45942.55641203704</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C40" s="10">
-        <v>45941.561180555553</v>
+        <v>45942.558657407404</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C41" s="10">
-        <v>45941.584722222222</v>
+        <v>45942.581909722219</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C42" s="16">
-        <v>45941.591643518521</v>
+        <v>45942.58965277778</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="2">
-        <v>45941.595682870371</v>
-      </c>
+      <c r="A43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="10">
+        <v>45942.597349537034</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="A44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="10">
+        <v>45942.616689814815</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="10">
+        <v>45942.629907407405</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="10">
+        <v>45942.653391203705</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="10">
+        <v>45942.668923611112</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="10">
+        <v>45942.670324074075</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="2">
-        <v>45941.641412037039</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="2">
-        <v>45941.650648148148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="2">
-        <v>45941.65084490741</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="2">
-        <v>45941.66269675926</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="2">
-        <v>45941.666030092594</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="2">
-        <v>45941.682395833333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+      <c r="C49" s="10">
+        <v>45942.676458333335</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="10">
+        <v>45942.678564814814</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="10">
+        <v>45942.68650462963</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="10">
+        <v>45942.742152777777</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="2">
-        <v>45941.728981481479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="2">
-        <v>45941.730914351851</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="2">
-        <v>45941.732175925928</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="2">
-        <v>45941.73809027778</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="2">
-        <v>45941.752488425926</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="2">
-        <v>45941.755798611113</v>
-      </c>
+      <c r="B53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="10">
+        <v>45942.792349537034</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>电站名称</t>
   </si>
@@ -172,27 +172,15 @@
     <t>102号直流</t>
   </si>
   <si>
-    <t>305号直流</t>
-  </si>
-  <si>
     <t>402号直流</t>
   </si>
   <si>
-    <t>203号直流</t>
-  </si>
-  <si>
     <t>401号直流</t>
   </si>
   <si>
-    <t>105号直流</t>
-  </si>
-  <si>
     <t>905号直流</t>
   </si>
   <si>
-    <t>208号直流</t>
-  </si>
-  <si>
     <t>112号直流</t>
   </si>
   <si>
@@ -205,33 +193,9 @@
     <t>306号直流</t>
   </si>
   <si>
-    <t>212号直流</t>
-  </si>
-  <si>
-    <t>A04号直流</t>
-  </si>
-  <si>
-    <t>107号直流</t>
-  </si>
-  <si>
-    <t>207号直流</t>
-  </si>
-  <si>
-    <t>002A号直流</t>
-  </si>
-  <si>
-    <t>801号直流</t>
-  </si>
-  <si>
     <t>803号直流</t>
   </si>
   <si>
-    <t>804号直流</t>
-  </si>
-  <si>
-    <t>504号直流</t>
-  </si>
-  <si>
     <t>B03号直流</t>
   </si>
   <si>
@@ -239,6 +203,48 @@
   </si>
   <si>
     <t>301号直流</t>
+  </si>
+  <si>
+    <t>406号直流</t>
+  </si>
+  <si>
+    <t>604号直流</t>
+  </si>
+  <si>
+    <t>805号直流</t>
+  </si>
+  <si>
+    <t>B02号直流</t>
+  </si>
+  <si>
+    <t>011A号直流</t>
+  </si>
+  <si>
+    <t>001B号直流</t>
+  </si>
+  <si>
+    <t>109号直流</t>
+  </si>
+  <si>
+    <t>206号直流</t>
+  </si>
+  <si>
+    <t>205号直流</t>
+  </si>
+  <si>
+    <t>110号直流</t>
+  </si>
+  <si>
+    <t>902号直流</t>
+  </si>
+  <si>
+    <t>B01号直流</t>
+  </si>
+  <si>
+    <t>003B号直流</t>
+  </si>
+  <si>
+    <t>002B号直流</t>
   </si>
 </sst>
 </file>
@@ -662,10 +668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -995,52 +1001,52 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C25" s="10">
-        <v>45941.331342592595</v>
+        <v>45942.25513888889</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="10">
-        <v>45941.730914351851</v>
+        <v>45942.260659722226</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C27" s="10">
-        <v>45942.017800925925</v>
+        <v>45942.459050925929</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C28" s="10">
-        <v>45942.20449074074</v>
+        <v>45942.55641203704</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
@@ -1050,36 +1056,36 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C29" s="10">
-        <v>45942.25513888889</v>
+        <v>45942.678564814814</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="10">
-        <v>45942.260659722226</v>
+        <v>45942.742152777777</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C31" s="10">
-        <v>45942.342129629629</v>
+        <v>45943.020914351851</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
@@ -1089,23 +1095,23 @@
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C32" s="10">
-        <v>45942.459050925929</v>
+        <v>45943.03466435185</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C33" s="10">
-        <v>45942.511412037034</v>
+        <v>45943.038888888892</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
@@ -1115,49 +1121,49 @@
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C34" s="10">
-        <v>45942.527013888888</v>
+        <v>45943.039895833332</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="10">
-        <v>45942.532361111109</v>
+        <v>45943.048414351855</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C36" s="10">
-        <v>45942.534108796295</v>
+        <v>45943.056909722225</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C37" s="10">
-        <v>45942.541909722226</v>
+        <v>45943.233912037038</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
@@ -1167,36 +1173,36 @@
         <v>4</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C38" s="10">
-        <v>45942.544432870367</v>
+        <v>45943.247858796298</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C39" s="10">
-        <v>45942.55641203704</v>
+        <v>45943.420752314814</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C40" s="10">
-        <v>45942.558657407404</v>
+        <v>45943.510914351849</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
@@ -1209,46 +1215,46 @@
         <v>55</v>
       </c>
       <c r="C41" s="10">
-        <v>45942.581909722219</v>
+        <v>45943.526076388887</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C42" s="16">
-        <v>45942.58965277778</v>
+        <v>45943.532280092593</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C43" s="10">
-        <v>45942.597349537034</v>
+        <v>45943.537430555552</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C44" s="10">
-        <v>45942.616689814815</v>
+        <v>45943.53943287037</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
@@ -1258,23 +1264,23 @@
         <v>3</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="10">
-        <v>45942.629907407405</v>
+        <v>45943.539930555555</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C46" s="10">
-        <v>45942.653391203705</v>
+        <v>45943.554872685185</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
@@ -1284,62 +1290,62 @@
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C47" s="10">
-        <v>45942.668923611112</v>
+        <v>45943.574976851851</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C48" s="10">
-        <v>45942.670324074075</v>
+        <v>45943.576099537036</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C49" s="10">
-        <v>45942.676458333335</v>
+        <v>45943.576597222222</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C50" s="10">
-        <v>45942.678564814814</v>
+        <v>45943.589872685188</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C51" s="10">
-        <v>45942.68650462963</v>
+        <v>45943.605636574073</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
@@ -1349,26 +1355,65 @@
         <v>2</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="10">
-        <v>45942.742152777777</v>
+        <v>45943.623032407406</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53" s="10">
-        <v>45942.792349537034</v>
+        <v>45943.652326388888</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="10">
+        <v>45943.664467592593</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="10">
+        <v>45943.680486111109</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="10">
+        <v>45943.733067129629</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>电站名称</t>
   </si>
@@ -148,103 +148,76 @@
     <t>404号直流</t>
   </si>
   <si>
-    <t>006B号直流</t>
-  </si>
-  <si>
-    <t>106号直流</t>
-  </si>
-  <si>
     <t>103号直流</t>
   </si>
   <si>
-    <t>405号直流</t>
-  </si>
-  <si>
-    <t>403号直流</t>
-  </si>
-  <si>
     <t>长沙市开福区高岭香江国际城充电站建设项目</t>
   </si>
   <si>
     <t>108号直流</t>
   </si>
   <si>
-    <t>102号直流</t>
-  </si>
-  <si>
-    <t>402号直流</t>
-  </si>
-  <si>
     <t>401号直流</t>
   </si>
   <si>
-    <t>905号直流</t>
-  </si>
-  <si>
     <t>112号直流</t>
   </si>
   <si>
-    <t>111号直流</t>
-  </si>
-  <si>
-    <t>702号直流</t>
-  </si>
-  <si>
     <t>306号直流</t>
   </si>
   <si>
-    <t>803号直流</t>
-  </si>
-  <si>
     <t>B03号直流</t>
   </si>
   <si>
-    <t>505号直流</t>
-  </si>
-  <si>
-    <t>301号直流</t>
-  </si>
-  <si>
     <t>406号直流</t>
   </si>
   <si>
     <t>604号直流</t>
   </si>
   <si>
-    <t>805号直流</t>
-  </si>
-  <si>
-    <t>B02号直流</t>
-  </si>
-  <si>
-    <t>011A号直流</t>
-  </si>
-  <si>
-    <t>001B号直流</t>
-  </si>
-  <si>
-    <t>109号直流</t>
-  </si>
-  <si>
-    <t>206号直流</t>
-  </si>
-  <si>
-    <t>205号直流</t>
-  </si>
-  <si>
-    <t>110号直流</t>
-  </si>
-  <si>
-    <t>902号直流</t>
-  </si>
-  <si>
     <t>B01号直流</t>
   </si>
   <si>
     <t>003B号直流</t>
   </si>
   <si>
-    <t>002B号直流</t>
+    <t>801号直流</t>
+  </si>
+  <si>
+    <t>201号直流</t>
+  </si>
+  <si>
+    <t>203号直流</t>
+  </si>
+  <si>
+    <t>704号直流</t>
+  </si>
+  <si>
+    <t>904号直流</t>
+  </si>
+  <si>
+    <t>504号直流</t>
+  </si>
+  <si>
+    <t>502号直流</t>
+  </si>
+  <si>
+    <t>202号直流</t>
+  </si>
+  <si>
+    <t>005B号直流</t>
+  </si>
+  <si>
+    <t>008B号直流</t>
+  </si>
+  <si>
+    <t>105号直流</t>
+  </si>
+  <si>
+    <t>006A号直流</t>
+  </si>
+  <si>
+    <t>304号直流</t>
   </si>
 </sst>
 </file>
@@ -671,7 +644,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -923,13 +896,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="10">
-        <v>45940.517048611109</v>
+        <v>45941.259837962964</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
@@ -939,10 +912,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10">
-        <v>45941.043564814812</v>
+        <v>45941.277685185189</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
@@ -952,36 +925,36 @@
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C21" s="10">
-        <v>45941.19804398148</v>
+        <v>45942.459050925929</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C22" s="10">
-        <v>45941.233275462961</v>
+        <v>45943.020914351851</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C23" s="10">
-        <v>45941.259837962964</v>
+        <v>45943.03466435185</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
@@ -991,10 +964,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C24" s="10">
-        <v>45941.277685185189</v>
+        <v>45943.623032407406</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
@@ -1004,10 +977,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="10">
-        <v>45942.25513888889</v>
+        <v>45943.990763888891</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
@@ -1017,36 +990,36 @@
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="10">
-        <v>45942.260659722226</v>
+        <v>45944.074282407404</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C27" s="10">
-        <v>45942.459050925929</v>
+        <v>45944.228055555555</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C28" s="10">
-        <v>45942.55641203704</v>
+        <v>45944.253993055558</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
@@ -1056,10 +1029,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29" s="10">
-        <v>45942.678564814814</v>
+        <v>45944.263796296298</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
@@ -1069,36 +1042,36 @@
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C30" s="10">
-        <v>45942.742152777777</v>
+        <v>45944.51699074074</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="10">
-        <v>45943.020914351851</v>
+        <v>45944.527499999997</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C32" s="10">
-        <v>45943.03466435185</v>
+        <v>45944.530509259261</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
@@ -1108,49 +1081,49 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C33" s="10">
-        <v>45943.038888888892</v>
+        <v>45944.54005787037</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C34" s="10">
-        <v>45943.039895833332</v>
+        <v>45944.554016203707</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C35" s="10">
-        <v>45943.048414351855</v>
+        <v>45944.583692129629</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C36" s="10">
-        <v>45943.056909722225</v>
+        <v>45944.60528935185</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
@@ -1160,10 +1133,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C37" s="10">
-        <v>45943.233912037038</v>
+        <v>45944.616377314815</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
@@ -1173,49 +1146,49 @@
         <v>4</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C38" s="10">
-        <v>45943.247858796298</v>
+        <v>45944.617847222224</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C39" s="10">
-        <v>45943.420752314814</v>
+        <v>45944.62395833333</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C40" s="10">
-        <v>45943.510914351849</v>
+        <v>45944.624421296299</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41" s="10">
-        <v>45943.526076388887</v>
+        <v>45944.642442129632</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
@@ -1225,193 +1198,133 @@
         <v>4</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C42" s="16">
-        <v>45943.532280092593</v>
+        <v>45944.650648148148</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C43" s="10">
-        <v>45943.537430555552</v>
+        <v>45944.651828703703</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="10">
-        <v>45943.53943287037</v>
+        <v>45944.674907407411</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C45" s="10">
-        <v>45943.539930555555</v>
+        <v>45944.697951388887</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C46" s="10">
-        <v>45943.554872685185</v>
+        <v>45944.771261574075</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="10">
-        <v>45943.574976851851</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="10">
-        <v>45943.576099537036</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="10">
-        <v>45943.576597222222</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="10">
-        <v>45943.589872685188</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="10">
-        <v>45943.605636574073</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="10">
-        <v>45943.623032407406</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="10">
-        <v>45943.652326388888</v>
-      </c>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="10">
-        <v>45943.664467592593</v>
-      </c>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="10">
-        <v>45943.680486111109</v>
-      </c>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="10">
-        <v>45943.733067129629</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="11"/>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>电站名称</t>
   </si>
@@ -46,9 +46,6 @@
     <t>701号直流</t>
   </si>
   <si>
-    <t>603号直流</t>
-  </si>
-  <si>
     <t>101号直流</t>
   </si>
   <si>
@@ -145,21 +142,12 @@
     <t>2025-01-25 17:08:37</t>
   </si>
   <si>
-    <t>404号直流</t>
-  </si>
-  <si>
-    <t>103号直流</t>
-  </si>
-  <si>
     <t>长沙市开福区高岭香江国际城充电站建设项目</t>
   </si>
   <si>
     <t>108号直流</t>
   </si>
   <si>
-    <t>401号直流</t>
-  </si>
-  <si>
     <t>112号直流</t>
   </si>
   <si>
@@ -172,15 +160,9 @@
     <t>406号直流</t>
   </si>
   <si>
-    <t>604号直流</t>
-  </si>
-  <si>
     <t>B01号直流</t>
   </si>
   <si>
-    <t>003B号直流</t>
-  </si>
-  <si>
     <t>801号直流</t>
   </si>
   <si>
@@ -190,34 +172,52 @@
     <t>203号直流</t>
   </si>
   <si>
-    <t>704号直流</t>
-  </si>
-  <si>
     <t>904号直流</t>
   </si>
   <si>
-    <t>504号直流</t>
-  </si>
-  <si>
     <t>502号直流</t>
   </si>
   <si>
-    <t>202号直流</t>
-  </si>
-  <si>
-    <t>005B号直流</t>
-  </si>
-  <si>
-    <t>008B号直流</t>
-  </si>
-  <si>
-    <t>105号直流</t>
-  </si>
-  <si>
-    <t>006A号直流</t>
-  </si>
-  <si>
-    <t>304号直流</t>
+    <t>110号直流</t>
+  </si>
+  <si>
+    <t>902号直流</t>
+  </si>
+  <si>
+    <t>702号直流</t>
+  </si>
+  <si>
+    <t>505号直流</t>
+  </si>
+  <si>
+    <t>305号直流</t>
+  </si>
+  <si>
+    <t>104号直流</t>
+  </si>
+  <si>
+    <t>301号直流</t>
+  </si>
+  <si>
+    <t>804号直流</t>
+  </si>
+  <si>
+    <t>102号直流</t>
+  </si>
+  <si>
+    <t>109号直流</t>
+  </si>
+  <si>
+    <t>208号直流</t>
+  </si>
+  <si>
+    <t>106号直流</t>
+  </si>
+  <si>
+    <t>107号直流</t>
+  </si>
+  <si>
+    <t>903号直流</t>
   </si>
 </sst>
 </file>
@@ -643,8 +643,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -678,10 +678,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
@@ -691,10 +691,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
@@ -704,10 +704,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -717,10 +717,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -730,10 +730,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -743,10 +743,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
@@ -756,10 +756,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
@@ -769,10 +769,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
@@ -782,10 +782,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
@@ -795,10 +795,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
@@ -808,10 +808,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
@@ -821,10 +821,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
@@ -834,10 +834,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
@@ -847,10 +847,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
@@ -860,10 +860,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>13</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="10">
         <v>45935.0465625</v>
@@ -899,75 +899,75 @@
         <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C19" s="10">
-        <v>45941.259837962964</v>
+        <v>45943.020914351851</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C20" s="10">
-        <v>45941.277685185189</v>
+        <v>45944.074282407404</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C21" s="10">
-        <v>45942.459050925929</v>
+        <v>45944.228055555555</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="10">
-        <v>45943.020914351851</v>
+        <v>45944.54005787037</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C23" s="10">
-        <v>45943.03466435185</v>
+        <v>45944.674907407411</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="10">
-        <v>45943.623032407406</v>
+        <v>45944.829027777778</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
@@ -980,150 +980,150 @@
         <v>54</v>
       </c>
       <c r="C25" s="10">
-        <v>45943.990763888891</v>
+        <v>45945.197604166664</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="10">
-        <v>45944.074282407404</v>
+        <v>45945.22991898148</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="10">
-        <v>45944.228055555555</v>
+        <v>45945.273923611108</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="10">
-        <v>45944.253993055558</v>
+        <v>45945.510601851849</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="10">
-        <v>45944.263796296298</v>
+        <v>45945.517974537041</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C30" s="10">
-        <v>45944.51699074074</v>
+        <v>45945.536215277774</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="10">
-        <v>45944.527499999997</v>
+        <v>45945.548738425925</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="10">
-        <v>45944.530509259261</v>
+        <v>45945.562523148146</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="10">
-        <v>45944.54005787037</v>
+        <v>45945.567685185182</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" s="10">
-        <v>45944.554016203707</v>
+        <v>45945.568148148152</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="10">
-        <v>45944.583692129629</v>
+        <v>45945.572557870371</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="10">
-        <v>45944.60528935185</v>
+        <v>45945.583333333336</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
@@ -1133,142 +1133,154 @@
         <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C37" s="10">
-        <v>45944.616377314815</v>
+        <v>45945.589571759258</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C38" s="10">
-        <v>45944.617847222224</v>
+        <v>45945.592013888891</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C39" s="10">
-        <v>45944.62395833333</v>
+        <v>45945.598043981481</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="10">
-        <v>45944.624421296299</v>
+        <v>45945.603726851848</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C41" s="10">
-        <v>45944.642442129632</v>
+        <v>45945.617673611108</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C42" s="16">
-        <v>45944.650648148148</v>
+        <v>45945.6328125</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C43" s="10">
-        <v>45944.651828703703</v>
+        <v>45945.663530092592</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C44" s="10">
-        <v>45944.674907407411</v>
+        <v>45945.68378472222</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C45" s="10">
-        <v>45944.697951388887</v>
+        <v>45945.720682870371</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="10">
-        <v>45944.771261574075</v>
+        <v>45945.729618055557</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="10"/>
+      <c r="A47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="10">
+        <v>45945.730069444442</v>
+      </c>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="10"/>
+      <c r="A48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="10">
+        <v>45945.73505787037</v>
+      </c>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>电站名称</t>
   </si>
@@ -148,76 +148,61 @@
     <t>108号直流</t>
   </si>
   <si>
-    <t>112号直流</t>
-  </si>
-  <si>
     <t>306号直流</t>
   </si>
   <si>
-    <t>B03号直流</t>
-  </si>
-  <si>
     <t>406号直流</t>
   </si>
   <si>
-    <t>B01号直流</t>
-  </si>
-  <si>
-    <t>801号直流</t>
-  </si>
-  <si>
-    <t>201号直流</t>
-  </si>
-  <si>
-    <t>203号直流</t>
-  </si>
-  <si>
     <t>904号直流</t>
   </si>
   <si>
-    <t>502号直流</t>
-  </si>
-  <si>
-    <t>110号直流</t>
-  </si>
-  <si>
     <t>902号直流</t>
   </si>
   <si>
-    <t>702号直流</t>
-  </si>
-  <si>
     <t>505号直流</t>
   </si>
   <si>
     <t>305号直流</t>
   </si>
   <si>
-    <t>104号直流</t>
-  </si>
-  <si>
-    <t>301号直流</t>
-  </si>
-  <si>
-    <t>804号直流</t>
-  </si>
-  <si>
-    <t>102号直流</t>
-  </si>
-  <si>
     <t>109号直流</t>
   </si>
   <si>
-    <t>208号直流</t>
-  </si>
-  <si>
     <t>106号直流</t>
   </si>
   <si>
     <t>107号直流</t>
   </si>
   <si>
-    <t>903号直流</t>
+    <t>603号直流</t>
+  </si>
+  <si>
+    <t>604号直流</t>
+  </si>
+  <si>
+    <t>004A号直流</t>
+  </si>
+  <si>
+    <t>703号直流</t>
+  </si>
+  <si>
+    <t>011A号直流</t>
+  </si>
+  <si>
+    <t>802号直流</t>
+  </si>
+  <si>
+    <t>401号直流</t>
+  </si>
+  <si>
+    <t>A01号直流</t>
+  </si>
+  <si>
+    <t>207号直流</t>
+  </si>
+  <si>
+    <t>206号直流</t>
   </si>
 </sst>
 </file>
@@ -644,7 +629,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -899,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="10">
         <v>45943.020914351851</v>
@@ -912,75 +897,75 @@
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="10">
-        <v>45944.074282407404</v>
+        <v>45944.674907407411</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C21" s="10">
-        <v>45944.228055555555</v>
+        <v>45945.536215277774</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="10">
-        <v>45944.54005787037</v>
+        <v>45945.603726851848</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C23" s="10">
-        <v>45944.674907407411</v>
+        <v>45946.045289351852</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="10">
-        <v>45944.829027777778</v>
+        <v>45946.1093287037</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="10">
-        <v>45945.197604166664</v>
+        <v>45946.16909722222</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
@@ -993,72 +978,72 @@
         <v>55</v>
       </c>
       <c r="C26" s="10">
-        <v>45945.22991898148</v>
+        <v>45946.185879629629</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="10">
-        <v>45945.273923611108</v>
+        <v>45946.228773148148</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="10">
-        <v>45945.510601851849</v>
+        <v>45946.245138888888</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="10">
-        <v>45945.517974537041</v>
+        <v>45946.255624999998</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C30" s="10">
-        <v>45945.536215277774</v>
+        <v>45946.297500000001</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="10">
-        <v>45945.548738425925</v>
+        <v>45946.298530092594</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
@@ -1071,7 +1056,7 @@
         <v>45</v>
       </c>
       <c r="C32" s="10">
-        <v>45945.562523148146</v>
+        <v>45946.326631944445</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
@@ -1081,75 +1066,75 @@
         <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C33" s="10">
-        <v>45945.567685185182</v>
+        <v>45946.35597222222</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C34" s="10">
-        <v>45945.568148148152</v>
+        <v>45946.411979166667</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="10">
-        <v>45945.572557870371</v>
+        <v>45946.441458333335</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C36" s="10">
-        <v>45945.583333333336</v>
+        <v>45946.510474537034</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="10">
-        <v>45945.589571759258</v>
+        <v>45946.545810185184</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C38" s="10">
-        <v>45945.592013888891</v>
+        <v>45946.547372685185</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
@@ -1162,125 +1147,89 @@
         <v>10</v>
       </c>
       <c r="C39" s="10">
-        <v>45945.598043981481</v>
+        <v>45946.549641203703</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C40" s="10">
-        <v>45945.603726851848</v>
+        <v>45946.551319444443</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C41" s="10">
-        <v>45945.617673611108</v>
+        <v>45946.554664351854</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C42" s="16">
-        <v>45945.6328125</v>
+        <v>45946.557071759256</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="10">
-        <v>45945.663530092592</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="10">
-        <v>45945.68378472222</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="10">
-        <v>45945.720682870371</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="10">
-        <v>45945.729618055557</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="10">
-        <v>45945.730069444442</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="10">
-        <v>45945.73505787037</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
     </row>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -278,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -286,7 +286,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,8 +627,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,229 +641,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>45927.457337962966</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
@@ -873,11 +904,13 @@
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>45935.0465625</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
@@ -886,11 +919,13 @@
       <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>45943.020914351851</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
@@ -899,11 +934,13 @@
       <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>45944.674907407411</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
+      <c r="D20" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
@@ -912,11 +949,13 @@
       <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>45945.536215277774</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
+      <c r="D21" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
@@ -925,11 +964,13 @@
       <c r="B22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>45945.603726851848</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
@@ -938,11 +979,13 @@
       <c r="B23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>45946.045289351852</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
+      <c r="D23" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
@@ -951,11 +994,13 @@
       <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>45946.1093287037</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
+      <c r="D24" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -964,11 +1009,13 @@
       <c r="B25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>45946.16909722222</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
+      <c r="D25" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
@@ -977,11 +1024,13 @@
       <c r="B26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>45946.185879629629</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
@@ -990,11 +1039,13 @@
       <c r="B27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>45946.228773148148</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
@@ -1003,11 +1054,13 @@
       <c r="B28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>45946.245138888888</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
+      <c r="D28" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
@@ -1016,11 +1069,13 @@
       <c r="B29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>45946.255624999998</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
+      <c r="D29" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
@@ -1029,11 +1084,13 @@
       <c r="B30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>45946.297500000001</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
+      <c r="D30" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
@@ -1042,11 +1099,13 @@
       <c r="B31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>45946.298530092594</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
+      <c r="D31" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
@@ -1055,11 +1114,13 @@
       <c r="B32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>45946.326631944445</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
+      <c r="D32" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
@@ -1068,11 +1129,13 @@
       <c r="B33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>45946.35597222222</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
+      <c r="D33" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
@@ -1081,11 +1144,13 @@
       <c r="B34" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>45946.411979166667</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
+      <c r="D34" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
@@ -1094,11 +1159,13 @@
       <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>45946.441458333335</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
+      <c r="D35" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
@@ -1107,11 +1174,13 @@
       <c r="B36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>45946.510474537034</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
+      <c r="D36" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
@@ -1120,11 +1189,13 @@
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>45946.545810185184</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
+      <c r="D37" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
@@ -1133,11 +1204,13 @@
       <c r="B38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>45946.547372685185</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
+      <c r="D38" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
@@ -1146,11 +1219,13 @@
       <c r="B39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>45946.549641203703</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
+      <c r="D39" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
@@ -1159,11 +1234,13 @@
       <c r="B40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>45946.551319444443</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
+      <c r="D40" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
@@ -1172,122 +1249,126 @@
       <c r="B41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>45946.554664351854</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
+      <c r="D41" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="15" t="s">
+      <c r="A42" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="15">
         <v>45946.557071759256</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
+      <c r="D42" s="9">
+        <v>45947.342986111114</v>
+      </c>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>电站名称</t>
   </si>
@@ -49,9 +49,6 @@
     <t>101号直流</t>
   </si>
   <si>
-    <t>602号直流</t>
-  </si>
-  <si>
     <t>004B号直流</t>
   </si>
   <si>
@@ -148,61 +145,64 @@
     <t>108号直流</t>
   </si>
   <si>
-    <t>306号直流</t>
-  </si>
-  <si>
     <t>406号直流</t>
   </si>
   <si>
-    <t>904号直流</t>
-  </si>
-  <si>
-    <t>902号直流</t>
-  </si>
-  <si>
     <t>505号直流</t>
   </si>
   <si>
-    <t>305号直流</t>
-  </si>
-  <si>
-    <t>109号直流</t>
-  </si>
-  <si>
     <t>106号直流</t>
   </si>
   <si>
     <t>107号直流</t>
   </si>
   <si>
-    <t>603号直流</t>
-  </si>
-  <si>
     <t>604号直流</t>
   </si>
   <si>
-    <t>004A号直流</t>
-  </si>
-  <si>
     <t>703号直流</t>
   </si>
   <si>
-    <t>011A号直流</t>
-  </si>
-  <si>
-    <t>802号直流</t>
-  </si>
-  <si>
-    <t>401号直流</t>
-  </si>
-  <si>
-    <t>A01号直流</t>
-  </si>
-  <si>
-    <t>207号直流</t>
-  </si>
-  <si>
-    <t>206号直流</t>
+    <t>702号直流</t>
+  </si>
+  <si>
+    <t>801号直流</t>
+  </si>
+  <si>
+    <t>705号直流</t>
+  </si>
+  <si>
+    <t>210号直流</t>
+  </si>
+  <si>
+    <t>112号直流</t>
+  </si>
+  <si>
+    <t>404号直流</t>
+  </si>
+  <si>
+    <t>110号直流</t>
+  </si>
+  <si>
+    <t>201号直流</t>
+  </si>
+  <si>
+    <t>103号直流</t>
+  </si>
+  <si>
+    <t>002A号直流</t>
+  </si>
+  <si>
+    <t>504号直流</t>
+  </si>
+  <si>
+    <t>105号直流</t>
+  </si>
+  <si>
+    <t>804号直流</t>
+  </si>
+  <si>
+    <t>307号直流</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -662,13 +662,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -677,13 +677,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -692,13 +692,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -707,13 +707,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -722,13 +722,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -737,13 +737,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -752,13 +752,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -767,13 +767,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -782,13 +782,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -797,13 +797,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="D11" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -812,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="D12" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -827,13 +827,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="D13" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -842,13 +842,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="D14" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -857,13 +857,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="D15" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -872,13 +872,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="D16" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -893,7 +893,7 @@
         <v>45927.457337962966</v>
       </c>
       <c r="D17" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -908,7 +908,7 @@
         <v>45935.0465625</v>
       </c>
       <c r="D18" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E18" s="10"/>
     </row>
@@ -917,58 +917,58 @@
         <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="9">
         <v>45943.020914351851</v>
       </c>
       <c r="D19" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20" s="9">
-        <v>45944.674907407411</v>
+        <v>45946.1093287037</v>
       </c>
       <c r="D20" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="9">
-        <v>45945.536215277774</v>
+        <v>45946.557071759256</v>
       </c>
       <c r="D21" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="9">
-        <v>45945.603726851848</v>
+        <v>45947.044814814813</v>
       </c>
       <c r="D22" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E22" s="10"/>
     </row>
@@ -977,13 +977,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="9">
-        <v>45946.045289351852</v>
+        <v>45947.176307870373</v>
       </c>
       <c r="D23" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E23" s="10"/>
     </row>
@@ -992,118 +992,118 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="9">
-        <v>45946.1093287037</v>
+        <v>45947.264085648145</v>
       </c>
       <c r="D24" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C25" s="9">
-        <v>45946.16909722222</v>
+        <v>45947.51122685185</v>
       </c>
       <c r="D25" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C26" s="9">
-        <v>45946.185879629629</v>
+        <v>45947.522094907406</v>
       </c>
       <c r="D26" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C27" s="9">
-        <v>45946.228773148148</v>
+        <v>45947.528194444443</v>
       </c>
       <c r="D27" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C28" s="9">
-        <v>45946.245138888888</v>
+        <v>45947.550729166665</v>
       </c>
       <c r="D28" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C29" s="9">
-        <v>45946.255624999998</v>
+        <v>45947.556250000001</v>
       </c>
       <c r="D29" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C30" s="9">
-        <v>45946.297500000001</v>
+        <v>45947.558437500003</v>
       </c>
       <c r="D30" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" s="9">
-        <v>45946.298530092594</v>
+        <v>45947.572592592594</v>
       </c>
       <c r="D31" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E31" s="10"/>
     </row>
@@ -1112,73 +1112,73 @@
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32" s="9">
-        <v>45946.326631944445</v>
+        <v>45947.581458333334</v>
       </c>
       <c r="D32" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C33" s="9">
-        <v>45946.35597222222</v>
+        <v>45947.581712962965</v>
       </c>
       <c r="D33" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C34" s="9">
-        <v>45946.411979166667</v>
+        <v>45947.582152777781</v>
       </c>
       <c r="D34" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C35" s="9">
-        <v>45946.441458333335</v>
+        <v>45947.587777777779</v>
       </c>
       <c r="D35" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C36" s="9">
-        <v>45946.510474537034</v>
+        <v>45947.595706018517</v>
       </c>
       <c r="D36" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E36" s="10"/>
     </row>
@@ -1187,13 +1187,13 @@
         <v>3</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="9">
-        <v>45946.545810185184</v>
+        <v>45947.598703703705</v>
       </c>
       <c r="D37" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E37" s="10"/>
     </row>
@@ -1202,74 +1202,50 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C38" s="9">
-        <v>45946.547372685185</v>
+        <v>45947.628194444442</v>
       </c>
       <c r="D38" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C39" s="9">
-        <v>45946.549641203703</v>
+        <v>45947.773923611108</v>
       </c>
       <c r="D39" s="9">
-        <v>45947.342986111114</v>
+        <v>45948.297407407408</v>
       </c>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="9">
-        <v>45946.551319444443</v>
-      </c>
-      <c r="D40" s="9">
-        <v>45947.342986111114</v>
-      </c>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="9">
-        <v>45946.554664351854</v>
-      </c>
-      <c r="D41" s="9">
-        <v>45947.342986111114</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="15">
-        <v>45946.557071759256</v>
-      </c>
-      <c r="D42" s="9">
-        <v>45947.342986111114</v>
-      </c>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>电站名称</t>
   </si>
@@ -46,9 +46,6 @@
     <t>701号直流</t>
   </si>
   <si>
-    <t>101号直流</t>
-  </si>
-  <si>
     <t>004B号直流</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>长沙市开福区高岭香江国际城充电站建设项目</t>
   </si>
   <si>
-    <t>108号直流</t>
-  </si>
-  <si>
     <t>406号直流</t>
   </si>
   <si>
@@ -154,18 +148,9 @@
     <t>106号直流</t>
   </si>
   <si>
-    <t>107号直流</t>
-  </si>
-  <si>
     <t>604号直流</t>
   </si>
   <si>
-    <t>703号直流</t>
-  </si>
-  <si>
-    <t>702号直流</t>
-  </si>
-  <si>
     <t>801号直流</t>
   </si>
   <si>
@@ -175,34 +160,85 @@
     <t>210号直流</t>
   </si>
   <si>
-    <t>112号直流</t>
-  </si>
-  <si>
-    <t>404号直流</t>
-  </si>
-  <si>
-    <t>110号直流</t>
-  </si>
-  <si>
-    <t>201号直流</t>
-  </si>
-  <si>
     <t>103号直流</t>
   </si>
   <si>
-    <t>002A号直流</t>
-  </si>
-  <si>
     <t>504号直流</t>
   </si>
   <si>
-    <t>105号直流</t>
-  </si>
-  <si>
     <t>804号直流</t>
   </si>
   <si>
-    <t>307号直流</t>
+    <t>803号直流</t>
+  </si>
+  <si>
+    <t>501号直流</t>
+  </si>
+  <si>
+    <t>603号直流</t>
+  </si>
+  <si>
+    <t>502号直流</t>
+  </si>
+  <si>
+    <t>602号直流</t>
+  </si>
+  <si>
+    <t>B01号直流</t>
+  </si>
+  <si>
+    <t>208号直流</t>
+  </si>
+  <si>
+    <t>405号直流</t>
+  </si>
+  <si>
+    <t>009B号直流</t>
+  </si>
+  <si>
+    <t>102号直流</t>
+  </si>
+  <si>
+    <t>111号直流</t>
+  </si>
+  <si>
+    <t>902号直流</t>
+  </si>
+  <si>
+    <t>011A号直流</t>
+  </si>
+  <si>
+    <t>401号直流</t>
+  </si>
+  <si>
+    <t>904号直流</t>
+  </si>
+  <si>
+    <t>305号直流</t>
+  </si>
+  <si>
+    <t>403号直流</t>
+  </si>
+  <si>
+    <t>006B号直流</t>
+  </si>
+  <si>
+    <t>206号直流</t>
+  </si>
+  <si>
+    <t>402号直流</t>
+  </si>
+  <si>
+    <t>A01号直流</t>
+  </si>
+  <si>
+    <t>203号直流</t>
+  </si>
+  <si>
+    <t>805号直流</t>
+  </si>
+  <si>
+    <t>303号直流</t>
   </si>
 </sst>
 </file>
@@ -628,7 +664,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -662,13 +698,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -677,13 +713,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -692,13 +728,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -707,13 +743,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -722,13 +758,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -737,13 +773,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -752,13 +788,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -767,13 +803,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -782,13 +818,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -797,13 +833,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -812,13 +848,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -827,13 +863,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="D13" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -842,13 +878,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="D14" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -857,13 +893,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="D15" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -872,13 +908,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="D16" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -893,52 +929,52 @@
         <v>45927.457337962966</v>
       </c>
       <c r="D17" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C18" s="9">
-        <v>45935.0465625</v>
+        <v>45947.628194444442</v>
       </c>
       <c r="D18" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C19" s="9">
-        <v>45943.020914351851</v>
+        <v>45948.036365740743</v>
       </c>
       <c r="D19" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C20" s="9">
-        <v>45946.1093287037</v>
+        <v>45948.043263888889</v>
       </c>
       <c r="D20" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E20" s="10"/>
     </row>
@@ -947,13 +983,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C21" s="9">
-        <v>45946.557071759256</v>
+        <v>45948.051631944443</v>
       </c>
       <c r="D21" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E21" s="10"/>
     </row>
@@ -962,13 +998,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C22" s="9">
-        <v>45947.044814814813</v>
+        <v>45948.208819444444</v>
       </c>
       <c r="D22" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E22" s="10"/>
     </row>
@@ -977,13 +1013,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C23" s="9">
-        <v>45947.176307870373</v>
+        <v>45948.244259259256</v>
       </c>
       <c r="D23" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E23" s="10"/>
     </row>
@@ -992,73 +1028,73 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C24" s="9">
-        <v>45947.264085648145</v>
+        <v>45948.279756944445</v>
       </c>
       <c r="D24" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C25" s="9">
-        <v>45947.51122685185</v>
+        <v>45948.362951388888</v>
       </c>
       <c r="D25" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C26" s="9">
-        <v>45947.522094907406</v>
+        <v>45948.410497685189</v>
       </c>
       <c r="D26" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C27" s="9">
-        <v>45947.528194444443</v>
+        <v>45948.420266203706</v>
       </c>
       <c r="D27" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C28" s="9">
-        <v>45947.550729166665</v>
+        <v>45948.458298611113</v>
       </c>
       <c r="D28" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E28" s="10"/>
     </row>
@@ -1067,133 +1103,133 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C29" s="9">
-        <v>45947.556250000001</v>
+        <v>45948.538113425922</v>
       </c>
       <c r="D29" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C30" s="9">
-        <v>45947.558437500003</v>
+        <v>45948.542083333334</v>
       </c>
       <c r="D30" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C31" s="9">
-        <v>45947.572592592594</v>
+        <v>45948.545277777775</v>
       </c>
       <c r="D31" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C32" s="9">
-        <v>45947.581458333334</v>
+        <v>45948.545682870368</v>
       </c>
       <c r="D32" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C33" s="9">
-        <v>45947.581712962965</v>
+        <v>45948.549988425926</v>
       </c>
       <c r="D33" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C34" s="9">
-        <v>45947.582152777781</v>
+        <v>45948.563935185186</v>
       </c>
       <c r="D34" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C35" s="9">
-        <v>45947.587777777779</v>
+        <v>45948.569212962961</v>
       </c>
       <c r="D35" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="9">
-        <v>45947.595706018517</v>
+        <v>45948.580300925925</v>
       </c>
       <c r="D36" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C37" s="9">
-        <v>45947.598703703705</v>
+        <v>45948.582905092589</v>
       </c>
       <c r="D37" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E37" s="10"/>
     </row>
@@ -1202,120 +1238,224 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C38" s="9">
-        <v>45947.628194444442</v>
+        <v>45948.597986111112</v>
       </c>
       <c r="D38" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C39" s="9">
-        <v>45947.773923611108</v>
+        <v>45948.610115740739</v>
       </c>
       <c r="D39" s="9">
-        <v>45948.297407407408</v>
+        <v>45949.321608796294</v>
       </c>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="A40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="9">
+        <v>45948.615023148152</v>
+      </c>
+      <c r="D40" s="9">
+        <v>45949.321608796294</v>
+      </c>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="A41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="9">
+        <v>45948.616979166669</v>
+      </c>
+      <c r="D41" s="9">
+        <v>45949.321608796294</v>
+      </c>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="9"/>
+      <c r="A42" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="15">
+        <v>45948.644699074073</v>
+      </c>
+      <c r="D42" s="9">
+        <v>45949.321608796294</v>
+      </c>
       <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="A43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="9">
+        <v>45948.657407407409</v>
+      </c>
+      <c r="D43" s="9">
+        <v>45949.321608796294</v>
+      </c>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="A44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="9">
+        <v>45948.662395833337</v>
+      </c>
+      <c r="D44" s="9">
+        <v>45949.321608796294</v>
+      </c>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="A45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="9">
+        <v>45948.662951388891</v>
+      </c>
+      <c r="D45" s="9">
+        <v>45949.321608796294</v>
+      </c>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="A46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="9">
+        <v>45948.698460648149</v>
+      </c>
+      <c r="D46" s="9">
+        <v>45949.321608796294</v>
+      </c>
       <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="A47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="9">
+        <v>45948.701874999999</v>
+      </c>
+      <c r="D47" s="9">
+        <v>45949.321608796294</v>
+      </c>
       <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="A48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="9">
+        <v>45948.704525462963</v>
+      </c>
+      <c r="D48" s="9">
+        <v>45949.321608796294</v>
+      </c>
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="9">
+        <v>45948.77648148148</v>
+      </c>
+      <c r="D49" s="9">
+        <v>45949.321608796294</v>
+      </c>
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="9">
+        <v>45948.792719907404</v>
+      </c>
+      <c r="D50" s="9">
+        <v>45949.321608796294</v>
+      </c>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="A51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="9">
+        <v>45948.796550925923</v>
+      </c>
+      <c r="D51" s="9">
+        <v>45949.321608796294</v>
+      </c>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="A52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="9">
+        <v>45948.802164351851</v>
+      </c>
+      <c r="D52" s="9">
+        <v>45949.321608796294</v>
+      </c>
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>电站名称</t>
   </si>
@@ -145,12 +145,6 @@
     <t>505号直流</t>
   </si>
   <si>
-    <t>106号直流</t>
-  </si>
-  <si>
-    <t>604号直流</t>
-  </si>
-  <si>
     <t>801号直流</t>
   </si>
   <si>
@@ -160,45 +154,15 @@
     <t>210号直流</t>
   </si>
   <si>
-    <t>103号直流</t>
-  </si>
-  <si>
-    <t>504号直流</t>
-  </si>
-  <si>
-    <t>804号直流</t>
-  </si>
-  <si>
     <t>803号直流</t>
   </si>
   <si>
-    <t>501号直流</t>
-  </si>
-  <si>
     <t>603号直流</t>
   </si>
   <si>
-    <t>502号直流</t>
-  </si>
-  <si>
-    <t>602号直流</t>
-  </si>
-  <si>
-    <t>B01号直流</t>
-  </si>
-  <si>
     <t>208号直流</t>
   </si>
   <si>
-    <t>405号直流</t>
-  </si>
-  <si>
-    <t>009B号直流</t>
-  </si>
-  <si>
-    <t>102号直流</t>
-  </si>
-  <si>
     <t>111号直流</t>
   </si>
   <si>
@@ -208,37 +172,46 @@
     <t>011A号直流</t>
   </si>
   <si>
-    <t>401号直流</t>
-  </si>
-  <si>
     <t>904号直流</t>
   </si>
   <si>
-    <t>305号直流</t>
-  </si>
-  <si>
-    <t>403号直流</t>
-  </si>
-  <si>
-    <t>006B号直流</t>
-  </si>
-  <si>
-    <t>206号直流</t>
-  </si>
-  <si>
-    <t>402号直流</t>
-  </si>
-  <si>
-    <t>A01号直流</t>
-  </si>
-  <si>
-    <t>203号直流</t>
-  </si>
-  <si>
     <t>805号直流</t>
   </si>
   <si>
-    <t>303号直流</t>
+    <t>001A号直流</t>
+  </si>
+  <si>
+    <t>004A号直流</t>
+  </si>
+  <si>
+    <t>104号直流</t>
+  </si>
+  <si>
+    <t>802号直流</t>
+  </si>
+  <si>
+    <t>112号直流</t>
+  </si>
+  <si>
+    <t>704号直流</t>
+  </si>
+  <si>
+    <t>110号直流</t>
+  </si>
+  <si>
+    <t>205号直流</t>
+  </si>
+  <si>
+    <t>105号直流</t>
+  </si>
+  <si>
+    <t>204号直流</t>
+  </si>
+  <si>
+    <t>702号直流</t>
+  </si>
+  <si>
+    <t>005A号直流</t>
   </si>
 </sst>
 </file>
@@ -664,7 +637,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -704,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -719,7 +692,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -734,7 +707,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -749,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -764,7 +737,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -779,7 +752,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -794,7 +767,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -809,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -824,7 +797,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -839,7 +812,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -854,7 +827,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -869,7 +842,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -884,7 +857,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -899,7 +872,7 @@
         <v>38</v>
       </c>
       <c r="D15" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -914,7 +887,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -929,7 +902,7 @@
         <v>45927.457337962966</v>
       </c>
       <c r="D17" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -938,13 +911,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" s="9">
-        <v>45947.628194444442</v>
+        <v>45948.051631944443</v>
       </c>
       <c r="D18" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E18" s="10"/>
     </row>
@@ -953,43 +926,43 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C19" s="9">
-        <v>45948.036365740743</v>
+        <v>45948.362951388888</v>
       </c>
       <c r="D19" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C20" s="9">
-        <v>45948.043263888889</v>
+        <v>45948.410497685189</v>
       </c>
       <c r="D20" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C21" s="9">
-        <v>45948.051631944443</v>
+        <v>45948.549988425926</v>
       </c>
       <c r="D21" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E21" s="10"/>
     </row>
@@ -998,28 +971,28 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="9">
-        <v>45948.208819444444</v>
+        <v>45948.563935185186</v>
       </c>
       <c r="D22" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" s="9">
-        <v>45948.244259259256</v>
+        <v>45948.582905092589</v>
       </c>
       <c r="D23" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E23" s="10"/>
     </row>
@@ -1028,43 +1001,43 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C24" s="9">
-        <v>45948.279756944445</v>
+        <v>45948.792719907404</v>
       </c>
       <c r="D24" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C25" s="9">
-        <v>45948.362951388888</v>
+        <v>45949.02648148148</v>
       </c>
       <c r="D25" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C26" s="9">
-        <v>45948.410497685189</v>
+        <v>45949.033379629633</v>
       </c>
       <c r="D26" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E26" s="10"/>
     </row>
@@ -1073,88 +1046,88 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="9">
-        <v>45948.420266203706</v>
+        <v>45949.101643518516</v>
       </c>
       <c r="D27" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C28" s="9">
-        <v>45948.458298611113</v>
+        <v>45949.187372685185</v>
       </c>
       <c r="D28" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="9">
-        <v>45948.538113425922</v>
+        <v>45949.544594907406</v>
       </c>
       <c r="D29" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="9">
-        <v>45948.542083333334</v>
+        <v>45949.55395833333</v>
       </c>
       <c r="D30" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C31" s="9">
-        <v>45948.545277777775</v>
+        <v>45949.579710648148</v>
       </c>
       <c r="D31" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C32" s="9">
-        <v>45948.545682870368</v>
+        <v>45949.584976851853</v>
       </c>
       <c r="D32" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E32" s="10"/>
     </row>
@@ -1163,28 +1136,28 @@
         <v>39</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="9">
-        <v>45948.549988425926</v>
+        <v>45949.610925925925</v>
       </c>
       <c r="D33" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C34" s="9">
-        <v>45948.563935185186</v>
+        <v>45949.623159722221</v>
       </c>
       <c r="D34" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E34" s="10"/>
     </row>
@@ -1193,28 +1166,28 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C35" s="9">
-        <v>45948.569212962961</v>
+        <v>45949.633668981478</v>
       </c>
       <c r="D35" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C36" s="9">
-        <v>45948.580300925925</v>
+        <v>45949.639872685184</v>
       </c>
       <c r="D36" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E36" s="10"/>
     </row>
@@ -1223,43 +1196,43 @@
         <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C37" s="9">
-        <v>45948.582905092589</v>
+        <v>45949.642638888887</v>
       </c>
       <c r="D37" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C38" s="9">
-        <v>45948.597986111112</v>
+        <v>45949.643368055556</v>
       </c>
       <c r="D38" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="9">
-        <v>45948.610115740739</v>
+        <v>45949.646909722222</v>
       </c>
       <c r="D39" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E39" s="10"/>
     </row>
@@ -1268,194 +1241,114 @@
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C40" s="9">
-        <v>45948.615023148152</v>
+        <v>45949.727453703701</v>
       </c>
       <c r="D40" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="9">
-        <v>45948.616979166669</v>
+        <v>45949.743402777778</v>
       </c>
       <c r="D41" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C42" s="15">
-        <v>45948.644699074073</v>
+        <v>45949.766574074078</v>
       </c>
       <c r="D42" s="9">
-        <v>45949.321608796294</v>
+        <v>45950.305879629632</v>
       </c>
       <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="9">
-        <v>45948.657407407409</v>
-      </c>
-      <c r="D43" s="9">
-        <v>45949.321608796294</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="9">
-        <v>45948.662395833337</v>
-      </c>
-      <c r="D44" s="9">
-        <v>45949.321608796294</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="9">
-        <v>45948.662951388891</v>
-      </c>
-      <c r="D45" s="9">
-        <v>45949.321608796294</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="9">
-        <v>45948.698460648149</v>
-      </c>
-      <c r="D46" s="9">
-        <v>45949.321608796294</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="9">
-        <v>45948.701874999999</v>
-      </c>
-      <c r="D47" s="9">
-        <v>45949.321608796294</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="9">
-        <v>45948.704525462963</v>
-      </c>
-      <c r="D48" s="9">
-        <v>45949.321608796294</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="9">
-        <v>45948.77648148148</v>
-      </c>
-      <c r="D49" s="9">
-        <v>45949.321608796294</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="9">
-        <v>45948.792719907404</v>
-      </c>
-      <c r="D50" s="9">
-        <v>45949.321608796294</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="9">
-        <v>45948.796550925923</v>
-      </c>
-      <c r="D51" s="9">
-        <v>45949.321608796294</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="9">
-        <v>45948.802164351851</v>
-      </c>
-      <c r="D52" s="9">
-        <v>45949.321608796294</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>电站名称</t>
   </si>
@@ -145,73 +145,67 @@
     <t>505号直流</t>
   </si>
   <si>
-    <t>801号直流</t>
-  </si>
-  <si>
-    <t>705号直流</t>
-  </si>
-  <si>
-    <t>210号直流</t>
-  </si>
-  <si>
-    <t>803号直流</t>
-  </si>
-  <si>
     <t>603号直流</t>
   </si>
   <si>
-    <t>208号直流</t>
-  </si>
-  <si>
-    <t>111号直流</t>
-  </si>
-  <si>
     <t>902号直流</t>
   </si>
   <si>
-    <t>011A号直流</t>
-  </si>
-  <si>
-    <t>904号直流</t>
-  </si>
-  <si>
-    <t>805号直流</t>
-  </si>
-  <si>
-    <t>001A号直流</t>
-  </si>
-  <si>
-    <t>004A号直流</t>
-  </si>
-  <si>
-    <t>104号直流</t>
-  </si>
-  <si>
-    <t>802号直流</t>
-  </si>
-  <si>
-    <t>112号直流</t>
-  </si>
-  <si>
-    <t>704号直流</t>
-  </si>
-  <si>
-    <t>110号直流</t>
-  </si>
-  <si>
-    <t>205号直流</t>
-  </si>
-  <si>
     <t>105号直流</t>
   </si>
   <si>
-    <t>204号直流</t>
-  </si>
-  <si>
-    <t>702号直流</t>
-  </si>
-  <si>
-    <t>005A号直流</t>
+    <t>903号直流</t>
+  </si>
+  <si>
+    <t>306号直流</t>
+  </si>
+  <si>
+    <t>201号直流</t>
+  </si>
+  <si>
+    <t>405号直流</t>
+  </si>
+  <si>
+    <t>109号直流</t>
+  </si>
+  <si>
+    <t>002A号直流</t>
+  </si>
+  <si>
+    <t>101号直流</t>
+  </si>
+  <si>
+    <t>402号直流</t>
+  </si>
+  <si>
+    <t>905号直流</t>
+  </si>
+  <si>
+    <t>107号直流</t>
+  </si>
+  <si>
+    <t>304号直流</t>
+  </si>
+  <si>
+    <t>203号直流</t>
+  </si>
+  <si>
+    <t>202号直流</t>
+  </si>
+  <si>
+    <t>102号直流</t>
+  </si>
+  <si>
+    <t>310号直流</t>
+  </si>
+  <si>
+    <t>501号直流</t>
+  </si>
+  <si>
+    <t>103号直流</t>
+  </si>
+  <si>
+    <t>002B号直流</t>
   </si>
 </sst>
 </file>
@@ -637,7 +631,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -677,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -692,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -707,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -722,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -737,7 +731,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -752,7 +746,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -767,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -782,7 +776,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -797,7 +791,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -812,7 +806,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -827,7 +821,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -842,7 +836,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -857,7 +851,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -872,7 +866,7 @@
         <v>38</v>
       </c>
       <c r="D15" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -887,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -902,22 +896,22 @@
         <v>45927.457337962966</v>
       </c>
       <c r="D17" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C18" s="9">
-        <v>45948.051631944443</v>
+        <v>45949.623159722221</v>
       </c>
       <c r="D18" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E18" s="10"/>
     </row>
@@ -926,43 +920,43 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C19" s="9">
-        <v>45948.362951388888</v>
+        <v>45950.249791666669</v>
       </c>
       <c r="D19" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C20" s="9">
-        <v>45948.410497685189</v>
+        <v>45950.272002314814</v>
       </c>
       <c r="D20" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="9">
-        <v>45948.549988425926</v>
+        <v>45950.436400462961</v>
       </c>
       <c r="D21" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E21" s="10"/>
     </row>
@@ -971,28 +965,28 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C22" s="9">
-        <v>45948.563935185186</v>
+        <v>45950.523645833331</v>
       </c>
       <c r="D22" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="9">
-        <v>45948.582905092589</v>
+        <v>45950.545925925922</v>
       </c>
       <c r="D23" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E23" s="10"/>
     </row>
@@ -1001,28 +995,28 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="9">
-        <v>45948.792719907404</v>
+        <v>45950.54991898148</v>
       </c>
       <c r="D24" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C25" s="9">
-        <v>45949.02648148148</v>
+        <v>45950.557083333333</v>
       </c>
       <c r="D25" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E25" s="10"/>
     </row>
@@ -1031,118 +1025,118 @@
         <v>4</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C26" s="9">
-        <v>45949.033379629633</v>
+        <v>45950.560543981483</v>
       </c>
       <c r="D26" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C27" s="9">
-        <v>45949.101643518516</v>
+        <v>45950.574606481481</v>
       </c>
       <c r="D27" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C28" s="9">
-        <v>45949.187372685185</v>
+        <v>45950.574618055558</v>
       </c>
       <c r="D28" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C29" s="9">
-        <v>45949.544594907406</v>
+        <v>45950.593113425923</v>
       </c>
       <c r="D29" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C30" s="9">
-        <v>45949.55395833333</v>
+        <v>45950.595810185187</v>
       </c>
       <c r="D30" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C31" s="9">
-        <v>45949.579710648148</v>
+        <v>45950.603229166663</v>
       </c>
       <c r="D31" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C32" s="9">
-        <v>45949.584976851853</v>
+        <v>45950.605254629627</v>
       </c>
       <c r="D32" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C33" s="9">
-        <v>45949.610925925925</v>
+        <v>45950.628530092596</v>
       </c>
       <c r="D33" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E33" s="10"/>
     </row>
@@ -1151,13 +1145,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C34" s="9">
-        <v>45949.623159722221</v>
+        <v>45950.655092592591</v>
       </c>
       <c r="D34" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E34" s="10"/>
     </row>
@@ -1166,119 +1160,103 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C35" s="9">
-        <v>45949.633668981478</v>
+        <v>45950.672453703701</v>
       </c>
       <c r="D35" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C36" s="9">
-        <v>45949.639872685184</v>
+        <v>45950.700289351851</v>
       </c>
       <c r="D36" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C37" s="9">
-        <v>45949.642638888887</v>
+        <v>45950.730486111112</v>
       </c>
       <c r="D37" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C38" s="9">
-        <v>45949.643368055556</v>
+        <v>45950.736122685186</v>
       </c>
       <c r="D38" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="9">
-        <v>45949.646909722222</v>
+        <v>45950.76898148148</v>
       </c>
       <c r="D39" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="9">
-        <v>45949.727453703701</v>
+        <v>45950.77039351852</v>
       </c>
       <c r="D40" s="9">
-        <v>45950.305879629632</v>
+        <v>45951.305277777778</v>
       </c>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="9">
-        <v>45949.743402777778</v>
-      </c>
-      <c r="D41" s="9">
-        <v>45950.305879629632</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="15">
-        <v>45949.766574074078</v>
-      </c>
-      <c r="D42" s="9">
-        <v>45950.305879629632</v>
-      </c>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -10,14 +10,14 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$E$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$E$71</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
   <si>
     <t>电站名称</t>
   </si>
@@ -142,51 +142,30 @@
     <t>406号直流</t>
   </si>
   <si>
-    <t>505号直流</t>
-  </si>
-  <si>
     <t>603号直流</t>
   </si>
   <si>
-    <t>902号直流</t>
-  </si>
-  <si>
     <t>105号直流</t>
   </si>
   <si>
     <t>903号直流</t>
   </si>
   <si>
-    <t>306号直流</t>
-  </si>
-  <si>
     <t>201号直流</t>
   </si>
   <si>
     <t>405号直流</t>
   </si>
   <si>
-    <t>109号直流</t>
-  </si>
-  <si>
-    <t>002A号直流</t>
-  </si>
-  <si>
     <t>101号直流</t>
   </si>
   <si>
     <t>402号直流</t>
   </si>
   <si>
-    <t>905号直流</t>
-  </si>
-  <si>
     <t>107号直流</t>
   </si>
   <si>
-    <t>304号直流</t>
-  </si>
-  <si>
     <t>203号直流</t>
   </si>
   <si>
@@ -196,9 +175,6 @@
     <t>102号直流</t>
   </si>
   <si>
-    <t>310号直流</t>
-  </si>
-  <si>
     <t>501号直流</t>
   </si>
   <si>
@@ -206,6 +182,69 @@
   </si>
   <si>
     <t>002B号直流</t>
+  </si>
+  <si>
+    <t>604号直流</t>
+  </si>
+  <si>
+    <t>602号直流</t>
+  </si>
+  <si>
+    <t>108号直流</t>
+  </si>
+  <si>
+    <t>502号直流</t>
+  </si>
+  <si>
+    <t>003B号直流</t>
+  </si>
+  <si>
+    <t>001B号直流</t>
+  </si>
+  <si>
+    <t>A05号直流</t>
+  </si>
+  <si>
+    <t>803号直流</t>
+  </si>
+  <si>
+    <t>006B号直流</t>
+  </si>
+  <si>
+    <t>805号直流</t>
+  </si>
+  <si>
+    <t>904号直流</t>
+  </si>
+  <si>
+    <t>801号直流</t>
+  </si>
+  <si>
+    <t>204号直流</t>
+  </si>
+  <si>
+    <t>206号直流</t>
+  </si>
+  <si>
+    <t>110号直流</t>
+  </si>
+  <si>
+    <t>208号直流</t>
+  </si>
+  <si>
+    <t>A02号直流</t>
+  </si>
+  <si>
+    <t>305号直流</t>
+  </si>
+  <si>
+    <t>307号直流</t>
+  </si>
+  <si>
+    <t>009A号直流</t>
+  </si>
+  <si>
+    <t>207号直流</t>
   </si>
 </sst>
 </file>
@@ -628,10 +667,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -671,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -686,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -701,7 +740,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -716,7 +755,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -731,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -746,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -761,7 +800,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -776,7 +815,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -791,7 +830,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -806,7 +845,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -821,7 +860,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -836,7 +875,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -851,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -866,7 +905,7 @@
         <v>38</v>
       </c>
       <c r="D15" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -881,7 +920,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -896,22 +935,22 @@
         <v>45927.457337962966</v>
       </c>
       <c r="D17" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" s="9">
-        <v>45949.623159722221</v>
+        <v>45950.249791666669</v>
       </c>
       <c r="D18" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E18" s="10"/>
     </row>
@@ -920,13 +959,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C19" s="9">
-        <v>45950.249791666669</v>
+        <v>45950.523645833331</v>
       </c>
       <c r="D19" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E19" s="10"/>
     </row>
@@ -938,40 +977,40 @@
         <v>46</v>
       </c>
       <c r="C20" s="9">
-        <v>45950.272002314814</v>
+        <v>45950.574606481481</v>
       </c>
       <c r="D20" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C21" s="9">
-        <v>45950.436400462961</v>
+        <v>45950.736122685186</v>
       </c>
       <c r="D21" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C22" s="9">
-        <v>45950.523645833331</v>
+        <v>45950.933622685188</v>
       </c>
       <c r="D22" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E22" s="10"/>
     </row>
@@ -980,13 +1019,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C23" s="9">
-        <v>45950.545925925922</v>
+        <v>45951.037129629629</v>
       </c>
       <c r="D23" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E23" s="10"/>
     </row>
@@ -995,13 +1034,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C24" s="9">
-        <v>45950.54991898148</v>
+        <v>45951.042326388888</v>
       </c>
       <c r="D24" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E24" s="10"/>
     </row>
@@ -1010,43 +1049,43 @@
         <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C25" s="9">
-        <v>45950.557083333333</v>
+        <v>45951.052083333336</v>
       </c>
       <c r="D25" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C26" s="9">
-        <v>45950.560543981483</v>
+        <v>45951.226111111115</v>
       </c>
       <c r="D26" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C27" s="9">
-        <v>45950.574606481481</v>
+        <v>45951.234652777777</v>
       </c>
       <c r="D27" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -1055,307 +1094,465 @@
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C28" s="9">
-        <v>45950.574618055558</v>
+        <v>45951.238263888888</v>
       </c>
       <c r="D28" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C29" s="9">
-        <v>45950.593113425923</v>
+        <v>45951.249467592592</v>
       </c>
       <c r="D29" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C30" s="9">
-        <v>45950.595810185187</v>
+        <v>45951.406805555554</v>
       </c>
       <c r="D30" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C31" s="9">
-        <v>45950.603229166663</v>
+        <v>45951.417141203703</v>
       </c>
       <c r="D31" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C32" s="9">
-        <v>45950.605254629627</v>
+        <v>45951.506018518521</v>
       </c>
       <c r="D32" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C33" s="9">
-        <v>45950.628530092596</v>
+        <v>45951.511516203704</v>
       </c>
       <c r="D33" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C34" s="9">
-        <v>45950.655092592591</v>
+        <v>45951.525034722225</v>
       </c>
       <c r="D34" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C35" s="9">
-        <v>45950.672453703701</v>
+        <v>45951.531585648147</v>
       </c>
       <c r="D35" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C36" s="9">
-        <v>45950.700289351851</v>
+        <v>45951.532511574071</v>
       </c>
       <c r="D36" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C37" s="9">
-        <v>45950.730486111112</v>
+        <v>45951.533263888887</v>
       </c>
       <c r="D37" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C38" s="9">
-        <v>45950.736122685186</v>
+        <v>45951.534178240741</v>
       </c>
       <c r="D38" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C39" s="9">
-        <v>45950.76898148148</v>
+        <v>45951.538611111115</v>
       </c>
       <c r="D39" s="9">
-        <v>45951.305277777778</v>
+        <v>45952.318298611113</v>
       </c>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="9">
+        <v>45951.540775462963</v>
+      </c>
+      <c r="D40" s="9">
+        <v>45952.318298611113</v>
+      </c>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="9">
+        <v>45951.553379629629</v>
+      </c>
+      <c r="D41" s="9">
+        <v>45952.318298611113</v>
+      </c>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="15">
+        <v>45951.559884259259</v>
+      </c>
+      <c r="D42" s="9">
+        <v>45952.318298611113</v>
+      </c>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="9">
-        <v>45950.77039351852</v>
-      </c>
-      <c r="D40" s="9">
-        <v>45951.305277777778</v>
-      </c>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="B43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="9">
+        <v>45951.562592592592</v>
+      </c>
+      <c r="D43" s="9">
+        <v>45952.318298611113</v>
+      </c>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="A44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="9">
+        <v>45951.563819444447</v>
+      </c>
+      <c r="D44" s="9">
+        <v>45952.318298611113</v>
+      </c>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="A45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="9">
+        <v>45951.56621527778</v>
+      </c>
+      <c r="D45" s="9">
+        <v>45952.318298611113</v>
+      </c>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="A46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="9">
+        <v>45951.582453703704</v>
+      </c>
+      <c r="D46" s="9">
+        <v>45952.318298611113</v>
+      </c>
       <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="A47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="9">
+        <v>45951.594502314816</v>
+      </c>
+      <c r="D47" s="9">
+        <v>45952.318298611113</v>
+      </c>
       <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="A48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="9">
+        <v>45951.595277777778</v>
+      </c>
+      <c r="D48" s="9">
+        <v>45952.318298611113</v>
+      </c>
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="9">
+        <v>45951.602500000001</v>
+      </c>
+      <c r="D49" s="9">
+        <v>45952.318298611113</v>
+      </c>
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="9">
+        <v>45951.607037037036</v>
+      </c>
+      <c r="D50" s="9">
+        <v>45952.318298611113</v>
+      </c>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="A51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="9">
+        <v>45951.62295138889</v>
+      </c>
+      <c r="D51" s="9">
+        <v>45952.318298611113</v>
+      </c>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="A52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="9">
+        <v>45951.667118055557</v>
+      </c>
+      <c r="D52" s="9">
+        <v>45952.318298611113</v>
+      </c>
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="A53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="9">
+        <v>45951.669664351852</v>
+      </c>
+      <c r="D53" s="9">
+        <v>45952.318298611113</v>
+      </c>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="A54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="9">
+        <v>45951.669745370367</v>
+      </c>
+      <c r="D54" s="9">
+        <v>45952.318298611113</v>
+      </c>
       <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="A55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="9">
+        <v>45951.694918981484</v>
+      </c>
+      <c r="D55" s="9">
+        <v>45952.318298611113</v>
+      </c>
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="A56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="9">
+        <v>45951.698576388888</v>
+      </c>
+      <c r="D56" s="9">
+        <v>45952.318298611113</v>
+      </c>
       <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="9">
+        <v>45951.713136574072</v>
+      </c>
+      <c r="D57" s="9">
+        <v>45952.318298611113</v>
+      </c>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="9">
+        <v>45951.804074074076</v>
+      </c>
+      <c r="D58" s="9">
+        <v>45952.318298611113</v>
+      </c>
+      <c r="E58" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>电站名称</t>
   </si>
@@ -145,30 +145,15 @@
     <t>603号直流</t>
   </si>
   <si>
-    <t>105号直流</t>
-  </si>
-  <si>
     <t>903号直流</t>
   </si>
   <si>
     <t>201号直流</t>
   </si>
   <si>
-    <t>405号直流</t>
-  </si>
-  <si>
     <t>101号直流</t>
   </si>
   <si>
-    <t>402号直流</t>
-  </si>
-  <si>
-    <t>107号直流</t>
-  </si>
-  <si>
-    <t>203号直流</t>
-  </si>
-  <si>
     <t>202号直流</t>
   </si>
   <si>
@@ -181,48 +166,15 @@
     <t>103号直流</t>
   </si>
   <si>
-    <t>002B号直流</t>
-  </si>
-  <si>
-    <t>604号直流</t>
-  </si>
-  <si>
     <t>602号直流</t>
   </si>
   <si>
-    <t>108号直流</t>
-  </si>
-  <si>
     <t>502号直流</t>
   </si>
   <si>
-    <t>003B号直流</t>
-  </si>
-  <si>
-    <t>001B号直流</t>
-  </si>
-  <si>
-    <t>A05号直流</t>
-  </si>
-  <si>
-    <t>803号直流</t>
-  </si>
-  <si>
-    <t>006B号直流</t>
-  </si>
-  <si>
-    <t>805号直流</t>
-  </si>
-  <si>
     <t>904号直流</t>
   </si>
   <si>
-    <t>801号直流</t>
-  </si>
-  <si>
-    <t>204号直流</t>
-  </si>
-  <si>
     <t>206号直流</t>
   </si>
   <si>
@@ -232,19 +184,49 @@
     <t>208号直流</t>
   </si>
   <si>
-    <t>A02号直流</t>
-  </si>
-  <si>
-    <t>305号直流</t>
-  </si>
-  <si>
-    <t>307号直流</t>
-  </si>
-  <si>
-    <t>009A号直流</t>
-  </si>
-  <si>
-    <t>207号直流</t>
+    <t>104号直流</t>
+  </si>
+  <si>
+    <t>306号直流</t>
+  </si>
+  <si>
+    <t>401号直流</t>
+  </si>
+  <si>
+    <t>702号直流</t>
+  </si>
+  <si>
+    <t>901号直流</t>
+  </si>
+  <si>
+    <t>210号直流</t>
+  </si>
+  <si>
+    <t>A01号直流</t>
+  </si>
+  <si>
+    <t>106号直流</t>
+  </si>
+  <si>
+    <t>503号直流</t>
+  </si>
+  <si>
+    <t>403号直流</t>
+  </si>
+  <si>
+    <t>312号直流</t>
+  </si>
+  <si>
+    <t>301号直流</t>
+  </si>
+  <si>
+    <t>304号直流</t>
+  </si>
+  <si>
+    <t>B04号直流</t>
+  </si>
+  <si>
+    <t>111号直流</t>
   </si>
 </sst>
 </file>
@@ -670,7 +652,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -710,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -725,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -740,7 +722,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -755,7 +737,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -770,7 +752,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -785,7 +767,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -800,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -815,7 +797,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -830,7 +812,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -845,7 +827,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -860,7 +842,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -875,7 +857,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -890,7 +872,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -905,7 +887,7 @@
         <v>38</v>
       </c>
       <c r="D15" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -920,7 +902,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -935,7 +917,7 @@
         <v>45927.457337962966</v>
       </c>
       <c r="D17" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -944,163 +926,163 @@
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="9">
-        <v>45950.249791666669</v>
+        <v>45950.523645833331</v>
       </c>
       <c r="D18" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C19" s="9">
-        <v>45950.523645833331</v>
+        <v>45950.574606481481</v>
       </c>
       <c r="D19" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="9">
-        <v>45950.574606481481</v>
+        <v>45950.736122685186</v>
       </c>
       <c r="D20" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="9">
-        <v>45950.736122685186</v>
+        <v>45951.042326388888</v>
       </c>
       <c r="D21" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="9">
-        <v>45950.933622685188</v>
+        <v>45951.226111111115</v>
       </c>
       <c r="D22" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C23" s="9">
-        <v>45951.037129629629</v>
+        <v>45951.540775462963</v>
       </c>
       <c r="D23" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C24" s="9">
-        <v>45951.042326388888</v>
+        <v>45951.62295138889</v>
       </c>
       <c r="D24" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="9">
-        <v>45951.052083333336</v>
+        <v>45952.059756944444</v>
       </c>
       <c r="D25" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="9">
-        <v>45951.226111111115</v>
+        <v>45952.066192129627</v>
       </c>
       <c r="D26" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="9">
-        <v>45951.234652777777</v>
+        <v>45952.110937500001</v>
       </c>
       <c r="D27" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C28" s="9">
-        <v>45951.238263888888</v>
+        <v>45952.248090277775</v>
       </c>
       <c r="D28" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E28" s="10"/>
     </row>
@@ -1109,103 +1091,103 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C29" s="9">
-        <v>45951.249467592592</v>
+        <v>45952.248715277776</v>
       </c>
       <c r="D29" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C30" s="9">
-        <v>45951.406805555554</v>
+        <v>45952.250949074078</v>
       </c>
       <c r="D30" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="9">
-        <v>45951.417141203703</v>
+        <v>45952.303078703706</v>
       </c>
       <c r="D31" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C32" s="9">
-        <v>45951.506018518521</v>
+        <v>45952.398726851854</v>
       </c>
       <c r="D32" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="9">
-        <v>45951.511516203704</v>
+        <v>45952.478333333333</v>
       </c>
       <c r="D33" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C34" s="9">
-        <v>45951.525034722225</v>
+        <v>45952.525138888886</v>
       </c>
       <c r="D34" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C35" s="9">
-        <v>45951.531585648147</v>
+        <v>45952.540023148147</v>
       </c>
       <c r="D35" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E35" s="10"/>
     </row>
@@ -1214,178 +1196,178 @@
         <v>39</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C36" s="9">
-        <v>45951.532511574071</v>
+        <v>45952.551782407405</v>
       </c>
       <c r="D36" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C37" s="9">
-        <v>45951.533263888887</v>
+        <v>45952.557546296295</v>
       </c>
       <c r="D37" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C38" s="9">
-        <v>45951.534178240741</v>
+        <v>45952.564340277779</v>
       </c>
       <c r="D38" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C39" s="9">
-        <v>45951.538611111115</v>
+        <v>45952.571180555555</v>
       </c>
       <c r="D39" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C40" s="9">
-        <v>45951.540775462963</v>
+        <v>45952.577430555553</v>
       </c>
       <c r="D40" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C41" s="9">
-        <v>45951.553379629629</v>
+        <v>45952.582638888889</v>
       </c>
       <c r="D41" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C42" s="15">
-        <v>45951.559884259259</v>
+        <v>45952.585428240738</v>
       </c>
       <c r="D42" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C43" s="9">
-        <v>45951.562592592592</v>
+        <v>45952.625532407408</v>
       </c>
       <c r="D43" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C44" s="9">
-        <v>45951.563819444447</v>
+        <v>45952.627812500003</v>
       </c>
       <c r="D44" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C45" s="9">
-        <v>45951.56621527778</v>
+        <v>45952.653726851851</v>
       </c>
       <c r="D45" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C46" s="9">
-        <v>45951.582453703704</v>
+        <v>45952.658252314817</v>
       </c>
       <c r="D46" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C47" s="9">
-        <v>45951.594502314816</v>
+        <v>45952.670949074076</v>
       </c>
       <c r="D47" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E47" s="10"/>
     </row>
@@ -1394,13 +1376,13 @@
         <v>39</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C48" s="9">
-        <v>45951.595277777778</v>
+        <v>45952.672708333332</v>
       </c>
       <c r="D48" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E48" s="10"/>
     </row>
@@ -1409,13 +1391,13 @@
         <v>39</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C49" s="9">
-        <v>45951.602500000001</v>
+        <v>45952.681574074071</v>
       </c>
       <c r="D49" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E49" s="10"/>
     </row>
@@ -1424,28 +1406,28 @@
         <v>4</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C50" s="9">
-        <v>45951.607037037036</v>
+        <v>45952.68204861111</v>
       </c>
       <c r="D50" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="9">
-        <v>45951.62295138889</v>
+        <v>45952.69321759259</v>
       </c>
       <c r="D51" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E51" s="10"/>
     </row>
@@ -1454,104 +1436,64 @@
         <v>39</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C52" s="9">
-        <v>45951.667118055557</v>
+        <v>45952.695925925924</v>
       </c>
       <c r="D52" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C53" s="9">
-        <v>45951.669664351852</v>
+        <v>45952.780150462961</v>
       </c>
       <c r="D53" s="9">
-        <v>45952.318298611113</v>
+        <v>45953.287164351852</v>
       </c>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="9">
-        <v>45951.669745370367</v>
-      </c>
-      <c r="D54" s="9">
-        <v>45952.318298611113</v>
-      </c>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="9">
-        <v>45951.694918981484</v>
-      </c>
-      <c r="D55" s="9">
-        <v>45952.318298611113</v>
-      </c>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="9">
-        <v>45951.698576388888</v>
-      </c>
-      <c r="D56" s="9">
-        <v>45952.318298611113</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="9">
-        <v>45951.713136574072</v>
-      </c>
-      <c r="D57" s="9">
-        <v>45952.318298611113</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="9">
-        <v>45951.804074074076</v>
-      </c>
-      <c r="D58" s="9">
-        <v>45952.318298611113</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="5"/>
     </row>
   </sheetData>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>电站名称</t>
   </si>
@@ -148,21 +148,12 @@
     <t>903号直流</t>
   </si>
   <si>
-    <t>201号直流</t>
-  </si>
-  <si>
-    <t>101号直流</t>
-  </si>
-  <si>
     <t>202号直流</t>
   </si>
   <si>
     <t>102号直流</t>
   </si>
   <si>
-    <t>501号直流</t>
-  </si>
-  <si>
     <t>103号直流</t>
   </si>
   <si>
@@ -178,27 +169,12 @@
     <t>206号直流</t>
   </si>
   <si>
-    <t>110号直流</t>
-  </si>
-  <si>
     <t>208号直流</t>
   </si>
   <si>
-    <t>104号直流</t>
-  </si>
-  <si>
-    <t>306号直流</t>
-  </si>
-  <si>
-    <t>401号直流</t>
-  </si>
-  <si>
     <t>702号直流</t>
   </si>
   <si>
-    <t>901号直流</t>
-  </si>
-  <si>
     <t>210号直流</t>
   </si>
   <si>
@@ -211,22 +187,43 @@
     <t>503号直流</t>
   </si>
   <si>
-    <t>403号直流</t>
-  </si>
-  <si>
     <t>312号直流</t>
   </si>
   <si>
-    <t>301号直流</t>
-  </si>
-  <si>
     <t>304号直流</t>
   </si>
   <si>
-    <t>B04号直流</t>
-  </si>
-  <si>
-    <t>111号直流</t>
+    <t>105号直流</t>
+  </si>
+  <si>
+    <t>803号直流</t>
+  </si>
+  <si>
+    <t>207号直流</t>
+  </si>
+  <si>
+    <t>203号直流</t>
+  </si>
+  <si>
+    <t>505号直流</t>
+  </si>
+  <si>
+    <t>112号直流</t>
+  </si>
+  <si>
+    <t>402号直流</t>
+  </si>
+  <si>
+    <t>404号直流</t>
+  </si>
+  <si>
+    <t>108号直流</t>
+  </si>
+  <si>
+    <t>211号直流</t>
+  </si>
+  <si>
+    <t>804号直流</t>
   </si>
 </sst>
 </file>
@@ -652,7 +649,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -692,7 +689,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -707,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -722,7 +719,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -737,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -752,7 +749,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -767,7 +764,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -782,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -797,7 +794,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -812,7 +809,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -827,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -842,7 +839,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -857,7 +854,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -872,7 +869,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -887,7 +884,7 @@
         <v>38</v>
       </c>
       <c r="D15" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -902,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -917,7 +914,7 @@
         <v>45927.457337962966</v>
       </c>
       <c r="D17" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -932,52 +929,52 @@
         <v>45950.523645833331</v>
       </c>
       <c r="D18" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C19" s="9">
-        <v>45950.574606481481</v>
+        <v>45951.226111111115</v>
       </c>
       <c r="D19" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="9">
-        <v>45950.736122685186</v>
+        <v>45952.248090277775</v>
       </c>
       <c r="D20" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C21" s="9">
-        <v>45951.042326388888</v>
+        <v>45952.398726851854</v>
       </c>
       <c r="D21" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E21" s="10"/>
     </row>
@@ -986,103 +983,103 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C22" s="9">
-        <v>45951.226111111115</v>
+        <v>45952.478333333333</v>
       </c>
       <c r="D22" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C23" s="9">
-        <v>45951.540775462963</v>
+        <v>45952.625532407408</v>
       </c>
       <c r="D23" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C24" s="9">
-        <v>45951.62295138889</v>
+        <v>45953.095925925925</v>
       </c>
       <c r="D24" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C25" s="9">
-        <v>45952.059756944444</v>
+        <v>45953.419398148151</v>
       </c>
       <c r="D25" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C26" s="9">
-        <v>45952.066192129627</v>
+        <v>45953.442037037035</v>
       </c>
       <c r="D26" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C27" s="9">
-        <v>45952.110937500001</v>
+        <v>45953.462395833332</v>
       </c>
       <c r="D27" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C28" s="9">
-        <v>45952.248090277775</v>
+        <v>45953.530497685184</v>
       </c>
       <c r="D28" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E28" s="10"/>
     </row>
@@ -1091,58 +1088,58 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C29" s="9">
-        <v>45952.248715277776</v>
+        <v>45953.537476851852</v>
       </c>
       <c r="D29" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="9">
-        <v>45952.250949074078</v>
+        <v>45953.55028935185</v>
       </c>
       <c r="D30" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" s="9">
-        <v>45952.303078703706</v>
+        <v>45953.566435185188</v>
       </c>
       <c r="D31" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C32" s="9">
-        <v>45952.398726851854</v>
+        <v>45953.571631944447</v>
       </c>
       <c r="D32" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E32" s="10"/>
     </row>
@@ -1151,28 +1148,28 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C33" s="9">
-        <v>45952.478333333333</v>
+        <v>45953.573182870372</v>
       </c>
       <c r="D33" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C34" s="9">
-        <v>45952.525138888886</v>
+        <v>45953.576909722222</v>
       </c>
       <c r="D34" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E34" s="10"/>
     </row>
@@ -1181,13 +1178,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C35" s="9">
-        <v>45952.540023148147</v>
+        <v>45953.582384259258</v>
       </c>
       <c r="D35" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E35" s="10"/>
     </row>
@@ -1196,28 +1193,28 @@
         <v>39</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="9">
-        <v>45952.551782407405</v>
+        <v>45953.582916666666</v>
       </c>
       <c r="D36" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C37" s="9">
-        <v>45952.557546296295</v>
+        <v>45953.589212962965</v>
       </c>
       <c r="D37" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E37" s="10"/>
     </row>
@@ -1226,73 +1223,73 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C38" s="9">
-        <v>45952.564340277779</v>
+        <v>45953.611875000002</v>
       </c>
       <c r="D38" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C39" s="9">
-        <v>45952.571180555555</v>
+        <v>45953.612025462964</v>
       </c>
       <c r="D39" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40" s="9">
-        <v>45952.577430555553</v>
+        <v>45953.622835648152</v>
       </c>
       <c r="D40" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C41" s="9">
-        <v>45952.582638888889</v>
+        <v>45953.670243055552</v>
       </c>
       <c r="D41" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C42" s="15">
-        <v>45952.585428240738</v>
+        <v>45953.681875000002</v>
       </c>
       <c r="D42" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E42" s="16"/>
     </row>
@@ -1301,28 +1298,28 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C43" s="9">
-        <v>45952.625532407408</v>
+        <v>45953.692916666667</v>
       </c>
       <c r="D43" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="9">
-        <v>45952.627812500003</v>
+        <v>45953.703912037039</v>
       </c>
       <c r="D44" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E44" s="10"/>
     </row>
@@ -1334,25 +1331,25 @@
         <v>67</v>
       </c>
       <c r="C45" s="9">
-        <v>45952.653726851851</v>
+        <v>45953.720821759256</v>
       </c>
       <c r="D45" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C46" s="9">
-        <v>45952.658252314817</v>
+        <v>45953.769872685189</v>
       </c>
       <c r="D46" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E46" s="10"/>
     </row>
@@ -1364,10 +1361,10 @@
         <v>68</v>
       </c>
       <c r="C47" s="9">
-        <v>45952.670949074076</v>
+        <v>45953.773958333331</v>
       </c>
       <c r="D47" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E47" s="10"/>
     </row>
@@ -1376,89 +1373,49 @@
         <v>39</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="9">
-        <v>45952.672708333332</v>
+        <v>45953.799641203703</v>
       </c>
       <c r="D48" s="9">
-        <v>45953.287164351852</v>
+        <v>45954.311736111114</v>
       </c>
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="9">
-        <v>45952.681574074071</v>
-      </c>
-      <c r="D49" s="9">
-        <v>45953.287164351852</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="9">
-        <v>45952.68204861111</v>
-      </c>
-      <c r="D50" s="9">
-        <v>45953.287164351852</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="9">
-        <v>45952.69321759259</v>
-      </c>
-      <c r="D51" s="9">
-        <v>45953.287164351852</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="9">
-        <v>45952.695925925924</v>
-      </c>
-      <c r="D52" s="9">
-        <v>45953.287164351852</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="9">
-        <v>45952.780150462961</v>
-      </c>
-      <c r="D53" s="9">
-        <v>45953.287164351852</v>
-      </c>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>电站名称</t>
   </si>
@@ -145,85 +145,70 @@
     <t>603号直流</t>
   </si>
   <si>
-    <t>903号直流</t>
-  </si>
-  <si>
-    <t>202号直流</t>
-  </si>
-  <si>
     <t>102号直流</t>
   </si>
   <si>
     <t>103号直流</t>
   </si>
   <si>
-    <t>602号直流</t>
-  </si>
-  <si>
     <t>502号直流</t>
   </si>
   <si>
     <t>904号直流</t>
   </si>
   <si>
-    <t>206号直流</t>
-  </si>
-  <si>
     <t>208号直流</t>
   </si>
   <si>
     <t>702号直流</t>
   </si>
   <si>
-    <t>210号直流</t>
-  </si>
-  <si>
-    <t>A01号直流</t>
-  </si>
-  <si>
     <t>106号直流</t>
   </si>
   <si>
-    <t>503号直流</t>
-  </si>
-  <si>
-    <t>312号直流</t>
-  </si>
-  <si>
-    <t>304号直流</t>
-  </si>
-  <si>
     <t>105号直流</t>
   </si>
   <si>
-    <t>803号直流</t>
-  </si>
-  <si>
-    <t>207号直流</t>
-  </si>
-  <si>
-    <t>203号直流</t>
-  </si>
-  <si>
     <t>505号直流</t>
   </si>
   <si>
-    <t>112号直流</t>
-  </si>
-  <si>
     <t>402号直流</t>
   </si>
   <si>
-    <t>404号直流</t>
-  </si>
-  <si>
     <t>108号直流</t>
   </si>
   <si>
-    <t>211号直流</t>
-  </si>
-  <si>
-    <t>804号直流</t>
+    <t>101号直流</t>
+  </si>
+  <si>
+    <t>705号直流</t>
+  </si>
+  <si>
+    <t>109号直流</t>
+  </si>
+  <si>
+    <t>B04号直流</t>
+  </si>
+  <si>
+    <t>B01号直流</t>
+  </si>
+  <si>
+    <t>004A号直流</t>
+  </si>
+  <si>
+    <t>901号直流</t>
+  </si>
+  <si>
+    <t>201号直流</t>
+  </si>
+  <si>
+    <t>403号直流</t>
+  </si>
+  <si>
+    <t>401号直流</t>
+  </si>
+  <si>
+    <t>604号直流</t>
   </si>
 </sst>
 </file>
@@ -649,7 +634,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -689,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -704,7 +689,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -719,7 +704,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -734,7 +719,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -749,7 +734,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -764,7 +749,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -779,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -794,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -809,7 +794,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -824,7 +809,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -839,7 +824,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -854,7 +839,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -869,7 +854,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -884,7 +869,7 @@
         <v>38</v>
       </c>
       <c r="D15" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -899,7 +884,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -914,7 +899,7 @@
         <v>45927.457337962966</v>
       </c>
       <c r="D17" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -929,7 +914,7 @@
         <v>45950.523645833331</v>
       </c>
       <c r="D18" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E18" s="10"/>
     </row>
@@ -938,133 +923,133 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="9">
         <v>45951.226111111115</v>
       </c>
       <c r="D19" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C20" s="9">
-        <v>45952.248090277775</v>
+        <v>45952.398726851854</v>
       </c>
       <c r="D20" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C21" s="9">
-        <v>45952.398726851854</v>
+        <v>45953.419398148151</v>
       </c>
       <c r="D21" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C22" s="9">
-        <v>45952.478333333333</v>
+        <v>45953.530497685184</v>
       </c>
       <c r="D22" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C23" s="9">
-        <v>45952.625532407408</v>
+        <v>45953.566435185188</v>
       </c>
       <c r="D23" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C24" s="9">
-        <v>45953.095925925925</v>
+        <v>45953.571631944447</v>
       </c>
       <c r="D24" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C25" s="9">
-        <v>45953.419398148151</v>
+        <v>45953.589212962965</v>
       </c>
       <c r="D25" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C26" s="9">
-        <v>45953.442037037035</v>
+        <v>45954.028229166666</v>
       </c>
       <c r="D26" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C27" s="9">
-        <v>45953.462395833332</v>
+        <v>45954.036886574075</v>
       </c>
       <c r="D27" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -1073,13 +1058,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C28" s="9">
-        <v>45953.530497685184</v>
+        <v>45954.071608796294</v>
       </c>
       <c r="D28" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E28" s="10"/>
     </row>
@@ -1088,43 +1073,43 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C29" s="9">
-        <v>45953.537476851852</v>
+        <v>45954.245150462964</v>
       </c>
       <c r="D29" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C30" s="9">
-        <v>45953.55028935185</v>
+        <v>45954.274085648147</v>
       </c>
       <c r="D30" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C31" s="9">
-        <v>45953.566435185188</v>
+        <v>45954.323449074072</v>
       </c>
       <c r="D31" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E31" s="10"/>
     </row>
@@ -1133,13 +1118,13 @@
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C32" s="9">
-        <v>45953.571631944447</v>
+        <v>45954.460833333331</v>
       </c>
       <c r="D32" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E32" s="10"/>
     </row>
@@ -1148,13 +1133,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C33" s="9">
-        <v>45953.573182870372</v>
+        <v>45954.481504629628</v>
       </c>
       <c r="D33" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E33" s="10"/>
     </row>
@@ -1163,28 +1148,28 @@
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C34" s="9">
-        <v>45953.576909722222</v>
+        <v>45954.539525462962</v>
       </c>
       <c r="D34" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C35" s="9">
-        <v>45953.582384259258</v>
+        <v>45954.540092592593</v>
       </c>
       <c r="D35" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E35" s="10"/>
     </row>
@@ -1193,28 +1178,28 @@
         <v>39</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C36" s="9">
-        <v>45953.582916666666</v>
+        <v>45954.572337962964</v>
       </c>
       <c r="D36" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C37" s="9">
-        <v>45953.589212962965</v>
+        <v>45954.573819444442</v>
       </c>
       <c r="D37" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E37" s="10"/>
     </row>
@@ -1223,28 +1208,28 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C38" s="9">
-        <v>45953.611875000002</v>
+        <v>45954.574155092596</v>
       </c>
       <c r="D38" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C39" s="9">
-        <v>45953.612025462964</v>
+        <v>45954.582071759258</v>
       </c>
       <c r="D39" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E39" s="10"/>
     </row>
@@ -1253,134 +1238,110 @@
         <v>3</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C40" s="9">
-        <v>45953.622835648152</v>
+        <v>45954.583055555559</v>
       </c>
       <c r="D40" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C41" s="9">
-        <v>45953.670243055552</v>
+        <v>45954.607268518521</v>
       </c>
       <c r="D41" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C42" s="15">
-        <v>45953.681875000002</v>
+        <v>45954.725763888891</v>
       </c>
       <c r="D42" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C43" s="9">
-        <v>45953.692916666667</v>
+        <v>45954.741076388891</v>
       </c>
       <c r="D43" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C44" s="9">
-        <v>45953.703912037039</v>
+        <v>45954.747997685183</v>
       </c>
       <c r="D44" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C45" s="9">
-        <v>45953.720821759256</v>
+        <v>45954.77103009259</v>
       </c>
       <c r="D45" s="9">
-        <v>45954.311736111114</v>
+        <v>45955.313148148147</v>
       </c>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="9">
-        <v>45953.769872685189</v>
-      </c>
-      <c r="D46" s="9">
-        <v>45954.311736111114</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="9">
-        <v>45953.773958333331</v>
-      </c>
-      <c r="D47" s="9">
-        <v>45954.311736111114</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="9">
-        <v>45953.799641203703</v>
-      </c>
-      <c r="D48" s="9">
-        <v>45954.311736111114</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -634,7 +634,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t>电站名称</t>
   </si>
@@ -157,12 +157,6 @@
     <t>904号直流</t>
   </si>
   <si>
-    <t>208号直流</t>
-  </si>
-  <si>
-    <t>702号直流</t>
-  </si>
-  <si>
     <t>106号直流</t>
   </si>
   <si>
@@ -172,43 +166,73 @@
     <t>505号直流</t>
   </si>
   <si>
-    <t>402号直流</t>
-  </si>
-  <si>
     <t>108号直流</t>
   </si>
   <si>
     <t>101号直流</t>
   </si>
   <si>
-    <t>705号直流</t>
-  </si>
-  <si>
     <t>109号直流</t>
   </si>
   <si>
-    <t>B04号直流</t>
-  </si>
-  <si>
-    <t>B01号直流</t>
-  </si>
-  <si>
     <t>004A号直流</t>
   </si>
   <si>
-    <t>901号直流</t>
-  </si>
-  <si>
     <t>201号直流</t>
   </si>
   <si>
     <t>403号直流</t>
   </si>
   <si>
-    <t>401号直流</t>
-  </si>
-  <si>
     <t>604号直流</t>
+  </si>
+  <si>
+    <t>602号直流</t>
+  </si>
+  <si>
+    <t>002A号直流</t>
+  </si>
+  <si>
+    <t>801号直流</t>
+  </si>
+  <si>
+    <t>202号直流</t>
+  </si>
+  <si>
+    <t>A03号直流</t>
+  </si>
+  <si>
+    <t>802号直流</t>
+  </si>
+  <si>
+    <t>A02号直流</t>
+  </si>
+  <si>
+    <t>804号直流</t>
+  </si>
+  <si>
+    <t>903号直流</t>
+  </si>
+  <si>
+    <t>210号直流</t>
+  </si>
+  <si>
+    <t>303号直流</t>
+  </si>
+  <si>
+    <t>307号直流</t>
+  </si>
+  <si>
+    <t>803号直流</t>
+  </si>
+  <si>
+    <t>207号直流</t>
+  </si>
+  <si>
+    <t>905号直流</t>
+  </si>
+  <si>
+    <t>107号直流</t>
   </si>
 </sst>
 </file>
@@ -633,8 +657,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -674,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -689,7 +713,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -704,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -719,7 +743,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -734,7 +758,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -749,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -764,7 +788,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -779,7 +803,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -794,7 +818,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -809,7 +833,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -824,7 +848,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -839,7 +863,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -854,7 +878,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -869,7 +893,7 @@
         <v>38</v>
       </c>
       <c r="D15" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -884,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -899,7 +923,7 @@
         <v>45927.457337962966</v>
       </c>
       <c r="D17" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -914,52 +938,52 @@
         <v>45950.523645833331</v>
       </c>
       <c r="D18" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" s="9">
-        <v>45951.226111111115</v>
+        <v>45952.398726851854</v>
       </c>
       <c r="D19" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="9">
-        <v>45952.398726851854</v>
+        <v>45953.530497685184</v>
       </c>
       <c r="D20" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C21" s="9">
-        <v>45953.419398148151</v>
+        <v>45954.028229166666</v>
       </c>
       <c r="D21" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E21" s="10"/>
     </row>
@@ -968,28 +992,28 @@
         <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C22" s="9">
-        <v>45953.530497685184</v>
+        <v>45954.540092592593</v>
       </c>
       <c r="D22" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C23" s="9">
-        <v>45953.566435185188</v>
+        <v>45954.583055555559</v>
       </c>
       <c r="D23" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E23" s="10"/>
     </row>
@@ -998,13 +1022,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C24" s="9">
-        <v>45953.571631944447</v>
+        <v>45955.051435185182</v>
       </c>
       <c r="D24" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E24" s="10"/>
     </row>
@@ -1013,43 +1037,43 @@
         <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C25" s="9">
-        <v>45953.589212962965</v>
+        <v>45955.065555555557</v>
       </c>
       <c r="D25" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="9">
-        <v>45954.028229166666</v>
+        <v>45955.164687500001</v>
       </c>
       <c r="D26" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C27" s="9">
-        <v>45954.036886574075</v>
+        <v>45955.221736111111</v>
       </c>
       <c r="D27" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -1058,13 +1082,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C28" s="9">
-        <v>45954.071608796294</v>
+        <v>45955.530023148145</v>
       </c>
       <c r="D28" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E28" s="10"/>
     </row>
@@ -1073,73 +1097,73 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="9">
-        <v>45954.245150462964</v>
+        <v>45955.540902777779</v>
       </c>
       <c r="D29" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C30" s="9">
-        <v>45954.274085648147</v>
+        <v>45955.544745370367</v>
       </c>
       <c r="D30" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C31" s="9">
-        <v>45954.323449074072</v>
+        <v>45955.551828703705</v>
       </c>
       <c r="D31" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C32" s="9">
-        <v>45954.460833333331</v>
+        <v>45955.55228009259</v>
       </c>
       <c r="D32" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C33" s="9">
-        <v>45954.481504629628</v>
+        <v>45955.556898148148</v>
       </c>
       <c r="D33" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E33" s="10"/>
     </row>
@@ -1148,43 +1172,43 @@
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="9">
-        <v>45954.539525462962</v>
+        <v>45955.558877314812</v>
       </c>
       <c r="D34" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C35" s="9">
-        <v>45954.540092592593</v>
+        <v>45955.568888888891</v>
       </c>
       <c r="D35" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C36" s="9">
-        <v>45954.572337962964</v>
+        <v>45955.569918981484</v>
       </c>
       <c r="D36" s="9">
-        <v>45955.313148148147</v>
+        <v>45956.323657407411</v>
       </c>
       <c r="E36" s="10"/>
     </row>
@@ -1193,169 +1217,209 @@
         <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="9">
-        <v>45954.573819444442</v>
+        <v>45955.585023148145</v>
       </c>